--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J594"/>
+  <dimension ref="A1:J595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J72" s="2">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J185" s="2">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J199" s="2">
@@ -18481,31 +18481,31 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C478">
-        <v>628488</v>
+        <v>385599</v>
       </c>
       <c r="D478">
-        <v>113127.84</v>
+        <v>70761.44</v>
       </c>
       <c r="E478">
-        <v>741616</v>
+        <v>455005.9</v>
       </c>
       <c r="F478">
-        <v>99.75999999999999</v>
+        <v>97.62</v>
       </c>
       <c r="G478">
-        <v>6300.000000000001</v>
+        <v>3950</v>
       </c>
       <c r="H478">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I478" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -18528,26 +18528,26 @@
         </is>
       </c>
       <c r="C479">
-        <v>385599</v>
+        <v>728156</v>
       </c>
       <c r="D479">
-        <v>70761.44</v>
+        <v>131068.08</v>
       </c>
       <c r="E479">
-        <v>455005.9</v>
+        <v>859224</v>
       </c>
       <c r="F479">
-        <v>97.62</v>
+        <v>95.81</v>
       </c>
       <c r="G479">
-        <v>3950</v>
+        <v>7600</v>
       </c>
       <c r="H479">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J479" s="2">
@@ -18557,7 +18557,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -18566,22 +18566,22 @@
         </is>
       </c>
       <c r="C480">
-        <v>728156</v>
+        <v>27993</v>
       </c>
       <c r="D480">
-        <v>131068.08</v>
+        <v>2038.96</v>
       </c>
       <c r="E480">
-        <v>859224</v>
+        <v>30486.7</v>
       </c>
       <c r="F480">
-        <v>95.81</v>
+        <v>93.31</v>
       </c>
       <c r="G480">
-        <v>7600</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="H480">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I480" t="inlineStr">
         <is>
@@ -18595,35 +18595,35 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C481">
-        <v>27993</v>
+        <v>667012.5</v>
       </c>
       <c r="D481">
-        <v>2038.96</v>
+        <v>120062.25</v>
       </c>
       <c r="E481">
-        <v>30486.7</v>
+        <v>787075</v>
       </c>
       <c r="F481">
-        <v>93.31</v>
+        <v>90.75</v>
       </c>
       <c r="G481">
-        <v>300.0000000000001</v>
+        <v>7350</v>
       </c>
       <c r="H481">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J481" s="2">
@@ -18633,7 +18633,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -18642,26 +18642,26 @@
         </is>
       </c>
       <c r="C482">
-        <v>667012.5</v>
+        <v>436232</v>
       </c>
       <c r="D482">
-        <v>120062.25</v>
+        <v>78521.76000000001</v>
       </c>
       <c r="E482">
-        <v>787075</v>
+        <v>514754</v>
       </c>
       <c r="F482">
-        <v>90.75</v>
+        <v>70.36</v>
       </c>
       <c r="G482">
-        <v>7350</v>
+        <v>6200</v>
       </c>
       <c r="H482">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J482" s="2">
@@ -18671,7 +18671,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -18680,26 +18680,26 @@
         </is>
       </c>
       <c r="C483">
-        <v>436232</v>
+        <v>429569.5</v>
       </c>
       <c r="D483">
-        <v>78521.76000000001</v>
+        <v>77322.50999999999</v>
       </c>
       <c r="E483">
-        <v>514754</v>
+        <v>506892</v>
       </c>
       <c r="F483">
-        <v>70.36</v>
+        <v>66.8</v>
       </c>
       <c r="G483">
-        <v>6200</v>
+        <v>6430.681137724551</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J483" s="2">
@@ -18709,7 +18709,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -18718,26 +18718,26 @@
         </is>
       </c>
       <c r="C484">
-        <v>429569.5</v>
+        <v>409500</v>
       </c>
       <c r="D484">
-        <v>77322.50999999999</v>
+        <v>73710</v>
       </c>
       <c r="E484">
-        <v>506892</v>
+        <v>483210</v>
       </c>
       <c r="F484">
-        <v>66.8</v>
+        <v>65</v>
       </c>
       <c r="G484">
-        <v>6430.681137724551</v>
+        <v>6300</v>
       </c>
       <c r="H484">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J484" s="2">
@@ -18747,7 +18747,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -18756,26 +18756,26 @@
         </is>
       </c>
       <c r="C485">
-        <v>409500</v>
+        <v>394380</v>
       </c>
       <c r="D485">
-        <v>73710</v>
+        <v>70988.39999999999</v>
       </c>
       <c r="E485">
-        <v>483210</v>
+        <v>465369</v>
       </c>
       <c r="F485">
-        <v>65</v>
+        <v>62.6</v>
       </c>
       <c r="G485">
         <v>6300</v>
       </c>
       <c r="H485">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J485" s="2">
@@ -19127,7 +19127,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Minar Alloys And Forging Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -19136,26 +19136,26 @@
         </is>
       </c>
       <c r="C495">
-        <v>226238</v>
+        <v>234108</v>
       </c>
       <c r="D495">
-        <v>40722.84</v>
+        <v>42139.44</v>
       </c>
       <c r="E495">
-        <v>266960</v>
+        <v>276247</v>
       </c>
       <c r="F495">
-        <v>36.48999999999999</v>
+        <v>37.16</v>
       </c>
       <c r="G495">
-        <v>6200.000000000001</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J495" s="2">
@@ -19165,7 +19165,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Minar Alloys And Forging Pvt Ltd</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -19174,26 +19174,26 @@
         </is>
       </c>
       <c r="C496">
-        <v>231619.5</v>
+        <v>226238</v>
       </c>
       <c r="D496">
-        <v>41691.51</v>
+        <v>40722.84</v>
       </c>
       <c r="E496">
-        <v>273311</v>
+        <v>266960</v>
       </c>
       <c r="F496">
-        <v>35.91</v>
+        <v>36.48999999999999</v>
       </c>
       <c r="G496">
-        <v>6450.000000000001</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H496">
         <v>2</v>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J496" s="2">
@@ -19203,35 +19203,35 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C497">
-        <v>324760</v>
+        <v>231619.5</v>
       </c>
       <c r="D497">
-        <v>58456.8</v>
+        <v>41691.51</v>
       </c>
       <c r="E497">
-        <v>383217</v>
+        <v>273311</v>
       </c>
       <c r="F497">
-        <v>35.3</v>
+        <v>35.91</v>
       </c>
       <c r="G497">
-        <v>9200</v>
+        <v>6450.000000000001</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J497" s="2">
@@ -19241,35 +19241,35 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C498">
-        <v>225943.5</v>
+        <v>324760</v>
       </c>
       <c r="D498">
-        <v>40669.83</v>
+        <v>58456.8</v>
       </c>
       <c r="E498">
-        <v>266613</v>
+        <v>383217</v>
       </c>
       <c r="F498">
-        <v>35.03</v>
+        <v>35.3</v>
       </c>
       <c r="G498">
-        <v>6450</v>
+        <v>9200</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J498" s="2">
@@ -19279,7 +19279,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Dindigul Steel Rolling Mills Pvt Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -19288,26 +19288,26 @@
         </is>
       </c>
       <c r="C499">
-        <v>194040</v>
+        <v>225943.5</v>
       </c>
       <c r="D499">
-        <v>34927.2</v>
+        <v>40669.83</v>
       </c>
       <c r="E499">
-        <v>228967.2</v>
+        <v>266613</v>
       </c>
       <c r="F499">
-        <v>30.8</v>
+        <v>35.03</v>
       </c>
       <c r="G499">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J499" s="2">
@@ -19317,7 +19317,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SFR STEELS PRIVATE LIMITED</t>
+          <t>Dindigul Steel Rolling Mills Pvt Ltd</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -19326,16 +19326,16 @@
         </is>
       </c>
       <c r="C500">
-        <v>193284</v>
+        <v>194040</v>
       </c>
       <c r="D500">
-        <v>34791.12</v>
+        <v>34927.2</v>
       </c>
       <c r="E500">
-        <v>228075.12</v>
+        <v>228967.2</v>
       </c>
       <c r="F500">
-        <v>30.68</v>
+        <v>30.8</v>
       </c>
       <c r="G500">
         <v>6300</v>
@@ -19355,7 +19355,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>SFR STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -19364,19 +19364,19 @@
         </is>
       </c>
       <c r="C501">
-        <v>194880</v>
+        <v>193284</v>
       </c>
       <c r="D501">
-        <v>35078.4</v>
+        <v>34791.12</v>
       </c>
       <c r="E501">
-        <v>229958</v>
+        <v>228075.12</v>
       </c>
       <c r="F501">
-        <v>30.45</v>
+        <v>30.68</v>
       </c>
       <c r="G501">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H501">
         <v>1</v>
@@ -19393,7 +19393,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Minar Castings Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -19402,22 +19402,22 @@
         </is>
       </c>
       <c r="C502">
-        <v>188604</v>
+        <v>194880</v>
       </c>
       <c r="D502">
-        <v>33948.72</v>
+        <v>35078.4</v>
       </c>
       <c r="E502">
-        <v>222553</v>
+        <v>229958</v>
       </c>
       <c r="F502">
-        <v>30.42</v>
+        <v>30.45</v>
       </c>
       <c r="G502">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>South Malabar Steels &amp; Alloys Pvt Ltd</t>
+          <t>Minar Castings Pvt Ltd</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -19440,26 +19440,26 @@
         </is>
       </c>
       <c r="C503">
-        <v>191268</v>
+        <v>188604</v>
       </c>
       <c r="D503">
-        <v>34428.24</v>
+        <v>33948.72</v>
       </c>
       <c r="E503">
-        <v>225696</v>
+        <v>222553</v>
       </c>
       <c r="F503">
-        <v>30.36</v>
+        <v>30.42</v>
       </c>
       <c r="G503">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J503" s="2">
@@ -19469,7 +19469,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>South Malabar Steels &amp; Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -19478,16 +19478,16 @@
         </is>
       </c>
       <c r="C504">
-        <v>190512</v>
+        <v>191268</v>
       </c>
       <c r="D504">
-        <v>34292.16</v>
+        <v>34428.24</v>
       </c>
       <c r="E504">
-        <v>224804</v>
+        <v>225696</v>
       </c>
       <c r="F504">
-        <v>30.24</v>
+        <v>30.36</v>
       </c>
       <c r="G504">
         <v>6300</v>
@@ -19507,7 +19507,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -19516,26 +19516,26 @@
         </is>
       </c>
       <c r="C505">
-        <v>216216</v>
+        <v>190512</v>
       </c>
       <c r="D505">
-        <v>38918.88</v>
+        <v>34292.16</v>
       </c>
       <c r="E505">
-        <v>255135</v>
+        <v>224804</v>
       </c>
       <c r="F505">
-        <v>30.03</v>
+        <v>30.24</v>
       </c>
       <c r="G505">
-        <v>7200</v>
+        <v>6300</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J505" s="2">
@@ -19545,7 +19545,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>PENINSULA INDUSTRY</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -19554,26 +19554,26 @@
         </is>
       </c>
       <c r="C506">
-        <v>181560.5</v>
+        <v>216216</v>
       </c>
       <c r="D506">
-        <v>32680.89</v>
+        <v>38918.88</v>
       </c>
       <c r="E506">
-        <v>214241</v>
+        <v>255135</v>
       </c>
       <c r="F506">
-        <v>30.01</v>
+        <v>30.03</v>
       </c>
       <c r="G506">
-        <v>6050</v>
+        <v>7200</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J506" s="2">
@@ -19583,7 +19583,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SUMANGALA STEEL PRIVATE LIMITED</t>
+          <t>PENINSULA INDUSTRY</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -19592,19 +19592,19 @@
         </is>
       </c>
       <c r="C507">
-        <v>241580.5</v>
+        <v>181560.5</v>
       </c>
       <c r="D507">
-        <v>43484.49</v>
+        <v>32680.89</v>
       </c>
       <c r="E507">
-        <v>285064.99</v>
+        <v>214241</v>
       </c>
       <c r="F507">
         <v>30.01</v>
       </c>
       <c r="G507">
-        <v>8050</v>
+        <v>6050</v>
       </c>
       <c r="H507">
         <v>1</v>
@@ -19621,7 +19621,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>SUMANGALA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -19630,26 +19630,26 @@
         </is>
       </c>
       <c r="C508">
-        <v>185938</v>
+        <v>241580.5</v>
       </c>
       <c r="D508">
-        <v>219406.84</v>
+        <v>43484.49</v>
       </c>
       <c r="E508">
-        <v>219406.84</v>
+        <v>285064.99</v>
       </c>
       <c r="F508">
-        <v>29.99</v>
+        <v>30.01</v>
       </c>
       <c r="G508">
-        <v>6200</v>
+        <v>8050</v>
       </c>
       <c r="H508">
         <v>1</v>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J508" s="2">
@@ -19659,7 +19659,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -19668,26 +19668,26 @@
         </is>
       </c>
       <c r="C509">
-        <v>179880</v>
+        <v>185938</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>219406.84</v>
       </c>
       <c r="E509">
-        <v>212258.4</v>
+        <v>219406.84</v>
       </c>
       <c r="F509">
-        <v>29.98</v>
+        <v>29.99</v>
       </c>
       <c r="G509">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J509" s="2">
@@ -19697,35 +19697,35 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C510">
-        <v>257312</v>
+        <v>179880</v>
       </c>
       <c r="D510">
-        <v>46316.16</v>
+        <v>0</v>
       </c>
       <c r="E510">
-        <v>303628</v>
+        <v>212258.4</v>
       </c>
       <c r="F510">
-        <v>29.92</v>
+        <v>29.98</v>
       </c>
       <c r="G510">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J510" s="2">
@@ -19735,35 +19735,35 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C511">
-        <v>179738</v>
+        <v>257312</v>
       </c>
       <c r="D511">
-        <v>35212.59</v>
+        <v>46316.16</v>
       </c>
       <c r="E511">
-        <v>212090.84</v>
+        <v>303628</v>
       </c>
       <c r="F511">
-        <v>28.99</v>
+        <v>29.92</v>
       </c>
       <c r="G511">
-        <v>6200</v>
+        <v>8600</v>
       </c>
       <c r="H511">
         <v>1</v>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J511" s="2">
@@ -19773,35 +19773,35 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C512">
-        <v>44066.5</v>
+        <v>179738</v>
       </c>
       <c r="D512">
-        <v>7931.98</v>
+        <v>35212.59</v>
       </c>
       <c r="E512">
-        <v>51998.04</v>
+        <v>212090.84</v>
       </c>
       <c r="F512">
-        <v>28.43</v>
+        <v>28.99</v>
       </c>
       <c r="G512">
-        <v>1550</v>
+        <v>6200</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J512" s="2">
@@ -19811,35 +19811,35 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C513">
-        <v>98100</v>
+        <v>44066.5</v>
       </c>
       <c r="D513">
-        <v>4905</v>
+        <v>7931.98</v>
       </c>
       <c r="E513">
-        <v>103005</v>
+        <v>51998.04</v>
       </c>
       <c r="F513">
-        <v>27.25</v>
+        <v>28.43</v>
       </c>
       <c r="G513">
-        <v>3600</v>
+        <v>1550</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J513" s="2">
@@ -19849,35 +19849,35 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Noble Tech Industries Pvt Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C514">
-        <v>213284.5</v>
+        <v>98100</v>
       </c>
       <c r="D514">
-        <v>38391.21</v>
+        <v>4905</v>
       </c>
       <c r="E514">
-        <v>251676</v>
+        <v>103005</v>
       </c>
       <c r="F514">
-        <v>27.17</v>
+        <v>27.25</v>
       </c>
       <c r="G514">
-        <v>7849.999999999999</v>
+        <v>3600</v>
       </c>
       <c r="H514">
         <v>1</v>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J514" s="2">
@@ -19887,35 +19887,35 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>Noble Tech Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C515">
-        <v>5368</v>
+        <v>213284.5</v>
       </c>
       <c r="D515">
-        <v>268.4</v>
+        <v>38391.21</v>
       </c>
       <c r="E515">
-        <v>5637</v>
+        <v>251676</v>
       </c>
       <c r="F515">
-        <v>26.84</v>
+        <v>27.17</v>
       </c>
       <c r="G515">
-        <v>200</v>
+        <v>7849.999999999999</v>
       </c>
       <c r="H515">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J515" s="2">
@@ -19925,35 +19925,35 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SRI VARAHI CHEMICALS</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C516">
-        <v>79269.5</v>
+        <v>5368</v>
       </c>
       <c r="D516">
-        <v>3963.48</v>
+        <v>268.4</v>
       </c>
       <c r="E516">
-        <v>83233</v>
+        <v>5637</v>
       </c>
       <c r="F516">
-        <v>25.99</v>
+        <v>26.84</v>
       </c>
       <c r="G516">
-        <v>3050</v>
+        <v>200</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J516" s="2">
@@ -19963,35 +19963,35 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>SRI VARAHI CHEMICALS</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C517">
-        <v>169230</v>
+        <v>79269.5</v>
       </c>
       <c r="D517">
-        <v>30461.4</v>
+        <v>3963.48</v>
       </c>
       <c r="E517">
-        <v>199692</v>
+        <v>83233</v>
       </c>
       <c r="F517">
-        <v>25.64</v>
+        <v>25.99</v>
       </c>
       <c r="G517">
-        <v>6600.234009360374</v>
+        <v>3050</v>
       </c>
       <c r="H517">
         <v>1</v>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J517" s="2">
@@ -20001,35 +20001,35 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C518">
-        <v>110521.8</v>
+        <v>169230</v>
       </c>
       <c r="D518">
-        <v>5526.09</v>
+        <v>30461.4</v>
       </c>
       <c r="E518">
-        <v>116048</v>
+        <v>199692</v>
       </c>
       <c r="F518">
-        <v>25.32</v>
+        <v>25.64</v>
       </c>
       <c r="G518">
-        <v>4365</v>
+        <v>6600.234009360374</v>
       </c>
       <c r="H518">
         <v>1</v>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J518" s="2">
@@ -20039,35 +20039,35 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C519">
-        <v>158697</v>
+        <v>110521.8</v>
       </c>
       <c r="D519">
-        <v>28565.46</v>
+        <v>5526.09</v>
       </c>
       <c r="E519">
-        <v>187262</v>
+        <v>116048</v>
       </c>
       <c r="F519">
-        <v>25.19</v>
+        <v>25.32</v>
       </c>
       <c r="G519">
-        <v>6300</v>
+        <v>4365</v>
       </c>
       <c r="H519">
         <v>1</v>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J519" s="2">
@@ -20077,7 +20077,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -20086,16 +20086,16 @@
         </is>
       </c>
       <c r="C520">
-        <v>158067</v>
+        <v>158697</v>
       </c>
       <c r="D520">
-        <v>28452.06</v>
+        <v>28565.46</v>
       </c>
       <c r="E520">
-        <v>186519</v>
+        <v>187262</v>
       </c>
       <c r="F520">
-        <v>25.09</v>
+        <v>25.19</v>
       </c>
       <c r="G520">
         <v>6300</v>
@@ -20115,7 +20115,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Karnataka Silicates</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -20124,26 +20124,26 @@
         </is>
       </c>
       <c r="C521">
-        <v>150240</v>
+        <v>158067</v>
       </c>
       <c r="D521">
-        <v>27043.2</v>
+        <v>28452.06</v>
       </c>
       <c r="E521">
-        <v>177283</v>
+        <v>186519</v>
       </c>
       <c r="F521">
-        <v>25.04</v>
+        <v>25.09</v>
       </c>
       <c r="G521">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H521">
         <v>1</v>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J521" s="2">
@@ -20153,7 +20153,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PVT.LTD</t>
+          <t>Karnataka Silicates</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -20162,26 +20162,26 @@
         </is>
       </c>
       <c r="C522">
-        <v>125674</v>
+        <v>150240</v>
       </c>
       <c r="D522">
-        <v>0</v>
+        <v>27043.2</v>
       </c>
       <c r="E522">
-        <v>148295.32</v>
+        <v>177283</v>
       </c>
       <c r="F522">
-        <v>20.27</v>
+        <v>25.04</v>
       </c>
       <c r="G522">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="H522">
         <v>1</v>
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J522" s="2">
@@ -20196,23 +20196,23 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C523">
-        <v>155620</v>
+        <v>125674</v>
       </c>
       <c r="D523">
-        <v>50632.92</v>
+        <v>0</v>
       </c>
       <c r="E523">
-        <v>183631.6</v>
+        <v>148295.32</v>
       </c>
       <c r="F523">
-        <v>20.08</v>
+        <v>20.27</v>
       </c>
       <c r="G523">
-        <v>7750.000000000001</v>
+        <v>6200</v>
       </c>
       <c r="H523">
         <v>1</v>
@@ -20229,7 +20229,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>ILC IRON &amp; STEEL PVT.LTD</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -20238,26 +20238,26 @@
         </is>
       </c>
       <c r="C524">
-        <v>159556.5</v>
+        <v>155620</v>
       </c>
       <c r="D524">
-        <v>28720.17</v>
+        <v>50632.92</v>
       </c>
       <c r="E524">
-        <v>188277</v>
+        <v>183631.6</v>
       </c>
       <c r="F524">
-        <v>20.07</v>
+        <v>20.08</v>
       </c>
       <c r="G524">
-        <v>7950</v>
+        <v>7750.000000000001</v>
       </c>
       <c r="H524">
         <v>1</v>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J524" s="2">
@@ -20267,35 +20267,35 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C525">
-        <v>54219</v>
+        <v>159556.5</v>
       </c>
       <c r="D525">
-        <v>9759.42</v>
+        <v>28720.17</v>
       </c>
       <c r="E525">
-        <v>63978</v>
+        <v>188277</v>
       </c>
       <c r="F525">
-        <v>16.43</v>
+        <v>20.07</v>
       </c>
       <c r="G525">
-        <v>3300</v>
+        <v>7950</v>
       </c>
       <c r="H525">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J525" s="2">
@@ -20305,35 +20305,35 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C526">
-        <v>93600</v>
+        <v>54219</v>
       </c>
       <c r="D526">
-        <v>16848</v>
+        <v>9759.42</v>
       </c>
       <c r="E526">
-        <v>110448</v>
+        <v>63978</v>
       </c>
       <c r="F526">
-        <v>12</v>
+        <v>16.43</v>
       </c>
       <c r="G526">
-        <v>7800</v>
+        <v>3300</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J526" s="2">
@@ -20343,35 +20343,35 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C527">
-        <v>50052</v>
+        <v>93600</v>
       </c>
       <c r="D527">
-        <v>9009.360000000001</v>
+        <v>16848</v>
       </c>
       <c r="E527">
-        <v>59061</v>
+        <v>110448</v>
       </c>
       <c r="F527">
-        <v>7.76</v>
+        <v>12</v>
       </c>
       <c r="G527">
-        <v>6450</v>
+        <v>7800</v>
       </c>
       <c r="H527">
         <v>1</v>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J527" s="2">
@@ -20381,35 +20381,35 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C528">
-        <v>16966</v>
+        <v>50052</v>
       </c>
       <c r="D528">
-        <v>3053.88</v>
+        <v>9009.360000000001</v>
       </c>
       <c r="E528">
-        <v>20020</v>
+        <v>59061</v>
       </c>
       <c r="F528">
-        <v>4.99</v>
+        <v>7.76</v>
       </c>
       <c r="G528">
-        <v>3400</v>
+        <v>6450</v>
       </c>
       <c r="H528">
         <v>1</v>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J528" s="2">
@@ -20419,28 +20419,28 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C529">
-        <v>31000</v>
+        <v>16966</v>
       </c>
       <c r="D529">
-        <v>5580</v>
+        <v>3053.88</v>
       </c>
       <c r="E529">
-        <v>36580</v>
+        <v>20020</v>
       </c>
       <c r="F529">
-        <v>4.96</v>
+        <v>4.99</v>
       </c>
       <c r="G529">
-        <v>6250</v>
+        <v>3400</v>
       </c>
       <c r="H529">
         <v>1</v>
@@ -20457,28 +20457,28 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C530">
-        <v>7520</v>
+        <v>31000</v>
       </c>
       <c r="D530">
-        <v>0</v>
+        <v>5580</v>
       </c>
       <c r="E530">
-        <v>8873.6</v>
+        <v>36580</v>
       </c>
       <c r="F530">
-        <v>4.7</v>
+        <v>4.96</v>
       </c>
       <c r="G530">
-        <v>1600</v>
+        <v>6250</v>
       </c>
       <c r="H530">
         <v>1</v>
@@ -20495,35 +20495,35 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C531">
-        <v>25730</v>
+        <v>7520</v>
       </c>
       <c r="D531">
-        <v>30361.4</v>
+        <v>0</v>
       </c>
       <c r="E531">
-        <v>30361.4</v>
+        <v>8873.6</v>
       </c>
       <c r="F531">
-        <v>3.32</v>
+        <v>4.7</v>
       </c>
       <c r="G531">
-        <v>7750</v>
+        <v>1600</v>
       </c>
       <c r="H531">
         <v>1</v>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J531" s="2">
@@ -20533,7 +20533,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -20542,19 +20542,19 @@
         </is>
       </c>
       <c r="C532">
-        <v>15887.5</v>
+        <v>25730</v>
       </c>
       <c r="D532">
-        <v>0</v>
+        <v>30361.4</v>
       </c>
       <c r="E532">
-        <v>18747.25</v>
+        <v>30361.4</v>
       </c>
       <c r="F532">
-        <v>2.05</v>
+        <v>3.32</v>
       </c>
       <c r="G532">
-        <v>7750.000000000001</v>
+        <v>7750</v>
       </c>
       <c r="H532">
         <v>1</v>
@@ -20571,73 +20571,73 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C533">
-        <v>1944974</v>
+        <v>15887.5</v>
       </c>
       <c r="D533">
-        <v>350095.32</v>
+        <v>0</v>
       </c>
       <c r="E533">
-        <v>2295070</v>
+        <v>18747.25</v>
       </c>
       <c r="F533">
-        <v>273.94</v>
+        <v>2.05</v>
       </c>
       <c r="G533">
-        <v>7100.000000000001</v>
+        <v>7750.000000000001</v>
       </c>
       <c r="H533">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J533" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C534">
-        <v>1740060</v>
+        <v>1944974</v>
       </c>
       <c r="D534">
-        <v>313210.8</v>
+        <v>350095.32</v>
       </c>
       <c r="E534">
-        <v>2053272</v>
+        <v>2295070</v>
       </c>
       <c r="F534">
-        <v>207.15</v>
+        <v>273.94</v>
       </c>
       <c r="G534">
-        <v>8400</v>
+        <v>7100.000000000001</v>
       </c>
       <c r="H534">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J534" s="2">
@@ -20647,7 +20647,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -20656,26 +20656,26 @@
         </is>
       </c>
       <c r="C535">
-        <v>1031029</v>
+        <v>1740060</v>
       </c>
       <c r="D535">
-        <v>185585.22</v>
+        <v>313210.8</v>
       </c>
       <c r="E535">
-        <v>1216614</v>
+        <v>2053272</v>
       </c>
       <c r="F535">
-        <v>130.51</v>
+        <v>207.15</v>
       </c>
       <c r="G535">
-        <v>7899.999999999999</v>
+        <v>8400</v>
       </c>
       <c r="H535">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J535" s="2">
@@ -20685,31 +20685,31 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C536">
-        <v>889056</v>
+        <v>1031029</v>
       </c>
       <c r="D536">
-        <v>160030.08</v>
+        <v>185585.22</v>
       </c>
       <c r="E536">
-        <v>1049086.5</v>
+        <v>1216614</v>
       </c>
       <c r="F536">
-        <v>120.96</v>
+        <v>130.51</v>
       </c>
       <c r="G536">
-        <v>7350</v>
+        <v>7899.999999999999</v>
       </c>
       <c r="H536">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I536" t="inlineStr">
         <is>
@@ -20723,31 +20723,31 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C537">
-        <v>959803.5</v>
+        <v>889056</v>
       </c>
       <c r="D537">
-        <v>172764.63</v>
+        <v>160030.08</v>
       </c>
       <c r="E537">
-        <v>1132568</v>
+        <v>1049086.5</v>
       </c>
       <c r="F537">
-        <v>120.73</v>
+        <v>120.96</v>
       </c>
       <c r="G537">
-        <v>7949.999999999999</v>
+        <v>7350</v>
       </c>
       <c r="H537">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I537" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -20770,26 +20770,26 @@
         </is>
       </c>
       <c r="C538">
-        <v>905616</v>
+        <v>959803.5</v>
       </c>
       <c r="D538">
-        <v>163010.88</v>
+        <v>172764.63</v>
       </c>
       <c r="E538">
-        <v>1068626</v>
+        <v>1132568</v>
       </c>
       <c r="F538">
-        <v>119.16</v>
+        <v>120.73</v>
       </c>
       <c r="G538">
-        <v>7600</v>
+        <v>7949.999999999999</v>
       </c>
       <c r="H538">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J538" s="2">
@@ -20799,35 +20799,35 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C539">
-        <v>682558</v>
+        <v>905616</v>
       </c>
       <c r="D539">
-        <v>122860.44</v>
+        <v>163010.88</v>
       </c>
       <c r="E539">
-        <v>805419</v>
+        <v>1068626</v>
       </c>
       <c r="F539">
-        <v>110.09</v>
+        <v>119.16</v>
       </c>
       <c r="G539">
-        <v>6200</v>
+        <v>7600</v>
       </c>
       <c r="H539">
         <v>5</v>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J539" s="2">
@@ -20837,35 +20837,35 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>MAHRISHI MELTCHEMS PVT LTD</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Quartz Lumps</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C540">
-        <v>173497.2</v>
+        <v>682558</v>
       </c>
       <c r="D540">
-        <v>8674.860000000001</v>
+        <v>122860.44</v>
       </c>
       <c r="E540">
-        <v>182172</v>
+        <v>805419</v>
       </c>
       <c r="F540">
-        <v>106.44</v>
+        <v>110.09</v>
       </c>
       <c r="G540">
-        <v>1630</v>
+        <v>6200</v>
       </c>
       <c r="H540">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J540" s="2">
@@ -20875,31 +20875,31 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>MAHRISHI MELTCHEMS PVT LTD</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Lumps</t>
         </is>
       </c>
       <c r="C541">
-        <v>662130</v>
+        <v>173497.2</v>
       </c>
       <c r="D541">
-        <v>119183.4</v>
+        <v>8674.860000000001</v>
       </c>
       <c r="E541">
-        <v>781314</v>
+        <v>182172</v>
       </c>
       <c r="F541">
-        <v>105.1</v>
+        <v>106.44</v>
       </c>
       <c r="G541">
-        <v>6300</v>
+        <v>1630</v>
       </c>
       <c r="H541">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I541" t="inlineStr">
         <is>
@@ -21141,31 +21141,31 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C548">
-        <v>224800</v>
+        <v>471303</v>
       </c>
       <c r="D548">
-        <v>40464</v>
+        <v>84834.54000000001</v>
       </c>
       <c r="E548">
-        <v>265264</v>
+        <v>556138</v>
       </c>
       <c r="F548">
-        <v>70.25</v>
+        <v>74.81</v>
       </c>
       <c r="G548">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H548">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I548" t="inlineStr">
         <is>
@@ -21179,31 +21179,31 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C549">
-        <v>201760</v>
+        <v>224800</v>
       </c>
       <c r="D549">
-        <v>32820.3</v>
+        <v>40464</v>
       </c>
       <c r="E549">
-        <v>238076.6</v>
+        <v>265264</v>
       </c>
       <c r="F549">
-        <v>62.08</v>
+        <v>70.25</v>
       </c>
       <c r="G549">
-        <v>3250</v>
+        <v>3200</v>
       </c>
       <c r="H549">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I549" t="inlineStr">
         <is>
@@ -21217,31 +21217,31 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C550">
-        <v>484586</v>
+        <v>201760</v>
       </c>
       <c r="D550">
-        <v>87225.48</v>
+        <v>32820.3</v>
       </c>
       <c r="E550">
-        <v>571812.0600000001</v>
+        <v>238076.6</v>
       </c>
       <c r="F550">
-        <v>61.34</v>
+        <v>62.08</v>
       </c>
       <c r="G550">
-        <v>7900</v>
+        <v>3250</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I550" t="inlineStr">
         <is>
@@ -21255,35 +21255,35 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C551">
-        <v>393837</v>
+        <v>484586</v>
       </c>
       <c r="D551">
-        <v>70890.66</v>
+        <v>87225.48</v>
       </c>
       <c r="E551">
-        <v>464728</v>
+        <v>571812.0600000001</v>
       </c>
       <c r="F551">
-        <v>61.06</v>
+        <v>61.34</v>
       </c>
       <c r="G551">
-        <v>6450</v>
+        <v>7900</v>
       </c>
       <c r="H551">
         <v>2</v>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J551" s="2">
@@ -21293,35 +21293,35 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C552">
-        <v>470366</v>
+        <v>393837</v>
       </c>
       <c r="D552">
-        <v>84665.88</v>
+        <v>70890.66</v>
       </c>
       <c r="E552">
-        <v>555032</v>
+        <v>464728</v>
       </c>
       <c r="F552">
-        <v>59.54</v>
+        <v>61.06</v>
       </c>
       <c r="G552">
-        <v>7900</v>
+        <v>6450</v>
       </c>
       <c r="H552">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J552" s="2">
@@ -21331,35 +21331,35 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C553">
-        <v>420535</v>
+        <v>470366</v>
       </c>
       <c r="D553">
-        <v>75696.3</v>
+        <v>84665.88</v>
       </c>
       <c r="E553">
-        <v>496231.31</v>
+        <v>555032</v>
       </c>
       <c r="F553">
-        <v>55.7</v>
+        <v>59.54</v>
       </c>
       <c r="G553">
-        <v>7550.000000000001</v>
+        <v>7900</v>
       </c>
       <c r="H553">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J553" s="2">
@@ -21369,7 +21369,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -21378,26 +21378,26 @@
         </is>
       </c>
       <c r="C554">
-        <v>357975</v>
+        <v>420535</v>
       </c>
       <c r="D554">
-        <v>64435.5</v>
+        <v>75696.3</v>
       </c>
       <c r="E554">
-        <v>422411</v>
+        <v>496231.31</v>
       </c>
       <c r="F554">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="G554">
-        <v>6450</v>
+        <v>7550.000000000001</v>
       </c>
       <c r="H554">
         <v>3</v>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J554" s="2">
@@ -21407,7 +21407,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -21416,26 +21416,26 @@
         </is>
       </c>
       <c r="C555">
-        <v>348642</v>
+        <v>357975</v>
       </c>
       <c r="D555">
-        <v>62755.56</v>
+        <v>64435.5</v>
       </c>
       <c r="E555">
-        <v>411398</v>
+        <v>422411</v>
       </c>
       <c r="F555">
-        <v>55.34</v>
+        <v>55.5</v>
       </c>
       <c r="G555">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H555">
         <v>3</v>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J555" s="2">
@@ -21445,7 +21445,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -21454,26 +21454,26 @@
         </is>
       </c>
       <c r="C556">
-        <v>351936</v>
+        <v>348642</v>
       </c>
       <c r="D556">
-        <v>63348.48</v>
+        <v>62755.56</v>
       </c>
       <c r="E556">
-        <v>415284</v>
+        <v>411398</v>
       </c>
       <c r="F556">
-        <v>54.99</v>
+        <v>55.34</v>
       </c>
       <c r="G556">
-        <v>6399.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H556">
         <v>3</v>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J556" s="2">
@@ -21483,7 +21483,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -21492,26 +21492,26 @@
         </is>
       </c>
       <c r="C557">
-        <v>409125</v>
+        <v>351936</v>
       </c>
       <c r="D557">
-        <v>73642.5</v>
+        <v>63348.48</v>
       </c>
       <c r="E557">
-        <v>482768</v>
+        <v>415284</v>
       </c>
       <c r="F557">
-        <v>54.55</v>
+        <v>54.99</v>
       </c>
       <c r="G557">
-        <v>7500</v>
+        <v>6399.999999999999</v>
       </c>
       <c r="H557">
         <v>3</v>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J557" s="2">
@@ -21521,35 +21521,35 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C558">
-        <v>443846</v>
+        <v>409125</v>
       </c>
       <c r="D558">
-        <v>79892.28</v>
+        <v>73642.5</v>
       </c>
       <c r="E558">
-        <v>523739</v>
+        <v>482768</v>
       </c>
       <c r="F558">
-        <v>51.61</v>
+        <v>54.55</v>
       </c>
       <c r="G558">
-        <v>8600</v>
+        <v>7500</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J558" s="2">
@@ -21559,7 +21559,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -21568,26 +21568,26 @@
         </is>
       </c>
       <c r="C559">
-        <v>351234</v>
+        <v>443846</v>
       </c>
       <c r="D559">
-        <v>79227.72</v>
+        <v>79892.28</v>
       </c>
       <c r="E559">
-        <v>414455.96</v>
+        <v>523739</v>
       </c>
       <c r="F559">
-        <v>45.03</v>
+        <v>51.61</v>
       </c>
       <c r="G559">
-        <v>7800</v>
+        <v>8600</v>
       </c>
       <c r="H559">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J559" s="2">
@@ -21597,35 +21597,35 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C560">
-        <v>119232</v>
+        <v>351234</v>
       </c>
       <c r="D560">
-        <v>21461.76</v>
+        <v>79227.72</v>
       </c>
       <c r="E560">
-        <v>140694</v>
+        <v>414455.96</v>
       </c>
       <c r="F560">
-        <v>37.26</v>
+        <v>45.03</v>
       </c>
       <c r="G560">
-        <v>3200</v>
+        <v>7800</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J560" s="2">
@@ -21635,31 +21635,31 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>A One Steels and Alloys Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C561">
-        <v>221913.5</v>
+        <v>119232</v>
       </c>
       <c r="D561">
-        <v>39944.43</v>
+        <v>21461.76</v>
       </c>
       <c r="E561">
-        <v>261858</v>
+        <v>140694</v>
       </c>
       <c r="F561">
-        <v>31.93</v>
+        <v>37.26</v>
       </c>
       <c r="G561">
-        <v>6950</v>
+        <v>3200</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr">
         <is>
@@ -21673,28 +21673,28 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>A One Steels and Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Quartz Lumps</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C562">
-        <v>50318.1</v>
+        <v>221913.5</v>
       </c>
       <c r="D562">
-        <v>2515.9</v>
+        <v>39944.43</v>
       </c>
       <c r="E562">
-        <v>52834</v>
+        <v>261858</v>
       </c>
       <c r="F562">
-        <v>30.87</v>
+        <v>31.93</v>
       </c>
       <c r="G562">
-        <v>1630</v>
+        <v>6950</v>
       </c>
       <c r="H562">
         <v>1</v>
@@ -21711,35 +21711,35 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Arun Vyapar Udyog Private Limited</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Lumps</t>
         </is>
       </c>
       <c r="C563">
-        <v>234702</v>
+        <v>50318.1</v>
       </c>
       <c r="D563">
-        <v>42246.36</v>
+        <v>2515.9</v>
       </c>
       <c r="E563">
-        <v>276948</v>
+        <v>52834</v>
       </c>
       <c r="F563">
-        <v>30.68</v>
+        <v>30.87</v>
       </c>
       <c r="G563">
-        <v>7650</v>
+        <v>1630</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J563" s="2">
@@ -21749,7 +21749,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Arun Vyapar Udyog Private Limited</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -21758,26 +21758,26 @@
         </is>
       </c>
       <c r="C564">
-        <v>192906</v>
+        <v>234702</v>
       </c>
       <c r="D564">
-        <v>34723.08</v>
+        <v>42246.36</v>
       </c>
       <c r="E564">
-        <v>227629</v>
+        <v>276948</v>
       </c>
       <c r="F564">
-        <v>30.62</v>
+        <v>30.68</v>
       </c>
       <c r="G564">
-        <v>6300</v>
+        <v>7650</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J564" s="2">
@@ -21787,7 +21787,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Cheenu Amma Alloy (P) Ltd</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -21796,16 +21796,16 @@
         </is>
       </c>
       <c r="C565">
-        <v>192591</v>
+        <v>192906</v>
       </c>
       <c r="D565">
-        <v>34666.38</v>
+        <v>34723.08</v>
       </c>
       <c r="E565">
-        <v>227257</v>
+        <v>227629</v>
       </c>
       <c r="F565">
-        <v>30.57</v>
+        <v>30.62</v>
       </c>
       <c r="G565">
         <v>6300</v>
@@ -21901,28 +21901,28 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>A One Steels and Alloys Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C568">
-        <v>259720</v>
+        <v>190827</v>
       </c>
       <c r="D568">
-        <v>46749.6</v>
+        <v>34348.86</v>
       </c>
       <c r="E568">
-        <v>306470</v>
+        <v>225176</v>
       </c>
       <c r="F568">
-        <v>30.2</v>
+        <v>30.29</v>
       </c>
       <c r="G568">
-        <v>8600</v>
+        <v>6300</v>
       </c>
       <c r="H568">
         <v>1</v>
@@ -21939,35 +21939,35 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>A One Steels and Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C569">
-        <v>7547.5</v>
+        <v>259720</v>
       </c>
       <c r="D569">
-        <v>377.38</v>
+        <v>46749.6</v>
       </c>
       <c r="E569">
-        <v>7925</v>
+        <v>306470</v>
       </c>
       <c r="F569">
-        <v>30.19</v>
+        <v>30.2</v>
       </c>
       <c r="G569">
-        <v>250</v>
+        <v>8600</v>
       </c>
       <c r="H569">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J569" s="2">
@@ -21977,7 +21977,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -21986,26 +21986,26 @@
         </is>
       </c>
       <c r="C570">
-        <v>193758</v>
+        <v>7547.5</v>
       </c>
       <c r="D570">
-        <v>34876.44</v>
+        <v>377.38</v>
       </c>
       <c r="E570">
-        <v>228634</v>
+        <v>7925</v>
       </c>
       <c r="F570">
-        <v>30.04</v>
+        <v>30.19</v>
       </c>
       <c r="G570">
-        <v>6450</v>
+        <v>250</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J570" s="2">
@@ -22015,7 +22015,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -22024,22 +22024,22 @@
         </is>
       </c>
       <c r="C571">
-        <v>192064</v>
+        <v>193758</v>
       </c>
       <c r="D571">
-        <v>34571.52</v>
+        <v>34876.44</v>
       </c>
       <c r="E571">
-        <v>226636</v>
+        <v>228634</v>
       </c>
       <c r="F571">
-        <v>30.01</v>
+        <v>30.04</v>
       </c>
       <c r="G571">
-        <v>6400</v>
+        <v>6450</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -22062,26 +22062,26 @@
         </is>
       </c>
       <c r="C572">
-        <v>188622</v>
+        <v>192064</v>
       </c>
       <c r="D572">
-        <v>33951.96</v>
+        <v>34571.52</v>
       </c>
       <c r="E572">
-        <v>222574</v>
+        <v>226636</v>
       </c>
       <c r="F572">
-        <v>29.94</v>
+        <v>30.01</v>
       </c>
       <c r="G572">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J572" s="2">
@@ -22091,7 +22091,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Sonal Irons Industry Private Limited</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -22100,26 +22100,26 @@
         </is>
       </c>
       <c r="C573">
-        <v>192855</v>
+        <v>188622</v>
       </c>
       <c r="D573">
-        <v>34713.9</v>
+        <v>33951.96</v>
       </c>
       <c r="E573">
-        <v>227569</v>
+        <v>222574</v>
       </c>
       <c r="F573">
-        <v>29.9</v>
+        <v>29.94</v>
       </c>
       <c r="G573">
-        <v>6450</v>
+        <v>6300</v>
       </c>
       <c r="H573">
         <v>1</v>
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J573" s="2">
@@ -22129,31 +22129,31 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Noble Tech Industries Pvt Ltd</t>
+          <t>Sonal Irons Industry Private Limited</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C574">
-        <v>267750</v>
+        <v>192855</v>
       </c>
       <c r="D574">
-        <v>48195</v>
+        <v>34713.9</v>
       </c>
       <c r="E574">
-        <v>315945</v>
+        <v>227569</v>
       </c>
       <c r="F574">
-        <v>29.75</v>
+        <v>29.9</v>
       </c>
       <c r="G574">
-        <v>9000</v>
+        <v>6450</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I574" t="inlineStr">
         <is>
@@ -22167,35 +22167,35 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Noble Tech Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C575">
-        <v>103880</v>
+        <v>267750</v>
       </c>
       <c r="D575">
-        <v>18698.4</v>
+        <v>48195</v>
       </c>
       <c r="E575">
-        <v>122578</v>
+        <v>315945</v>
       </c>
       <c r="F575">
-        <v>29.68</v>
+        <v>29.75</v>
       </c>
       <c r="G575">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J575" s="2">
@@ -22205,35 +22205,35 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Jai Hind Wire Rod Mills Private Limited</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C576">
-        <v>225492</v>
+        <v>103880</v>
       </c>
       <c r="D576">
-        <v>40588.56</v>
+        <v>18698.4</v>
       </c>
       <c r="E576">
-        <v>266080.8</v>
+        <v>122578</v>
       </c>
       <c r="F576">
-        <v>29.67</v>
+        <v>29.68</v>
       </c>
       <c r="G576">
-        <v>7600</v>
+        <v>3500</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J576" s="2">
@@ -22243,7 +22243,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Jai Hind Wire Rod Mills Private Limited</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -22252,19 +22252,19 @@
         </is>
       </c>
       <c r="C577">
-        <v>165197</v>
+        <v>225492</v>
       </c>
       <c r="D577">
-        <v>29735.46</v>
+        <v>40588.56</v>
       </c>
       <c r="E577">
-        <v>194932.46</v>
+        <v>266080.8</v>
       </c>
       <c r="F577">
-        <v>29.49</v>
+        <v>29.67</v>
       </c>
       <c r="G577">
-        <v>5601.797219396405</v>
+        <v>7600</v>
       </c>
       <c r="H577">
         <v>2</v>
@@ -22281,7 +22281,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power  Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -22290,26 +22290,26 @@
         </is>
       </c>
       <c r="C578">
-        <v>220725</v>
+        <v>165197</v>
       </c>
       <c r="D578">
-        <v>39730.5</v>
+        <v>29735.46</v>
       </c>
       <c r="E578">
-        <v>260456</v>
+        <v>194932.46</v>
       </c>
       <c r="F578">
-        <v>29.43</v>
+        <v>29.49</v>
       </c>
       <c r="G578">
-        <v>7500</v>
+        <v>5601.797219396405</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J578" s="2">
@@ -22319,35 +22319,35 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>Suryadev Alloys &amp; Power  Pvt Ltd</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C579">
-        <v>8715</v>
+        <v>220725</v>
       </c>
       <c r="D579">
-        <v>435.76</v>
+        <v>39730.5</v>
       </c>
       <c r="E579">
-        <v>9151.1</v>
+        <v>260456</v>
       </c>
       <c r="F579">
-        <v>29.05</v>
+        <v>29.43</v>
       </c>
       <c r="G579">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="H579">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J579" s="2">
@@ -22357,35 +22357,35 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C580">
-        <v>179712</v>
+        <v>8715</v>
       </c>
       <c r="D580">
-        <v>32348.16</v>
+        <v>435.76</v>
       </c>
       <c r="E580">
-        <v>212060</v>
+        <v>9151.1</v>
       </c>
       <c r="F580">
-        <v>28.08</v>
+        <v>29.05</v>
       </c>
       <c r="G580">
-        <v>6400</v>
+        <v>300</v>
       </c>
       <c r="H580">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J580" s="2">
@@ -22395,7 +22395,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -22404,26 +22404,26 @@
         </is>
       </c>
       <c r="C581">
-        <v>161343</v>
+        <v>179712</v>
       </c>
       <c r="D581">
-        <v>29041.74</v>
+        <v>32348.16</v>
       </c>
       <c r="E581">
-        <v>190385</v>
+        <v>212060</v>
       </c>
       <c r="F581">
-        <v>25.61</v>
+        <v>28.08</v>
       </c>
       <c r="G581">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J581" s="2">
@@ -22433,7 +22433,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -22442,26 +22442,26 @@
         </is>
       </c>
       <c r="C582">
-        <v>182808</v>
+        <v>161343</v>
       </c>
       <c r="D582">
-        <v>32905.44</v>
+        <v>29041.74</v>
       </c>
       <c r="E582">
-        <v>215713</v>
+        <v>190385</v>
       </c>
       <c r="F582">
-        <v>25.39</v>
+        <v>25.61</v>
       </c>
       <c r="G582">
-        <v>7200</v>
+        <v>6300</v>
       </c>
       <c r="H582">
         <v>1</v>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J582" s="2">
@@ -22471,7 +22471,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -22480,19 +22480,19 @@
         </is>
       </c>
       <c r="C583">
-        <v>149702</v>
+        <v>182808</v>
       </c>
       <c r="D583">
-        <v>26946.36</v>
+        <v>32905.44</v>
       </c>
       <c r="E583">
-        <v>176648</v>
+        <v>215713</v>
       </c>
       <c r="F583">
-        <v>25.16</v>
+        <v>25.39</v>
       </c>
       <c r="G583">
-        <v>5950</v>
+        <v>7200</v>
       </c>
       <c r="H583">
         <v>1</v>
@@ -22509,7 +22509,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SAI KRISHNA STEEL INDUSTRIES</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -22518,26 +22518,26 @@
         </is>
       </c>
       <c r="C584">
-        <v>157941</v>
+        <v>149702</v>
       </c>
       <c r="D584">
-        <v>28429.38</v>
+        <v>26946.36</v>
       </c>
       <c r="E584">
-        <v>186370</v>
+        <v>176648</v>
       </c>
       <c r="F584">
-        <v>25.07</v>
+        <v>25.16</v>
       </c>
       <c r="G584">
-        <v>6300</v>
+        <v>5950</v>
       </c>
       <c r="H584">
         <v>1</v>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J584" s="2">
@@ -22547,28 +22547,28 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>SAI KRISHNA STEEL INDUSTRIES</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C585">
-        <v>96080</v>
+        <v>157941</v>
       </c>
       <c r="D585">
-        <v>0</v>
+        <v>28429.38</v>
       </c>
       <c r="E585">
-        <v>113374.4</v>
+        <v>186370</v>
       </c>
       <c r="F585">
-        <v>24.02</v>
+        <v>25.07</v>
       </c>
       <c r="G585">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="H585">
         <v>1</v>
@@ -22585,31 +22585,31 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C586">
-        <v>158108</v>
+        <v>96080</v>
       </c>
       <c r="D586">
-        <v>28459.44</v>
+        <v>0</v>
       </c>
       <c r="E586">
-        <v>186568.04</v>
+        <v>113374.4</v>
       </c>
       <c r="F586">
-        <v>23.11</v>
+        <v>24.02</v>
       </c>
       <c r="G586">
-        <v>6841.540458675898</v>
+        <v>4000</v>
       </c>
       <c r="H586">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I586" t="inlineStr">
         <is>
@@ -22623,31 +22623,31 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C587">
-        <v>164962.5</v>
+        <v>158108</v>
       </c>
       <c r="D587">
-        <v>29693.25</v>
+        <v>28459.44</v>
       </c>
       <c r="E587">
-        <v>194656</v>
+        <v>186568.04</v>
       </c>
       <c r="F587">
-        <v>20.75</v>
+        <v>23.11</v>
       </c>
       <c r="G587">
-        <v>7950</v>
+        <v>6841.540458675898</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I587" t="inlineStr">
         <is>
@@ -22661,28 +22661,28 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C588">
-        <v>139556</v>
+        <v>164962.5</v>
       </c>
       <c r="D588">
-        <v>50337</v>
+        <v>29693.25</v>
       </c>
       <c r="E588">
-        <v>164676.08</v>
+        <v>194656</v>
       </c>
       <c r="F588">
-        <v>20.08</v>
+        <v>20.75</v>
       </c>
       <c r="G588">
-        <v>6950.000000000001</v>
+        <v>7950</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -22704,23 +22704,23 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C589">
-        <v>140094</v>
+        <v>139556</v>
       </c>
       <c r="D589">
-        <v>0</v>
+        <v>50337</v>
       </c>
       <c r="E589">
-        <v>165310.92</v>
+        <v>164676.08</v>
       </c>
       <c r="F589">
-        <v>16.29</v>
+        <v>20.08</v>
       </c>
       <c r="G589">
-        <v>8600</v>
+        <v>6950.000000000001</v>
       </c>
       <c r="H589">
         <v>1</v>
@@ -22737,35 +22737,35 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C590">
-        <v>88920</v>
+        <v>140094</v>
       </c>
       <c r="D590">
         <v>0</v>
       </c>
       <c r="E590">
-        <v>104925.6</v>
+        <v>165310.92</v>
       </c>
       <c r="F590">
-        <v>14.82</v>
+        <v>16.29</v>
       </c>
       <c r="G590">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="H590">
         <v>1</v>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J590" s="2">
@@ -22775,35 +22775,35 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C591">
-        <v>15965</v>
+        <v>88920</v>
       </c>
       <c r="D591">
-        <v>23664.6</v>
+        <v>0</v>
       </c>
       <c r="E591">
-        <v>18838.7</v>
+        <v>104925.6</v>
       </c>
       <c r="F591">
-        <v>10.3</v>
+        <v>14.82</v>
       </c>
       <c r="G591">
-        <v>1550</v>
+        <v>6000</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J591" s="2">
@@ -22813,7 +22813,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -22822,22 +22822,22 @@
         </is>
       </c>
       <c r="C592">
-        <v>27300</v>
+        <v>15965</v>
       </c>
       <c r="D592">
-        <v>4914</v>
+        <v>23664.6</v>
       </c>
       <c r="E592">
-        <v>32214</v>
+        <v>18838.7</v>
       </c>
       <c r="F592">
-        <v>7.8</v>
+        <v>10.3</v>
       </c>
       <c r="G592">
-        <v>3500</v>
+        <v>1550</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr">
         <is>
@@ -22851,28 +22851,28 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>RDTMT Steels India Pvt Ltd</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C593">
-        <v>32067</v>
+        <v>27300</v>
       </c>
       <c r="D593">
-        <v>5772.06</v>
+        <v>4914</v>
       </c>
       <c r="E593">
-        <v>37839</v>
+        <v>32214</v>
       </c>
       <c r="F593">
-        <v>5.09</v>
+        <v>7.8</v>
       </c>
       <c r="G593">
-        <v>6300</v>
+        <v>3500</v>
       </c>
       <c r="H593">
         <v>1</v>
@@ -22889,38 +22889,76 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
+          <t>RDTMT Steels India Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C594">
+        <v>32067</v>
+      </c>
+      <c r="D594">
+        <v>5772.06</v>
+      </c>
+      <c r="E594">
+        <v>37839</v>
+      </c>
+      <c r="F594">
+        <v>5.09</v>
+      </c>
+      <c r="G594">
+        <v>6300</v>
+      </c>
+      <c r="H594">
+        <v>1</v>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J594" s="2">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
           <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
-      <c r="B594" t="inlineStr">
+      <c r="B595" t="inlineStr">
         <is>
           <t>Nali Top</t>
         </is>
       </c>
-      <c r="C594">
+      <c r="C595">
         <v>7424</v>
       </c>
-      <c r="D594">
+      <c r="D595">
         <v>1336.32</v>
       </c>
-      <c r="E594">
+      <c r="E595">
         <v>8760</v>
       </c>
-      <c r="F594">
+      <c r="F595">
         <v>4.64</v>
       </c>
-      <c r="G594">
+      <c r="G595">
         <v>1600</v>
       </c>
-      <c r="H594">
-        <v>1</v>
-      </c>
-      <c r="I594" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J594" s="2">
+      <c r="H595">
+        <v>1</v>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J595" s="2">
         <v>45017</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J595"/>
+  <dimension ref="A1:J594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,6 +1585,11 @@
       <c r="H32">
         <v>1</v>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
       <c r="J32" s="2">
         <v>44652</v>
       </c>
@@ -1770,6 +1775,11 @@
       <c r="H37">
         <v>1</v>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
       <c r="J37" s="2">
         <v>44652</v>
       </c>
@@ -2487,6 +2497,11 @@
       <c r="H56">
         <v>3</v>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
       <c r="J56" s="2">
         <v>44682</v>
       </c>
@@ -4303,6 +4318,11 @@
       <c r="H104">
         <v>2</v>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
       <c r="J104" s="2">
         <v>44713</v>
       </c>
@@ -21065,35 +21085,35 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C546">
-        <v>645680</v>
+        <v>629850</v>
       </c>
       <c r="D546">
-        <v>116222.4</v>
+        <v>113373</v>
       </c>
       <c r="E546">
-        <v>761902</v>
+        <v>743224</v>
       </c>
       <c r="F546">
-        <v>80.71000000000001</v>
+        <v>83.98</v>
       </c>
       <c r="G546">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="H546">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J546" s="2">
@@ -21103,35 +21123,35 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C547">
-        <v>529970</v>
+        <v>645680</v>
       </c>
       <c r="D547">
-        <v>95394.60000000001</v>
+        <v>116222.4</v>
       </c>
       <c r="E547">
-        <v>625364</v>
+        <v>761902</v>
       </c>
       <c r="F547">
-        <v>75.70999999999999</v>
+        <v>80.71000000000001</v>
       </c>
       <c r="G547">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="H547">
         <v>3</v>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J547" s="2">
@@ -21141,7 +21161,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -21150,26 +21170,26 @@
         </is>
       </c>
       <c r="C548">
-        <v>471303</v>
+        <v>529970</v>
       </c>
       <c r="D548">
-        <v>84834.54000000001</v>
+        <v>95394.60000000001</v>
       </c>
       <c r="E548">
-        <v>556138</v>
+        <v>625364</v>
       </c>
       <c r="F548">
-        <v>74.81</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="G548">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="H548">
         <v>3</v>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J548" s="2">
@@ -21179,31 +21199,31 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C549">
-        <v>224800</v>
+        <v>471303</v>
       </c>
       <c r="D549">
-        <v>40464</v>
+        <v>84834.54000000001</v>
       </c>
       <c r="E549">
-        <v>265264</v>
+        <v>556138</v>
       </c>
       <c r="F549">
-        <v>70.25</v>
+        <v>74.81</v>
       </c>
       <c r="G549">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H549">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I549" t="inlineStr">
         <is>
@@ -21217,31 +21237,31 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C550">
-        <v>201760</v>
+        <v>224800</v>
       </c>
       <c r="D550">
-        <v>32820.3</v>
+        <v>40464</v>
       </c>
       <c r="E550">
-        <v>238076.6</v>
+        <v>265264</v>
       </c>
       <c r="F550">
-        <v>62.08</v>
+        <v>70.25</v>
       </c>
       <c r="G550">
-        <v>3250</v>
+        <v>3200</v>
       </c>
       <c r="H550">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I550" t="inlineStr">
         <is>
@@ -21255,31 +21275,31 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C551">
-        <v>484586</v>
+        <v>201760</v>
       </c>
       <c r="D551">
-        <v>87225.48</v>
+        <v>32820.3</v>
       </c>
       <c r="E551">
-        <v>571812.0600000001</v>
+        <v>238076.6</v>
       </c>
       <c r="F551">
-        <v>61.34</v>
+        <v>62.08</v>
       </c>
       <c r="G551">
-        <v>7900</v>
+        <v>3250</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I551" t="inlineStr">
         <is>
@@ -21293,35 +21313,35 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C552">
-        <v>393837</v>
+        <v>484586</v>
       </c>
       <c r="D552">
-        <v>70890.66</v>
+        <v>87225.48</v>
       </c>
       <c r="E552">
-        <v>464728</v>
+        <v>571812.0600000001</v>
       </c>
       <c r="F552">
-        <v>61.06</v>
+        <v>61.34</v>
       </c>
       <c r="G552">
-        <v>6450</v>
+        <v>7900</v>
       </c>
       <c r="H552">
         <v>2</v>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J552" s="2">
@@ -21331,35 +21351,35 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C553">
-        <v>470366</v>
+        <v>393837</v>
       </c>
       <c r="D553">
-        <v>84665.88</v>
+        <v>70890.66</v>
       </c>
       <c r="E553">
-        <v>555032</v>
+        <v>464728</v>
       </c>
       <c r="F553">
-        <v>59.54</v>
+        <v>61.06</v>
       </c>
       <c r="G553">
-        <v>7900</v>
+        <v>6450</v>
       </c>
       <c r="H553">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J553" s="2">
@@ -21369,35 +21389,35 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C554">
-        <v>420535</v>
+        <v>470366</v>
       </c>
       <c r="D554">
-        <v>75696.3</v>
+        <v>84665.88</v>
       </c>
       <c r="E554">
-        <v>496231.31</v>
+        <v>555032</v>
       </c>
       <c r="F554">
-        <v>55.7</v>
+        <v>59.54</v>
       </c>
       <c r="G554">
-        <v>7550.000000000001</v>
+        <v>7900</v>
       </c>
       <c r="H554">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J554" s="2">
@@ -21407,7 +21427,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -21416,26 +21436,26 @@
         </is>
       </c>
       <c r="C555">
-        <v>357975</v>
+        <v>420535</v>
       </c>
       <c r="D555">
-        <v>64435.5</v>
+        <v>75696.3</v>
       </c>
       <c r="E555">
-        <v>422411</v>
+        <v>496231.31</v>
       </c>
       <c r="F555">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="G555">
-        <v>6450</v>
+        <v>7550.000000000001</v>
       </c>
       <c r="H555">
         <v>3</v>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J555" s="2">
@@ -21445,7 +21465,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -21454,26 +21474,26 @@
         </is>
       </c>
       <c r="C556">
-        <v>348642</v>
+        <v>357975</v>
       </c>
       <c r="D556">
-        <v>62755.56</v>
+        <v>64435.5</v>
       </c>
       <c r="E556">
-        <v>411398</v>
+        <v>422411</v>
       </c>
       <c r="F556">
-        <v>55.34</v>
+        <v>55.5</v>
       </c>
       <c r="G556">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H556">
         <v>3</v>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J556" s="2">
@@ -21483,7 +21503,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -21492,26 +21512,26 @@
         </is>
       </c>
       <c r="C557">
-        <v>351936</v>
+        <v>348642</v>
       </c>
       <c r="D557">
-        <v>63348.48</v>
+        <v>62755.56</v>
       </c>
       <c r="E557">
-        <v>415284</v>
+        <v>411398</v>
       </c>
       <c r="F557">
-        <v>54.99</v>
+        <v>55.34</v>
       </c>
       <c r="G557">
-        <v>6399.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H557">
         <v>3</v>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J557" s="2">
@@ -21521,7 +21541,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -21530,26 +21550,26 @@
         </is>
       </c>
       <c r="C558">
-        <v>409125</v>
+        <v>351936</v>
       </c>
       <c r="D558">
-        <v>73642.5</v>
+        <v>63348.48</v>
       </c>
       <c r="E558">
-        <v>482768</v>
+        <v>415284</v>
       </c>
       <c r="F558">
-        <v>54.55</v>
+        <v>54.99</v>
       </c>
       <c r="G558">
-        <v>7500</v>
+        <v>6399.999999999999</v>
       </c>
       <c r="H558">
         <v>3</v>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J558" s="2">
@@ -22319,35 +22339,35 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power  Pvt Ltd</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C579">
-        <v>220725</v>
+        <v>8715</v>
       </c>
       <c r="D579">
-        <v>39730.5</v>
+        <v>435.76</v>
       </c>
       <c r="E579">
-        <v>260456</v>
+        <v>9151.1</v>
       </c>
       <c r="F579">
-        <v>29.43</v>
+        <v>29.05</v>
       </c>
       <c r="G579">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J579" s="2">
@@ -22357,35 +22377,35 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C580">
-        <v>8715</v>
+        <v>179712</v>
       </c>
       <c r="D580">
-        <v>435.76</v>
+        <v>32348.16</v>
       </c>
       <c r="E580">
-        <v>9151.1</v>
+        <v>212060</v>
       </c>
       <c r="F580">
-        <v>29.05</v>
+        <v>28.08</v>
       </c>
       <c r="G580">
-        <v>300</v>
+        <v>6400</v>
       </c>
       <c r="H580">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J580" s="2">
@@ -22395,7 +22415,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -22404,26 +22424,26 @@
         </is>
       </c>
       <c r="C581">
-        <v>179712</v>
+        <v>161343</v>
       </c>
       <c r="D581">
-        <v>32348.16</v>
+        <v>29041.74</v>
       </c>
       <c r="E581">
-        <v>212060</v>
+        <v>190385</v>
       </c>
       <c r="F581">
-        <v>28.08</v>
+        <v>25.61</v>
       </c>
       <c r="G581">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H581">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J581" s="2">
@@ -22433,7 +22453,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -22442,26 +22462,26 @@
         </is>
       </c>
       <c r="C582">
-        <v>161343</v>
+        <v>182808</v>
       </c>
       <c r="D582">
-        <v>29041.74</v>
+        <v>32905.44</v>
       </c>
       <c r="E582">
-        <v>190385</v>
+        <v>215713</v>
       </c>
       <c r="F582">
-        <v>25.61</v>
+        <v>25.39</v>
       </c>
       <c r="G582">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="H582">
         <v>1</v>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J582" s="2">
@@ -22471,7 +22491,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -22480,19 +22500,19 @@
         </is>
       </c>
       <c r="C583">
-        <v>182808</v>
+        <v>149702</v>
       </c>
       <c r="D583">
-        <v>32905.44</v>
+        <v>26946.36</v>
       </c>
       <c r="E583">
-        <v>215713</v>
+        <v>176648</v>
       </c>
       <c r="F583">
-        <v>25.39</v>
+        <v>25.16</v>
       </c>
       <c r="G583">
-        <v>7200</v>
+        <v>5950</v>
       </c>
       <c r="H583">
         <v>1</v>
@@ -22509,7 +22529,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>SAI KRISHNA STEEL INDUSTRIES</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -22518,26 +22538,26 @@
         </is>
       </c>
       <c r="C584">
-        <v>149702</v>
+        <v>157941</v>
       </c>
       <c r="D584">
-        <v>26946.36</v>
+        <v>28429.38</v>
       </c>
       <c r="E584">
-        <v>176648</v>
+        <v>186370</v>
       </c>
       <c r="F584">
-        <v>25.16</v>
+        <v>25.07</v>
       </c>
       <c r="G584">
-        <v>5950</v>
+        <v>6300</v>
       </c>
       <c r="H584">
         <v>1</v>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J584" s="2">
@@ -22547,28 +22567,28 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>SAI KRISHNA STEEL INDUSTRIES</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C585">
-        <v>157941</v>
+        <v>96080</v>
       </c>
       <c r="D585">
-        <v>28429.38</v>
+        <v>0</v>
       </c>
       <c r="E585">
-        <v>186370</v>
+        <v>113374.4</v>
       </c>
       <c r="F585">
-        <v>25.07</v>
+        <v>24.02</v>
       </c>
       <c r="G585">
-        <v>6300</v>
+        <v>4000</v>
       </c>
       <c r="H585">
         <v>1</v>
@@ -22585,31 +22605,31 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C586">
-        <v>96080</v>
+        <v>158108</v>
       </c>
       <c r="D586">
-        <v>0</v>
+        <v>28459.44</v>
       </c>
       <c r="E586">
-        <v>113374.4</v>
+        <v>186568.04</v>
       </c>
       <c r="F586">
-        <v>24.02</v>
+        <v>23.11</v>
       </c>
       <c r="G586">
-        <v>4000</v>
+        <v>6841.540458675898</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I586" t="inlineStr">
         <is>
@@ -22623,31 +22643,31 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C587">
-        <v>158108</v>
+        <v>164962.5</v>
       </c>
       <c r="D587">
-        <v>28459.44</v>
+        <v>29693.25</v>
       </c>
       <c r="E587">
-        <v>186568.04</v>
+        <v>194656</v>
       </c>
       <c r="F587">
-        <v>23.11</v>
+        <v>20.75</v>
       </c>
       <c r="G587">
-        <v>6841.540458675898</v>
+        <v>7950</v>
       </c>
       <c r="H587">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I587" t="inlineStr">
         <is>
@@ -22661,28 +22681,28 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C588">
-        <v>164962.5</v>
+        <v>139556</v>
       </c>
       <c r="D588">
-        <v>29693.25</v>
+        <v>50337</v>
       </c>
       <c r="E588">
-        <v>194656</v>
+        <v>164676.08</v>
       </c>
       <c r="F588">
-        <v>20.75</v>
+        <v>20.08</v>
       </c>
       <c r="G588">
-        <v>7950</v>
+        <v>6950.000000000001</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -22704,23 +22724,23 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C589">
-        <v>139556</v>
+        <v>140094</v>
       </c>
       <c r="D589">
-        <v>50337</v>
+        <v>0</v>
       </c>
       <c r="E589">
-        <v>164676.08</v>
+        <v>165310.92</v>
       </c>
       <c r="F589">
-        <v>20.08</v>
+        <v>16.29</v>
       </c>
       <c r="G589">
-        <v>6950.000000000001</v>
+        <v>8600</v>
       </c>
       <c r="H589">
         <v>1</v>
@@ -22737,35 +22757,35 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C590">
-        <v>140094</v>
+        <v>88920</v>
       </c>
       <c r="D590">
         <v>0</v>
       </c>
       <c r="E590">
-        <v>165310.92</v>
+        <v>104925.6</v>
       </c>
       <c r="F590">
-        <v>16.29</v>
+        <v>14.82</v>
       </c>
       <c r="G590">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="H590">
         <v>1</v>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J590" s="2">
@@ -22775,35 +22795,35 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C591">
-        <v>88920</v>
+        <v>15965</v>
       </c>
       <c r="D591">
-        <v>0</v>
+        <v>23664.6</v>
       </c>
       <c r="E591">
-        <v>104925.6</v>
+        <v>18838.7</v>
       </c>
       <c r="F591">
-        <v>14.82</v>
+        <v>10.3</v>
       </c>
       <c r="G591">
-        <v>6000</v>
+        <v>1550</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J591" s="2">
@@ -22813,7 +22833,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -22822,22 +22842,22 @@
         </is>
       </c>
       <c r="C592">
-        <v>15965</v>
+        <v>27300</v>
       </c>
       <c r="D592">
-        <v>23664.6</v>
+        <v>4914</v>
       </c>
       <c r="E592">
-        <v>18838.7</v>
+        <v>32214</v>
       </c>
       <c r="F592">
-        <v>10.3</v>
+        <v>7.8</v>
       </c>
       <c r="G592">
-        <v>1550</v>
+        <v>3500</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592" t="inlineStr">
         <is>
@@ -22851,28 +22871,28 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>RDTMT Steels India Pvt Ltd</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C593">
-        <v>27300</v>
+        <v>32067</v>
       </c>
       <c r="D593">
-        <v>4914</v>
+        <v>5772.06</v>
       </c>
       <c r="E593">
-        <v>32214</v>
+        <v>37839</v>
       </c>
       <c r="F593">
-        <v>7.8</v>
+        <v>5.09</v>
       </c>
       <c r="G593">
-        <v>3500</v>
+        <v>6300</v>
       </c>
       <c r="H593">
         <v>1</v>
@@ -22889,28 +22909,28 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>RDTMT Steels India Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C594">
-        <v>32067</v>
+        <v>7424</v>
       </c>
       <c r="D594">
-        <v>5772.06</v>
+        <v>1336.32</v>
       </c>
       <c r="E594">
-        <v>37839</v>
+        <v>8760</v>
       </c>
       <c r="F594">
-        <v>5.09</v>
+        <v>4.64</v>
       </c>
       <c r="G594">
-        <v>6300</v>
+        <v>1600</v>
       </c>
       <c r="H594">
         <v>1</v>
@@ -22921,44 +22941,6 @@
         </is>
       </c>
       <c r="J594" s="2">
-        <v>45017</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>Adishakti Smelters Private Limited</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
-        </is>
-      </c>
-      <c r="C595">
-        <v>7424</v>
-      </c>
-      <c r="D595">
-        <v>1336.32</v>
-      </c>
-      <c r="E595">
-        <v>8760</v>
-      </c>
-      <c r="F595">
-        <v>4.64</v>
-      </c>
-      <c r="G595">
-        <v>1600</v>
-      </c>
-      <c r="H595">
-        <v>1</v>
-      </c>
-      <c r="I595" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J595" s="2">
         <v>45017</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J594"/>
+  <dimension ref="A1:J593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20971,31 +20971,31 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C543">
-        <v>242760</v>
+        <v>536571</v>
       </c>
       <c r="D543">
-        <v>15801.3</v>
+        <v>84834.54000000001</v>
       </c>
       <c r="E543">
-        <v>258561</v>
+        <v>633154.24</v>
       </c>
       <c r="F543">
-        <v>89.25</v>
+        <v>85.17</v>
       </c>
       <c r="G543">
-        <v>2720</v>
+        <v>6300</v>
       </c>
       <c r="H543">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I543" t="inlineStr">
         <is>
@@ -21161,35 +21161,35 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C548">
-        <v>529970</v>
+        <v>214580.8</v>
       </c>
       <c r="D548">
-        <v>95394.60000000001</v>
+        <v>14392.34</v>
       </c>
       <c r="E548">
-        <v>625364</v>
+        <v>228973</v>
       </c>
       <c r="F548">
-        <v>75.70999999999999</v>
+        <v>78.89</v>
       </c>
       <c r="G548">
-        <v>7000</v>
+        <v>2720</v>
       </c>
       <c r="H548">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J548" s="2">
@@ -21199,28 +21199,28 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C549">
-        <v>471303</v>
+        <v>603639</v>
       </c>
       <c r="D549">
-        <v>84834.54000000001</v>
+        <v>87225.48</v>
       </c>
       <c r="E549">
-        <v>556138</v>
+        <v>712294.6</v>
       </c>
       <c r="F549">
-        <v>74.81</v>
+        <v>76.41</v>
       </c>
       <c r="G549">
-        <v>6300</v>
+        <v>7900</v>
       </c>
       <c r="H549">
         <v>3</v>
@@ -21237,35 +21237,35 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C550">
-        <v>224800</v>
+        <v>529970</v>
       </c>
       <c r="D550">
-        <v>40464</v>
+        <v>95394.60000000001</v>
       </c>
       <c r="E550">
-        <v>265264</v>
+        <v>625364</v>
       </c>
       <c r="F550">
-        <v>70.25</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="G550">
-        <v>3200</v>
+        <v>7000</v>
       </c>
       <c r="H550">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J550" s="2">
@@ -21275,31 +21275,31 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C551">
-        <v>201760</v>
+        <v>224800</v>
       </c>
       <c r="D551">
-        <v>32820.3</v>
+        <v>40464</v>
       </c>
       <c r="E551">
-        <v>238076.6</v>
+        <v>265264</v>
       </c>
       <c r="F551">
-        <v>62.08</v>
+        <v>70.25</v>
       </c>
       <c r="G551">
-        <v>3250</v>
+        <v>3200</v>
       </c>
       <c r="H551">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I551" t="inlineStr">
         <is>
@@ -21313,31 +21313,31 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C552">
-        <v>484586</v>
+        <v>201760</v>
       </c>
       <c r="D552">
-        <v>87225.48</v>
+        <v>32820.3</v>
       </c>
       <c r="E552">
-        <v>571812.0600000001</v>
+        <v>238076.6</v>
       </c>
       <c r="F552">
-        <v>61.34</v>
+        <v>62.08</v>
       </c>
       <c r="G552">
-        <v>7900</v>
+        <v>3250</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I552" t="inlineStr">
         <is>
@@ -21579,31 +21579,31 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C559">
-        <v>443846</v>
+        <v>165376</v>
       </c>
       <c r="D559">
-        <v>79892.28</v>
+        <v>51197.22</v>
       </c>
       <c r="E559">
-        <v>523739</v>
+        <v>195143.92</v>
       </c>
       <c r="F559">
-        <v>51.61</v>
+        <v>51.68</v>
       </c>
       <c r="G559">
-        <v>8600</v>
+        <v>3200</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I559" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -21626,26 +21626,26 @@
         </is>
       </c>
       <c r="C560">
-        <v>351234</v>
+        <v>443846</v>
       </c>
       <c r="D560">
-        <v>79227.72</v>
+        <v>79892.28</v>
       </c>
       <c r="E560">
-        <v>414455.96</v>
+        <v>523739</v>
       </c>
       <c r="F560">
-        <v>45.03</v>
+        <v>51.61</v>
       </c>
       <c r="G560">
-        <v>7800</v>
+        <v>8600</v>
       </c>
       <c r="H560">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J560" s="2">
@@ -21655,35 +21655,35 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C561">
-        <v>119232</v>
+        <v>351234</v>
       </c>
       <c r="D561">
-        <v>21461.76</v>
+        <v>79227.72</v>
       </c>
       <c r="E561">
-        <v>140694</v>
+        <v>414455.96</v>
       </c>
       <c r="F561">
-        <v>37.26</v>
+        <v>45.03</v>
       </c>
       <c r="G561">
-        <v>3200</v>
+        <v>7800</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J561" s="2">
@@ -22301,35 +22301,35 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C578">
-        <v>165197</v>
+        <v>8715</v>
       </c>
       <c r="D578">
-        <v>29735.46</v>
+        <v>435.76</v>
       </c>
       <c r="E578">
-        <v>194932.46</v>
+        <v>9151.1</v>
       </c>
       <c r="F578">
-        <v>29.49</v>
+        <v>29.05</v>
       </c>
       <c r="G578">
-        <v>5601.797219396405</v>
+        <v>300</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J578" s="2">
@@ -22339,35 +22339,35 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C579">
-        <v>8715</v>
+        <v>179712</v>
       </c>
       <c r="D579">
-        <v>435.76</v>
+        <v>32348.16</v>
       </c>
       <c r="E579">
-        <v>9151.1</v>
+        <v>212060</v>
       </c>
       <c r="F579">
-        <v>29.05</v>
+        <v>28.08</v>
       </c>
       <c r="G579">
-        <v>300</v>
+        <v>6400</v>
       </c>
       <c r="H579">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J579" s="2">
@@ -22377,7 +22377,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -22386,26 +22386,26 @@
         </is>
       </c>
       <c r="C580">
-        <v>179712</v>
+        <v>161343</v>
       </c>
       <c r="D580">
-        <v>32348.16</v>
+        <v>29041.74</v>
       </c>
       <c r="E580">
-        <v>212060</v>
+        <v>190385</v>
       </c>
       <c r="F580">
-        <v>28.08</v>
+        <v>25.61</v>
       </c>
       <c r="G580">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H580">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J580" s="2">
@@ -22415,7 +22415,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -22424,26 +22424,26 @@
         </is>
       </c>
       <c r="C581">
-        <v>161343</v>
+        <v>182808</v>
       </c>
       <c r="D581">
-        <v>29041.74</v>
+        <v>32905.44</v>
       </c>
       <c r="E581">
-        <v>190385</v>
+        <v>215713</v>
       </c>
       <c r="F581">
-        <v>25.61</v>
+        <v>25.39</v>
       </c>
       <c r="G581">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="H581">
         <v>1</v>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J581" s="2">
@@ -22453,7 +22453,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -22462,19 +22462,19 @@
         </is>
       </c>
       <c r="C582">
-        <v>182808</v>
+        <v>149702</v>
       </c>
       <c r="D582">
-        <v>32905.44</v>
+        <v>26946.36</v>
       </c>
       <c r="E582">
-        <v>215713</v>
+        <v>176648</v>
       </c>
       <c r="F582">
-        <v>25.39</v>
+        <v>25.16</v>
       </c>
       <c r="G582">
-        <v>7200</v>
+        <v>5950</v>
       </c>
       <c r="H582">
         <v>1</v>
@@ -22491,7 +22491,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>SAI KRISHNA STEEL INDUSTRIES</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -22500,26 +22500,26 @@
         </is>
       </c>
       <c r="C583">
-        <v>149702</v>
+        <v>157941</v>
       </c>
       <c r="D583">
-        <v>26946.36</v>
+        <v>28429.38</v>
       </c>
       <c r="E583">
-        <v>176648</v>
+        <v>186370</v>
       </c>
       <c r="F583">
-        <v>25.16</v>
+        <v>25.07</v>
       </c>
       <c r="G583">
-        <v>5950</v>
+        <v>6300</v>
       </c>
       <c r="H583">
         <v>1</v>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J583" s="2">
@@ -22529,28 +22529,28 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SAI KRISHNA STEEL INDUSTRIES</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C584">
-        <v>157941</v>
+        <v>96080</v>
       </c>
       <c r="D584">
-        <v>28429.38</v>
+        <v>0</v>
       </c>
       <c r="E584">
-        <v>186370</v>
+        <v>113374.4</v>
       </c>
       <c r="F584">
-        <v>25.07</v>
+        <v>24.02</v>
       </c>
       <c r="G584">
-        <v>6300</v>
+        <v>4000</v>
       </c>
       <c r="H584">
         <v>1</v>
@@ -22567,31 +22567,31 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C585">
-        <v>96080</v>
+        <v>158108</v>
       </c>
       <c r="D585">
-        <v>0</v>
+        <v>28459.44</v>
       </c>
       <c r="E585">
-        <v>113374.4</v>
+        <v>186568.04</v>
       </c>
       <c r="F585">
-        <v>24.02</v>
+        <v>23.11</v>
       </c>
       <c r="G585">
-        <v>4000</v>
+        <v>6841.540458675898</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I585" t="inlineStr">
         <is>
@@ -22605,31 +22605,31 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C586">
-        <v>158108</v>
+        <v>164962.5</v>
       </c>
       <c r="D586">
-        <v>28459.44</v>
+        <v>29693.25</v>
       </c>
       <c r="E586">
-        <v>186568.04</v>
+        <v>194656</v>
       </c>
       <c r="F586">
-        <v>23.11</v>
+        <v>20.75</v>
       </c>
       <c r="G586">
-        <v>6841.540458675898</v>
+        <v>7950</v>
       </c>
       <c r="H586">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I586" t="inlineStr">
         <is>
@@ -22643,28 +22643,28 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C587">
-        <v>164962.5</v>
+        <v>139556</v>
       </c>
       <c r="D587">
-        <v>29693.25</v>
+        <v>50337</v>
       </c>
       <c r="E587">
-        <v>194656</v>
+        <v>164676.08</v>
       </c>
       <c r="F587">
-        <v>20.75</v>
+        <v>20.08</v>
       </c>
       <c r="G587">
-        <v>7950</v>
+        <v>6950.000000000001</v>
       </c>
       <c r="H587">
         <v>1</v>
@@ -22686,23 +22686,23 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C588">
-        <v>139556</v>
+        <v>140094</v>
       </c>
       <c r="D588">
-        <v>50337</v>
+        <v>0</v>
       </c>
       <c r="E588">
-        <v>164676.08</v>
+        <v>165310.92</v>
       </c>
       <c r="F588">
-        <v>20.08</v>
+        <v>16.29</v>
       </c>
       <c r="G588">
-        <v>6950.000000000001</v>
+        <v>8600</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -22719,35 +22719,35 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C589">
-        <v>140094</v>
+        <v>88920</v>
       </c>
       <c r="D589">
         <v>0</v>
       </c>
       <c r="E589">
-        <v>165310.92</v>
+        <v>104925.6</v>
       </c>
       <c r="F589">
-        <v>16.29</v>
+        <v>14.82</v>
       </c>
       <c r="G589">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="H589">
         <v>1</v>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J589" s="2">
@@ -22757,35 +22757,35 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C590">
-        <v>88920</v>
+        <v>15965</v>
       </c>
       <c r="D590">
-        <v>0</v>
+        <v>23664.6</v>
       </c>
       <c r="E590">
-        <v>104925.6</v>
+        <v>18838.7</v>
       </c>
       <c r="F590">
-        <v>14.82</v>
+        <v>10.3</v>
       </c>
       <c r="G590">
-        <v>6000</v>
+        <v>1550</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J590" s="2">
@@ -22795,7 +22795,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -22804,22 +22804,22 @@
         </is>
       </c>
       <c r="C591">
-        <v>15965</v>
+        <v>27300</v>
       </c>
       <c r="D591">
-        <v>23664.6</v>
+        <v>4914</v>
       </c>
       <c r="E591">
-        <v>18838.7</v>
+        <v>32214</v>
       </c>
       <c r="F591">
-        <v>10.3</v>
+        <v>7.8</v>
       </c>
       <c r="G591">
-        <v>1550</v>
+        <v>3500</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591" t="inlineStr">
         <is>
@@ -22833,28 +22833,28 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>RDTMT Steels India Pvt Ltd</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C592">
-        <v>27300</v>
+        <v>32067</v>
       </c>
       <c r="D592">
-        <v>4914</v>
+        <v>5772.06</v>
       </c>
       <c r="E592">
-        <v>32214</v>
+        <v>37839</v>
       </c>
       <c r="F592">
-        <v>7.8</v>
+        <v>5.09</v>
       </c>
       <c r="G592">
-        <v>3500</v>
+        <v>6300</v>
       </c>
       <c r="H592">
         <v>1</v>
@@ -22871,28 +22871,28 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>RDTMT Steels India Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C593">
-        <v>32067</v>
+        <v>7424</v>
       </c>
       <c r="D593">
-        <v>5772.06</v>
+        <v>1336.32</v>
       </c>
       <c r="E593">
-        <v>37839</v>
+        <v>8760</v>
       </c>
       <c r="F593">
-        <v>5.09</v>
+        <v>4.64</v>
       </c>
       <c r="G593">
-        <v>6300</v>
+        <v>1600</v>
       </c>
       <c r="H593">
         <v>1</v>
@@ -22903,44 +22903,6 @@
         </is>
       </c>
       <c r="J593" s="2">
-        <v>45017</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>Adishakti Smelters Private Limited</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
-        </is>
-      </c>
-      <c r="C594">
-        <v>7424</v>
-      </c>
-      <c r="D594">
-        <v>1336.32</v>
-      </c>
-      <c r="E594">
-        <v>8760</v>
-      </c>
-      <c r="F594">
-        <v>4.64</v>
-      </c>
-      <c r="G594">
-        <v>1600</v>
-      </c>
-      <c r="H594">
-        <v>1</v>
-      </c>
-      <c r="I594" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J594" s="2">
         <v>45017</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J593"/>
+  <dimension ref="A1:J594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22795,35 +22795,35 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Mega TMT</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C591">
-        <v>27300</v>
+        <v>62832</v>
       </c>
       <c r="D591">
-        <v>4914</v>
+        <v>0</v>
       </c>
       <c r="E591">
-        <v>32214</v>
+        <v>74141.75999999999</v>
       </c>
       <c r="F591">
-        <v>7.8</v>
+        <v>9.52</v>
       </c>
       <c r="G591">
-        <v>3500</v>
+        <v>6600</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J591" s="2">
@@ -22833,28 +22833,28 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>RDTMT Steels India Pvt Ltd</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C592">
-        <v>32067</v>
+        <v>27300</v>
       </c>
       <c r="D592">
-        <v>5772.06</v>
+        <v>4914</v>
       </c>
       <c r="E592">
-        <v>37839</v>
+        <v>32214</v>
       </c>
       <c r="F592">
-        <v>5.09</v>
+        <v>7.8</v>
       </c>
       <c r="G592">
-        <v>6300</v>
+        <v>3500</v>
       </c>
       <c r="H592">
         <v>1</v>
@@ -22871,38 +22871,76 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
+          <t>RDTMT Steels India Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C593">
+        <v>32067</v>
+      </c>
+      <c r="D593">
+        <v>5772.06</v>
+      </c>
+      <c r="E593">
+        <v>37839</v>
+      </c>
+      <c r="F593">
+        <v>5.09</v>
+      </c>
+      <c r="G593">
+        <v>6300</v>
+      </c>
+      <c r="H593">
+        <v>1</v>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J593" s="2">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
           <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
-      <c r="B593" t="inlineStr">
+      <c r="B594" t="inlineStr">
         <is>
           <t>Nali Top</t>
         </is>
       </c>
-      <c r="C593">
+      <c r="C594">
         <v>7424</v>
       </c>
-      <c r="D593">
+      <c r="D594">
         <v>1336.32</v>
       </c>
-      <c r="E593">
+      <c r="E594">
         <v>8760</v>
       </c>
-      <c r="F593">
+      <c r="F594">
         <v>4.64</v>
       </c>
-      <c r="G593">
+      <c r="G594">
         <v>1600</v>
       </c>
-      <c r="H593">
-        <v>1</v>
-      </c>
-      <c r="I593" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J593" s="2">
+      <c r="H594">
+        <v>1</v>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J594" s="2">
         <v>45017</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J594"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J45" s="2">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J105" s="2">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J145" s="2">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J177" s="2">
@@ -17655,7 +17655,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J455" s="2">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J557" s="2">
@@ -22942,6 +22942,1108 @@
       </c>
       <c r="J594" s="2">
         <v>45017</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>BMM ISPAT LIMITED</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C595">
+        <v>683162</v>
+      </c>
+      <c r="D595">
+        <v>122969.16</v>
+      </c>
+      <c r="E595">
+        <v>806131.62</v>
+      </c>
+      <c r="F595">
+        <v>96.22</v>
+      </c>
+      <c r="G595">
+        <v>7099.999999999999</v>
+      </c>
+      <c r="H595">
+        <v>3</v>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J595" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C596">
+        <v>426384</v>
+      </c>
+      <c r="D596">
+        <v>76749.12</v>
+      </c>
+      <c r="E596">
+        <v>503132.82</v>
+      </c>
+      <c r="F596">
+        <v>67.67999999999999</v>
+      </c>
+      <c r="G596">
+        <v>6300.000000000001</v>
+      </c>
+      <c r="H596">
+        <v>2</v>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J596" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C597">
+        <v>537936</v>
+      </c>
+      <c r="D597">
+        <v>96828.48000000001</v>
+      </c>
+      <c r="E597">
+        <v>634764.12</v>
+      </c>
+      <c r="F597">
+        <v>64.04000000000001</v>
+      </c>
+      <c r="G597">
+        <v>8400</v>
+      </c>
+      <c r="H597">
+        <v>3</v>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J597" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Orange Fox Steel Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C598">
+        <v>226137</v>
+      </c>
+      <c r="D598">
+        <v>40704.66</v>
+      </c>
+      <c r="E598">
+        <v>266842</v>
+      </c>
+      <c r="F598">
+        <v>35.06</v>
+      </c>
+      <c r="G598">
+        <v>6450</v>
+      </c>
+      <c r="H598">
+        <v>1</v>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J598" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C599">
+        <v>192944</v>
+      </c>
+      <c r="D599">
+        <v>34729.92</v>
+      </c>
+      <c r="E599">
+        <v>227674</v>
+      </c>
+      <c r="F599">
+        <v>31.12</v>
+      </c>
+      <c r="G599">
+        <v>6200</v>
+      </c>
+      <c r="H599">
+        <v>1</v>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J599" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C600">
+        <v>204322.5</v>
+      </c>
+      <c r="D600">
+        <v>36778.05</v>
+      </c>
+      <c r="E600">
+        <v>241101</v>
+      </c>
+      <c r="F600">
+        <v>30.27</v>
+      </c>
+      <c r="G600">
+        <v>6750</v>
+      </c>
+      <c r="H600">
+        <v>1</v>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J600" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C601">
+        <v>220825</v>
+      </c>
+      <c r="D601">
+        <v>39748.5</v>
+      </c>
+      <c r="E601">
+        <v>260573.5</v>
+      </c>
+      <c r="F601">
+        <v>30.25</v>
+      </c>
+      <c r="G601">
+        <v>7300</v>
+      </c>
+      <c r="H601">
+        <v>1</v>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J601" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C602">
+        <v>193152</v>
+      </c>
+      <c r="D602">
+        <v>34767.36</v>
+      </c>
+      <c r="E602">
+        <v>227919</v>
+      </c>
+      <c r="F602">
+        <v>30.18</v>
+      </c>
+      <c r="G602">
+        <v>6400</v>
+      </c>
+      <c r="H602">
+        <v>2</v>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J602" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>AMBA FRP PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Quartz Grain</t>
+        </is>
+      </c>
+      <c r="C603">
+        <v>180000</v>
+      </c>
+      <c r="D603">
+        <v>9000</v>
+      </c>
+      <c r="E603">
+        <v>189000</v>
+      </c>
+      <c r="F603">
+        <v>30</v>
+      </c>
+      <c r="G603">
+        <v>6000</v>
+      </c>
+      <c r="H603">
+        <v>2</v>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J603" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C604">
+        <v>234000</v>
+      </c>
+      <c r="D604">
+        <v>42120</v>
+      </c>
+      <c r="E604">
+        <v>276120</v>
+      </c>
+      <c r="F604">
+        <v>30</v>
+      </c>
+      <c r="G604">
+        <v>7800</v>
+      </c>
+      <c r="H604">
+        <v>2</v>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J604" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C605">
+        <v>224700</v>
+      </c>
+      <c r="D605">
+        <v>40446</v>
+      </c>
+      <c r="E605">
+        <v>265146</v>
+      </c>
+      <c r="F605">
+        <v>29.96</v>
+      </c>
+      <c r="G605">
+        <v>7500</v>
+      </c>
+      <c r="H605">
+        <v>2</v>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J605" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C606">
+        <v>217978</v>
+      </c>
+      <c r="D606">
+        <v>39236.04</v>
+      </c>
+      <c r="E606">
+        <v>257214</v>
+      </c>
+      <c r="F606">
+        <v>29.86</v>
+      </c>
+      <c r="G606">
+        <v>7300</v>
+      </c>
+      <c r="H606">
+        <v>2</v>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J606" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C607">
+        <v>187047</v>
+      </c>
+      <c r="D607">
+        <v>33668.46</v>
+      </c>
+      <c r="E607">
+        <v>220715</v>
+      </c>
+      <c r="F607">
+        <v>29.69</v>
+      </c>
+      <c r="G607">
+        <v>6300</v>
+      </c>
+      <c r="H607">
+        <v>1</v>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J607" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Ordinary Ramming Mass</t>
+        </is>
+      </c>
+      <c r="C608">
+        <v>111936</v>
+      </c>
+      <c r="D608">
+        <v>20148.48</v>
+      </c>
+      <c r="E608">
+        <v>132084</v>
+      </c>
+      <c r="F608">
+        <v>25.44</v>
+      </c>
+      <c r="G608">
+        <v>4400</v>
+      </c>
+      <c r="H608">
+        <v>1</v>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J608" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Tulsyan NEC Limited</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C609">
+        <v>191770</v>
+      </c>
+      <c r="D609">
+        <v>34518.6</v>
+      </c>
+      <c r="E609">
+        <v>226289</v>
+      </c>
+      <c r="F609">
+        <v>25.4</v>
+      </c>
+      <c r="G609">
+        <v>7550</v>
+      </c>
+      <c r="H609">
+        <v>1</v>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J609" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C610">
+        <v>176050</v>
+      </c>
+      <c r="D610">
+        <v>31689</v>
+      </c>
+      <c r="E610">
+        <v>207739</v>
+      </c>
+      <c r="F610">
+        <v>25.15</v>
+      </c>
+      <c r="G610">
+        <v>7000</v>
+      </c>
+      <c r="H610">
+        <v>1</v>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J610" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C611">
+        <v>98750</v>
+      </c>
+      <c r="D611">
+        <v>17775</v>
+      </c>
+      <c r="E611">
+        <v>116525</v>
+      </c>
+      <c r="F611">
+        <v>25</v>
+      </c>
+      <c r="G611">
+        <v>3950</v>
+      </c>
+      <c r="H611">
+        <v>2</v>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J611" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Quartztech Minerals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C612">
+        <v>62750.4</v>
+      </c>
+      <c r="D612">
+        <v>3137.52</v>
+      </c>
+      <c r="E612">
+        <v>65888</v>
+      </c>
+      <c r="F612">
+        <v>23.07</v>
+      </c>
+      <c r="G612">
+        <v>2720</v>
+      </c>
+      <c r="H612">
+        <v>1</v>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J612" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C613">
+        <v>135616</v>
+      </c>
+      <c r="D613">
+        <v>18397.44</v>
+      </c>
+      <c r="E613">
+        <v>160026.44</v>
+      </c>
+      <c r="F613">
+        <v>21.19</v>
+      </c>
+      <c r="G613">
+        <v>6400</v>
+      </c>
+      <c r="H613">
+        <v>3</v>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J613" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C614">
+        <v>156297</v>
+      </c>
+      <c r="D614">
+        <v>28133.46</v>
+      </c>
+      <c r="E614">
+        <v>184430</v>
+      </c>
+      <c r="F614">
+        <v>19.66</v>
+      </c>
+      <c r="G614">
+        <v>7950</v>
+      </c>
+      <c r="H614">
+        <v>1</v>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J614" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C615">
+        <v>50245</v>
+      </c>
+      <c r="D615">
+        <v>0</v>
+      </c>
+      <c r="E615">
+        <v>59289.1</v>
+      </c>
+      <c r="F615">
+        <v>15.46</v>
+      </c>
+      <c r="G615">
+        <v>3250</v>
+      </c>
+      <c r="H615">
+        <v>1</v>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J615" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C616">
+        <v>48067.5</v>
+      </c>
+      <c r="D616">
+        <v>8652.16</v>
+      </c>
+      <c r="E616">
+        <v>56719</v>
+      </c>
+      <c r="F616">
+        <v>14.79</v>
+      </c>
+      <c r="G616">
+        <v>3250</v>
+      </c>
+      <c r="H616">
+        <v>3</v>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J616" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C617">
+        <v>21483</v>
+      </c>
+      <c r="D617">
+        <v>12911.06</v>
+      </c>
+      <c r="E617">
+        <v>25349.75</v>
+      </c>
+      <c r="F617">
+        <v>13.86</v>
+      </c>
+      <c r="G617">
+        <v>1550</v>
+      </c>
+      <c r="H617">
+        <v>2</v>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J617" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C618">
+        <v>34102</v>
+      </c>
+      <c r="D618">
+        <v>12151.8</v>
+      </c>
+      <c r="E618">
+        <v>40240.36</v>
+      </c>
+      <c r="F618">
+        <v>10.03</v>
+      </c>
+      <c r="G618">
+        <v>3400</v>
+      </c>
+      <c r="H618">
+        <v>2</v>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J618" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C619">
+        <v>29664</v>
+      </c>
+      <c r="D619">
+        <v>5339.52</v>
+      </c>
+      <c r="E619">
+        <v>35004</v>
+      </c>
+      <c r="F619">
+        <v>9.27</v>
+      </c>
+      <c r="G619">
+        <v>3200</v>
+      </c>
+      <c r="H619">
+        <v>1</v>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J619" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C620">
+        <v>61110</v>
+      </c>
+      <c r="D620">
+        <v>0</v>
+      </c>
+      <c r="E620">
+        <v>72109.8</v>
+      </c>
+      <c r="F620">
+        <v>8.73</v>
+      </c>
+      <c r="G620">
+        <v>7000</v>
+      </c>
+      <c r="H620">
+        <v>1</v>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J620" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C621">
+        <v>15640</v>
+      </c>
+      <c r="D621">
+        <v>13815</v>
+      </c>
+      <c r="E621">
+        <v>18455.2</v>
+      </c>
+      <c r="F621">
+        <v>4.6</v>
+      </c>
+      <c r="G621">
+        <v>3400</v>
+      </c>
+      <c r="H621">
+        <v>1</v>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J621" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C622">
+        <v>23232</v>
+      </c>
+      <c r="D622">
+        <v>4181.76</v>
+      </c>
+      <c r="E622">
+        <v>27414</v>
+      </c>
+      <c r="F622">
+        <v>3.52</v>
+      </c>
+      <c r="G622">
+        <v>6600</v>
+      </c>
+      <c r="H622">
+        <v>1</v>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J622" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C623">
+        <v>4560</v>
+      </c>
+      <c r="D623">
+        <v>820.8</v>
+      </c>
+      <c r="E623">
+        <v>5381</v>
+      </c>
+      <c r="F623">
+        <v>2.85</v>
+      </c>
+      <c r="G623">
+        <v>1600</v>
+      </c>
+      <c r="H623">
+        <v>1</v>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J623" s="2">
+        <v>45047</v>
       </c>
     </row>
   </sheetData>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22956,22 +22956,22 @@
         </is>
       </c>
       <c r="C595">
-        <v>683162</v>
+        <v>1148780</v>
       </c>
       <c r="D595">
-        <v>122969.16</v>
+        <v>588587.16</v>
       </c>
       <c r="E595">
-        <v>806131.62</v>
+        <v>1355561.62</v>
       </c>
       <c r="F595">
-        <v>96.22</v>
+        <v>161.8</v>
       </c>
       <c r="G595">
-        <v>7099.999999999999</v>
+        <v>7100</v>
       </c>
       <c r="H595">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I595" t="inlineStr">
         <is>
@@ -22985,35 +22985,35 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C596">
-        <v>426384</v>
+        <v>794556</v>
       </c>
       <c r="D596">
-        <v>76749.12</v>
+        <v>353448.48</v>
       </c>
       <c r="E596">
-        <v>503132.82</v>
+        <v>937576.12</v>
       </c>
       <c r="F596">
-        <v>67.67999999999999</v>
+        <v>94.59</v>
       </c>
       <c r="G596">
-        <v>6300.000000000001</v>
+        <v>8400</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J596" s="2">
@@ -23023,7 +23023,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -23032,26 +23032,26 @@
         </is>
       </c>
       <c r="C597">
-        <v>537936</v>
+        <v>284518.5</v>
       </c>
       <c r="D597">
-        <v>96828.48000000001</v>
+        <v>51213.36</v>
       </c>
       <c r="E597">
-        <v>634764.12</v>
+        <v>335731</v>
       </c>
       <c r="F597">
-        <v>64.04000000000001</v>
+        <v>72.03</v>
       </c>
       <c r="G597">
-        <v>8400</v>
+        <v>3950</v>
       </c>
       <c r="H597">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J597" s="2">
@@ -23061,7 +23061,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -23070,26 +23070,26 @@
         </is>
       </c>
       <c r="C598">
-        <v>226137</v>
+        <v>426384</v>
       </c>
       <c r="D598">
-        <v>40704.66</v>
+        <v>76749.12</v>
       </c>
       <c r="E598">
-        <v>266842</v>
+        <v>503132.82</v>
       </c>
       <c r="F598">
-        <v>35.06</v>
+        <v>67.67999999999999</v>
       </c>
       <c r="G598">
-        <v>6450</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J598" s="2">
@@ -23099,7 +23099,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -23108,26 +23108,26 @@
         </is>
       </c>
       <c r="C599">
-        <v>192944</v>
+        <v>441723</v>
       </c>
       <c r="D599">
-        <v>34729.92</v>
+        <v>260646.5</v>
       </c>
       <c r="E599">
-        <v>227674</v>
+        <v>521233.14</v>
       </c>
       <c r="F599">
-        <v>31.12</v>
+        <v>60.51000000000001</v>
       </c>
       <c r="G599">
-        <v>6200</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J599" s="2">
@@ -23137,35 +23137,35 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C600">
-        <v>204322.5</v>
+        <v>471822</v>
       </c>
       <c r="D600">
-        <v>36778.05</v>
+        <v>279942</v>
       </c>
       <c r="E600">
-        <v>241101</v>
+        <v>556750</v>
       </c>
       <c r="F600">
-        <v>30.27</v>
+        <v>60.48999999999999</v>
       </c>
       <c r="G600">
-        <v>6750</v>
+        <v>7800.000000000001</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J600" s="2">
@@ -23175,35 +23175,35 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C601">
-        <v>220825</v>
+        <v>126507.2</v>
       </c>
       <c r="D601">
-        <v>39748.5</v>
+        <v>6325.360000000001</v>
       </c>
       <c r="E601">
-        <v>260573.5</v>
+        <v>132832.64</v>
       </c>
       <c r="F601">
-        <v>30.25</v>
+        <v>46.51000000000001</v>
       </c>
       <c r="G601">
-        <v>7300</v>
+        <v>2720</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J601" s="2">
@@ -23213,7 +23213,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -23222,26 +23222,26 @@
         </is>
       </c>
       <c r="C602">
-        <v>193152</v>
+        <v>137410</v>
       </c>
       <c r="D602">
-        <v>34767.36</v>
+        <v>15689.7</v>
       </c>
       <c r="E602">
-        <v>227919</v>
+        <v>162144.1</v>
       </c>
       <c r="F602">
-        <v>30.18</v>
+        <v>42.28</v>
       </c>
       <c r="G602">
-        <v>6400</v>
+        <v>3250</v>
       </c>
       <c r="H602">
         <v>2</v>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J602" s="2">
@@ -23251,28 +23251,28 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>AMBA FRP PRIVATE LIMITED</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C603">
-        <v>180000</v>
+        <v>307585.5</v>
       </c>
       <c r="D603">
-        <v>9000</v>
+        <v>179421.96</v>
       </c>
       <c r="E603">
-        <v>189000</v>
+        <v>362950</v>
       </c>
       <c r="F603">
-        <v>30</v>
+        <v>38.69</v>
       </c>
       <c r="G603">
-        <v>6000</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H603">
         <v>2</v>
@@ -23289,35 +23289,35 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C604">
-        <v>234000</v>
+        <v>233730</v>
       </c>
       <c r="D604">
-        <v>42120</v>
+        <v>42071.4</v>
       </c>
       <c r="E604">
-        <v>276120</v>
+        <v>275801</v>
       </c>
       <c r="F604">
-        <v>30</v>
+        <v>37.1</v>
       </c>
       <c r="G604">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J604" s="2">
@@ -23327,7 +23327,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -23336,26 +23336,26 @@
         </is>
       </c>
       <c r="C605">
-        <v>224700</v>
+        <v>226137</v>
       </c>
       <c r="D605">
-        <v>40446</v>
+        <v>40704.66</v>
       </c>
       <c r="E605">
-        <v>265146</v>
+        <v>266842</v>
       </c>
       <c r="F605">
-        <v>29.96</v>
+        <v>35.06</v>
       </c>
       <c r="G605">
-        <v>7500</v>
+        <v>6450</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J605" s="2">
@@ -23365,35 +23365,35 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C606">
-        <v>217978</v>
+        <v>238108</v>
       </c>
       <c r="D606">
-        <v>39236.04</v>
+        <v>238108</v>
       </c>
       <c r="E606">
-        <v>257214</v>
+        <v>280967</v>
       </c>
       <c r="F606">
-        <v>29.86</v>
+        <v>31.33</v>
       </c>
       <c r="G606">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J606" s="2">
@@ -23403,7 +23403,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -23412,26 +23412,26 @@
         </is>
       </c>
       <c r="C607">
-        <v>187047</v>
+        <v>192944</v>
       </c>
       <c r="D607">
-        <v>33668.46</v>
+        <v>34729.92</v>
       </c>
       <c r="E607">
-        <v>220715</v>
+        <v>227674</v>
       </c>
       <c r="F607">
-        <v>29.69</v>
+        <v>31.12</v>
       </c>
       <c r="G607">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H607">
         <v>1</v>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J607" s="2">
@@ -23441,28 +23441,28 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C608">
-        <v>111936</v>
+        <v>264708</v>
       </c>
       <c r="D608">
-        <v>20148.48</v>
+        <v>264708</v>
       </c>
       <c r="E608">
-        <v>132084</v>
+        <v>312355</v>
       </c>
       <c r="F608">
-        <v>25.44</v>
+        <v>30.78</v>
       </c>
       <c r="G608">
-        <v>4400</v>
+        <v>8600</v>
       </c>
       <c r="H608">
         <v>1</v>
@@ -23479,35 +23479,35 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C609">
-        <v>191770</v>
+        <v>242451</v>
       </c>
       <c r="D609">
-        <v>34518.6</v>
+        <v>43641.18</v>
       </c>
       <c r="E609">
-        <v>226289</v>
+        <v>286092</v>
       </c>
       <c r="F609">
-        <v>25.4</v>
+        <v>30.69</v>
       </c>
       <c r="G609">
-        <v>7550</v>
+        <v>7900</v>
       </c>
       <c r="H609">
         <v>1</v>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J609" s="2">
@@ -23517,7 +23517,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -23526,19 +23526,19 @@
         </is>
       </c>
       <c r="C610">
-        <v>176050</v>
+        <v>188046</v>
       </c>
       <c r="D610">
-        <v>31689</v>
+        <v>33848.28</v>
       </c>
       <c r="E610">
-        <v>207739</v>
+        <v>221894.28</v>
       </c>
       <c r="F610">
-        <v>25.15</v>
+        <v>30.33</v>
       </c>
       <c r="G610">
-        <v>7000</v>
+        <v>6200</v>
       </c>
       <c r="H610">
         <v>1</v>
@@ -23555,31 +23555,31 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C611">
-        <v>98750</v>
+        <v>204322.5</v>
       </c>
       <c r="D611">
-        <v>17775</v>
+        <v>36778.05</v>
       </c>
       <c r="E611">
-        <v>116525</v>
+        <v>241101</v>
       </c>
       <c r="F611">
-        <v>25</v>
+        <v>30.27</v>
       </c>
       <c r="G611">
-        <v>3950</v>
+        <v>6750</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I611" t="inlineStr">
         <is>
@@ -23593,35 +23593,35 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C612">
-        <v>62750.4</v>
+        <v>193152</v>
       </c>
       <c r="D612">
-        <v>3137.52</v>
+        <v>34767.36</v>
       </c>
       <c r="E612">
-        <v>65888</v>
+        <v>227919</v>
       </c>
       <c r="F612">
-        <v>23.07</v>
+        <v>30.18</v>
       </c>
       <c r="G612">
-        <v>2720</v>
+        <v>6400</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J612" s="2">
@@ -23631,31 +23631,31 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C613">
-        <v>135616</v>
+        <v>276092</v>
       </c>
       <c r="D613">
-        <v>18397.44</v>
+        <v>276092</v>
       </c>
       <c r="E613">
-        <v>160026.44</v>
+        <v>325789</v>
       </c>
       <c r="F613">
-        <v>21.19</v>
+        <v>30.01</v>
       </c>
       <c r="G613">
-        <v>6400</v>
+        <v>9200</v>
       </c>
       <c r="H613">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr">
         <is>
@@ -23669,31 +23669,31 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>AMBA FRP PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C614">
-        <v>156297</v>
+        <v>180000</v>
       </c>
       <c r="D614">
-        <v>28133.46</v>
+        <v>9000</v>
       </c>
       <c r="E614">
-        <v>184430</v>
+        <v>189000</v>
       </c>
       <c r="F614">
-        <v>19.66</v>
+        <v>30</v>
       </c>
       <c r="G614">
-        <v>7950</v>
+        <v>6000</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -23716,26 +23716,26 @@
         </is>
       </c>
       <c r="C615">
-        <v>50245</v>
+        <v>224700</v>
       </c>
       <c r="D615">
-        <v>0</v>
+        <v>40446</v>
       </c>
       <c r="E615">
-        <v>59289.1</v>
+        <v>265146</v>
       </c>
       <c r="F615">
-        <v>15.46</v>
+        <v>29.96</v>
       </c>
       <c r="G615">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J615" s="2">
@@ -23745,7 +23745,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -23754,22 +23754,22 @@
         </is>
       </c>
       <c r="C616">
-        <v>48067.5</v>
+        <v>217978</v>
       </c>
       <c r="D616">
-        <v>8652.16</v>
+        <v>39236.04</v>
       </c>
       <c r="E616">
-        <v>56719</v>
+        <v>257214</v>
       </c>
       <c r="F616">
-        <v>14.79</v>
+        <v>29.86</v>
       </c>
       <c r="G616">
-        <v>3250</v>
+        <v>7300</v>
       </c>
       <c r="H616">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr">
         <is>
@@ -23783,31 +23783,31 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Jai Hind Wire Rod Mills Private Limited</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C617">
-        <v>21483</v>
+        <v>226328</v>
       </c>
       <c r="D617">
-        <v>12911.06</v>
+        <v>226328</v>
       </c>
       <c r="E617">
-        <v>25349.75</v>
+        <v>267067</v>
       </c>
       <c r="F617">
-        <v>13.86</v>
+        <v>29.78</v>
       </c>
       <c r="G617">
-        <v>1550</v>
+        <v>7600</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617" t="inlineStr">
         <is>
@@ -23821,35 +23821,35 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C618">
-        <v>34102</v>
+        <v>187047</v>
       </c>
       <c r="D618">
-        <v>12151.8</v>
+        <v>33668.46</v>
       </c>
       <c r="E618">
-        <v>40240.36</v>
+        <v>220715</v>
       </c>
       <c r="F618">
-        <v>10.03</v>
+        <v>29.69</v>
       </c>
       <c r="G618">
-        <v>3400</v>
+        <v>6300</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J618" s="2">
@@ -23859,28 +23859,28 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C619">
-        <v>29664</v>
+        <v>234240</v>
       </c>
       <c r="D619">
-        <v>5339.52</v>
+        <v>234240</v>
       </c>
       <c r="E619">
-        <v>35004</v>
+        <v>276403</v>
       </c>
       <c r="F619">
-        <v>9.27</v>
+        <v>29.28</v>
       </c>
       <c r="G619">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="H619">
         <v>1</v>
@@ -23897,28 +23897,28 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C620">
-        <v>61110</v>
+        <v>111936</v>
       </c>
       <c r="D620">
-        <v>0</v>
+        <v>20148.48</v>
       </c>
       <c r="E620">
-        <v>72109.8</v>
+        <v>132084</v>
       </c>
       <c r="F620">
-        <v>8.73</v>
+        <v>25.44</v>
       </c>
       <c r="G620">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="H620">
         <v>1</v>
@@ -23935,35 +23935,35 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C621">
-        <v>15640</v>
+        <v>191770</v>
       </c>
       <c r="D621">
-        <v>13815</v>
+        <v>34518.6</v>
       </c>
       <c r="E621">
-        <v>18455.2</v>
+        <v>226289</v>
       </c>
       <c r="F621">
-        <v>4.6</v>
+        <v>25.4</v>
       </c>
       <c r="G621">
-        <v>3400</v>
+        <v>7550</v>
       </c>
       <c r="H621">
         <v>1</v>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J621" s="2">
@@ -23973,7 +23973,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -23982,26 +23982,26 @@
         </is>
       </c>
       <c r="C622">
-        <v>23232</v>
+        <v>176050</v>
       </c>
       <c r="D622">
-        <v>4181.76</v>
+        <v>31689</v>
       </c>
       <c r="E622">
-        <v>27414</v>
+        <v>207739</v>
       </c>
       <c r="F622">
-        <v>3.52</v>
+        <v>25.15</v>
       </c>
       <c r="G622">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="H622">
         <v>1</v>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J622" s="2">
@@ -24011,38 +24011,418 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C623">
+        <v>65720</v>
+      </c>
+      <c r="D623">
+        <v>0</v>
+      </c>
+      <c r="E623">
+        <v>69006</v>
+      </c>
+      <c r="F623">
+        <v>24.8</v>
+      </c>
+      <c r="G623">
+        <v>2650</v>
+      </c>
+      <c r="H623">
+        <v>1</v>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J623" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C624">
+        <v>71264</v>
+      </c>
+      <c r="D624">
+        <v>12827.52</v>
+      </c>
+      <c r="E624">
+        <v>84092</v>
+      </c>
+      <c r="F624">
+        <v>22.27</v>
+      </c>
+      <c r="G624">
+        <v>3200</v>
+      </c>
+      <c r="H624">
+        <v>2</v>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J624" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C625">
+        <v>148400</v>
+      </c>
+      <c r="D625">
+        <v>87290</v>
+      </c>
+      <c r="E625">
+        <v>175111.8</v>
+      </c>
+      <c r="F625">
+        <v>21.2</v>
+      </c>
+      <c r="G625">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="H625">
+        <v>2</v>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J625" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C626">
+        <v>135616</v>
+      </c>
+      <c r="D626">
+        <v>18397.44</v>
+      </c>
+      <c r="E626">
+        <v>160026.44</v>
+      </c>
+      <c r="F626">
+        <v>21.19</v>
+      </c>
+      <c r="G626">
+        <v>6400</v>
+      </c>
+      <c r="H626">
+        <v>3</v>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J626" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
           <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
-      <c r="B623" t="inlineStr">
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C627">
+        <v>64415</v>
+      </c>
+      <c r="D627">
+        <v>11594.72</v>
+      </c>
+      <c r="E627">
+        <v>76009</v>
+      </c>
+      <c r="F627">
+        <v>19.82</v>
+      </c>
+      <c r="G627">
+        <v>3250</v>
+      </c>
+      <c r="H627">
+        <v>4</v>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J627" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
         <is>
           <t>Nali Top</t>
         </is>
       </c>
-      <c r="C623">
-        <v>4560</v>
-      </c>
-      <c r="D623">
-        <v>820.8</v>
-      </c>
-      <c r="E623">
-        <v>5381</v>
-      </c>
-      <c r="F623">
-        <v>2.85</v>
-      </c>
-      <c r="G623">
+      <c r="C628">
+        <v>27760.5</v>
+      </c>
+      <c r="D628">
+        <v>14041.02</v>
+      </c>
+      <c r="E628">
+        <v>32756.75</v>
+      </c>
+      <c r="F628">
+        <v>17.91</v>
+      </c>
+      <c r="G628">
+        <v>1550</v>
+      </c>
+      <c r="H628">
+        <v>3</v>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J628" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C629">
+        <v>34102</v>
+      </c>
+      <c r="D629">
+        <v>12151.8</v>
+      </c>
+      <c r="E629">
+        <v>40240.36</v>
+      </c>
+      <c r="F629">
+        <v>10.03</v>
+      </c>
+      <c r="G629">
+        <v>3400</v>
+      </c>
+      <c r="H629">
+        <v>2</v>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J629" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C630">
+        <v>64218</v>
+      </c>
+      <c r="D630">
+        <v>11559.24</v>
+      </c>
+      <c r="E630">
+        <v>75777</v>
+      </c>
+      <c r="F630">
+        <v>9.73</v>
+      </c>
+      <c r="G630">
+        <v>6600</v>
+      </c>
+      <c r="H630">
+        <v>3</v>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J630" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C631">
+        <v>12528</v>
+      </c>
+      <c r="D631">
+        <v>2255.04</v>
+      </c>
+      <c r="E631">
+        <v>14783</v>
+      </c>
+      <c r="F631">
+        <v>7.83</v>
+      </c>
+      <c r="G631">
         <v>1600</v>
       </c>
-      <c r="H623">
-        <v>1</v>
-      </c>
-      <c r="I623" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J623" s="2">
+      <c r="H631">
+        <v>2</v>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J631" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C632">
+        <v>15640</v>
+      </c>
+      <c r="D632">
+        <v>13815</v>
+      </c>
+      <c r="E632">
+        <v>18455.2</v>
+      </c>
+      <c r="F632">
+        <v>4.6</v>
+      </c>
+      <c r="G632">
+        <v>3400</v>
+      </c>
+      <c r="H632">
+        <v>1</v>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J632" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C633">
+        <v>9920</v>
+      </c>
+      <c r="D633">
+        <v>1785.6</v>
+      </c>
+      <c r="E633">
+        <v>11706</v>
+      </c>
+      <c r="F633">
+        <v>1.24</v>
+      </c>
+      <c r="G633">
+        <v>8000</v>
+      </c>
+      <c r="H633">
+        <v>1</v>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J633" s="2">
         <v>45047</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -15195,7 +15195,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -17209,7 +17209,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J633"/>
+  <dimension ref="A1:J641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22956,22 +22956,22 @@
         </is>
       </c>
       <c r="C595">
-        <v>1148780</v>
+        <v>1618729</v>
       </c>
       <c r="D595">
         <v>588587.16</v>
       </c>
       <c r="E595">
-        <v>1355561.62</v>
+        <v>1910101.62</v>
       </c>
       <c r="F595">
-        <v>161.8</v>
+        <v>227.99</v>
       </c>
       <c r="G595">
         <v>7100</v>
       </c>
       <c r="H595">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I595" t="inlineStr">
         <is>
@@ -22994,22 +22994,22 @@
         </is>
       </c>
       <c r="C596">
-        <v>794556</v>
+        <v>1392132</v>
       </c>
       <c r="D596">
         <v>353448.48</v>
       </c>
       <c r="E596">
-        <v>937576.12</v>
+        <v>1642715.52</v>
       </c>
       <c r="F596">
-        <v>94.59</v>
+        <v>165.73</v>
       </c>
       <c r="G596">
         <v>8400</v>
       </c>
       <c r="H596">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I596" t="inlineStr">
         <is>
@@ -23023,35 +23023,35 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C597">
-        <v>284518.5</v>
+        <v>693068</v>
       </c>
       <c r="D597">
-        <v>51213.36</v>
+        <v>76749.12</v>
       </c>
       <c r="E597">
-        <v>335731</v>
+        <v>817819.8200000001</v>
       </c>
       <c r="F597">
-        <v>72.03</v>
+        <v>102.77</v>
       </c>
       <c r="G597">
-        <v>3950</v>
+        <v>6743.874671596769</v>
       </c>
       <c r="H597">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J597" s="2">
@@ -23061,7 +23061,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -23070,26 +23070,26 @@
         </is>
       </c>
       <c r="C598">
-        <v>426384</v>
+        <v>488628</v>
       </c>
       <c r="D598">
-        <v>76749.12</v>
+        <v>87953.04000000001</v>
       </c>
       <c r="E598">
-        <v>503132.82</v>
+        <v>576581</v>
       </c>
       <c r="F598">
-        <v>67.67999999999999</v>
+        <v>77.56</v>
       </c>
       <c r="G598">
-        <v>6300.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H598">
         <v>2</v>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J598" s="2">
@@ -23099,31 +23099,31 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C599">
-        <v>441723</v>
+        <v>284518.5</v>
       </c>
       <c r="D599">
-        <v>260646.5</v>
+        <v>51213.36</v>
       </c>
       <c r="E599">
-        <v>521233.14</v>
+        <v>335731</v>
       </c>
       <c r="F599">
-        <v>60.51000000000001</v>
+        <v>72.03</v>
       </c>
       <c r="G599">
-        <v>7299.999999999999</v>
+        <v>3950</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I599" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -23146,26 +23146,26 @@
         </is>
       </c>
       <c r="C600">
-        <v>471822</v>
+        <v>518419.5</v>
       </c>
       <c r="D600">
-        <v>279942</v>
+        <v>0</v>
       </c>
       <c r="E600">
-        <v>556750</v>
+        <v>611734.6799999999</v>
       </c>
       <c r="F600">
-        <v>60.48999999999999</v>
+        <v>65.21000000000001</v>
       </c>
       <c r="G600">
-        <v>7800.000000000001</v>
+        <v>7949.999999999999</v>
       </c>
       <c r="H600">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J600" s="2">
@@ -23175,35 +23175,35 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C601">
-        <v>126507.2</v>
+        <v>201955</v>
       </c>
       <c r="D601">
-        <v>6325.360000000001</v>
+        <v>15689.7</v>
       </c>
       <c r="E601">
-        <v>132832.64</v>
+        <v>238307.2</v>
       </c>
       <c r="F601">
-        <v>46.51000000000001</v>
+        <v>62.14</v>
       </c>
       <c r="G601">
-        <v>2720</v>
+        <v>3250</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J601" s="2">
@@ -23213,7 +23213,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -23222,19 +23222,19 @@
         </is>
       </c>
       <c r="C602">
-        <v>137410</v>
+        <v>441723</v>
       </c>
       <c r="D602">
-        <v>15689.7</v>
+        <v>260646.5</v>
       </c>
       <c r="E602">
-        <v>162144.1</v>
+        <v>521233.14</v>
       </c>
       <c r="F602">
-        <v>42.28</v>
+        <v>60.51000000000001</v>
       </c>
       <c r="G602">
-        <v>3250</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H602">
         <v>2</v>
@@ -23251,7 +23251,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -23260,26 +23260,26 @@
         </is>
       </c>
       <c r="C603">
-        <v>307585.5</v>
+        <v>471822</v>
       </c>
       <c r="D603">
-        <v>179421.96</v>
+        <v>279942</v>
       </c>
       <c r="E603">
-        <v>362950</v>
+        <v>556750</v>
       </c>
       <c r="F603">
-        <v>38.69</v>
+        <v>60.48999999999999</v>
       </c>
       <c r="G603">
-        <v>7950.000000000001</v>
+        <v>7800.000000000001</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J603" s="2">
@@ -23289,7 +23289,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -23298,26 +23298,26 @@
         </is>
       </c>
       <c r="C604">
-        <v>233730</v>
+        <v>449025</v>
       </c>
       <c r="D604">
-        <v>42071.4</v>
+        <v>40446</v>
       </c>
       <c r="E604">
-        <v>275801</v>
+        <v>529850</v>
       </c>
       <c r="F604">
-        <v>37.1</v>
+        <v>59.87</v>
       </c>
       <c r="G604">
-        <v>6300</v>
+        <v>7500</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J604" s="2">
@@ -23327,35 +23327,35 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C605">
-        <v>226137</v>
+        <v>399266</v>
       </c>
       <c r="D605">
-        <v>40704.66</v>
+        <v>71867.88</v>
       </c>
       <c r="E605">
-        <v>266842</v>
+        <v>471134</v>
       </c>
       <c r="F605">
-        <v>35.06</v>
+        <v>50.54000000000001</v>
       </c>
       <c r="G605">
-        <v>6450</v>
+        <v>7899.999999999999</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J605" s="2">
@@ -23365,31 +23365,31 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C606">
-        <v>238108</v>
+        <v>126507.2</v>
       </c>
       <c r="D606">
-        <v>238108</v>
+        <v>6325.360000000001</v>
       </c>
       <c r="E606">
-        <v>280967</v>
+        <v>132832.64</v>
       </c>
       <c r="F606">
-        <v>31.33</v>
+        <v>46.51000000000001</v>
       </c>
       <c r="G606">
-        <v>7600</v>
+        <v>2720</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -23412,26 +23412,26 @@
         </is>
       </c>
       <c r="C607">
-        <v>192944</v>
+        <v>288864</v>
       </c>
       <c r="D607">
-        <v>34729.92</v>
+        <v>0</v>
       </c>
       <c r="E607">
-        <v>227674</v>
+        <v>340860</v>
       </c>
       <c r="F607">
-        <v>31.12</v>
+        <v>40.12</v>
       </c>
       <c r="G607">
-        <v>6200</v>
+        <v>7200.000000000001</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J607" s="2">
@@ -23441,7 +23441,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -23450,22 +23450,22 @@
         </is>
       </c>
       <c r="C608">
-        <v>264708</v>
+        <v>307585.5</v>
       </c>
       <c r="D608">
-        <v>264708</v>
+        <v>179421.96</v>
       </c>
       <c r="E608">
-        <v>312355</v>
+        <v>362950</v>
       </c>
       <c r="F608">
-        <v>30.78</v>
+        <v>38.69</v>
       </c>
       <c r="G608">
-        <v>8600</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr">
         <is>
@@ -23479,35 +23479,35 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C609">
-        <v>242451</v>
+        <v>226137</v>
       </c>
       <c r="D609">
-        <v>43641.18</v>
+        <v>40704.66</v>
       </c>
       <c r="E609">
-        <v>286092</v>
+        <v>266842</v>
       </c>
       <c r="F609">
-        <v>30.69</v>
+        <v>35.06</v>
       </c>
       <c r="G609">
-        <v>7900</v>
+        <v>6450</v>
       </c>
       <c r="H609">
         <v>1</v>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J609" s="2">
@@ -23517,35 +23517,35 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C610">
-        <v>188046</v>
+        <v>238108</v>
       </c>
       <c r="D610">
-        <v>33848.28</v>
+        <v>238108</v>
       </c>
       <c r="E610">
-        <v>221894.28</v>
+        <v>280967</v>
       </c>
       <c r="F610">
-        <v>30.33</v>
+        <v>31.33</v>
       </c>
       <c r="G610">
-        <v>6200</v>
+        <v>7600</v>
       </c>
       <c r="H610">
         <v>1</v>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J610" s="2">
@@ -23555,7 +23555,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -23564,26 +23564,26 @@
         </is>
       </c>
       <c r="C611">
-        <v>204322.5</v>
+        <v>192944</v>
       </c>
       <c r="D611">
-        <v>36778.05</v>
+        <v>34729.92</v>
       </c>
       <c r="E611">
-        <v>241101</v>
+        <v>227674</v>
       </c>
       <c r="F611">
-        <v>30.27</v>
+        <v>31.12</v>
       </c>
       <c r="G611">
-        <v>6750</v>
+        <v>6200</v>
       </c>
       <c r="H611">
         <v>1</v>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J611" s="2">
@@ -23593,35 +23593,35 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C612">
-        <v>193152</v>
+        <v>264708</v>
       </c>
       <c r="D612">
-        <v>34767.36</v>
+        <v>264708</v>
       </c>
       <c r="E612">
-        <v>227919</v>
+        <v>312355</v>
       </c>
       <c r="F612">
-        <v>30.18</v>
+        <v>30.78</v>
       </c>
       <c r="G612">
-        <v>6400</v>
+        <v>8600</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J612" s="2">
@@ -23631,31 +23631,31 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C613">
-        <v>276092</v>
+        <v>98496</v>
       </c>
       <c r="D613">
-        <v>276092</v>
+        <v>17729.28</v>
       </c>
       <c r="E613">
-        <v>325789</v>
+        <v>116225.28</v>
       </c>
       <c r="F613">
-        <v>30.01</v>
+        <v>30.78</v>
       </c>
       <c r="G613">
-        <v>9200</v>
+        <v>3200</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I613" t="inlineStr">
         <is>
@@ -23669,35 +23669,35 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>AMBA FRP PRIVATE LIMITED</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C614">
-        <v>180000</v>
+        <v>194240</v>
       </c>
       <c r="D614">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E614">
-        <v>189000</v>
+        <v>229203.2</v>
       </c>
       <c r="F614">
-        <v>30</v>
+        <v>30.35</v>
       </c>
       <c r="G614">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J614" s="2">
@@ -23707,35 +23707,35 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C615">
-        <v>224700</v>
+        <v>47011.5</v>
       </c>
       <c r="D615">
-        <v>40446</v>
+        <v>29124.32</v>
       </c>
       <c r="E615">
-        <v>265146</v>
+        <v>55473.08</v>
       </c>
       <c r="F615">
-        <v>29.96</v>
+        <v>30.33</v>
       </c>
       <c r="G615">
-        <v>7500</v>
+        <v>1550</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J615" s="2">
@@ -23745,7 +23745,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -23754,26 +23754,26 @@
         </is>
       </c>
       <c r="C616">
-        <v>217978</v>
+        <v>188046</v>
       </c>
       <c r="D616">
-        <v>39236.04</v>
+        <v>33848.28</v>
       </c>
       <c r="E616">
-        <v>257214</v>
+        <v>221894.28</v>
       </c>
       <c r="F616">
-        <v>29.86</v>
+        <v>30.33</v>
       </c>
       <c r="G616">
-        <v>7300</v>
+        <v>6200</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J616" s="2">
@@ -23783,7 +23783,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Jai Hind Wire Rod Mills Private Limited</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -23792,19 +23792,19 @@
         </is>
       </c>
       <c r="C617">
-        <v>226328</v>
+        <v>204322.5</v>
       </c>
       <c r="D617">
-        <v>226328</v>
+        <v>36778.05</v>
       </c>
       <c r="E617">
-        <v>267067</v>
+        <v>241101</v>
       </c>
       <c r="F617">
-        <v>29.78</v>
+        <v>30.27</v>
       </c>
       <c r="G617">
-        <v>7600</v>
+        <v>6750</v>
       </c>
       <c r="H617">
         <v>1</v>
@@ -23821,35 +23821,35 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C618">
-        <v>187047</v>
+        <v>260064</v>
       </c>
       <c r="D618">
-        <v>33668.46</v>
+        <v>0</v>
       </c>
       <c r="E618">
-        <v>220715</v>
+        <v>306876</v>
       </c>
       <c r="F618">
-        <v>29.69</v>
+        <v>30.24</v>
       </c>
       <c r="G618">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="H618">
         <v>1</v>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J618" s="2">
@@ -23859,35 +23859,35 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C619">
-        <v>234240</v>
+        <v>193152</v>
       </c>
       <c r="D619">
-        <v>234240</v>
+        <v>34767.36</v>
       </c>
       <c r="E619">
-        <v>276403</v>
+        <v>227919</v>
       </c>
       <c r="F619">
-        <v>29.28</v>
+        <v>30.18</v>
       </c>
       <c r="G619">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J619" s="2">
@@ -23897,31 +23897,31 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C620">
-        <v>111936</v>
+        <v>276092</v>
       </c>
       <c r="D620">
-        <v>20148.48</v>
+        <v>276092</v>
       </c>
       <c r="E620">
-        <v>132084</v>
+        <v>325789</v>
       </c>
       <c r="F620">
-        <v>25.44</v>
+        <v>30.01</v>
       </c>
       <c r="G620">
-        <v>4400</v>
+        <v>9200</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr">
         <is>
@@ -23935,35 +23935,35 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>AMBA FRP PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C621">
-        <v>191770</v>
+        <v>180000</v>
       </c>
       <c r="D621">
-        <v>34518.6</v>
+        <v>9000</v>
       </c>
       <c r="E621">
-        <v>226289</v>
+        <v>189000</v>
       </c>
       <c r="F621">
-        <v>25.4</v>
+        <v>30</v>
       </c>
       <c r="G621">
-        <v>7550</v>
+        <v>6000</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J621" s="2">
@@ -23973,7 +23973,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -23982,26 +23982,26 @@
         </is>
       </c>
       <c r="C622">
-        <v>176050</v>
+        <v>217978</v>
       </c>
       <c r="D622">
-        <v>31689</v>
+        <v>39236.04</v>
       </c>
       <c r="E622">
-        <v>207739</v>
+        <v>257214</v>
       </c>
       <c r="F622">
-        <v>25.15</v>
+        <v>29.86</v>
       </c>
       <c r="G622">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J622" s="2">
@@ -24011,35 +24011,35 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Jai Hind Wire Rod Mills Private Limited</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C623">
-        <v>65720</v>
+        <v>226328</v>
       </c>
       <c r="D623">
-        <v>0</v>
+        <v>226328</v>
       </c>
       <c r="E623">
-        <v>69006</v>
+        <v>267067</v>
       </c>
       <c r="F623">
-        <v>24.8</v>
+        <v>29.78</v>
       </c>
       <c r="G623">
-        <v>2650</v>
+        <v>7600</v>
       </c>
       <c r="H623">
         <v>1</v>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J623" s="2">
@@ -24049,35 +24049,35 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C624">
-        <v>71264</v>
+        <v>187047</v>
       </c>
       <c r="D624">
-        <v>12827.52</v>
+        <v>33668.46</v>
       </c>
       <c r="E624">
-        <v>84092</v>
+        <v>220715</v>
       </c>
       <c r="F624">
-        <v>22.27</v>
+        <v>29.69</v>
       </c>
       <c r="G624">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J624" s="2">
@@ -24087,31 +24087,31 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C625">
-        <v>148400</v>
+        <v>234240</v>
       </c>
       <c r="D625">
-        <v>87290</v>
+        <v>234240</v>
       </c>
       <c r="E625">
-        <v>175111.8</v>
+        <v>276403</v>
       </c>
       <c r="F625">
-        <v>21.2</v>
+        <v>29.28</v>
       </c>
       <c r="G625">
-        <v>6999.999999999999</v>
+        <v>8000</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="inlineStr">
         <is>
@@ -24125,31 +24125,31 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C626">
-        <v>135616</v>
+        <v>111936</v>
       </c>
       <c r="D626">
-        <v>18397.44</v>
+        <v>20148.48</v>
       </c>
       <c r="E626">
-        <v>160026.44</v>
+        <v>132084</v>
       </c>
       <c r="F626">
-        <v>21.19</v>
+        <v>25.44</v>
       </c>
       <c r="G626">
-        <v>6400</v>
+        <v>4400</v>
       </c>
       <c r="H626">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I626" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -24172,26 +24172,26 @@
         </is>
       </c>
       <c r="C627">
-        <v>64415</v>
+        <v>191770</v>
       </c>
       <c r="D627">
-        <v>11594.72</v>
+        <v>34518.6</v>
       </c>
       <c r="E627">
-        <v>76009</v>
+        <v>226289</v>
       </c>
       <c r="F627">
-        <v>19.82</v>
+        <v>25.4</v>
       </c>
       <c r="G627">
-        <v>3250</v>
+        <v>7550</v>
       </c>
       <c r="H627">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J627" s="2">
@@ -24201,35 +24201,35 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C628">
-        <v>27760.5</v>
+        <v>159138</v>
       </c>
       <c r="D628">
-        <v>14041.02</v>
+        <v>0</v>
       </c>
       <c r="E628">
-        <v>32756.75</v>
+        <v>187782.84</v>
       </c>
       <c r="F628">
-        <v>17.91</v>
+        <v>25.26</v>
       </c>
       <c r="G628">
-        <v>1550</v>
+        <v>6300</v>
       </c>
       <c r="H628">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J628" s="2">
@@ -24239,35 +24239,35 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C629">
-        <v>34102</v>
+        <v>176050</v>
       </c>
       <c r="D629">
-        <v>12151.8</v>
+        <v>31689</v>
       </c>
       <c r="E629">
-        <v>40240.36</v>
+        <v>207739</v>
       </c>
       <c r="F629">
-        <v>10.03</v>
+        <v>25.15</v>
       </c>
       <c r="G629">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J629" s="2">
@@ -24277,35 +24277,35 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C630">
-        <v>64218</v>
+        <v>65720</v>
       </c>
       <c r="D630">
-        <v>11559.24</v>
+        <v>0</v>
       </c>
       <c r="E630">
-        <v>75777</v>
+        <v>69006</v>
       </c>
       <c r="F630">
-        <v>9.73</v>
+        <v>24.8</v>
       </c>
       <c r="G630">
-        <v>6600</v>
+        <v>2650</v>
       </c>
       <c r="H630">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J630" s="2">
@@ -24315,7 +24315,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -24324,19 +24324,19 @@
         </is>
       </c>
       <c r="C631">
-        <v>12528</v>
+        <v>71264</v>
       </c>
       <c r="D631">
-        <v>2255.04</v>
+        <v>12827.52</v>
       </c>
       <c r="E631">
-        <v>14783</v>
+        <v>84092</v>
       </c>
       <c r="F631">
-        <v>7.83</v>
+        <v>22.27</v>
       </c>
       <c r="G631">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="H631">
         <v>2</v>
@@ -24353,35 +24353,35 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C632">
-        <v>15640</v>
+        <v>129960</v>
       </c>
       <c r="D632">
-        <v>13815</v>
+        <v>0</v>
       </c>
       <c r="E632">
-        <v>18455.2</v>
+        <v>153352.8</v>
       </c>
       <c r="F632">
-        <v>4.6</v>
+        <v>21.66</v>
       </c>
       <c r="G632">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J632" s="2">
@@ -24391,38 +24391,342 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C633">
+        <v>148400</v>
+      </c>
+      <c r="D633">
+        <v>87290</v>
+      </c>
+      <c r="E633">
+        <v>175111.8</v>
+      </c>
+      <c r="F633">
+        <v>21.2</v>
+      </c>
+      <c r="G633">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="H633">
+        <v>2</v>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J633" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C634">
+        <v>135616</v>
+      </c>
+      <c r="D634">
+        <v>18397.44</v>
+      </c>
+      <c r="E634">
+        <v>160026.44</v>
+      </c>
+      <c r="F634">
+        <v>21.19</v>
+      </c>
+      <c r="G634">
+        <v>6400</v>
+      </c>
+      <c r="H634">
+        <v>3</v>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J634" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C635">
+        <v>64415</v>
+      </c>
+      <c r="D635">
+        <v>11594.72</v>
+      </c>
+      <c r="E635">
+        <v>76009</v>
+      </c>
+      <c r="F635">
+        <v>19.82</v>
+      </c>
+      <c r="G635">
+        <v>3250</v>
+      </c>
+      <c r="H635">
+        <v>4</v>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J635" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C636">
+        <v>100932</v>
+      </c>
+      <c r="D636">
+        <v>0</v>
+      </c>
+      <c r="E636">
+        <v>119099.76</v>
+      </c>
+      <c r="F636">
+        <v>12.94</v>
+      </c>
+      <c r="G636">
+        <v>7800</v>
+      </c>
+      <c r="H636">
+        <v>1</v>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J636" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C637">
+        <v>34102</v>
+      </c>
+      <c r="D637">
+        <v>12151.8</v>
+      </c>
+      <c r="E637">
+        <v>40240.36</v>
+      </c>
+      <c r="F637">
+        <v>10.03</v>
+      </c>
+      <c r="G637">
+        <v>3400</v>
+      </c>
+      <c r="H637">
+        <v>2</v>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J637" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C638">
+        <v>64218</v>
+      </c>
+      <c r="D638">
+        <v>11559.24</v>
+      </c>
+      <c r="E638">
+        <v>75777</v>
+      </c>
+      <c r="F638">
+        <v>9.73</v>
+      </c>
+      <c r="G638">
+        <v>6600</v>
+      </c>
+      <c r="H638">
+        <v>3</v>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J638" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C639">
+        <v>12528</v>
+      </c>
+      <c r="D639">
+        <v>2255.04</v>
+      </c>
+      <c r="E639">
+        <v>14783</v>
+      </c>
+      <c r="F639">
+        <v>7.83</v>
+      </c>
+      <c r="G639">
+        <v>1600</v>
+      </c>
+      <c r="H639">
+        <v>2</v>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J639" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C640">
+        <v>15640</v>
+      </c>
+      <c r="D640">
+        <v>13815</v>
+      </c>
+      <c r="E640">
+        <v>18455.2</v>
+      </c>
+      <c r="F640">
+        <v>4.6</v>
+      </c>
+      <c r="G640">
+        <v>3400</v>
+      </c>
+      <c r="H640">
+        <v>1</v>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J640" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
           <t>SAMKRG PISTONS AND RINGS LIMITED</t>
         </is>
       </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C633">
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C641">
         <v>9920</v>
       </c>
-      <c r="D633">
+      <c r="D641">
         <v>1785.6</v>
       </c>
-      <c r="E633">
+      <c r="E641">
         <v>11706</v>
       </c>
-      <c r="F633">
+      <c r="F641">
         <v>1.24</v>
       </c>
-      <c r="G633">
+      <c r="G641">
         <v>8000</v>
       </c>
-      <c r="H633">
-        <v>1</v>
-      </c>
-      <c r="I633" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J633" s="2">
+      <c r="H641">
+        <v>1</v>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J641" s="2">
         <v>45047</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J641"/>
+  <dimension ref="A1:J650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22956,22 +22956,19 @@
         </is>
       </c>
       <c r="C595">
-        <v>1618729</v>
+        <v>2413717</v>
       </c>
       <c r="D595">
-        <v>588587.16</v>
-      </c>
-      <c r="E595">
-        <v>1910101.62</v>
+        <v>1262305.74</v>
       </c>
       <c r="F595">
-        <v>227.99</v>
+        <v>322.88</v>
       </c>
       <c r="G595">
-        <v>7100</v>
+        <v>7475.585356788899</v>
       </c>
       <c r="H595">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I595" t="inlineStr">
         <is>
@@ -22994,22 +22991,19 @@
         </is>
       </c>
       <c r="C596">
-        <v>1392132</v>
+        <v>2101509</v>
       </c>
       <c r="D596">
-        <v>353448.48</v>
-      </c>
-      <c r="E596">
-        <v>1642715.52</v>
+        <v>1206971.16</v>
       </c>
       <c r="F596">
-        <v>165.73</v>
+        <v>231.89</v>
       </c>
       <c r="G596">
-        <v>8400</v>
+        <v>9062.525335288283</v>
       </c>
       <c r="H596">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I596" t="inlineStr">
         <is>
@@ -23023,35 +23017,35 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C597">
-        <v>693068</v>
+        <v>620203.5</v>
       </c>
       <c r="D597">
-        <v>76749.12</v>
+        <v>76816.24000000001</v>
       </c>
       <c r="E597">
-        <v>817819.8200000001</v>
+        <v>620210</v>
       </c>
       <c r="F597">
-        <v>102.77</v>
+        <v>144.05</v>
       </c>
       <c r="G597">
-        <v>6743.874671596769</v>
+        <v>4305.473793821589</v>
       </c>
       <c r="H597">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J597" s="2">
@@ -23061,7 +23055,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -23070,26 +23064,23 @@
         </is>
       </c>
       <c r="C598">
-        <v>488628</v>
+        <v>1035781</v>
       </c>
       <c r="D598">
-        <v>87953.04000000001</v>
-      </c>
-      <c r="E598">
-        <v>576581</v>
+        <v>537697</v>
       </c>
       <c r="F598">
-        <v>77.56</v>
+        <v>126.17</v>
       </c>
       <c r="G598">
-        <v>6300</v>
+        <v>8209.407941666006</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J598" s="2">
@@ -23099,31 +23090,28 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C599">
-        <v>284518.5</v>
+        <v>965109</v>
       </c>
       <c r="D599">
-        <v>51213.36</v>
-      </c>
-      <c r="E599">
-        <v>335731</v>
+        <v>704193.86</v>
       </c>
       <c r="F599">
-        <v>72.03</v>
+        <v>121.27</v>
       </c>
       <c r="G599">
-        <v>3950</v>
+        <v>7958.349138286468</v>
       </c>
       <c r="H599">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I599" t="inlineStr">
         <is>
@@ -23137,35 +23125,35 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C600">
-        <v>518419.5</v>
+        <v>693068</v>
       </c>
       <c r="D600">
-        <v>0</v>
+        <v>76749.12</v>
       </c>
       <c r="E600">
-        <v>611734.6799999999</v>
+        <v>817819.8200000001</v>
       </c>
       <c r="F600">
-        <v>65.21000000000001</v>
+        <v>102.77</v>
       </c>
       <c r="G600">
-        <v>7949.999999999999</v>
+        <v>6743.874671596769</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J600" s="2">
@@ -23175,35 +23163,32 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C601">
-        <v>201955</v>
+        <v>751071</v>
       </c>
       <c r="D601">
-        <v>15689.7</v>
-      </c>
-      <c r="E601">
-        <v>238307.2</v>
+        <v>516593.64</v>
       </c>
       <c r="F601">
-        <v>62.14</v>
+        <v>90.83</v>
       </c>
       <c r="G601">
-        <v>3250</v>
+        <v>8268.975008257185</v>
       </c>
       <c r="H601">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J601" s="2">
@@ -23213,31 +23198,31 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C602">
-        <v>441723</v>
+        <v>708197</v>
       </c>
       <c r="D602">
-        <v>260646.5</v>
+        <v>95430.34</v>
       </c>
       <c r="E602">
-        <v>521233.14</v>
+        <v>732940</v>
       </c>
       <c r="F602">
-        <v>60.51000000000001</v>
+        <v>83.68000000000001</v>
       </c>
       <c r="G602">
-        <v>7299.999999999999</v>
+        <v>8463.157265774378</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I602" t="inlineStr">
         <is>
@@ -23251,35 +23236,35 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C603">
-        <v>471822</v>
+        <v>488628</v>
       </c>
       <c r="D603">
-        <v>279942</v>
+        <v>87953.04000000001</v>
       </c>
       <c r="E603">
-        <v>556750</v>
+        <v>576581</v>
       </c>
       <c r="F603">
-        <v>60.48999999999999</v>
+        <v>77.56</v>
       </c>
       <c r="G603">
-        <v>7800.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H603">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J603" s="2">
@@ -23289,35 +23274,32 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C604">
-        <v>449025</v>
+        <v>591642.5</v>
       </c>
       <c r="D604">
-        <v>40446</v>
-      </c>
-      <c r="E604">
-        <v>529850</v>
+        <v>420148.28</v>
       </c>
       <c r="F604">
-        <v>59.87</v>
+        <v>68.97</v>
       </c>
       <c r="G604">
-        <v>7500</v>
+        <v>8578.258663186893</v>
       </c>
       <c r="H604">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J604" s="2">
@@ -23327,31 +23309,28 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C605">
-        <v>399266</v>
+        <v>522569</v>
       </c>
       <c r="D605">
-        <v>71867.88</v>
-      </c>
-      <c r="E605">
-        <v>471134</v>
+        <v>297364</v>
       </c>
       <c r="F605">
-        <v>50.54000000000001</v>
+        <v>65.22</v>
       </c>
       <c r="G605">
-        <v>7899.999999999999</v>
+        <v>8012.404170499847</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I605" t="inlineStr">
         <is>
@@ -23365,35 +23344,32 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C606">
-        <v>126507.2</v>
+        <v>249806</v>
       </c>
       <c r="D606">
-        <v>6325.360000000001</v>
-      </c>
-      <c r="E606">
-        <v>132832.64</v>
+        <v>160445.72</v>
       </c>
       <c r="F606">
-        <v>46.51000000000001</v>
+        <v>63.19</v>
       </c>
       <c r="G606">
-        <v>2720</v>
+        <v>3953.252096850768</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J606" s="2">
@@ -23403,35 +23379,32 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C607">
-        <v>288864</v>
+        <v>517102</v>
       </c>
       <c r="D607">
-        <v>0</v>
-      </c>
-      <c r="E607">
-        <v>340860</v>
+        <v>474543.52</v>
       </c>
       <c r="F607">
-        <v>40.12</v>
+        <v>62.44</v>
       </c>
       <c r="G607">
-        <v>7200.000000000001</v>
+        <v>8281.582319026265</v>
       </c>
       <c r="H607">
         <v>2</v>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J607" s="2">
@@ -23441,31 +23414,31 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C608">
-        <v>307585.5</v>
+        <v>201955</v>
       </c>
       <c r="D608">
-        <v>179421.96</v>
+        <v>15689.7</v>
       </c>
       <c r="E608">
-        <v>362950</v>
+        <v>238307.2</v>
       </c>
       <c r="F608">
-        <v>38.69</v>
+        <v>62.14</v>
       </c>
       <c r="G608">
-        <v>7950.000000000001</v>
+        <v>3250</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I608" t="inlineStr">
         <is>
@@ -23479,7 +23452,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -23488,26 +23461,26 @@
         </is>
       </c>
       <c r="C609">
-        <v>226137</v>
+        <v>417256</v>
       </c>
       <c r="D609">
-        <v>40704.66</v>
+        <v>51330.14</v>
       </c>
       <c r="E609">
-        <v>266842</v>
+        <v>416140.28</v>
       </c>
       <c r="F609">
-        <v>35.06</v>
+        <v>61.66</v>
       </c>
       <c r="G609">
-        <v>6450</v>
+        <v>6767.045085955238</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J609" s="2">
@@ -23517,31 +23490,28 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C610">
-        <v>238108</v>
+        <v>421071</v>
       </c>
       <c r="D610">
-        <v>238108</v>
-      </c>
-      <c r="E610">
-        <v>280967</v>
+        <v>227919</v>
       </c>
       <c r="F610">
-        <v>31.33</v>
+        <v>60.36</v>
       </c>
       <c r="G610">
-        <v>7600</v>
+        <v>6975.994035785288</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I610" t="inlineStr">
         <is>
@@ -23555,35 +23525,32 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C611">
-        <v>192944</v>
+        <v>603075</v>
       </c>
       <c r="D611">
-        <v>34729.92</v>
-      </c>
-      <c r="E611">
-        <v>227674</v>
+        <v>553196.28</v>
       </c>
       <c r="F611">
-        <v>31.12</v>
+        <v>60.13</v>
       </c>
       <c r="G611">
-        <v>6200</v>
+        <v>10029.51937468818</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J611" s="2">
@@ -23593,7 +23560,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -23602,22 +23569,19 @@
         </is>
       </c>
       <c r="C612">
-        <v>264708</v>
+        <v>516874</v>
       </c>
       <c r="D612">
-        <v>264708</v>
-      </c>
-      <c r="E612">
-        <v>312355</v>
+        <v>473760.4</v>
       </c>
       <c r="F612">
-        <v>30.78</v>
+        <v>59.22</v>
       </c>
       <c r="G612">
-        <v>8600</v>
+        <v>8728.031070584262</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I612" t="inlineStr">
         <is>
@@ -23631,35 +23595,35 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C613">
-        <v>98496</v>
+        <v>126507.2</v>
       </c>
       <c r="D613">
-        <v>17729.28</v>
+        <v>6325.360000000001</v>
       </c>
       <c r="E613">
-        <v>116225.28</v>
+        <v>132832.64</v>
       </c>
       <c r="F613">
-        <v>30.78</v>
+        <v>46.51000000000001</v>
       </c>
       <c r="G613">
-        <v>3200</v>
+        <v>2720</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J613" s="2">
@@ -23669,7 +23633,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -23678,26 +23642,26 @@
         </is>
       </c>
       <c r="C614">
-        <v>194240</v>
+        <v>288864</v>
       </c>
       <c r="D614">
         <v>0</v>
       </c>
       <c r="E614">
-        <v>229203.2</v>
+        <v>340860</v>
       </c>
       <c r="F614">
-        <v>30.35</v>
+        <v>40.12</v>
       </c>
       <c r="G614">
-        <v>6400</v>
+        <v>7200.000000000001</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J614" s="2">
@@ -23716,22 +23680,22 @@
         </is>
       </c>
       <c r="C615">
-        <v>47011.5</v>
+        <v>57784</v>
       </c>
       <c r="D615">
-        <v>29124.32</v>
+        <v>30093.485</v>
       </c>
       <c r="E615">
-        <v>55473.08</v>
+        <v>68184.63</v>
       </c>
       <c r="F615">
-        <v>30.33</v>
+        <v>37.28</v>
       </c>
       <c r="G615">
         <v>1550</v>
       </c>
       <c r="H615">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I615" t="inlineStr">
         <is>
@@ -23745,7 +23709,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -23754,26 +23718,26 @@
         </is>
       </c>
       <c r="C616">
-        <v>188046</v>
+        <v>226137</v>
       </c>
       <c r="D616">
-        <v>33848.28</v>
+        <v>40704.66</v>
       </c>
       <c r="E616">
-        <v>221894.28</v>
+        <v>266842</v>
       </c>
       <c r="F616">
-        <v>30.33</v>
+        <v>35.06</v>
       </c>
       <c r="G616">
-        <v>6200</v>
+        <v>6450</v>
       </c>
       <c r="H616">
         <v>1</v>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J616" s="2">
@@ -23783,28 +23747,28 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C617">
-        <v>204322.5</v>
+        <v>277693.5</v>
       </c>
       <c r="D617">
-        <v>36778.05</v>
+        <v>0</v>
       </c>
       <c r="E617">
-        <v>241101</v>
+        <v>327678</v>
       </c>
       <c r="F617">
-        <v>30.27</v>
+        <v>34.93</v>
       </c>
       <c r="G617">
-        <v>6750</v>
+        <v>7950</v>
       </c>
       <c r="H617">
         <v>1</v>
@@ -23821,31 +23785,31 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C618">
-        <v>260064</v>
+        <v>118049</v>
       </c>
       <c r="D618">
-        <v>0</v>
+        <v>16396.2</v>
       </c>
       <c r="E618">
-        <v>306876</v>
+        <v>123740</v>
       </c>
       <c r="F618">
-        <v>30.24</v>
+        <v>34.66</v>
       </c>
       <c r="G618">
-        <v>8600</v>
+        <v>3405.914598961338</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I618" t="inlineStr">
         <is>
@@ -23859,7 +23823,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -23868,26 +23832,23 @@
         </is>
       </c>
       <c r="C619">
-        <v>193152</v>
+        <v>261202</v>
       </c>
       <c r="D619">
-        <v>34767.36</v>
-      </c>
-      <c r="E619">
-        <v>227919</v>
+        <v>221357.65</v>
       </c>
       <c r="F619">
-        <v>30.18</v>
+        <v>31.85</v>
       </c>
       <c r="G619">
-        <v>6400</v>
+        <v>8201.004709576138</v>
       </c>
       <c r="H619">
         <v>2</v>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J619" s="2">
@@ -23897,35 +23858,35 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C620">
-        <v>276092</v>
+        <v>192944</v>
       </c>
       <c r="D620">
-        <v>276092</v>
+        <v>34729.92</v>
       </c>
       <c r="E620">
-        <v>325789</v>
+        <v>227674</v>
       </c>
       <c r="F620">
-        <v>30.01</v>
+        <v>31.12</v>
       </c>
       <c r="G620">
-        <v>9200</v>
+        <v>6200</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J620" s="2">
@@ -23935,35 +23896,32 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>AMBA FRP PRIVATE LIMITED</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C621">
-        <v>180000</v>
+        <v>228893</v>
       </c>
       <c r="D621">
-        <v>9000</v>
-      </c>
-      <c r="E621">
-        <v>189000</v>
+        <v>193977.14</v>
       </c>
       <c r="F621">
-        <v>30</v>
+        <v>30.79</v>
       </c>
       <c r="G621">
-        <v>6000</v>
+        <v>7434.004546930822</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J621" s="2">
@@ -23973,31 +23931,31 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C622">
-        <v>217978</v>
+        <v>264708</v>
       </c>
       <c r="D622">
-        <v>39236.04</v>
+        <v>264708</v>
       </c>
       <c r="E622">
-        <v>257214</v>
+        <v>312355</v>
       </c>
       <c r="F622">
-        <v>29.86</v>
+        <v>30.78</v>
       </c>
       <c r="G622">
-        <v>7300</v>
+        <v>8600</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622" t="inlineStr">
         <is>
@@ -24011,28 +23969,28 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Jai Hind Wire Rod Mills Private Limited</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C623">
-        <v>226328</v>
+        <v>98496</v>
       </c>
       <c r="D623">
-        <v>226328</v>
+        <v>17729.28</v>
       </c>
       <c r="E623">
-        <v>267067</v>
+        <v>116225.28</v>
       </c>
       <c r="F623">
-        <v>29.78</v>
+        <v>30.78</v>
       </c>
       <c r="G623">
-        <v>7600</v>
+        <v>3200</v>
       </c>
       <c r="H623">
         <v>1</v>
@@ -24049,7 +24007,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -24058,26 +24016,23 @@
         </is>
       </c>
       <c r="C624">
-        <v>187047</v>
+        <v>227109</v>
       </c>
       <c r="D624">
-        <v>33668.46</v>
-      </c>
-      <c r="E624">
-        <v>220715</v>
+        <v>192465.3</v>
       </c>
       <c r="F624">
-        <v>29.69</v>
+        <v>30.55</v>
       </c>
       <c r="G624">
-        <v>6300</v>
+        <v>7434.009819967267</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J624" s="2">
@@ -24087,35 +24042,35 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C625">
-        <v>234240</v>
+        <v>194240</v>
       </c>
       <c r="D625">
-        <v>234240</v>
+        <v>0</v>
       </c>
       <c r="E625">
-        <v>276403</v>
+        <v>229203.2</v>
       </c>
       <c r="F625">
-        <v>29.28</v>
+        <v>30.35</v>
       </c>
       <c r="G625">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="H625">
         <v>1</v>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J625" s="2">
@@ -24125,28 +24080,28 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C626">
-        <v>111936</v>
+        <v>204322.5</v>
       </c>
       <c r="D626">
-        <v>20148.48</v>
+        <v>36778.05</v>
       </c>
       <c r="E626">
-        <v>132084</v>
+        <v>241101</v>
       </c>
       <c r="F626">
-        <v>25.44</v>
+        <v>30.27</v>
       </c>
       <c r="G626">
-        <v>4400</v>
+        <v>6750</v>
       </c>
       <c r="H626">
         <v>1</v>
@@ -24163,35 +24118,35 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C627">
-        <v>191770</v>
+        <v>260064</v>
       </c>
       <c r="D627">
-        <v>34518.6</v>
+        <v>0</v>
       </c>
       <c r="E627">
-        <v>226289</v>
+        <v>306876</v>
       </c>
       <c r="F627">
-        <v>25.4</v>
+        <v>30.24</v>
       </c>
       <c r="G627">
-        <v>7550</v>
+        <v>8600</v>
       </c>
       <c r="H627">
         <v>1</v>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J627" s="2">
@@ -24201,35 +24156,32 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Noble Tech Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C628">
-        <v>159138</v>
+        <v>319874</v>
       </c>
       <c r="D628">
-        <v>0</v>
-      </c>
-      <c r="E628">
-        <v>187782.84</v>
+        <v>271079.6</v>
       </c>
       <c r="F628">
-        <v>25.26</v>
+        <v>30.12</v>
       </c>
       <c r="G628">
-        <v>6300</v>
+        <v>10619.98671978752</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J628" s="2">
@@ -24239,7 +24191,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -24248,26 +24200,23 @@
         </is>
       </c>
       <c r="C629">
-        <v>176050</v>
+        <v>227466</v>
       </c>
       <c r="D629">
-        <v>31689</v>
-      </c>
-      <c r="E629">
-        <v>207739</v>
+        <v>192767.76</v>
       </c>
       <c r="F629">
-        <v>25.15</v>
+        <v>30.12</v>
       </c>
       <c r="G629">
-        <v>7000</v>
+        <v>7551.99203187251</v>
       </c>
       <c r="H629">
         <v>1</v>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J629" s="2">
@@ -24277,35 +24226,35 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>AMBA FRP PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C630">
-        <v>65720</v>
+        <v>180000</v>
       </c>
       <c r="D630">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E630">
-        <v>69006</v>
+        <v>189000</v>
       </c>
       <c r="F630">
-        <v>24.8</v>
+        <v>30</v>
       </c>
       <c r="G630">
-        <v>2650</v>
+        <v>6000</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J630" s="2">
@@ -24315,31 +24264,31 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Jai Hind Wire Rod Mills Private Limited</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C631">
-        <v>71264</v>
+        <v>226328</v>
       </c>
       <c r="D631">
-        <v>12827.52</v>
+        <v>226328</v>
       </c>
       <c r="E631">
-        <v>84092</v>
+        <v>267067</v>
       </c>
       <c r="F631">
-        <v>22.27</v>
+        <v>29.78</v>
       </c>
       <c r="G631">
-        <v>3200</v>
+        <v>7600</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="inlineStr">
         <is>
@@ -24353,7 +24302,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -24362,26 +24311,26 @@
         </is>
       </c>
       <c r="C632">
-        <v>129960</v>
+        <v>187047</v>
       </c>
       <c r="D632">
-        <v>0</v>
+        <v>33668.46</v>
       </c>
       <c r="E632">
-        <v>153352.8</v>
+        <v>220715</v>
       </c>
       <c r="F632">
-        <v>21.66</v>
+        <v>29.69</v>
       </c>
       <c r="G632">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J632" s="2">
@@ -24391,7 +24340,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -24400,26 +24349,23 @@
         </is>
       </c>
       <c r="C633">
-        <v>148400</v>
+        <v>278291</v>
       </c>
       <c r="D633">
-        <v>87290</v>
-      </c>
-      <c r="E633">
-        <v>175111.8</v>
+        <v>235839.8</v>
       </c>
       <c r="F633">
-        <v>21.2</v>
+        <v>29.48</v>
       </c>
       <c r="G633">
-        <v>6999.999999999999</v>
+        <v>9439.993215739485</v>
       </c>
       <c r="H633">
         <v>2</v>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J633" s="2">
@@ -24429,31 +24375,31 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C634">
-        <v>135616</v>
+        <v>111936</v>
       </c>
       <c r="D634">
-        <v>18397.44</v>
+        <v>20148.48</v>
       </c>
       <c r="E634">
-        <v>160026.44</v>
+        <v>132084</v>
       </c>
       <c r="F634">
-        <v>21.19</v>
+        <v>25.44</v>
       </c>
       <c r="G634">
-        <v>6400</v>
+        <v>4400</v>
       </c>
       <c r="H634">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I634" t="inlineStr">
         <is>
@@ -24467,7 +24413,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -24476,26 +24422,26 @@
         </is>
       </c>
       <c r="C635">
-        <v>64415</v>
+        <v>191770</v>
       </c>
       <c r="D635">
-        <v>11594.72</v>
+        <v>34518.6</v>
       </c>
       <c r="E635">
-        <v>76009</v>
+        <v>226289</v>
       </c>
       <c r="F635">
-        <v>19.82</v>
+        <v>25.4</v>
       </c>
       <c r="G635">
-        <v>3250</v>
+        <v>7550</v>
       </c>
       <c r="H635">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J635" s="2">
@@ -24505,35 +24451,32 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C636">
-        <v>100932</v>
+        <v>187783</v>
       </c>
       <c r="D636">
-        <v>0</v>
-      </c>
-      <c r="E636">
-        <v>119099.76</v>
+        <v>159138.16</v>
       </c>
       <c r="F636">
-        <v>12.94</v>
+        <v>25.26</v>
       </c>
       <c r="G636">
-        <v>7800</v>
+        <v>7434.006334125099</v>
       </c>
       <c r="H636">
         <v>1</v>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J636" s="2">
@@ -24543,35 +24486,35 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C637">
-        <v>34102</v>
+        <v>176050</v>
       </c>
       <c r="D637">
-        <v>12151.8</v>
+        <v>31689</v>
       </c>
       <c r="E637">
-        <v>40240.36</v>
+        <v>207739</v>
       </c>
       <c r="F637">
-        <v>10.03</v>
+        <v>25.15</v>
       </c>
       <c r="G637">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J637" s="2">
@@ -24581,35 +24524,35 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C638">
-        <v>64218</v>
+        <v>65720</v>
       </c>
       <c r="D638">
-        <v>11559.24</v>
+        <v>0</v>
       </c>
       <c r="E638">
-        <v>75777</v>
+        <v>69006</v>
       </c>
       <c r="F638">
-        <v>9.73</v>
+        <v>24.8</v>
       </c>
       <c r="G638">
-        <v>6600</v>
+        <v>2650</v>
       </c>
       <c r="H638">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J638" s="2">
@@ -24628,22 +24571,22 @@
         </is>
       </c>
       <c r="C639">
-        <v>12528</v>
+        <v>43302</v>
       </c>
       <c r="D639">
-        <v>2255.04</v>
+        <v>4601.84</v>
       </c>
       <c r="E639">
-        <v>14783</v>
+        <v>40863</v>
       </c>
       <c r="F639">
-        <v>7.83</v>
+        <v>24.13</v>
       </c>
       <c r="G639">
-        <v>1600</v>
+        <v>1794.529631164526</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I639" t="inlineStr">
         <is>
@@ -24657,35 +24600,35 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C640">
-        <v>15640</v>
+        <v>129960</v>
       </c>
       <c r="D640">
-        <v>13815</v>
+        <v>0</v>
       </c>
       <c r="E640">
-        <v>18455.2</v>
+        <v>153352.8</v>
       </c>
       <c r="F640">
-        <v>4.6</v>
+        <v>21.66</v>
       </c>
       <c r="G640">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J640" s="2">
@@ -24695,38 +24638,377 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C641">
+        <v>148400</v>
+      </c>
+      <c r="D641">
+        <v>87290</v>
+      </c>
+      <c r="E641">
+        <v>175111.8</v>
+      </c>
+      <c r="F641">
+        <v>21.2</v>
+      </c>
+      <c r="G641">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="H641">
+        <v>2</v>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J641" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C642">
+        <v>135616</v>
+      </c>
+      <c r="D642">
+        <v>18397.44</v>
+      </c>
+      <c r="E642">
+        <v>160026.44</v>
+      </c>
+      <c r="F642">
+        <v>21.19</v>
+      </c>
+      <c r="G642">
+        <v>6400</v>
+      </c>
+      <c r="H642">
+        <v>3</v>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J642" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C643">
+        <v>79760</v>
+      </c>
+      <c r="D643">
+        <v>7178.4</v>
+      </c>
+      <c r="E643">
+        <v>94116.79999999999</v>
+      </c>
+      <c r="F643">
+        <v>19.94</v>
+      </c>
+      <c r="G643">
+        <v>4000</v>
+      </c>
+      <c r="H643">
+        <v>1</v>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J643" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C644">
+        <v>64415</v>
+      </c>
+      <c r="D644">
+        <v>11594.72</v>
+      </c>
+      <c r="E644">
+        <v>76009</v>
+      </c>
+      <c r="F644">
+        <v>19.82</v>
+      </c>
+      <c r="G644">
+        <v>3250</v>
+      </c>
+      <c r="H644">
+        <v>4</v>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J644" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C645">
+        <v>100932</v>
+      </c>
+      <c r="D645">
+        <v>0</v>
+      </c>
+      <c r="E645">
+        <v>119099.76</v>
+      </c>
+      <c r="F645">
+        <v>12.94</v>
+      </c>
+      <c r="G645">
+        <v>7800</v>
+      </c>
+      <c r="H645">
+        <v>1</v>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J645" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C646">
+        <v>34102</v>
+      </c>
+      <c r="D646">
+        <v>12151.8</v>
+      </c>
+      <c r="E646">
+        <v>40240.36</v>
+      </c>
+      <c r="F646">
+        <v>10.03</v>
+      </c>
+      <c r="G646">
+        <v>3400</v>
+      </c>
+      <c r="H646">
+        <v>2</v>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J646" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C647">
+        <v>64218</v>
+      </c>
+      <c r="D647">
+        <v>11559.24</v>
+      </c>
+      <c r="E647">
+        <v>75777</v>
+      </c>
+      <c r="F647">
+        <v>9.73</v>
+      </c>
+      <c r="G647">
+        <v>6600</v>
+      </c>
+      <c r="H647">
+        <v>3</v>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J647" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C648">
+        <v>15640</v>
+      </c>
+      <c r="D648">
+        <v>13815</v>
+      </c>
+      <c r="E648">
+        <v>18455.2</v>
+      </c>
+      <c r="F648">
+        <v>4.6</v>
+      </c>
+      <c r="G648">
+        <v>3400</v>
+      </c>
+      <c r="H648">
+        <v>1</v>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J648" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C649">
+        <v>8024</v>
+      </c>
+      <c r="D649">
+        <v>6800</v>
+      </c>
+      <c r="F649">
+        <v>2</v>
+      </c>
+      <c r="G649">
+        <v>4012</v>
+      </c>
+      <c r="H649">
+        <v>1</v>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J649" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
           <t>SAMKRG PISTONS AND RINGS LIMITED</t>
         </is>
       </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C641">
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C650">
         <v>9920</v>
       </c>
-      <c r="D641">
+      <c r="D650">
         <v>1785.6</v>
       </c>
-      <c r="E641">
+      <c r="E650">
         <v>11706</v>
       </c>
-      <c r="F641">
+      <c r="F650">
         <v>1.24</v>
       </c>
-      <c r="G641">
+      <c r="G650">
         <v>8000</v>
       </c>
-      <c r="H641">
-        <v>1</v>
-      </c>
-      <c r="I641" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J641" s="2">
+      <c r="H650">
+        <v>1</v>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J650" s="2">
         <v>45047</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -22956,16 +22956,19 @@
         </is>
       </c>
       <c r="C595">
-        <v>2413717</v>
+        <v>2292448</v>
       </c>
       <c r="D595">
         <v>1262305.74</v>
       </c>
+      <c r="E595">
+        <v>2705090.04</v>
+      </c>
       <c r="F595">
         <v>322.88</v>
       </c>
       <c r="G595">
-        <v>7475.585356788899</v>
+        <v>7099.999999999999</v>
       </c>
       <c r="H595">
         <v>10</v>
@@ -22991,16 +22994,19 @@
         </is>
       </c>
       <c r="C596">
-        <v>2101509</v>
+        <v>1947876</v>
       </c>
       <c r="D596">
         <v>1206971.16</v>
       </c>
+      <c r="E596">
+        <v>2298493.44</v>
+      </c>
       <c r="F596">
         <v>231.89</v>
       </c>
       <c r="G596">
-        <v>9062.525335288283</v>
+        <v>8400</v>
       </c>
       <c r="H596">
         <v>9</v>
@@ -23026,7 +23032,7 @@
         </is>
       </c>
       <c r="C597">
-        <v>620203.5</v>
+        <v>568997.5</v>
       </c>
       <c r="D597">
         <v>76816.24000000001</v>
@@ -23038,7 +23044,7 @@
         <v>144.05</v>
       </c>
       <c r="G597">
-        <v>4305.473793821589</v>
+        <v>3950</v>
       </c>
       <c r="H597">
         <v>8</v>
@@ -23064,16 +23070,19 @@
         </is>
       </c>
       <c r="C598">
-        <v>1035781</v>
+        <v>946275</v>
       </c>
       <c r="D598">
         <v>537697</v>
       </c>
+      <c r="E598">
+        <v>1116605</v>
+      </c>
       <c r="F598">
         <v>126.17</v>
       </c>
       <c r="G598">
-        <v>8209.407941666006</v>
+        <v>7500.000000000001</v>
       </c>
       <c r="H598">
         <v>7</v>
@@ -23099,16 +23108,19 @@
         </is>
       </c>
       <c r="C599">
-        <v>965109</v>
+        <v>885271</v>
       </c>
       <c r="D599">
         <v>704193.86</v>
       </c>
+      <c r="E599">
+        <v>1044619.78</v>
+      </c>
       <c r="F599">
         <v>121.27</v>
       </c>
       <c r="G599">
-        <v>7958.349138286468</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H599">
         <v>4</v>
@@ -23172,16 +23184,19 @@
         </is>
       </c>
       <c r="C601">
-        <v>751071</v>
+        <v>708474</v>
       </c>
       <c r="D601">
         <v>516593.64</v>
       </c>
+      <c r="E601">
+        <v>835999.36</v>
+      </c>
       <c r="F601">
         <v>90.83</v>
       </c>
       <c r="G601">
-        <v>8268.975008257185</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H601">
         <v>5</v>
@@ -23207,7 +23222,7 @@
         </is>
       </c>
       <c r="C602">
-        <v>708197</v>
+        <v>661072</v>
       </c>
       <c r="D602">
         <v>95430.34</v>
@@ -23219,7 +23234,7 @@
         <v>83.68000000000001</v>
       </c>
       <c r="G602">
-        <v>8463.157265774378</v>
+        <v>7900</v>
       </c>
       <c r="H602">
         <v>3</v>
@@ -23283,16 +23298,19 @@
         </is>
       </c>
       <c r="C604">
-        <v>591642.5</v>
+        <v>548311.5</v>
       </c>
       <c r="D604">
         <v>420148.28</v>
       </c>
+      <c r="E604">
+        <v>647006.6799999999</v>
+      </c>
       <c r="F604">
         <v>68.97</v>
       </c>
       <c r="G604">
-        <v>8578.258663186893</v>
+        <v>7949.999999999999</v>
       </c>
       <c r="H604">
         <v>3</v>
@@ -23318,16 +23336,19 @@
         </is>
       </c>
       <c r="C605">
-        <v>522569</v>
+        <v>476106</v>
       </c>
       <c r="D605">
         <v>297364</v>
       </c>
+      <c r="E605">
+        <v>561805.04</v>
+      </c>
       <c r="F605">
         <v>65.22</v>
       </c>
       <c r="G605">
-        <v>8012.404170499847</v>
+        <v>7300.000000000001</v>
       </c>
       <c r="H605">
         <v>3</v>
@@ -23353,16 +23374,19 @@
         </is>
       </c>
       <c r="C606">
-        <v>249806</v>
+        <v>218046</v>
       </c>
       <c r="D606">
         <v>160445.72</v>
       </c>
+      <c r="E606">
+        <v>228948.3</v>
+      </c>
       <c r="F606">
         <v>63.19</v>
       </c>
       <c r="G606">
-        <v>3953.252096850768</v>
+        <v>3450.640924196867</v>
       </c>
       <c r="H606">
         <v>3</v>
@@ -23388,16 +23412,19 @@
         </is>
       </c>
       <c r="C607">
-        <v>517102</v>
+        <v>474544</v>
       </c>
       <c r="D607">
         <v>474543.52</v>
       </c>
+      <c r="E607">
+        <v>559961.48</v>
+      </c>
       <c r="F607">
         <v>62.44</v>
       </c>
       <c r="G607">
-        <v>8281.582319026265</v>
+        <v>7600</v>
       </c>
       <c r="H607">
         <v>2</v>
@@ -23461,7 +23488,7 @@
         </is>
       </c>
       <c r="C609">
-        <v>417256</v>
+        <v>382292</v>
       </c>
       <c r="D609">
         <v>51330.14</v>
@@ -23473,7 +23500,7 @@
         <v>61.66</v>
       </c>
       <c r="G609">
-        <v>6767.045085955238</v>
+        <v>6200</v>
       </c>
       <c r="H609">
         <v>2</v>
@@ -23499,16 +23526,19 @@
         </is>
       </c>
       <c r="C610">
-        <v>421071</v>
+        <v>386304</v>
       </c>
       <c r="D610">
         <v>227919</v>
       </c>
+      <c r="E610">
+        <v>455838.36</v>
+      </c>
       <c r="F610">
         <v>60.36</v>
       </c>
       <c r="G610">
-        <v>6975.994035785288</v>
+        <v>6400</v>
       </c>
       <c r="H610">
         <v>4</v>
@@ -23534,16 +23564,19 @@
         </is>
       </c>
       <c r="C611">
-        <v>603075</v>
+        <v>553196</v>
       </c>
       <c r="D611">
         <v>553196.28</v>
       </c>
+      <c r="E611">
+        <v>652771.72</v>
+      </c>
       <c r="F611">
         <v>60.13</v>
       </c>
       <c r="G611">
-        <v>10029.51937468818</v>
+        <v>9200</v>
       </c>
       <c r="H611">
         <v>4</v>
@@ -23569,16 +23602,19 @@
         </is>
       </c>
       <c r="C612">
-        <v>516874</v>
+        <v>473760</v>
       </c>
       <c r="D612">
         <v>473760.4</v>
       </c>
+      <c r="E612">
+        <v>559036.6</v>
+      </c>
       <c r="F612">
         <v>59.22</v>
       </c>
       <c r="G612">
-        <v>8728.031070584262</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H612">
         <v>3</v>
@@ -23794,7 +23830,7 @@
         </is>
       </c>
       <c r="C618">
-        <v>118049</v>
+        <v>110912</v>
       </c>
       <c r="D618">
         <v>16396.2</v>
@@ -23806,7 +23842,7 @@
         <v>34.66</v>
       </c>
       <c r="G618">
-        <v>3405.914598961338</v>
+        <v>3200</v>
       </c>
       <c r="H618">
         <v>3</v>
@@ -23832,16 +23868,19 @@
         </is>
       </c>
       <c r="C619">
-        <v>261202</v>
+        <v>221357.5</v>
       </c>
       <c r="D619">
         <v>221357.65</v>
       </c>
+      <c r="E619">
+        <v>261201.85</v>
+      </c>
       <c r="F619">
         <v>31.85</v>
       </c>
       <c r="G619">
-        <v>8201.004709576138</v>
+        <v>6950</v>
       </c>
       <c r="H619">
         <v>2</v>
@@ -23905,16 +23944,19 @@
         </is>
       </c>
       <c r="C621">
-        <v>228893</v>
+        <v>193977</v>
       </c>
       <c r="D621">
         <v>193977.14</v>
       </c>
+      <c r="E621">
+        <v>228892.86</v>
+      </c>
       <c r="F621">
         <v>30.79</v>
       </c>
       <c r="G621">
-        <v>7434.004546930822</v>
+        <v>6300</v>
       </c>
       <c r="H621">
         <v>1</v>
@@ -24016,16 +24058,19 @@
         </is>
       </c>
       <c r="C624">
-        <v>227109</v>
+        <v>192465</v>
       </c>
       <c r="D624">
         <v>192465.3</v>
       </c>
+      <c r="E624">
+        <v>227108.7</v>
+      </c>
       <c r="F624">
         <v>30.55</v>
       </c>
       <c r="G624">
-        <v>7434.009819967267</v>
+        <v>6300</v>
       </c>
       <c r="H624">
         <v>2</v>
@@ -24165,16 +24210,19 @@
         </is>
       </c>
       <c r="C628">
-        <v>319874</v>
+        <v>271080</v>
       </c>
       <c r="D628">
         <v>271079.6</v>
       </c>
+      <c r="E628">
+        <v>319874.4</v>
+      </c>
       <c r="F628">
         <v>30.12</v>
       </c>
       <c r="G628">
-        <v>10619.98671978752</v>
+        <v>9000</v>
       </c>
       <c r="H628">
         <v>2</v>
@@ -24200,16 +24248,19 @@
         </is>
       </c>
       <c r="C629">
-        <v>227466</v>
+        <v>192768</v>
       </c>
       <c r="D629">
         <v>192767.76</v>
       </c>
+      <c r="E629">
+        <v>202406.4</v>
+      </c>
       <c r="F629">
         <v>30.12</v>
       </c>
       <c r="G629">
-        <v>7551.99203187251</v>
+        <v>6400</v>
       </c>
       <c r="H629">
         <v>1</v>
@@ -24349,16 +24400,19 @@
         </is>
       </c>
       <c r="C633">
-        <v>278291</v>
+        <v>235840</v>
       </c>
       <c r="D633">
         <v>235839.8</v>
       </c>
+      <c r="E633">
+        <v>278291.2</v>
+      </c>
       <c r="F633">
         <v>29.48</v>
       </c>
       <c r="G633">
-        <v>9439.993215739485</v>
+        <v>8000</v>
       </c>
       <c r="H633">
         <v>2</v>
@@ -24460,16 +24514,19 @@
         </is>
       </c>
       <c r="C636">
-        <v>187783</v>
+        <v>159138</v>
       </c>
       <c r="D636">
         <v>159138.16</v>
       </c>
+      <c r="E636">
+        <v>187782.84</v>
+      </c>
       <c r="F636">
         <v>25.26</v>
       </c>
       <c r="G636">
-        <v>7434.006334125099</v>
+        <v>6300</v>
       </c>
       <c r="H636">
         <v>1</v>
@@ -24571,7 +24628,7 @@
         </is>
       </c>
       <c r="C639">
-        <v>43302</v>
+        <v>38608</v>
       </c>
       <c r="D639">
         <v>4601.84</v>
@@ -24583,7 +24640,7 @@
         <v>24.13</v>
       </c>
       <c r="G639">
-        <v>1794.529631164526</v>
+        <v>1600</v>
       </c>
       <c r="H639">
         <v>3</v>
@@ -24951,16 +25008,19 @@
         </is>
       </c>
       <c r="C649">
-        <v>8024</v>
+        <v>6800</v>
       </c>
       <c r="D649">
         <v>6800</v>
       </c>
+      <c r="E649">
+        <v>7140</v>
+      </c>
       <c r="F649">
         <v>2</v>
       </c>
       <c r="G649">
-        <v>4012</v>
+        <v>3400</v>
       </c>
       <c r="H649">
         <v>1</v>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -23659,7 +23659,7 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J613" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J650"/>
+  <dimension ref="A1:J663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25072,6 +25072,500 @@
         <v>45047</v>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Quartztech Minerals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C651">
+        <v>413217</v>
+      </c>
+      <c r="D651">
+        <v>74379.06</v>
+      </c>
+      <c r="E651">
+        <v>487596</v>
+      </c>
+      <c r="F651">
+        <v>65.59</v>
+      </c>
+      <c r="G651">
+        <v>6300</v>
+      </c>
+      <c r="H651">
+        <v>2</v>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J651" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C652">
+        <v>151396.5</v>
+      </c>
+      <c r="D652">
+        <v>27251.38</v>
+      </c>
+      <c r="E652">
+        <v>178648</v>
+      </c>
+      <c r="F652">
+        <v>58.63</v>
+      </c>
+      <c r="G652">
+        <v>2582.236056626301</v>
+      </c>
+      <c r="H652">
+        <v>2</v>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J652" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>BMM ISPAT LIMITED</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C653">
+        <v>278249</v>
+      </c>
+      <c r="D653">
+        <v>50084.82</v>
+      </c>
+      <c r="E653">
+        <v>328334</v>
+      </c>
+      <c r="F653">
+        <v>39.19</v>
+      </c>
+      <c r="G653">
+        <v>7100</v>
+      </c>
+      <c r="H653">
+        <v>2</v>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J653" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Tulsyan NEC Limited</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C654">
+        <v>272857</v>
+      </c>
+      <c r="D654">
+        <v>49114.26</v>
+      </c>
+      <c r="E654">
+        <v>321971</v>
+      </c>
+      <c r="F654">
+        <v>36.14</v>
+      </c>
+      <c r="G654">
+        <v>7550</v>
+      </c>
+      <c r="H654">
+        <v>1</v>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J654" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>A One Ispat Private Ltd</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C655">
+        <v>278791</v>
+      </c>
+      <c r="D655">
+        <v>50182.38</v>
+      </c>
+      <c r="E655">
+        <v>328973</v>
+      </c>
+      <c r="F655">
+        <v>35.29</v>
+      </c>
+      <c r="G655">
+        <v>7900</v>
+      </c>
+      <c r="H655">
+        <v>1</v>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J655" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C656">
+        <v>138052.5</v>
+      </c>
+      <c r="D656">
+        <v>24849.46</v>
+      </c>
+      <c r="E656">
+        <v>162902</v>
+      </c>
+      <c r="F656">
+        <v>34.95</v>
+      </c>
+      <c r="G656">
+        <v>3950</v>
+      </c>
+      <c r="H656">
+        <v>1</v>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J656" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C657">
+        <v>262752</v>
+      </c>
+      <c r="D657">
+        <v>47295.36</v>
+      </c>
+      <c r="E657">
+        <v>310047</v>
+      </c>
+      <c r="F657">
+        <v>31.28</v>
+      </c>
+      <c r="G657">
+        <v>8400</v>
+      </c>
+      <c r="H657">
+        <v>1</v>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J657" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C658">
+        <v>194733</v>
+      </c>
+      <c r="D658">
+        <v>35051.94</v>
+      </c>
+      <c r="E658">
+        <v>229785</v>
+      </c>
+      <c r="F658">
+        <v>30.91</v>
+      </c>
+      <c r="G658">
+        <v>6300</v>
+      </c>
+      <c r="H658">
+        <v>1</v>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J658" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C659">
+        <v>223875</v>
+      </c>
+      <c r="D659">
+        <v>40297.5</v>
+      </c>
+      <c r="E659">
+        <v>264173</v>
+      </c>
+      <c r="F659">
+        <v>29.85</v>
+      </c>
+      <c r="G659">
+        <v>7500</v>
+      </c>
+      <c r="H659">
+        <v>1</v>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J659" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C660">
+        <v>191114</v>
+      </c>
+      <c r="D660">
+        <v>34400.52</v>
+      </c>
+      <c r="E660">
+        <v>225515</v>
+      </c>
+      <c r="F660">
+        <v>26.18</v>
+      </c>
+      <c r="G660">
+        <v>7300</v>
+      </c>
+      <c r="H660">
+        <v>1</v>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J660" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C661">
+        <v>197886</v>
+      </c>
+      <c r="D661">
+        <v>35619.48</v>
+      </c>
+      <c r="E661">
+        <v>233505</v>
+      </c>
+      <c r="F661">
+        <v>25.37</v>
+      </c>
+      <c r="G661">
+        <v>7800</v>
+      </c>
+      <c r="H661">
+        <v>1</v>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J661" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C662">
+        <v>69720</v>
+      </c>
+      <c r="D662">
+        <v>12549.6</v>
+      </c>
+      <c r="E662">
+        <v>82270</v>
+      </c>
+      <c r="F662">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="G662">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="H662">
+        <v>1</v>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J662" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C663">
+        <v>27264</v>
+      </c>
+      <c r="D663">
+        <v>4907.52</v>
+      </c>
+      <c r="E663">
+        <v>32172</v>
+      </c>
+      <c r="F663">
+        <v>8.52</v>
+      </c>
+      <c r="G663">
+        <v>3200</v>
+      </c>
+      <c r="H663">
+        <v>1</v>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J663" s="2">
+        <v>45078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J663"/>
+  <dimension ref="A1:J691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25075,35 +25075,35 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C651">
-        <v>413217</v>
+        <v>2154348</v>
       </c>
       <c r="D651">
-        <v>74379.06</v>
+        <v>387782.64</v>
       </c>
       <c r="E651">
-        <v>487596</v>
+        <v>2542130</v>
       </c>
       <c r="F651">
-        <v>65.59</v>
+        <v>256.47</v>
       </c>
       <c r="G651">
-        <v>6300</v>
+        <v>8400</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J651" s="2">
@@ -25113,31 +25113,31 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C652">
-        <v>151396.5</v>
+        <v>1319322</v>
       </c>
       <c r="D652">
-        <v>27251.38</v>
+        <v>237477.96</v>
       </c>
       <c r="E652">
-        <v>178648</v>
+        <v>1556800</v>
       </c>
       <c r="F652">
-        <v>58.63</v>
+        <v>185.82</v>
       </c>
       <c r="G652">
-        <v>2582.236056626301</v>
+        <v>7099.999999999999</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I652" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -25160,22 +25160,22 @@
         </is>
       </c>
       <c r="C653">
-        <v>278249</v>
+        <v>1052478</v>
       </c>
       <c r="D653">
-        <v>50084.82</v>
+        <v>189446.04</v>
       </c>
       <c r="E653">
-        <v>328334</v>
+        <v>1241924</v>
       </c>
       <c r="F653">
-        <v>39.19</v>
+        <v>167.06</v>
       </c>
       <c r="G653">
-        <v>7100</v>
+        <v>6300</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I653" t="inlineStr">
         <is>
@@ -25198,22 +25198,22 @@
         </is>
       </c>
       <c r="C654">
-        <v>272857</v>
+        <v>1076554.5</v>
       </c>
       <c r="D654">
-        <v>49114.26</v>
+        <v>193779.81</v>
       </c>
       <c r="E654">
-        <v>321971</v>
+        <v>1270335</v>
       </c>
       <c r="F654">
-        <v>36.14</v>
+        <v>142.59</v>
       </c>
       <c r="G654">
         <v>7550</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I654" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -25236,22 +25236,22 @@
         </is>
       </c>
       <c r="C655">
-        <v>278791</v>
+        <v>424822.5</v>
       </c>
       <c r="D655">
-        <v>50182.38</v>
+        <v>76468.10000000001</v>
       </c>
       <c r="E655">
-        <v>328973</v>
+        <v>501291</v>
       </c>
       <c r="F655">
-        <v>35.29</v>
+        <v>107.55</v>
       </c>
       <c r="G655">
-        <v>7900</v>
+        <v>3950</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I655" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -25274,22 +25274,22 @@
         </is>
       </c>
       <c r="C656">
-        <v>138052.5</v>
+        <v>843246</v>
       </c>
       <c r="D656">
-        <v>24849.46</v>
+        <v>151784.28</v>
       </c>
       <c r="E656">
-        <v>162902</v>
+        <v>995030</v>
       </c>
       <c r="F656">
-        <v>34.95</v>
+        <v>106.74</v>
       </c>
       <c r="G656">
-        <v>3950</v>
+        <v>7900</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I656" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -25312,26 +25312,26 @@
         </is>
       </c>
       <c r="C657">
-        <v>262752</v>
+        <v>623782</v>
       </c>
       <c r="D657">
-        <v>47295.36</v>
+        <v>112280.76</v>
       </c>
       <c r="E657">
-        <v>310047</v>
+        <v>736062</v>
       </c>
       <c r="F657">
-        <v>31.28</v>
+        <v>100.61</v>
       </c>
       <c r="G657">
-        <v>8400</v>
+        <v>6200</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J657" s="2">
@@ -25341,7 +25341,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -25350,26 +25350,26 @@
         </is>
       </c>
       <c r="C658">
-        <v>194733</v>
+        <v>703350</v>
       </c>
       <c r="D658">
-        <v>35051.94</v>
+        <v>126603</v>
       </c>
       <c r="E658">
-        <v>229785</v>
+        <v>829954</v>
       </c>
       <c r="F658">
-        <v>30.91</v>
+        <v>93.78</v>
       </c>
       <c r="G658">
-        <v>6300</v>
+        <v>7500</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J658" s="2">
@@ -25379,7 +25379,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -25388,26 +25388,26 @@
         </is>
       </c>
       <c r="C659">
-        <v>223875</v>
+        <v>672987</v>
       </c>
       <c r="D659">
-        <v>40297.5</v>
+        <v>121137.66</v>
       </c>
       <c r="E659">
-        <v>264173</v>
+        <v>794125</v>
       </c>
       <c r="F659">
-        <v>29.85</v>
+        <v>92.19</v>
       </c>
       <c r="G659">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J659" s="2">
@@ -25417,7 +25417,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -25426,22 +25426,22 @@
         </is>
       </c>
       <c r="C660">
-        <v>191114</v>
+        <v>245635</v>
       </c>
       <c r="D660">
-        <v>34400.52</v>
+        <v>44214.3</v>
       </c>
       <c r="E660">
-        <v>225515</v>
+        <v>289849</v>
       </c>
       <c r="F660">
-        <v>26.18</v>
+        <v>75.58</v>
       </c>
       <c r="G660">
-        <v>7300</v>
+        <v>3250</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr">
         <is>
@@ -25455,35 +25455,35 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C661">
-        <v>197886</v>
+        <v>627456</v>
       </c>
       <c r="D661">
-        <v>35619.48</v>
+        <v>112942.08</v>
       </c>
       <c r="E661">
-        <v>233505</v>
+        <v>740398</v>
       </c>
       <c r="F661">
-        <v>25.37</v>
+        <v>72.96000000000001</v>
       </c>
       <c r="G661">
-        <v>7800</v>
+        <v>8599.999999999998</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J661" s="2">
@@ -25493,31 +25493,31 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C662">
-        <v>69720</v>
+        <v>611616</v>
       </c>
       <c r="D662">
-        <v>12549.6</v>
+        <v>110090.88</v>
       </c>
       <c r="E662">
-        <v>82270</v>
+        <v>721707</v>
       </c>
       <c r="F662">
-        <v>9.960000000000001</v>
+        <v>66.48</v>
       </c>
       <c r="G662">
-        <v>6999.999999999999</v>
+        <v>9200</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I662" t="inlineStr">
         <is>
@@ -25531,38 +25531,1102 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C663">
+        <v>335012</v>
+      </c>
+      <c r="D663">
+        <v>38166.48</v>
+      </c>
+      <c r="E663">
+        <v>395313.68</v>
+      </c>
+      <c r="F663">
+        <v>54.92</v>
+      </c>
+      <c r="G663">
+        <v>6100</v>
+      </c>
+      <c r="H663">
+        <v>2</v>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J663" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Bharat Heavy Electricals Limited</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C664">
+        <v>238896.45</v>
+      </c>
+      <c r="D664">
+        <v>11944.82</v>
+      </c>
+      <c r="E664">
+        <v>250841</v>
+      </c>
+      <c r="F664">
+        <v>54.73</v>
+      </c>
+      <c r="G664">
+        <v>4365</v>
+      </c>
+      <c r="H664">
+        <v>2</v>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J664" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C665">
+        <v>257920</v>
+      </c>
+      <c r="D665">
+        <v>46425.6</v>
+      </c>
+      <c r="E665">
+        <v>304345.24</v>
+      </c>
+      <c r="F665">
+        <v>40.3</v>
+      </c>
+      <c r="G665">
+        <v>6400</v>
+      </c>
+      <c r="H665">
+        <v>2</v>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J665" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C666">
+        <v>250518</v>
+      </c>
+      <c r="D666">
+        <v>45093.24</v>
+      </c>
+      <c r="E666">
+        <v>295611.74</v>
+      </c>
+      <c r="F666">
+        <v>38.84</v>
+      </c>
+      <c r="G666">
+        <v>6449.999999999999</v>
+      </c>
+      <c r="H666">
+        <v>2</v>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J666" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C667">
+        <v>288240</v>
+      </c>
+      <c r="D667">
+        <v>51883.2</v>
+      </c>
+      <c r="E667">
+        <v>340123</v>
+      </c>
+      <c r="F667">
+        <v>36.03</v>
+      </c>
+      <c r="G667">
+        <v>8000</v>
+      </c>
+      <c r="H667">
+        <v>2</v>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J667" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
           <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
-      <c r="B663" t="inlineStr">
+      <c r="B668" t="inlineStr">
         <is>
           <t>Nali Top</t>
         </is>
       </c>
-      <c r="C663">
-        <v>27264</v>
-      </c>
-      <c r="D663">
-        <v>4907.52</v>
-      </c>
-      <c r="E663">
-        <v>32172</v>
-      </c>
-      <c r="F663">
-        <v>8.52</v>
-      </c>
-      <c r="G663">
+      <c r="C668">
+        <v>114912</v>
+      </c>
+      <c r="D668">
+        <v>20684.16</v>
+      </c>
+      <c r="E668">
+        <v>135597</v>
+      </c>
+      <c r="F668">
+        <v>35.91</v>
+      </c>
+      <c r="G668">
         <v>3200</v>
       </c>
-      <c r="H663">
-        <v>1</v>
-      </c>
-      <c r="I663" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J663" s="2">
+      <c r="H668">
+        <v>3</v>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J668" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Pulkit Metals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C669">
+        <v>213840</v>
+      </c>
+      <c r="D669">
+        <v>38491.2</v>
+      </c>
+      <c r="E669">
+        <v>252331</v>
+      </c>
+      <c r="F669">
+        <v>35.64</v>
+      </c>
+      <c r="G669">
+        <v>6000</v>
+      </c>
+      <c r="H669">
+        <v>2</v>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J669" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C670">
+        <v>121142</v>
+      </c>
+      <c r="D670">
+        <v>21805.56</v>
+      </c>
+      <c r="E670">
+        <v>142948</v>
+      </c>
+      <c r="F670">
+        <v>35.63</v>
+      </c>
+      <c r="G670">
+        <v>3400</v>
+      </c>
+      <c r="H670">
+        <v>1</v>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J670" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C671">
+        <v>277920</v>
+      </c>
+      <c r="D671">
+        <v>50025.6</v>
+      </c>
+      <c r="E671">
+        <v>327946</v>
+      </c>
+      <c r="F671">
+        <v>34.73999999999999</v>
+      </c>
+      <c r="G671">
+        <v>8000.000000000001</v>
+      </c>
+      <c r="H671">
+        <v>2</v>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J671" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C672">
+        <v>217350</v>
+      </c>
+      <c r="D672">
+        <v>39123</v>
+      </c>
+      <c r="E672">
+        <v>256473</v>
+      </c>
+      <c r="F672">
+        <v>34.5</v>
+      </c>
+      <c r="G672">
+        <v>6300</v>
+      </c>
+      <c r="H672">
+        <v>2</v>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J672" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C673">
+        <v>260286</v>
+      </c>
+      <c r="D673">
+        <v>46851.48</v>
+      </c>
+      <c r="E673">
+        <v>307137</v>
+      </c>
+      <c r="F673">
+        <v>33.37</v>
+      </c>
+      <c r="G673">
+        <v>7799.999999999999</v>
+      </c>
+      <c r="H673">
+        <v>2</v>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J673" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C674">
+        <v>256387.5</v>
+      </c>
+      <c r="D674">
+        <v>46149.75</v>
+      </c>
+      <c r="E674">
+        <v>302537</v>
+      </c>
+      <c r="F674">
+        <v>32.25</v>
+      </c>
+      <c r="G674">
+        <v>7950</v>
+      </c>
+      <c r="H674">
+        <v>1</v>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J674" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C675">
+        <v>102688</v>
+      </c>
+      <c r="D675">
+        <v>18483.84</v>
+      </c>
+      <c r="E675">
+        <v>121172</v>
+      </c>
+      <c r="F675">
+        <v>32.09</v>
+      </c>
+      <c r="G675">
+        <v>3200</v>
+      </c>
+      <c r="H675">
+        <v>1</v>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J675" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C676">
+        <v>195741</v>
+      </c>
+      <c r="D676">
+        <v>35233.38</v>
+      </c>
+      <c r="E676">
+        <v>230974</v>
+      </c>
+      <c r="F676">
+        <v>31.07</v>
+      </c>
+      <c r="G676">
+        <v>6300</v>
+      </c>
+      <c r="H676">
+        <v>1</v>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J676" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>M.A.STEELS (P) LTD</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C677">
+        <v>194985</v>
+      </c>
+      <c r="D677">
+        <v>35097.3</v>
+      </c>
+      <c r="E677">
+        <v>230082</v>
+      </c>
+      <c r="F677">
+        <v>30.95</v>
+      </c>
+      <c r="G677">
+        <v>6300</v>
+      </c>
+      <c r="H677">
+        <v>1</v>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J677" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C678">
+        <v>194733</v>
+      </c>
+      <c r="D678">
+        <v>35051.94</v>
+      </c>
+      <c r="E678">
+        <v>229785</v>
+      </c>
+      <c r="F678">
+        <v>30.91</v>
+      </c>
+      <c r="G678">
+        <v>6300</v>
+      </c>
+      <c r="H678">
+        <v>1</v>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J678" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Shivam Ispat (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C679">
+        <v>199369.5</v>
+      </c>
+      <c r="D679">
+        <v>35886.51</v>
+      </c>
+      <c r="E679">
+        <v>235256</v>
+      </c>
+      <c r="F679">
+        <v>30.91</v>
+      </c>
+      <c r="G679">
+        <v>6450</v>
+      </c>
+      <c r="H679">
+        <v>1</v>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J679" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C680">
+        <v>197376</v>
+      </c>
+      <c r="D680">
+        <v>35527.68</v>
+      </c>
+      <c r="E680">
+        <v>232904</v>
+      </c>
+      <c r="F680">
+        <v>30.84</v>
+      </c>
+      <c r="G680">
+        <v>6400</v>
+      </c>
+      <c r="H680">
+        <v>1</v>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J680" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C681">
+        <v>194368</v>
+      </c>
+      <c r="D681">
+        <v>34986.24</v>
+      </c>
+      <c r="E681">
+        <v>229354</v>
+      </c>
+      <c r="F681">
+        <v>30.37</v>
+      </c>
+      <c r="G681">
+        <v>6400</v>
+      </c>
+      <c r="H681">
+        <v>1</v>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J681" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C682">
+        <v>191268</v>
+      </c>
+      <c r="D682">
+        <v>34428.24</v>
+      </c>
+      <c r="E682">
+        <v>225696</v>
+      </c>
+      <c r="F682">
+        <v>30.36</v>
+      </c>
+      <c r="G682">
+        <v>6300</v>
+      </c>
+      <c r="H682">
+        <v>1</v>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J682" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C683">
+        <v>260580</v>
+      </c>
+      <c r="D683">
+        <v>46904.4</v>
+      </c>
+      <c r="E683">
+        <v>307484</v>
+      </c>
+      <c r="F683">
+        <v>30.3</v>
+      </c>
+      <c r="G683">
+        <v>8600</v>
+      </c>
+      <c r="H683">
+        <v>1</v>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J683" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Oswal Smelters Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Quartz Grain</t>
+        </is>
+      </c>
+      <c r="C684">
+        <v>147000</v>
+      </c>
+      <c r="D684">
+        <v>7350</v>
+      </c>
+      <c r="E684">
+        <v>154350</v>
+      </c>
+      <c r="F684">
+        <v>30</v>
+      </c>
+      <c r="G684">
+        <v>4900</v>
+      </c>
+      <c r="H684">
+        <v>1</v>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J684" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>MINAR ISPAT PVT. LTD</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C685">
+        <v>157377.5</v>
+      </c>
+      <c r="D685">
+        <v>28327.95</v>
+      </c>
+      <c r="E685">
+        <v>185705</v>
+      </c>
+      <c r="F685">
+        <v>26.45</v>
+      </c>
+      <c r="G685">
+        <v>5950</v>
+      </c>
+      <c r="H685">
+        <v>1</v>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J685" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C686">
+        <v>68000</v>
+      </c>
+      <c r="D686">
+        <v>0</v>
+      </c>
+      <c r="E686">
+        <v>71400</v>
+      </c>
+      <c r="F686">
+        <v>25</v>
+      </c>
+      <c r="G686">
+        <v>2720</v>
+      </c>
+      <c r="H686">
+        <v>1</v>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J686" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C687">
+        <v>35696.5</v>
+      </c>
+      <c r="D687">
+        <v>6425.38</v>
+      </c>
+      <c r="E687">
+        <v>42122</v>
+      </c>
+      <c r="F687">
+        <v>23.03</v>
+      </c>
+      <c r="G687">
+        <v>1550</v>
+      </c>
+      <c r="H687">
+        <v>1</v>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J687" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C688">
+        <v>158920.5</v>
+      </c>
+      <c r="D688">
+        <v>28605.69</v>
+      </c>
+      <c r="E688">
+        <v>187526</v>
+      </c>
+      <c r="F688">
+        <v>19.99</v>
+      </c>
+      <c r="G688">
+        <v>7950.000000000001</v>
+      </c>
+      <c r="H688">
+        <v>1</v>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J688" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C689">
+        <v>53108</v>
+      </c>
+      <c r="D689">
+        <v>9559.440000000001</v>
+      </c>
+      <c r="E689">
+        <v>62667</v>
+      </c>
+      <c r="F689">
+        <v>15.62</v>
+      </c>
+      <c r="G689">
+        <v>3400</v>
+      </c>
+      <c r="H689">
+        <v>1</v>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J689" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C690">
+        <v>69720</v>
+      </c>
+      <c r="D690">
+        <v>12549.6</v>
+      </c>
+      <c r="E690">
+        <v>82270</v>
+      </c>
+      <c r="F690">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="G690">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="H690">
+        <v>1</v>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J690" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C691">
+        <v>29460</v>
+      </c>
+      <c r="D691">
+        <v>27438.48</v>
+      </c>
+      <c r="E691">
+        <v>30933</v>
+      </c>
+      <c r="F691">
+        <v>9.82</v>
+      </c>
+      <c r="G691">
+        <v>3000</v>
+      </c>
+      <c r="H691">
+        <v>1</v>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J691" s="2">
         <v>45078</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -23142,23 +23142,23 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C600">
-        <v>693068</v>
+        <v>741228</v>
       </c>
       <c r="D600">
-        <v>76749.12</v>
+        <v>474543.52</v>
       </c>
       <c r="E600">
-        <v>817819.8200000001</v>
+        <v>874648.48</v>
       </c>
       <c r="F600">
-        <v>102.77</v>
+        <v>97.53</v>
       </c>
       <c r="G600">
-        <v>6743.874671596769</v>
+        <v>7600.000000000001</v>
       </c>
       <c r="H600">
         <v>3</v>
@@ -23327,7 +23327,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -23336,26 +23336,26 @@
         </is>
       </c>
       <c r="C605">
-        <v>476106</v>
+        <v>426384</v>
       </c>
       <c r="D605">
-        <v>297364</v>
+        <v>76749.12</v>
       </c>
       <c r="E605">
-        <v>561805.04</v>
+        <v>503132.82</v>
       </c>
       <c r="F605">
-        <v>65.22</v>
+        <v>67.67999999999999</v>
       </c>
       <c r="G605">
-        <v>7300.000000000001</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H605">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J605" s="2">
@@ -23365,35 +23365,35 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C606">
-        <v>218046</v>
+        <v>476106</v>
       </c>
       <c r="D606">
-        <v>160445.72</v>
+        <v>297364</v>
       </c>
       <c r="E606">
-        <v>228948.3</v>
+        <v>561805.04</v>
       </c>
       <c r="F606">
-        <v>63.19</v>
+        <v>65.22</v>
       </c>
       <c r="G606">
-        <v>3450.640924196867</v>
+        <v>7300.000000000001</v>
       </c>
       <c r="H606">
         <v>3</v>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J606" s="2">
@@ -23403,35 +23403,35 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C607">
-        <v>474544</v>
+        <v>218046</v>
       </c>
       <c r="D607">
-        <v>474543.52</v>
+        <v>160445.72</v>
       </c>
       <c r="E607">
-        <v>559961.48</v>
+        <v>228948.3</v>
       </c>
       <c r="F607">
-        <v>62.44</v>
+        <v>63.19</v>
       </c>
       <c r="G607">
-        <v>7600</v>
+        <v>3450.640924196867</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J607" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J691"/>
+  <dimension ref="A1:J700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25075,35 +25075,35 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C651">
-        <v>2154348</v>
+        <v>1835137</v>
       </c>
       <c r="D651">
-        <v>387782.64</v>
+        <v>330324.66</v>
       </c>
       <c r="E651">
-        <v>2542130</v>
+        <v>2165462</v>
       </c>
       <c r="F651">
-        <v>256.47</v>
+        <v>258.47</v>
       </c>
       <c r="G651">
-        <v>8400</v>
+        <v>7100.000000000001</v>
       </c>
       <c r="H651">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J651" s="2">
@@ -25113,35 +25113,35 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C652">
-        <v>1319322</v>
+        <v>2154348</v>
       </c>
       <c r="D652">
-        <v>237477.96</v>
+        <v>387782.64</v>
       </c>
       <c r="E652">
-        <v>1556800</v>
+        <v>2542130</v>
       </c>
       <c r="F652">
-        <v>185.82</v>
+        <v>256.47</v>
       </c>
       <c r="G652">
-        <v>7099.999999999999</v>
+        <v>8400</v>
       </c>
       <c r="H652">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J652" s="2">
@@ -25151,7 +25151,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -25160,26 +25160,26 @@
         </is>
       </c>
       <c r="C653">
-        <v>1052478</v>
+        <v>1058402</v>
       </c>
       <c r="D653">
-        <v>189446.04</v>
+        <v>190512.36</v>
       </c>
       <c r="E653">
-        <v>1241924</v>
+        <v>1248913</v>
       </c>
       <c r="F653">
-        <v>167.06</v>
+        <v>170.71</v>
       </c>
       <c r="G653">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H653">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J653" s="2">
@@ -25189,7 +25189,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -25198,26 +25198,26 @@
         </is>
       </c>
       <c r="C654">
-        <v>1076554.5</v>
+        <v>1052478</v>
       </c>
       <c r="D654">
-        <v>193779.81</v>
+        <v>189446.04</v>
       </c>
       <c r="E654">
-        <v>1270335</v>
+        <v>1241924</v>
       </c>
       <c r="F654">
-        <v>142.59</v>
+        <v>167.06</v>
       </c>
       <c r="G654">
-        <v>7550</v>
+        <v>6300</v>
       </c>
       <c r="H654">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J654" s="2">
@@ -25227,35 +25227,35 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C655">
-        <v>424822.5</v>
+        <v>1076554.5</v>
       </c>
       <c r="D655">
-        <v>76468.10000000001</v>
+        <v>193779.81</v>
       </c>
       <c r="E655">
-        <v>501291</v>
+        <v>1270335</v>
       </c>
       <c r="F655">
-        <v>107.55</v>
+        <v>142.59</v>
       </c>
       <c r="G655">
-        <v>3950</v>
+        <v>7550</v>
       </c>
       <c r="H655">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J655" s="2">
@@ -25274,22 +25274,22 @@
         </is>
       </c>
       <c r="C656">
-        <v>843246</v>
+        <v>1116586</v>
       </c>
       <c r="D656">
-        <v>151784.28</v>
+        <v>200985.48</v>
       </c>
       <c r="E656">
-        <v>995030</v>
+        <v>1317571</v>
       </c>
       <c r="F656">
-        <v>106.74</v>
+        <v>141.34</v>
       </c>
       <c r="G656">
         <v>7900</v>
       </c>
       <c r="H656">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I656" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -25312,22 +25312,22 @@
         </is>
       </c>
       <c r="C657">
-        <v>623782</v>
+        <v>928950</v>
       </c>
       <c r="D657">
-        <v>112280.76</v>
+        <v>167211</v>
       </c>
       <c r="E657">
-        <v>736062</v>
+        <v>1096162</v>
       </c>
       <c r="F657">
-        <v>100.61</v>
+        <v>123.86</v>
       </c>
       <c r="G657">
-        <v>6200</v>
+        <v>7500</v>
       </c>
       <c r="H657">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I657" t="inlineStr">
         <is>
@@ -25341,35 +25341,35 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C658">
-        <v>703350</v>
+        <v>444414.5</v>
       </c>
       <c r="D658">
-        <v>126603</v>
+        <v>79994.66</v>
       </c>
       <c r="E658">
-        <v>829954</v>
+        <v>524410</v>
       </c>
       <c r="F658">
-        <v>93.78</v>
+        <v>112.51</v>
       </c>
       <c r="G658">
-        <v>7500</v>
+        <v>3950</v>
       </c>
       <c r="H658">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J658" s="2">
@@ -25379,7 +25379,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="C659">
-        <v>672987</v>
+        <v>309010</v>
       </c>
       <c r="D659">
-        <v>121137.66</v>
+        <v>55621.8</v>
       </c>
       <c r="E659">
-        <v>794125</v>
+        <v>364632</v>
       </c>
       <c r="F659">
-        <v>92.19</v>
+        <v>95.08</v>
       </c>
       <c r="G659">
-        <v>7300</v>
+        <v>3250</v>
       </c>
       <c r="H659">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I659" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -25426,22 +25426,22 @@
         </is>
       </c>
       <c r="C660">
-        <v>245635</v>
+        <v>672987</v>
       </c>
       <c r="D660">
-        <v>44214.3</v>
+        <v>121137.66</v>
       </c>
       <c r="E660">
-        <v>289849</v>
+        <v>794125</v>
       </c>
       <c r="F660">
-        <v>75.58</v>
+        <v>92.19</v>
       </c>
       <c r="G660">
-        <v>3250</v>
+        <v>7300</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I660" t="inlineStr">
         <is>
@@ -25493,31 +25493,31 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C662">
-        <v>611616</v>
+        <v>227904</v>
       </c>
       <c r="D662">
-        <v>110090.88</v>
+        <v>41022.72</v>
       </c>
       <c r="E662">
-        <v>721707</v>
+        <v>268928</v>
       </c>
       <c r="F662">
-        <v>66.48</v>
+        <v>71.22</v>
       </c>
       <c r="G662">
-        <v>9200</v>
+        <v>3200</v>
       </c>
       <c r="H662">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I662" t="inlineStr">
         <is>
@@ -25531,35 +25531,35 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C663">
-        <v>335012</v>
+        <v>540072</v>
       </c>
       <c r="D663">
-        <v>38166.48</v>
+        <v>97212.96000000001</v>
       </c>
       <c r="E663">
-        <v>395313.68</v>
+        <v>637284</v>
       </c>
       <c r="F663">
-        <v>54.92</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="G663">
-        <v>6100</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J663" s="2">
@@ -25569,31 +25569,31 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C664">
-        <v>238896.45</v>
+        <v>611616</v>
       </c>
       <c r="D664">
-        <v>11944.82</v>
+        <v>110090.88</v>
       </c>
       <c r="E664">
-        <v>250841</v>
+        <v>721707</v>
       </c>
       <c r="F664">
-        <v>54.73</v>
+        <v>66.48</v>
       </c>
       <c r="G664">
-        <v>4365</v>
+        <v>9200</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I664" t="inlineStr">
         <is>
@@ -25607,35 +25607,35 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C665">
-        <v>257920</v>
+        <v>562096</v>
       </c>
       <c r="D665">
-        <v>46425.6</v>
+        <v>101177.28</v>
       </c>
       <c r="E665">
-        <v>304345.24</v>
+        <v>663273</v>
       </c>
       <c r="F665">
-        <v>40.3</v>
+        <v>65.36</v>
       </c>
       <c r="G665">
-        <v>6400</v>
+        <v>8600</v>
       </c>
       <c r="H665">
         <v>2</v>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J665" s="2">
@@ -25645,7 +25645,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -25654,16 +25654,16 @@
         </is>
       </c>
       <c r="C666">
-        <v>250518</v>
+        <v>365199</v>
       </c>
       <c r="D666">
-        <v>45093.24</v>
+        <v>65735.82000000001</v>
       </c>
       <c r="E666">
-        <v>295611.74</v>
+        <v>430935</v>
       </c>
       <c r="F666">
-        <v>38.84</v>
+        <v>56.62</v>
       </c>
       <c r="G666">
         <v>6449.999999999999</v>
@@ -25683,35 +25683,35 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C667">
-        <v>288240</v>
+        <v>335012</v>
       </c>
       <c r="D667">
-        <v>51883.2</v>
+        <v>38166.48</v>
       </c>
       <c r="E667">
-        <v>340123</v>
+        <v>395313.68</v>
       </c>
       <c r="F667">
-        <v>36.03</v>
+        <v>54.92</v>
       </c>
       <c r="G667">
-        <v>8000</v>
+        <v>6100</v>
       </c>
       <c r="H667">
         <v>2</v>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J667" s="2">
@@ -25721,31 +25721,31 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C668">
-        <v>114912</v>
+        <v>238896.45</v>
       </c>
       <c r="D668">
-        <v>20684.16</v>
+        <v>11944.82</v>
       </c>
       <c r="E668">
-        <v>135597</v>
+        <v>250841</v>
       </c>
       <c r="F668">
-        <v>35.91</v>
+        <v>54.73</v>
       </c>
       <c r="G668">
-        <v>3200</v>
+        <v>4365</v>
       </c>
       <c r="H668">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -25768,26 +25768,26 @@
         </is>
       </c>
       <c r="C669">
-        <v>213840</v>
+        <v>257920</v>
       </c>
       <c r="D669">
-        <v>38491.2</v>
+        <v>46425.6</v>
       </c>
       <c r="E669">
-        <v>252331</v>
+        <v>304345.24</v>
       </c>
       <c r="F669">
-        <v>35.64</v>
+        <v>40.3</v>
       </c>
       <c r="G669">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="H669">
         <v>2</v>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J669" s="2">
@@ -25797,31 +25797,31 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C670">
-        <v>121142</v>
+        <v>250518</v>
       </c>
       <c r="D670">
-        <v>21805.56</v>
+        <v>45093.24</v>
       </c>
       <c r="E670">
-        <v>142948</v>
+        <v>295611.74</v>
       </c>
       <c r="F670">
-        <v>35.63</v>
+        <v>38.84</v>
       </c>
       <c r="G670">
-        <v>3400</v>
+        <v>6449.999999999999</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -25844,19 +25844,19 @@
         </is>
       </c>
       <c r="C671">
-        <v>277920</v>
+        <v>288240</v>
       </c>
       <c r="D671">
-        <v>50025.6</v>
+        <v>51883.2</v>
       </c>
       <c r="E671">
-        <v>327946</v>
+        <v>340123</v>
       </c>
       <c r="F671">
-        <v>34.73999999999999</v>
+        <v>36.03</v>
       </c>
       <c r="G671">
-        <v>8000.000000000001</v>
+        <v>8000</v>
       </c>
       <c r="H671">
         <v>2</v>
@@ -25873,7 +25873,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -25882,26 +25882,26 @@
         </is>
       </c>
       <c r="C672">
-        <v>217350</v>
+        <v>213840</v>
       </c>
       <c r="D672">
-        <v>39123</v>
+        <v>38491.2</v>
       </c>
       <c r="E672">
-        <v>256473</v>
+        <v>252331</v>
       </c>
       <c r="F672">
-        <v>34.5</v>
+        <v>35.64</v>
       </c>
       <c r="G672">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H672">
         <v>2</v>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J672" s="2">
@@ -25911,35 +25911,35 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C673">
-        <v>260286</v>
+        <v>121142</v>
       </c>
       <c r="D673">
-        <v>46851.48</v>
+        <v>21805.56</v>
       </c>
       <c r="E673">
-        <v>307137</v>
+        <v>142948</v>
       </c>
       <c r="F673">
-        <v>33.37</v>
+        <v>35.63</v>
       </c>
       <c r="G673">
-        <v>7799.999999999999</v>
+        <v>3400</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J673" s="2">
@@ -25949,31 +25949,31 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C674">
-        <v>256387.5</v>
+        <v>244918</v>
       </c>
       <c r="D674">
-        <v>46149.75</v>
+        <v>44085.24</v>
       </c>
       <c r="E674">
-        <v>302537</v>
+        <v>289003</v>
       </c>
       <c r="F674">
-        <v>32.25</v>
+        <v>35.24</v>
       </c>
       <c r="G674">
-        <v>7950</v>
+        <v>6950</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr">
         <is>
@@ -25987,35 +25987,35 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C675">
-        <v>102688</v>
+        <v>267368</v>
       </c>
       <c r="D675">
-        <v>18483.84</v>
+        <v>48126.24</v>
       </c>
       <c r="E675">
-        <v>121172</v>
+        <v>315494</v>
       </c>
       <c r="F675">
-        <v>32.09</v>
+        <v>35.18</v>
       </c>
       <c r="G675">
-        <v>3200</v>
+        <v>7600</v>
       </c>
       <c r="H675">
         <v>1</v>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J675" s="2">
@@ -26025,35 +26025,35 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C676">
-        <v>195741</v>
+        <v>277920</v>
       </c>
       <c r="D676">
-        <v>35233.38</v>
+        <v>50025.6</v>
       </c>
       <c r="E676">
-        <v>230974</v>
+        <v>327946</v>
       </c>
       <c r="F676">
-        <v>31.07</v>
+        <v>34.73999999999999</v>
       </c>
       <c r="G676">
-        <v>6300</v>
+        <v>8000.000000000001</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J676" s="2">
@@ -26063,35 +26063,35 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C677">
-        <v>194985</v>
+        <v>276400</v>
       </c>
       <c r="D677">
-        <v>35097.3</v>
+        <v>49752</v>
       </c>
       <c r="E677">
-        <v>230082</v>
+        <v>326152</v>
       </c>
       <c r="F677">
-        <v>30.95</v>
+        <v>34.55</v>
       </c>
       <c r="G677">
-        <v>6300</v>
+        <v>8000.000000000001</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J677" s="2">
@@ -26101,7 +26101,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -26110,26 +26110,26 @@
         </is>
       </c>
       <c r="C678">
-        <v>194733</v>
+        <v>217350</v>
       </c>
       <c r="D678">
-        <v>35051.94</v>
+        <v>39123</v>
       </c>
       <c r="E678">
-        <v>229785</v>
+        <v>256473</v>
       </c>
       <c r="F678">
-        <v>30.91</v>
+        <v>34.5</v>
       </c>
       <c r="G678">
         <v>6300</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J678" s="2">
@@ -26139,35 +26139,35 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C679">
-        <v>199369.5</v>
+        <v>52142</v>
       </c>
       <c r="D679">
-        <v>35886.51</v>
+        <v>9385.58</v>
       </c>
       <c r="E679">
-        <v>235256</v>
+        <v>61528</v>
       </c>
       <c r="F679">
-        <v>30.91</v>
+        <v>33.64</v>
       </c>
       <c r="G679">
-        <v>6450</v>
+        <v>1550</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J679" s="2">
@@ -26177,35 +26177,35 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C680">
-        <v>197376</v>
+        <v>256387.5</v>
       </c>
       <c r="D680">
-        <v>35527.68</v>
+        <v>46149.75</v>
       </c>
       <c r="E680">
-        <v>232904</v>
+        <v>302537</v>
       </c>
       <c r="F680">
-        <v>30.84</v>
+        <v>32.25</v>
       </c>
       <c r="G680">
-        <v>6400</v>
+        <v>7950</v>
       </c>
       <c r="H680">
         <v>1</v>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J680" s="2">
@@ -26215,28 +26215,28 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C681">
-        <v>194368</v>
+        <v>102688</v>
       </c>
       <c r="D681">
-        <v>34986.24</v>
+        <v>18483.84</v>
       </c>
       <c r="E681">
-        <v>229354</v>
+        <v>121172</v>
       </c>
       <c r="F681">
-        <v>30.37</v>
+        <v>32.09</v>
       </c>
       <c r="G681">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="H681">
         <v>1</v>
@@ -26253,7 +26253,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Quartztech Minerals Pvt Ltd</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -26262,16 +26262,16 @@
         </is>
       </c>
       <c r="C682">
-        <v>191268</v>
+        <v>198765</v>
       </c>
       <c r="D682">
-        <v>34428.24</v>
+        <v>35777.7</v>
       </c>
       <c r="E682">
-        <v>225696</v>
+        <v>234543</v>
       </c>
       <c r="F682">
-        <v>30.36</v>
+        <v>31.55</v>
       </c>
       <c r="G682">
         <v>6300</v>
@@ -26291,35 +26291,35 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C683">
-        <v>260580</v>
+        <v>195741</v>
       </c>
       <c r="D683">
-        <v>46904.4</v>
+        <v>35233.38</v>
       </c>
       <c r="E683">
-        <v>307484</v>
+        <v>230974</v>
       </c>
       <c r="F683">
-        <v>30.3</v>
+        <v>31.07</v>
       </c>
       <c r="G683">
-        <v>8600</v>
+        <v>6300</v>
       </c>
       <c r="H683">
         <v>1</v>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J683" s="2">
@@ -26329,35 +26329,35 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C684">
-        <v>147000</v>
+        <v>194985</v>
       </c>
       <c r="D684">
-        <v>7350</v>
+        <v>35097.3</v>
       </c>
       <c r="E684">
-        <v>154350</v>
+        <v>230082</v>
       </c>
       <c r="F684">
-        <v>30</v>
+        <v>30.95</v>
       </c>
       <c r="G684">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="H684">
         <v>1</v>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J684" s="2">
@@ -26367,7 +26367,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -26376,26 +26376,26 @@
         </is>
       </c>
       <c r="C685">
-        <v>157377.5</v>
+        <v>194733</v>
       </c>
       <c r="D685">
-        <v>28327.95</v>
+        <v>35051.94</v>
       </c>
       <c r="E685">
-        <v>185705</v>
+        <v>229785</v>
       </c>
       <c r="F685">
-        <v>26.45</v>
+        <v>30.91</v>
       </c>
       <c r="G685">
-        <v>5950</v>
+        <v>6300</v>
       </c>
       <c r="H685">
         <v>1</v>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J685" s="2">
@@ -26405,35 +26405,35 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C686">
-        <v>68000</v>
+        <v>197376</v>
       </c>
       <c r="D686">
-        <v>0</v>
+        <v>35527.68</v>
       </c>
       <c r="E686">
-        <v>71400</v>
+        <v>232904</v>
       </c>
       <c r="F686">
-        <v>25</v>
+        <v>30.84</v>
       </c>
       <c r="G686">
-        <v>2720</v>
+        <v>6400</v>
       </c>
       <c r="H686">
         <v>1</v>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J686" s="2">
@@ -26443,28 +26443,28 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C687">
-        <v>35696.5</v>
+        <v>194368</v>
       </c>
       <c r="D687">
-        <v>6425.38</v>
+        <v>34986.24</v>
       </c>
       <c r="E687">
-        <v>42122</v>
+        <v>229354</v>
       </c>
       <c r="F687">
-        <v>23.03</v>
+        <v>30.37</v>
       </c>
       <c r="G687">
-        <v>1550</v>
+        <v>6400</v>
       </c>
       <c r="H687">
         <v>1</v>
@@ -26481,28 +26481,28 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C688">
-        <v>158920.5</v>
+        <v>191268</v>
       </c>
       <c r="D688">
-        <v>28605.69</v>
+        <v>34428.24</v>
       </c>
       <c r="E688">
-        <v>187526</v>
+        <v>225696</v>
       </c>
       <c r="F688">
-        <v>19.99</v>
+        <v>30.36</v>
       </c>
       <c r="G688">
-        <v>7950.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H688">
         <v>1</v>
@@ -26519,28 +26519,28 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C689">
-        <v>53108</v>
+        <v>147000</v>
       </c>
       <c r="D689">
-        <v>9559.440000000001</v>
+        <v>7350</v>
       </c>
       <c r="E689">
-        <v>62667</v>
+        <v>154350</v>
       </c>
       <c r="F689">
-        <v>15.62</v>
+        <v>30</v>
       </c>
       <c r="G689">
-        <v>3400</v>
+        <v>4900</v>
       </c>
       <c r="H689">
         <v>1</v>
@@ -26557,7 +26557,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -26566,26 +26566,26 @@
         </is>
       </c>
       <c r="C690">
-        <v>69720</v>
+        <v>181109</v>
       </c>
       <c r="D690">
-        <v>12549.6</v>
+        <v>32599.62</v>
       </c>
       <c r="E690">
-        <v>82270</v>
+        <v>213709</v>
       </c>
       <c r="F690">
-        <v>9.960000000000001</v>
+        <v>29.69</v>
       </c>
       <c r="G690">
-        <v>6999.999999999999</v>
+        <v>6100</v>
       </c>
       <c r="H690">
         <v>1</v>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J690" s="2">
@@ -26595,38 +26595,380 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C691">
+        <v>15581.5</v>
+      </c>
+      <c r="D691">
+        <v>779.08</v>
+      </c>
+      <c r="E691">
+        <v>16361</v>
+      </c>
+      <c r="F691">
+        <v>28.33</v>
+      </c>
+      <c r="G691">
+        <v>550</v>
+      </c>
+      <c r="H691">
+        <v>1</v>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J691" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>MINAR ISPAT PVT. LTD</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C692">
+        <v>157377.5</v>
+      </c>
+      <c r="D692">
+        <v>28327.95</v>
+      </c>
+      <c r="E692">
+        <v>185705</v>
+      </c>
+      <c r="F692">
+        <v>26.45</v>
+      </c>
+      <c r="G692">
+        <v>5950</v>
+      </c>
+      <c r="H692">
+        <v>1</v>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J692" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C693">
+        <v>68000</v>
+      </c>
+      <c r="D693">
+        <v>0</v>
+      </c>
+      <c r="E693">
+        <v>71400</v>
+      </c>
+      <c r="F693">
+        <v>25</v>
+      </c>
+      <c r="G693">
+        <v>2720</v>
+      </c>
+      <c r="H693">
+        <v>1</v>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J693" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C694">
+        <v>158920.5</v>
+      </c>
+      <c r="D694">
+        <v>28605.69</v>
+      </c>
+      <c r="E694">
+        <v>187526</v>
+      </c>
+      <c r="F694">
+        <v>19.99</v>
+      </c>
+      <c r="G694">
+        <v>7950.000000000001</v>
+      </c>
+      <c r="H694">
+        <v>1</v>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J694" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C695">
+        <v>74960</v>
+      </c>
+      <c r="D695">
+        <v>3748</v>
+      </c>
+      <c r="E695">
+        <v>78708</v>
+      </c>
+      <c r="F695">
+        <v>18.74</v>
+      </c>
+      <c r="G695">
+        <v>4000</v>
+      </c>
+      <c r="H695">
+        <v>1</v>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J695" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C696">
+        <v>53108</v>
+      </c>
+      <c r="D696">
+        <v>9559.440000000001</v>
+      </c>
+      <c r="E696">
+        <v>62667</v>
+      </c>
+      <c r="F696">
+        <v>15.62</v>
+      </c>
+      <c r="G696">
+        <v>3400</v>
+      </c>
+      <c r="H696">
+        <v>1</v>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J696" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C697">
+        <v>69720</v>
+      </c>
+      <c r="D697">
+        <v>12549.6</v>
+      </c>
+      <c r="E697">
+        <v>82270</v>
+      </c>
+      <c r="F697">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="G697">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="H697">
+        <v>1</v>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J697" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
           <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
-      <c r="B691" t="inlineStr">
+      <c r="B698" t="inlineStr">
         <is>
           <t>Nali Top</t>
         </is>
       </c>
-      <c r="C691">
+      <c r="C698">
         <v>29460</v>
       </c>
-      <c r="D691">
+      <c r="D698">
         <v>27438.48</v>
       </c>
-      <c r="E691">
+      <c r="E698">
         <v>30933</v>
       </c>
-      <c r="F691">
+      <c r="F698">
         <v>9.82</v>
       </c>
-      <c r="G691">
+      <c r="G698">
         <v>3000</v>
       </c>
-      <c r="H691">
-        <v>1</v>
-      </c>
-      <c r="I691" t="inlineStr">
+      <c r="H698">
+        <v>1</v>
+      </c>
+      <c r="I698" t="inlineStr">
         <is>
           <t>Shresth Maheshwari</t>
         </is>
       </c>
-      <c r="J691" s="2">
+      <c r="J698" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C699">
+        <v>7296</v>
+      </c>
+      <c r="D699">
+        <v>1313.28</v>
+      </c>
+      <c r="E699">
+        <v>8609</v>
+      </c>
+      <c r="F699">
+        <v>4.56</v>
+      </c>
+      <c r="G699">
+        <v>1600</v>
+      </c>
+      <c r="H699">
+        <v>1</v>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J699" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>HINDUSTAN AERONAUTICS LTD</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C700">
+        <v>17710</v>
+      </c>
+      <c r="D700">
+        <v>885.5</v>
+      </c>
+      <c r="E700">
+        <v>18596</v>
+      </c>
+      <c r="F700">
+        <v>2.53</v>
+      </c>
+      <c r="G700">
+        <v>7000.000000000001</v>
+      </c>
+      <c r="H700">
+        <v>1</v>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J700" s="2">
         <v>45078</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J700"/>
+  <dimension ref="A1:J692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22956,22 +22956,22 @@
         </is>
       </c>
       <c r="C595">
-        <v>2292448</v>
+        <v>1618729</v>
       </c>
       <c r="D595">
-        <v>1262305.74</v>
+        <v>588587.16</v>
       </c>
       <c r="E595">
-        <v>2705090.04</v>
+        <v>1910101.62</v>
       </c>
       <c r="F595">
-        <v>322.88</v>
+        <v>227.99</v>
       </c>
       <c r="G595">
-        <v>7099.999999999999</v>
+        <v>7100</v>
       </c>
       <c r="H595">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I595" t="inlineStr">
         <is>
@@ -22994,22 +22994,22 @@
         </is>
       </c>
       <c r="C596">
-        <v>1947876</v>
+        <v>1392132</v>
       </c>
       <c r="D596">
-        <v>1206971.16</v>
+        <v>353448.48</v>
       </c>
       <c r="E596">
-        <v>2298493.44</v>
+        <v>1642715.52</v>
       </c>
       <c r="F596">
-        <v>231.89</v>
+        <v>165.73</v>
       </c>
       <c r="G596">
         <v>8400</v>
       </c>
       <c r="H596">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I596" t="inlineStr">
         <is>
@@ -23023,35 +23023,35 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C597">
-        <v>568997.5</v>
+        <v>693068</v>
       </c>
       <c r="D597">
-        <v>76816.24000000001</v>
+        <v>76749.12</v>
       </c>
       <c r="E597">
-        <v>620210</v>
+        <v>817819.8200000001</v>
       </c>
       <c r="F597">
-        <v>144.05</v>
+        <v>102.77</v>
       </c>
       <c r="G597">
-        <v>3950</v>
+        <v>6743.874671596769</v>
       </c>
       <c r="H597">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J597" s="2">
@@ -23061,7 +23061,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -23070,26 +23070,26 @@
         </is>
       </c>
       <c r="C598">
-        <v>946275</v>
+        <v>488628</v>
       </c>
       <c r="D598">
-        <v>537697</v>
+        <v>87953.04000000001</v>
       </c>
       <c r="E598">
-        <v>1116605</v>
+        <v>576581</v>
       </c>
       <c r="F598">
-        <v>126.17</v>
+        <v>77.56</v>
       </c>
       <c r="G598">
-        <v>7500.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H598">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J598" s="2">
@@ -23099,31 +23099,31 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C599">
-        <v>885271</v>
+        <v>284518.5</v>
       </c>
       <c r="D599">
-        <v>704193.86</v>
+        <v>51213.36</v>
       </c>
       <c r="E599">
-        <v>1044619.78</v>
+        <v>335731</v>
       </c>
       <c r="F599">
-        <v>121.27</v>
+        <v>72.03</v>
       </c>
       <c r="G599">
-        <v>7299.999999999999</v>
+        <v>3950</v>
       </c>
       <c r="H599">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I599" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -23146,26 +23146,26 @@
         </is>
       </c>
       <c r="C600">
-        <v>741228</v>
+        <v>518419.5</v>
       </c>
       <c r="D600">
-        <v>474543.52</v>
+        <v>0</v>
       </c>
       <c r="E600">
-        <v>874648.48</v>
+        <v>611734.6799999999</v>
       </c>
       <c r="F600">
-        <v>97.53</v>
+        <v>65.21000000000001</v>
       </c>
       <c r="G600">
-        <v>7600.000000000001</v>
+        <v>7949.999999999999</v>
       </c>
       <c r="H600">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J600" s="2">
@@ -23175,35 +23175,35 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C601">
-        <v>708474</v>
+        <v>201955</v>
       </c>
       <c r="D601">
-        <v>516593.64</v>
+        <v>15689.7</v>
       </c>
       <c r="E601">
-        <v>835999.36</v>
+        <v>238307.2</v>
       </c>
       <c r="F601">
-        <v>90.83</v>
+        <v>62.14</v>
       </c>
       <c r="G601">
-        <v>7799.999999999999</v>
+        <v>3250</v>
       </c>
       <c r="H601">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J601" s="2">
@@ -23213,31 +23213,31 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C602">
-        <v>661072</v>
+        <v>441723</v>
       </c>
       <c r="D602">
-        <v>95430.34</v>
+        <v>260646.5</v>
       </c>
       <c r="E602">
-        <v>732940</v>
+        <v>521233.14</v>
       </c>
       <c r="F602">
-        <v>83.68000000000001</v>
+        <v>60.51000000000001</v>
       </c>
       <c r="G602">
-        <v>7900</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H602">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr">
         <is>
@@ -23251,35 +23251,35 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C603">
-        <v>488628</v>
+        <v>471822</v>
       </c>
       <c r="D603">
-        <v>87953.04000000001</v>
+        <v>279942</v>
       </c>
       <c r="E603">
-        <v>576581</v>
+        <v>556750</v>
       </c>
       <c r="F603">
-        <v>77.56</v>
+        <v>60.48999999999999</v>
       </c>
       <c r="G603">
-        <v>6300</v>
+        <v>7800.000000000001</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J603" s="2">
@@ -23289,35 +23289,35 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C604">
-        <v>548311.5</v>
+        <v>449025</v>
       </c>
       <c r="D604">
-        <v>420148.28</v>
+        <v>40446</v>
       </c>
       <c r="E604">
-        <v>647006.6799999999</v>
+        <v>529850</v>
       </c>
       <c r="F604">
-        <v>68.97</v>
+        <v>59.87</v>
       </c>
       <c r="G604">
-        <v>7949.999999999999</v>
+        <v>7500</v>
       </c>
       <c r="H604">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J604" s="2">
@@ -23327,35 +23327,35 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C605">
-        <v>426384</v>
+        <v>399266</v>
       </c>
       <c r="D605">
-        <v>76749.12</v>
+        <v>71867.88</v>
       </c>
       <c r="E605">
-        <v>503132.82</v>
+        <v>471134</v>
       </c>
       <c r="F605">
-        <v>67.67999999999999</v>
+        <v>50.54000000000001</v>
       </c>
       <c r="G605">
-        <v>6300.000000000001</v>
+        <v>7899.999999999999</v>
       </c>
       <c r="H605">
         <v>2</v>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J605" s="2">
@@ -23365,31 +23365,31 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C606">
-        <v>476106</v>
+        <v>126507.2</v>
       </c>
       <c r="D606">
-        <v>297364</v>
+        <v>6325.360000000001</v>
       </c>
       <c r="E606">
-        <v>561805.04</v>
+        <v>132832.64</v>
       </c>
       <c r="F606">
-        <v>65.22</v>
+        <v>46.51000000000001</v>
       </c>
       <c r="G606">
-        <v>7300.000000000001</v>
+        <v>2720</v>
       </c>
       <c r="H606">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr">
         <is>
@@ -23403,35 +23403,35 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C607">
-        <v>218046</v>
+        <v>288864</v>
       </c>
       <c r="D607">
-        <v>160445.72</v>
+        <v>0</v>
       </c>
       <c r="E607">
-        <v>228948.3</v>
+        <v>340860</v>
       </c>
       <c r="F607">
-        <v>63.19</v>
+        <v>40.12</v>
       </c>
       <c r="G607">
-        <v>3450.640924196867</v>
+        <v>7200.000000000001</v>
       </c>
       <c r="H607">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J607" s="2">
@@ -23441,31 +23441,31 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C608">
-        <v>201955</v>
+        <v>307585.5</v>
       </c>
       <c r="D608">
-        <v>15689.7</v>
+        <v>179421.96</v>
       </c>
       <c r="E608">
-        <v>238307.2</v>
+        <v>362950</v>
       </c>
       <c r="F608">
-        <v>62.14</v>
+        <v>38.69</v>
       </c>
       <c r="G608">
-        <v>3250</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H608">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -23488,26 +23488,26 @@
         </is>
       </c>
       <c r="C609">
-        <v>382292</v>
+        <v>226137</v>
       </c>
       <c r="D609">
-        <v>51330.14</v>
+        <v>40704.66</v>
       </c>
       <c r="E609">
-        <v>416140.28</v>
+        <v>266842</v>
       </c>
       <c r="F609">
-        <v>61.66</v>
+        <v>35.06</v>
       </c>
       <c r="G609">
-        <v>6200</v>
+        <v>6450</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J609" s="2">
@@ -23517,31 +23517,31 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C610">
-        <v>386304</v>
+        <v>238108</v>
       </c>
       <c r="D610">
-        <v>227919</v>
+        <v>238108</v>
       </c>
       <c r="E610">
-        <v>455838.36</v>
+        <v>280967</v>
       </c>
       <c r="F610">
-        <v>60.36</v>
+        <v>31.33</v>
       </c>
       <c r="G610">
-        <v>6400</v>
+        <v>7600</v>
       </c>
       <c r="H610">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I610" t="inlineStr">
         <is>
@@ -23555,35 +23555,35 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C611">
-        <v>553196</v>
+        <v>192944</v>
       </c>
       <c r="D611">
-        <v>553196.28</v>
+        <v>34729.92</v>
       </c>
       <c r="E611">
-        <v>652771.72</v>
+        <v>227674</v>
       </c>
       <c r="F611">
-        <v>60.13</v>
+        <v>31.12</v>
       </c>
       <c r="G611">
-        <v>9200</v>
+        <v>6200</v>
       </c>
       <c r="H611">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J611" s="2">
@@ -23593,7 +23593,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -23602,22 +23602,22 @@
         </is>
       </c>
       <c r="C612">
-        <v>473760</v>
+        <v>264708</v>
       </c>
       <c r="D612">
-        <v>473760.4</v>
+        <v>264708</v>
       </c>
       <c r="E612">
-        <v>559036.6</v>
+        <v>312355</v>
       </c>
       <c r="F612">
-        <v>59.22</v>
+        <v>30.78</v>
       </c>
       <c r="G612">
-        <v>7999.999999999999</v>
+        <v>8600</v>
       </c>
       <c r="H612">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I612" t="inlineStr">
         <is>
@@ -23631,31 +23631,31 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C613">
-        <v>126507.2</v>
+        <v>98496</v>
       </c>
       <c r="D613">
-        <v>6325.360000000001</v>
+        <v>17729.28</v>
       </c>
       <c r="E613">
-        <v>132832.64</v>
+        <v>116225.28</v>
       </c>
       <c r="F613">
-        <v>46.51000000000001</v>
+        <v>30.78</v>
       </c>
       <c r="G613">
-        <v>2720</v>
+        <v>3200</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I613" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -23678,26 +23678,26 @@
         </is>
       </c>
       <c r="C614">
-        <v>288864</v>
+        <v>194240</v>
       </c>
       <c r="D614">
         <v>0</v>
       </c>
       <c r="E614">
-        <v>340860</v>
+        <v>229203.2</v>
       </c>
       <c r="F614">
-        <v>40.12</v>
+        <v>30.35</v>
       </c>
       <c r="G614">
-        <v>7200.000000000001</v>
+        <v>6400</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J614" s="2">
@@ -23716,22 +23716,22 @@
         </is>
       </c>
       <c r="C615">
-        <v>57784</v>
+        <v>47011.5</v>
       </c>
       <c r="D615">
-        <v>30093.485</v>
+        <v>29124.32</v>
       </c>
       <c r="E615">
-        <v>68184.63</v>
+        <v>55473.08</v>
       </c>
       <c r="F615">
-        <v>37.28</v>
+        <v>30.33</v>
       </c>
       <c r="G615">
         <v>1550</v>
       </c>
       <c r="H615">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I615" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -23754,26 +23754,26 @@
         </is>
       </c>
       <c r="C616">
-        <v>226137</v>
+        <v>188046</v>
       </c>
       <c r="D616">
-        <v>40704.66</v>
+        <v>33848.28</v>
       </c>
       <c r="E616">
-        <v>266842</v>
+        <v>221894.28</v>
       </c>
       <c r="F616">
-        <v>35.06</v>
+        <v>30.33</v>
       </c>
       <c r="G616">
-        <v>6450</v>
+        <v>6200</v>
       </c>
       <c r="H616">
         <v>1</v>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J616" s="2">
@@ -23783,28 +23783,28 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C617">
-        <v>277693.5</v>
+        <v>204322.5</v>
       </c>
       <c r="D617">
-        <v>0</v>
+        <v>36778.05</v>
       </c>
       <c r="E617">
-        <v>327678</v>
+        <v>241101</v>
       </c>
       <c r="F617">
-        <v>34.93</v>
+        <v>30.27</v>
       </c>
       <c r="G617">
-        <v>7950</v>
+        <v>6750</v>
       </c>
       <c r="H617">
         <v>1</v>
@@ -23821,31 +23821,31 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C618">
-        <v>110912</v>
+        <v>260064</v>
       </c>
       <c r="D618">
-        <v>16396.2</v>
+        <v>0</v>
       </c>
       <c r="E618">
-        <v>123740</v>
+        <v>306876</v>
       </c>
       <c r="F618">
-        <v>34.66</v>
+        <v>30.24</v>
       </c>
       <c r="G618">
-        <v>3200</v>
+        <v>8600</v>
       </c>
       <c r="H618">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I618" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -23868,26 +23868,26 @@
         </is>
       </c>
       <c r="C619">
-        <v>221357.5</v>
+        <v>193152</v>
       </c>
       <c r="D619">
-        <v>221357.65</v>
+        <v>34767.36</v>
       </c>
       <c r="E619">
-        <v>261201.85</v>
+        <v>227919</v>
       </c>
       <c r="F619">
-        <v>31.85</v>
+        <v>30.18</v>
       </c>
       <c r="G619">
-        <v>6950</v>
+        <v>6400</v>
       </c>
       <c r="H619">
         <v>2</v>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J619" s="2">
@@ -23897,7 +23897,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -23906,19 +23906,19 @@
         </is>
       </c>
       <c r="C620">
-        <v>192944</v>
+        <v>192768</v>
       </c>
       <c r="D620">
-        <v>34729.92</v>
+        <v>0</v>
       </c>
       <c r="E620">
-        <v>227674</v>
+        <v>227466.24</v>
       </c>
       <c r="F620">
-        <v>31.12</v>
+        <v>30.12</v>
       </c>
       <c r="G620">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H620">
         <v>1</v>
@@ -23935,35 +23935,35 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C621">
-        <v>193977</v>
+        <v>276092</v>
       </c>
       <c r="D621">
-        <v>193977.14</v>
+        <v>276092</v>
       </c>
       <c r="E621">
-        <v>228892.86</v>
+        <v>325789</v>
       </c>
       <c r="F621">
-        <v>30.79</v>
+        <v>30.01</v>
       </c>
       <c r="G621">
-        <v>6300</v>
+        <v>9200</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J621" s="2">
@@ -23973,31 +23973,31 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>AMBA FRP PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C622">
-        <v>264708</v>
+        <v>180000</v>
       </c>
       <c r="D622">
-        <v>264708</v>
+        <v>9000</v>
       </c>
       <c r="E622">
-        <v>312355</v>
+        <v>189000</v>
       </c>
       <c r="F622">
-        <v>30.78</v>
+        <v>30</v>
       </c>
       <c r="G622">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr">
         <is>
@@ -24011,31 +24011,31 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C623">
-        <v>98496</v>
+        <v>217978</v>
       </c>
       <c r="D623">
-        <v>17729.28</v>
+        <v>39236.04</v>
       </c>
       <c r="E623">
-        <v>116225.28</v>
+        <v>257214</v>
       </c>
       <c r="F623">
-        <v>30.78</v>
+        <v>29.86</v>
       </c>
       <c r="G623">
-        <v>3200</v>
+        <v>7300</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>Jai Hind Wire Rod Mills Private Limited</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -24058,22 +24058,22 @@
         </is>
       </c>
       <c r="C624">
-        <v>192465</v>
+        <v>226328</v>
       </c>
       <c r="D624">
-        <v>192465.3</v>
+        <v>226328</v>
       </c>
       <c r="E624">
-        <v>227108.7</v>
+        <v>267067</v>
       </c>
       <c r="F624">
-        <v>30.55</v>
+        <v>29.78</v>
       </c>
       <c r="G624">
-        <v>6300</v>
+        <v>7600</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="C625">
-        <v>194240</v>
+        <v>187047</v>
       </c>
       <c r="D625">
-        <v>0</v>
+        <v>33668.46</v>
       </c>
       <c r="E625">
-        <v>229203.2</v>
+        <v>220715</v>
       </c>
       <c r="F625">
-        <v>30.35</v>
+        <v>29.69</v>
       </c>
       <c r="G625">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H625">
         <v>1</v>
@@ -24130,23 +24130,23 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C626">
-        <v>204322.5</v>
+        <v>234240</v>
       </c>
       <c r="D626">
-        <v>36778.05</v>
+        <v>234240</v>
       </c>
       <c r="E626">
-        <v>241101</v>
+        <v>276403</v>
       </c>
       <c r="F626">
-        <v>30.27</v>
+        <v>29.28</v>
       </c>
       <c r="G626">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="H626">
         <v>1</v>
@@ -24163,28 +24163,28 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C627">
-        <v>260064</v>
+        <v>111936</v>
       </c>
       <c r="D627">
-        <v>0</v>
+        <v>20148.48</v>
       </c>
       <c r="E627">
-        <v>306876</v>
+        <v>132084</v>
       </c>
       <c r="F627">
-        <v>30.24</v>
+        <v>25.44</v>
       </c>
       <c r="G627">
-        <v>8600</v>
+        <v>4400</v>
       </c>
       <c r="H627">
         <v>1</v>
@@ -24201,35 +24201,35 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Noble Tech Industries Pvt Ltd</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C628">
-        <v>271080</v>
+        <v>191770</v>
       </c>
       <c r="D628">
-        <v>271079.6</v>
+        <v>34518.6</v>
       </c>
       <c r="E628">
-        <v>319874.4</v>
+        <v>226289</v>
       </c>
       <c r="F628">
-        <v>30.12</v>
+        <v>25.4</v>
       </c>
       <c r="G628">
-        <v>9000</v>
+        <v>7550</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J628" s="2">
@@ -24239,7 +24239,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -24248,26 +24248,26 @@
         </is>
       </c>
       <c r="C629">
-        <v>192768</v>
+        <v>159138</v>
       </c>
       <c r="D629">
-        <v>192767.76</v>
+        <v>0</v>
       </c>
       <c r="E629">
-        <v>202406.4</v>
+        <v>187782.84</v>
       </c>
       <c r="F629">
-        <v>30.12</v>
+        <v>25.26</v>
       </c>
       <c r="G629">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H629">
         <v>1</v>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J629" s="2">
@@ -24277,35 +24277,35 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>AMBA FRP PRIVATE LIMITED</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C630">
-        <v>180000</v>
+        <v>176050</v>
       </c>
       <c r="D630">
-        <v>9000</v>
+        <v>31689</v>
       </c>
       <c r="E630">
-        <v>189000</v>
+        <v>207739</v>
       </c>
       <c r="F630">
-        <v>30</v>
+        <v>25.15</v>
       </c>
       <c r="G630">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J630" s="2">
@@ -24315,35 +24315,35 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Jai Hind Wire Rod Mills Private Limited</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C631">
-        <v>226328</v>
+        <v>65720</v>
       </c>
       <c r="D631">
-        <v>226328</v>
+        <v>0</v>
       </c>
       <c r="E631">
-        <v>267067</v>
+        <v>69006</v>
       </c>
       <c r="F631">
-        <v>29.78</v>
+        <v>24.8</v>
       </c>
       <c r="G631">
-        <v>7600</v>
+        <v>2650</v>
       </c>
       <c r="H631">
         <v>1</v>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J631" s="2">
@@ -24353,35 +24353,35 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C632">
-        <v>187047</v>
+        <v>71264</v>
       </c>
       <c r="D632">
-        <v>33668.46</v>
+        <v>12827.52</v>
       </c>
       <c r="E632">
-        <v>220715</v>
+        <v>84092</v>
       </c>
       <c r="F632">
-        <v>29.69</v>
+        <v>22.27</v>
       </c>
       <c r="G632">
-        <v>6300</v>
+        <v>3200</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J632" s="2">
@@ -24391,7 +24391,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -24400,26 +24400,26 @@
         </is>
       </c>
       <c r="C633">
-        <v>235840</v>
+        <v>129960</v>
       </c>
       <c r="D633">
-        <v>235839.8</v>
+        <v>0</v>
       </c>
       <c r="E633">
-        <v>278291.2</v>
+        <v>153352.8</v>
       </c>
       <c r="F633">
-        <v>29.48</v>
+        <v>21.66</v>
       </c>
       <c r="G633">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="H633">
         <v>2</v>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J633" s="2">
@@ -24429,31 +24429,31 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C634">
-        <v>111936</v>
+        <v>148400</v>
       </c>
       <c r="D634">
-        <v>20148.48</v>
+        <v>87290</v>
       </c>
       <c r="E634">
-        <v>132084</v>
+        <v>175111.8</v>
       </c>
       <c r="F634">
-        <v>25.44</v>
+        <v>21.2</v>
       </c>
       <c r="G634">
-        <v>4400</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -24476,26 +24476,26 @@
         </is>
       </c>
       <c r="C635">
-        <v>191770</v>
+        <v>135616</v>
       </c>
       <c r="D635">
-        <v>34518.6</v>
+        <v>18397.44</v>
       </c>
       <c r="E635">
-        <v>226289</v>
+        <v>160026.44</v>
       </c>
       <c r="F635">
-        <v>25.4</v>
+        <v>21.19</v>
       </c>
       <c r="G635">
-        <v>7550</v>
+        <v>6400</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J635" s="2">
@@ -24505,7 +24505,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -24514,26 +24514,26 @@
         </is>
       </c>
       <c r="C636">
-        <v>159138</v>
+        <v>64415</v>
       </c>
       <c r="D636">
-        <v>159138.16</v>
+        <v>11594.72</v>
       </c>
       <c r="E636">
-        <v>187782.84</v>
+        <v>76009</v>
       </c>
       <c r="F636">
-        <v>25.26</v>
+        <v>19.82</v>
       </c>
       <c r="G636">
-        <v>6300</v>
+        <v>3250</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J636" s="2">
@@ -24543,28 +24543,28 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C637">
-        <v>176050</v>
+        <v>100932</v>
       </c>
       <c r="D637">
-        <v>31689</v>
+        <v>0</v>
       </c>
       <c r="E637">
-        <v>207739</v>
+        <v>119099.76</v>
       </c>
       <c r="F637">
-        <v>25.15</v>
+        <v>12.94</v>
       </c>
       <c r="G637">
-        <v>7000</v>
+        <v>7800</v>
       </c>
       <c r="H637">
         <v>1</v>
@@ -24581,35 +24581,35 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C638">
-        <v>65720</v>
+        <v>34102</v>
       </c>
       <c r="D638">
-        <v>0</v>
+        <v>12151.8</v>
       </c>
       <c r="E638">
-        <v>69006</v>
+        <v>40240.36</v>
       </c>
       <c r="F638">
-        <v>24.8</v>
+        <v>10.03</v>
       </c>
       <c r="G638">
-        <v>2650</v>
+        <v>3400</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J638" s="2">
@@ -24619,28 +24619,28 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C639">
-        <v>38608</v>
+        <v>64218</v>
       </c>
       <c r="D639">
-        <v>4601.84</v>
+        <v>11559.24</v>
       </c>
       <c r="E639">
-        <v>40863</v>
+        <v>75777</v>
       </c>
       <c r="F639">
-        <v>24.13</v>
+        <v>9.73</v>
       </c>
       <c r="G639">
-        <v>1600</v>
+        <v>6600</v>
       </c>
       <c r="H639">
         <v>3</v>
@@ -24657,35 +24657,35 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C640">
-        <v>129960</v>
+        <v>12528</v>
       </c>
       <c r="D640">
-        <v>0</v>
+        <v>2255.04</v>
       </c>
       <c r="E640">
-        <v>153352.8</v>
+        <v>14783</v>
       </c>
       <c r="F640">
-        <v>21.66</v>
+        <v>7.83</v>
       </c>
       <c r="G640">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="H640">
         <v>2</v>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J640" s="2">
@@ -24700,26 +24700,26 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C641">
-        <v>148400</v>
+        <v>15640</v>
       </c>
       <c r="D641">
-        <v>87290</v>
+        <v>13815</v>
       </c>
       <c r="E641">
-        <v>175111.8</v>
+        <v>18455.2</v>
       </c>
       <c r="F641">
-        <v>21.2</v>
+        <v>4.6</v>
       </c>
       <c r="G641">
-        <v>6999.999999999999</v>
+        <v>3400</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I641" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -24742,22 +24742,22 @@
         </is>
       </c>
       <c r="C642">
-        <v>135616</v>
+        <v>9920</v>
       </c>
       <c r="D642">
-        <v>18397.44</v>
+        <v>1785.6</v>
       </c>
       <c r="E642">
-        <v>160026.44</v>
+        <v>11706</v>
       </c>
       <c r="F642">
-        <v>21.19</v>
+        <v>1.24</v>
       </c>
       <c r="G642">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="H642">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I642" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -24780,36 +24780,36 @@
         </is>
       </c>
       <c r="C643">
-        <v>79760</v>
+        <v>2447424</v>
       </c>
       <c r="D643">
-        <v>7178.4</v>
+        <v>440536.32</v>
       </c>
       <c r="E643">
-        <v>94116.79999999999</v>
+        <v>2887959</v>
       </c>
       <c r="F643">
-        <v>19.94</v>
+        <v>291.36</v>
       </c>
       <c r="G643">
-        <v>4000</v>
+        <v>8400</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J643" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -24818,22 +24818,22 @@
         </is>
       </c>
       <c r="C644">
-        <v>64415</v>
+        <v>2051687</v>
       </c>
       <c r="D644">
-        <v>11594.72</v>
+        <v>369303.66</v>
       </c>
       <c r="E644">
-        <v>76009</v>
+        <v>2420991</v>
       </c>
       <c r="F644">
-        <v>19.82</v>
+        <v>288.97</v>
       </c>
       <c r="G644">
-        <v>3250</v>
+        <v>7100.000000000001</v>
       </c>
       <c r="H644">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I644" t="inlineStr">
         <is>
@@ -24841,37 +24841,37 @@
         </is>
       </c>
       <c r="J644" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C645">
-        <v>100932</v>
+        <v>1389000</v>
       </c>
       <c r="D645">
-        <v>0</v>
+        <v>250020</v>
       </c>
       <c r="E645">
-        <v>119099.76</v>
+        <v>1639022</v>
       </c>
       <c r="F645">
-        <v>12.94</v>
+        <v>185.2</v>
       </c>
       <c r="G645">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I645" t="inlineStr">
         <is>
@@ -24879,51 +24879,51 @@
         </is>
       </c>
       <c r="J645" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C646">
-        <v>34102</v>
+        <v>1058402</v>
       </c>
       <c r="D646">
-        <v>12151.8</v>
+        <v>190512.36</v>
       </c>
       <c r="E646">
-        <v>40240.36</v>
+        <v>1248913</v>
       </c>
       <c r="F646">
-        <v>10.03</v>
+        <v>170.71</v>
       </c>
       <c r="G646">
-        <v>3400</v>
+        <v>6200</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J646" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -24932,22 +24932,22 @@
         </is>
       </c>
       <c r="C647">
-        <v>64218</v>
+        <v>1052478</v>
       </c>
       <c r="D647">
-        <v>11559.24</v>
+        <v>189446.04</v>
       </c>
       <c r="E647">
-        <v>75777</v>
+        <v>1241924</v>
       </c>
       <c r="F647">
-        <v>9.73</v>
+        <v>167.06</v>
       </c>
       <c r="G647">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="H647">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I647" t="inlineStr">
         <is>
@@ -24955,37 +24955,37 @@
         </is>
       </c>
       <c r="J647" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C648">
-        <v>15640</v>
+        <v>591710</v>
       </c>
       <c r="D648">
-        <v>13815</v>
+        <v>106507.86</v>
       </c>
       <c r="E648">
-        <v>18455.2</v>
+        <v>698219</v>
       </c>
       <c r="F648">
-        <v>4.6</v>
+        <v>149.8</v>
       </c>
       <c r="G648">
-        <v>3400</v>
+        <v>3950</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I648" t="inlineStr">
         <is>
@@ -24993,75 +24993,75 @@
         </is>
       </c>
       <c r="J648" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C649">
-        <v>6800</v>
+        <v>1076554.5</v>
       </c>
       <c r="D649">
-        <v>6800</v>
+        <v>193779.81</v>
       </c>
       <c r="E649">
-        <v>7140</v>
+        <v>1270335</v>
       </c>
       <c r="F649">
-        <v>2</v>
+        <v>142.59</v>
       </c>
       <c r="G649">
-        <v>3400</v>
+        <v>7550</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J649" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C650">
-        <v>9920</v>
+        <v>1116586</v>
       </c>
       <c r="D650">
-        <v>1785.6</v>
+        <v>200985.48</v>
       </c>
       <c r="E650">
-        <v>11706</v>
+        <v>1317571</v>
       </c>
       <c r="F650">
-        <v>1.24</v>
+        <v>141.34</v>
       </c>
       <c r="G650">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I650" t="inlineStr">
         <is>
@@ -25069,13 +25069,13 @@
         </is>
       </c>
       <c r="J650" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -25084,22 +25084,22 @@
         </is>
       </c>
       <c r="C651">
-        <v>1835137</v>
+        <v>309010</v>
       </c>
       <c r="D651">
-        <v>330324.66</v>
+        <v>55621.8</v>
       </c>
       <c r="E651">
-        <v>2165462</v>
+        <v>364632</v>
       </c>
       <c r="F651">
-        <v>258.47</v>
+        <v>95.08</v>
       </c>
       <c r="G651">
-        <v>7100.000000000001</v>
+        <v>3250</v>
       </c>
       <c r="H651">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I651" t="inlineStr">
         <is>
@@ -25113,35 +25113,35 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C652">
-        <v>2154348</v>
+        <v>672987</v>
       </c>
       <c r="D652">
-        <v>387782.64</v>
+        <v>121137.66</v>
       </c>
       <c r="E652">
-        <v>2542130</v>
+        <v>794125</v>
       </c>
       <c r="F652">
-        <v>256.47</v>
+        <v>92.19</v>
       </c>
       <c r="G652">
-        <v>8400</v>
+        <v>7300</v>
       </c>
       <c r="H652">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J652" s="2">
@@ -25151,7 +25151,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -25160,22 +25160,22 @@
         </is>
       </c>
       <c r="C653">
-        <v>1058402</v>
+        <v>456900</v>
       </c>
       <c r="D653">
-        <v>190512.36</v>
+        <v>82242</v>
       </c>
       <c r="E653">
-        <v>1248913</v>
+        <v>539142</v>
       </c>
       <c r="F653">
-        <v>170.71</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="G653">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="H653">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I653" t="inlineStr">
         <is>
@@ -25189,31 +25189,31 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C654">
-        <v>1052478</v>
+        <v>627456</v>
       </c>
       <c r="D654">
-        <v>189446.04</v>
+        <v>112942.08</v>
       </c>
       <c r="E654">
-        <v>1241924</v>
+        <v>740398</v>
       </c>
       <c r="F654">
-        <v>167.06</v>
+        <v>72.96000000000001</v>
       </c>
       <c r="G654">
-        <v>6300</v>
+        <v>8599.999999999998</v>
       </c>
       <c r="H654">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I654" t="inlineStr">
         <is>
@@ -25227,35 +25227,35 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C655">
-        <v>1076554.5</v>
+        <v>227904</v>
       </c>
       <c r="D655">
-        <v>193779.81</v>
+        <v>41022.72</v>
       </c>
       <c r="E655">
-        <v>1270335</v>
+        <v>268928</v>
       </c>
       <c r="F655">
-        <v>142.59</v>
+        <v>71.22</v>
       </c>
       <c r="G655">
-        <v>7550</v>
+        <v>3200</v>
       </c>
       <c r="H655">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J655" s="2">
@@ -25265,7 +25265,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -25274,26 +25274,26 @@
         </is>
       </c>
       <c r="C656">
-        <v>1116586</v>
+        <v>540072</v>
       </c>
       <c r="D656">
-        <v>200985.48</v>
+        <v>97212.96000000001</v>
       </c>
       <c r="E656">
-        <v>1317571</v>
+        <v>637284</v>
       </c>
       <c r="F656">
-        <v>141.34</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="G656">
-        <v>7900</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H656">
         <v>4</v>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J656" s="2">
@@ -25303,35 +25303,35 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C657">
-        <v>928950</v>
+        <v>611616</v>
       </c>
       <c r="D657">
-        <v>167211</v>
+        <v>110090.88</v>
       </c>
       <c r="E657">
-        <v>1096162</v>
+        <v>721707</v>
       </c>
       <c r="F657">
-        <v>123.86</v>
+        <v>66.48</v>
       </c>
       <c r="G657">
-        <v>7500</v>
+        <v>9200</v>
       </c>
       <c r="H657">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J657" s="2">
@@ -25341,7 +25341,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -25350,22 +25350,22 @@
         </is>
       </c>
       <c r="C658">
-        <v>444414.5</v>
+        <v>562096</v>
       </c>
       <c r="D658">
-        <v>79994.66</v>
+        <v>101177.28</v>
       </c>
       <c r="E658">
-        <v>524410</v>
+        <v>663273</v>
       </c>
       <c r="F658">
-        <v>112.51</v>
+        <v>65.36</v>
       </c>
       <c r="G658">
-        <v>3950</v>
+        <v>8600</v>
       </c>
       <c r="H658">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="C659">
-        <v>309010</v>
+        <v>390033</v>
       </c>
       <c r="D659">
-        <v>55621.8</v>
+        <v>70205.94</v>
       </c>
       <c r="E659">
-        <v>364632</v>
+        <v>460239</v>
       </c>
       <c r="F659">
-        <v>95.08</v>
+        <v>61.91</v>
       </c>
       <c r="G659">
-        <v>3250</v>
+        <v>6300</v>
       </c>
       <c r="H659">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -25426,26 +25426,26 @@
         </is>
       </c>
       <c r="C660">
-        <v>672987</v>
+        <v>365199</v>
       </c>
       <c r="D660">
-        <v>121137.66</v>
+        <v>65735.82000000001</v>
       </c>
       <c r="E660">
-        <v>794125</v>
+        <v>430935</v>
       </c>
       <c r="F660">
-        <v>92.19</v>
+        <v>56.62</v>
       </c>
       <c r="G660">
-        <v>7300</v>
+        <v>6449.999999999999</v>
       </c>
       <c r="H660">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J660" s="2">
@@ -25455,35 +25455,35 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C661">
-        <v>627456</v>
+        <v>335012</v>
       </c>
       <c r="D661">
-        <v>112942.08</v>
+        <v>38166.48</v>
       </c>
       <c r="E661">
-        <v>740398</v>
+        <v>395313.68</v>
       </c>
       <c r="F661">
-        <v>72.96000000000001</v>
+        <v>54.92</v>
       </c>
       <c r="G661">
-        <v>8599.999999999998</v>
+        <v>6100</v>
       </c>
       <c r="H661">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J661" s="2">
@@ -25493,31 +25493,31 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C662">
-        <v>227904</v>
+        <v>238896.45</v>
       </c>
       <c r="D662">
-        <v>41022.72</v>
+        <v>11944.82</v>
       </c>
       <c r="E662">
-        <v>268928</v>
+        <v>250841</v>
       </c>
       <c r="F662">
-        <v>71.22</v>
+        <v>54.73</v>
       </c>
       <c r="G662">
-        <v>3200</v>
+        <v>4365</v>
       </c>
       <c r="H662">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr">
         <is>
@@ -25531,35 +25531,35 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C663">
-        <v>540072</v>
+        <v>292096</v>
       </c>
       <c r="D663">
-        <v>97212.96000000001</v>
+        <v>52577.28</v>
       </c>
       <c r="E663">
-        <v>637284</v>
+        <v>344673</v>
       </c>
       <c r="F663">
-        <v>69.24000000000001</v>
+        <v>45.64</v>
       </c>
       <c r="G663">
-        <v>7799.999999999999</v>
+        <v>6400</v>
       </c>
       <c r="H663">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J663" s="2">
@@ -25569,35 +25569,35 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C664">
-        <v>611616</v>
+        <v>257920</v>
       </c>
       <c r="D664">
-        <v>110090.88</v>
+        <v>46425.6</v>
       </c>
       <c r="E664">
-        <v>721707</v>
+        <v>304345.24</v>
       </c>
       <c r="F664">
-        <v>66.48</v>
+        <v>40.3</v>
       </c>
       <c r="G664">
-        <v>9200</v>
+        <v>6400</v>
       </c>
       <c r="H664">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J664" s="2">
@@ -25607,35 +25607,35 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C665">
-        <v>562096</v>
+        <v>250518</v>
       </c>
       <c r="D665">
-        <v>101177.28</v>
+        <v>45093.24</v>
       </c>
       <c r="E665">
-        <v>663273</v>
+        <v>295611.74</v>
       </c>
       <c r="F665">
-        <v>65.36</v>
+        <v>38.84</v>
       </c>
       <c r="G665">
-        <v>8600</v>
+        <v>6449.999999999999</v>
       </c>
       <c r="H665">
         <v>2</v>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J665" s="2">
@@ -25645,35 +25645,35 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C666">
-        <v>365199</v>
+        <v>288240</v>
       </c>
       <c r="D666">
-        <v>65735.82000000001</v>
+        <v>51883.2</v>
       </c>
       <c r="E666">
-        <v>430935</v>
+        <v>340123</v>
       </c>
       <c r="F666">
-        <v>56.62</v>
+        <v>36.03</v>
       </c>
       <c r="G666">
-        <v>6449.999999999999</v>
+        <v>8000</v>
       </c>
       <c r="H666">
         <v>2</v>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J666" s="2">
@@ -25683,35 +25683,35 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C667">
-        <v>335012</v>
+        <v>121142</v>
       </c>
       <c r="D667">
-        <v>38166.48</v>
+        <v>21805.56</v>
       </c>
       <c r="E667">
-        <v>395313.68</v>
+        <v>142948</v>
       </c>
       <c r="F667">
-        <v>54.92</v>
+        <v>35.63</v>
       </c>
       <c r="G667">
-        <v>6100</v>
+        <v>3400</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J667" s="2">
@@ -25721,28 +25721,28 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C668">
-        <v>238896.45</v>
+        <v>244918</v>
       </c>
       <c r="D668">
-        <v>11944.82</v>
+        <v>44085.24</v>
       </c>
       <c r="E668">
-        <v>250841</v>
+        <v>289003</v>
       </c>
       <c r="F668">
-        <v>54.73</v>
+        <v>35.24</v>
       </c>
       <c r="G668">
-        <v>4365</v>
+        <v>6950</v>
       </c>
       <c r="H668">
         <v>2</v>
@@ -25759,35 +25759,35 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C669">
-        <v>257920</v>
+        <v>267368</v>
       </c>
       <c r="D669">
-        <v>46425.6</v>
+        <v>48126.24</v>
       </c>
       <c r="E669">
-        <v>304345.24</v>
+        <v>315494</v>
       </c>
       <c r="F669">
-        <v>40.3</v>
+        <v>35.18</v>
       </c>
       <c r="G669">
-        <v>6400</v>
+        <v>7600</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J669" s="2">
@@ -25797,35 +25797,35 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C670">
-        <v>250518</v>
+        <v>277920</v>
       </c>
       <c r="D670">
-        <v>45093.24</v>
+        <v>50025.6</v>
       </c>
       <c r="E670">
-        <v>295611.74</v>
+        <v>327946</v>
       </c>
       <c r="F670">
-        <v>38.84</v>
+        <v>34.73999999999999</v>
       </c>
       <c r="G670">
-        <v>6449.999999999999</v>
+        <v>8000.000000000001</v>
       </c>
       <c r="H670">
         <v>2</v>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J670" s="2">
@@ -25835,7 +25835,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -25844,26 +25844,26 @@
         </is>
       </c>
       <c r="C671">
-        <v>288240</v>
+        <v>276400</v>
       </c>
       <c r="D671">
-        <v>51883.2</v>
+        <v>49752</v>
       </c>
       <c r="E671">
-        <v>340123</v>
+        <v>326152</v>
       </c>
       <c r="F671">
-        <v>36.03</v>
+        <v>34.55</v>
       </c>
       <c r="G671">
-        <v>8000</v>
+        <v>8000.000000000001</v>
       </c>
       <c r="H671">
         <v>2</v>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J671" s="2">
@@ -25873,7 +25873,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -25882,26 +25882,26 @@
         </is>
       </c>
       <c r="C672">
-        <v>213840</v>
+        <v>217350</v>
       </c>
       <c r="D672">
-        <v>38491.2</v>
+        <v>39123</v>
       </c>
       <c r="E672">
-        <v>252331</v>
+        <v>256473</v>
       </c>
       <c r="F672">
-        <v>35.64</v>
+        <v>34.5</v>
       </c>
       <c r="G672">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H672">
         <v>2</v>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J672" s="2">
@@ -25911,7 +25911,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -25920,26 +25920,26 @@
         </is>
       </c>
       <c r="C673">
-        <v>121142</v>
+        <v>52142</v>
       </c>
       <c r="D673">
-        <v>21805.56</v>
+        <v>9385.58</v>
       </c>
       <c r="E673">
-        <v>142948</v>
+        <v>61528</v>
       </c>
       <c r="F673">
-        <v>35.63</v>
+        <v>33.64</v>
       </c>
       <c r="G673">
-        <v>3400</v>
+        <v>1550</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J673" s="2">
@@ -25949,31 +25949,31 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C674">
-        <v>244918</v>
+        <v>256387.5</v>
       </c>
       <c r="D674">
-        <v>44085.24</v>
+        <v>46149.75</v>
       </c>
       <c r="E674">
-        <v>289003</v>
+        <v>302537</v>
       </c>
       <c r="F674">
-        <v>35.24</v>
+        <v>32.25</v>
       </c>
       <c r="G674">
-        <v>6950</v>
+        <v>7950</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I674" t="inlineStr">
         <is>
@@ -25987,35 +25987,35 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C675">
-        <v>267368</v>
+        <v>102688</v>
       </c>
       <c r="D675">
-        <v>48126.24</v>
+        <v>18483.84</v>
       </c>
       <c r="E675">
-        <v>315494</v>
+        <v>121172</v>
       </c>
       <c r="F675">
-        <v>35.18</v>
+        <v>32.09</v>
       </c>
       <c r="G675">
-        <v>7600</v>
+        <v>3200</v>
       </c>
       <c r="H675">
         <v>1</v>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J675" s="2">
@@ -26025,35 +26025,35 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C676">
-        <v>277920</v>
+        <v>195741</v>
       </c>
       <c r="D676">
-        <v>50025.6</v>
+        <v>35233.38</v>
       </c>
       <c r="E676">
-        <v>327946</v>
+        <v>230974</v>
       </c>
       <c r="F676">
-        <v>34.73999999999999</v>
+        <v>31.07</v>
       </c>
       <c r="G676">
-        <v>8000.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J676" s="2">
@@ -26063,35 +26063,35 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C677">
-        <v>276400</v>
+        <v>194985</v>
       </c>
       <c r="D677">
-        <v>49752</v>
+        <v>35097.3</v>
       </c>
       <c r="E677">
-        <v>326152</v>
+        <v>230082</v>
       </c>
       <c r="F677">
-        <v>34.55</v>
+        <v>30.95</v>
       </c>
       <c r="G677">
-        <v>8000.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J677" s="2">
@@ -26101,7 +26101,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -26110,26 +26110,26 @@
         </is>
       </c>
       <c r="C678">
-        <v>217350</v>
+        <v>194733</v>
       </c>
       <c r="D678">
-        <v>39123</v>
+        <v>35051.94</v>
       </c>
       <c r="E678">
-        <v>256473</v>
+        <v>229785</v>
       </c>
       <c r="F678">
-        <v>34.5</v>
+        <v>30.91</v>
       </c>
       <c r="G678">
         <v>6300</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J678" s="2">
@@ -26139,35 +26139,35 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C679">
-        <v>52142</v>
+        <v>197376</v>
       </c>
       <c r="D679">
-        <v>9385.58</v>
+        <v>35527.68</v>
       </c>
       <c r="E679">
-        <v>61528</v>
+        <v>232904</v>
       </c>
       <c r="F679">
-        <v>33.64</v>
+        <v>30.84</v>
       </c>
       <c r="G679">
-        <v>1550</v>
+        <v>6400</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J679" s="2">
@@ -26177,35 +26177,35 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C680">
-        <v>256387.5</v>
+        <v>190827</v>
       </c>
       <c r="D680">
-        <v>46149.75</v>
+        <v>34348.86</v>
       </c>
       <c r="E680">
-        <v>302537</v>
+        <v>225176</v>
       </c>
       <c r="F680">
-        <v>32.25</v>
+        <v>30.29</v>
       </c>
       <c r="G680">
-        <v>7950</v>
+        <v>6300</v>
       </c>
       <c r="H680">
         <v>1</v>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J680" s="2">
@@ -26215,28 +26215,28 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C681">
-        <v>102688</v>
+        <v>147000</v>
       </c>
       <c r="D681">
-        <v>18483.84</v>
+        <v>7350</v>
       </c>
       <c r="E681">
-        <v>121172</v>
+        <v>154350</v>
       </c>
       <c r="F681">
-        <v>32.09</v>
+        <v>30</v>
       </c>
       <c r="G681">
-        <v>3200</v>
+        <v>4900</v>
       </c>
       <c r="H681">
         <v>1</v>
@@ -26253,7 +26253,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -26262,26 +26262,26 @@
         </is>
       </c>
       <c r="C682">
-        <v>198765</v>
+        <v>181109</v>
       </c>
       <c r="D682">
-        <v>35777.7</v>
+        <v>32599.62</v>
       </c>
       <c r="E682">
-        <v>234543</v>
+        <v>213709</v>
       </c>
       <c r="F682">
-        <v>31.55</v>
+        <v>29.69</v>
       </c>
       <c r="G682">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="H682">
         <v>1</v>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J682" s="2">
@@ -26291,35 +26291,35 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C683">
-        <v>195741</v>
+        <v>15581.5</v>
       </c>
       <c r="D683">
-        <v>35233.38</v>
+        <v>779.08</v>
       </c>
       <c r="E683">
-        <v>230974</v>
+        <v>16361</v>
       </c>
       <c r="F683">
-        <v>31.07</v>
+        <v>28.33</v>
       </c>
       <c r="G683">
-        <v>6300</v>
+        <v>550</v>
       </c>
       <c r="H683">
         <v>1</v>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J683" s="2">
@@ -26329,7 +26329,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -26338,26 +26338,26 @@
         </is>
       </c>
       <c r="C684">
-        <v>194985</v>
+        <v>157377.5</v>
       </c>
       <c r="D684">
-        <v>35097.3</v>
+        <v>28327.95</v>
       </c>
       <c r="E684">
-        <v>230082</v>
+        <v>185705</v>
       </c>
       <c r="F684">
-        <v>30.95</v>
+        <v>26.45</v>
       </c>
       <c r="G684">
-        <v>6300</v>
+        <v>5950</v>
       </c>
       <c r="H684">
         <v>1</v>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J684" s="2">
@@ -26367,35 +26367,35 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C685">
-        <v>194733</v>
+        <v>68000</v>
       </c>
       <c r="D685">
-        <v>35051.94</v>
+        <v>0</v>
       </c>
       <c r="E685">
-        <v>229785</v>
+        <v>71400</v>
       </c>
       <c r="F685">
-        <v>30.91</v>
+        <v>25</v>
       </c>
       <c r="G685">
-        <v>6300</v>
+        <v>2720</v>
       </c>
       <c r="H685">
         <v>1</v>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J685" s="2">
@@ -26405,35 +26405,35 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C686">
-        <v>197376</v>
+        <v>158920.5</v>
       </c>
       <c r="D686">
-        <v>35527.68</v>
+        <v>28605.69</v>
       </c>
       <c r="E686">
-        <v>232904</v>
+        <v>187526</v>
       </c>
       <c r="F686">
-        <v>30.84</v>
+        <v>19.99</v>
       </c>
       <c r="G686">
-        <v>6400</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H686">
         <v>1</v>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J686" s="2">
@@ -26443,28 +26443,28 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C687">
-        <v>194368</v>
+        <v>74960</v>
       </c>
       <c r="D687">
-        <v>34986.24</v>
+        <v>3748</v>
       </c>
       <c r="E687">
-        <v>229354</v>
+        <v>78708</v>
       </c>
       <c r="F687">
-        <v>30.37</v>
+        <v>18.74</v>
       </c>
       <c r="G687">
-        <v>6400</v>
+        <v>4000</v>
       </c>
       <c r="H687">
         <v>1</v>
@@ -26481,28 +26481,28 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C688">
-        <v>191268</v>
+        <v>53108</v>
       </c>
       <c r="D688">
-        <v>34428.24</v>
+        <v>9559.440000000001</v>
       </c>
       <c r="E688">
-        <v>225696</v>
+        <v>62667</v>
       </c>
       <c r="F688">
-        <v>30.36</v>
+        <v>15.62</v>
       </c>
       <c r="G688">
-        <v>6300</v>
+        <v>3400</v>
       </c>
       <c r="H688">
         <v>1</v>
@@ -26519,28 +26519,28 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C689">
-        <v>147000</v>
+        <v>69720</v>
       </c>
       <c r="D689">
-        <v>7350</v>
+        <v>12549.6</v>
       </c>
       <c r="E689">
-        <v>154350</v>
+        <v>82270</v>
       </c>
       <c r="F689">
-        <v>30</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="G689">
-        <v>4900</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H689">
         <v>1</v>
@@ -26557,28 +26557,28 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C690">
-        <v>181109</v>
+        <v>29460</v>
       </c>
       <c r="D690">
-        <v>32599.62</v>
+        <v>27438.48</v>
       </c>
       <c r="E690">
-        <v>213709</v>
+        <v>30933</v>
       </c>
       <c r="F690">
-        <v>29.69</v>
+        <v>9.82</v>
       </c>
       <c r="G690">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="H690">
         <v>1</v>
@@ -26595,28 +26595,28 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C691">
-        <v>15581.5</v>
+        <v>7296</v>
       </c>
       <c r="D691">
-        <v>779.08</v>
+        <v>1313.28</v>
       </c>
       <c r="E691">
-        <v>16361</v>
+        <v>8609</v>
       </c>
       <c r="F691">
-        <v>28.33</v>
+        <v>4.56</v>
       </c>
       <c r="G691">
-        <v>550</v>
+        <v>1600</v>
       </c>
       <c r="H691">
         <v>1</v>
@@ -26633,7 +26633,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>HINDUSTAN AERONAUTICS LTD</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -26642,333 +26642,29 @@
         </is>
       </c>
       <c r="C692">
-        <v>157377.5</v>
+        <v>17710</v>
       </c>
       <c r="D692">
-        <v>28327.95</v>
+        <v>885.5</v>
       </c>
       <c r="E692">
-        <v>185705</v>
+        <v>18596</v>
       </c>
       <c r="F692">
-        <v>26.45</v>
+        <v>2.53</v>
       </c>
       <c r="G692">
-        <v>5950</v>
+        <v>7000.000000000001</v>
       </c>
       <c r="H692">
         <v>1</v>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J692" s="2">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>Quartz Powder</t>
-        </is>
-      </c>
-      <c r="C693">
-        <v>68000</v>
-      </c>
-      <c r="D693">
-        <v>0</v>
-      </c>
-      <c r="E693">
-        <v>71400</v>
-      </c>
-      <c r="F693">
-        <v>25</v>
-      </c>
-      <c r="G693">
-        <v>2720</v>
-      </c>
-      <c r="H693">
-        <v>1</v>
-      </c>
-      <c r="I693" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J693" s="2">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>Boron Oxide Premix</t>
-        </is>
-      </c>
-      <c r="C694">
-        <v>158920.5</v>
-      </c>
-      <c r="D694">
-        <v>28605.69</v>
-      </c>
-      <c r="E694">
-        <v>187526</v>
-      </c>
-      <c r="F694">
-        <v>19.99</v>
-      </c>
-      <c r="G694">
-        <v>7950.000000000001</v>
-      </c>
-      <c r="H694">
-        <v>1</v>
-      </c>
-      <c r="I694" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J694" s="2">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>Ardex Endura (India) Private Ltd</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>Quartz Powder</t>
-        </is>
-      </c>
-      <c r="C695">
-        <v>74960</v>
-      </c>
-      <c r="D695">
-        <v>3748</v>
-      </c>
-      <c r="E695">
-        <v>78708</v>
-      </c>
-      <c r="F695">
-        <v>18.74</v>
-      </c>
-      <c r="G695">
-        <v>4000</v>
-      </c>
-      <c r="H695">
-        <v>1</v>
-      </c>
-      <c r="I695" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J695" s="2">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
-        </is>
-      </c>
-      <c r="C696">
-        <v>53108</v>
-      </c>
-      <c r="D696">
-        <v>9559.440000000001</v>
-      </c>
-      <c r="E696">
-        <v>62667</v>
-      </c>
-      <c r="F696">
-        <v>15.62</v>
-      </c>
-      <c r="G696">
-        <v>3400</v>
-      </c>
-      <c r="H696">
-        <v>1</v>
-      </c>
-      <c r="I696" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J696" s="2">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>Rama Hi Power Tech</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C697">
-        <v>69720</v>
-      </c>
-      <c r="D697">
-        <v>12549.6</v>
-      </c>
-      <c r="E697">
-        <v>82270</v>
-      </c>
-      <c r="F697">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="G697">
-        <v>6999.999999999999</v>
-      </c>
-      <c r="H697">
-        <v>1</v>
-      </c>
-      <c r="I697" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J697" s="2">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
-        </is>
-      </c>
-      <c r="C698">
-        <v>29460</v>
-      </c>
-      <c r="D698">
-        <v>27438.48</v>
-      </c>
-      <c r="E698">
-        <v>30933</v>
-      </c>
-      <c r="F698">
-        <v>9.82</v>
-      </c>
-      <c r="G698">
-        <v>3000</v>
-      </c>
-      <c r="H698">
-        <v>1</v>
-      </c>
-      <c r="I698" t="inlineStr">
-        <is>
-          <t>Shresth Maheshwari</t>
-        </is>
-      </c>
-      <c r="J698" s="2">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>Adishakti Smelters Private Limited</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
-        </is>
-      </c>
-      <c r="C699">
-        <v>7296</v>
-      </c>
-      <c r="D699">
-        <v>1313.28</v>
-      </c>
-      <c r="E699">
-        <v>8609</v>
-      </c>
-      <c r="F699">
-        <v>4.56</v>
-      </c>
-      <c r="G699">
-        <v>1600</v>
-      </c>
-      <c r="H699">
-        <v>1</v>
-      </c>
-      <c r="I699" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J699" s="2">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>HINDUSTAN AERONAUTICS LTD</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C700">
-        <v>17710</v>
-      </c>
-      <c r="D700">
-        <v>885.5</v>
-      </c>
-      <c r="E700">
-        <v>18596</v>
-      </c>
-      <c r="F700">
-        <v>2.53</v>
-      </c>
-      <c r="G700">
-        <v>7000.000000000001</v>
-      </c>
-      <c r="H700">
-        <v>1</v>
-      </c>
-      <c r="I700" t="inlineStr">
-        <is>
-          <t>Shresth Maheshwari</t>
-        </is>
-      </c>
-      <c r="J700" s="2">
         <v>45078</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J692"/>
+  <dimension ref="A1:J700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22956,22 +22956,22 @@
         </is>
       </c>
       <c r="C595">
-        <v>1618729</v>
+        <v>2292448</v>
       </c>
       <c r="D595">
-        <v>588587.16</v>
+        <v>1262305.74</v>
       </c>
       <c r="E595">
-        <v>1910101.62</v>
+        <v>2705090.04</v>
       </c>
       <c r="F595">
-        <v>227.99</v>
+        <v>322.88</v>
       </c>
       <c r="G595">
-        <v>7100</v>
+        <v>7099.999999999999</v>
       </c>
       <c r="H595">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I595" t="inlineStr">
         <is>
@@ -22994,22 +22994,22 @@
         </is>
       </c>
       <c r="C596">
-        <v>1392132</v>
+        <v>1947876</v>
       </c>
       <c r="D596">
-        <v>353448.48</v>
+        <v>1206971.16</v>
       </c>
       <c r="E596">
-        <v>1642715.52</v>
+        <v>2298493.44</v>
       </c>
       <c r="F596">
-        <v>165.73</v>
+        <v>231.89</v>
       </c>
       <c r="G596">
         <v>8400</v>
       </c>
       <c r="H596">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I596" t="inlineStr">
         <is>
@@ -23023,35 +23023,35 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C597">
-        <v>693068</v>
+        <v>568997.5</v>
       </c>
       <c r="D597">
-        <v>76749.12</v>
+        <v>76816.24000000001</v>
       </c>
       <c r="E597">
-        <v>817819.8200000001</v>
+        <v>620210</v>
       </c>
       <c r="F597">
-        <v>102.77</v>
+        <v>144.05</v>
       </c>
       <c r="G597">
-        <v>6743.874671596769</v>
+        <v>3950</v>
       </c>
       <c r="H597">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J597" s="2">
@@ -23061,7 +23061,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -23070,26 +23070,26 @@
         </is>
       </c>
       <c r="C598">
-        <v>488628</v>
+        <v>946275</v>
       </c>
       <c r="D598">
-        <v>87953.04000000001</v>
+        <v>537697</v>
       </c>
       <c r="E598">
-        <v>576581</v>
+        <v>1116605</v>
       </c>
       <c r="F598">
-        <v>77.56</v>
+        <v>126.17</v>
       </c>
       <c r="G598">
-        <v>6300</v>
+        <v>7500.000000000001</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J598" s="2">
@@ -23099,31 +23099,31 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C599">
-        <v>284518.5</v>
+        <v>885271</v>
       </c>
       <c r="D599">
-        <v>51213.36</v>
+        <v>704193.86</v>
       </c>
       <c r="E599">
-        <v>335731</v>
+        <v>1044619.78</v>
       </c>
       <c r="F599">
-        <v>72.03</v>
+        <v>121.27</v>
       </c>
       <c r="G599">
-        <v>3950</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H599">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I599" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -23146,26 +23146,26 @@
         </is>
       </c>
       <c r="C600">
-        <v>518419.5</v>
+        <v>741228</v>
       </c>
       <c r="D600">
-        <v>0</v>
+        <v>474543.52</v>
       </c>
       <c r="E600">
-        <v>611734.6799999999</v>
+        <v>874648.48</v>
       </c>
       <c r="F600">
-        <v>65.21000000000001</v>
+        <v>97.53</v>
       </c>
       <c r="G600">
-        <v>7949.999999999999</v>
+        <v>7600.000000000001</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J600" s="2">
@@ -23175,35 +23175,35 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C601">
-        <v>201955</v>
+        <v>708474</v>
       </c>
       <c r="D601">
-        <v>15689.7</v>
+        <v>516593.64</v>
       </c>
       <c r="E601">
-        <v>238307.2</v>
+        <v>835999.36</v>
       </c>
       <c r="F601">
-        <v>62.14</v>
+        <v>90.83</v>
       </c>
       <c r="G601">
-        <v>3250</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H601">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J601" s="2">
@@ -23213,31 +23213,31 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C602">
-        <v>441723</v>
+        <v>661072</v>
       </c>
       <c r="D602">
-        <v>260646.5</v>
+        <v>95430.34</v>
       </c>
       <c r="E602">
-        <v>521233.14</v>
+        <v>732940</v>
       </c>
       <c r="F602">
-        <v>60.51000000000001</v>
+        <v>83.68000000000001</v>
       </c>
       <c r="G602">
-        <v>7299.999999999999</v>
+        <v>7900</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I602" t="inlineStr">
         <is>
@@ -23251,35 +23251,35 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C603">
-        <v>471822</v>
+        <v>488628</v>
       </c>
       <c r="D603">
-        <v>279942</v>
+        <v>87953.04000000001</v>
       </c>
       <c r="E603">
-        <v>556750</v>
+        <v>576581</v>
       </c>
       <c r="F603">
-        <v>60.48999999999999</v>
+        <v>77.56</v>
       </c>
       <c r="G603">
-        <v>7800.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H603">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J603" s="2">
@@ -23289,35 +23289,35 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C604">
-        <v>449025</v>
+        <v>548311.5</v>
       </c>
       <c r="D604">
-        <v>40446</v>
+        <v>420148.28</v>
       </c>
       <c r="E604">
-        <v>529850</v>
+        <v>647006.6799999999</v>
       </c>
       <c r="F604">
-        <v>59.87</v>
+        <v>68.97</v>
       </c>
       <c r="G604">
-        <v>7500</v>
+        <v>7949.999999999999</v>
       </c>
       <c r="H604">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J604" s="2">
@@ -23327,35 +23327,35 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C605">
-        <v>399266</v>
+        <v>426384</v>
       </c>
       <c r="D605">
-        <v>71867.88</v>
+        <v>76749.12</v>
       </c>
       <c r="E605">
-        <v>471134</v>
+        <v>503132.82</v>
       </c>
       <c r="F605">
-        <v>50.54000000000001</v>
+        <v>67.67999999999999</v>
       </c>
       <c r="G605">
-        <v>7899.999999999999</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H605">
         <v>2</v>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J605" s="2">
@@ -23365,31 +23365,31 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C606">
-        <v>126507.2</v>
+        <v>476106</v>
       </c>
       <c r="D606">
-        <v>6325.360000000001</v>
+        <v>297364</v>
       </c>
       <c r="E606">
-        <v>132832.64</v>
+        <v>561805.04</v>
       </c>
       <c r="F606">
-        <v>46.51000000000001</v>
+        <v>65.22</v>
       </c>
       <c r="G606">
-        <v>2720</v>
+        <v>7300.000000000001</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I606" t="inlineStr">
         <is>
@@ -23403,35 +23403,35 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C607">
-        <v>288864</v>
+        <v>218046</v>
       </c>
       <c r="D607">
-        <v>0</v>
+        <v>160445.72</v>
       </c>
       <c r="E607">
-        <v>340860</v>
+        <v>228948.3</v>
       </c>
       <c r="F607">
-        <v>40.12</v>
+        <v>63.19</v>
       </c>
       <c r="G607">
-        <v>7200.000000000001</v>
+        <v>3450.640924196867</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J607" s="2">
@@ -23441,31 +23441,31 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C608">
-        <v>307585.5</v>
+        <v>201955</v>
       </c>
       <c r="D608">
-        <v>179421.96</v>
+        <v>15689.7</v>
       </c>
       <c r="E608">
-        <v>362950</v>
+        <v>238307.2</v>
       </c>
       <c r="F608">
-        <v>38.69</v>
+        <v>62.14</v>
       </c>
       <c r="G608">
-        <v>7950.000000000001</v>
+        <v>3250</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I608" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -23488,26 +23488,26 @@
         </is>
       </c>
       <c r="C609">
-        <v>226137</v>
+        <v>382292</v>
       </c>
       <c r="D609">
-        <v>40704.66</v>
+        <v>51330.14</v>
       </c>
       <c r="E609">
-        <v>266842</v>
+        <v>416140.28</v>
       </c>
       <c r="F609">
-        <v>35.06</v>
+        <v>61.66</v>
       </c>
       <c r="G609">
-        <v>6450</v>
+        <v>6200</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J609" s="2">
@@ -23517,31 +23517,31 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C610">
-        <v>238108</v>
+        <v>386304</v>
       </c>
       <c r="D610">
-        <v>238108</v>
+        <v>227919</v>
       </c>
       <c r="E610">
-        <v>280967</v>
+        <v>455838.36</v>
       </c>
       <c r="F610">
-        <v>31.33</v>
+        <v>60.36</v>
       </c>
       <c r="G610">
-        <v>7600</v>
+        <v>6400</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I610" t="inlineStr">
         <is>
@@ -23555,35 +23555,35 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C611">
-        <v>192944</v>
+        <v>553196</v>
       </c>
       <c r="D611">
-        <v>34729.92</v>
+        <v>553196.28</v>
       </c>
       <c r="E611">
-        <v>227674</v>
+        <v>652771.72</v>
       </c>
       <c r="F611">
-        <v>31.12</v>
+        <v>60.13</v>
       </c>
       <c r="G611">
-        <v>6200</v>
+        <v>9200</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J611" s="2">
@@ -23593,7 +23593,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -23602,22 +23602,22 @@
         </is>
       </c>
       <c r="C612">
-        <v>264708</v>
+        <v>473760</v>
       </c>
       <c r="D612">
-        <v>264708</v>
+        <v>473760.4</v>
       </c>
       <c r="E612">
-        <v>312355</v>
+        <v>559036.6</v>
       </c>
       <c r="F612">
-        <v>30.78</v>
+        <v>59.22</v>
       </c>
       <c r="G612">
-        <v>8600</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I612" t="inlineStr">
         <is>
@@ -23631,31 +23631,31 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C613">
-        <v>98496</v>
+        <v>126507.2</v>
       </c>
       <c r="D613">
-        <v>17729.28</v>
+        <v>6325.360000000001</v>
       </c>
       <c r="E613">
-        <v>116225.28</v>
+        <v>132832.64</v>
       </c>
       <c r="F613">
-        <v>30.78</v>
+        <v>46.51000000000001</v>
       </c>
       <c r="G613">
-        <v>3200</v>
+        <v>2720</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -23678,26 +23678,26 @@
         </is>
       </c>
       <c r="C614">
-        <v>194240</v>
+        <v>288864</v>
       </c>
       <c r="D614">
         <v>0</v>
       </c>
       <c r="E614">
-        <v>229203.2</v>
+        <v>340860</v>
       </c>
       <c r="F614">
-        <v>30.35</v>
+        <v>40.12</v>
       </c>
       <c r="G614">
-        <v>6400</v>
+        <v>7200.000000000001</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J614" s="2">
@@ -23716,22 +23716,22 @@
         </is>
       </c>
       <c r="C615">
-        <v>47011.5</v>
+        <v>57784</v>
       </c>
       <c r="D615">
-        <v>29124.32</v>
+        <v>30093.485</v>
       </c>
       <c r="E615">
-        <v>55473.08</v>
+        <v>68184.63</v>
       </c>
       <c r="F615">
-        <v>30.33</v>
+        <v>37.28</v>
       </c>
       <c r="G615">
         <v>1550</v>
       </c>
       <c r="H615">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I615" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -23754,26 +23754,26 @@
         </is>
       </c>
       <c r="C616">
-        <v>188046</v>
+        <v>226137</v>
       </c>
       <c r="D616">
-        <v>33848.28</v>
+        <v>40704.66</v>
       </c>
       <c r="E616">
-        <v>221894.28</v>
+        <v>266842</v>
       </c>
       <c r="F616">
-        <v>30.33</v>
+        <v>35.06</v>
       </c>
       <c r="G616">
-        <v>6200</v>
+        <v>6450</v>
       </c>
       <c r="H616">
         <v>1</v>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J616" s="2">
@@ -23783,28 +23783,28 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C617">
-        <v>204322.5</v>
+        <v>277693.5</v>
       </c>
       <c r="D617">
-        <v>36778.05</v>
+        <v>0</v>
       </c>
       <c r="E617">
-        <v>241101</v>
+        <v>327678</v>
       </c>
       <c r="F617">
-        <v>30.27</v>
+        <v>34.93</v>
       </c>
       <c r="G617">
-        <v>6750</v>
+        <v>7950</v>
       </c>
       <c r="H617">
         <v>1</v>
@@ -23821,31 +23821,31 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C618">
-        <v>260064</v>
+        <v>110912</v>
       </c>
       <c r="D618">
-        <v>0</v>
+        <v>16396.2</v>
       </c>
       <c r="E618">
-        <v>306876</v>
+        <v>123740</v>
       </c>
       <c r="F618">
-        <v>30.24</v>
+        <v>34.66</v>
       </c>
       <c r="G618">
-        <v>8600</v>
+        <v>3200</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I618" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -23868,26 +23868,26 @@
         </is>
       </c>
       <c r="C619">
-        <v>193152</v>
+        <v>221357.5</v>
       </c>
       <c r="D619">
-        <v>34767.36</v>
+        <v>221357.65</v>
       </c>
       <c r="E619">
-        <v>227919</v>
+        <v>261201.85</v>
       </c>
       <c r="F619">
-        <v>30.18</v>
+        <v>31.85</v>
       </c>
       <c r="G619">
-        <v>6400</v>
+        <v>6950</v>
       </c>
       <c r="H619">
         <v>2</v>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J619" s="2">
@@ -23897,7 +23897,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -23906,19 +23906,19 @@
         </is>
       </c>
       <c r="C620">
-        <v>192768</v>
+        <v>192944</v>
       </c>
       <c r="D620">
-        <v>0</v>
+        <v>34729.92</v>
       </c>
       <c r="E620">
-        <v>227466.24</v>
+        <v>227674</v>
       </c>
       <c r="F620">
-        <v>30.12</v>
+        <v>31.12</v>
       </c>
       <c r="G620">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H620">
         <v>1</v>
@@ -23935,35 +23935,35 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C621">
-        <v>276092</v>
+        <v>193977</v>
       </c>
       <c r="D621">
-        <v>276092</v>
+        <v>193977.14</v>
       </c>
       <c r="E621">
-        <v>325789</v>
+        <v>228892.86</v>
       </c>
       <c r="F621">
-        <v>30.01</v>
+        <v>30.79</v>
       </c>
       <c r="G621">
-        <v>9200</v>
+        <v>6300</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J621" s="2">
@@ -23973,31 +23973,31 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>AMBA FRP PRIVATE LIMITED</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C622">
-        <v>180000</v>
+        <v>264708</v>
       </c>
       <c r="D622">
-        <v>9000</v>
+        <v>264708</v>
       </c>
       <c r="E622">
-        <v>189000</v>
+        <v>312355</v>
       </c>
       <c r="F622">
-        <v>30</v>
+        <v>30.78</v>
       </c>
       <c r="G622">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622" t="inlineStr">
         <is>
@@ -24011,31 +24011,31 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C623">
-        <v>217978</v>
+        <v>98496</v>
       </c>
       <c r="D623">
-        <v>39236.04</v>
+        <v>17729.28</v>
       </c>
       <c r="E623">
-        <v>257214</v>
+        <v>116225.28</v>
       </c>
       <c r="F623">
-        <v>29.86</v>
+        <v>30.78</v>
       </c>
       <c r="G623">
-        <v>7300</v>
+        <v>3200</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Jai Hind Wire Rod Mills Private Limited</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -24058,22 +24058,22 @@
         </is>
       </c>
       <c r="C624">
-        <v>226328</v>
+        <v>192465</v>
       </c>
       <c r="D624">
-        <v>226328</v>
+        <v>192465.3</v>
       </c>
       <c r="E624">
-        <v>267067</v>
+        <v>227108.7</v>
       </c>
       <c r="F624">
-        <v>29.78</v>
+        <v>30.55</v>
       </c>
       <c r="G624">
-        <v>7600</v>
+        <v>6300</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="C625">
-        <v>187047</v>
+        <v>194240</v>
       </c>
       <c r="D625">
-        <v>33668.46</v>
+        <v>0</v>
       </c>
       <c r="E625">
-        <v>220715</v>
+        <v>229203.2</v>
       </c>
       <c r="F625">
-        <v>29.69</v>
+        <v>30.35</v>
       </c>
       <c r="G625">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H625">
         <v>1</v>
@@ -24130,23 +24130,23 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C626">
-        <v>234240</v>
+        <v>204322.5</v>
       </c>
       <c r="D626">
-        <v>234240</v>
+        <v>36778.05</v>
       </c>
       <c r="E626">
-        <v>276403</v>
+        <v>241101</v>
       </c>
       <c r="F626">
-        <v>29.28</v>
+        <v>30.27</v>
       </c>
       <c r="G626">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="H626">
         <v>1</v>
@@ -24163,28 +24163,28 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C627">
-        <v>111936</v>
+        <v>260064</v>
       </c>
       <c r="D627">
-        <v>20148.48</v>
+        <v>0</v>
       </c>
       <c r="E627">
-        <v>132084</v>
+        <v>306876</v>
       </c>
       <c r="F627">
-        <v>25.44</v>
+        <v>30.24</v>
       </c>
       <c r="G627">
-        <v>4400</v>
+        <v>8600</v>
       </c>
       <c r="H627">
         <v>1</v>
@@ -24201,35 +24201,35 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>Noble Tech Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C628">
-        <v>191770</v>
+        <v>271080</v>
       </c>
       <c r="D628">
-        <v>34518.6</v>
+        <v>271079.6</v>
       </c>
       <c r="E628">
-        <v>226289</v>
+        <v>319874.4</v>
       </c>
       <c r="F628">
-        <v>25.4</v>
+        <v>30.12</v>
       </c>
       <c r="G628">
-        <v>7550</v>
+        <v>9000</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J628" s="2">
@@ -24239,7 +24239,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -24248,26 +24248,26 @@
         </is>
       </c>
       <c r="C629">
-        <v>159138</v>
+        <v>192768</v>
       </c>
       <c r="D629">
-        <v>0</v>
+        <v>192767.76</v>
       </c>
       <c r="E629">
-        <v>187782.84</v>
+        <v>202406.4</v>
       </c>
       <c r="F629">
-        <v>25.26</v>
+        <v>30.12</v>
       </c>
       <c r="G629">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H629">
         <v>1</v>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J629" s="2">
@@ -24277,35 +24277,35 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>AMBA FRP PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C630">
-        <v>176050</v>
+        <v>180000</v>
       </c>
       <c r="D630">
-        <v>31689</v>
+        <v>9000</v>
       </c>
       <c r="E630">
-        <v>207739</v>
+        <v>189000</v>
       </c>
       <c r="F630">
-        <v>25.15</v>
+        <v>30</v>
       </c>
       <c r="G630">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J630" s="2">
@@ -24315,35 +24315,35 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Jai Hind Wire Rod Mills Private Limited</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C631">
-        <v>65720</v>
+        <v>226328</v>
       </c>
       <c r="D631">
-        <v>0</v>
+        <v>226328</v>
       </c>
       <c r="E631">
-        <v>69006</v>
+        <v>267067</v>
       </c>
       <c r="F631">
-        <v>24.8</v>
+        <v>29.78</v>
       </c>
       <c r="G631">
-        <v>2650</v>
+        <v>7600</v>
       </c>
       <c r="H631">
         <v>1</v>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J631" s="2">
@@ -24353,35 +24353,35 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C632">
-        <v>71264</v>
+        <v>187047</v>
       </c>
       <c r="D632">
-        <v>12827.52</v>
+        <v>33668.46</v>
       </c>
       <c r="E632">
-        <v>84092</v>
+        <v>220715</v>
       </c>
       <c r="F632">
-        <v>22.27</v>
+        <v>29.69</v>
       </c>
       <c r="G632">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J632" s="2">
@@ -24391,7 +24391,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -24400,26 +24400,26 @@
         </is>
       </c>
       <c r="C633">
-        <v>129960</v>
+        <v>235840</v>
       </c>
       <c r="D633">
-        <v>0</v>
+        <v>235839.8</v>
       </c>
       <c r="E633">
-        <v>153352.8</v>
+        <v>278291.2</v>
       </c>
       <c r="F633">
-        <v>21.66</v>
+        <v>29.48</v>
       </c>
       <c r="G633">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="H633">
         <v>2</v>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J633" s="2">
@@ -24429,31 +24429,31 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C634">
-        <v>148400</v>
+        <v>111936</v>
       </c>
       <c r="D634">
-        <v>87290</v>
+        <v>20148.48</v>
       </c>
       <c r="E634">
-        <v>175111.8</v>
+        <v>132084</v>
       </c>
       <c r="F634">
-        <v>21.2</v>
+        <v>25.44</v>
       </c>
       <c r="G634">
-        <v>6999.999999999999</v>
+        <v>4400</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -24476,26 +24476,26 @@
         </is>
       </c>
       <c r="C635">
-        <v>135616</v>
+        <v>191770</v>
       </c>
       <c r="D635">
-        <v>18397.44</v>
+        <v>34518.6</v>
       </c>
       <c r="E635">
-        <v>160026.44</v>
+        <v>226289</v>
       </c>
       <c r="F635">
-        <v>21.19</v>
+        <v>25.4</v>
       </c>
       <c r="G635">
-        <v>6400</v>
+        <v>7550</v>
       </c>
       <c r="H635">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J635" s="2">
@@ -24505,7 +24505,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -24514,26 +24514,26 @@
         </is>
       </c>
       <c r="C636">
-        <v>64415</v>
+        <v>159138</v>
       </c>
       <c r="D636">
-        <v>11594.72</v>
+        <v>159138.16</v>
       </c>
       <c r="E636">
-        <v>76009</v>
+        <v>187782.84</v>
       </c>
       <c r="F636">
-        <v>19.82</v>
+        <v>25.26</v>
       </c>
       <c r="G636">
-        <v>3250</v>
+        <v>6300</v>
       </c>
       <c r="H636">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J636" s="2">
@@ -24543,28 +24543,28 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C637">
-        <v>100932</v>
+        <v>176050</v>
       </c>
       <c r="D637">
-        <v>0</v>
+        <v>31689</v>
       </c>
       <c r="E637">
-        <v>119099.76</v>
+        <v>207739</v>
       </c>
       <c r="F637">
-        <v>12.94</v>
+        <v>25.15</v>
       </c>
       <c r="G637">
-        <v>7800</v>
+        <v>7000</v>
       </c>
       <c r="H637">
         <v>1</v>
@@ -24581,35 +24581,35 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C638">
-        <v>34102</v>
+        <v>65720</v>
       </c>
       <c r="D638">
-        <v>12151.8</v>
+        <v>0</v>
       </c>
       <c r="E638">
-        <v>40240.36</v>
+        <v>69006</v>
       </c>
       <c r="F638">
-        <v>10.03</v>
+        <v>24.8</v>
       </c>
       <c r="G638">
-        <v>3400</v>
+        <v>2650</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J638" s="2">
@@ -24619,28 +24619,28 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C639">
-        <v>64218</v>
+        <v>38608</v>
       </c>
       <c r="D639">
-        <v>11559.24</v>
+        <v>4601.84</v>
       </c>
       <c r="E639">
-        <v>75777</v>
+        <v>40863</v>
       </c>
       <c r="F639">
-        <v>9.73</v>
+        <v>24.13</v>
       </c>
       <c r="G639">
-        <v>6600</v>
+        <v>1600</v>
       </c>
       <c r="H639">
         <v>3</v>
@@ -24657,35 +24657,35 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C640">
-        <v>12528</v>
+        <v>129960</v>
       </c>
       <c r="D640">
-        <v>2255.04</v>
+        <v>0</v>
       </c>
       <c r="E640">
-        <v>14783</v>
+        <v>153352.8</v>
       </c>
       <c r="F640">
-        <v>7.83</v>
+        <v>21.66</v>
       </c>
       <c r="G640">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="H640">
         <v>2</v>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J640" s="2">
@@ -24700,26 +24700,26 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C641">
-        <v>15640</v>
+        <v>148400</v>
       </c>
       <c r="D641">
-        <v>13815</v>
+        <v>87290</v>
       </c>
       <c r="E641">
-        <v>18455.2</v>
+        <v>175111.8</v>
       </c>
       <c r="F641">
-        <v>4.6</v>
+        <v>21.2</v>
       </c>
       <c r="G641">
-        <v>3400</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -24742,22 +24742,22 @@
         </is>
       </c>
       <c r="C642">
-        <v>9920</v>
+        <v>135616</v>
       </c>
       <c r="D642">
-        <v>1785.6</v>
+        <v>18397.44</v>
       </c>
       <c r="E642">
-        <v>11706</v>
+        <v>160026.44</v>
       </c>
       <c r="F642">
-        <v>1.24</v>
+        <v>21.19</v>
       </c>
       <c r="G642">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I642" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -24780,36 +24780,36 @@
         </is>
       </c>
       <c r="C643">
-        <v>2447424</v>
+        <v>79760</v>
       </c>
       <c r="D643">
-        <v>440536.32</v>
+        <v>7178.4</v>
       </c>
       <c r="E643">
-        <v>2887959</v>
+        <v>94116.79999999999</v>
       </c>
       <c r="F643">
-        <v>291.36</v>
+        <v>19.94</v>
       </c>
       <c r="G643">
-        <v>8400</v>
+        <v>4000</v>
       </c>
       <c r="H643">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J643" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -24818,22 +24818,22 @@
         </is>
       </c>
       <c r="C644">
-        <v>2051687</v>
+        <v>64415</v>
       </c>
       <c r="D644">
-        <v>369303.66</v>
+        <v>11594.72</v>
       </c>
       <c r="E644">
-        <v>2420991</v>
+        <v>76009</v>
       </c>
       <c r="F644">
-        <v>288.97</v>
+        <v>19.82</v>
       </c>
       <c r="G644">
-        <v>7100.000000000001</v>
+        <v>3250</v>
       </c>
       <c r="H644">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I644" t="inlineStr">
         <is>
@@ -24841,37 +24841,37 @@
         </is>
       </c>
       <c r="J644" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C645">
-        <v>1389000</v>
+        <v>100932</v>
       </c>
       <c r="D645">
-        <v>250020</v>
+        <v>0</v>
       </c>
       <c r="E645">
-        <v>1639022</v>
+        <v>119099.76</v>
       </c>
       <c r="F645">
-        <v>185.2</v>
+        <v>12.94</v>
       </c>
       <c r="G645">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="H645">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I645" t="inlineStr">
         <is>
@@ -24879,51 +24879,51 @@
         </is>
       </c>
       <c r="J645" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C646">
-        <v>1058402</v>
+        <v>34102</v>
       </c>
       <c r="D646">
-        <v>190512.36</v>
+        <v>12151.8</v>
       </c>
       <c r="E646">
-        <v>1248913</v>
+        <v>40240.36</v>
       </c>
       <c r="F646">
-        <v>170.71</v>
+        <v>10.03</v>
       </c>
       <c r="G646">
-        <v>6200</v>
+        <v>3400</v>
       </c>
       <c r="H646">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J646" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -24932,22 +24932,22 @@
         </is>
       </c>
       <c r="C647">
-        <v>1052478</v>
+        <v>64218</v>
       </c>
       <c r="D647">
-        <v>189446.04</v>
+        <v>11559.24</v>
       </c>
       <c r="E647">
-        <v>1241924</v>
+        <v>75777</v>
       </c>
       <c r="F647">
-        <v>167.06</v>
+        <v>9.73</v>
       </c>
       <c r="G647">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="H647">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I647" t="inlineStr">
         <is>
@@ -24955,37 +24955,37 @@
         </is>
       </c>
       <c r="J647" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C648">
-        <v>591710</v>
+        <v>15640</v>
       </c>
       <c r="D648">
-        <v>106507.86</v>
+        <v>13815</v>
       </c>
       <c r="E648">
-        <v>698219</v>
+        <v>18455.2</v>
       </c>
       <c r="F648">
-        <v>149.8</v>
+        <v>4.6</v>
       </c>
       <c r="G648">
-        <v>3950</v>
+        <v>3400</v>
       </c>
       <c r="H648">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I648" t="inlineStr">
         <is>
@@ -24993,75 +24993,75 @@
         </is>
       </c>
       <c r="J648" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C649">
-        <v>1076554.5</v>
+        <v>6800</v>
       </c>
       <c r="D649">
-        <v>193779.81</v>
+        <v>6800</v>
       </c>
       <c r="E649">
-        <v>1270335</v>
+        <v>7140</v>
       </c>
       <c r="F649">
-        <v>142.59</v>
+        <v>2</v>
       </c>
       <c r="G649">
-        <v>7550</v>
+        <v>3400</v>
       </c>
       <c r="H649">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J649" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C650">
-        <v>1116586</v>
+        <v>9920</v>
       </c>
       <c r="D650">
-        <v>200985.48</v>
+        <v>1785.6</v>
       </c>
       <c r="E650">
-        <v>1317571</v>
+        <v>11706</v>
       </c>
       <c r="F650">
-        <v>141.34</v>
+        <v>1.24</v>
       </c>
       <c r="G650">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H650">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I650" t="inlineStr">
         <is>
@@ -25069,41 +25069,41 @@
         </is>
       </c>
       <c r="J650" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C651">
-        <v>309010</v>
+        <v>2447424</v>
       </c>
       <c r="D651">
-        <v>55621.8</v>
+        <v>440536.32</v>
       </c>
       <c r="E651">
-        <v>364632</v>
+        <v>2887959</v>
       </c>
       <c r="F651">
-        <v>95.08</v>
+        <v>291.36</v>
       </c>
       <c r="G651">
-        <v>3250</v>
+        <v>8400</v>
       </c>
       <c r="H651">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J651" s="2">
@@ -25113,7 +25113,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -25122,22 +25122,22 @@
         </is>
       </c>
       <c r="C652">
-        <v>672987</v>
+        <v>2051687</v>
       </c>
       <c r="D652">
-        <v>121137.66</v>
+        <v>369303.66</v>
       </c>
       <c r="E652">
-        <v>794125</v>
+        <v>2420991</v>
       </c>
       <c r="F652">
-        <v>92.19</v>
+        <v>288.97</v>
       </c>
       <c r="G652">
-        <v>7300</v>
+        <v>7100.000000000001</v>
       </c>
       <c r="H652">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I652" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -25160,22 +25160,22 @@
         </is>
       </c>
       <c r="C653">
-        <v>456900</v>
+        <v>1389000</v>
       </c>
       <c r="D653">
-        <v>82242</v>
+        <v>250020</v>
       </c>
       <c r="E653">
-        <v>539142</v>
+        <v>1639022</v>
       </c>
       <c r="F653">
-        <v>76.15000000000001</v>
+        <v>185.2</v>
       </c>
       <c r="G653">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="H653">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I653" t="inlineStr">
         <is>
@@ -25189,35 +25189,35 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C654">
-        <v>627456</v>
+        <v>1058402</v>
       </c>
       <c r="D654">
-        <v>112942.08</v>
+        <v>190512.36</v>
       </c>
       <c r="E654">
-        <v>740398</v>
+        <v>1248913</v>
       </c>
       <c r="F654">
-        <v>72.96000000000001</v>
+        <v>170.71</v>
       </c>
       <c r="G654">
-        <v>8599.999999999998</v>
+        <v>6200</v>
       </c>
       <c r="H654">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J654" s="2">
@@ -25227,28 +25227,28 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C655">
-        <v>227904</v>
+        <v>1052478</v>
       </c>
       <c r="D655">
-        <v>41022.72</v>
+        <v>189446.04</v>
       </c>
       <c r="E655">
-        <v>268928</v>
+        <v>1241924</v>
       </c>
       <c r="F655">
-        <v>71.22</v>
+        <v>167.06</v>
       </c>
       <c r="G655">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H655">
         <v>5</v>
@@ -25265,7 +25265,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -25274,26 +25274,26 @@
         </is>
       </c>
       <c r="C656">
-        <v>540072</v>
+        <v>591710</v>
       </c>
       <c r="D656">
-        <v>97212.96000000001</v>
+        <v>106507.86</v>
       </c>
       <c r="E656">
-        <v>637284</v>
+        <v>698219</v>
       </c>
       <c r="F656">
-        <v>69.24000000000001</v>
+        <v>149.8</v>
       </c>
       <c r="G656">
-        <v>7799.999999999999</v>
+        <v>3950</v>
       </c>
       <c r="H656">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J656" s="2">
@@ -25303,35 +25303,35 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C657">
-        <v>611616</v>
+        <v>1076554.5</v>
       </c>
       <c r="D657">
-        <v>110090.88</v>
+        <v>193779.81</v>
       </c>
       <c r="E657">
-        <v>721707</v>
+        <v>1270335</v>
       </c>
       <c r="F657">
-        <v>66.48</v>
+        <v>142.59</v>
       </c>
       <c r="G657">
-        <v>9200</v>
+        <v>7550</v>
       </c>
       <c r="H657">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J657" s="2">
@@ -25341,7 +25341,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -25350,22 +25350,22 @@
         </is>
       </c>
       <c r="C658">
-        <v>562096</v>
+        <v>1116586</v>
       </c>
       <c r="D658">
-        <v>101177.28</v>
+        <v>200985.48</v>
       </c>
       <c r="E658">
-        <v>663273</v>
+        <v>1317571</v>
       </c>
       <c r="F658">
-        <v>65.36</v>
+        <v>141.34</v>
       </c>
       <c r="G658">
-        <v>8600</v>
+        <v>7900</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I658" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="C659">
-        <v>390033</v>
+        <v>309010</v>
       </c>
       <c r="D659">
-        <v>70205.94</v>
+        <v>55621.8</v>
       </c>
       <c r="E659">
-        <v>460239</v>
+        <v>364632</v>
       </c>
       <c r="F659">
-        <v>61.91</v>
+        <v>95.08</v>
       </c>
       <c r="G659">
-        <v>6300</v>
+        <v>3250</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I659" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -25426,26 +25426,26 @@
         </is>
       </c>
       <c r="C660">
-        <v>365199</v>
+        <v>672987</v>
       </c>
       <c r="D660">
-        <v>65735.82000000001</v>
+        <v>121137.66</v>
       </c>
       <c r="E660">
-        <v>430935</v>
+        <v>794125</v>
       </c>
       <c r="F660">
-        <v>56.62</v>
+        <v>92.19</v>
       </c>
       <c r="G660">
-        <v>6449.999999999999</v>
+        <v>7300</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J660" s="2">
@@ -25455,7 +25455,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -25464,26 +25464,26 @@
         </is>
       </c>
       <c r="C661">
-        <v>335012</v>
+        <v>456900</v>
       </c>
       <c r="D661">
-        <v>38166.48</v>
+        <v>82242</v>
       </c>
       <c r="E661">
-        <v>395313.68</v>
+        <v>539142</v>
       </c>
       <c r="F661">
-        <v>54.92</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="G661">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J661" s="2">
@@ -25493,31 +25493,31 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C662">
-        <v>238896.45</v>
+        <v>627456</v>
       </c>
       <c r="D662">
-        <v>11944.82</v>
+        <v>112942.08</v>
       </c>
       <c r="E662">
-        <v>250841</v>
+        <v>740398</v>
       </c>
       <c r="F662">
-        <v>54.73</v>
+        <v>72.96000000000001</v>
       </c>
       <c r="G662">
-        <v>4365</v>
+        <v>8599.999999999998</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I662" t="inlineStr">
         <is>
@@ -25531,31 +25531,31 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C663">
-        <v>292096</v>
+        <v>227904</v>
       </c>
       <c r="D663">
-        <v>52577.28</v>
+        <v>41022.72</v>
       </c>
       <c r="E663">
-        <v>344673</v>
+        <v>268928</v>
       </c>
       <c r="F663">
-        <v>45.64</v>
+        <v>71.22</v>
       </c>
       <c r="G663">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="H663">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I663" t="inlineStr">
         <is>
@@ -25569,35 +25569,35 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C664">
-        <v>257920</v>
+        <v>540072</v>
       </c>
       <c r="D664">
-        <v>46425.6</v>
+        <v>97212.96000000001</v>
       </c>
       <c r="E664">
-        <v>304345.24</v>
+        <v>637284</v>
       </c>
       <c r="F664">
-        <v>40.3</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="G664">
-        <v>6400</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J664" s="2">
@@ -25607,35 +25607,35 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C665">
-        <v>250518</v>
+        <v>611616</v>
       </c>
       <c r="D665">
-        <v>45093.24</v>
+        <v>110090.88</v>
       </c>
       <c r="E665">
-        <v>295611.74</v>
+        <v>721707</v>
       </c>
       <c r="F665">
-        <v>38.84</v>
+        <v>66.48</v>
       </c>
       <c r="G665">
-        <v>6449.999999999999</v>
+        <v>9200</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J665" s="2">
@@ -25645,7 +25645,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -25654,19 +25654,19 @@
         </is>
       </c>
       <c r="C666">
-        <v>288240</v>
+        <v>562096</v>
       </c>
       <c r="D666">
-        <v>51883.2</v>
+        <v>101177.28</v>
       </c>
       <c r="E666">
-        <v>340123</v>
+        <v>663273</v>
       </c>
       <c r="F666">
-        <v>36.03</v>
+        <v>65.36</v>
       </c>
       <c r="G666">
-        <v>8000</v>
+        <v>8600</v>
       </c>
       <c r="H666">
         <v>2</v>
@@ -25683,35 +25683,35 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C667">
-        <v>121142</v>
+        <v>390033</v>
       </c>
       <c r="D667">
-        <v>21805.56</v>
+        <v>70205.94</v>
       </c>
       <c r="E667">
-        <v>142948</v>
+        <v>460239</v>
       </c>
       <c r="F667">
-        <v>35.63</v>
+        <v>61.91</v>
       </c>
       <c r="G667">
-        <v>3400</v>
+        <v>6300</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J667" s="2">
@@ -25721,7 +25721,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -25730,26 +25730,26 @@
         </is>
       </c>
       <c r="C668">
-        <v>244918</v>
+        <v>365199</v>
       </c>
       <c r="D668">
-        <v>44085.24</v>
+        <v>65735.82000000001</v>
       </c>
       <c r="E668">
-        <v>289003</v>
+        <v>430935</v>
       </c>
       <c r="F668">
-        <v>35.24</v>
+        <v>56.62</v>
       </c>
       <c r="G668">
-        <v>6950</v>
+        <v>6449.999999999999</v>
       </c>
       <c r="H668">
         <v>2</v>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J668" s="2">
@@ -25759,31 +25759,31 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C669">
-        <v>267368</v>
+        <v>335012</v>
       </c>
       <c r="D669">
-        <v>48126.24</v>
+        <v>38166.48</v>
       </c>
       <c r="E669">
-        <v>315494</v>
+        <v>395313.68</v>
       </c>
       <c r="F669">
-        <v>35.18</v>
+        <v>54.92</v>
       </c>
       <c r="G669">
-        <v>7600</v>
+        <v>6100</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr">
         <is>
@@ -25797,28 +25797,28 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C670">
-        <v>277920</v>
+        <v>238896.45</v>
       </c>
       <c r="D670">
-        <v>50025.6</v>
+        <v>11944.82</v>
       </c>
       <c r="E670">
-        <v>327946</v>
+        <v>250841</v>
       </c>
       <c r="F670">
-        <v>34.73999999999999</v>
+        <v>54.73</v>
       </c>
       <c r="G670">
-        <v>8000.000000000001</v>
+        <v>4365</v>
       </c>
       <c r="H670">
         <v>2</v>
@@ -25835,35 +25835,35 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C671">
-        <v>276400</v>
+        <v>292096</v>
       </c>
       <c r="D671">
-        <v>49752</v>
+        <v>52577.28</v>
       </c>
       <c r="E671">
-        <v>326152</v>
+        <v>344673</v>
       </c>
       <c r="F671">
-        <v>34.55</v>
+        <v>45.64</v>
       </c>
       <c r="G671">
-        <v>8000.000000000001</v>
+        <v>6400</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J671" s="2">
@@ -25873,7 +25873,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -25882,26 +25882,26 @@
         </is>
       </c>
       <c r="C672">
-        <v>217350</v>
+        <v>257920</v>
       </c>
       <c r="D672">
-        <v>39123</v>
+        <v>46425.6</v>
       </c>
       <c r="E672">
-        <v>256473</v>
+        <v>304345.24</v>
       </c>
       <c r="F672">
-        <v>34.5</v>
+        <v>40.3</v>
       </c>
       <c r="G672">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H672">
         <v>2</v>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J672" s="2">
@@ -25911,35 +25911,35 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C673">
-        <v>52142</v>
+        <v>250518</v>
       </c>
       <c r="D673">
-        <v>9385.58</v>
+        <v>45093.24</v>
       </c>
       <c r="E673">
-        <v>61528</v>
+        <v>295611.74</v>
       </c>
       <c r="F673">
-        <v>33.64</v>
+        <v>38.84</v>
       </c>
       <c r="G673">
-        <v>1550</v>
+        <v>6449.999999999999</v>
       </c>
       <c r="H673">
         <v>2</v>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J673" s="2">
@@ -25949,7 +25949,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -25958,22 +25958,22 @@
         </is>
       </c>
       <c r="C674">
-        <v>256387.5</v>
+        <v>288240</v>
       </c>
       <c r="D674">
-        <v>46149.75</v>
+        <v>51883.2</v>
       </c>
       <c r="E674">
-        <v>302537</v>
+        <v>340123</v>
       </c>
       <c r="F674">
-        <v>32.25</v>
+        <v>36.03</v>
       </c>
       <c r="G674">
-        <v>7950</v>
+        <v>8000</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -25996,26 +25996,26 @@
         </is>
       </c>
       <c r="C675">
-        <v>102688</v>
+        <v>121142</v>
       </c>
       <c r="D675">
-        <v>18483.84</v>
+        <v>21805.56</v>
       </c>
       <c r="E675">
-        <v>121172</v>
+        <v>142948</v>
       </c>
       <c r="F675">
-        <v>32.09</v>
+        <v>35.63</v>
       </c>
       <c r="G675">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H675">
         <v>1</v>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J675" s="2">
@@ -26025,7 +26025,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -26034,26 +26034,26 @@
         </is>
       </c>
       <c r="C676">
-        <v>195741</v>
+        <v>244918</v>
       </c>
       <c r="D676">
-        <v>35233.38</v>
+        <v>44085.24</v>
       </c>
       <c r="E676">
-        <v>230974</v>
+        <v>289003</v>
       </c>
       <c r="F676">
-        <v>31.07</v>
+        <v>35.24</v>
       </c>
       <c r="G676">
-        <v>6300</v>
+        <v>6950</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J676" s="2">
@@ -26063,35 +26063,35 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C677">
-        <v>194985</v>
+        <v>267368</v>
       </c>
       <c r="D677">
-        <v>35097.3</v>
+        <v>48126.24</v>
       </c>
       <c r="E677">
-        <v>230082</v>
+        <v>315494</v>
       </c>
       <c r="F677">
-        <v>30.95</v>
+        <v>35.18</v>
       </c>
       <c r="G677">
-        <v>6300</v>
+        <v>7600</v>
       </c>
       <c r="H677">
         <v>1</v>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J677" s="2">
@@ -26101,35 +26101,35 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C678">
-        <v>194733</v>
+        <v>277920</v>
       </c>
       <c r="D678">
-        <v>35051.94</v>
+        <v>50025.6</v>
       </c>
       <c r="E678">
-        <v>229785</v>
+        <v>327946</v>
       </c>
       <c r="F678">
-        <v>30.91</v>
+        <v>34.73999999999999</v>
       </c>
       <c r="G678">
-        <v>6300</v>
+        <v>8000.000000000001</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J678" s="2">
@@ -26139,35 +26139,35 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C679">
-        <v>197376</v>
+        <v>276400</v>
       </c>
       <c r="D679">
-        <v>35527.68</v>
+        <v>49752</v>
       </c>
       <c r="E679">
-        <v>232904</v>
+        <v>326152</v>
       </c>
       <c r="F679">
-        <v>30.84</v>
+        <v>34.55</v>
       </c>
       <c r="G679">
-        <v>6400</v>
+        <v>8000.000000000001</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J679" s="2">
@@ -26177,7 +26177,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -26186,26 +26186,26 @@
         </is>
       </c>
       <c r="C680">
-        <v>190827</v>
+        <v>217350</v>
       </c>
       <c r="D680">
-        <v>34348.86</v>
+        <v>39123</v>
       </c>
       <c r="E680">
-        <v>225176</v>
+        <v>256473</v>
       </c>
       <c r="F680">
-        <v>30.29</v>
+        <v>34.5</v>
       </c>
       <c r="G680">
         <v>6300</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J680" s="2">
@@ -26215,31 +26215,31 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C681">
-        <v>147000</v>
+        <v>52142</v>
       </c>
       <c r="D681">
-        <v>7350</v>
+        <v>9385.58</v>
       </c>
       <c r="E681">
-        <v>154350</v>
+        <v>61528</v>
       </c>
       <c r="F681">
-        <v>30</v>
+        <v>33.64</v>
       </c>
       <c r="G681">
-        <v>4900</v>
+        <v>1550</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr">
         <is>
@@ -26253,35 +26253,35 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C682">
-        <v>181109</v>
+        <v>256387.5</v>
       </c>
       <c r="D682">
-        <v>32599.62</v>
+        <v>46149.75</v>
       </c>
       <c r="E682">
-        <v>213709</v>
+        <v>302537</v>
       </c>
       <c r="F682">
-        <v>29.69</v>
+        <v>32.25</v>
       </c>
       <c r="G682">
-        <v>6100</v>
+        <v>7950</v>
       </c>
       <c r="H682">
         <v>1</v>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J682" s="2">
@@ -26291,28 +26291,28 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C683">
-        <v>15581.5</v>
+        <v>102688</v>
       </c>
       <c r="D683">
-        <v>779.08</v>
+        <v>18483.84</v>
       </c>
       <c r="E683">
-        <v>16361</v>
+        <v>121172</v>
       </c>
       <c r="F683">
-        <v>28.33</v>
+        <v>32.09</v>
       </c>
       <c r="G683">
-        <v>550</v>
+        <v>3200</v>
       </c>
       <c r="H683">
         <v>1</v>
@@ -26329,7 +26329,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -26338,26 +26338,26 @@
         </is>
       </c>
       <c r="C684">
-        <v>157377.5</v>
+        <v>195741</v>
       </c>
       <c r="D684">
-        <v>28327.95</v>
+        <v>35233.38</v>
       </c>
       <c r="E684">
-        <v>185705</v>
+        <v>230974</v>
       </c>
       <c r="F684">
-        <v>26.45</v>
+        <v>31.07</v>
       </c>
       <c r="G684">
-        <v>5950</v>
+        <v>6300</v>
       </c>
       <c r="H684">
         <v>1</v>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J684" s="2">
@@ -26367,35 +26367,35 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C685">
-        <v>68000</v>
+        <v>194985</v>
       </c>
       <c r="D685">
-        <v>0</v>
+        <v>35097.3</v>
       </c>
       <c r="E685">
-        <v>71400</v>
+        <v>230082</v>
       </c>
       <c r="F685">
-        <v>25</v>
+        <v>30.95</v>
       </c>
       <c r="G685">
-        <v>2720</v>
+        <v>6300</v>
       </c>
       <c r="H685">
         <v>1</v>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J685" s="2">
@@ -26405,35 +26405,35 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C686">
-        <v>158920.5</v>
+        <v>194733</v>
       </c>
       <c r="D686">
-        <v>28605.69</v>
+        <v>35051.94</v>
       </c>
       <c r="E686">
-        <v>187526</v>
+        <v>229785</v>
       </c>
       <c r="F686">
-        <v>19.99</v>
+        <v>30.91</v>
       </c>
       <c r="G686">
-        <v>7950.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H686">
         <v>1</v>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J686" s="2">
@@ -26443,35 +26443,35 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C687">
-        <v>74960</v>
+        <v>197376</v>
       </c>
       <c r="D687">
-        <v>3748</v>
+        <v>35527.68</v>
       </c>
       <c r="E687">
-        <v>78708</v>
+        <v>232904</v>
       </c>
       <c r="F687">
-        <v>18.74</v>
+        <v>30.84</v>
       </c>
       <c r="G687">
-        <v>4000</v>
+        <v>6400</v>
       </c>
       <c r="H687">
         <v>1</v>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J687" s="2">
@@ -26481,35 +26481,35 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C688">
-        <v>53108</v>
+        <v>190827</v>
       </c>
       <c r="D688">
-        <v>9559.440000000001</v>
+        <v>34348.86</v>
       </c>
       <c r="E688">
-        <v>62667</v>
+        <v>225176</v>
       </c>
       <c r="F688">
-        <v>15.62</v>
+        <v>30.29</v>
       </c>
       <c r="G688">
-        <v>3400</v>
+        <v>6300</v>
       </c>
       <c r="H688">
         <v>1</v>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J688" s="2">
@@ -26519,28 +26519,28 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C689">
-        <v>69720</v>
+        <v>147000</v>
       </c>
       <c r="D689">
-        <v>12549.6</v>
+        <v>7350</v>
       </c>
       <c r="E689">
-        <v>82270</v>
+        <v>154350</v>
       </c>
       <c r="F689">
-        <v>9.960000000000001</v>
+        <v>30</v>
       </c>
       <c r="G689">
-        <v>6999.999999999999</v>
+        <v>4900</v>
       </c>
       <c r="H689">
         <v>1</v>
@@ -26557,28 +26557,28 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C690">
-        <v>29460</v>
+        <v>181109</v>
       </c>
       <c r="D690">
-        <v>27438.48</v>
+        <v>32599.62</v>
       </c>
       <c r="E690">
-        <v>30933</v>
+        <v>213709</v>
       </c>
       <c r="F690">
-        <v>9.82</v>
+        <v>29.69</v>
       </c>
       <c r="G690">
-        <v>3000</v>
+        <v>6100</v>
       </c>
       <c r="H690">
         <v>1</v>
@@ -26595,28 +26595,28 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C691">
-        <v>7296</v>
+        <v>15581.5</v>
       </c>
       <c r="D691">
-        <v>1313.28</v>
+        <v>779.08</v>
       </c>
       <c r="E691">
-        <v>8609</v>
+        <v>16361</v>
       </c>
       <c r="F691">
-        <v>4.56</v>
+        <v>28.33</v>
       </c>
       <c r="G691">
-        <v>1600</v>
+        <v>550</v>
       </c>
       <c r="H691">
         <v>1</v>
@@ -26633,38 +26633,342 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
+          <t>MINAR ISPAT PVT. LTD</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C692">
+        <v>157377.5</v>
+      </c>
+      <c r="D692">
+        <v>28327.95</v>
+      </c>
+      <c r="E692">
+        <v>185705</v>
+      </c>
+      <c r="F692">
+        <v>26.45</v>
+      </c>
+      <c r="G692">
+        <v>5950</v>
+      </c>
+      <c r="H692">
+        <v>1</v>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J692" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C693">
+        <v>68000</v>
+      </c>
+      <c r="D693">
+        <v>0</v>
+      </c>
+      <c r="E693">
+        <v>71400</v>
+      </c>
+      <c r="F693">
+        <v>25</v>
+      </c>
+      <c r="G693">
+        <v>2720</v>
+      </c>
+      <c r="H693">
+        <v>1</v>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J693" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C694">
+        <v>158920.5</v>
+      </c>
+      <c r="D694">
+        <v>28605.69</v>
+      </c>
+      <c r="E694">
+        <v>187526</v>
+      </c>
+      <c r="F694">
+        <v>19.99</v>
+      </c>
+      <c r="G694">
+        <v>7950.000000000001</v>
+      </c>
+      <c r="H694">
+        <v>1</v>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J694" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C695">
+        <v>74960</v>
+      </c>
+      <c r="D695">
+        <v>3748</v>
+      </c>
+      <c r="E695">
+        <v>78708</v>
+      </c>
+      <c r="F695">
+        <v>18.74</v>
+      </c>
+      <c r="G695">
+        <v>4000</v>
+      </c>
+      <c r="H695">
+        <v>1</v>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J695" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C696">
+        <v>53108</v>
+      </c>
+      <c r="D696">
+        <v>9559.440000000001</v>
+      </c>
+      <c r="E696">
+        <v>62667</v>
+      </c>
+      <c r="F696">
+        <v>15.62</v>
+      </c>
+      <c r="G696">
+        <v>3400</v>
+      </c>
+      <c r="H696">
+        <v>1</v>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J696" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Rama Hi Power Tech</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C697">
+        <v>69720</v>
+      </c>
+      <c r="D697">
+        <v>12549.6</v>
+      </c>
+      <c r="E697">
+        <v>82270</v>
+      </c>
+      <c r="F697">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="G697">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="H697">
+        <v>1</v>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J697" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C698">
+        <v>29460</v>
+      </c>
+      <c r="D698">
+        <v>27438.48</v>
+      </c>
+      <c r="E698">
+        <v>30933</v>
+      </c>
+      <c r="F698">
+        <v>9.82</v>
+      </c>
+      <c r="G698">
+        <v>3000</v>
+      </c>
+      <c r="H698">
+        <v>1</v>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J698" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C699">
+        <v>7296</v>
+      </c>
+      <c r="D699">
+        <v>1313.28</v>
+      </c>
+      <c r="E699">
+        <v>8609</v>
+      </c>
+      <c r="F699">
+        <v>4.56</v>
+      </c>
+      <c r="G699">
+        <v>1600</v>
+      </c>
+      <c r="H699">
+        <v>1</v>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J699" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
           <t>HINDUSTAN AERONAUTICS LTD</t>
         </is>
       </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C692">
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C700">
         <v>17710</v>
       </c>
-      <c r="D692">
+      <c r="D700">
         <v>885.5</v>
       </c>
-      <c r="E692">
+      <c r="E700">
         <v>18596</v>
       </c>
-      <c r="F692">
+      <c r="F700">
         <v>2.53</v>
       </c>
-      <c r="G692">
+      <c r="G700">
         <v>7000.000000000001</v>
       </c>
-      <c r="H692">
-        <v>1</v>
-      </c>
-      <c r="I692" t="inlineStr">
+      <c r="H700">
+        <v>1</v>
+      </c>
+      <c r="I700" t="inlineStr">
         <is>
           <t>Shresth Maheshwari</t>
         </is>
       </c>
-      <c r="J692" s="2">
+      <c r="J700" s="2">
         <v>45078</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -21189,7 +21189,7 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J548" s="2">
@@ -24609,7 +24609,7 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J638" s="2">
@@ -26965,7 +26965,7 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J700" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J700"/>
+  <dimension ref="A1:J701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18995,7 +18995,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -19004,22 +19004,22 @@
         </is>
       </c>
       <c r="C491">
-        <v>208560</v>
+        <v>143724.8</v>
       </c>
       <c r="D491">
-        <v>10428</v>
+        <v>0</v>
       </c>
       <c r="E491">
-        <v>218988</v>
+        <v>150911.04</v>
       </c>
       <c r="F491">
-        <v>52.14</v>
+        <v>52.84</v>
       </c>
       <c r="G491">
-        <v>4000</v>
+        <v>2720</v>
       </c>
       <c r="H491">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr">
         <is>
@@ -19033,31 +19033,31 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C492">
-        <v>163215</v>
+        <v>208560</v>
       </c>
       <c r="D492">
-        <v>29378.71</v>
+        <v>10428</v>
       </c>
       <c r="E492">
-        <v>192593.75</v>
+        <v>218988</v>
       </c>
       <c r="F492">
-        <v>50.22</v>
+        <v>52.14</v>
       </c>
       <c r="G492">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I492" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -19080,22 +19080,22 @@
         </is>
       </c>
       <c r="C493">
-        <v>292730</v>
+        <v>163215</v>
       </c>
       <c r="D493">
-        <v>52691.4</v>
+        <v>29378.71</v>
       </c>
       <c r="E493">
-        <v>345421</v>
+        <v>192593.75</v>
       </c>
       <c r="F493">
-        <v>40.1</v>
+        <v>50.22</v>
       </c>
       <c r="G493">
-        <v>7300</v>
+        <v>3250</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -19118,22 +19118,22 @@
         </is>
       </c>
       <c r="C494">
-        <v>268440</v>
+        <v>292730</v>
       </c>
       <c r="D494">
-        <v>48319.2</v>
+        <v>52691.4</v>
       </c>
       <c r="E494">
-        <v>316759</v>
+        <v>345421</v>
       </c>
       <c r="F494">
-        <v>39.42</v>
+        <v>40.1</v>
       </c>
       <c r="G494">
-        <v>6809.741248097413</v>
+        <v>7300</v>
       </c>
       <c r="H494">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I494" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -19156,22 +19156,22 @@
         </is>
       </c>
       <c r="C495">
-        <v>234108</v>
+        <v>268440</v>
       </c>
       <c r="D495">
-        <v>42139.44</v>
+        <v>48319.2</v>
       </c>
       <c r="E495">
-        <v>276247</v>
+        <v>316759</v>
       </c>
       <c r="F495">
-        <v>37.16</v>
+        <v>39.42</v>
       </c>
       <c r="G495">
-        <v>6300.000000000001</v>
+        <v>6809.741248097413</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I495" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Minar Alloys And Forging Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -19194,26 +19194,26 @@
         </is>
       </c>
       <c r="C496">
-        <v>226238</v>
+        <v>234108</v>
       </c>
       <c r="D496">
-        <v>40722.84</v>
+        <v>42139.44</v>
       </c>
       <c r="E496">
-        <v>266960</v>
+        <v>276247</v>
       </c>
       <c r="F496">
-        <v>36.48999999999999</v>
+        <v>37.16</v>
       </c>
       <c r="G496">
-        <v>6200.000000000001</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J496" s="2">
@@ -19223,7 +19223,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Minar Alloys And Forging Pvt Ltd</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -19232,26 +19232,26 @@
         </is>
       </c>
       <c r="C497">
-        <v>231619.5</v>
+        <v>226238</v>
       </c>
       <c r="D497">
-        <v>41691.51</v>
+        <v>40722.84</v>
       </c>
       <c r="E497">
-        <v>273311</v>
+        <v>266960</v>
       </c>
       <c r="F497">
-        <v>35.91</v>
+        <v>36.48999999999999</v>
       </c>
       <c r="G497">
-        <v>6450.000000000001</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H497">
         <v>2</v>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J497" s="2">
@@ -19261,35 +19261,35 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C498">
-        <v>324760</v>
+        <v>231619.5</v>
       </c>
       <c r="D498">
-        <v>58456.8</v>
+        <v>41691.51</v>
       </c>
       <c r="E498">
-        <v>383217</v>
+        <v>273311</v>
       </c>
       <c r="F498">
-        <v>35.3</v>
+        <v>35.91</v>
       </c>
       <c r="G498">
-        <v>9200</v>
+        <v>6450.000000000001</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J498" s="2">
@@ -19299,35 +19299,35 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C499">
-        <v>225943.5</v>
+        <v>324760</v>
       </c>
       <c r="D499">
-        <v>40669.83</v>
+        <v>58456.8</v>
       </c>
       <c r="E499">
-        <v>266613</v>
+        <v>383217</v>
       </c>
       <c r="F499">
-        <v>35.03</v>
+        <v>35.3</v>
       </c>
       <c r="G499">
-        <v>6450</v>
+        <v>9200</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J499" s="2">
@@ -19337,7 +19337,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Dindigul Steel Rolling Mills Pvt Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -19346,26 +19346,26 @@
         </is>
       </c>
       <c r="C500">
-        <v>194040</v>
+        <v>225943.5</v>
       </c>
       <c r="D500">
-        <v>34927.2</v>
+        <v>40669.83</v>
       </c>
       <c r="E500">
-        <v>228967.2</v>
+        <v>266613</v>
       </c>
       <c r="F500">
-        <v>30.8</v>
+        <v>35.03</v>
       </c>
       <c r="G500">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J500" s="2">
@@ -19375,7 +19375,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SFR STEELS PRIVATE LIMITED</t>
+          <t>Dindigul Steel Rolling Mills Pvt Ltd</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -19384,16 +19384,16 @@
         </is>
       </c>
       <c r="C501">
-        <v>193284</v>
+        <v>194040</v>
       </c>
       <c r="D501">
-        <v>34791.12</v>
+        <v>34927.2</v>
       </c>
       <c r="E501">
-        <v>228075.12</v>
+        <v>228967.2</v>
       </c>
       <c r="F501">
-        <v>30.68</v>
+        <v>30.8</v>
       </c>
       <c r="G501">
         <v>6300</v>
@@ -19413,7 +19413,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>SFR STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -19422,19 +19422,19 @@
         </is>
       </c>
       <c r="C502">
-        <v>194880</v>
+        <v>193284</v>
       </c>
       <c r="D502">
-        <v>35078.4</v>
+        <v>34791.12</v>
       </c>
       <c r="E502">
-        <v>229958</v>
+        <v>228075.12</v>
       </c>
       <c r="F502">
-        <v>30.45</v>
+        <v>30.68</v>
       </c>
       <c r="G502">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H502">
         <v>1</v>
@@ -19451,7 +19451,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Minar Castings Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -19460,26 +19460,26 @@
         </is>
       </c>
       <c r="C503">
-        <v>188604</v>
+        <v>194880</v>
       </c>
       <c r="D503">
-        <v>33948.72</v>
+        <v>35078.4</v>
       </c>
       <c r="E503">
-        <v>222553</v>
+        <v>229958</v>
       </c>
       <c r="F503">
-        <v>30.42</v>
+        <v>30.45</v>
       </c>
       <c r="G503">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J503" s="2">
@@ -19489,7 +19489,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>South Malabar Steels &amp; Alloys Pvt Ltd</t>
+          <t>Minar Castings Pvt Ltd</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -19498,26 +19498,26 @@
         </is>
       </c>
       <c r="C504">
-        <v>191268</v>
+        <v>188604</v>
       </c>
       <c r="D504">
-        <v>34428.24</v>
+        <v>33948.72</v>
       </c>
       <c r="E504">
-        <v>225696</v>
+        <v>222553</v>
       </c>
       <c r="F504">
-        <v>30.36</v>
+        <v>30.42</v>
       </c>
       <c r="G504">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J504" s="2">
@@ -19527,7 +19527,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>South Malabar Steels &amp; Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -19536,16 +19536,16 @@
         </is>
       </c>
       <c r="C505">
-        <v>190512</v>
+        <v>191268</v>
       </c>
       <c r="D505">
-        <v>34292.16</v>
+        <v>34428.24</v>
       </c>
       <c r="E505">
-        <v>224804</v>
+        <v>225696</v>
       </c>
       <c r="F505">
-        <v>30.24</v>
+        <v>30.36</v>
       </c>
       <c r="G505">
         <v>6300</v>
@@ -19565,7 +19565,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -19574,26 +19574,26 @@
         </is>
       </c>
       <c r="C506">
-        <v>216216</v>
+        <v>190512</v>
       </c>
       <c r="D506">
-        <v>38918.88</v>
+        <v>34292.16</v>
       </c>
       <c r="E506">
-        <v>255135</v>
+        <v>224804</v>
       </c>
       <c r="F506">
-        <v>30.03</v>
+        <v>30.24</v>
       </c>
       <c r="G506">
-        <v>7200</v>
+        <v>6300</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J506" s="2">
@@ -19603,7 +19603,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>PENINSULA INDUSTRY</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -19612,26 +19612,26 @@
         </is>
       </c>
       <c r="C507">
-        <v>181560.5</v>
+        <v>216216</v>
       </c>
       <c r="D507">
-        <v>32680.89</v>
+        <v>38918.88</v>
       </c>
       <c r="E507">
-        <v>214241</v>
+        <v>255135</v>
       </c>
       <c r="F507">
-        <v>30.01</v>
+        <v>30.03</v>
       </c>
       <c r="G507">
-        <v>6050</v>
+        <v>7200</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J507" s="2">
@@ -19641,7 +19641,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SUMANGALA STEEL PRIVATE LIMITED</t>
+          <t>PENINSULA INDUSTRY</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -19650,19 +19650,19 @@
         </is>
       </c>
       <c r="C508">
-        <v>241580.5</v>
+        <v>181560.5</v>
       </c>
       <c r="D508">
-        <v>43484.49</v>
+        <v>32680.89</v>
       </c>
       <c r="E508">
-        <v>285064.99</v>
+        <v>214241</v>
       </c>
       <c r="F508">
         <v>30.01</v>
       </c>
       <c r="G508">
-        <v>8050</v>
+        <v>6050</v>
       </c>
       <c r="H508">
         <v>1</v>
@@ -19679,7 +19679,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>SUMANGALA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -19688,26 +19688,26 @@
         </is>
       </c>
       <c r="C509">
-        <v>185938</v>
+        <v>241580.5</v>
       </c>
       <c r="D509">
-        <v>219406.84</v>
+        <v>43484.49</v>
       </c>
       <c r="E509">
-        <v>219406.84</v>
+        <v>285064.99</v>
       </c>
       <c r="F509">
-        <v>29.99</v>
+        <v>30.01</v>
       </c>
       <c r="G509">
-        <v>6200</v>
+        <v>8050</v>
       </c>
       <c r="H509">
         <v>1</v>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J509" s="2">
@@ -19717,7 +19717,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -19726,26 +19726,26 @@
         </is>
       </c>
       <c r="C510">
-        <v>179880</v>
+        <v>185938</v>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>219406.84</v>
       </c>
       <c r="E510">
-        <v>212258.4</v>
+        <v>219406.84</v>
       </c>
       <c r="F510">
-        <v>29.98</v>
+        <v>29.99</v>
       </c>
       <c r="G510">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J510" s="2">
@@ -19755,35 +19755,35 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C511">
-        <v>257312</v>
+        <v>179880</v>
       </c>
       <c r="D511">
-        <v>46316.16</v>
+        <v>0</v>
       </c>
       <c r="E511">
-        <v>303628</v>
+        <v>212258.4</v>
       </c>
       <c r="F511">
-        <v>29.92</v>
+        <v>29.98</v>
       </c>
       <c r="G511">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J511" s="2">
@@ -19793,35 +19793,35 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C512">
-        <v>179738</v>
+        <v>257312</v>
       </c>
       <c r="D512">
-        <v>35212.59</v>
+        <v>46316.16</v>
       </c>
       <c r="E512">
-        <v>212090.84</v>
+        <v>303628</v>
       </c>
       <c r="F512">
-        <v>28.99</v>
+        <v>29.92</v>
       </c>
       <c r="G512">
-        <v>6200</v>
+        <v>8600</v>
       </c>
       <c r="H512">
         <v>1</v>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J512" s="2">
@@ -19831,35 +19831,35 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C513">
-        <v>44066.5</v>
+        <v>179738</v>
       </c>
       <c r="D513">
-        <v>7931.98</v>
+        <v>35212.59</v>
       </c>
       <c r="E513">
-        <v>51998.04</v>
+        <v>212090.84</v>
       </c>
       <c r="F513">
-        <v>28.43</v>
+        <v>28.99</v>
       </c>
       <c r="G513">
-        <v>1550</v>
+        <v>6200</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J513" s="2">
@@ -19869,35 +19869,35 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C514">
-        <v>98100</v>
+        <v>44066.5</v>
       </c>
       <c r="D514">
-        <v>4905</v>
+        <v>7931.98</v>
       </c>
       <c r="E514">
-        <v>103005</v>
+        <v>51998.04</v>
       </c>
       <c r="F514">
-        <v>27.25</v>
+        <v>28.43</v>
       </c>
       <c r="G514">
-        <v>3600</v>
+        <v>1550</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J514" s="2">
@@ -19907,35 +19907,35 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Noble Tech Industries Pvt Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C515">
-        <v>213284.5</v>
+        <v>98100</v>
       </c>
       <c r="D515">
-        <v>38391.21</v>
+        <v>4905</v>
       </c>
       <c r="E515">
-        <v>251676</v>
+        <v>103005</v>
       </c>
       <c r="F515">
-        <v>27.17</v>
+        <v>27.25</v>
       </c>
       <c r="G515">
-        <v>7849.999999999999</v>
+        <v>3600</v>
       </c>
       <c r="H515">
         <v>1</v>
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J515" s="2">
@@ -19945,35 +19945,35 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>Noble Tech Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C516">
-        <v>5368</v>
+        <v>213284.5</v>
       </c>
       <c r="D516">
-        <v>268.4</v>
+        <v>38391.21</v>
       </c>
       <c r="E516">
-        <v>5637</v>
+        <v>251676</v>
       </c>
       <c r="F516">
-        <v>26.84</v>
+        <v>27.17</v>
       </c>
       <c r="G516">
-        <v>200</v>
+        <v>7849.999999999999</v>
       </c>
       <c r="H516">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J516" s="2">
@@ -19983,35 +19983,35 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SRI VARAHI CHEMICALS</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C517">
-        <v>79269.5</v>
+        <v>5368</v>
       </c>
       <c r="D517">
-        <v>3963.48</v>
+        <v>268.4</v>
       </c>
       <c r="E517">
-        <v>83233</v>
+        <v>5637</v>
       </c>
       <c r="F517">
-        <v>25.99</v>
+        <v>26.84</v>
       </c>
       <c r="G517">
-        <v>3050</v>
+        <v>200</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J517" s="2">
@@ -20021,35 +20021,35 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>SRI VARAHI CHEMICALS</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C518">
-        <v>169230</v>
+        <v>79269.5</v>
       </c>
       <c r="D518">
-        <v>30461.4</v>
+        <v>3963.48</v>
       </c>
       <c r="E518">
-        <v>199692</v>
+        <v>83233</v>
       </c>
       <c r="F518">
-        <v>25.64</v>
+        <v>25.99</v>
       </c>
       <c r="G518">
-        <v>6600.234009360374</v>
+        <v>3050</v>
       </c>
       <c r="H518">
         <v>1</v>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J518" s="2">
@@ -20059,35 +20059,35 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C519">
-        <v>110521.8</v>
+        <v>169230</v>
       </c>
       <c r="D519">
-        <v>5526.09</v>
+        <v>30461.4</v>
       </c>
       <c r="E519">
-        <v>116048</v>
+        <v>199692</v>
       </c>
       <c r="F519">
-        <v>25.32</v>
+        <v>25.64</v>
       </c>
       <c r="G519">
-        <v>4365</v>
+        <v>6600.234009360374</v>
       </c>
       <c r="H519">
         <v>1</v>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J519" s="2">
@@ -20097,35 +20097,35 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C520">
-        <v>158697</v>
+        <v>110521.8</v>
       </c>
       <c r="D520">
-        <v>28565.46</v>
+        <v>5526.09</v>
       </c>
       <c r="E520">
-        <v>187262</v>
+        <v>116048</v>
       </c>
       <c r="F520">
-        <v>25.19</v>
+        <v>25.32</v>
       </c>
       <c r="G520">
-        <v>6300</v>
+        <v>4365</v>
       </c>
       <c r="H520">
         <v>1</v>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J520" s="2">
@@ -20135,7 +20135,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -20144,16 +20144,16 @@
         </is>
       </c>
       <c r="C521">
-        <v>158067</v>
+        <v>158697</v>
       </c>
       <c r="D521">
-        <v>28452.06</v>
+        <v>28565.46</v>
       </c>
       <c r="E521">
-        <v>186519</v>
+        <v>187262</v>
       </c>
       <c r="F521">
-        <v>25.09</v>
+        <v>25.19</v>
       </c>
       <c r="G521">
         <v>6300</v>
@@ -20173,7 +20173,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Karnataka Silicates</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -20182,26 +20182,26 @@
         </is>
       </c>
       <c r="C522">
-        <v>150240</v>
+        <v>158067</v>
       </c>
       <c r="D522">
-        <v>27043.2</v>
+        <v>28452.06</v>
       </c>
       <c r="E522">
-        <v>177283</v>
+        <v>186519</v>
       </c>
       <c r="F522">
-        <v>25.04</v>
+        <v>25.09</v>
       </c>
       <c r="G522">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H522">
         <v>1</v>
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J522" s="2">
@@ -20211,7 +20211,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PVT.LTD</t>
+          <t>Karnataka Silicates</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -20220,26 +20220,26 @@
         </is>
       </c>
       <c r="C523">
-        <v>125674</v>
+        <v>150240</v>
       </c>
       <c r="D523">
-        <v>0</v>
+        <v>27043.2</v>
       </c>
       <c r="E523">
-        <v>148295.32</v>
+        <v>177283</v>
       </c>
       <c r="F523">
-        <v>20.27</v>
+        <v>25.04</v>
       </c>
       <c r="G523">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="H523">
         <v>1</v>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J523" s="2">
@@ -20254,23 +20254,23 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C524">
-        <v>155620</v>
+        <v>125674</v>
       </c>
       <c r="D524">
-        <v>50632.92</v>
+        <v>0</v>
       </c>
       <c r="E524">
-        <v>183631.6</v>
+        <v>148295.32</v>
       </c>
       <c r="F524">
-        <v>20.08</v>
+        <v>20.27</v>
       </c>
       <c r="G524">
-        <v>7750.000000000001</v>
+        <v>6200</v>
       </c>
       <c r="H524">
         <v>1</v>
@@ -20287,7 +20287,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>ILC IRON &amp; STEEL PVT.LTD</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -20296,26 +20296,26 @@
         </is>
       </c>
       <c r="C525">
-        <v>159556.5</v>
+        <v>155620</v>
       </c>
       <c r="D525">
-        <v>28720.17</v>
+        <v>50632.92</v>
       </c>
       <c r="E525">
-        <v>188277</v>
+        <v>183631.6</v>
       </c>
       <c r="F525">
-        <v>20.07</v>
+        <v>20.08</v>
       </c>
       <c r="G525">
-        <v>7950</v>
+        <v>7750.000000000001</v>
       </c>
       <c r="H525">
         <v>1</v>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J525" s="2">
@@ -20325,35 +20325,35 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C526">
-        <v>54219</v>
+        <v>159556.5</v>
       </c>
       <c r="D526">
-        <v>9759.42</v>
+        <v>28720.17</v>
       </c>
       <c r="E526">
-        <v>63978</v>
+        <v>188277</v>
       </c>
       <c r="F526">
-        <v>16.43</v>
+        <v>20.07</v>
       </c>
       <c r="G526">
-        <v>3300</v>
+        <v>7950</v>
       </c>
       <c r="H526">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J526" s="2">
@@ -20363,35 +20363,35 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C527">
-        <v>93600</v>
+        <v>54219</v>
       </c>
       <c r="D527">
-        <v>16848</v>
+        <v>9759.42</v>
       </c>
       <c r="E527">
-        <v>110448</v>
+        <v>63978</v>
       </c>
       <c r="F527">
-        <v>12</v>
+        <v>16.43</v>
       </c>
       <c r="G527">
-        <v>7800</v>
+        <v>3300</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J527" s="2">
@@ -20401,35 +20401,35 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C528">
-        <v>50052</v>
+        <v>93600</v>
       </c>
       <c r="D528">
-        <v>9009.360000000001</v>
+        <v>16848</v>
       </c>
       <c r="E528">
-        <v>59061</v>
+        <v>110448</v>
       </c>
       <c r="F528">
-        <v>7.76</v>
+        <v>12</v>
       </c>
       <c r="G528">
-        <v>6450</v>
+        <v>7800</v>
       </c>
       <c r="H528">
         <v>1</v>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J528" s="2">
@@ -20439,35 +20439,35 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C529">
-        <v>16966</v>
+        <v>50052</v>
       </c>
       <c r="D529">
-        <v>3053.88</v>
+        <v>9009.360000000001</v>
       </c>
       <c r="E529">
-        <v>20020</v>
+        <v>59061</v>
       </c>
       <c r="F529">
-        <v>4.99</v>
+        <v>7.76</v>
       </c>
       <c r="G529">
-        <v>3400</v>
+        <v>6450</v>
       </c>
       <c r="H529">
         <v>1</v>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J529" s="2">
@@ -20477,28 +20477,28 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C530">
-        <v>31000</v>
+        <v>16966</v>
       </c>
       <c r="D530">
-        <v>5580</v>
+        <v>3053.88</v>
       </c>
       <c r="E530">
-        <v>36580</v>
+        <v>20020</v>
       </c>
       <c r="F530">
-        <v>4.96</v>
+        <v>4.99</v>
       </c>
       <c r="G530">
-        <v>6250</v>
+        <v>3400</v>
       </c>
       <c r="H530">
         <v>1</v>
@@ -20515,28 +20515,28 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C531">
-        <v>7520</v>
+        <v>31000</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>5580</v>
       </c>
       <c r="E531">
-        <v>8873.6</v>
+        <v>36580</v>
       </c>
       <c r="F531">
-        <v>4.7</v>
+        <v>4.96</v>
       </c>
       <c r="G531">
-        <v>1600</v>
+        <v>6250</v>
       </c>
       <c r="H531">
         <v>1</v>
@@ -20553,35 +20553,35 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C532">
-        <v>25730</v>
+        <v>7520</v>
       </c>
       <c r="D532">
-        <v>30361.4</v>
+        <v>0</v>
       </c>
       <c r="E532">
-        <v>30361.4</v>
+        <v>8873.6</v>
       </c>
       <c r="F532">
-        <v>3.32</v>
+        <v>4.7</v>
       </c>
       <c r="G532">
-        <v>7750</v>
+        <v>1600</v>
       </c>
       <c r="H532">
         <v>1</v>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J532" s="2">
@@ -20591,7 +20591,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -20600,19 +20600,19 @@
         </is>
       </c>
       <c r="C533">
-        <v>15887.5</v>
+        <v>25730</v>
       </c>
       <c r="D533">
-        <v>0</v>
+        <v>30361.4</v>
       </c>
       <c r="E533">
-        <v>18747.25</v>
+        <v>30361.4</v>
       </c>
       <c r="F533">
-        <v>2.05</v>
+        <v>3.32</v>
       </c>
       <c r="G533">
-        <v>7750.000000000001</v>
+        <v>7750</v>
       </c>
       <c r="H533">
         <v>1</v>
@@ -20629,73 +20629,73 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C534">
-        <v>1944974</v>
+        <v>15887.5</v>
       </c>
       <c r="D534">
-        <v>350095.32</v>
+        <v>0</v>
       </c>
       <c r="E534">
-        <v>2295070</v>
+        <v>18747.25</v>
       </c>
       <c r="F534">
-        <v>273.94</v>
+        <v>2.05</v>
       </c>
       <c r="G534">
-        <v>7100.000000000001</v>
+        <v>7750.000000000001</v>
       </c>
       <c r="H534">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J534" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C535">
-        <v>1740060</v>
+        <v>1944974</v>
       </c>
       <c r="D535">
-        <v>313210.8</v>
+        <v>350095.32</v>
       </c>
       <c r="E535">
-        <v>2053272</v>
+        <v>2295070</v>
       </c>
       <c r="F535">
-        <v>207.15</v>
+        <v>273.94</v>
       </c>
       <c r="G535">
-        <v>8400</v>
+        <v>7100.000000000001</v>
       </c>
       <c r="H535">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J535" s="2">
@@ -20705,7 +20705,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -20714,26 +20714,26 @@
         </is>
       </c>
       <c r="C536">
-        <v>1031029</v>
+        <v>1740060</v>
       </c>
       <c r="D536">
-        <v>185585.22</v>
+        <v>313210.8</v>
       </c>
       <c r="E536">
-        <v>1216614</v>
+        <v>2053272</v>
       </c>
       <c r="F536">
-        <v>130.51</v>
+        <v>207.15</v>
       </c>
       <c r="G536">
-        <v>7899.999999999999</v>
+        <v>8400</v>
       </c>
       <c r="H536">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J536" s="2">
@@ -20743,31 +20743,31 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C537">
-        <v>889056</v>
+        <v>1031029</v>
       </c>
       <c r="D537">
-        <v>160030.08</v>
+        <v>185585.22</v>
       </c>
       <c r="E537">
-        <v>1049086.5</v>
+        <v>1216614</v>
       </c>
       <c r="F537">
-        <v>120.96</v>
+        <v>130.51</v>
       </c>
       <c r="G537">
-        <v>7350</v>
+        <v>7899.999999999999</v>
       </c>
       <c r="H537">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I537" t="inlineStr">
         <is>
@@ -20781,31 +20781,31 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C538">
-        <v>959803.5</v>
+        <v>889056</v>
       </c>
       <c r="D538">
-        <v>172764.63</v>
+        <v>160030.08</v>
       </c>
       <c r="E538">
-        <v>1132568</v>
+        <v>1049086.5</v>
       </c>
       <c r="F538">
-        <v>120.73</v>
+        <v>120.96</v>
       </c>
       <c r="G538">
-        <v>7949.999999999999</v>
+        <v>7350</v>
       </c>
       <c r="H538">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I538" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -20828,26 +20828,26 @@
         </is>
       </c>
       <c r="C539">
-        <v>905616</v>
+        <v>959803.5</v>
       </c>
       <c r="D539">
-        <v>163010.88</v>
+        <v>172764.63</v>
       </c>
       <c r="E539">
-        <v>1068626</v>
+        <v>1132568</v>
       </c>
       <c r="F539">
-        <v>119.16</v>
+        <v>120.73</v>
       </c>
       <c r="G539">
-        <v>7600</v>
+        <v>7949.999999999999</v>
       </c>
       <c r="H539">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J539" s="2">
@@ -20857,35 +20857,35 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C540">
-        <v>682558</v>
+        <v>905616</v>
       </c>
       <c r="D540">
-        <v>122860.44</v>
+        <v>163010.88</v>
       </c>
       <c r="E540">
-        <v>805419</v>
+        <v>1068626</v>
       </c>
       <c r="F540">
-        <v>110.09</v>
+        <v>119.16</v>
       </c>
       <c r="G540">
-        <v>6200</v>
+        <v>7600</v>
       </c>
       <c r="H540">
         <v>5</v>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J540" s="2">
@@ -20895,35 +20895,35 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>MAHRISHI MELTCHEMS PVT LTD</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Quartz Lumps</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C541">
-        <v>173497.2</v>
+        <v>682558</v>
       </c>
       <c r="D541">
-        <v>8674.860000000001</v>
+        <v>122860.44</v>
       </c>
       <c r="E541">
-        <v>182172</v>
+        <v>805419</v>
       </c>
       <c r="F541">
-        <v>106.44</v>
+        <v>110.09</v>
       </c>
       <c r="G541">
-        <v>1630</v>
+        <v>6200</v>
       </c>
       <c r="H541">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J541" s="2">
@@ -20933,31 +20933,31 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>MAHRISHI MELTCHEMS PVT LTD</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Quartz Lumps</t>
         </is>
       </c>
       <c r="C542">
-        <v>441126.9</v>
+        <v>173497.2</v>
       </c>
       <c r="D542">
-        <v>22056.35</v>
+        <v>8674.860000000001</v>
       </c>
       <c r="E542">
-        <v>463184.73</v>
+        <v>182172</v>
       </c>
       <c r="F542">
-        <v>101.06</v>
+        <v>106.44</v>
       </c>
       <c r="G542">
-        <v>4365</v>
+        <v>1630</v>
       </c>
       <c r="H542">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I542" t="inlineStr">
         <is>
@@ -20971,31 +20971,31 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C543">
-        <v>536571</v>
+        <v>441126.9</v>
       </c>
       <c r="D543">
-        <v>84834.54000000001</v>
+        <v>22056.35</v>
       </c>
       <c r="E543">
-        <v>633154.24</v>
+        <v>463184.73</v>
       </c>
       <c r="F543">
-        <v>85.17</v>
+        <v>101.06</v>
       </c>
       <c r="G543">
-        <v>6300</v>
+        <v>4365</v>
       </c>
       <c r="H543">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I543" t="inlineStr">
         <is>
@@ -21009,28 +21009,28 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C544">
-        <v>333459</v>
+        <v>536571</v>
       </c>
       <c r="D544">
-        <v>60022.64</v>
+        <v>84834.54000000001</v>
       </c>
       <c r="E544">
-        <v>393482</v>
+        <v>633154.24</v>
       </c>
       <c r="F544">
-        <v>84.42</v>
+        <v>85.17</v>
       </c>
       <c r="G544">
-        <v>3950</v>
+        <v>6300</v>
       </c>
       <c r="H544">
         <v>4</v>
@@ -21047,31 +21047,31 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Quartz Lumps</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C545">
-        <v>136903.7</v>
+        <v>333459</v>
       </c>
       <c r="D545">
-        <v>6845.200000000001</v>
+        <v>60022.64</v>
       </c>
       <c r="E545">
-        <v>143748</v>
+        <v>393482</v>
       </c>
       <c r="F545">
-        <v>83.99000000000001</v>
+        <v>84.42</v>
       </c>
       <c r="G545">
-        <v>1630</v>
+        <v>3950</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I545" t="inlineStr">
         <is>
@@ -21085,35 +21085,35 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Lumps</t>
         </is>
       </c>
       <c r="C546">
-        <v>629850</v>
+        <v>136903.7</v>
       </c>
       <c r="D546">
-        <v>113373</v>
+        <v>6845.200000000001</v>
       </c>
       <c r="E546">
-        <v>743224</v>
+        <v>143748</v>
       </c>
       <c r="F546">
-        <v>83.98</v>
+        <v>83.99000000000001</v>
       </c>
       <c r="G546">
-        <v>7500</v>
+        <v>1630</v>
       </c>
       <c r="H546">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J546" s="2">
@@ -21123,35 +21123,35 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C547">
-        <v>645680</v>
+        <v>629850</v>
       </c>
       <c r="D547">
-        <v>116222.4</v>
+        <v>113373</v>
       </c>
       <c r="E547">
-        <v>761902</v>
+        <v>743224</v>
       </c>
       <c r="F547">
-        <v>80.71000000000001</v>
+        <v>83.98</v>
       </c>
       <c r="G547">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="H547">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J547" s="2">
@@ -21161,31 +21161,31 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C548">
-        <v>214580.8</v>
+        <v>645680</v>
       </c>
       <c r="D548">
-        <v>14392.34</v>
+        <v>116222.4</v>
       </c>
       <c r="E548">
-        <v>228973</v>
+        <v>761902</v>
       </c>
       <c r="F548">
-        <v>78.89</v>
+        <v>80.71000000000001</v>
       </c>
       <c r="G548">
-        <v>2720</v>
+        <v>8000</v>
       </c>
       <c r="H548">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I548" t="inlineStr">
         <is>
@@ -21199,31 +21199,31 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C549">
-        <v>603639</v>
+        <v>214580.8</v>
       </c>
       <c r="D549">
-        <v>87225.48</v>
+        <v>14392.34</v>
       </c>
       <c r="E549">
-        <v>712294.6</v>
+        <v>228973</v>
       </c>
       <c r="F549">
-        <v>76.41</v>
+        <v>78.89</v>
       </c>
       <c r="G549">
-        <v>7900</v>
+        <v>2720</v>
       </c>
       <c r="H549">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I549" t="inlineStr">
         <is>
@@ -21237,35 +21237,35 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C550">
-        <v>529970</v>
+        <v>603639</v>
       </c>
       <c r="D550">
-        <v>95394.60000000001</v>
+        <v>87225.48</v>
       </c>
       <c r="E550">
-        <v>625364</v>
+        <v>712294.6</v>
       </c>
       <c r="F550">
-        <v>75.70999999999999</v>
+        <v>76.41</v>
       </c>
       <c r="G550">
-        <v>7000</v>
+        <v>7900</v>
       </c>
       <c r="H550">
         <v>3</v>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J550" s="2">
@@ -21275,35 +21275,35 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C551">
-        <v>224800</v>
+        <v>529970</v>
       </c>
       <c r="D551">
-        <v>40464</v>
+        <v>95394.60000000001</v>
       </c>
       <c r="E551">
-        <v>265264</v>
+        <v>625364</v>
       </c>
       <c r="F551">
-        <v>70.25</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="G551">
-        <v>3200</v>
+        <v>7000</v>
       </c>
       <c r="H551">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J551" s="2">
@@ -21313,31 +21313,31 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C552">
-        <v>201760</v>
+        <v>224800</v>
       </c>
       <c r="D552">
-        <v>32820.3</v>
+        <v>40464</v>
       </c>
       <c r="E552">
-        <v>238076.6</v>
+        <v>265264</v>
       </c>
       <c r="F552">
-        <v>62.08</v>
+        <v>70.25</v>
       </c>
       <c r="G552">
-        <v>3250</v>
+        <v>3200</v>
       </c>
       <c r="H552">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I552" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -21360,26 +21360,26 @@
         </is>
       </c>
       <c r="C553">
-        <v>393837</v>
+        <v>201760</v>
       </c>
       <c r="D553">
-        <v>70890.66</v>
+        <v>32820.3</v>
       </c>
       <c r="E553">
-        <v>464728</v>
+        <v>238076.6</v>
       </c>
       <c r="F553">
-        <v>61.06</v>
+        <v>62.08</v>
       </c>
       <c r="G553">
-        <v>6450</v>
+        <v>3250</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J553" s="2">
@@ -21389,35 +21389,35 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C554">
-        <v>470366</v>
+        <v>393837</v>
       </c>
       <c r="D554">
-        <v>84665.88</v>
+        <v>70890.66</v>
       </c>
       <c r="E554">
-        <v>555032</v>
+        <v>464728</v>
       </c>
       <c r="F554">
-        <v>59.54</v>
+        <v>61.06</v>
       </c>
       <c r="G554">
-        <v>7900</v>
+        <v>6450</v>
       </c>
       <c r="H554">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J554" s="2">
@@ -21427,35 +21427,35 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C555">
-        <v>420535</v>
+        <v>470366</v>
       </c>
       <c r="D555">
-        <v>75696.3</v>
+        <v>84665.88</v>
       </c>
       <c r="E555">
-        <v>496231.31</v>
+        <v>555032</v>
       </c>
       <c r="F555">
-        <v>55.7</v>
+        <v>59.54</v>
       </c>
       <c r="G555">
-        <v>7550.000000000001</v>
+        <v>7900</v>
       </c>
       <c r="H555">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J555" s="2">
@@ -21465,7 +21465,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -21474,26 +21474,26 @@
         </is>
       </c>
       <c r="C556">
-        <v>357975</v>
+        <v>420535</v>
       </c>
       <c r="D556">
-        <v>64435.5</v>
+        <v>75696.3</v>
       </c>
       <c r="E556">
-        <v>422411</v>
+        <v>496231.31</v>
       </c>
       <c r="F556">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="G556">
-        <v>6450</v>
+        <v>7550.000000000001</v>
       </c>
       <c r="H556">
         <v>3</v>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J556" s="2">
@@ -21503,7 +21503,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -21512,26 +21512,26 @@
         </is>
       </c>
       <c r="C557">
-        <v>348642</v>
+        <v>357975</v>
       </c>
       <c r="D557">
-        <v>62755.56</v>
+        <v>64435.5</v>
       </c>
       <c r="E557">
-        <v>411398</v>
+        <v>422411</v>
       </c>
       <c r="F557">
-        <v>55.34</v>
+        <v>55.5</v>
       </c>
       <c r="G557">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H557">
         <v>3</v>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J557" s="2">
@@ -21541,7 +21541,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -21550,26 +21550,26 @@
         </is>
       </c>
       <c r="C558">
-        <v>351936</v>
+        <v>348642</v>
       </c>
       <c r="D558">
-        <v>63348.48</v>
+        <v>62755.56</v>
       </c>
       <c r="E558">
-        <v>415284</v>
+        <v>411398</v>
       </c>
       <c r="F558">
-        <v>54.99</v>
+        <v>55.34</v>
       </c>
       <c r="G558">
-        <v>6399.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H558">
         <v>3</v>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J558" s="2">
@@ -21579,35 +21579,35 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C559">
-        <v>165376</v>
+        <v>351936</v>
       </c>
       <c r="D559">
-        <v>51197.22</v>
+        <v>63348.48</v>
       </c>
       <c r="E559">
-        <v>195143.92</v>
+        <v>415284</v>
       </c>
       <c r="F559">
-        <v>51.68</v>
+        <v>54.99</v>
       </c>
       <c r="G559">
-        <v>3200</v>
+        <v>6399.999999999999</v>
       </c>
       <c r="H559">
         <v>3</v>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J559" s="2">
@@ -21617,31 +21617,31 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C560">
-        <v>443846</v>
+        <v>165376</v>
       </c>
       <c r="D560">
-        <v>79892.28</v>
+        <v>51197.22</v>
       </c>
       <c r="E560">
-        <v>523739</v>
+        <v>195143.92</v>
       </c>
       <c r="F560">
-        <v>51.61</v>
+        <v>51.68</v>
       </c>
       <c r="G560">
-        <v>8600</v>
+        <v>3200</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I560" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -21664,26 +21664,26 @@
         </is>
       </c>
       <c r="C561">
-        <v>351234</v>
+        <v>443846</v>
       </c>
       <c r="D561">
-        <v>79227.72</v>
+        <v>79892.28</v>
       </c>
       <c r="E561">
-        <v>414455.96</v>
+        <v>523739</v>
       </c>
       <c r="F561">
-        <v>45.03</v>
+        <v>51.61</v>
       </c>
       <c r="G561">
-        <v>7800</v>
+        <v>8600</v>
       </c>
       <c r="H561">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J561" s="2">
@@ -21693,35 +21693,35 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>A One Steels and Alloys Pvt Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C562">
-        <v>221913.5</v>
+        <v>351234</v>
       </c>
       <c r="D562">
-        <v>39944.43</v>
+        <v>79227.72</v>
       </c>
       <c r="E562">
-        <v>261858</v>
+        <v>414455.96</v>
       </c>
       <c r="F562">
-        <v>31.93</v>
+        <v>45.03</v>
       </c>
       <c r="G562">
-        <v>6950</v>
+        <v>7800</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J562" s="2">
@@ -21731,28 +21731,28 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>A One Steels and Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Quartz Lumps</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C563">
-        <v>50318.1</v>
+        <v>221913.5</v>
       </c>
       <c r="D563">
-        <v>2515.9</v>
+        <v>39944.43</v>
       </c>
       <c r="E563">
-        <v>52834</v>
+        <v>261858</v>
       </c>
       <c r="F563">
-        <v>30.87</v>
+        <v>31.93</v>
       </c>
       <c r="G563">
-        <v>1630</v>
+        <v>6950</v>
       </c>
       <c r="H563">
         <v>1</v>
@@ -21769,31 +21769,31 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Arun Vyapar Udyog Private Limited</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Lumps</t>
         </is>
       </c>
       <c r="C564">
-        <v>234702</v>
+        <v>50318.1</v>
       </c>
       <c r="D564">
-        <v>42246.36</v>
+        <v>2515.9</v>
       </c>
       <c r="E564">
-        <v>276948</v>
+        <v>52834</v>
       </c>
       <c r="F564">
-        <v>30.68</v>
+        <v>30.87</v>
       </c>
       <c r="G564">
-        <v>7650</v>
+        <v>1630</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I564" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Arun Vyapar Udyog Private Limited</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -21816,26 +21816,26 @@
         </is>
       </c>
       <c r="C565">
-        <v>192906</v>
+        <v>234702</v>
       </c>
       <c r="D565">
-        <v>34723.08</v>
+        <v>42246.36</v>
       </c>
       <c r="E565">
-        <v>227629</v>
+        <v>276948</v>
       </c>
       <c r="F565">
-        <v>30.62</v>
+        <v>30.68</v>
       </c>
       <c r="G565">
-        <v>6300</v>
+        <v>7650</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J565" s="2">
@@ -21845,7 +21845,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -21854,19 +21854,19 @@
         </is>
       </c>
       <c r="C566">
-        <v>194880</v>
+        <v>192906</v>
       </c>
       <c r="D566">
-        <v>35078.4</v>
+        <v>34723.08</v>
       </c>
       <c r="E566">
-        <v>229959</v>
+        <v>227629</v>
       </c>
       <c r="F566">
-        <v>30.45</v>
+        <v>30.62</v>
       </c>
       <c r="G566">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H566">
         <v>1</v>
@@ -21883,7 +21883,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -21892,19 +21892,19 @@
         </is>
       </c>
       <c r="C567">
-        <v>191205</v>
+        <v>194880</v>
       </c>
       <c r="D567">
-        <v>34416.9</v>
+        <v>35078.4</v>
       </c>
       <c r="E567">
-        <v>225622</v>
+        <v>229959</v>
       </c>
       <c r="F567">
-        <v>30.35</v>
+        <v>30.45</v>
       </c>
       <c r="G567">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H567">
         <v>1</v>
@@ -21921,7 +21921,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -21930,16 +21930,16 @@
         </is>
       </c>
       <c r="C568">
-        <v>190827</v>
+        <v>191205</v>
       </c>
       <c r="D568">
-        <v>34348.86</v>
+        <v>34416.9</v>
       </c>
       <c r="E568">
-        <v>225176</v>
+        <v>225622</v>
       </c>
       <c r="F568">
-        <v>30.29</v>
+        <v>30.35</v>
       </c>
       <c r="G568">
         <v>6300</v>
@@ -21949,7 +21949,7 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J568" s="2">
@@ -21959,28 +21959,28 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>A One Steels and Alloys Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C569">
-        <v>259720</v>
+        <v>190827</v>
       </c>
       <c r="D569">
-        <v>46749.6</v>
+        <v>34348.86</v>
       </c>
       <c r="E569">
-        <v>306470</v>
+        <v>225176</v>
       </c>
       <c r="F569">
-        <v>30.2</v>
+        <v>30.29</v>
       </c>
       <c r="G569">
-        <v>8600</v>
+        <v>6300</v>
       </c>
       <c r="H569">
         <v>1</v>
@@ -21997,35 +21997,35 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>A One Steels and Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C570">
-        <v>7547.5</v>
+        <v>259720</v>
       </c>
       <c r="D570">
-        <v>377.38</v>
+        <v>46749.6</v>
       </c>
       <c r="E570">
-        <v>7925</v>
+        <v>306470</v>
       </c>
       <c r="F570">
-        <v>30.19</v>
+        <v>30.2</v>
       </c>
       <c r="G570">
-        <v>250</v>
+        <v>8600</v>
       </c>
       <c r="H570">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J570" s="2">
@@ -22035,7 +22035,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -22044,26 +22044,26 @@
         </is>
       </c>
       <c r="C571">
-        <v>193758</v>
+        <v>7547.5</v>
       </c>
       <c r="D571">
-        <v>34876.44</v>
+        <v>377.38</v>
       </c>
       <c r="E571">
-        <v>228634</v>
+        <v>7925</v>
       </c>
       <c r="F571">
-        <v>30.04</v>
+        <v>30.19</v>
       </c>
       <c r="G571">
-        <v>6450</v>
+        <v>250</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J571" s="2">
@@ -22073,7 +22073,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -22082,22 +22082,22 @@
         </is>
       </c>
       <c r="C572">
-        <v>192064</v>
+        <v>193758</v>
       </c>
       <c r="D572">
-        <v>34571.52</v>
+        <v>34876.44</v>
       </c>
       <c r="E572">
-        <v>226636</v>
+        <v>228634</v>
       </c>
       <c r="F572">
-        <v>30.01</v>
+        <v>30.04</v>
       </c>
       <c r="G572">
-        <v>6400</v>
+        <v>6450</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I572" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -22120,26 +22120,26 @@
         </is>
       </c>
       <c r="C573">
-        <v>188622</v>
+        <v>192064</v>
       </c>
       <c r="D573">
-        <v>33951.96</v>
+        <v>34571.52</v>
       </c>
       <c r="E573">
-        <v>222574</v>
+        <v>226636</v>
       </c>
       <c r="F573">
-        <v>29.94</v>
+        <v>30.01</v>
       </c>
       <c r="G573">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J573" s="2">
@@ -22149,7 +22149,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Sonal Irons Industry Private Limited</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -22158,26 +22158,26 @@
         </is>
       </c>
       <c r="C574">
-        <v>192855</v>
+        <v>188622</v>
       </c>
       <c r="D574">
-        <v>34713.9</v>
+        <v>33951.96</v>
       </c>
       <c r="E574">
-        <v>227569</v>
+        <v>222574</v>
       </c>
       <c r="F574">
-        <v>29.9</v>
+        <v>29.94</v>
       </c>
       <c r="G574">
-        <v>6450</v>
+        <v>6300</v>
       </c>
       <c r="H574">
         <v>1</v>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J574" s="2">
@@ -22187,31 +22187,31 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Noble Tech Industries Pvt Ltd</t>
+          <t>Sonal Irons Industry Private Limited</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C575">
-        <v>267750</v>
+        <v>192855</v>
       </c>
       <c r="D575">
-        <v>48195</v>
+        <v>34713.9</v>
       </c>
       <c r="E575">
-        <v>315945</v>
+        <v>227569</v>
       </c>
       <c r="F575">
-        <v>29.75</v>
+        <v>29.9</v>
       </c>
       <c r="G575">
-        <v>9000</v>
+        <v>6450</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="inlineStr">
         <is>
@@ -22225,35 +22225,35 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Noble Tech Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C576">
-        <v>103880</v>
+        <v>267750</v>
       </c>
       <c r="D576">
-        <v>18698.4</v>
+        <v>48195</v>
       </c>
       <c r="E576">
-        <v>122578</v>
+        <v>315945</v>
       </c>
       <c r="F576">
-        <v>29.68</v>
+        <v>29.75</v>
       </c>
       <c r="G576">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J576" s="2">
@@ -22263,35 +22263,35 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Jai Hind Wire Rod Mills Private Limited</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C577">
-        <v>225492</v>
+        <v>103880</v>
       </c>
       <c r="D577">
-        <v>40588.56</v>
+        <v>18698.4</v>
       </c>
       <c r="E577">
-        <v>266080.8</v>
+        <v>122578</v>
       </c>
       <c r="F577">
-        <v>29.67</v>
+        <v>29.68</v>
       </c>
       <c r="G577">
-        <v>7600</v>
+        <v>3500</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J577" s="2">
@@ -22301,35 +22301,35 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>Jai Hind Wire Rod Mills Private Limited</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C578">
-        <v>8715</v>
+        <v>225492</v>
       </c>
       <c r="D578">
-        <v>435.76</v>
+        <v>40588.56</v>
       </c>
       <c r="E578">
-        <v>9151.1</v>
+        <v>266080.8</v>
       </c>
       <c r="F578">
-        <v>29.05</v>
+        <v>29.67</v>
       </c>
       <c r="G578">
-        <v>300</v>
+        <v>7600</v>
       </c>
       <c r="H578">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J578" s="2">
@@ -22339,35 +22339,35 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C579">
-        <v>179712</v>
+        <v>8715</v>
       </c>
       <c r="D579">
-        <v>32348.16</v>
+        <v>435.76</v>
       </c>
       <c r="E579">
-        <v>212060</v>
+        <v>9151.1</v>
       </c>
       <c r="F579">
-        <v>28.08</v>
+        <v>29.05</v>
       </c>
       <c r="G579">
-        <v>6400</v>
+        <v>300</v>
       </c>
       <c r="H579">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J579" s="2">
@@ -22377,7 +22377,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -22386,26 +22386,26 @@
         </is>
       </c>
       <c r="C580">
-        <v>161343</v>
+        <v>179712</v>
       </c>
       <c r="D580">
-        <v>29041.74</v>
+        <v>32348.16</v>
       </c>
       <c r="E580">
-        <v>190385</v>
+        <v>212060</v>
       </c>
       <c r="F580">
-        <v>25.61</v>
+        <v>28.08</v>
       </c>
       <c r="G580">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J580" s="2">
@@ -22415,7 +22415,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -22424,26 +22424,26 @@
         </is>
       </c>
       <c r="C581">
-        <v>182808</v>
+        <v>161343</v>
       </c>
       <c r="D581">
-        <v>32905.44</v>
+        <v>29041.74</v>
       </c>
       <c r="E581">
-        <v>215713</v>
+        <v>190385</v>
       </c>
       <c r="F581">
-        <v>25.39</v>
+        <v>25.61</v>
       </c>
       <c r="G581">
-        <v>7200</v>
+        <v>6300</v>
       </c>
       <c r="H581">
         <v>1</v>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J581" s="2">
@@ -22453,7 +22453,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -22462,19 +22462,19 @@
         </is>
       </c>
       <c r="C582">
-        <v>149702</v>
+        <v>182808</v>
       </c>
       <c r="D582">
-        <v>26946.36</v>
+        <v>32905.44</v>
       </c>
       <c r="E582">
-        <v>176648</v>
+        <v>215713</v>
       </c>
       <c r="F582">
-        <v>25.16</v>
+        <v>25.39</v>
       </c>
       <c r="G582">
-        <v>5950</v>
+        <v>7200</v>
       </c>
       <c r="H582">
         <v>1</v>
@@ -22491,7 +22491,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>SAI KRISHNA STEEL INDUSTRIES</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -22500,26 +22500,26 @@
         </is>
       </c>
       <c r="C583">
-        <v>157941</v>
+        <v>149702</v>
       </c>
       <c r="D583">
-        <v>28429.38</v>
+        <v>26946.36</v>
       </c>
       <c r="E583">
-        <v>186370</v>
+        <v>176648</v>
       </c>
       <c r="F583">
-        <v>25.07</v>
+        <v>25.16</v>
       </c>
       <c r="G583">
-        <v>6300</v>
+        <v>5950</v>
       </c>
       <c r="H583">
         <v>1</v>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J583" s="2">
@@ -22529,28 +22529,28 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>SAI KRISHNA STEEL INDUSTRIES</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C584">
-        <v>96080</v>
+        <v>157941</v>
       </c>
       <c r="D584">
-        <v>0</v>
+        <v>28429.38</v>
       </c>
       <c r="E584">
-        <v>113374.4</v>
+        <v>186370</v>
       </c>
       <c r="F584">
-        <v>24.02</v>
+        <v>25.07</v>
       </c>
       <c r="G584">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="H584">
         <v>1</v>
@@ -22567,31 +22567,31 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C585">
-        <v>158108</v>
+        <v>96080</v>
       </c>
       <c r="D585">
-        <v>28459.44</v>
+        <v>0</v>
       </c>
       <c r="E585">
-        <v>186568.04</v>
+        <v>113374.4</v>
       </c>
       <c r="F585">
-        <v>23.11</v>
+        <v>24.02</v>
       </c>
       <c r="G585">
-        <v>6841.540458675898</v>
+        <v>4000</v>
       </c>
       <c r="H585">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I585" t="inlineStr">
         <is>
@@ -22605,31 +22605,31 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C586">
-        <v>164962.5</v>
+        <v>158108</v>
       </c>
       <c r="D586">
-        <v>29693.25</v>
+        <v>28459.44</v>
       </c>
       <c r="E586">
-        <v>194656</v>
+        <v>186568.04</v>
       </c>
       <c r="F586">
-        <v>20.75</v>
+        <v>23.11</v>
       </c>
       <c r="G586">
-        <v>7950</v>
+        <v>6841.540458675898</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I586" t="inlineStr">
         <is>
@@ -22643,28 +22643,28 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C587">
-        <v>139556</v>
+        <v>164962.5</v>
       </c>
       <c r="D587">
-        <v>50337</v>
+        <v>29693.25</v>
       </c>
       <c r="E587">
-        <v>164676.08</v>
+        <v>194656</v>
       </c>
       <c r="F587">
-        <v>20.08</v>
+        <v>20.75</v>
       </c>
       <c r="G587">
-        <v>6950.000000000001</v>
+        <v>7950</v>
       </c>
       <c r="H587">
         <v>1</v>
@@ -22686,23 +22686,23 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C588">
-        <v>140094</v>
+        <v>139556</v>
       </c>
       <c r="D588">
-        <v>0</v>
+        <v>50337</v>
       </c>
       <c r="E588">
-        <v>165310.92</v>
+        <v>164676.08</v>
       </c>
       <c r="F588">
-        <v>16.29</v>
+        <v>20.08</v>
       </c>
       <c r="G588">
-        <v>8600</v>
+        <v>6950.000000000001</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -22719,35 +22719,35 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C589">
-        <v>88920</v>
+        <v>140094</v>
       </c>
       <c r="D589">
         <v>0</v>
       </c>
       <c r="E589">
-        <v>104925.6</v>
+        <v>165310.92</v>
       </c>
       <c r="F589">
-        <v>14.82</v>
+        <v>16.29</v>
       </c>
       <c r="G589">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="H589">
         <v>1</v>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J589" s="2">
@@ -22757,35 +22757,35 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C590">
-        <v>15965</v>
+        <v>88920</v>
       </c>
       <c r="D590">
-        <v>23664.6</v>
+        <v>0</v>
       </c>
       <c r="E590">
-        <v>18838.7</v>
+        <v>104925.6</v>
       </c>
       <c r="F590">
-        <v>10.3</v>
+        <v>14.82</v>
       </c>
       <c r="G590">
-        <v>1550</v>
+        <v>6000</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J590" s="2">
@@ -22795,35 +22795,35 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Mega TMT</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C591">
-        <v>62832</v>
+        <v>15965</v>
       </c>
       <c r="D591">
-        <v>0</v>
+        <v>23664.6</v>
       </c>
       <c r="E591">
-        <v>74141.75999999999</v>
+        <v>18838.7</v>
       </c>
       <c r="F591">
-        <v>9.52</v>
+        <v>10.3</v>
       </c>
       <c r="G591">
-        <v>6600</v>
+        <v>1550</v>
       </c>
       <c r="H591">
         <v>2</v>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J591" s="2">
@@ -22833,35 +22833,35 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Mega TMT</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C592">
-        <v>27300</v>
+        <v>62832</v>
       </c>
       <c r="D592">
-        <v>4914</v>
+        <v>0</v>
       </c>
       <c r="E592">
-        <v>32214</v>
+        <v>74141.75999999999</v>
       </c>
       <c r="F592">
-        <v>7.8</v>
+        <v>9.52</v>
       </c>
       <c r="G592">
-        <v>3500</v>
+        <v>6600</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J592" s="2">
@@ -22871,28 +22871,28 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>RDTMT Steels India Pvt Ltd</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C593">
-        <v>32067</v>
+        <v>27300</v>
       </c>
       <c r="D593">
-        <v>5772.06</v>
+        <v>4914</v>
       </c>
       <c r="E593">
-        <v>37839</v>
+        <v>32214</v>
       </c>
       <c r="F593">
-        <v>5.09</v>
+        <v>7.8</v>
       </c>
       <c r="G593">
-        <v>6300</v>
+        <v>3500</v>
       </c>
       <c r="H593">
         <v>1</v>
@@ -22909,28 +22909,28 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>RDTMT Steels India Pvt Ltd</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C594">
-        <v>7424</v>
+        <v>32067</v>
       </c>
       <c r="D594">
-        <v>1336.32</v>
+        <v>5772.06</v>
       </c>
       <c r="E594">
-        <v>8760</v>
+        <v>37839</v>
       </c>
       <c r="F594">
-        <v>4.64</v>
+        <v>5.09</v>
       </c>
       <c r="G594">
-        <v>1600</v>
+        <v>6300</v>
       </c>
       <c r="H594">
         <v>1</v>
@@ -22947,31 +22947,31 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C595">
-        <v>2292448</v>
+        <v>7424</v>
       </c>
       <c r="D595">
-        <v>1262305.74</v>
+        <v>1336.32</v>
       </c>
       <c r="E595">
-        <v>2705090.04</v>
+        <v>8760</v>
       </c>
       <c r="F595">
-        <v>322.88</v>
+        <v>4.64</v>
       </c>
       <c r="G595">
-        <v>7099.999999999999</v>
+        <v>1600</v>
       </c>
       <c r="H595">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I595" t="inlineStr">
         <is>
@@ -22979,41 +22979,41 @@
         </is>
       </c>
       <c r="J595" s="2">
-        <v>45047</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C596">
-        <v>1947876</v>
+        <v>2292448</v>
       </c>
       <c r="D596">
-        <v>1206971.16</v>
+        <v>1262305.74</v>
       </c>
       <c r="E596">
-        <v>2298493.44</v>
+        <v>2705090.04</v>
       </c>
       <c r="F596">
-        <v>231.89</v>
+        <v>322.88</v>
       </c>
       <c r="G596">
-        <v>8400</v>
+        <v>7099.999999999999</v>
       </c>
       <c r="H596">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J596" s="2">
@@ -23023,7 +23023,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -23032,26 +23032,26 @@
         </is>
       </c>
       <c r="C597">
-        <v>568997.5</v>
+        <v>1947876</v>
       </c>
       <c r="D597">
-        <v>76816.24000000001</v>
+        <v>1206971.16</v>
       </c>
       <c r="E597">
-        <v>620210</v>
+        <v>2298493.44</v>
       </c>
       <c r="F597">
-        <v>144.05</v>
+        <v>231.89</v>
       </c>
       <c r="G597">
-        <v>3950</v>
+        <v>8400</v>
       </c>
       <c r="H597">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J597" s="2">
@@ -23061,35 +23061,35 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C598">
-        <v>946275</v>
+        <v>568997.5</v>
       </c>
       <c r="D598">
-        <v>537697</v>
+        <v>76816.24000000001</v>
       </c>
       <c r="E598">
-        <v>1116605</v>
+        <v>620210</v>
       </c>
       <c r="F598">
-        <v>126.17</v>
+        <v>144.05</v>
       </c>
       <c r="G598">
-        <v>7500.000000000001</v>
+        <v>3950</v>
       </c>
       <c r="H598">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J598" s="2">
@@ -23099,7 +23099,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -23108,26 +23108,26 @@
         </is>
       </c>
       <c r="C599">
-        <v>885271</v>
+        <v>946275</v>
       </c>
       <c r="D599">
-        <v>704193.86</v>
+        <v>537697</v>
       </c>
       <c r="E599">
-        <v>1044619.78</v>
+        <v>1116605</v>
       </c>
       <c r="F599">
-        <v>121.27</v>
+        <v>126.17</v>
       </c>
       <c r="G599">
-        <v>7299.999999999999</v>
+        <v>7500.000000000001</v>
       </c>
       <c r="H599">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J599" s="2">
@@ -23137,35 +23137,35 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C600">
-        <v>741228</v>
+        <v>885271</v>
       </c>
       <c r="D600">
-        <v>474543.52</v>
+        <v>704193.86</v>
       </c>
       <c r="E600">
-        <v>874648.48</v>
+        <v>1044619.78</v>
       </c>
       <c r="F600">
-        <v>97.53</v>
+        <v>121.27</v>
       </c>
       <c r="G600">
-        <v>7600.000000000001</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H600">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J600" s="2">
@@ -23175,7 +23175,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -23184,26 +23184,26 @@
         </is>
       </c>
       <c r="C601">
-        <v>708474</v>
+        <v>741228</v>
       </c>
       <c r="D601">
-        <v>516593.64</v>
+        <v>474543.52</v>
       </c>
       <c r="E601">
-        <v>835999.36</v>
+        <v>874648.48</v>
       </c>
       <c r="F601">
-        <v>90.83</v>
+        <v>97.53</v>
       </c>
       <c r="G601">
-        <v>7799.999999999999</v>
+        <v>7600.000000000001</v>
       </c>
       <c r="H601">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J601" s="2">
@@ -23213,7 +23213,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -23222,26 +23222,26 @@
         </is>
       </c>
       <c r="C602">
-        <v>661072</v>
+        <v>708474</v>
       </c>
       <c r="D602">
-        <v>95430.34</v>
+        <v>516593.64</v>
       </c>
       <c r="E602">
-        <v>732940</v>
+        <v>835999.36</v>
       </c>
       <c r="F602">
-        <v>83.68000000000001</v>
+        <v>90.83</v>
       </c>
       <c r="G602">
-        <v>7900</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H602">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J602" s="2">
@@ -23251,31 +23251,31 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C603">
-        <v>488628</v>
+        <v>661072</v>
       </c>
       <c r="D603">
-        <v>87953.04000000001</v>
+        <v>95430.34</v>
       </c>
       <c r="E603">
-        <v>576581</v>
+        <v>732940</v>
       </c>
       <c r="F603">
-        <v>77.56</v>
+        <v>83.68000000000001</v>
       </c>
       <c r="G603">
-        <v>6300</v>
+        <v>7900</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I603" t="inlineStr">
         <is>
@@ -23289,31 +23289,31 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C604">
-        <v>548311.5</v>
+        <v>488628</v>
       </c>
       <c r="D604">
-        <v>420148.28</v>
+        <v>87953.04000000001</v>
       </c>
       <c r="E604">
-        <v>647006.6799999999</v>
+        <v>576581</v>
       </c>
       <c r="F604">
-        <v>68.97</v>
+        <v>77.56</v>
       </c>
       <c r="G604">
-        <v>7949.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H604">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr">
         <is>
@@ -23327,35 +23327,35 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C605">
-        <v>426384</v>
+        <v>189257.6</v>
       </c>
       <c r="D605">
-        <v>76749.12</v>
+        <v>6325.360000000001</v>
       </c>
       <c r="E605">
-        <v>503132.82</v>
+        <v>206878.112</v>
       </c>
       <c r="F605">
-        <v>67.67999999999999</v>
+        <v>69.58</v>
       </c>
       <c r="G605">
-        <v>6300.000000000001</v>
+        <v>2720</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J605" s="2">
@@ -23365,28 +23365,28 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C606">
-        <v>476106</v>
+        <v>548311.5</v>
       </c>
       <c r="D606">
-        <v>297364</v>
+        <v>420148.28</v>
       </c>
       <c r="E606">
-        <v>561805.04</v>
+        <v>647006.6799999999</v>
       </c>
       <c r="F606">
-        <v>65.22</v>
+        <v>68.97</v>
       </c>
       <c r="G606">
-        <v>7300.000000000001</v>
+        <v>7949.999999999999</v>
       </c>
       <c r="H606">
         <v>3</v>
@@ -23403,35 +23403,35 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C607">
-        <v>218046</v>
+        <v>426384</v>
       </c>
       <c r="D607">
-        <v>160445.72</v>
+        <v>76749.12</v>
       </c>
       <c r="E607">
-        <v>228948.3</v>
+        <v>503132.82</v>
       </c>
       <c r="F607">
-        <v>63.19</v>
+        <v>67.67999999999999</v>
       </c>
       <c r="G607">
-        <v>3450.640924196867</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H607">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J607" s="2">
@@ -23441,7 +23441,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -23450,19 +23450,19 @@
         </is>
       </c>
       <c r="C608">
-        <v>201955</v>
+        <v>476106</v>
       </c>
       <c r="D608">
-        <v>15689.7</v>
+        <v>297364</v>
       </c>
       <c r="E608">
-        <v>238307.2</v>
+        <v>561805.04</v>
       </c>
       <c r="F608">
-        <v>62.14</v>
+        <v>65.22</v>
       </c>
       <c r="G608">
-        <v>3250</v>
+        <v>7300.000000000001</v>
       </c>
       <c r="H608">
         <v>3</v>
@@ -23479,35 +23479,35 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C609">
-        <v>382292</v>
+        <v>218046</v>
       </c>
       <c r="D609">
-        <v>51330.14</v>
+        <v>160445.72</v>
       </c>
       <c r="E609">
-        <v>416140.28</v>
+        <v>228948.3</v>
       </c>
       <c r="F609">
-        <v>61.66</v>
+        <v>63.19</v>
       </c>
       <c r="G609">
-        <v>6200</v>
+        <v>3450.640924196867</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J609" s="2">
@@ -23517,7 +23517,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -23526,26 +23526,26 @@
         </is>
       </c>
       <c r="C610">
-        <v>386304</v>
+        <v>201955</v>
       </c>
       <c r="D610">
-        <v>227919</v>
+        <v>15689.7</v>
       </c>
       <c r="E610">
-        <v>455838.36</v>
+        <v>238307.2</v>
       </c>
       <c r="F610">
-        <v>60.36</v>
+        <v>62.14</v>
       </c>
       <c r="G610">
-        <v>6400</v>
+        <v>3250</v>
       </c>
       <c r="H610">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J610" s="2">
@@ -23555,35 +23555,35 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C611">
-        <v>553196</v>
+        <v>382292</v>
       </c>
       <c r="D611">
-        <v>553196.28</v>
+        <v>51330.14</v>
       </c>
       <c r="E611">
-        <v>652771.72</v>
+        <v>416140.28</v>
       </c>
       <c r="F611">
-        <v>60.13</v>
+        <v>61.66</v>
       </c>
       <c r="G611">
-        <v>9200</v>
+        <v>6200</v>
       </c>
       <c r="H611">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J611" s="2">
@@ -23593,35 +23593,35 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C612">
-        <v>473760</v>
+        <v>386304</v>
       </c>
       <c r="D612">
-        <v>473760.4</v>
+        <v>227919</v>
       </c>
       <c r="E612">
-        <v>559036.6</v>
+        <v>455838.36</v>
       </c>
       <c r="F612">
-        <v>59.22</v>
+        <v>60.36</v>
       </c>
       <c r="G612">
-        <v>7999.999999999999</v>
+        <v>6400</v>
       </c>
       <c r="H612">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J612" s="2">
@@ -23631,31 +23631,31 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C613">
-        <v>126507.2</v>
+        <v>553196</v>
       </c>
       <c r="D613">
-        <v>6325.360000000001</v>
+        <v>553196.28</v>
       </c>
       <c r="E613">
-        <v>132832.64</v>
+        <v>652771.72</v>
       </c>
       <c r="F613">
-        <v>46.51000000000001</v>
+        <v>60.13</v>
       </c>
       <c r="G613">
-        <v>2720</v>
+        <v>9200</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I613" t="inlineStr">
         <is>
@@ -23669,35 +23669,35 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C614">
-        <v>288864</v>
+        <v>473760</v>
       </c>
       <c r="D614">
-        <v>0</v>
+        <v>473760.4</v>
       </c>
       <c r="E614">
-        <v>340860</v>
+        <v>559036.6</v>
       </c>
       <c r="F614">
-        <v>40.12</v>
+        <v>59.22</v>
       </c>
       <c r="G614">
-        <v>7200.000000000001</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J614" s="2">
@@ -23707,35 +23707,35 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C615">
-        <v>57784</v>
+        <v>288864</v>
       </c>
       <c r="D615">
-        <v>30093.485</v>
+        <v>0</v>
       </c>
       <c r="E615">
-        <v>68184.63</v>
+        <v>340860</v>
       </c>
       <c r="F615">
-        <v>37.28</v>
+        <v>40.12</v>
       </c>
       <c r="G615">
-        <v>1550</v>
+        <v>7200.000000000001</v>
       </c>
       <c r="H615">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J615" s="2">
@@ -23745,35 +23745,35 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C616">
-        <v>226137</v>
+        <v>57784</v>
       </c>
       <c r="D616">
-        <v>40704.66</v>
+        <v>30093.485</v>
       </c>
       <c r="E616">
-        <v>266842</v>
+        <v>68184.63</v>
       </c>
       <c r="F616">
-        <v>35.06</v>
+        <v>37.28</v>
       </c>
       <c r="G616">
-        <v>6450</v>
+        <v>1550</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J616" s="2">
@@ -23783,35 +23783,35 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C617">
-        <v>277693.5</v>
+        <v>226137</v>
       </c>
       <c r="D617">
-        <v>0</v>
+        <v>40704.66</v>
       </c>
       <c r="E617">
-        <v>327678</v>
+        <v>266842</v>
       </c>
       <c r="F617">
-        <v>34.93</v>
+        <v>35.06</v>
       </c>
       <c r="G617">
-        <v>7950</v>
+        <v>6450</v>
       </c>
       <c r="H617">
         <v>1</v>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J617" s="2">
@@ -23821,31 +23821,31 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C618">
-        <v>110912</v>
+        <v>277693.5</v>
       </c>
       <c r="D618">
-        <v>16396.2</v>
+        <v>0</v>
       </c>
       <c r="E618">
-        <v>123740</v>
+        <v>327678</v>
       </c>
       <c r="F618">
-        <v>34.66</v>
+        <v>34.93</v>
       </c>
       <c r="G618">
-        <v>3200</v>
+        <v>7950</v>
       </c>
       <c r="H618">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I618" t="inlineStr">
         <is>
@@ -23859,31 +23859,31 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C619">
-        <v>221357.5</v>
+        <v>110912</v>
       </c>
       <c r="D619">
-        <v>221357.65</v>
+        <v>16396.2</v>
       </c>
       <c r="E619">
-        <v>261201.85</v>
+        <v>123740</v>
       </c>
       <c r="F619">
-        <v>31.85</v>
+        <v>34.66</v>
       </c>
       <c r="G619">
-        <v>6950</v>
+        <v>3200</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I619" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -23906,26 +23906,26 @@
         </is>
       </c>
       <c r="C620">
-        <v>192944</v>
+        <v>221357.5</v>
       </c>
       <c r="D620">
-        <v>34729.92</v>
+        <v>221357.65</v>
       </c>
       <c r="E620">
-        <v>227674</v>
+        <v>261201.85</v>
       </c>
       <c r="F620">
-        <v>31.12</v>
+        <v>31.85</v>
       </c>
       <c r="G620">
-        <v>6200</v>
+        <v>6950</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J620" s="2">
@@ -23935,7 +23935,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -23944,26 +23944,26 @@
         </is>
       </c>
       <c r="C621">
-        <v>193977</v>
+        <v>192944</v>
       </c>
       <c r="D621">
-        <v>193977.14</v>
+        <v>34729.92</v>
       </c>
       <c r="E621">
-        <v>228892.86</v>
+        <v>227674</v>
       </c>
       <c r="F621">
-        <v>30.79</v>
+        <v>31.12</v>
       </c>
       <c r="G621">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H621">
         <v>1</v>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J621" s="2">
@@ -23973,35 +23973,35 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C622">
-        <v>264708</v>
+        <v>193977</v>
       </c>
       <c r="D622">
-        <v>264708</v>
+        <v>193977.14</v>
       </c>
       <c r="E622">
-        <v>312355</v>
+        <v>228892.86</v>
       </c>
       <c r="F622">
-        <v>30.78</v>
+        <v>30.79</v>
       </c>
       <c r="G622">
-        <v>8600</v>
+        <v>6300</v>
       </c>
       <c r="H622">
         <v>1</v>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J622" s="2">
@@ -24011,28 +24011,28 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C623">
-        <v>98496</v>
+        <v>264708</v>
       </c>
       <c r="D623">
-        <v>17729.28</v>
+        <v>264708</v>
       </c>
       <c r="E623">
-        <v>116225.28</v>
+        <v>312355</v>
       </c>
       <c r="F623">
         <v>30.78</v>
       </c>
       <c r="G623">
-        <v>3200</v>
+        <v>8600</v>
       </c>
       <c r="H623">
         <v>1</v>
@@ -24049,31 +24049,31 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C624">
-        <v>192465</v>
+        <v>98496</v>
       </c>
       <c r="D624">
-        <v>192465.3</v>
+        <v>17729.28</v>
       </c>
       <c r="E624">
-        <v>227108.7</v>
+        <v>116225.28</v>
       </c>
       <c r="F624">
-        <v>30.55</v>
+        <v>30.78</v>
       </c>
       <c r="G624">
-        <v>6300</v>
+        <v>3200</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -24096,26 +24096,26 @@
         </is>
       </c>
       <c r="C625">
-        <v>194240</v>
+        <v>192465</v>
       </c>
       <c r="D625">
-        <v>0</v>
+        <v>192465.3</v>
       </c>
       <c r="E625">
-        <v>229203.2</v>
+        <v>227108.7</v>
       </c>
       <c r="F625">
-        <v>30.35</v>
+        <v>30.55</v>
       </c>
       <c r="G625">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J625" s="2">
@@ -24125,7 +24125,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -24134,26 +24134,26 @@
         </is>
       </c>
       <c r="C626">
-        <v>204322.5</v>
+        <v>194240</v>
       </c>
       <c r="D626">
-        <v>36778.05</v>
+        <v>0</v>
       </c>
       <c r="E626">
-        <v>241101</v>
+        <v>229203.2</v>
       </c>
       <c r="F626">
-        <v>30.27</v>
+        <v>30.35</v>
       </c>
       <c r="G626">
-        <v>6750</v>
+        <v>6400</v>
       </c>
       <c r="H626">
         <v>1</v>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J626" s="2">
@@ -24163,28 +24163,28 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C627">
-        <v>260064</v>
+        <v>204322.5</v>
       </c>
       <c r="D627">
-        <v>0</v>
+        <v>36778.05</v>
       </c>
       <c r="E627">
-        <v>306876</v>
+        <v>241101</v>
       </c>
       <c r="F627">
-        <v>30.24</v>
+        <v>30.27</v>
       </c>
       <c r="G627">
-        <v>8600</v>
+        <v>6750</v>
       </c>
       <c r="H627">
         <v>1</v>
@@ -24201,7 +24201,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Noble Tech Industries Pvt Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -24210,22 +24210,22 @@
         </is>
       </c>
       <c r="C628">
-        <v>271080</v>
+        <v>260064</v>
       </c>
       <c r="D628">
-        <v>271079.6</v>
+        <v>0</v>
       </c>
       <c r="E628">
-        <v>319874.4</v>
+        <v>306876</v>
       </c>
       <c r="F628">
-        <v>30.12</v>
+        <v>30.24</v>
       </c>
       <c r="G628">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628" t="inlineStr">
         <is>
@@ -24239,35 +24239,35 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Noble Tech Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C629">
-        <v>192768</v>
+        <v>271080</v>
       </c>
       <c r="D629">
-        <v>192767.76</v>
+        <v>271079.6</v>
       </c>
       <c r="E629">
-        <v>202406.4</v>
+        <v>319874.4</v>
       </c>
       <c r="F629">
         <v>30.12</v>
       </c>
       <c r="G629">
-        <v>6400</v>
+        <v>9000</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J629" s="2">
@@ -24277,35 +24277,35 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>AMBA FRP PRIVATE LIMITED</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C630">
-        <v>180000</v>
+        <v>192768</v>
       </c>
       <c r="D630">
-        <v>9000</v>
+        <v>192767.76</v>
       </c>
       <c r="E630">
-        <v>189000</v>
+        <v>202406.4</v>
       </c>
       <c r="F630">
-        <v>30</v>
+        <v>30.12</v>
       </c>
       <c r="G630">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J630" s="2">
@@ -24315,31 +24315,31 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Jai Hind Wire Rod Mills Private Limited</t>
+          <t>AMBA FRP PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C631">
-        <v>226328</v>
+        <v>180000</v>
       </c>
       <c r="D631">
-        <v>226328</v>
+        <v>9000</v>
       </c>
       <c r="E631">
-        <v>267067</v>
+        <v>189000</v>
       </c>
       <c r="F631">
-        <v>29.78</v>
+        <v>30</v>
       </c>
       <c r="G631">
-        <v>7600</v>
+        <v>6000</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Jai Hind Wire Rod Mills Private Limited</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -24362,26 +24362,26 @@
         </is>
       </c>
       <c r="C632">
-        <v>187047</v>
+        <v>226328</v>
       </c>
       <c r="D632">
-        <v>33668.46</v>
+        <v>226328</v>
       </c>
       <c r="E632">
-        <v>220715</v>
+        <v>267067</v>
       </c>
       <c r="F632">
-        <v>29.69</v>
+        <v>29.78</v>
       </c>
       <c r="G632">
-        <v>6300</v>
+        <v>7600</v>
       </c>
       <c r="H632">
         <v>1</v>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J632" s="2">
@@ -24391,7 +24391,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -24400,26 +24400,26 @@
         </is>
       </c>
       <c r="C633">
-        <v>235840</v>
+        <v>187047</v>
       </c>
       <c r="D633">
-        <v>235839.8</v>
+        <v>33668.46</v>
       </c>
       <c r="E633">
-        <v>278291.2</v>
+        <v>220715</v>
       </c>
       <c r="F633">
-        <v>29.48</v>
+        <v>29.69</v>
       </c>
       <c r="G633">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J633" s="2">
@@ -24429,35 +24429,35 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C634">
-        <v>111936</v>
+        <v>235840</v>
       </c>
       <c r="D634">
-        <v>20148.48</v>
+        <v>235839.8</v>
       </c>
       <c r="E634">
-        <v>132084</v>
+        <v>278291.2</v>
       </c>
       <c r="F634">
-        <v>25.44</v>
+        <v>29.48</v>
       </c>
       <c r="G634">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J634" s="2">
@@ -24467,35 +24467,35 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C635">
-        <v>191770</v>
+        <v>111936</v>
       </c>
       <c r="D635">
-        <v>34518.6</v>
+        <v>20148.48</v>
       </c>
       <c r="E635">
-        <v>226289</v>
+        <v>132084</v>
       </c>
       <c r="F635">
-        <v>25.4</v>
+        <v>25.44</v>
       </c>
       <c r="G635">
-        <v>7550</v>
+        <v>4400</v>
       </c>
       <c r="H635">
         <v>1</v>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J635" s="2">
@@ -24505,7 +24505,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -24514,26 +24514,26 @@
         </is>
       </c>
       <c r="C636">
-        <v>159138</v>
+        <v>191770</v>
       </c>
       <c r="D636">
-        <v>159138.16</v>
+        <v>34518.6</v>
       </c>
       <c r="E636">
-        <v>187782.84</v>
+        <v>226289</v>
       </c>
       <c r="F636">
-        <v>25.26</v>
+        <v>25.4</v>
       </c>
       <c r="G636">
-        <v>6300</v>
+        <v>7550</v>
       </c>
       <c r="H636">
         <v>1</v>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J636" s="2">
@@ -24543,7 +24543,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -24552,26 +24552,26 @@
         </is>
       </c>
       <c r="C637">
-        <v>176050</v>
+        <v>159138</v>
       </c>
       <c r="D637">
-        <v>31689</v>
+        <v>159138.16</v>
       </c>
       <c r="E637">
-        <v>207739</v>
+        <v>187782.84</v>
       </c>
       <c r="F637">
-        <v>25.15</v>
+        <v>25.26</v>
       </c>
       <c r="G637">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="H637">
         <v>1</v>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J637" s="2">
@@ -24581,35 +24581,35 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C638">
-        <v>65720</v>
+        <v>176050</v>
       </c>
       <c r="D638">
-        <v>0</v>
+        <v>31689</v>
       </c>
       <c r="E638">
-        <v>69006</v>
+        <v>207739</v>
       </c>
       <c r="F638">
-        <v>24.8</v>
+        <v>25.15</v>
       </c>
       <c r="G638">
-        <v>2650</v>
+        <v>7000</v>
       </c>
       <c r="H638">
         <v>1</v>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J638" s="2">
@@ -24619,31 +24619,31 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C639">
-        <v>38608</v>
+        <v>65720</v>
       </c>
       <c r="D639">
-        <v>4601.84</v>
+        <v>0</v>
       </c>
       <c r="E639">
-        <v>40863</v>
+        <v>69006</v>
       </c>
       <c r="F639">
-        <v>24.13</v>
+        <v>24.8</v>
       </c>
       <c r="G639">
-        <v>1600</v>
+        <v>2650</v>
       </c>
       <c r="H639">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I639" t="inlineStr">
         <is>
@@ -24657,35 +24657,35 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C640">
-        <v>129960</v>
+        <v>38608</v>
       </c>
       <c r="D640">
-        <v>0</v>
+        <v>4601.84</v>
       </c>
       <c r="E640">
-        <v>153352.8</v>
+        <v>40863</v>
       </c>
       <c r="F640">
-        <v>21.66</v>
+        <v>24.13</v>
       </c>
       <c r="G640">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J640" s="2">
@@ -24695,7 +24695,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -24704,26 +24704,26 @@
         </is>
       </c>
       <c r="C641">
-        <v>148400</v>
+        <v>129960</v>
       </c>
       <c r="D641">
-        <v>87290</v>
+        <v>0</v>
       </c>
       <c r="E641">
-        <v>175111.8</v>
+        <v>153352.8</v>
       </c>
       <c r="F641">
-        <v>21.2</v>
+        <v>21.66</v>
       </c>
       <c r="G641">
-        <v>6999.999999999999</v>
+        <v>6000</v>
       </c>
       <c r="H641">
         <v>2</v>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J641" s="2">
@@ -24733,7 +24733,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -24742,22 +24742,22 @@
         </is>
       </c>
       <c r="C642">
-        <v>135616</v>
+        <v>148400</v>
       </c>
       <c r="D642">
-        <v>18397.44</v>
+        <v>87290</v>
       </c>
       <c r="E642">
-        <v>160026.44</v>
+        <v>175111.8</v>
       </c>
       <c r="F642">
-        <v>21.19</v>
+        <v>21.2</v>
       </c>
       <c r="G642">
-        <v>6400</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H642">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr">
         <is>
@@ -24771,31 +24771,31 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C643">
-        <v>79760</v>
+        <v>135616</v>
       </c>
       <c r="D643">
-        <v>7178.4</v>
+        <v>18397.44</v>
       </c>
       <c r="E643">
-        <v>94116.79999999999</v>
+        <v>160026.44</v>
       </c>
       <c r="F643">
-        <v>19.94</v>
+        <v>21.19</v>
       </c>
       <c r="G643">
-        <v>4000</v>
+        <v>6400</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I643" t="inlineStr">
         <is>
@@ -24809,31 +24809,31 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C644">
-        <v>64415</v>
+        <v>79760</v>
       </c>
       <c r="D644">
-        <v>11594.72</v>
+        <v>7178.4</v>
       </c>
       <c r="E644">
-        <v>76009</v>
+        <v>94116.79999999999</v>
       </c>
       <c r="F644">
-        <v>19.82</v>
+        <v>19.94</v>
       </c>
       <c r="G644">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="H644">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I644" t="inlineStr">
         <is>
@@ -24847,35 +24847,35 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C645">
-        <v>100932</v>
+        <v>64415</v>
       </c>
       <c r="D645">
-        <v>0</v>
+        <v>11594.72</v>
       </c>
       <c r="E645">
-        <v>119099.76</v>
+        <v>76009</v>
       </c>
       <c r="F645">
-        <v>12.94</v>
+        <v>19.82</v>
       </c>
       <c r="G645">
-        <v>7800</v>
+        <v>3250</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J645" s="2">
@@ -24885,35 +24885,35 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C646">
-        <v>34102</v>
+        <v>100932</v>
       </c>
       <c r="D646">
-        <v>12151.8</v>
+        <v>0</v>
       </c>
       <c r="E646">
-        <v>40240.36</v>
+        <v>119099.76</v>
       </c>
       <c r="F646">
-        <v>10.03</v>
+        <v>12.94</v>
       </c>
       <c r="G646">
-        <v>3400</v>
+        <v>7800</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J646" s="2">
@@ -24923,31 +24923,31 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C647">
-        <v>64218</v>
+        <v>34102</v>
       </c>
       <c r="D647">
-        <v>11559.24</v>
+        <v>12151.8</v>
       </c>
       <c r="E647">
-        <v>75777</v>
+        <v>40240.36</v>
       </c>
       <c r="F647">
-        <v>9.73</v>
+        <v>10.03</v>
       </c>
       <c r="G647">
-        <v>6600</v>
+        <v>3400</v>
       </c>
       <c r="H647">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr">
         <is>
@@ -24961,31 +24961,31 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C648">
-        <v>15640</v>
+        <v>64218</v>
       </c>
       <c r="D648">
-        <v>13815</v>
+        <v>11559.24</v>
       </c>
       <c r="E648">
-        <v>18455.2</v>
+        <v>75777</v>
       </c>
       <c r="F648">
-        <v>4.6</v>
+        <v>9.73</v>
       </c>
       <c r="G648">
-        <v>3400</v>
+        <v>6600</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I648" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -25008,16 +25008,16 @@
         </is>
       </c>
       <c r="C649">
-        <v>6800</v>
+        <v>15640</v>
       </c>
       <c r="D649">
-        <v>6800</v>
+        <v>13815</v>
       </c>
       <c r="E649">
-        <v>7140</v>
+        <v>18455.2</v>
       </c>
       <c r="F649">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="G649">
         <v>3400</v>
@@ -25027,7 +25027,7 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J649" s="2">
@@ -25037,35 +25037,35 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C650">
-        <v>9920</v>
+        <v>6800</v>
       </c>
       <c r="D650">
-        <v>1785.6</v>
+        <v>6800</v>
       </c>
       <c r="E650">
-        <v>11706</v>
+        <v>7140</v>
       </c>
       <c r="F650">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="G650">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="H650">
         <v>1</v>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J650" s="2">
@@ -25075,73 +25075,73 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C651">
-        <v>2447424</v>
+        <v>9920</v>
       </c>
       <c r="D651">
-        <v>440536.32</v>
+        <v>1785.6</v>
       </c>
       <c r="E651">
-        <v>2887959</v>
+        <v>11706</v>
       </c>
       <c r="F651">
-        <v>291.36</v>
+        <v>1.24</v>
       </c>
       <c r="G651">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="H651">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J651" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C652">
-        <v>2051687</v>
+        <v>2447424</v>
       </c>
       <c r="D652">
-        <v>369303.66</v>
+        <v>440536.32</v>
       </c>
       <c r="E652">
-        <v>2420991</v>
+        <v>2887959</v>
       </c>
       <c r="F652">
-        <v>288.97</v>
+        <v>291.36</v>
       </c>
       <c r="G652">
-        <v>7100.000000000001</v>
+        <v>8400</v>
       </c>
       <c r="H652">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J652" s="2">
@@ -25151,7 +25151,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -25160,26 +25160,26 @@
         </is>
       </c>
       <c r="C653">
-        <v>1389000</v>
+        <v>2051687</v>
       </c>
       <c r="D653">
-        <v>250020</v>
+        <v>369303.66</v>
       </c>
       <c r="E653">
-        <v>1639022</v>
+        <v>2420991</v>
       </c>
       <c r="F653">
-        <v>185.2</v>
+        <v>288.97</v>
       </c>
       <c r="G653">
-        <v>7500</v>
+        <v>7100.000000000001</v>
       </c>
       <c r="H653">
         <v>10</v>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J653" s="2">
@@ -25189,7 +25189,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -25198,22 +25198,22 @@
         </is>
       </c>
       <c r="C654">
-        <v>1058402</v>
+        <v>1389000</v>
       </c>
       <c r="D654">
-        <v>190512.36</v>
+        <v>250020</v>
       </c>
       <c r="E654">
-        <v>1248913</v>
+        <v>1639022</v>
       </c>
       <c r="F654">
-        <v>170.71</v>
+        <v>185.2</v>
       </c>
       <c r="G654">
-        <v>6200</v>
+        <v>7500</v>
       </c>
       <c r="H654">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I654" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -25236,26 +25236,26 @@
         </is>
       </c>
       <c r="C655">
-        <v>1052478</v>
+        <v>1058402</v>
       </c>
       <c r="D655">
-        <v>189446.04</v>
+        <v>190512.36</v>
       </c>
       <c r="E655">
-        <v>1241924</v>
+        <v>1248913</v>
       </c>
       <c r="F655">
-        <v>167.06</v>
+        <v>170.71</v>
       </c>
       <c r="G655">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H655">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J655" s="2">
@@ -25265,31 +25265,31 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C656">
-        <v>591710</v>
+        <v>1052478</v>
       </c>
       <c r="D656">
-        <v>106507.86</v>
+        <v>189446.04</v>
       </c>
       <c r="E656">
-        <v>698219</v>
+        <v>1241924</v>
       </c>
       <c r="F656">
-        <v>149.8</v>
+        <v>167.06</v>
       </c>
       <c r="G656">
-        <v>3950</v>
+        <v>6300</v>
       </c>
       <c r="H656">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I656" t="inlineStr">
         <is>
@@ -25303,35 +25303,35 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C657">
-        <v>1076554.5</v>
+        <v>591710</v>
       </c>
       <c r="D657">
-        <v>193779.81</v>
+        <v>106507.86</v>
       </c>
       <c r="E657">
-        <v>1270335</v>
+        <v>698219</v>
       </c>
       <c r="F657">
-        <v>142.59</v>
+        <v>149.8</v>
       </c>
       <c r="G657">
-        <v>7550</v>
+        <v>3950</v>
       </c>
       <c r="H657">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J657" s="2">
@@ -25341,35 +25341,35 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C658">
-        <v>1116586</v>
+        <v>1076554.5</v>
       </c>
       <c r="D658">
-        <v>200985.48</v>
+        <v>193779.81</v>
       </c>
       <c r="E658">
-        <v>1317571</v>
+        <v>1270335</v>
       </c>
       <c r="F658">
-        <v>141.34</v>
+        <v>142.59</v>
       </c>
       <c r="G658">
-        <v>7900</v>
+        <v>7550</v>
       </c>
       <c r="H658">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J658" s="2">
@@ -25379,31 +25379,31 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C659">
-        <v>309010</v>
+        <v>1116586</v>
       </c>
       <c r="D659">
-        <v>55621.8</v>
+        <v>200985.48</v>
       </c>
       <c r="E659">
-        <v>364632</v>
+        <v>1317571</v>
       </c>
       <c r="F659">
-        <v>95.08</v>
+        <v>141.34</v>
       </c>
       <c r="G659">
-        <v>3250</v>
+        <v>7900</v>
       </c>
       <c r="H659">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I659" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -25426,22 +25426,22 @@
         </is>
       </c>
       <c r="C660">
-        <v>672987</v>
+        <v>309010</v>
       </c>
       <c r="D660">
-        <v>121137.66</v>
+        <v>55621.8</v>
       </c>
       <c r="E660">
-        <v>794125</v>
+        <v>364632</v>
       </c>
       <c r="F660">
-        <v>92.19</v>
+        <v>95.08</v>
       </c>
       <c r="G660">
-        <v>7300</v>
+        <v>3250</v>
       </c>
       <c r="H660">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I660" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -25464,26 +25464,26 @@
         </is>
       </c>
       <c r="C661">
-        <v>456900</v>
+        <v>672987</v>
       </c>
       <c r="D661">
-        <v>82242</v>
+        <v>121137.66</v>
       </c>
       <c r="E661">
-        <v>539142</v>
+        <v>794125</v>
       </c>
       <c r="F661">
-        <v>76.15000000000001</v>
+        <v>92.19</v>
       </c>
       <c r="G661">
-        <v>6000</v>
+        <v>7300</v>
       </c>
       <c r="H661">
         <v>4</v>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J661" s="2">
@@ -25493,35 +25493,35 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C662">
-        <v>627456</v>
+        <v>456900</v>
       </c>
       <c r="D662">
-        <v>112942.08</v>
+        <v>82242</v>
       </c>
       <c r="E662">
-        <v>740398</v>
+        <v>539142</v>
       </c>
       <c r="F662">
-        <v>72.96000000000001</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="G662">
-        <v>8599.999999999998</v>
+        <v>6000</v>
       </c>
       <c r="H662">
         <v>4</v>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J662" s="2">
@@ -25531,31 +25531,31 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C663">
-        <v>227904</v>
+        <v>627456</v>
       </c>
       <c r="D663">
-        <v>41022.72</v>
+        <v>112942.08</v>
       </c>
       <c r="E663">
-        <v>268928</v>
+        <v>740398</v>
       </c>
       <c r="F663">
-        <v>71.22</v>
+        <v>72.96000000000001</v>
       </c>
       <c r="G663">
-        <v>3200</v>
+        <v>8599.999999999998</v>
       </c>
       <c r="H663">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I663" t="inlineStr">
         <is>
@@ -25569,35 +25569,35 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C664">
-        <v>540072</v>
+        <v>227904</v>
       </c>
       <c r="D664">
-        <v>97212.96000000001</v>
+        <v>41022.72</v>
       </c>
       <c r="E664">
-        <v>637284</v>
+        <v>268928</v>
       </c>
       <c r="F664">
-        <v>69.24000000000001</v>
+        <v>71.22</v>
       </c>
       <c r="G664">
-        <v>7799.999999999999</v>
+        <v>3200</v>
       </c>
       <c r="H664">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J664" s="2">
@@ -25607,7 +25607,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -25616,26 +25616,26 @@
         </is>
       </c>
       <c r="C665">
-        <v>611616</v>
+        <v>540072</v>
       </c>
       <c r="D665">
-        <v>110090.88</v>
+        <v>97212.96000000001</v>
       </c>
       <c r="E665">
-        <v>721707</v>
+        <v>637284</v>
       </c>
       <c r="F665">
-        <v>66.48</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="G665">
-        <v>9200</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H665">
         <v>4</v>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J665" s="2">
@@ -25645,7 +25645,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -25654,22 +25654,22 @@
         </is>
       </c>
       <c r="C666">
-        <v>562096</v>
+        <v>611616</v>
       </c>
       <c r="D666">
-        <v>101177.28</v>
+        <v>110090.88</v>
       </c>
       <c r="E666">
-        <v>663273</v>
+        <v>721707</v>
       </c>
       <c r="F666">
-        <v>65.36</v>
+        <v>66.48</v>
       </c>
       <c r="G666">
-        <v>8600</v>
+        <v>9200</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I666" t="inlineStr">
         <is>
@@ -25683,28 +25683,28 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C667">
-        <v>390033</v>
+        <v>562096</v>
       </c>
       <c r="D667">
-        <v>70205.94</v>
+        <v>101177.28</v>
       </c>
       <c r="E667">
-        <v>460239</v>
+        <v>663273</v>
       </c>
       <c r="F667">
-        <v>61.91</v>
+        <v>65.36</v>
       </c>
       <c r="G667">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="H667">
         <v>2</v>
@@ -25721,7 +25721,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -25730,26 +25730,26 @@
         </is>
       </c>
       <c r="C668">
-        <v>365199</v>
+        <v>390033</v>
       </c>
       <c r="D668">
-        <v>65735.82000000001</v>
+        <v>70205.94</v>
       </c>
       <c r="E668">
-        <v>430935</v>
+        <v>460239</v>
       </c>
       <c r="F668">
-        <v>56.62</v>
+        <v>61.91</v>
       </c>
       <c r="G668">
-        <v>6449.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H668">
         <v>2</v>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J668" s="2">
@@ -25759,7 +25759,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -25768,26 +25768,26 @@
         </is>
       </c>
       <c r="C669">
-        <v>335012</v>
+        <v>365199</v>
       </c>
       <c r="D669">
-        <v>38166.48</v>
+        <v>65735.82000000001</v>
       </c>
       <c r="E669">
-        <v>395313.68</v>
+        <v>430935</v>
       </c>
       <c r="F669">
-        <v>54.92</v>
+        <v>56.62</v>
       </c>
       <c r="G669">
-        <v>6100</v>
+        <v>6449.999999999999</v>
       </c>
       <c r="H669">
         <v>2</v>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J669" s="2">
@@ -25797,35 +25797,35 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C670">
-        <v>238896.45</v>
+        <v>335012</v>
       </c>
       <c r="D670">
-        <v>11944.82</v>
+        <v>38166.48</v>
       </c>
       <c r="E670">
-        <v>250841</v>
+        <v>395313.68</v>
       </c>
       <c r="F670">
-        <v>54.73</v>
+        <v>54.92</v>
       </c>
       <c r="G670">
-        <v>4365</v>
+        <v>6100</v>
       </c>
       <c r="H670">
         <v>2</v>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J670" s="2">
@@ -25835,31 +25835,31 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C671">
-        <v>292096</v>
+        <v>238896.45</v>
       </c>
       <c r="D671">
-        <v>52577.28</v>
+        <v>11944.82</v>
       </c>
       <c r="E671">
-        <v>344673</v>
+        <v>250841</v>
       </c>
       <c r="F671">
-        <v>45.64</v>
+        <v>54.73</v>
       </c>
       <c r="G671">
-        <v>6400</v>
+        <v>4365</v>
       </c>
       <c r="H671">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -25882,26 +25882,26 @@
         </is>
       </c>
       <c r="C672">
-        <v>257920</v>
+        <v>292096</v>
       </c>
       <c r="D672">
-        <v>46425.6</v>
+        <v>52577.28</v>
       </c>
       <c r="E672">
-        <v>304345.24</v>
+        <v>344673</v>
       </c>
       <c r="F672">
-        <v>40.3</v>
+        <v>45.64</v>
       </c>
       <c r="G672">
         <v>6400</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J672" s="2">
@@ -25911,7 +25911,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -25920,19 +25920,19 @@
         </is>
       </c>
       <c r="C673">
-        <v>250518</v>
+        <v>257920</v>
       </c>
       <c r="D673">
-        <v>45093.24</v>
+        <v>46425.6</v>
       </c>
       <c r="E673">
-        <v>295611.74</v>
+        <v>304345.24</v>
       </c>
       <c r="F673">
-        <v>38.84</v>
+        <v>40.3</v>
       </c>
       <c r="G673">
-        <v>6449.999999999999</v>
+        <v>6400</v>
       </c>
       <c r="H673">
         <v>2</v>
@@ -25949,35 +25949,35 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C674">
-        <v>288240</v>
+        <v>250518</v>
       </c>
       <c r="D674">
-        <v>51883.2</v>
+        <v>45093.24</v>
       </c>
       <c r="E674">
-        <v>340123</v>
+        <v>295611.74</v>
       </c>
       <c r="F674">
-        <v>36.03</v>
+        <v>38.84</v>
       </c>
       <c r="G674">
-        <v>8000</v>
+        <v>6449.999999999999</v>
       </c>
       <c r="H674">
         <v>2</v>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J674" s="2">
@@ -25987,35 +25987,35 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C675">
-        <v>121142</v>
+        <v>288240</v>
       </c>
       <c r="D675">
-        <v>21805.56</v>
+        <v>51883.2</v>
       </c>
       <c r="E675">
-        <v>142948</v>
+        <v>340123</v>
       </c>
       <c r="F675">
-        <v>35.63</v>
+        <v>36.03</v>
       </c>
       <c r="G675">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J675" s="2">
@@ -26025,35 +26025,35 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C676">
-        <v>244918</v>
+        <v>121142</v>
       </c>
       <c r="D676">
-        <v>44085.24</v>
+        <v>21805.56</v>
       </c>
       <c r="E676">
-        <v>289003</v>
+        <v>142948</v>
       </c>
       <c r="F676">
-        <v>35.24</v>
+        <v>35.63</v>
       </c>
       <c r="G676">
-        <v>6950</v>
+        <v>3400</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J676" s="2">
@@ -26063,35 +26063,35 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C677">
-        <v>267368</v>
+        <v>244918</v>
       </c>
       <c r="D677">
-        <v>48126.24</v>
+        <v>44085.24</v>
       </c>
       <c r="E677">
-        <v>315494</v>
+        <v>289003</v>
       </c>
       <c r="F677">
-        <v>35.18</v>
+        <v>35.24</v>
       </c>
       <c r="G677">
-        <v>7600</v>
+        <v>6950</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J677" s="2">
@@ -26101,7 +26101,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -26110,26 +26110,26 @@
         </is>
       </c>
       <c r="C678">
-        <v>277920</v>
+        <v>267368</v>
       </c>
       <c r="D678">
-        <v>50025.6</v>
+        <v>48126.24</v>
       </c>
       <c r="E678">
-        <v>327946</v>
+        <v>315494</v>
       </c>
       <c r="F678">
-        <v>34.73999999999999</v>
+        <v>35.18</v>
       </c>
       <c r="G678">
-        <v>8000.000000000001</v>
+        <v>7600</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J678" s="2">
@@ -26139,7 +26139,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -26148,16 +26148,16 @@
         </is>
       </c>
       <c r="C679">
-        <v>276400</v>
+        <v>277920</v>
       </c>
       <c r="D679">
-        <v>49752</v>
+        <v>50025.6</v>
       </c>
       <c r="E679">
-        <v>326152</v>
+        <v>327946</v>
       </c>
       <c r="F679">
-        <v>34.55</v>
+        <v>34.73999999999999</v>
       </c>
       <c r="G679">
         <v>8000.000000000001</v>
@@ -26167,7 +26167,7 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J679" s="2">
@@ -26177,35 +26177,35 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C680">
-        <v>217350</v>
+        <v>276400</v>
       </c>
       <c r="D680">
-        <v>39123</v>
+        <v>49752</v>
       </c>
       <c r="E680">
-        <v>256473</v>
+        <v>326152</v>
       </c>
       <c r="F680">
-        <v>34.5</v>
+        <v>34.55</v>
       </c>
       <c r="G680">
-        <v>6300</v>
+        <v>8000.000000000001</v>
       </c>
       <c r="H680">
         <v>2</v>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J680" s="2">
@@ -26215,35 +26215,35 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C681">
-        <v>52142</v>
+        <v>217350</v>
       </c>
       <c r="D681">
-        <v>9385.58</v>
+        <v>39123</v>
       </c>
       <c r="E681">
-        <v>61528</v>
+        <v>256473</v>
       </c>
       <c r="F681">
-        <v>33.64</v>
+        <v>34.5</v>
       </c>
       <c r="G681">
-        <v>1550</v>
+        <v>6300</v>
       </c>
       <c r="H681">
         <v>2</v>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J681" s="2">
@@ -26253,31 +26253,31 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C682">
-        <v>256387.5</v>
+        <v>52142</v>
       </c>
       <c r="D682">
-        <v>46149.75</v>
+        <v>9385.58</v>
       </c>
       <c r="E682">
-        <v>302537</v>
+        <v>61528</v>
       </c>
       <c r="F682">
-        <v>32.25</v>
+        <v>33.64</v>
       </c>
       <c r="G682">
-        <v>7950</v>
+        <v>1550</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr">
         <is>
@@ -26291,28 +26291,28 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C683">
-        <v>102688</v>
+        <v>256387.5</v>
       </c>
       <c r="D683">
-        <v>18483.84</v>
+        <v>46149.75</v>
       </c>
       <c r="E683">
-        <v>121172</v>
+        <v>302537</v>
       </c>
       <c r="F683">
-        <v>32.09</v>
+        <v>32.25</v>
       </c>
       <c r="G683">
-        <v>3200</v>
+        <v>7950</v>
       </c>
       <c r="H683">
         <v>1</v>
@@ -26329,35 +26329,35 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C684">
-        <v>195741</v>
+        <v>102688</v>
       </c>
       <c r="D684">
-        <v>35233.38</v>
+        <v>18483.84</v>
       </c>
       <c r="E684">
-        <v>230974</v>
+        <v>121172</v>
       </c>
       <c r="F684">
-        <v>31.07</v>
+        <v>32.09</v>
       </c>
       <c r="G684">
-        <v>6300</v>
+        <v>3200</v>
       </c>
       <c r="H684">
         <v>1</v>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J684" s="2">
@@ -26367,7 +26367,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -26376,16 +26376,16 @@
         </is>
       </c>
       <c r="C685">
-        <v>194985</v>
+        <v>195741</v>
       </c>
       <c r="D685">
-        <v>35097.3</v>
+        <v>35233.38</v>
       </c>
       <c r="E685">
-        <v>230082</v>
+        <v>230974</v>
       </c>
       <c r="F685">
-        <v>30.95</v>
+        <v>31.07</v>
       </c>
       <c r="G685">
         <v>6300</v>
@@ -26405,7 +26405,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -26414,16 +26414,16 @@
         </is>
       </c>
       <c r="C686">
-        <v>194733</v>
+        <v>194985</v>
       </c>
       <c r="D686">
-        <v>35051.94</v>
+        <v>35097.3</v>
       </c>
       <c r="E686">
-        <v>229785</v>
+        <v>230082</v>
       </c>
       <c r="F686">
-        <v>30.91</v>
+        <v>30.95</v>
       </c>
       <c r="G686">
         <v>6300</v>
@@ -26443,7 +26443,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -26452,19 +26452,19 @@
         </is>
       </c>
       <c r="C687">
-        <v>197376</v>
+        <v>194733</v>
       </c>
       <c r="D687">
-        <v>35527.68</v>
+        <v>35051.94</v>
       </c>
       <c r="E687">
-        <v>232904</v>
+        <v>229785</v>
       </c>
       <c r="F687">
-        <v>30.84</v>
+        <v>30.91</v>
       </c>
       <c r="G687">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H687">
         <v>1</v>
@@ -26481,7 +26481,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -26490,19 +26490,19 @@
         </is>
       </c>
       <c r="C688">
-        <v>190827</v>
+        <v>197376</v>
       </c>
       <c r="D688">
-        <v>34348.86</v>
+        <v>35527.68</v>
       </c>
       <c r="E688">
-        <v>225176</v>
+        <v>232904</v>
       </c>
       <c r="F688">
-        <v>30.29</v>
+        <v>30.84</v>
       </c>
       <c r="G688">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H688">
         <v>1</v>
@@ -26519,35 +26519,35 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C689">
-        <v>147000</v>
+        <v>190827</v>
       </c>
       <c r="D689">
-        <v>7350</v>
+        <v>34348.86</v>
       </c>
       <c r="E689">
-        <v>154350</v>
+        <v>225176</v>
       </c>
       <c r="F689">
-        <v>30</v>
+        <v>30.29</v>
       </c>
       <c r="G689">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="H689">
         <v>1</v>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J689" s="2">
@@ -26557,35 +26557,35 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C690">
-        <v>181109</v>
+        <v>147000</v>
       </c>
       <c r="D690">
-        <v>32599.62</v>
+        <v>7350</v>
       </c>
       <c r="E690">
-        <v>213709</v>
+        <v>154350</v>
       </c>
       <c r="F690">
-        <v>29.69</v>
+        <v>30</v>
       </c>
       <c r="G690">
-        <v>6100</v>
+        <v>4900</v>
       </c>
       <c r="H690">
         <v>1</v>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J690" s="2">
@@ -26595,35 +26595,35 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C691">
-        <v>15581.5</v>
+        <v>181109</v>
       </c>
       <c r="D691">
-        <v>779.08</v>
+        <v>32599.62</v>
       </c>
       <c r="E691">
-        <v>16361</v>
+        <v>213709</v>
       </c>
       <c r="F691">
-        <v>28.33</v>
+        <v>29.69</v>
       </c>
       <c r="G691">
-        <v>550</v>
+        <v>6100</v>
       </c>
       <c r="H691">
         <v>1</v>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J691" s="2">
@@ -26633,35 +26633,35 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C692">
-        <v>157377.5</v>
+        <v>15581.5</v>
       </c>
       <c r="D692">
-        <v>28327.95</v>
+        <v>779.08</v>
       </c>
       <c r="E692">
-        <v>185705</v>
+        <v>16361</v>
       </c>
       <c r="F692">
-        <v>26.45</v>
+        <v>28.33</v>
       </c>
       <c r="G692">
-        <v>5950</v>
+        <v>550</v>
       </c>
       <c r="H692">
         <v>1</v>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J692" s="2">
@@ -26671,35 +26671,35 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C693">
-        <v>68000</v>
+        <v>157377.5</v>
       </c>
       <c r="D693">
-        <v>0</v>
+        <v>28327.95</v>
       </c>
       <c r="E693">
-        <v>71400</v>
+        <v>185705</v>
       </c>
       <c r="F693">
-        <v>25</v>
+        <v>26.45</v>
       </c>
       <c r="G693">
-        <v>2720</v>
+        <v>5950</v>
       </c>
       <c r="H693">
         <v>1</v>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J693" s="2">
@@ -26709,28 +26709,28 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C694">
-        <v>158920.5</v>
+        <v>68000</v>
       </c>
       <c r="D694">
-        <v>28605.69</v>
+        <v>0</v>
       </c>
       <c r="E694">
-        <v>187526</v>
+        <v>71400</v>
       </c>
       <c r="F694">
-        <v>19.99</v>
+        <v>25</v>
       </c>
       <c r="G694">
-        <v>7950.000000000001</v>
+        <v>2720</v>
       </c>
       <c r="H694">
         <v>1</v>
@@ -26747,28 +26747,28 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C695">
-        <v>74960</v>
+        <v>158920.5</v>
       </c>
       <c r="D695">
-        <v>3748</v>
+        <v>28605.69</v>
       </c>
       <c r="E695">
-        <v>78708</v>
+        <v>187526</v>
       </c>
       <c r="F695">
-        <v>18.74</v>
+        <v>19.99</v>
       </c>
       <c r="G695">
-        <v>4000</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H695">
         <v>1</v>
@@ -26785,28 +26785,28 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C696">
-        <v>53108</v>
+        <v>74960</v>
       </c>
       <c r="D696">
-        <v>9559.440000000001</v>
+        <v>3748</v>
       </c>
       <c r="E696">
-        <v>62667</v>
+        <v>78708</v>
       </c>
       <c r="F696">
-        <v>15.62</v>
+        <v>18.74</v>
       </c>
       <c r="G696">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="H696">
         <v>1</v>
@@ -26823,28 +26823,28 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C697">
-        <v>69720</v>
+        <v>53108</v>
       </c>
       <c r="D697">
-        <v>12549.6</v>
+        <v>9559.440000000001</v>
       </c>
       <c r="E697">
-        <v>82270</v>
+        <v>62667</v>
       </c>
       <c r="F697">
-        <v>9.960000000000001</v>
+        <v>15.62</v>
       </c>
       <c r="G697">
-        <v>6999.999999999999</v>
+        <v>3400</v>
       </c>
       <c r="H697">
         <v>1</v>
@@ -26861,35 +26861,35 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C698">
-        <v>29460</v>
+        <v>69720</v>
       </c>
       <c r="D698">
-        <v>27438.48</v>
+        <v>12549.6</v>
       </c>
       <c r="E698">
-        <v>30933</v>
+        <v>82270</v>
       </c>
       <c r="F698">
-        <v>9.82</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="G698">
-        <v>3000</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H698">
         <v>1</v>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J698" s="2">
@@ -26899,7 +26899,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -26908,26 +26908,26 @@
         </is>
       </c>
       <c r="C699">
-        <v>7296</v>
+        <v>29460</v>
       </c>
       <c r="D699">
-        <v>1313.28</v>
+        <v>27438.48</v>
       </c>
       <c r="E699">
-        <v>8609</v>
+        <v>30933</v>
       </c>
       <c r="F699">
-        <v>4.56</v>
+        <v>9.82</v>
       </c>
       <c r="G699">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="H699">
         <v>1</v>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J699" s="2">
@@ -26937,38 +26937,76 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C700">
+        <v>7296</v>
+      </c>
+      <c r="D700">
+        <v>1313.28</v>
+      </c>
+      <c r="E700">
+        <v>8609</v>
+      </c>
+      <c r="F700">
+        <v>4.56</v>
+      </c>
+      <c r="G700">
+        <v>1600</v>
+      </c>
+      <c r="H700">
+        <v>1</v>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J700" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
           <t>HINDUSTAN AERONAUTICS LTD</t>
         </is>
       </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C700">
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C701">
         <v>17710</v>
       </c>
-      <c r="D700">
+      <c r="D701">
         <v>885.5</v>
       </c>
-      <c r="E700">
+      <c r="E701">
         <v>18596</v>
       </c>
-      <c r="F700">
+      <c r="F701">
         <v>2.53</v>
       </c>
-      <c r="G700">
+      <c r="G701">
         <v>7000.000000000001</v>
       </c>
-      <c r="H700">
-        <v>1</v>
-      </c>
-      <c r="I700" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J700" s="2">
+      <c r="H701">
+        <v>1</v>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J701" s="2">
         <v>45078</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -21199,7 +21199,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J701"/>
+  <dimension ref="A1:J734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18995,7 +18995,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -19004,22 +19004,22 @@
         </is>
       </c>
       <c r="C491">
-        <v>143724.8</v>
+        <v>208560</v>
       </c>
       <c r="D491">
-        <v>0</v>
+        <v>10428</v>
       </c>
       <c r="E491">
-        <v>150911.04</v>
+        <v>218988</v>
       </c>
       <c r="F491">
-        <v>52.84</v>
+        <v>52.14</v>
       </c>
       <c r="G491">
-        <v>2720</v>
+        <v>4000</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I491" t="inlineStr">
         <is>
@@ -19033,31 +19033,31 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C492">
-        <v>208560</v>
+        <v>163215</v>
       </c>
       <c r="D492">
-        <v>10428</v>
+        <v>29378.71</v>
       </c>
       <c r="E492">
-        <v>218988</v>
+        <v>192593.75</v>
       </c>
       <c r="F492">
-        <v>52.14</v>
+        <v>50.22</v>
       </c>
       <c r="G492">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="H492">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -19080,22 +19080,22 @@
         </is>
       </c>
       <c r="C493">
-        <v>163215</v>
+        <v>292730</v>
       </c>
       <c r="D493">
-        <v>29378.71</v>
+        <v>52691.4</v>
       </c>
       <c r="E493">
-        <v>192593.75</v>
+        <v>345421</v>
       </c>
       <c r="F493">
-        <v>50.22</v>
+        <v>40.1</v>
       </c>
       <c r="G493">
-        <v>3250</v>
+        <v>7300</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -19118,22 +19118,22 @@
         </is>
       </c>
       <c r="C494">
-        <v>292730</v>
+        <v>268440</v>
       </c>
       <c r="D494">
-        <v>52691.4</v>
+        <v>48319.2</v>
       </c>
       <c r="E494">
-        <v>345421</v>
+        <v>316759</v>
       </c>
       <c r="F494">
-        <v>40.1</v>
+        <v>39.42</v>
       </c>
       <c r="G494">
-        <v>7300</v>
+        <v>6809.741248097413</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I494" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -19156,22 +19156,22 @@
         </is>
       </c>
       <c r="C495">
-        <v>268440</v>
+        <v>234108</v>
       </c>
       <c r="D495">
-        <v>48319.2</v>
+        <v>42139.44</v>
       </c>
       <c r="E495">
-        <v>316759</v>
+        <v>276247</v>
       </c>
       <c r="F495">
-        <v>39.42</v>
+        <v>37.16</v>
       </c>
       <c r="G495">
-        <v>6809.741248097413</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H495">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I495" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Minar Alloys And Forging Pvt Ltd</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -19194,26 +19194,26 @@
         </is>
       </c>
       <c r="C496">
-        <v>234108</v>
+        <v>226238</v>
       </c>
       <c r="D496">
-        <v>42139.44</v>
+        <v>40722.84</v>
       </c>
       <c r="E496">
-        <v>276247</v>
+        <v>266960</v>
       </c>
       <c r="F496">
-        <v>37.16</v>
+        <v>36.48999999999999</v>
       </c>
       <c r="G496">
-        <v>6300.000000000001</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J496" s="2">
@@ -19223,7 +19223,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Minar Alloys And Forging Pvt Ltd</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -19232,26 +19232,26 @@
         </is>
       </c>
       <c r="C497">
-        <v>226238</v>
+        <v>231619.5</v>
       </c>
       <c r="D497">
-        <v>40722.84</v>
+        <v>41691.51</v>
       </c>
       <c r="E497">
-        <v>266960</v>
+        <v>273311</v>
       </c>
       <c r="F497">
-        <v>36.48999999999999</v>
+        <v>35.91</v>
       </c>
       <c r="G497">
-        <v>6200.000000000001</v>
+        <v>6450.000000000001</v>
       </c>
       <c r="H497">
         <v>2</v>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J497" s="2">
@@ -19261,35 +19261,35 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C498">
-        <v>231619.5</v>
+        <v>324760</v>
       </c>
       <c r="D498">
-        <v>41691.51</v>
+        <v>58456.8</v>
       </c>
       <c r="E498">
-        <v>273311</v>
+        <v>383217</v>
       </c>
       <c r="F498">
-        <v>35.91</v>
+        <v>35.3</v>
       </c>
       <c r="G498">
-        <v>6450.000000000001</v>
+        <v>9200</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J498" s="2">
@@ -19299,35 +19299,35 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C499">
-        <v>324760</v>
+        <v>225943.5</v>
       </c>
       <c r="D499">
-        <v>58456.8</v>
+        <v>40669.83</v>
       </c>
       <c r="E499">
-        <v>383217</v>
+        <v>266613</v>
       </c>
       <c r="F499">
-        <v>35.3</v>
+        <v>35.03</v>
       </c>
       <c r="G499">
-        <v>9200</v>
+        <v>6450</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J499" s="2">
@@ -19337,7 +19337,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Dindigul Steel Rolling Mills Pvt Ltd</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -19346,26 +19346,26 @@
         </is>
       </c>
       <c r="C500">
-        <v>225943.5</v>
+        <v>194040</v>
       </c>
       <c r="D500">
-        <v>40669.83</v>
+        <v>34927.2</v>
       </c>
       <c r="E500">
-        <v>266613</v>
+        <v>228967.2</v>
       </c>
       <c r="F500">
-        <v>35.03</v>
+        <v>30.8</v>
       </c>
       <c r="G500">
-        <v>6450</v>
+        <v>6300</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J500" s="2">
@@ -19375,7 +19375,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Dindigul Steel Rolling Mills Pvt Ltd</t>
+          <t>SFR STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -19384,16 +19384,16 @@
         </is>
       </c>
       <c r="C501">
-        <v>194040</v>
+        <v>193284</v>
       </c>
       <c r="D501">
-        <v>34927.2</v>
+        <v>34791.12</v>
       </c>
       <c r="E501">
-        <v>228967.2</v>
+        <v>228075.12</v>
       </c>
       <c r="F501">
-        <v>30.8</v>
+        <v>30.68</v>
       </c>
       <c r="G501">
         <v>6300</v>
@@ -19413,7 +19413,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SFR STEELS PRIVATE LIMITED</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -19422,19 +19422,19 @@
         </is>
       </c>
       <c r="C502">
-        <v>193284</v>
+        <v>194880</v>
       </c>
       <c r="D502">
-        <v>34791.12</v>
+        <v>35078.4</v>
       </c>
       <c r="E502">
-        <v>228075.12</v>
+        <v>229958</v>
       </c>
       <c r="F502">
-        <v>30.68</v>
+        <v>30.45</v>
       </c>
       <c r="G502">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H502">
         <v>1</v>
@@ -19451,7 +19451,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Minar Castings Pvt Ltd</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -19460,26 +19460,26 @@
         </is>
       </c>
       <c r="C503">
-        <v>194880</v>
+        <v>188604</v>
       </c>
       <c r="D503">
-        <v>35078.4</v>
+        <v>33948.72</v>
       </c>
       <c r="E503">
-        <v>229958</v>
+        <v>222553</v>
       </c>
       <c r="F503">
-        <v>30.45</v>
+        <v>30.42</v>
       </c>
       <c r="G503">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J503" s="2">
@@ -19489,7 +19489,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Minar Castings Pvt Ltd</t>
+          <t>South Malabar Steels &amp; Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -19498,26 +19498,26 @@
         </is>
       </c>
       <c r="C504">
-        <v>188604</v>
+        <v>191268</v>
       </c>
       <c r="D504">
-        <v>33948.72</v>
+        <v>34428.24</v>
       </c>
       <c r="E504">
-        <v>222553</v>
+        <v>225696</v>
       </c>
       <c r="F504">
-        <v>30.42</v>
+        <v>30.36</v>
       </c>
       <c r="G504">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J504" s="2">
@@ -19527,7 +19527,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>South Malabar Steels &amp; Alloys Pvt Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -19536,16 +19536,16 @@
         </is>
       </c>
       <c r="C505">
-        <v>191268</v>
+        <v>190512</v>
       </c>
       <c r="D505">
-        <v>34428.24</v>
+        <v>34292.16</v>
       </c>
       <c r="E505">
-        <v>225696</v>
+        <v>224804</v>
       </c>
       <c r="F505">
-        <v>30.36</v>
+        <v>30.24</v>
       </c>
       <c r="G505">
         <v>6300</v>
@@ -19565,7 +19565,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -19574,26 +19574,26 @@
         </is>
       </c>
       <c r="C506">
-        <v>190512</v>
+        <v>216216</v>
       </c>
       <c r="D506">
-        <v>34292.16</v>
+        <v>38918.88</v>
       </c>
       <c r="E506">
-        <v>224804</v>
+        <v>255135</v>
       </c>
       <c r="F506">
-        <v>30.24</v>
+        <v>30.03</v>
       </c>
       <c r="G506">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J506" s="2">
@@ -19603,7 +19603,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>PENINSULA INDUSTRY</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -19612,26 +19612,26 @@
         </is>
       </c>
       <c r="C507">
-        <v>216216</v>
+        <v>181560.5</v>
       </c>
       <c r="D507">
-        <v>38918.88</v>
+        <v>32680.89</v>
       </c>
       <c r="E507">
-        <v>255135</v>
+        <v>214241</v>
       </c>
       <c r="F507">
-        <v>30.03</v>
+        <v>30.01</v>
       </c>
       <c r="G507">
-        <v>7200</v>
+        <v>6050</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J507" s="2">
@@ -19641,7 +19641,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>PENINSULA INDUSTRY</t>
+          <t>SUMANGALA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -19650,19 +19650,19 @@
         </is>
       </c>
       <c r="C508">
-        <v>181560.5</v>
+        <v>241580.5</v>
       </c>
       <c r="D508">
-        <v>32680.89</v>
+        <v>43484.49</v>
       </c>
       <c r="E508">
-        <v>214241</v>
+        <v>285064.99</v>
       </c>
       <c r="F508">
         <v>30.01</v>
       </c>
       <c r="G508">
-        <v>6050</v>
+        <v>8050</v>
       </c>
       <c r="H508">
         <v>1</v>
@@ -19679,7 +19679,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SUMANGALA STEEL PRIVATE LIMITED</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -19688,26 +19688,26 @@
         </is>
       </c>
       <c r="C509">
-        <v>241580.5</v>
+        <v>185938</v>
       </c>
       <c r="D509">
-        <v>43484.49</v>
+        <v>219406.84</v>
       </c>
       <c r="E509">
-        <v>285064.99</v>
+        <v>219406.84</v>
       </c>
       <c r="F509">
-        <v>30.01</v>
+        <v>29.99</v>
       </c>
       <c r="G509">
-        <v>8050</v>
+        <v>6200</v>
       </c>
       <c r="H509">
         <v>1</v>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J509" s="2">
@@ -19717,7 +19717,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -19726,26 +19726,26 @@
         </is>
       </c>
       <c r="C510">
-        <v>185938</v>
+        <v>179880</v>
       </c>
       <c r="D510">
-        <v>219406.84</v>
+        <v>0</v>
       </c>
       <c r="E510">
-        <v>219406.84</v>
+        <v>212258.4</v>
       </c>
       <c r="F510">
-        <v>29.99</v>
+        <v>29.98</v>
       </c>
       <c r="G510">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J510" s="2">
@@ -19755,35 +19755,35 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C511">
-        <v>179880</v>
+        <v>257312</v>
       </c>
       <c r="D511">
-        <v>0</v>
+        <v>46316.16</v>
       </c>
       <c r="E511">
-        <v>212258.4</v>
+        <v>303628</v>
       </c>
       <c r="F511">
-        <v>29.98</v>
+        <v>29.92</v>
       </c>
       <c r="G511">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J511" s="2">
@@ -19793,35 +19793,35 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C512">
-        <v>257312</v>
+        <v>179738</v>
       </c>
       <c r="D512">
-        <v>46316.16</v>
+        <v>35212.59</v>
       </c>
       <c r="E512">
-        <v>303628</v>
+        <v>212090.84</v>
       </c>
       <c r="F512">
-        <v>29.92</v>
+        <v>28.99</v>
       </c>
       <c r="G512">
-        <v>8600</v>
+        <v>6200</v>
       </c>
       <c r="H512">
         <v>1</v>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J512" s="2">
@@ -19831,35 +19831,35 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C513">
-        <v>179738</v>
+        <v>44066.5</v>
       </c>
       <c r="D513">
-        <v>35212.59</v>
+        <v>7931.98</v>
       </c>
       <c r="E513">
-        <v>212090.84</v>
+        <v>51998.04</v>
       </c>
       <c r="F513">
-        <v>28.99</v>
+        <v>28.43</v>
       </c>
       <c r="G513">
-        <v>6200</v>
+        <v>1550</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J513" s="2">
@@ -19869,35 +19869,35 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C514">
-        <v>44066.5</v>
+        <v>98100</v>
       </c>
       <c r="D514">
-        <v>7931.98</v>
+        <v>4905</v>
       </c>
       <c r="E514">
-        <v>51998.04</v>
+        <v>103005</v>
       </c>
       <c r="F514">
-        <v>28.43</v>
+        <v>27.25</v>
       </c>
       <c r="G514">
-        <v>1550</v>
+        <v>3600</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J514" s="2">
@@ -19907,35 +19907,35 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
+          <t>Noble Tech Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C515">
-        <v>98100</v>
+        <v>213284.5</v>
       </c>
       <c r="D515">
-        <v>4905</v>
+        <v>38391.21</v>
       </c>
       <c r="E515">
-        <v>103005</v>
+        <v>251676</v>
       </c>
       <c r="F515">
-        <v>27.25</v>
+        <v>27.17</v>
       </c>
       <c r="G515">
-        <v>3600</v>
+        <v>7849.999999999999</v>
       </c>
       <c r="H515">
         <v>1</v>
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J515" s="2">
@@ -19945,35 +19945,35 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Noble Tech Industries Pvt Ltd</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C516">
-        <v>213284.5</v>
+        <v>5368</v>
       </c>
       <c r="D516">
-        <v>38391.21</v>
+        <v>268.4</v>
       </c>
       <c r="E516">
-        <v>251676</v>
+        <v>5637</v>
       </c>
       <c r="F516">
-        <v>27.17</v>
+        <v>26.84</v>
       </c>
       <c r="G516">
-        <v>7849.999999999999</v>
+        <v>200</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J516" s="2">
@@ -19983,35 +19983,35 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>SRI VARAHI CHEMICALS</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C517">
-        <v>5368</v>
+        <v>79269.5</v>
       </c>
       <c r="D517">
-        <v>268.4</v>
+        <v>3963.48</v>
       </c>
       <c r="E517">
-        <v>5637</v>
+        <v>83233</v>
       </c>
       <c r="F517">
-        <v>26.84</v>
+        <v>25.99</v>
       </c>
       <c r="G517">
-        <v>200</v>
+        <v>3050</v>
       </c>
       <c r="H517">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J517" s="2">
@@ -20021,35 +20021,35 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SRI VARAHI CHEMICALS</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C518">
-        <v>79269.5</v>
+        <v>169230</v>
       </c>
       <c r="D518">
-        <v>3963.48</v>
+        <v>30461.4</v>
       </c>
       <c r="E518">
-        <v>83233</v>
+        <v>199692</v>
       </c>
       <c r="F518">
-        <v>25.99</v>
+        <v>25.64</v>
       </c>
       <c r="G518">
-        <v>3050</v>
+        <v>6600.234009360374</v>
       </c>
       <c r="H518">
         <v>1</v>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J518" s="2">
@@ -20059,35 +20059,35 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C519">
-        <v>169230</v>
+        <v>110521.8</v>
       </c>
       <c r="D519">
-        <v>30461.4</v>
+        <v>5526.09</v>
       </c>
       <c r="E519">
-        <v>199692</v>
+        <v>116048</v>
       </c>
       <c r="F519">
-        <v>25.64</v>
+        <v>25.32</v>
       </c>
       <c r="G519">
-        <v>6600.234009360374</v>
+        <v>4365</v>
       </c>
       <c r="H519">
         <v>1</v>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J519" s="2">
@@ -20097,35 +20097,35 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C520">
-        <v>110521.8</v>
+        <v>158697</v>
       </c>
       <c r="D520">
-        <v>5526.09</v>
+        <v>28565.46</v>
       </c>
       <c r="E520">
-        <v>116048</v>
+        <v>187262</v>
       </c>
       <c r="F520">
-        <v>25.32</v>
+        <v>25.19</v>
       </c>
       <c r="G520">
-        <v>4365</v>
+        <v>6300</v>
       </c>
       <c r="H520">
         <v>1</v>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J520" s="2">
@@ -20135,7 +20135,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -20144,16 +20144,16 @@
         </is>
       </c>
       <c r="C521">
-        <v>158697</v>
+        <v>158067</v>
       </c>
       <c r="D521">
-        <v>28565.46</v>
+        <v>28452.06</v>
       </c>
       <c r="E521">
-        <v>187262</v>
+        <v>186519</v>
       </c>
       <c r="F521">
-        <v>25.19</v>
+        <v>25.09</v>
       </c>
       <c r="G521">
         <v>6300</v>
@@ -20173,7 +20173,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Karnataka Silicates</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -20182,26 +20182,26 @@
         </is>
       </c>
       <c r="C522">
-        <v>158067</v>
+        <v>150240</v>
       </c>
       <c r="D522">
-        <v>28452.06</v>
+        <v>27043.2</v>
       </c>
       <c r="E522">
-        <v>186519</v>
+        <v>177283</v>
       </c>
       <c r="F522">
-        <v>25.09</v>
+        <v>25.04</v>
       </c>
       <c r="G522">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H522">
         <v>1</v>
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J522" s="2">
@@ -20211,7 +20211,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Karnataka Silicates</t>
+          <t>ILC IRON &amp; STEEL PVT.LTD</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -20220,26 +20220,26 @@
         </is>
       </c>
       <c r="C523">
-        <v>150240</v>
+        <v>125674</v>
       </c>
       <c r="D523">
-        <v>27043.2</v>
+        <v>0</v>
       </c>
       <c r="E523">
-        <v>177283</v>
+        <v>148295.32</v>
       </c>
       <c r="F523">
-        <v>25.04</v>
+        <v>20.27</v>
       </c>
       <c r="G523">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H523">
         <v>1</v>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J523" s="2">
@@ -20254,23 +20254,23 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C524">
-        <v>125674</v>
+        <v>155620</v>
       </c>
       <c r="D524">
-        <v>0</v>
+        <v>50632.92</v>
       </c>
       <c r="E524">
-        <v>148295.32</v>
+        <v>183631.6</v>
       </c>
       <c r="F524">
-        <v>20.27</v>
+        <v>20.08</v>
       </c>
       <c r="G524">
-        <v>6200</v>
+        <v>7750.000000000001</v>
       </c>
       <c r="H524">
         <v>1</v>
@@ -20287,7 +20287,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PVT.LTD</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -20296,26 +20296,26 @@
         </is>
       </c>
       <c r="C525">
-        <v>155620</v>
+        <v>159556.5</v>
       </c>
       <c r="D525">
-        <v>50632.92</v>
+        <v>28720.17</v>
       </c>
       <c r="E525">
-        <v>183631.6</v>
+        <v>188277</v>
       </c>
       <c r="F525">
-        <v>20.08</v>
+        <v>20.07</v>
       </c>
       <c r="G525">
-        <v>7750.000000000001</v>
+        <v>7950</v>
       </c>
       <c r="H525">
         <v>1</v>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J525" s="2">
@@ -20325,35 +20325,35 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C526">
-        <v>159556.5</v>
+        <v>54219</v>
       </c>
       <c r="D526">
-        <v>28720.17</v>
+        <v>9759.42</v>
       </c>
       <c r="E526">
-        <v>188277</v>
+        <v>63978</v>
       </c>
       <c r="F526">
-        <v>20.07</v>
+        <v>16.43</v>
       </c>
       <c r="G526">
-        <v>7950</v>
+        <v>3300</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J526" s="2">
@@ -20363,35 +20363,35 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C527">
-        <v>54219</v>
+        <v>93600</v>
       </c>
       <c r="D527">
-        <v>9759.42</v>
+        <v>16848</v>
       </c>
       <c r="E527">
-        <v>63978</v>
+        <v>110448</v>
       </c>
       <c r="F527">
-        <v>16.43</v>
+        <v>12</v>
       </c>
       <c r="G527">
-        <v>3300</v>
+        <v>7800</v>
       </c>
       <c r="H527">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J527" s="2">
@@ -20401,35 +20401,35 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C528">
-        <v>93600</v>
+        <v>50052</v>
       </c>
       <c r="D528">
-        <v>16848</v>
+        <v>9009.360000000001</v>
       </c>
       <c r="E528">
-        <v>110448</v>
+        <v>59061</v>
       </c>
       <c r="F528">
-        <v>12</v>
+        <v>7.76</v>
       </c>
       <c r="G528">
-        <v>7800</v>
+        <v>6450</v>
       </c>
       <c r="H528">
         <v>1</v>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J528" s="2">
@@ -20439,35 +20439,35 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C529">
-        <v>50052</v>
+        <v>16966</v>
       </c>
       <c r="D529">
-        <v>9009.360000000001</v>
+        <v>3053.88</v>
       </c>
       <c r="E529">
-        <v>59061</v>
+        <v>20020</v>
       </c>
       <c r="F529">
-        <v>7.76</v>
+        <v>4.99</v>
       </c>
       <c r="G529">
-        <v>6450</v>
+        <v>3400</v>
       </c>
       <c r="H529">
         <v>1</v>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J529" s="2">
@@ -20477,28 +20477,28 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C530">
-        <v>16966</v>
+        <v>31000</v>
       </c>
       <c r="D530">
-        <v>3053.88</v>
+        <v>5580</v>
       </c>
       <c r="E530">
-        <v>20020</v>
+        <v>36580</v>
       </c>
       <c r="F530">
-        <v>4.99</v>
+        <v>4.96</v>
       </c>
       <c r="G530">
-        <v>3400</v>
+        <v>6250</v>
       </c>
       <c r="H530">
         <v>1</v>
@@ -20515,28 +20515,28 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C531">
-        <v>31000</v>
+        <v>7520</v>
       </c>
       <c r="D531">
-        <v>5580</v>
+        <v>0</v>
       </c>
       <c r="E531">
-        <v>36580</v>
+        <v>8873.6</v>
       </c>
       <c r="F531">
-        <v>4.96</v>
+        <v>4.7</v>
       </c>
       <c r="G531">
-        <v>6250</v>
+        <v>1600</v>
       </c>
       <c r="H531">
         <v>1</v>
@@ -20553,35 +20553,35 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C532">
-        <v>7520</v>
+        <v>25730</v>
       </c>
       <c r="D532">
-        <v>0</v>
+        <v>30361.4</v>
       </c>
       <c r="E532">
-        <v>8873.6</v>
+        <v>30361.4</v>
       </c>
       <c r="F532">
-        <v>4.7</v>
+        <v>3.32</v>
       </c>
       <c r="G532">
-        <v>1600</v>
+        <v>7750</v>
       </c>
       <c r="H532">
         <v>1</v>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J532" s="2">
@@ -20591,7 +20591,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -20600,19 +20600,19 @@
         </is>
       </c>
       <c r="C533">
-        <v>25730</v>
+        <v>15887.5</v>
       </c>
       <c r="D533">
-        <v>30361.4</v>
+        <v>0</v>
       </c>
       <c r="E533">
-        <v>30361.4</v>
+        <v>18747.25</v>
       </c>
       <c r="F533">
-        <v>3.32</v>
+        <v>2.05</v>
       </c>
       <c r="G533">
-        <v>7750</v>
+        <v>7750.000000000001</v>
       </c>
       <c r="H533">
         <v>1</v>
@@ -20629,73 +20629,73 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C534">
-        <v>15887.5</v>
+        <v>1944974</v>
       </c>
       <c r="D534">
-        <v>0</v>
+        <v>350095.32</v>
       </c>
       <c r="E534">
-        <v>18747.25</v>
+        <v>2295070</v>
       </c>
       <c r="F534">
-        <v>2.05</v>
+        <v>273.94</v>
       </c>
       <c r="G534">
-        <v>7750.000000000001</v>
+        <v>7100.000000000001</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J534" s="2">
-        <v>44986</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C535">
-        <v>1944974</v>
+        <v>1740060</v>
       </c>
       <c r="D535">
-        <v>350095.32</v>
+        <v>313210.8</v>
       </c>
       <c r="E535">
-        <v>2295070</v>
+        <v>2053272</v>
       </c>
       <c r="F535">
-        <v>273.94</v>
+        <v>207.15</v>
       </c>
       <c r="G535">
-        <v>7100.000000000001</v>
+        <v>8400</v>
       </c>
       <c r="H535">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J535" s="2">
@@ -20705,7 +20705,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -20714,26 +20714,26 @@
         </is>
       </c>
       <c r="C536">
-        <v>1740060</v>
+        <v>1031029</v>
       </c>
       <c r="D536">
-        <v>313210.8</v>
+        <v>185585.22</v>
       </c>
       <c r="E536">
-        <v>2053272</v>
+        <v>1216614</v>
       </c>
       <c r="F536">
-        <v>207.15</v>
+        <v>130.51</v>
       </c>
       <c r="G536">
-        <v>8400</v>
+        <v>7899.999999999999</v>
       </c>
       <c r="H536">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J536" s="2">
@@ -20743,31 +20743,31 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C537">
-        <v>1031029</v>
+        <v>889056</v>
       </c>
       <c r="D537">
-        <v>185585.22</v>
+        <v>160030.08</v>
       </c>
       <c r="E537">
-        <v>1216614</v>
+        <v>1049086.5</v>
       </c>
       <c r="F537">
-        <v>130.51</v>
+        <v>120.96</v>
       </c>
       <c r="G537">
-        <v>7899.999999999999</v>
+        <v>7350</v>
       </c>
       <c r="H537">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I537" t="inlineStr">
         <is>
@@ -20781,31 +20781,31 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C538">
-        <v>889056</v>
+        <v>959803.5</v>
       </c>
       <c r="D538">
-        <v>160030.08</v>
+        <v>172764.63</v>
       </c>
       <c r="E538">
-        <v>1049086.5</v>
+        <v>1132568</v>
       </c>
       <c r="F538">
-        <v>120.96</v>
+        <v>120.73</v>
       </c>
       <c r="G538">
-        <v>7350</v>
+        <v>7949.999999999999</v>
       </c>
       <c r="H538">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I538" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -20828,26 +20828,26 @@
         </is>
       </c>
       <c r="C539">
-        <v>959803.5</v>
+        <v>905616</v>
       </c>
       <c r="D539">
-        <v>172764.63</v>
+        <v>163010.88</v>
       </c>
       <c r="E539">
-        <v>1132568</v>
+        <v>1068626</v>
       </c>
       <c r="F539">
-        <v>120.73</v>
+        <v>119.16</v>
       </c>
       <c r="G539">
-        <v>7949.999999999999</v>
+        <v>7600</v>
       </c>
       <c r="H539">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J539" s="2">
@@ -20857,35 +20857,35 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C540">
-        <v>905616</v>
+        <v>682558</v>
       </c>
       <c r="D540">
-        <v>163010.88</v>
+        <v>122860.44</v>
       </c>
       <c r="E540">
-        <v>1068626</v>
+        <v>805419</v>
       </c>
       <c r="F540">
-        <v>119.16</v>
+        <v>110.09</v>
       </c>
       <c r="G540">
-        <v>7600</v>
+        <v>6200</v>
       </c>
       <c r="H540">
         <v>5</v>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J540" s="2">
@@ -20895,35 +20895,35 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>MAHRISHI MELTCHEMS PVT LTD</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Lumps</t>
         </is>
       </c>
       <c r="C541">
-        <v>682558</v>
+        <v>173497.2</v>
       </c>
       <c r="D541">
-        <v>122860.44</v>
+        <v>8674.860000000001</v>
       </c>
       <c r="E541">
-        <v>805419</v>
+        <v>182172</v>
       </c>
       <c r="F541">
-        <v>110.09</v>
+        <v>106.44</v>
       </c>
       <c r="G541">
-        <v>6200</v>
+        <v>1630</v>
       </c>
       <c r="H541">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J541" s="2">
@@ -20933,31 +20933,31 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>MAHRISHI MELTCHEMS PVT LTD</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Quartz Lumps</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C542">
-        <v>173497.2</v>
+        <v>441126.9</v>
       </c>
       <c r="D542">
-        <v>8674.860000000001</v>
+        <v>22056.35</v>
       </c>
       <c r="E542">
-        <v>182172</v>
+        <v>463184.73</v>
       </c>
       <c r="F542">
-        <v>106.44</v>
+        <v>101.06</v>
       </c>
       <c r="G542">
-        <v>1630</v>
+        <v>4365</v>
       </c>
       <c r="H542">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I542" t="inlineStr">
         <is>
@@ -20971,31 +20971,31 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C543">
-        <v>441126.9</v>
+        <v>536571</v>
       </c>
       <c r="D543">
-        <v>22056.35</v>
+        <v>84834.54000000001</v>
       </c>
       <c r="E543">
-        <v>463184.73</v>
+        <v>633154.24</v>
       </c>
       <c r="F543">
-        <v>101.06</v>
+        <v>85.17</v>
       </c>
       <c r="G543">
-        <v>4365</v>
+        <v>6300</v>
       </c>
       <c r="H543">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I543" t="inlineStr">
         <is>
@@ -21009,28 +21009,28 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C544">
-        <v>536571</v>
+        <v>333459</v>
       </c>
       <c r="D544">
-        <v>84834.54000000001</v>
+        <v>60022.64</v>
       </c>
       <c r="E544">
-        <v>633154.24</v>
+        <v>393482</v>
       </c>
       <c r="F544">
-        <v>85.17</v>
+        <v>84.42</v>
       </c>
       <c r="G544">
-        <v>6300</v>
+        <v>3950</v>
       </c>
       <c r="H544">
         <v>4</v>
@@ -21047,31 +21047,31 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Lumps</t>
         </is>
       </c>
       <c r="C545">
-        <v>333459</v>
+        <v>136903.7</v>
       </c>
       <c r="D545">
-        <v>60022.64</v>
+        <v>6845.200000000001</v>
       </c>
       <c r="E545">
-        <v>393482</v>
+        <v>143748</v>
       </c>
       <c r="F545">
-        <v>84.42</v>
+        <v>83.99000000000001</v>
       </c>
       <c r="G545">
-        <v>3950</v>
+        <v>1630</v>
       </c>
       <c r="H545">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr">
         <is>
@@ -21085,35 +21085,35 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Quartz Lumps</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C546">
-        <v>136903.7</v>
+        <v>629850</v>
       </c>
       <c r="D546">
-        <v>6845.200000000001</v>
+        <v>113373</v>
       </c>
       <c r="E546">
-        <v>143748</v>
+        <v>743224</v>
       </c>
       <c r="F546">
-        <v>83.99000000000001</v>
+        <v>83.98</v>
       </c>
       <c r="G546">
-        <v>1630</v>
+        <v>7500</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J546" s="2">
@@ -21123,35 +21123,35 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C547">
-        <v>629850</v>
+        <v>645680</v>
       </c>
       <c r="D547">
-        <v>113373</v>
+        <v>116222.4</v>
       </c>
       <c r="E547">
-        <v>743224</v>
+        <v>761902</v>
       </c>
       <c r="F547">
-        <v>83.98</v>
+        <v>80.71000000000001</v>
       </c>
       <c r="G547">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="H547">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J547" s="2">
@@ -21161,31 +21161,31 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C548">
-        <v>645680</v>
+        <v>214580.8</v>
       </c>
       <c r="D548">
-        <v>116222.4</v>
+        <v>14392.34</v>
       </c>
       <c r="E548">
-        <v>761902</v>
+        <v>228973</v>
       </c>
       <c r="F548">
-        <v>80.71000000000001</v>
+        <v>78.89</v>
       </c>
       <c r="G548">
-        <v>8000</v>
+        <v>2720</v>
       </c>
       <c r="H548">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I548" t="inlineStr">
         <is>
@@ -21199,31 +21199,31 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C549">
-        <v>214580.8</v>
+        <v>603639</v>
       </c>
       <c r="D549">
-        <v>14392.34</v>
+        <v>87225.48</v>
       </c>
       <c r="E549">
-        <v>228973</v>
+        <v>712294.6</v>
       </c>
       <c r="F549">
-        <v>78.89</v>
+        <v>76.41</v>
       </c>
       <c r="G549">
-        <v>2720</v>
+        <v>7900</v>
       </c>
       <c r="H549">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I549" t="inlineStr">
         <is>
@@ -21237,35 +21237,35 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C550">
-        <v>603639</v>
+        <v>529970</v>
       </c>
       <c r="D550">
-        <v>87225.48</v>
+        <v>95394.60000000001</v>
       </c>
       <c r="E550">
-        <v>712294.6</v>
+        <v>625364</v>
       </c>
       <c r="F550">
-        <v>76.41</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="G550">
-        <v>7900</v>
+        <v>7000</v>
       </c>
       <c r="H550">
         <v>3</v>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J550" s="2">
@@ -21275,35 +21275,35 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C551">
-        <v>529970</v>
+        <v>224800</v>
       </c>
       <c r="D551">
-        <v>95394.60000000001</v>
+        <v>40464</v>
       </c>
       <c r="E551">
-        <v>625364</v>
+        <v>265264</v>
       </c>
       <c r="F551">
-        <v>75.70999999999999</v>
+        <v>70.25</v>
       </c>
       <c r="G551">
-        <v>7000</v>
+        <v>3200</v>
       </c>
       <c r="H551">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J551" s="2">
@@ -21313,31 +21313,31 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C552">
-        <v>224800</v>
+        <v>201760</v>
       </c>
       <c r="D552">
-        <v>40464</v>
+        <v>32820.3</v>
       </c>
       <c r="E552">
-        <v>265264</v>
+        <v>238076.6</v>
       </c>
       <c r="F552">
-        <v>70.25</v>
+        <v>62.08</v>
       </c>
       <c r="G552">
-        <v>3200</v>
+        <v>3250</v>
       </c>
       <c r="H552">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I552" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -21360,26 +21360,26 @@
         </is>
       </c>
       <c r="C553">
-        <v>201760</v>
+        <v>393837</v>
       </c>
       <c r="D553">
-        <v>32820.3</v>
+        <v>70890.66</v>
       </c>
       <c r="E553">
-        <v>238076.6</v>
+        <v>464728</v>
       </c>
       <c r="F553">
-        <v>62.08</v>
+        <v>61.06</v>
       </c>
       <c r="G553">
-        <v>3250</v>
+        <v>6450</v>
       </c>
       <c r="H553">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J553" s="2">
@@ -21389,35 +21389,35 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C554">
-        <v>393837</v>
+        <v>470366</v>
       </c>
       <c r="D554">
-        <v>70890.66</v>
+        <v>84665.88</v>
       </c>
       <c r="E554">
-        <v>464728</v>
+        <v>555032</v>
       </c>
       <c r="F554">
-        <v>61.06</v>
+        <v>59.54</v>
       </c>
       <c r="G554">
-        <v>6450</v>
+        <v>7900</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J554" s="2">
@@ -21427,35 +21427,35 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C555">
-        <v>470366</v>
+        <v>420535</v>
       </c>
       <c r="D555">
-        <v>84665.88</v>
+        <v>75696.3</v>
       </c>
       <c r="E555">
-        <v>555032</v>
+        <v>496231.31</v>
       </c>
       <c r="F555">
-        <v>59.54</v>
+        <v>55.7</v>
       </c>
       <c r="G555">
-        <v>7900</v>
+        <v>7550.000000000001</v>
       </c>
       <c r="H555">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J555" s="2">
@@ -21465,7 +21465,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -21474,26 +21474,26 @@
         </is>
       </c>
       <c r="C556">
-        <v>420535</v>
+        <v>357975</v>
       </c>
       <c r="D556">
-        <v>75696.3</v>
+        <v>64435.5</v>
       </c>
       <c r="E556">
-        <v>496231.31</v>
+        <v>422411</v>
       </c>
       <c r="F556">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="G556">
-        <v>7550.000000000001</v>
+        <v>6450</v>
       </c>
       <c r="H556">
         <v>3</v>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J556" s="2">
@@ -21503,7 +21503,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -21512,26 +21512,26 @@
         </is>
       </c>
       <c r="C557">
-        <v>357975</v>
+        <v>348642</v>
       </c>
       <c r="D557">
-        <v>64435.5</v>
+        <v>62755.56</v>
       </c>
       <c r="E557">
-        <v>422411</v>
+        <v>411398</v>
       </c>
       <c r="F557">
-        <v>55.5</v>
+        <v>55.34</v>
       </c>
       <c r="G557">
-        <v>6450</v>
+        <v>6300</v>
       </c>
       <c r="H557">
         <v>3</v>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J557" s="2">
@@ -21541,7 +21541,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -21550,26 +21550,26 @@
         </is>
       </c>
       <c r="C558">
-        <v>348642</v>
+        <v>351936</v>
       </c>
       <c r="D558">
-        <v>62755.56</v>
+        <v>63348.48</v>
       </c>
       <c r="E558">
-        <v>411398</v>
+        <v>415284</v>
       </c>
       <c r="F558">
-        <v>55.34</v>
+        <v>54.99</v>
       </c>
       <c r="G558">
-        <v>6300</v>
+        <v>6399.999999999999</v>
       </c>
       <c r="H558">
         <v>3</v>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J558" s="2">
@@ -21579,35 +21579,35 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C559">
-        <v>351936</v>
+        <v>165376</v>
       </c>
       <c r="D559">
-        <v>63348.48</v>
+        <v>51197.22</v>
       </c>
       <c r="E559">
-        <v>415284</v>
+        <v>195143.92</v>
       </c>
       <c r="F559">
-        <v>54.99</v>
+        <v>51.68</v>
       </c>
       <c r="G559">
-        <v>6399.999999999999</v>
+        <v>3200</v>
       </c>
       <c r="H559">
         <v>3</v>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J559" s="2">
@@ -21617,31 +21617,31 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C560">
-        <v>165376</v>
+        <v>443846</v>
       </c>
       <c r="D560">
-        <v>51197.22</v>
+        <v>79892.28</v>
       </c>
       <c r="E560">
-        <v>195143.92</v>
+        <v>523739</v>
       </c>
       <c r="F560">
-        <v>51.68</v>
+        <v>51.61</v>
       </c>
       <c r="G560">
-        <v>3200</v>
+        <v>8600</v>
       </c>
       <c r="H560">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -21664,26 +21664,26 @@
         </is>
       </c>
       <c r="C561">
-        <v>443846</v>
+        <v>351234</v>
       </c>
       <c r="D561">
-        <v>79892.28</v>
+        <v>79227.72</v>
       </c>
       <c r="E561">
-        <v>523739</v>
+        <v>414455.96</v>
       </c>
       <c r="F561">
-        <v>51.61</v>
+        <v>45.03</v>
       </c>
       <c r="G561">
-        <v>8600</v>
+        <v>7800</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J561" s="2">
@@ -21693,35 +21693,35 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Steels and Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C562">
-        <v>351234</v>
+        <v>221913.5</v>
       </c>
       <c r="D562">
-        <v>79227.72</v>
+        <v>39944.43</v>
       </c>
       <c r="E562">
-        <v>414455.96</v>
+        <v>261858</v>
       </c>
       <c r="F562">
-        <v>45.03</v>
+        <v>31.93</v>
       </c>
       <c r="G562">
-        <v>7800</v>
+        <v>6950</v>
       </c>
       <c r="H562">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J562" s="2">
@@ -21731,28 +21731,28 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>A One Steels and Alloys Pvt Ltd</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Lumps</t>
         </is>
       </c>
       <c r="C563">
-        <v>221913.5</v>
+        <v>50318.1</v>
       </c>
       <c r="D563">
-        <v>39944.43</v>
+        <v>2515.9</v>
       </c>
       <c r="E563">
-        <v>261858</v>
+        <v>52834</v>
       </c>
       <c r="F563">
-        <v>31.93</v>
+        <v>30.87</v>
       </c>
       <c r="G563">
-        <v>6950</v>
+        <v>1630</v>
       </c>
       <c r="H563">
         <v>1</v>
@@ -21769,31 +21769,31 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>Arun Vyapar Udyog Private Limited</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Quartz Lumps</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C564">
-        <v>50318.1</v>
+        <v>234702</v>
       </c>
       <c r="D564">
-        <v>2515.9</v>
+        <v>42246.36</v>
       </c>
       <c r="E564">
-        <v>52834</v>
+        <v>276948</v>
       </c>
       <c r="F564">
-        <v>30.87</v>
+        <v>30.68</v>
       </c>
       <c r="G564">
-        <v>1630</v>
+        <v>7650</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Arun Vyapar Udyog Private Limited</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -21816,26 +21816,26 @@
         </is>
       </c>
       <c r="C565">
-        <v>234702</v>
+        <v>192906</v>
       </c>
       <c r="D565">
-        <v>42246.36</v>
+        <v>34723.08</v>
       </c>
       <c r="E565">
-        <v>276948</v>
+        <v>227629</v>
       </c>
       <c r="F565">
-        <v>30.68</v>
+        <v>30.62</v>
       </c>
       <c r="G565">
-        <v>7650</v>
+        <v>6300</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J565" s="2">
@@ -21845,7 +21845,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -21854,19 +21854,19 @@
         </is>
       </c>
       <c r="C566">
-        <v>192906</v>
+        <v>194880</v>
       </c>
       <c r="D566">
-        <v>34723.08</v>
+        <v>35078.4</v>
       </c>
       <c r="E566">
-        <v>227629</v>
+        <v>229959</v>
       </c>
       <c r="F566">
-        <v>30.62</v>
+        <v>30.45</v>
       </c>
       <c r="G566">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H566">
         <v>1</v>
@@ -21883,7 +21883,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -21892,19 +21892,19 @@
         </is>
       </c>
       <c r="C567">
-        <v>194880</v>
+        <v>191205</v>
       </c>
       <c r="D567">
-        <v>35078.4</v>
+        <v>34416.9</v>
       </c>
       <c r="E567">
-        <v>229959</v>
+        <v>225622</v>
       </c>
       <c r="F567">
-        <v>30.45</v>
+        <v>30.35</v>
       </c>
       <c r="G567">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H567">
         <v>1</v>
@@ -21921,7 +21921,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -21930,16 +21930,16 @@
         </is>
       </c>
       <c r="C568">
-        <v>191205</v>
+        <v>190827</v>
       </c>
       <c r="D568">
-        <v>34416.9</v>
+        <v>34348.86</v>
       </c>
       <c r="E568">
-        <v>225622</v>
+        <v>225176</v>
       </c>
       <c r="F568">
-        <v>30.35</v>
+        <v>30.29</v>
       </c>
       <c r="G568">
         <v>6300</v>
@@ -21949,7 +21949,7 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J568" s="2">
@@ -21959,28 +21959,28 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>A One Steels and Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C569">
-        <v>190827</v>
+        <v>259720</v>
       </c>
       <c r="D569">
-        <v>34348.86</v>
+        <v>46749.6</v>
       </c>
       <c r="E569">
-        <v>225176</v>
+        <v>306470</v>
       </c>
       <c r="F569">
-        <v>30.29</v>
+        <v>30.2</v>
       </c>
       <c r="G569">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="H569">
         <v>1</v>
@@ -21997,35 +21997,35 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>A One Steels and Alloys Pvt Ltd</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C570">
-        <v>259720</v>
+        <v>7547.5</v>
       </c>
       <c r="D570">
-        <v>46749.6</v>
+        <v>377.38</v>
       </c>
       <c r="E570">
-        <v>306470</v>
+        <v>7925</v>
       </c>
       <c r="F570">
-        <v>30.2</v>
+        <v>30.19</v>
       </c>
       <c r="G570">
-        <v>8600</v>
+        <v>250</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J570" s="2">
@@ -22035,7 +22035,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -22044,26 +22044,26 @@
         </is>
       </c>
       <c r="C571">
-        <v>7547.5</v>
+        <v>193758</v>
       </c>
       <c r="D571">
-        <v>377.38</v>
+        <v>34876.44</v>
       </c>
       <c r="E571">
-        <v>7925</v>
+        <v>228634</v>
       </c>
       <c r="F571">
-        <v>30.19</v>
+        <v>30.04</v>
       </c>
       <c r="G571">
-        <v>250</v>
+        <v>6450</v>
       </c>
       <c r="H571">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J571" s="2">
@@ -22073,7 +22073,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -22082,22 +22082,22 @@
         </is>
       </c>
       <c r="C572">
-        <v>193758</v>
+        <v>192064</v>
       </c>
       <c r="D572">
-        <v>34876.44</v>
+        <v>34571.52</v>
       </c>
       <c r="E572">
-        <v>228634</v>
+        <v>226636</v>
       </c>
       <c r="F572">
-        <v>30.04</v>
+        <v>30.01</v>
       </c>
       <c r="G572">
-        <v>6450</v>
+        <v>6400</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -22120,26 +22120,26 @@
         </is>
       </c>
       <c r="C573">
-        <v>192064</v>
+        <v>188622</v>
       </c>
       <c r="D573">
-        <v>34571.52</v>
+        <v>33951.96</v>
       </c>
       <c r="E573">
-        <v>226636</v>
+        <v>222574</v>
       </c>
       <c r="F573">
-        <v>30.01</v>
+        <v>29.94</v>
       </c>
       <c r="G573">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J573" s="2">
@@ -22149,7 +22149,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Sonal Irons Industry Private Limited</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -22158,26 +22158,26 @@
         </is>
       </c>
       <c r="C574">
-        <v>188622</v>
+        <v>192855</v>
       </c>
       <c r="D574">
-        <v>33951.96</v>
+        <v>34713.9</v>
       </c>
       <c r="E574">
-        <v>222574</v>
+        <v>227569</v>
       </c>
       <c r="F574">
-        <v>29.94</v>
+        <v>29.9</v>
       </c>
       <c r="G574">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H574">
         <v>1</v>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J574" s="2">
@@ -22187,31 +22187,31 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Sonal Irons Industry Private Limited</t>
+          <t>Noble Tech Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C575">
-        <v>192855</v>
+        <v>267750</v>
       </c>
       <c r="D575">
-        <v>34713.9</v>
+        <v>48195</v>
       </c>
       <c r="E575">
-        <v>227569</v>
+        <v>315945</v>
       </c>
       <c r="F575">
-        <v>29.9</v>
+        <v>29.75</v>
       </c>
       <c r="G575">
-        <v>6450</v>
+        <v>9000</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr">
         <is>
@@ -22225,35 +22225,35 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Noble Tech Industries Pvt Ltd</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C576">
-        <v>267750</v>
+        <v>103880</v>
       </c>
       <c r="D576">
-        <v>48195</v>
+        <v>18698.4</v>
       </c>
       <c r="E576">
-        <v>315945</v>
+        <v>122578</v>
       </c>
       <c r="F576">
-        <v>29.75</v>
+        <v>29.68</v>
       </c>
       <c r="G576">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J576" s="2">
@@ -22263,35 +22263,35 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Jai Hind Wire Rod Mills Private Limited</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C577">
-        <v>103880</v>
+        <v>225492</v>
       </c>
       <c r="D577">
-        <v>18698.4</v>
+        <v>40588.56</v>
       </c>
       <c r="E577">
-        <v>122578</v>
+        <v>266080.8</v>
       </c>
       <c r="F577">
-        <v>29.68</v>
+        <v>29.67</v>
       </c>
       <c r="G577">
-        <v>3500</v>
+        <v>7600</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J577" s="2">
@@ -22301,35 +22301,35 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Jai Hind Wire Rod Mills Private Limited</t>
+          <t>Shyam Ferrous Ltd.</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C578">
-        <v>225492</v>
+        <v>8715</v>
       </c>
       <c r="D578">
-        <v>40588.56</v>
+        <v>435.76</v>
       </c>
       <c r="E578">
-        <v>266080.8</v>
+        <v>9151.1</v>
       </c>
       <c r="F578">
-        <v>29.67</v>
+        <v>29.05</v>
       </c>
       <c r="G578">
-        <v>7600</v>
+        <v>300</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J578" s="2">
@@ -22339,35 +22339,35 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Shyam Ferrous Ltd.</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C579">
-        <v>8715</v>
+        <v>179712</v>
       </c>
       <c r="D579">
-        <v>435.76</v>
+        <v>32348.16</v>
       </c>
       <c r="E579">
-        <v>9151.1</v>
+        <v>212060</v>
       </c>
       <c r="F579">
-        <v>29.05</v>
+        <v>28.08</v>
       </c>
       <c r="G579">
-        <v>300</v>
+        <v>6400</v>
       </c>
       <c r="H579">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J579" s="2">
@@ -22377,7 +22377,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -22386,26 +22386,26 @@
         </is>
       </c>
       <c r="C580">
-        <v>179712</v>
+        <v>161343</v>
       </c>
       <c r="D580">
-        <v>32348.16</v>
+        <v>29041.74</v>
       </c>
       <c r="E580">
-        <v>212060</v>
+        <v>190385</v>
       </c>
       <c r="F580">
-        <v>28.08</v>
+        <v>25.61</v>
       </c>
       <c r="G580">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H580">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J580" s="2">
@@ -22415,7 +22415,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -22424,26 +22424,26 @@
         </is>
       </c>
       <c r="C581">
-        <v>161343</v>
+        <v>182808</v>
       </c>
       <c r="D581">
-        <v>29041.74</v>
+        <v>32905.44</v>
       </c>
       <c r="E581">
-        <v>190385</v>
+        <v>215713</v>
       </c>
       <c r="F581">
-        <v>25.61</v>
+        <v>25.39</v>
       </c>
       <c r="G581">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="H581">
         <v>1</v>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J581" s="2">
@@ -22453,7 +22453,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -22462,19 +22462,19 @@
         </is>
       </c>
       <c r="C582">
-        <v>182808</v>
+        <v>149702</v>
       </c>
       <c r="D582">
-        <v>32905.44</v>
+        <v>26946.36</v>
       </c>
       <c r="E582">
-        <v>215713</v>
+        <v>176648</v>
       </c>
       <c r="F582">
-        <v>25.39</v>
+        <v>25.16</v>
       </c>
       <c r="G582">
-        <v>7200</v>
+        <v>5950</v>
       </c>
       <c r="H582">
         <v>1</v>
@@ -22491,7 +22491,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>SAI KRISHNA STEEL INDUSTRIES</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -22500,26 +22500,26 @@
         </is>
       </c>
       <c r="C583">
-        <v>149702</v>
+        <v>157941</v>
       </c>
       <c r="D583">
-        <v>26946.36</v>
+        <v>28429.38</v>
       </c>
       <c r="E583">
-        <v>176648</v>
+        <v>186370</v>
       </c>
       <c r="F583">
-        <v>25.16</v>
+        <v>25.07</v>
       </c>
       <c r="G583">
-        <v>5950</v>
+        <v>6300</v>
       </c>
       <c r="H583">
         <v>1</v>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J583" s="2">
@@ -22529,28 +22529,28 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SAI KRISHNA STEEL INDUSTRIES</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C584">
-        <v>157941</v>
+        <v>96080</v>
       </c>
       <c r="D584">
-        <v>28429.38</v>
+        <v>0</v>
       </c>
       <c r="E584">
-        <v>186370</v>
+        <v>113374.4</v>
       </c>
       <c r="F584">
-        <v>25.07</v>
+        <v>24.02</v>
       </c>
       <c r="G584">
-        <v>6300</v>
+        <v>4000</v>
       </c>
       <c r="H584">
         <v>1</v>
@@ -22567,31 +22567,31 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C585">
-        <v>96080</v>
+        <v>158108</v>
       </c>
       <c r="D585">
-        <v>0</v>
+        <v>28459.44</v>
       </c>
       <c r="E585">
-        <v>113374.4</v>
+        <v>186568.04</v>
       </c>
       <c r="F585">
-        <v>24.02</v>
+        <v>23.11</v>
       </c>
       <c r="G585">
-        <v>4000</v>
+        <v>6841.540458675898</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I585" t="inlineStr">
         <is>
@@ -22605,31 +22605,31 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C586">
-        <v>158108</v>
+        <v>164962.5</v>
       </c>
       <c r="D586">
-        <v>28459.44</v>
+        <v>29693.25</v>
       </c>
       <c r="E586">
-        <v>186568.04</v>
+        <v>194656</v>
       </c>
       <c r="F586">
-        <v>23.11</v>
+        <v>20.75</v>
       </c>
       <c r="G586">
-        <v>6841.540458675898</v>
+        <v>7950</v>
       </c>
       <c r="H586">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I586" t="inlineStr">
         <is>
@@ -22643,28 +22643,28 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C587">
-        <v>164962.5</v>
+        <v>139556</v>
       </c>
       <c r="D587">
-        <v>29693.25</v>
+        <v>50337</v>
       </c>
       <c r="E587">
-        <v>194656</v>
+        <v>164676.08</v>
       </c>
       <c r="F587">
-        <v>20.75</v>
+        <v>20.08</v>
       </c>
       <c r="G587">
-        <v>7950</v>
+        <v>6950.000000000001</v>
       </c>
       <c r="H587">
         <v>1</v>
@@ -22686,23 +22686,23 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C588">
-        <v>139556</v>
+        <v>140094</v>
       </c>
       <c r="D588">
-        <v>50337</v>
+        <v>0</v>
       </c>
       <c r="E588">
-        <v>164676.08</v>
+        <v>165310.92</v>
       </c>
       <c r="F588">
-        <v>20.08</v>
+        <v>16.29</v>
       </c>
       <c r="G588">
-        <v>6950.000000000001</v>
+        <v>8600</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -22719,35 +22719,35 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C589">
-        <v>140094</v>
+        <v>88920</v>
       </c>
       <c r="D589">
         <v>0</v>
       </c>
       <c r="E589">
-        <v>165310.92</v>
+        <v>104925.6</v>
       </c>
       <c r="F589">
-        <v>16.29</v>
+        <v>14.82</v>
       </c>
       <c r="G589">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="H589">
         <v>1</v>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J589" s="2">
@@ -22757,35 +22757,35 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C590">
-        <v>88920</v>
+        <v>15965</v>
       </c>
       <c r="D590">
-        <v>0</v>
+        <v>23664.6</v>
       </c>
       <c r="E590">
-        <v>104925.6</v>
+        <v>18838.7</v>
       </c>
       <c r="F590">
-        <v>14.82</v>
+        <v>10.3</v>
       </c>
       <c r="G590">
-        <v>6000</v>
+        <v>1550</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J590" s="2">
@@ -22795,35 +22795,35 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Mega TMT</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C591">
-        <v>15965</v>
+        <v>62832</v>
       </c>
       <c r="D591">
-        <v>23664.6</v>
+        <v>0</v>
       </c>
       <c r="E591">
-        <v>18838.7</v>
+        <v>74141.75999999999</v>
       </c>
       <c r="F591">
-        <v>10.3</v>
+        <v>9.52</v>
       </c>
       <c r="G591">
-        <v>1550</v>
+        <v>6600</v>
       </c>
       <c r="H591">
         <v>2</v>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J591" s="2">
@@ -22833,35 +22833,35 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Mega TMT</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C592">
-        <v>62832</v>
+        <v>27300</v>
       </c>
       <c r="D592">
-        <v>0</v>
+        <v>4914</v>
       </c>
       <c r="E592">
-        <v>74141.75999999999</v>
+        <v>32214</v>
       </c>
       <c r="F592">
-        <v>9.52</v>
+        <v>7.8</v>
       </c>
       <c r="G592">
-        <v>6600</v>
+        <v>3500</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J592" s="2">
@@ -22871,28 +22871,28 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>RDTMT Steels India Pvt Ltd</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C593">
-        <v>27300</v>
+        <v>32067</v>
       </c>
       <c r="D593">
-        <v>4914</v>
+        <v>5772.06</v>
       </c>
       <c r="E593">
-        <v>32214</v>
+        <v>37839</v>
       </c>
       <c r="F593">
-        <v>7.8</v>
+        <v>5.09</v>
       </c>
       <c r="G593">
-        <v>3500</v>
+        <v>6300</v>
       </c>
       <c r="H593">
         <v>1</v>
@@ -22909,28 +22909,28 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>RDTMT Steels India Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C594">
-        <v>32067</v>
+        <v>7424</v>
       </c>
       <c r="D594">
-        <v>5772.06</v>
+        <v>1336.32</v>
       </c>
       <c r="E594">
-        <v>37839</v>
+        <v>8760</v>
       </c>
       <c r="F594">
-        <v>5.09</v>
+        <v>4.64</v>
       </c>
       <c r="G594">
-        <v>6300</v>
+        <v>1600</v>
       </c>
       <c r="H594">
         <v>1</v>
@@ -22947,31 +22947,31 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C595">
-        <v>7424</v>
+        <v>2292448</v>
       </c>
       <c r="D595">
-        <v>1336.32</v>
+        <v>1262305.74</v>
       </c>
       <c r="E595">
-        <v>8760</v>
+        <v>2705090.04</v>
       </c>
       <c r="F595">
-        <v>4.64</v>
+        <v>322.88</v>
       </c>
       <c r="G595">
-        <v>1600</v>
+        <v>7099.999999999999</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I595" t="inlineStr">
         <is>
@@ -22979,41 +22979,41 @@
         </is>
       </c>
       <c r="J595" s="2">
-        <v>45017</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C596">
-        <v>2292448</v>
+        <v>1947876</v>
       </c>
       <c r="D596">
-        <v>1262305.74</v>
+        <v>1206971.16</v>
       </c>
       <c r="E596">
-        <v>2705090.04</v>
+        <v>2298493.44</v>
       </c>
       <c r="F596">
-        <v>322.88</v>
+        <v>231.89</v>
       </c>
       <c r="G596">
-        <v>7099.999999999999</v>
+        <v>8400</v>
       </c>
       <c r="H596">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J596" s="2">
@@ -23023,7 +23023,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -23032,26 +23032,26 @@
         </is>
       </c>
       <c r="C597">
-        <v>1947876</v>
+        <v>568997.5</v>
       </c>
       <c r="D597">
-        <v>1206971.16</v>
+        <v>76816.24000000001</v>
       </c>
       <c r="E597">
-        <v>2298493.44</v>
+        <v>620210</v>
       </c>
       <c r="F597">
-        <v>231.89</v>
+        <v>144.05</v>
       </c>
       <c r="G597">
-        <v>8400</v>
+        <v>3950</v>
       </c>
       <c r="H597">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J597" s="2">
@@ -23061,35 +23061,35 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C598">
-        <v>568997.5</v>
+        <v>946275</v>
       </c>
       <c r="D598">
-        <v>76816.24000000001</v>
+        <v>537697</v>
       </c>
       <c r="E598">
-        <v>620210</v>
+        <v>1116605</v>
       </c>
       <c r="F598">
-        <v>144.05</v>
+        <v>126.17</v>
       </c>
       <c r="G598">
-        <v>3950</v>
+        <v>7500.000000000001</v>
       </c>
       <c r="H598">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J598" s="2">
@@ -23099,7 +23099,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -23108,26 +23108,26 @@
         </is>
       </c>
       <c r="C599">
-        <v>946275</v>
+        <v>885271</v>
       </c>
       <c r="D599">
-        <v>537697</v>
+        <v>704193.86</v>
       </c>
       <c r="E599">
-        <v>1116605</v>
+        <v>1044619.78</v>
       </c>
       <c r="F599">
-        <v>126.17</v>
+        <v>121.27</v>
       </c>
       <c r="G599">
-        <v>7500.000000000001</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H599">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J599" s="2">
@@ -23137,35 +23137,35 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C600">
-        <v>885271</v>
+        <v>741228</v>
       </c>
       <c r="D600">
-        <v>704193.86</v>
+        <v>474543.52</v>
       </c>
       <c r="E600">
-        <v>1044619.78</v>
+        <v>874648.48</v>
       </c>
       <c r="F600">
-        <v>121.27</v>
+        <v>97.53</v>
       </c>
       <c r="G600">
-        <v>7299.999999999999</v>
+        <v>7600.000000000001</v>
       </c>
       <c r="H600">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J600" s="2">
@@ -23175,7 +23175,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -23184,26 +23184,26 @@
         </is>
       </c>
       <c r="C601">
-        <v>741228</v>
+        <v>708474</v>
       </c>
       <c r="D601">
-        <v>474543.52</v>
+        <v>516593.64</v>
       </c>
       <c r="E601">
-        <v>874648.48</v>
+        <v>835999.36</v>
       </c>
       <c r="F601">
-        <v>97.53</v>
+        <v>90.83</v>
       </c>
       <c r="G601">
-        <v>7600.000000000001</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H601">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J601" s="2">
@@ -23213,7 +23213,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -23222,26 +23222,26 @@
         </is>
       </c>
       <c r="C602">
-        <v>708474</v>
+        <v>661072</v>
       </c>
       <c r="D602">
-        <v>516593.64</v>
+        <v>95430.34</v>
       </c>
       <c r="E602">
-        <v>835999.36</v>
+        <v>732940</v>
       </c>
       <c r="F602">
-        <v>90.83</v>
+        <v>83.68000000000001</v>
       </c>
       <c r="G602">
-        <v>7799.999999999999</v>
+        <v>7900</v>
       </c>
       <c r="H602">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J602" s="2">
@@ -23251,31 +23251,31 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C603">
-        <v>661072</v>
+        <v>488628</v>
       </c>
       <c r="D603">
-        <v>95430.34</v>
+        <v>87953.04000000001</v>
       </c>
       <c r="E603">
-        <v>732940</v>
+        <v>576581</v>
       </c>
       <c r="F603">
-        <v>83.68000000000001</v>
+        <v>77.56</v>
       </c>
       <c r="G603">
-        <v>7900</v>
+        <v>6300</v>
       </c>
       <c r="H603">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr">
         <is>
@@ -23289,31 +23289,31 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C604">
-        <v>488628</v>
+        <v>548311.5</v>
       </c>
       <c r="D604">
-        <v>87953.04000000001</v>
+        <v>420148.28</v>
       </c>
       <c r="E604">
-        <v>576581</v>
+        <v>647006.6799999999</v>
       </c>
       <c r="F604">
-        <v>77.56</v>
+        <v>68.97</v>
       </c>
       <c r="G604">
-        <v>6300</v>
+        <v>7949.999999999999</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I604" t="inlineStr">
         <is>
@@ -23327,35 +23327,35 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C605">
-        <v>189257.6</v>
+        <v>426384</v>
       </c>
       <c r="D605">
-        <v>6325.360000000001</v>
+        <v>76749.12</v>
       </c>
       <c r="E605">
-        <v>206878.112</v>
+        <v>503132.82</v>
       </c>
       <c r="F605">
-        <v>69.58</v>
+        <v>67.67999999999999</v>
       </c>
       <c r="G605">
-        <v>2720</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H605">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J605" s="2">
@@ -23365,28 +23365,28 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C606">
-        <v>548311.5</v>
+        <v>476106</v>
       </c>
       <c r="D606">
-        <v>420148.28</v>
+        <v>297364</v>
       </c>
       <c r="E606">
-        <v>647006.6799999999</v>
+        <v>561805.04</v>
       </c>
       <c r="F606">
-        <v>68.97</v>
+        <v>65.22</v>
       </c>
       <c r="G606">
-        <v>7949.999999999999</v>
+        <v>7300.000000000001</v>
       </c>
       <c r="H606">
         <v>3</v>
@@ -23403,35 +23403,35 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C607">
-        <v>426384</v>
+        <v>218046</v>
       </c>
       <c r="D607">
-        <v>76749.12</v>
+        <v>160445.72</v>
       </c>
       <c r="E607">
-        <v>503132.82</v>
+        <v>228948.3</v>
       </c>
       <c r="F607">
-        <v>67.67999999999999</v>
+        <v>63.19</v>
       </c>
       <c r="G607">
-        <v>6300.000000000001</v>
+        <v>3450.640924196867</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J607" s="2">
@@ -23441,7 +23441,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -23450,19 +23450,19 @@
         </is>
       </c>
       <c r="C608">
-        <v>476106</v>
+        <v>201955</v>
       </c>
       <c r="D608">
-        <v>297364</v>
+        <v>15689.7</v>
       </c>
       <c r="E608">
-        <v>561805.04</v>
+        <v>238307.2</v>
       </c>
       <c r="F608">
-        <v>65.22</v>
+        <v>62.14</v>
       </c>
       <c r="G608">
-        <v>7300.000000000001</v>
+        <v>3250</v>
       </c>
       <c r="H608">
         <v>3</v>
@@ -23479,35 +23479,35 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C609">
-        <v>218046</v>
+        <v>382292</v>
       </c>
       <c r="D609">
-        <v>160445.72</v>
+        <v>51330.14</v>
       </c>
       <c r="E609">
-        <v>228948.3</v>
+        <v>416140.28</v>
       </c>
       <c r="F609">
-        <v>63.19</v>
+        <v>61.66</v>
       </c>
       <c r="G609">
-        <v>3450.640924196867</v>
+        <v>6200</v>
       </c>
       <c r="H609">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J609" s="2">
@@ -23517,7 +23517,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -23526,26 +23526,26 @@
         </is>
       </c>
       <c r="C610">
-        <v>201955</v>
+        <v>386304</v>
       </c>
       <c r="D610">
-        <v>15689.7</v>
+        <v>227919</v>
       </c>
       <c r="E610">
-        <v>238307.2</v>
+        <v>455838.36</v>
       </c>
       <c r="F610">
-        <v>62.14</v>
+        <v>60.36</v>
       </c>
       <c r="G610">
-        <v>3250</v>
+        <v>6400</v>
       </c>
       <c r="H610">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J610" s="2">
@@ -23555,35 +23555,35 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C611">
-        <v>382292</v>
+        <v>553196</v>
       </c>
       <c r="D611">
-        <v>51330.14</v>
+        <v>553196.28</v>
       </c>
       <c r="E611">
-        <v>416140.28</v>
+        <v>652771.72</v>
       </c>
       <c r="F611">
-        <v>61.66</v>
+        <v>60.13</v>
       </c>
       <c r="G611">
-        <v>6200</v>
+        <v>9200</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J611" s="2">
@@ -23593,35 +23593,35 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C612">
-        <v>386304</v>
+        <v>473760</v>
       </c>
       <c r="D612">
-        <v>227919</v>
+        <v>473760.4</v>
       </c>
       <c r="E612">
-        <v>455838.36</v>
+        <v>559036.6</v>
       </c>
       <c r="F612">
-        <v>60.36</v>
+        <v>59.22</v>
       </c>
       <c r="G612">
-        <v>6400</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H612">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J612" s="2">
@@ -23631,31 +23631,31 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C613">
-        <v>553196</v>
+        <v>126507.2</v>
       </c>
       <c r="D613">
-        <v>553196.28</v>
+        <v>6325.360000000001</v>
       </c>
       <c r="E613">
-        <v>652771.72</v>
+        <v>132832.64</v>
       </c>
       <c r="F613">
-        <v>60.13</v>
+        <v>46.51000000000001</v>
       </c>
       <c r="G613">
-        <v>9200</v>
+        <v>2720</v>
       </c>
       <c r="H613">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr">
         <is>
@@ -23669,35 +23669,35 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C614">
-        <v>473760</v>
+        <v>288864</v>
       </c>
       <c r="D614">
-        <v>473760.4</v>
+        <v>0</v>
       </c>
       <c r="E614">
-        <v>559036.6</v>
+        <v>340860</v>
       </c>
       <c r="F614">
-        <v>59.22</v>
+        <v>40.12</v>
       </c>
       <c r="G614">
-        <v>7999.999999999999</v>
+        <v>7200.000000000001</v>
       </c>
       <c r="H614">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J614" s="2">
@@ -23707,35 +23707,35 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C615">
-        <v>288864</v>
+        <v>57784</v>
       </c>
       <c r="D615">
-        <v>0</v>
+        <v>30093.485</v>
       </c>
       <c r="E615">
-        <v>340860</v>
+        <v>68184.63</v>
       </c>
       <c r="F615">
-        <v>40.12</v>
+        <v>37.28</v>
       </c>
       <c r="G615">
-        <v>7200.000000000001</v>
+        <v>1550</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J615" s="2">
@@ -23745,35 +23745,35 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C616">
-        <v>57784</v>
+        <v>226137</v>
       </c>
       <c r="D616">
-        <v>30093.485</v>
+        <v>40704.66</v>
       </c>
       <c r="E616">
-        <v>68184.63</v>
+        <v>266842</v>
       </c>
       <c r="F616">
-        <v>37.28</v>
+        <v>35.06</v>
       </c>
       <c r="G616">
-        <v>1550</v>
+        <v>6450</v>
       </c>
       <c r="H616">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J616" s="2">
@@ -23783,35 +23783,35 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C617">
-        <v>226137</v>
+        <v>277693.5</v>
       </c>
       <c r="D617">
-        <v>40704.66</v>
+        <v>0</v>
       </c>
       <c r="E617">
-        <v>266842</v>
+        <v>327678</v>
       </c>
       <c r="F617">
-        <v>35.06</v>
+        <v>34.93</v>
       </c>
       <c r="G617">
-        <v>6450</v>
+        <v>7950</v>
       </c>
       <c r="H617">
         <v>1</v>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J617" s="2">
@@ -23821,31 +23821,31 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C618">
-        <v>277693.5</v>
+        <v>110912</v>
       </c>
       <c r="D618">
-        <v>0</v>
+        <v>16396.2</v>
       </c>
       <c r="E618">
-        <v>327678</v>
+        <v>123740</v>
       </c>
       <c r="F618">
-        <v>34.93</v>
+        <v>34.66</v>
       </c>
       <c r="G618">
-        <v>7950</v>
+        <v>3200</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I618" t="inlineStr">
         <is>
@@ -23859,31 +23859,31 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C619">
-        <v>110912</v>
+        <v>221357.5</v>
       </c>
       <c r="D619">
-        <v>16396.2</v>
+        <v>221357.65</v>
       </c>
       <c r="E619">
-        <v>123740</v>
+        <v>261201.85</v>
       </c>
       <c r="F619">
-        <v>34.66</v>
+        <v>31.85</v>
       </c>
       <c r="G619">
-        <v>3200</v>
+        <v>6950</v>
       </c>
       <c r="H619">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -23906,26 +23906,26 @@
         </is>
       </c>
       <c r="C620">
-        <v>221357.5</v>
+        <v>192944</v>
       </c>
       <c r="D620">
-        <v>221357.65</v>
+        <v>34729.92</v>
       </c>
       <c r="E620">
-        <v>261201.85</v>
+        <v>227674</v>
       </c>
       <c r="F620">
-        <v>31.85</v>
+        <v>31.12</v>
       </c>
       <c r="G620">
-        <v>6950</v>
+        <v>6200</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J620" s="2">
@@ -23935,7 +23935,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -23944,26 +23944,26 @@
         </is>
       </c>
       <c r="C621">
-        <v>192944</v>
+        <v>193977</v>
       </c>
       <c r="D621">
-        <v>34729.92</v>
+        <v>193977.14</v>
       </c>
       <c r="E621">
-        <v>227674</v>
+        <v>228892.86</v>
       </c>
       <c r="F621">
-        <v>31.12</v>
+        <v>30.79</v>
       </c>
       <c r="G621">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H621">
         <v>1</v>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J621" s="2">
@@ -23973,35 +23973,35 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C622">
-        <v>193977</v>
+        <v>264708</v>
       </c>
       <c r="D622">
-        <v>193977.14</v>
+        <v>264708</v>
       </c>
       <c r="E622">
-        <v>228892.86</v>
+        <v>312355</v>
       </c>
       <c r="F622">
-        <v>30.79</v>
+        <v>30.78</v>
       </c>
       <c r="G622">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="H622">
         <v>1</v>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J622" s="2">
@@ -24011,28 +24011,28 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C623">
-        <v>264708</v>
+        <v>98496</v>
       </c>
       <c r="D623">
-        <v>264708</v>
+        <v>17729.28</v>
       </c>
       <c r="E623">
-        <v>312355</v>
+        <v>116225.28</v>
       </c>
       <c r="F623">
         <v>30.78</v>
       </c>
       <c r="G623">
-        <v>8600</v>
+        <v>3200</v>
       </c>
       <c r="H623">
         <v>1</v>
@@ -24049,31 +24049,31 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C624">
-        <v>98496</v>
+        <v>192465</v>
       </c>
       <c r="D624">
-        <v>17729.28</v>
+        <v>192465.3</v>
       </c>
       <c r="E624">
-        <v>116225.28</v>
+        <v>227108.7</v>
       </c>
       <c r="F624">
-        <v>30.78</v>
+        <v>30.55</v>
       </c>
       <c r="G624">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -24096,26 +24096,26 @@
         </is>
       </c>
       <c r="C625">
-        <v>192465</v>
+        <v>194240</v>
       </c>
       <c r="D625">
-        <v>192465.3</v>
+        <v>0</v>
       </c>
       <c r="E625">
-        <v>227108.7</v>
+        <v>229203.2</v>
       </c>
       <c r="F625">
-        <v>30.55</v>
+        <v>30.35</v>
       </c>
       <c r="G625">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J625" s="2">
@@ -24125,7 +24125,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -24134,26 +24134,26 @@
         </is>
       </c>
       <c r="C626">
-        <v>194240</v>
+        <v>204322.5</v>
       </c>
       <c r="D626">
-        <v>0</v>
+        <v>36778.05</v>
       </c>
       <c r="E626">
-        <v>229203.2</v>
+        <v>241101</v>
       </c>
       <c r="F626">
-        <v>30.35</v>
+        <v>30.27</v>
       </c>
       <c r="G626">
-        <v>6400</v>
+        <v>6750</v>
       </c>
       <c r="H626">
         <v>1</v>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J626" s="2">
@@ -24163,28 +24163,28 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C627">
-        <v>204322.5</v>
+        <v>260064</v>
       </c>
       <c r="D627">
-        <v>36778.05</v>
+        <v>0</v>
       </c>
       <c r="E627">
-        <v>241101</v>
+        <v>306876</v>
       </c>
       <c r="F627">
-        <v>30.27</v>
+        <v>30.24</v>
       </c>
       <c r="G627">
-        <v>6750</v>
+        <v>8600</v>
       </c>
       <c r="H627">
         <v>1</v>
@@ -24201,7 +24201,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Noble Tech Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -24210,22 +24210,22 @@
         </is>
       </c>
       <c r="C628">
-        <v>260064</v>
+        <v>271080</v>
       </c>
       <c r="D628">
-        <v>0</v>
+        <v>271079.6</v>
       </c>
       <c r="E628">
-        <v>306876</v>
+        <v>319874.4</v>
       </c>
       <c r="F628">
-        <v>30.24</v>
+        <v>30.12</v>
       </c>
       <c r="G628">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr">
         <is>
@@ -24239,35 +24239,35 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Noble Tech Industries Pvt Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C629">
-        <v>271080</v>
+        <v>192768</v>
       </c>
       <c r="D629">
-        <v>271079.6</v>
+        <v>192767.76</v>
       </c>
       <c r="E629">
-        <v>319874.4</v>
+        <v>202406.4</v>
       </c>
       <c r="F629">
         <v>30.12</v>
       </c>
       <c r="G629">
-        <v>9000</v>
+        <v>6400</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J629" s="2">
@@ -24277,35 +24277,35 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>AMBA FRP PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C630">
-        <v>192768</v>
+        <v>180000</v>
       </c>
       <c r="D630">
-        <v>192767.76</v>
+        <v>9000</v>
       </c>
       <c r="E630">
-        <v>202406.4</v>
+        <v>189000</v>
       </c>
       <c r="F630">
-        <v>30.12</v>
+        <v>30</v>
       </c>
       <c r="G630">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J630" s="2">
@@ -24315,31 +24315,31 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>AMBA FRP PRIVATE LIMITED</t>
+          <t>Jai Hind Wire Rod Mills Private Limited</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C631">
-        <v>180000</v>
+        <v>226328</v>
       </c>
       <c r="D631">
-        <v>9000</v>
+        <v>226328</v>
       </c>
       <c r="E631">
-        <v>189000</v>
+        <v>267067</v>
       </c>
       <c r="F631">
-        <v>30</v>
+        <v>29.78</v>
       </c>
       <c r="G631">
-        <v>6000</v>
+        <v>7600</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Jai Hind Wire Rod Mills Private Limited</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -24362,26 +24362,26 @@
         </is>
       </c>
       <c r="C632">
-        <v>226328</v>
+        <v>187047</v>
       </c>
       <c r="D632">
-        <v>226328</v>
+        <v>33668.46</v>
       </c>
       <c r="E632">
-        <v>267067</v>
+        <v>220715</v>
       </c>
       <c r="F632">
-        <v>29.78</v>
+        <v>29.69</v>
       </c>
       <c r="G632">
-        <v>7600</v>
+        <v>6300</v>
       </c>
       <c r="H632">
         <v>1</v>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J632" s="2">
@@ -24391,7 +24391,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -24400,26 +24400,26 @@
         </is>
       </c>
       <c r="C633">
-        <v>187047</v>
+        <v>235840</v>
       </c>
       <c r="D633">
-        <v>33668.46</v>
+        <v>235839.8</v>
       </c>
       <c r="E633">
-        <v>220715</v>
+        <v>278291.2</v>
       </c>
       <c r="F633">
-        <v>29.69</v>
+        <v>29.48</v>
       </c>
       <c r="G633">
-        <v>6300</v>
+        <v>8000</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J633" s="2">
@@ -24429,35 +24429,35 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C634">
-        <v>235840</v>
+        <v>111936</v>
       </c>
       <c r="D634">
-        <v>235839.8</v>
+        <v>20148.48</v>
       </c>
       <c r="E634">
-        <v>278291.2</v>
+        <v>132084</v>
       </c>
       <c r="F634">
-        <v>29.48</v>
+        <v>25.44</v>
       </c>
       <c r="G634">
-        <v>8000</v>
+        <v>4400</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J634" s="2">
@@ -24467,35 +24467,35 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Sree  Rengaraaj Steel &amp; Alloys (P) Limited</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C635">
-        <v>111936</v>
+        <v>191770</v>
       </c>
       <c r="D635">
-        <v>20148.48</v>
+        <v>34518.6</v>
       </c>
       <c r="E635">
-        <v>132084</v>
+        <v>226289</v>
       </c>
       <c r="F635">
-        <v>25.44</v>
+        <v>25.4</v>
       </c>
       <c r="G635">
-        <v>4400</v>
+        <v>7550</v>
       </c>
       <c r="H635">
         <v>1</v>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J635" s="2">
@@ -24505,7 +24505,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -24514,26 +24514,26 @@
         </is>
       </c>
       <c r="C636">
-        <v>191770</v>
+        <v>159138</v>
       </c>
       <c r="D636">
-        <v>34518.6</v>
+        <v>159138.16</v>
       </c>
       <c r="E636">
-        <v>226289</v>
+        <v>187782.84</v>
       </c>
       <c r="F636">
-        <v>25.4</v>
+        <v>25.26</v>
       </c>
       <c r="G636">
-        <v>7550</v>
+        <v>6300</v>
       </c>
       <c r="H636">
         <v>1</v>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J636" s="2">
@@ -24543,7 +24543,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -24552,26 +24552,26 @@
         </is>
       </c>
       <c r="C637">
-        <v>159138</v>
+        <v>176050</v>
       </c>
       <c r="D637">
-        <v>159138.16</v>
+        <v>31689</v>
       </c>
       <c r="E637">
-        <v>187782.84</v>
+        <v>207739</v>
       </c>
       <c r="F637">
-        <v>25.26</v>
+        <v>25.15</v>
       </c>
       <c r="G637">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="H637">
         <v>1</v>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J637" s="2">
@@ -24581,35 +24581,35 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C638">
-        <v>176050</v>
+        <v>65720</v>
       </c>
       <c r="D638">
-        <v>31689</v>
+        <v>0</v>
       </c>
       <c r="E638">
-        <v>207739</v>
+        <v>69006</v>
       </c>
       <c r="F638">
-        <v>25.15</v>
+        <v>24.8</v>
       </c>
       <c r="G638">
-        <v>7000</v>
+        <v>2650</v>
       </c>
       <c r="H638">
         <v>1</v>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J638" s="2">
@@ -24619,31 +24619,31 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C639">
-        <v>65720</v>
+        <v>38608</v>
       </c>
       <c r="D639">
-        <v>0</v>
+        <v>4601.84</v>
       </c>
       <c r="E639">
-        <v>69006</v>
+        <v>40863</v>
       </c>
       <c r="F639">
-        <v>24.8</v>
+        <v>24.13</v>
       </c>
       <c r="G639">
-        <v>2650</v>
+        <v>1600</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I639" t="inlineStr">
         <is>
@@ -24657,35 +24657,35 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C640">
-        <v>38608</v>
+        <v>129960</v>
       </c>
       <c r="D640">
-        <v>4601.84</v>
+        <v>0</v>
       </c>
       <c r="E640">
-        <v>40863</v>
+        <v>153352.8</v>
       </c>
       <c r="F640">
-        <v>24.13</v>
+        <v>21.66</v>
       </c>
       <c r="G640">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="H640">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J640" s="2">
@@ -24695,7 +24695,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -24704,26 +24704,26 @@
         </is>
       </c>
       <c r="C641">
-        <v>129960</v>
+        <v>148400</v>
       </c>
       <c r="D641">
-        <v>0</v>
+        <v>87290</v>
       </c>
       <c r="E641">
-        <v>153352.8</v>
+        <v>175111.8</v>
       </c>
       <c r="F641">
-        <v>21.66</v>
+        <v>21.2</v>
       </c>
       <c r="G641">
-        <v>6000</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H641">
         <v>2</v>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J641" s="2">
@@ -24733,7 +24733,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -24742,22 +24742,22 @@
         </is>
       </c>
       <c r="C642">
-        <v>148400</v>
+        <v>135616</v>
       </c>
       <c r="D642">
-        <v>87290</v>
+        <v>18397.44</v>
       </c>
       <c r="E642">
-        <v>175111.8</v>
+        <v>160026.44</v>
       </c>
       <c r="F642">
-        <v>21.2</v>
+        <v>21.19</v>
       </c>
       <c r="G642">
-        <v>6999.999999999999</v>
+        <v>6400</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I642" t="inlineStr">
         <is>
@@ -24771,31 +24771,31 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C643">
-        <v>135616</v>
+        <v>79760</v>
       </c>
       <c r="D643">
-        <v>18397.44</v>
+        <v>7178.4</v>
       </c>
       <c r="E643">
-        <v>160026.44</v>
+        <v>94116.79999999999</v>
       </c>
       <c r="F643">
-        <v>21.19</v>
+        <v>19.94</v>
       </c>
       <c r="G643">
-        <v>6400</v>
+        <v>4000</v>
       </c>
       <c r="H643">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I643" t="inlineStr">
         <is>
@@ -24809,31 +24809,31 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C644">
-        <v>79760</v>
+        <v>64415</v>
       </c>
       <c r="D644">
-        <v>7178.4</v>
+        <v>11594.72</v>
       </c>
       <c r="E644">
-        <v>94116.79999999999</v>
+        <v>76009</v>
       </c>
       <c r="F644">
-        <v>19.94</v>
+        <v>19.82</v>
       </c>
       <c r="G644">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I644" t="inlineStr">
         <is>
@@ -24847,35 +24847,35 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C645">
-        <v>64415</v>
+        <v>100932</v>
       </c>
       <c r="D645">
-        <v>11594.72</v>
+        <v>0</v>
       </c>
       <c r="E645">
-        <v>76009</v>
+        <v>119099.76</v>
       </c>
       <c r="F645">
-        <v>19.82</v>
+        <v>12.94</v>
       </c>
       <c r="G645">
-        <v>3250</v>
+        <v>7800</v>
       </c>
       <c r="H645">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J645" s="2">
@@ -24885,35 +24885,35 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C646">
-        <v>100932</v>
+        <v>34102</v>
       </c>
       <c r="D646">
-        <v>0</v>
+        <v>12151.8</v>
       </c>
       <c r="E646">
-        <v>119099.76</v>
+        <v>40240.36</v>
       </c>
       <c r="F646">
-        <v>12.94</v>
+        <v>10.03</v>
       </c>
       <c r="G646">
-        <v>7800</v>
+        <v>3400</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J646" s="2">
@@ -24923,31 +24923,31 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C647">
-        <v>34102</v>
+        <v>64218</v>
       </c>
       <c r="D647">
-        <v>12151.8</v>
+        <v>11559.24</v>
       </c>
       <c r="E647">
-        <v>40240.36</v>
+        <v>75777</v>
       </c>
       <c r="F647">
-        <v>10.03</v>
+        <v>9.73</v>
       </c>
       <c r="G647">
-        <v>3400</v>
+        <v>6600</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I647" t="inlineStr">
         <is>
@@ -24961,31 +24961,31 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>MEGA TMT AND STEEL INDUSTRIES PVT LTD</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C648">
-        <v>64218</v>
+        <v>15640</v>
       </c>
       <c r="D648">
-        <v>11559.24</v>
+        <v>13815</v>
       </c>
       <c r="E648">
-        <v>75777</v>
+        <v>18455.2</v>
       </c>
       <c r="F648">
-        <v>9.73</v>
+        <v>4.6</v>
       </c>
       <c r="G648">
-        <v>6600</v>
+        <v>3400</v>
       </c>
       <c r="H648">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I648" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -25008,16 +25008,16 @@
         </is>
       </c>
       <c r="C649">
-        <v>15640</v>
+        <v>6800</v>
       </c>
       <c r="D649">
-        <v>13815</v>
+        <v>6800</v>
       </c>
       <c r="E649">
-        <v>18455.2</v>
+        <v>7140</v>
       </c>
       <c r="F649">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="G649">
         <v>3400</v>
@@ -25027,7 +25027,7 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J649" s="2">
@@ -25037,35 +25037,35 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C650">
-        <v>6800</v>
+        <v>9920</v>
       </c>
       <c r="D650">
-        <v>6800</v>
+        <v>1785.6</v>
       </c>
       <c r="E650">
-        <v>7140</v>
+        <v>11706</v>
       </c>
       <c r="F650">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="G650">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="H650">
         <v>1</v>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J650" s="2">
@@ -25075,73 +25075,73 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C651">
-        <v>9920</v>
+        <v>2447424</v>
       </c>
       <c r="D651">
-        <v>1785.6</v>
+        <v>440536.32</v>
       </c>
       <c r="E651">
-        <v>11706</v>
+        <v>2887959</v>
       </c>
       <c r="F651">
-        <v>1.24</v>
+        <v>291.36</v>
       </c>
       <c r="G651">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J651" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C652">
-        <v>2447424</v>
+        <v>2051687</v>
       </c>
       <c r="D652">
-        <v>440536.32</v>
+        <v>369303.66</v>
       </c>
       <c r="E652">
-        <v>2887959</v>
+        <v>2420991</v>
       </c>
       <c r="F652">
-        <v>291.36</v>
+        <v>288.97</v>
       </c>
       <c r="G652">
-        <v>8400</v>
+        <v>7100.000000000001</v>
       </c>
       <c r="H652">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J652" s="2">
@@ -25151,7 +25151,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -25160,26 +25160,26 @@
         </is>
       </c>
       <c r="C653">
-        <v>2051687</v>
+        <v>1389000</v>
       </c>
       <c r="D653">
-        <v>369303.66</v>
+        <v>250020</v>
       </c>
       <c r="E653">
-        <v>2420991</v>
+        <v>1639022</v>
       </c>
       <c r="F653">
-        <v>288.97</v>
+        <v>185.2</v>
       </c>
       <c r="G653">
-        <v>7100.000000000001</v>
+        <v>7500</v>
       </c>
       <c r="H653">
         <v>10</v>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J653" s="2">
@@ -25189,7 +25189,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -25198,22 +25198,22 @@
         </is>
       </c>
       <c r="C654">
-        <v>1389000</v>
+        <v>1058402</v>
       </c>
       <c r="D654">
-        <v>250020</v>
+        <v>190512.36</v>
       </c>
       <c r="E654">
-        <v>1639022</v>
+        <v>1248913</v>
       </c>
       <c r="F654">
-        <v>185.2</v>
+        <v>170.71</v>
       </c>
       <c r="G654">
-        <v>7500</v>
+        <v>6200</v>
       </c>
       <c r="H654">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I654" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -25236,26 +25236,26 @@
         </is>
       </c>
       <c r="C655">
-        <v>1058402</v>
+        <v>1052478</v>
       </c>
       <c r="D655">
-        <v>190512.36</v>
+        <v>189446.04</v>
       </c>
       <c r="E655">
-        <v>1248913</v>
+        <v>1241924</v>
       </c>
       <c r="F655">
-        <v>170.71</v>
+        <v>167.06</v>
       </c>
       <c r="G655">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H655">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J655" s="2">
@@ -25265,31 +25265,31 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C656">
-        <v>1052478</v>
+        <v>591710</v>
       </c>
       <c r="D656">
-        <v>189446.04</v>
+        <v>106507.86</v>
       </c>
       <c r="E656">
-        <v>1241924</v>
+        <v>698219</v>
       </c>
       <c r="F656">
-        <v>167.06</v>
+        <v>149.8</v>
       </c>
       <c r="G656">
-        <v>6300</v>
+        <v>3950</v>
       </c>
       <c r="H656">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I656" t="inlineStr">
         <is>
@@ -25303,35 +25303,35 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Tulsyan NEC Limited</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C657">
-        <v>591710</v>
+        <v>1076554.5</v>
       </c>
       <c r="D657">
-        <v>106507.86</v>
+        <v>193779.81</v>
       </c>
       <c r="E657">
-        <v>698219</v>
+        <v>1270335</v>
       </c>
       <c r="F657">
-        <v>149.8</v>
+        <v>142.59</v>
       </c>
       <c r="G657">
-        <v>3950</v>
+        <v>7550</v>
       </c>
       <c r="H657">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J657" s="2">
@@ -25341,35 +25341,35 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Tulsyan NEC Limited</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C658">
-        <v>1076554.5</v>
+        <v>1116586</v>
       </c>
       <c r="D658">
-        <v>193779.81</v>
+        <v>200985.48</v>
       </c>
       <c r="E658">
-        <v>1270335</v>
+        <v>1317571</v>
       </c>
       <c r="F658">
-        <v>142.59</v>
+        <v>141.34</v>
       </c>
       <c r="G658">
-        <v>7550</v>
+        <v>7900</v>
       </c>
       <c r="H658">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J658" s="2">
@@ -25379,31 +25379,31 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C659">
-        <v>1116586</v>
+        <v>309010</v>
       </c>
       <c r="D659">
-        <v>200985.48</v>
+        <v>55621.8</v>
       </c>
       <c r="E659">
-        <v>1317571</v>
+        <v>364632</v>
       </c>
       <c r="F659">
-        <v>141.34</v>
+        <v>95.08</v>
       </c>
       <c r="G659">
-        <v>7900</v>
+        <v>3250</v>
       </c>
       <c r="H659">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I659" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -25426,22 +25426,22 @@
         </is>
       </c>
       <c r="C660">
-        <v>309010</v>
+        <v>672987</v>
       </c>
       <c r="D660">
-        <v>55621.8</v>
+        <v>121137.66</v>
       </c>
       <c r="E660">
-        <v>364632</v>
+        <v>794125</v>
       </c>
       <c r="F660">
-        <v>95.08</v>
+        <v>92.19</v>
       </c>
       <c r="G660">
-        <v>3250</v>
+        <v>7300</v>
       </c>
       <c r="H660">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I660" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Mahalakshmi Profiles Pvt Ltd</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -25464,26 +25464,26 @@
         </is>
       </c>
       <c r="C661">
-        <v>672987</v>
+        <v>456900</v>
       </c>
       <c r="D661">
-        <v>121137.66</v>
+        <v>82242</v>
       </c>
       <c r="E661">
-        <v>794125</v>
+        <v>539142</v>
       </c>
       <c r="F661">
-        <v>92.19</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="G661">
-        <v>7300</v>
+        <v>6000</v>
       </c>
       <c r="H661">
         <v>4</v>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J661" s="2">
@@ -25493,35 +25493,35 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C662">
-        <v>456900</v>
+        <v>627456</v>
       </c>
       <c r="D662">
-        <v>82242</v>
+        <v>112942.08</v>
       </c>
       <c r="E662">
-        <v>539142</v>
+        <v>740398</v>
       </c>
       <c r="F662">
-        <v>76.15000000000001</v>
+        <v>72.96000000000001</v>
       </c>
       <c r="G662">
-        <v>6000</v>
+        <v>8599.999999999998</v>
       </c>
       <c r="H662">
         <v>4</v>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J662" s="2">
@@ -25531,31 +25531,31 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C663">
-        <v>627456</v>
+        <v>227904</v>
       </c>
       <c r="D663">
-        <v>112942.08</v>
+        <v>41022.72</v>
       </c>
       <c r="E663">
-        <v>740398</v>
+        <v>268928</v>
       </c>
       <c r="F663">
-        <v>72.96000000000001</v>
+        <v>71.22</v>
       </c>
       <c r="G663">
-        <v>8599.999999999998</v>
+        <v>3200</v>
       </c>
       <c r="H663">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I663" t="inlineStr">
         <is>
@@ -25569,35 +25569,35 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C664">
-        <v>227904</v>
+        <v>540072</v>
       </c>
       <c r="D664">
-        <v>41022.72</v>
+        <v>97212.96000000001</v>
       </c>
       <c r="E664">
-        <v>268928</v>
+        <v>637284</v>
       </c>
       <c r="F664">
-        <v>71.22</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="G664">
-        <v>3200</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H664">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J664" s="2">
@@ -25607,7 +25607,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -25616,26 +25616,26 @@
         </is>
       </c>
       <c r="C665">
-        <v>540072</v>
+        <v>611616</v>
       </c>
       <c r="D665">
-        <v>97212.96000000001</v>
+        <v>110090.88</v>
       </c>
       <c r="E665">
-        <v>637284</v>
+        <v>721707</v>
       </c>
       <c r="F665">
-        <v>69.24000000000001</v>
+        <v>66.48</v>
       </c>
       <c r="G665">
-        <v>7799.999999999999</v>
+        <v>9200</v>
       </c>
       <c r="H665">
         <v>4</v>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J665" s="2">
@@ -25645,7 +25645,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -25654,22 +25654,22 @@
         </is>
       </c>
       <c r="C666">
-        <v>611616</v>
+        <v>562096</v>
       </c>
       <c r="D666">
-        <v>110090.88</v>
+        <v>101177.28</v>
       </c>
       <c r="E666">
-        <v>721707</v>
+        <v>663273</v>
       </c>
       <c r="F666">
-        <v>66.48</v>
+        <v>65.36</v>
       </c>
       <c r="G666">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="H666">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr">
         <is>
@@ -25683,28 +25683,28 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C667">
-        <v>562096</v>
+        <v>390033</v>
       </c>
       <c r="D667">
-        <v>101177.28</v>
+        <v>70205.94</v>
       </c>
       <c r="E667">
-        <v>663273</v>
+        <v>460239</v>
       </c>
       <c r="F667">
-        <v>65.36</v>
+        <v>61.91</v>
       </c>
       <c r="G667">
-        <v>8600</v>
+        <v>6300</v>
       </c>
       <c r="H667">
         <v>2</v>
@@ -25721,7 +25721,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -25730,26 +25730,26 @@
         </is>
       </c>
       <c r="C668">
-        <v>390033</v>
+        <v>365199</v>
       </c>
       <c r="D668">
-        <v>70205.94</v>
+        <v>65735.82000000001</v>
       </c>
       <c r="E668">
-        <v>460239</v>
+        <v>430935</v>
       </c>
       <c r="F668">
-        <v>61.91</v>
+        <v>56.62</v>
       </c>
       <c r="G668">
-        <v>6300</v>
+        <v>6449.999999999999</v>
       </c>
       <c r="H668">
         <v>2</v>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J668" s="2">
@@ -25759,7 +25759,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -25768,26 +25768,26 @@
         </is>
       </c>
       <c r="C669">
-        <v>365199</v>
+        <v>335012</v>
       </c>
       <c r="D669">
-        <v>65735.82000000001</v>
+        <v>38166.48</v>
       </c>
       <c r="E669">
-        <v>430935</v>
+        <v>395313.68</v>
       </c>
       <c r="F669">
-        <v>56.62</v>
+        <v>54.92</v>
       </c>
       <c r="G669">
-        <v>6449.999999999999</v>
+        <v>6100</v>
       </c>
       <c r="H669">
         <v>2</v>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J669" s="2">
@@ -25797,35 +25797,35 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C670">
-        <v>335012</v>
+        <v>238896.45</v>
       </c>
       <c r="D670">
-        <v>38166.48</v>
+        <v>11944.82</v>
       </c>
       <c r="E670">
-        <v>395313.68</v>
+        <v>250841</v>
       </c>
       <c r="F670">
-        <v>54.92</v>
+        <v>54.73</v>
       </c>
       <c r="G670">
-        <v>6100</v>
+        <v>4365</v>
       </c>
       <c r="H670">
         <v>2</v>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J670" s="2">
@@ -25835,31 +25835,31 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C671">
-        <v>238896.45</v>
+        <v>292096</v>
       </c>
       <c r="D671">
-        <v>11944.82</v>
+        <v>52577.28</v>
       </c>
       <c r="E671">
-        <v>250841</v>
+        <v>344673</v>
       </c>
       <c r="F671">
-        <v>54.73</v>
+        <v>45.64</v>
       </c>
       <c r="G671">
-        <v>4365</v>
+        <v>6400</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I671" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -25882,26 +25882,26 @@
         </is>
       </c>
       <c r="C672">
-        <v>292096</v>
+        <v>257920</v>
       </c>
       <c r="D672">
-        <v>52577.28</v>
+        <v>46425.6</v>
       </c>
       <c r="E672">
-        <v>344673</v>
+        <v>304345.24</v>
       </c>
       <c r="F672">
-        <v>45.64</v>
+        <v>40.3</v>
       </c>
       <c r="G672">
         <v>6400</v>
       </c>
       <c r="H672">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J672" s="2">
@@ -25911,7 +25911,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -25920,19 +25920,19 @@
         </is>
       </c>
       <c r="C673">
-        <v>257920</v>
+        <v>250518</v>
       </c>
       <c r="D673">
-        <v>46425.6</v>
+        <v>45093.24</v>
       </c>
       <c r="E673">
-        <v>304345.24</v>
+        <v>295611.74</v>
       </c>
       <c r="F673">
-        <v>40.3</v>
+        <v>38.84</v>
       </c>
       <c r="G673">
-        <v>6400</v>
+        <v>6449.999999999999</v>
       </c>
       <c r="H673">
         <v>2</v>
@@ -25949,35 +25949,35 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C674">
-        <v>250518</v>
+        <v>288240</v>
       </c>
       <c r="D674">
-        <v>45093.24</v>
+        <v>51883.2</v>
       </c>
       <c r="E674">
-        <v>295611.74</v>
+        <v>340123</v>
       </c>
       <c r="F674">
-        <v>38.84</v>
+        <v>36.03</v>
       </c>
       <c r="G674">
-        <v>6449.999999999999</v>
+        <v>8000</v>
       </c>
       <c r="H674">
         <v>2</v>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J674" s="2">
@@ -25987,35 +25987,35 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C675">
-        <v>288240</v>
+        <v>121142</v>
       </c>
       <c r="D675">
-        <v>51883.2</v>
+        <v>21805.56</v>
       </c>
       <c r="E675">
-        <v>340123</v>
+        <v>142948</v>
       </c>
       <c r="F675">
-        <v>36.03</v>
+        <v>35.63</v>
       </c>
       <c r="G675">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J675" s="2">
@@ -26025,35 +26025,35 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C676">
-        <v>121142</v>
+        <v>244918</v>
       </c>
       <c r="D676">
-        <v>21805.56</v>
+        <v>44085.24</v>
       </c>
       <c r="E676">
-        <v>142948</v>
+        <v>289003</v>
       </c>
       <c r="F676">
-        <v>35.63</v>
+        <v>35.24</v>
       </c>
       <c r="G676">
-        <v>3400</v>
+        <v>6950</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J676" s="2">
@@ -26063,35 +26063,35 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C677">
-        <v>244918</v>
+        <v>267368</v>
       </c>
       <c r="D677">
-        <v>44085.24</v>
+        <v>48126.24</v>
       </c>
       <c r="E677">
-        <v>289003</v>
+        <v>315494</v>
       </c>
       <c r="F677">
-        <v>35.24</v>
+        <v>35.18</v>
       </c>
       <c r="G677">
-        <v>6950</v>
+        <v>7600</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J677" s="2">
@@ -26101,7 +26101,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -26110,26 +26110,26 @@
         </is>
       </c>
       <c r="C678">
-        <v>267368</v>
+        <v>277920</v>
       </c>
       <c r="D678">
-        <v>48126.24</v>
+        <v>50025.6</v>
       </c>
       <c r="E678">
-        <v>315494</v>
+        <v>327946</v>
       </c>
       <c r="F678">
-        <v>35.18</v>
+        <v>34.73999999999999</v>
       </c>
       <c r="G678">
-        <v>7600</v>
+        <v>8000.000000000001</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J678" s="2">
@@ -26139,7 +26139,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -26148,16 +26148,16 @@
         </is>
       </c>
       <c r="C679">
-        <v>277920</v>
+        <v>276400</v>
       </c>
       <c r="D679">
-        <v>50025.6</v>
+        <v>49752</v>
       </c>
       <c r="E679">
-        <v>327946</v>
+        <v>326152</v>
       </c>
       <c r="F679">
-        <v>34.73999999999999</v>
+        <v>34.55</v>
       </c>
       <c r="G679">
         <v>8000.000000000001</v>
@@ -26167,7 +26167,7 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J679" s="2">
@@ -26177,35 +26177,35 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C680">
-        <v>276400</v>
+        <v>217350</v>
       </c>
       <c r="D680">
-        <v>49752</v>
+        <v>39123</v>
       </c>
       <c r="E680">
-        <v>326152</v>
+        <v>256473</v>
       </c>
       <c r="F680">
-        <v>34.55</v>
+        <v>34.5</v>
       </c>
       <c r="G680">
-        <v>8000.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H680">
         <v>2</v>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J680" s="2">
@@ -26215,35 +26215,35 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C681">
-        <v>217350</v>
+        <v>52142</v>
       </c>
       <c r="D681">
-        <v>39123</v>
+        <v>9385.58</v>
       </c>
       <c r="E681">
-        <v>256473</v>
+        <v>61528</v>
       </c>
       <c r="F681">
-        <v>34.5</v>
+        <v>33.64</v>
       </c>
       <c r="G681">
-        <v>6300</v>
+        <v>1550</v>
       </c>
       <c r="H681">
         <v>2</v>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J681" s="2">
@@ -26253,31 +26253,31 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C682">
-        <v>52142</v>
+        <v>256387.5</v>
       </c>
       <c r="D682">
-        <v>9385.58</v>
+        <v>46149.75</v>
       </c>
       <c r="E682">
-        <v>61528</v>
+        <v>302537</v>
       </c>
       <c r="F682">
-        <v>33.64</v>
+        <v>32.25</v>
       </c>
       <c r="G682">
-        <v>1550</v>
+        <v>7950</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="inlineStr">
         <is>
@@ -26291,28 +26291,28 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C683">
-        <v>256387.5</v>
+        <v>102688</v>
       </c>
       <c r="D683">
-        <v>46149.75</v>
+        <v>18483.84</v>
       </c>
       <c r="E683">
-        <v>302537</v>
+        <v>121172</v>
       </c>
       <c r="F683">
-        <v>32.25</v>
+        <v>32.09</v>
       </c>
       <c r="G683">
-        <v>7950</v>
+        <v>3200</v>
       </c>
       <c r="H683">
         <v>1</v>
@@ -26329,35 +26329,35 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C684">
-        <v>102688</v>
+        <v>195741</v>
       </c>
       <c r="D684">
-        <v>18483.84</v>
+        <v>35233.38</v>
       </c>
       <c r="E684">
-        <v>121172</v>
+        <v>230974</v>
       </c>
       <c r="F684">
-        <v>32.09</v>
+        <v>31.07</v>
       </c>
       <c r="G684">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H684">
         <v>1</v>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J684" s="2">
@@ -26367,7 +26367,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -26376,16 +26376,16 @@
         </is>
       </c>
       <c r="C685">
-        <v>195741</v>
+        <v>194985</v>
       </c>
       <c r="D685">
-        <v>35233.38</v>
+        <v>35097.3</v>
       </c>
       <c r="E685">
-        <v>230974</v>
+        <v>230082</v>
       </c>
       <c r="F685">
-        <v>31.07</v>
+        <v>30.95</v>
       </c>
       <c r="G685">
         <v>6300</v>
@@ -26405,7 +26405,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -26414,16 +26414,16 @@
         </is>
       </c>
       <c r="C686">
-        <v>194985</v>
+        <v>194733</v>
       </c>
       <c r="D686">
-        <v>35097.3</v>
+        <v>35051.94</v>
       </c>
       <c r="E686">
-        <v>230082</v>
+        <v>229785</v>
       </c>
       <c r="F686">
-        <v>30.95</v>
+        <v>30.91</v>
       </c>
       <c r="G686">
         <v>6300</v>
@@ -26443,7 +26443,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -26452,19 +26452,19 @@
         </is>
       </c>
       <c r="C687">
-        <v>194733</v>
+        <v>197376</v>
       </c>
       <c r="D687">
-        <v>35051.94</v>
+        <v>35527.68</v>
       </c>
       <c r="E687">
-        <v>229785</v>
+        <v>232904</v>
       </c>
       <c r="F687">
-        <v>30.91</v>
+        <v>30.84</v>
       </c>
       <c r="G687">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H687">
         <v>1</v>
@@ -26481,7 +26481,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -26490,19 +26490,19 @@
         </is>
       </c>
       <c r="C688">
-        <v>197376</v>
+        <v>190827</v>
       </c>
       <c r="D688">
-        <v>35527.68</v>
+        <v>34348.86</v>
       </c>
       <c r="E688">
-        <v>232904</v>
+        <v>225176</v>
       </c>
       <c r="F688">
-        <v>30.84</v>
+        <v>30.29</v>
       </c>
       <c r="G688">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H688">
         <v>1</v>
@@ -26519,35 +26519,35 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C689">
-        <v>190827</v>
+        <v>147000</v>
       </c>
       <c r="D689">
-        <v>34348.86</v>
+        <v>7350</v>
       </c>
       <c r="E689">
-        <v>225176</v>
+        <v>154350</v>
       </c>
       <c r="F689">
-        <v>30.29</v>
+        <v>30</v>
       </c>
       <c r="G689">
-        <v>6300</v>
+        <v>4900</v>
       </c>
       <c r="H689">
         <v>1</v>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J689" s="2">
@@ -26557,35 +26557,35 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C690">
-        <v>147000</v>
+        <v>181109</v>
       </c>
       <c r="D690">
-        <v>7350</v>
+        <v>32599.62</v>
       </c>
       <c r="E690">
-        <v>154350</v>
+        <v>213709</v>
       </c>
       <c r="F690">
-        <v>30</v>
+        <v>29.69</v>
       </c>
       <c r="G690">
-        <v>4900</v>
+        <v>6100</v>
       </c>
       <c r="H690">
         <v>1</v>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J690" s="2">
@@ -26595,35 +26595,35 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C691">
-        <v>181109</v>
+        <v>15581.5</v>
       </c>
       <c r="D691">
-        <v>32599.62</v>
+        <v>779.08</v>
       </c>
       <c r="E691">
-        <v>213709</v>
+        <v>16361</v>
       </c>
       <c r="F691">
-        <v>29.69</v>
+        <v>28.33</v>
       </c>
       <c r="G691">
-        <v>6100</v>
+        <v>550</v>
       </c>
       <c r="H691">
         <v>1</v>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J691" s="2">
@@ -26633,35 +26633,35 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C692">
-        <v>15581.5</v>
+        <v>157377.5</v>
       </c>
       <c r="D692">
-        <v>779.08</v>
+        <v>28327.95</v>
       </c>
       <c r="E692">
-        <v>16361</v>
+        <v>185705</v>
       </c>
       <c r="F692">
-        <v>28.33</v>
+        <v>26.45</v>
       </c>
       <c r="G692">
-        <v>550</v>
+        <v>5950</v>
       </c>
       <c r="H692">
         <v>1</v>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J692" s="2">
@@ -26671,35 +26671,35 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C693">
-        <v>157377.5</v>
+        <v>68000</v>
       </c>
       <c r="D693">
-        <v>28327.95</v>
+        <v>0</v>
       </c>
       <c r="E693">
-        <v>185705</v>
+        <v>71400</v>
       </c>
       <c r="F693">
-        <v>26.45</v>
+        <v>25</v>
       </c>
       <c r="G693">
-        <v>5950</v>
+        <v>2720</v>
       </c>
       <c r="H693">
         <v>1</v>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J693" s="2">
@@ -26709,28 +26709,28 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C694">
-        <v>68000</v>
+        <v>158920.5</v>
       </c>
       <c r="D694">
-        <v>0</v>
+        <v>28605.69</v>
       </c>
       <c r="E694">
-        <v>71400</v>
+        <v>187526</v>
       </c>
       <c r="F694">
-        <v>25</v>
+        <v>19.99</v>
       </c>
       <c r="G694">
-        <v>2720</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H694">
         <v>1</v>
@@ -26747,28 +26747,28 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C695">
-        <v>158920.5</v>
+        <v>74960</v>
       </c>
       <c r="D695">
-        <v>28605.69</v>
+        <v>3748</v>
       </c>
       <c r="E695">
-        <v>187526</v>
+        <v>78708</v>
       </c>
       <c r="F695">
-        <v>19.99</v>
+        <v>18.74</v>
       </c>
       <c r="G695">
-        <v>7950.000000000001</v>
+        <v>4000</v>
       </c>
       <c r="H695">
         <v>1</v>
@@ -26785,28 +26785,28 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C696">
-        <v>74960</v>
+        <v>53108</v>
       </c>
       <c r="D696">
-        <v>3748</v>
+        <v>9559.440000000001</v>
       </c>
       <c r="E696">
-        <v>78708</v>
+        <v>62667</v>
       </c>
       <c r="F696">
-        <v>18.74</v>
+        <v>15.62</v>
       </c>
       <c r="G696">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="H696">
         <v>1</v>
@@ -26823,28 +26823,28 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Rama Hi Power Tech</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C697">
-        <v>53108</v>
+        <v>69720</v>
       </c>
       <c r="D697">
-        <v>9559.440000000001</v>
+        <v>12549.6</v>
       </c>
       <c r="E697">
-        <v>62667</v>
+        <v>82270</v>
       </c>
       <c r="F697">
-        <v>15.62</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="G697">
-        <v>3400</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H697">
         <v>1</v>
@@ -26861,35 +26861,35 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>Rama Hi Power Tech</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C698">
-        <v>69720</v>
+        <v>29460</v>
       </c>
       <c r="D698">
-        <v>12549.6</v>
+        <v>27438.48</v>
       </c>
       <c r="E698">
-        <v>82270</v>
+        <v>30933</v>
       </c>
       <c r="F698">
-        <v>9.960000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="G698">
-        <v>6999.999999999999</v>
+        <v>3000</v>
       </c>
       <c r="H698">
         <v>1</v>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J698" s="2">
@@ -26899,7 +26899,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -26908,26 +26908,26 @@
         </is>
       </c>
       <c r="C699">
-        <v>29460</v>
+        <v>7296</v>
       </c>
       <c r="D699">
-        <v>27438.48</v>
+        <v>1313.28</v>
       </c>
       <c r="E699">
-        <v>30933</v>
+        <v>8609</v>
       </c>
       <c r="F699">
-        <v>9.82</v>
+        <v>4.56</v>
       </c>
       <c r="G699">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="H699">
         <v>1</v>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J699" s="2">
@@ -26937,28 +26937,28 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>HINDUSTAN AERONAUTICS LTD</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C700">
-        <v>7296</v>
+        <v>17710</v>
       </c>
       <c r="D700">
-        <v>1313.28</v>
+        <v>885.5</v>
       </c>
       <c r="E700">
-        <v>8609</v>
+        <v>18596</v>
       </c>
       <c r="F700">
-        <v>4.56</v>
+        <v>2.53</v>
       </c>
       <c r="G700">
-        <v>1600</v>
+        <v>7000.000000000001</v>
       </c>
       <c r="H700">
         <v>1</v>
@@ -26975,7 +26975,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>HINDUSTAN AERONAUTICS LTD</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -26984,22 +26984,22 @@
         </is>
       </c>
       <c r="C701">
-        <v>17710</v>
+        <v>1647697</v>
       </c>
       <c r="D701">
-        <v>885.5</v>
+        <v>296585.46</v>
       </c>
       <c r="E701">
-        <v>18596</v>
+        <v>1944282.56</v>
       </c>
       <c r="F701">
-        <v>2.53</v>
+        <v>232.07</v>
       </c>
       <c r="G701">
-        <v>7000.000000000001</v>
+        <v>7100</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I701" t="inlineStr">
         <is>
@@ -27007,7 +27007,1261 @@
         </is>
       </c>
       <c r="J701" s="2">
-        <v>45078</v>
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>A One Ispat Private Ltd</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C702">
+        <v>1620922</v>
+      </c>
+      <c r="D702">
+        <v>291765.96</v>
+      </c>
+      <c r="E702">
+        <v>1912688.06</v>
+      </c>
+      <c r="F702">
+        <v>205.18</v>
+      </c>
+      <c r="G702">
+        <v>7900.000000000001</v>
+      </c>
+      <c r="H702">
+        <v>6</v>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J702" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C703">
+        <v>1188264</v>
+      </c>
+      <c r="D703">
+        <v>213887.52</v>
+      </c>
+      <c r="E703">
+        <v>1402151.6</v>
+      </c>
+      <c r="F703">
+        <v>141.46</v>
+      </c>
+      <c r="G703">
+        <v>8400</v>
+      </c>
+      <c r="H703">
+        <v>7</v>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J703" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C704">
+        <v>1016175</v>
+      </c>
+      <c r="D704">
+        <v>182911.5</v>
+      </c>
+      <c r="E704">
+        <v>1199087</v>
+      </c>
+      <c r="F704">
+        <v>135.49</v>
+      </c>
+      <c r="G704">
+        <v>7499.999999999999</v>
+      </c>
+      <c r="H704">
+        <v>8</v>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J704" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C705">
+        <v>491696</v>
+      </c>
+      <c r="D705">
+        <v>93623.08</v>
+      </c>
+      <c r="E705">
+        <v>580201.15</v>
+      </c>
+      <c r="F705">
+        <v>124.48</v>
+      </c>
+      <c r="G705">
+        <v>3950</v>
+      </c>
+      <c r="H705">
+        <v>5</v>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J705" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Pulkit Metals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C706">
+        <v>609780</v>
+      </c>
+      <c r="D706">
+        <v>109760.4</v>
+      </c>
+      <c r="E706">
+        <v>719541</v>
+      </c>
+      <c r="F706">
+        <v>101.63</v>
+      </c>
+      <c r="G706">
+        <v>6000</v>
+      </c>
+      <c r="H706">
+        <v>6</v>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J706" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C707">
+        <v>754614</v>
+      </c>
+      <c r="D707">
+        <v>135830.52</v>
+      </c>
+      <c r="E707">
+        <v>890445</v>
+      </c>
+      <c r="F707">
+        <v>94.92</v>
+      </c>
+      <c r="G707">
+        <v>7950</v>
+      </c>
+      <c r="H707">
+        <v>3</v>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J707" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>A One Steels And Alloys Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C708">
+        <v>717842</v>
+      </c>
+      <c r="D708">
+        <v>129211.56</v>
+      </c>
+      <c r="E708">
+        <v>847053</v>
+      </c>
+      <c r="F708">
+        <v>83.47</v>
+      </c>
+      <c r="G708">
+        <v>8600</v>
+      </c>
+      <c r="H708">
+        <v>4</v>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J708" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C709">
+        <v>656480</v>
+      </c>
+      <c r="D709">
+        <v>118166.4</v>
+      </c>
+      <c r="E709">
+        <v>774646</v>
+      </c>
+      <c r="F709">
+        <v>82.06</v>
+      </c>
+      <c r="G709">
+        <v>8000</v>
+      </c>
+      <c r="H709">
+        <v>4</v>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J709" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Shivam Ispat (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C710">
+        <v>488329.5</v>
+      </c>
+      <c r="D710">
+        <v>87899.31</v>
+      </c>
+      <c r="E710">
+        <v>576228</v>
+      </c>
+      <c r="F710">
+        <v>75.70999999999999</v>
+      </c>
+      <c r="G710">
+        <v>6450.000000000001</v>
+      </c>
+      <c r="H710">
+        <v>4</v>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J710" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C711">
+        <v>431046</v>
+      </c>
+      <c r="D711">
+        <v>77588.28</v>
+      </c>
+      <c r="E711">
+        <v>508634</v>
+      </c>
+      <c r="F711">
+        <v>68.42</v>
+      </c>
+      <c r="G711">
+        <v>6300</v>
+      </c>
+      <c r="H711">
+        <v>2</v>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J711" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Bharat Heavy Electricals Limited</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C712">
+        <v>223662.6</v>
+      </c>
+      <c r="D712">
+        <v>11183.13</v>
+      </c>
+      <c r="E712">
+        <v>234845</v>
+      </c>
+      <c r="F712">
+        <v>51.23999999999999</v>
+      </c>
+      <c r="G712">
+        <v>4365.000000000001</v>
+      </c>
+      <c r="H712">
+        <v>2</v>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J712" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C713">
+        <v>166432.5</v>
+      </c>
+      <c r="D713">
+        <v>31988.98</v>
+      </c>
+      <c r="E713">
+        <v>196390.4</v>
+      </c>
+      <c r="F713">
+        <v>51.20999999999999</v>
+      </c>
+      <c r="G713">
+        <v>3250</v>
+      </c>
+      <c r="H713">
+        <v>2</v>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J713" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C714">
+        <v>145152</v>
+      </c>
+      <c r="D714">
+        <v>26127.36</v>
+      </c>
+      <c r="E714">
+        <v>171278</v>
+      </c>
+      <c r="F714">
+        <v>45.36</v>
+      </c>
+      <c r="G714">
+        <v>3200</v>
+      </c>
+      <c r="H714">
+        <v>3</v>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J714" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C715">
+        <v>289024</v>
+      </c>
+      <c r="D715">
+        <v>52024.32</v>
+      </c>
+      <c r="E715">
+        <v>341048</v>
+      </c>
+      <c r="F715">
+        <v>45.16</v>
+      </c>
+      <c r="G715">
+        <v>6400.000000000001</v>
+      </c>
+      <c r="H715">
+        <v>2</v>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J715" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Prime Gold International Limited</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C716">
+        <v>324880</v>
+      </c>
+      <c r="D716">
+        <v>58478.4</v>
+      </c>
+      <c r="E716">
+        <v>383358</v>
+      </c>
+      <c r="F716">
+        <v>40.61</v>
+      </c>
+      <c r="G716">
+        <v>8000</v>
+      </c>
+      <c r="H716">
+        <v>2</v>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>Sharad Bhutra</t>
+        </is>
+      </c>
+      <c r="J716" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C717">
+        <v>258258</v>
+      </c>
+      <c r="D717">
+        <v>46486.44</v>
+      </c>
+      <c r="E717">
+        <v>304745</v>
+      </c>
+      <c r="F717">
+        <v>40.04</v>
+      </c>
+      <c r="G717">
+        <v>6450</v>
+      </c>
+      <c r="H717">
+        <v>2</v>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J717" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C718">
+        <v>61349</v>
+      </c>
+      <c r="D718">
+        <v>9011.720000000001</v>
+      </c>
+      <c r="E718">
+        <v>72392.12</v>
+      </c>
+      <c r="F718">
+        <v>39.58</v>
+      </c>
+      <c r="G718">
+        <v>1550</v>
+      </c>
+      <c r="H718">
+        <v>3</v>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J718" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C719">
+        <v>259442</v>
+      </c>
+      <c r="D719">
+        <v>46699.56</v>
+      </c>
+      <c r="E719">
+        <v>306142</v>
+      </c>
+      <c r="F719">
+        <v>35.54</v>
+      </c>
+      <c r="G719">
+        <v>7300</v>
+      </c>
+      <c r="H719">
+        <v>1</v>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J719" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Pushpit Steels Private Limited</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C720">
+        <v>220162</v>
+      </c>
+      <c r="D720">
+        <v>39629.16</v>
+      </c>
+      <c r="E720">
+        <v>259791</v>
+      </c>
+      <c r="F720">
+        <v>35.51</v>
+      </c>
+      <c r="G720">
+        <v>6200</v>
+      </c>
+      <c r="H720">
+        <v>1</v>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J720" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>MANDOVI CASTING PVT LTD</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C721">
+        <v>226395</v>
+      </c>
+      <c r="D721">
+        <v>40751.1</v>
+      </c>
+      <c r="E721">
+        <v>267146.1</v>
+      </c>
+      <c r="F721">
+        <v>35.1</v>
+      </c>
+      <c r="G721">
+        <v>6450</v>
+      </c>
+      <c r="H721">
+        <v>2</v>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J721" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Pattambi Brothers</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C722">
+        <v>220941</v>
+      </c>
+      <c r="D722">
+        <v>39769.38</v>
+      </c>
+      <c r="E722">
+        <v>260710.38</v>
+      </c>
+      <c r="F722">
+        <v>35.07</v>
+      </c>
+      <c r="G722">
+        <v>6300</v>
+      </c>
+      <c r="H722">
+        <v>1</v>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J722" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C723">
+        <v>319792</v>
+      </c>
+      <c r="D723">
+        <v>57562.56</v>
+      </c>
+      <c r="E723">
+        <v>377355</v>
+      </c>
+      <c r="F723">
+        <v>34.76000000000001</v>
+      </c>
+      <c r="G723">
+        <v>9199.999999999998</v>
+      </c>
+      <c r="H723">
+        <v>2</v>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J723" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C724">
+        <v>128353</v>
+      </c>
+      <c r="D724">
+        <v>23103.54</v>
+      </c>
+      <c r="E724">
+        <v>151457</v>
+      </c>
+      <c r="F724">
+        <v>34.69</v>
+      </c>
+      <c r="G724">
+        <v>3700</v>
+      </c>
+      <c r="H724">
+        <v>1</v>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J724" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>A One Steels And Alloys Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C725">
+        <v>124450</v>
+      </c>
+      <c r="D725">
+        <v>22401</v>
+      </c>
+      <c r="E725">
+        <v>146851</v>
+      </c>
+      <c r="F725">
+        <v>32.75</v>
+      </c>
+      <c r="G725">
+        <v>3800</v>
+      </c>
+      <c r="H725">
+        <v>1</v>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J725" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C726">
+        <v>195930</v>
+      </c>
+      <c r="D726">
+        <v>35267.4</v>
+      </c>
+      <c r="E726">
+        <v>231197</v>
+      </c>
+      <c r="F726">
+        <v>31.1</v>
+      </c>
+      <c r="G726">
+        <v>6300</v>
+      </c>
+      <c r="H726">
+        <v>2</v>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J726" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C727">
+        <v>193408</v>
+      </c>
+      <c r="D727">
+        <v>34813.44</v>
+      </c>
+      <c r="E727">
+        <v>228221</v>
+      </c>
+      <c r="F727">
+        <v>30.22</v>
+      </c>
+      <c r="G727">
+        <v>6400</v>
+      </c>
+      <c r="H727">
+        <v>1</v>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J727" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>M.A.STEELS (P) LTD</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C728">
+        <v>189063</v>
+      </c>
+      <c r="D728">
+        <v>34031.34</v>
+      </c>
+      <c r="E728">
+        <v>223094</v>
+      </c>
+      <c r="F728">
+        <v>30.01</v>
+      </c>
+      <c r="G728">
+        <v>6300</v>
+      </c>
+      <c r="H728">
+        <v>1</v>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J728" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C729">
+        <v>80620.8</v>
+      </c>
+      <c r="D729">
+        <v>4031.04</v>
+      </c>
+      <c r="E729">
+        <v>84652</v>
+      </c>
+      <c r="F729">
+        <v>29.64</v>
+      </c>
+      <c r="G729">
+        <v>2720</v>
+      </c>
+      <c r="H729">
+        <v>1</v>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J729" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C730">
+        <v>109200</v>
+      </c>
+      <c r="D730">
+        <v>5460</v>
+      </c>
+      <c r="E730">
+        <v>114660</v>
+      </c>
+      <c r="F730">
+        <v>27.3</v>
+      </c>
+      <c r="G730">
+        <v>4000</v>
+      </c>
+      <c r="H730">
+        <v>2</v>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J730" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C731">
+        <v>124745</v>
+      </c>
+      <c r="D731">
+        <v>0</v>
+      </c>
+      <c r="E731">
+        <v>147199.1</v>
+      </c>
+      <c r="F731">
+        <v>20.45</v>
+      </c>
+      <c r="G731">
+        <v>6100</v>
+      </c>
+      <c r="H731">
+        <v>1</v>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J731" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C732">
+        <v>28432</v>
+      </c>
+      <c r="D732">
+        <v>0</v>
+      </c>
+      <c r="E732">
+        <v>33549.75999999999</v>
+      </c>
+      <c r="F732">
+        <v>17.77</v>
+      </c>
+      <c r="G732">
+        <v>1600</v>
+      </c>
+      <c r="H732">
+        <v>2</v>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J732" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C733">
+        <v>29970</v>
+      </c>
+      <c r="D733">
+        <v>27848.7</v>
+      </c>
+      <c r="E733">
+        <v>35364.6</v>
+      </c>
+      <c r="F733">
+        <v>9.99</v>
+      </c>
+      <c r="G733">
+        <v>3000</v>
+      </c>
+      <c r="H733">
+        <v>1</v>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J733" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Oswal Smelters Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Quartz Grain</t>
+        </is>
+      </c>
+      <c r="C734">
+        <v>11772.5</v>
+      </c>
+      <c r="D734">
+        <v>588.62</v>
+      </c>
+      <c r="E734">
+        <v>12361</v>
+      </c>
+      <c r="F734">
+        <v>2.77</v>
+      </c>
+      <c r="G734">
+        <v>4250</v>
+      </c>
+      <c r="H734">
+        <v>1</v>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J734" s="2">
+        <v>45108</v>
       </c>
     </row>
   </sheetData>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J734"/>
+  <dimension ref="A1:J740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26984,22 +26984,22 @@
         </is>
       </c>
       <c r="C701">
-        <v>1647697</v>
+        <v>1859277</v>
       </c>
       <c r="D701">
         <v>296585.46</v>
       </c>
       <c r="E701">
-        <v>1944282.56</v>
+        <v>2193946.96</v>
       </c>
       <c r="F701">
-        <v>232.07</v>
+        <v>261.87</v>
       </c>
       <c r="G701">
         <v>7100</v>
       </c>
       <c r="H701">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I701" t="inlineStr">
         <is>
@@ -27060,22 +27060,22 @@
         </is>
       </c>
       <c r="C703">
-        <v>1188264</v>
+        <v>1485624</v>
       </c>
       <c r="D703">
         <v>213887.52</v>
       </c>
       <c r="E703">
-        <v>1402151.6</v>
+        <v>1753036.4</v>
       </c>
       <c r="F703">
-        <v>141.46</v>
+        <v>176.86</v>
       </c>
       <c r="G703">
         <v>8400</v>
       </c>
       <c r="H703">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I703" t="inlineStr">
         <is>
@@ -27089,35 +27089,35 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C704">
-        <v>1016175</v>
+        <v>610630.5</v>
       </c>
       <c r="D704">
-        <v>182911.5</v>
+        <v>93623.08</v>
       </c>
       <c r="E704">
-        <v>1199087</v>
+        <v>720543.86</v>
       </c>
       <c r="F704">
-        <v>135.49</v>
+        <v>154.59</v>
       </c>
       <c r="G704">
-        <v>7499.999999999999</v>
+        <v>3950</v>
       </c>
       <c r="H704">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J704" s="2">
@@ -27127,35 +27127,35 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C705">
-        <v>491696</v>
+        <v>1016175</v>
       </c>
       <c r="D705">
-        <v>93623.08</v>
+        <v>182911.5</v>
       </c>
       <c r="E705">
-        <v>580201.15</v>
+        <v>1199087</v>
       </c>
       <c r="F705">
-        <v>124.48</v>
+        <v>135.49</v>
       </c>
       <c r="G705">
-        <v>3950</v>
+        <v>7499.999999999999</v>
       </c>
       <c r="H705">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J705" s="2">
@@ -27203,28 +27203,28 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C707">
-        <v>754614</v>
+        <v>629811</v>
       </c>
       <c r="D707">
-        <v>135830.52</v>
+        <v>77588.28</v>
       </c>
       <c r="E707">
-        <v>890445</v>
+        <v>743176.7</v>
       </c>
       <c r="F707">
-        <v>94.92</v>
+        <v>99.97</v>
       </c>
       <c r="G707">
-        <v>7950</v>
+        <v>6299.999999999999</v>
       </c>
       <c r="H707">
         <v>3</v>
@@ -27241,7 +27241,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -27250,22 +27250,22 @@
         </is>
       </c>
       <c r="C708">
-        <v>717842</v>
+        <v>754614</v>
       </c>
       <c r="D708">
-        <v>129211.56</v>
+        <v>135830.52</v>
       </c>
       <c r="E708">
-        <v>847053</v>
+        <v>890445</v>
       </c>
       <c r="F708">
-        <v>83.47</v>
+        <v>94.92</v>
       </c>
       <c r="G708">
-        <v>8600</v>
+        <v>7950</v>
       </c>
       <c r="H708">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I708" t="inlineStr">
         <is>
@@ -27279,31 +27279,31 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C709">
-        <v>656480</v>
+        <v>612616</v>
       </c>
       <c r="D709">
-        <v>118166.4</v>
+        <v>46699.56</v>
       </c>
       <c r="E709">
-        <v>774646</v>
+        <v>722887.3200000001</v>
       </c>
       <c r="F709">
-        <v>82.06</v>
+        <v>83.92</v>
       </c>
       <c r="G709">
-        <v>8000</v>
+        <v>7300</v>
       </c>
       <c r="H709">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr">
         <is>
@@ -27317,35 +27317,35 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C710">
-        <v>488329.5</v>
+        <v>717842</v>
       </c>
       <c r="D710">
-        <v>87899.31</v>
+        <v>129211.56</v>
       </c>
       <c r="E710">
-        <v>576228</v>
+        <v>847053</v>
       </c>
       <c r="F710">
-        <v>75.70999999999999</v>
+        <v>83.47</v>
       </c>
       <c r="G710">
-        <v>6450.000000000001</v>
+        <v>8600</v>
       </c>
       <c r="H710">
         <v>4</v>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J710" s="2">
@@ -27355,31 +27355,31 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C711">
-        <v>431046</v>
+        <v>656480</v>
       </c>
       <c r="D711">
-        <v>77588.28</v>
+        <v>118166.4</v>
       </c>
       <c r="E711">
-        <v>508634</v>
+        <v>774646</v>
       </c>
       <c r="F711">
-        <v>68.42</v>
+        <v>82.06</v>
       </c>
       <c r="G711">
-        <v>6300</v>
+        <v>8000</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I711" t="inlineStr">
         <is>
@@ -27393,31 +27393,31 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C712">
-        <v>223662.6</v>
+        <v>250607.5</v>
       </c>
       <c r="D712">
-        <v>11183.13</v>
+        <v>31988.98</v>
       </c>
       <c r="E712">
-        <v>234845</v>
+        <v>295716.9</v>
       </c>
       <c r="F712">
-        <v>51.23999999999999</v>
+        <v>77.11</v>
       </c>
       <c r="G712">
-        <v>4365.000000000001</v>
+        <v>3250</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I712" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -27440,26 +27440,26 @@
         </is>
       </c>
       <c r="C713">
-        <v>166432.5</v>
+        <v>488329.5</v>
       </c>
       <c r="D713">
-        <v>31988.98</v>
+        <v>87899.31</v>
       </c>
       <c r="E713">
-        <v>196390.4</v>
+        <v>576228</v>
       </c>
       <c r="F713">
-        <v>51.20999999999999</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="G713">
-        <v>3250</v>
+        <v>6450.000000000001</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J713" s="2">
@@ -27469,35 +27469,35 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C714">
-        <v>145152</v>
+        <v>439890</v>
       </c>
       <c r="D714">
-        <v>26127.36</v>
+        <v>39629.16</v>
       </c>
       <c r="E714">
-        <v>171278</v>
+        <v>519070.04</v>
       </c>
       <c r="F714">
-        <v>45.36</v>
+        <v>70.94999999999999</v>
       </c>
       <c r="G714">
-        <v>3200</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H714">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J714" s="2">
@@ -27507,28 +27507,28 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C715">
-        <v>289024</v>
+        <v>223662.6</v>
       </c>
       <c r="D715">
-        <v>52024.32</v>
+        <v>11183.13</v>
       </c>
       <c r="E715">
-        <v>341048</v>
+        <v>234845</v>
       </c>
       <c r="F715">
-        <v>45.16</v>
+        <v>51.23999999999999</v>
       </c>
       <c r="G715">
-        <v>6400.000000000001</v>
+        <v>4365.000000000001</v>
       </c>
       <c r="H715">
         <v>2</v>
@@ -27545,35 +27545,35 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C716">
-        <v>324880</v>
+        <v>298717</v>
       </c>
       <c r="D716">
-        <v>58478.4</v>
+        <v>0</v>
       </c>
       <c r="E716">
-        <v>383358</v>
+        <v>352486.06</v>
       </c>
       <c r="F716">
-        <v>40.61</v>
+        <v>48.97</v>
       </c>
       <c r="G716">
-        <v>8000</v>
+        <v>6100</v>
       </c>
       <c r="H716">
         <v>2</v>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J716" s="2">
@@ -27583,35 +27583,35 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C717">
-        <v>258258</v>
+        <v>145152</v>
       </c>
       <c r="D717">
-        <v>46486.44</v>
+        <v>26127.36</v>
       </c>
       <c r="E717">
-        <v>304745</v>
+        <v>171278</v>
       </c>
       <c r="F717">
-        <v>40.04</v>
+        <v>45.36</v>
       </c>
       <c r="G717">
-        <v>6450</v>
+        <v>3200</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J717" s="2">
@@ -27621,31 +27621,31 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C718">
-        <v>61349</v>
+        <v>289024</v>
       </c>
       <c r="D718">
-        <v>9011.720000000001</v>
+        <v>52024.32</v>
       </c>
       <c r="E718">
-        <v>72392.12</v>
+        <v>341048</v>
       </c>
       <c r="F718">
-        <v>39.58</v>
+        <v>45.16</v>
       </c>
       <c r="G718">
-        <v>1550</v>
+        <v>6400.000000000001</v>
       </c>
       <c r="H718">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr">
         <is>
@@ -27659,35 +27659,35 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C719">
-        <v>259442</v>
+        <v>323485.5</v>
       </c>
       <c r="D719">
-        <v>46699.56</v>
+        <v>0</v>
       </c>
       <c r="E719">
-        <v>306142</v>
+        <v>381712.89</v>
       </c>
       <c r="F719">
-        <v>35.54</v>
+        <v>40.69</v>
       </c>
       <c r="G719">
-        <v>7300</v>
+        <v>7950</v>
       </c>
       <c r="H719">
         <v>1</v>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J719" s="2">
@@ -27697,35 +27697,35 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C720">
-        <v>220162</v>
+        <v>324880</v>
       </c>
       <c r="D720">
-        <v>39629.16</v>
+        <v>58478.4</v>
       </c>
       <c r="E720">
-        <v>259791</v>
+        <v>383358</v>
       </c>
       <c r="F720">
-        <v>35.51</v>
+        <v>40.61</v>
       </c>
       <c r="G720">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J720" s="2">
@@ -27735,7 +27735,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -27744,16 +27744,16 @@
         </is>
       </c>
       <c r="C721">
-        <v>226395</v>
+        <v>258258</v>
       </c>
       <c r="D721">
-        <v>40751.1</v>
+        <v>46486.44</v>
       </c>
       <c r="E721">
-        <v>267146.1</v>
+        <v>304745</v>
       </c>
       <c r="F721">
-        <v>35.1</v>
+        <v>40.04</v>
       </c>
       <c r="G721">
         <v>6450</v>
@@ -27773,35 +27773,35 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C722">
-        <v>220941</v>
+        <v>61349</v>
       </c>
       <c r="D722">
-        <v>39769.38</v>
+        <v>9011.720000000001</v>
       </c>
       <c r="E722">
-        <v>260710.38</v>
+        <v>72392.12</v>
       </c>
       <c r="F722">
-        <v>35.07</v>
+        <v>39.58</v>
       </c>
       <c r="G722">
-        <v>6300</v>
+        <v>1550</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J722" s="2">
@@ -27811,35 +27811,35 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C723">
-        <v>319792</v>
+        <v>138472</v>
       </c>
       <c r="D723">
-        <v>57562.56</v>
+        <v>0</v>
       </c>
       <c r="E723">
-        <v>377355</v>
+        <v>163396.96</v>
       </c>
       <c r="F723">
-        <v>34.76000000000001</v>
+        <v>36.44</v>
       </c>
       <c r="G723">
-        <v>9199.999999999998</v>
+        <v>3800</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J723" s="2">
@@ -27849,35 +27849,35 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C724">
-        <v>128353</v>
+        <v>269344</v>
       </c>
       <c r="D724">
-        <v>23103.54</v>
+        <v>0</v>
       </c>
       <c r="E724">
-        <v>151457</v>
+        <v>317825.92</v>
       </c>
       <c r="F724">
-        <v>34.69</v>
+        <v>35.44</v>
       </c>
       <c r="G724">
-        <v>3700</v>
+        <v>7600.000000000001</v>
       </c>
       <c r="H724">
         <v>1</v>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J724" s="2">
@@ -27887,35 +27887,35 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C725">
-        <v>124450</v>
+        <v>210570.5</v>
       </c>
       <c r="D725">
-        <v>22401</v>
+        <v>0</v>
       </c>
       <c r="E725">
-        <v>146851</v>
+        <v>248473.19</v>
       </c>
       <c r="F725">
-        <v>32.75</v>
+        <v>35.39</v>
       </c>
       <c r="G725">
-        <v>3800</v>
+        <v>5950</v>
       </c>
       <c r="H725">
         <v>1</v>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J725" s="2">
@@ -27925,35 +27925,35 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C726">
-        <v>195930</v>
+        <v>119816</v>
       </c>
       <c r="D726">
-        <v>35267.4</v>
+        <v>0</v>
       </c>
       <c r="E726">
-        <v>231197</v>
+        <v>141382.88</v>
       </c>
       <c r="F726">
-        <v>31.1</v>
+        <v>35.23999999999999</v>
       </c>
       <c r="G726">
-        <v>6300</v>
+        <v>3400</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J726" s="2">
@@ -27963,7 +27963,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -27972,26 +27972,26 @@
         </is>
       </c>
       <c r="C727">
-        <v>193408</v>
+        <v>226395</v>
       </c>
       <c r="D727">
-        <v>34813.44</v>
+        <v>40751.1</v>
       </c>
       <c r="E727">
-        <v>228221</v>
+        <v>267146.1</v>
       </c>
       <c r="F727">
-        <v>30.22</v>
+        <v>35.1</v>
       </c>
       <c r="G727">
-        <v>6400</v>
+        <v>6450</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J727" s="2">
@@ -28001,7 +28001,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="C728">
-        <v>189063</v>
+        <v>220941</v>
       </c>
       <c r="D728">
-        <v>34031.34</v>
+        <v>39769.38</v>
       </c>
       <c r="E728">
-        <v>223094</v>
+        <v>260710.38</v>
       </c>
       <c r="F728">
-        <v>30.01</v>
+        <v>35.07</v>
       </c>
       <c r="G728">
         <v>6300</v>
@@ -28039,31 +28039,31 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C729">
-        <v>80620.8</v>
+        <v>319792</v>
       </c>
       <c r="D729">
-        <v>4031.04</v>
+        <v>57562.56</v>
       </c>
       <c r="E729">
-        <v>84652</v>
+        <v>377355</v>
       </c>
       <c r="F729">
-        <v>29.64</v>
+        <v>34.76000000000001</v>
       </c>
       <c r="G729">
-        <v>2720</v>
+        <v>9199.999999999998</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr">
         <is>
@@ -28077,31 +28077,31 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C730">
-        <v>109200</v>
+        <v>128353</v>
       </c>
       <c r="D730">
-        <v>5460</v>
+        <v>23103.54</v>
       </c>
       <c r="E730">
-        <v>114660</v>
+        <v>151457</v>
       </c>
       <c r="F730">
-        <v>27.3</v>
+        <v>34.69</v>
       </c>
       <c r="G730">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730" t="inlineStr">
         <is>
@@ -28115,35 +28115,35 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C731">
-        <v>124745</v>
+        <v>124450</v>
       </c>
       <c r="D731">
-        <v>0</v>
+        <v>22401</v>
       </c>
       <c r="E731">
-        <v>147199.1</v>
+        <v>146851</v>
       </c>
       <c r="F731">
-        <v>20.45</v>
+        <v>32.75</v>
       </c>
       <c r="G731">
-        <v>6100</v>
+        <v>3800</v>
       </c>
       <c r="H731">
         <v>1</v>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J731" s="2">
@@ -28153,35 +28153,35 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C732">
-        <v>28432</v>
+        <v>195930</v>
       </c>
       <c r="D732">
-        <v>0</v>
+        <v>35267.4</v>
       </c>
       <c r="E732">
-        <v>33549.75999999999</v>
+        <v>231197</v>
       </c>
       <c r="F732">
-        <v>17.77</v>
+        <v>31.1</v>
       </c>
       <c r="G732">
-        <v>1600</v>
+        <v>6300</v>
       </c>
       <c r="H732">
         <v>2</v>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J732" s="2">
@@ -28191,35 +28191,35 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C733">
-        <v>29970</v>
+        <v>193408</v>
       </c>
       <c r="D733">
-        <v>27848.7</v>
+        <v>34813.44</v>
       </c>
       <c r="E733">
-        <v>35364.6</v>
+        <v>228221</v>
       </c>
       <c r="F733">
-        <v>9.99</v>
+        <v>30.22</v>
       </c>
       <c r="G733">
-        <v>3000</v>
+        <v>6400</v>
       </c>
       <c r="H733">
         <v>1</v>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J733" s="2">
@@ -28229,38 +28229,266 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
+          <t>M.A.STEELS (P) LTD</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C734">
+        <v>189063</v>
+      </c>
+      <c r="D734">
+        <v>34031.34</v>
+      </c>
+      <c r="E734">
+        <v>223094</v>
+      </c>
+      <c r="F734">
+        <v>30.01</v>
+      </c>
+      <c r="G734">
+        <v>6300</v>
+      </c>
+      <c r="H734">
+        <v>1</v>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J734" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C735">
+        <v>188244</v>
+      </c>
+      <c r="D735">
+        <v>0</v>
+      </c>
+      <c r="E735">
+        <v>222127.92</v>
+      </c>
+      <c r="F735">
+        <v>29.88</v>
+      </c>
+      <c r="G735">
+        <v>6300</v>
+      </c>
+      <c r="H735">
+        <v>1</v>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J735" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C736">
+        <v>80620.8</v>
+      </c>
+      <c r="D736">
+        <v>4031.04</v>
+      </c>
+      <c r="E736">
+        <v>84652</v>
+      </c>
+      <c r="F736">
+        <v>29.64</v>
+      </c>
+      <c r="G736">
+        <v>2720</v>
+      </c>
+      <c r="H736">
+        <v>1</v>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J736" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C737">
+        <v>109200</v>
+      </c>
+      <c r="D737">
+        <v>5460</v>
+      </c>
+      <c r="E737">
+        <v>114660</v>
+      </c>
+      <c r="F737">
+        <v>27.3</v>
+      </c>
+      <c r="G737">
+        <v>4000</v>
+      </c>
+      <c r="H737">
+        <v>2</v>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J737" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C738">
+        <v>28432</v>
+      </c>
+      <c r="D738">
+        <v>0</v>
+      </c>
+      <c r="E738">
+        <v>33549.75999999999</v>
+      </c>
+      <c r="F738">
+        <v>17.77</v>
+      </c>
+      <c r="G738">
+        <v>1600</v>
+      </c>
+      <c r="H738">
+        <v>2</v>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J738" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C739">
+        <v>49020</v>
+      </c>
+      <c r="D739">
+        <v>27848.7</v>
+      </c>
+      <c r="E739">
+        <v>57843.6</v>
+      </c>
+      <c r="F739">
+        <v>16.34</v>
+      </c>
+      <c r="G739">
+        <v>3000</v>
+      </c>
+      <c r="H739">
+        <v>2</v>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J739" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
           <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
-      <c r="B734" t="inlineStr">
+      <c r="B740" t="inlineStr">
         <is>
           <t>Quartz Grain</t>
         </is>
       </c>
-      <c r="C734">
-        <v>11772.5</v>
-      </c>
-      <c r="D734">
+      <c r="C740">
+        <v>21802.5</v>
+      </c>
+      <c r="D740">
         <v>588.62</v>
       </c>
-      <c r="E734">
-        <v>12361</v>
-      </c>
-      <c r="F734">
-        <v>2.77</v>
-      </c>
-      <c r="G734">
+      <c r="E740">
+        <v>22892.5</v>
+      </c>
+      <c r="F740">
+        <v>5.13</v>
+      </c>
+      <c r="G740">
         <v>4250</v>
       </c>
-      <c r="H734">
-        <v>1</v>
-      </c>
-      <c r="I734" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J734" s="2">
+      <c r="H740">
+        <v>2</v>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J740" s="2">
         <v>45108</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J740"/>
+  <dimension ref="A1:J749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26984,22 +26984,22 @@
         </is>
       </c>
       <c r="C701">
-        <v>1859277</v>
+        <v>2578081</v>
       </c>
       <c r="D701">
-        <v>296585.46</v>
+        <v>464054.58</v>
       </c>
       <c r="E701">
-        <v>2193946.96</v>
+        <v>3042135.56</v>
       </c>
       <c r="F701">
-        <v>261.87</v>
+        <v>363.11</v>
       </c>
       <c r="G701">
         <v>7100</v>
       </c>
       <c r="H701">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I701" t="inlineStr">
         <is>
@@ -27022,22 +27022,22 @@
         </is>
       </c>
       <c r="C702">
-        <v>1620922</v>
+        <v>1895842</v>
       </c>
       <c r="D702">
-        <v>291765.96</v>
+        <v>341251.56</v>
       </c>
       <c r="E702">
-        <v>1912688.06</v>
+        <v>2237094.06</v>
       </c>
       <c r="F702">
-        <v>205.18</v>
+        <v>239.98</v>
       </c>
       <c r="G702">
         <v>7900.000000000001</v>
       </c>
       <c r="H702">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I702" t="inlineStr">
         <is>
@@ -27060,22 +27060,22 @@
         </is>
       </c>
       <c r="C703">
-        <v>1485624</v>
+        <v>1791384</v>
       </c>
       <c r="D703">
-        <v>213887.52</v>
+        <v>322449.12</v>
       </c>
       <c r="E703">
-        <v>1753036.4</v>
+        <v>2113833.6</v>
       </c>
       <c r="F703">
-        <v>176.86</v>
+        <v>213.26</v>
       </c>
       <c r="G703">
         <v>8400</v>
       </c>
       <c r="H703">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I703" t="inlineStr">
         <is>
@@ -27098,22 +27098,22 @@
         </is>
       </c>
       <c r="C704">
-        <v>610630.5</v>
+        <v>752514.5</v>
       </c>
       <c r="D704">
-        <v>93623.08</v>
+        <v>140570.42</v>
       </c>
       <c r="E704">
-        <v>720543.86</v>
+        <v>887966.99</v>
       </c>
       <c r="F704">
-        <v>154.59</v>
+        <v>190.51</v>
       </c>
       <c r="G704">
         <v>3950</v>
       </c>
       <c r="H704">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I704" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -27136,22 +27136,22 @@
         </is>
       </c>
       <c r="C705">
-        <v>1016175</v>
+        <v>1137204</v>
       </c>
       <c r="D705">
-        <v>182911.5</v>
+        <v>204696.72</v>
       </c>
       <c r="E705">
-        <v>1199087</v>
+        <v>1341900</v>
       </c>
       <c r="F705">
-        <v>135.49</v>
+        <v>183.42</v>
       </c>
       <c r="G705">
-        <v>7499.999999999999</v>
+        <v>6200</v>
       </c>
       <c r="H705">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I705" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -27174,26 +27174,26 @@
         </is>
       </c>
       <c r="C706">
-        <v>609780</v>
+        <v>1052667</v>
       </c>
       <c r="D706">
-        <v>109760.4</v>
+        <v>153702.36</v>
       </c>
       <c r="E706">
-        <v>719541</v>
+        <v>1242146.7</v>
       </c>
       <c r="F706">
-        <v>101.63</v>
+        <v>167.09</v>
       </c>
       <c r="G706">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H706">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J706" s="2">
@@ -27203,7 +27203,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -27212,26 +27212,26 @@
         </is>
       </c>
       <c r="C707">
-        <v>629811</v>
+        <v>823260</v>
       </c>
       <c r="D707">
-        <v>77588.28</v>
+        <v>148186.8</v>
       </c>
       <c r="E707">
-        <v>743176.7</v>
+        <v>971447</v>
       </c>
       <c r="F707">
-        <v>99.97</v>
+        <v>137.21</v>
       </c>
       <c r="G707">
-        <v>6299.999999999999</v>
+        <v>6000</v>
       </c>
       <c r="H707">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J707" s="2">
@@ -27241,35 +27241,35 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C708">
-        <v>754614</v>
+        <v>1016175</v>
       </c>
       <c r="D708">
-        <v>135830.52</v>
+        <v>182911.5</v>
       </c>
       <c r="E708">
-        <v>890445</v>
+        <v>1199087</v>
       </c>
       <c r="F708">
-        <v>94.92</v>
+        <v>135.49</v>
       </c>
       <c r="G708">
-        <v>7950</v>
+        <v>7499.999999999999</v>
       </c>
       <c r="H708">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J708" s="2">
@@ -27279,7 +27279,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>Shivam Ispat (P) Ltd</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -27288,26 +27288,26 @@
         </is>
       </c>
       <c r="C709">
-        <v>612616</v>
+        <v>723948</v>
       </c>
       <c r="D709">
-        <v>46699.56</v>
+        <v>130310.64</v>
       </c>
       <c r="E709">
-        <v>722887.3200000001</v>
+        <v>854258</v>
       </c>
       <c r="F709">
-        <v>83.92</v>
+        <v>112.24</v>
       </c>
       <c r="G709">
-        <v>7300</v>
+        <v>6449.999999999999</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J709" s="2">
@@ -27317,7 +27317,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -27326,22 +27326,22 @@
         </is>
       </c>
       <c r="C710">
-        <v>717842</v>
+        <v>754614</v>
       </c>
       <c r="D710">
-        <v>129211.56</v>
+        <v>135830.52</v>
       </c>
       <c r="E710">
-        <v>847053</v>
+        <v>890445</v>
       </c>
       <c r="F710">
-        <v>83.47</v>
+        <v>94.92</v>
       </c>
       <c r="G710">
-        <v>8600</v>
+        <v>7950</v>
       </c>
       <c r="H710">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I710" t="inlineStr">
         <is>
@@ -27355,31 +27355,31 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C711">
-        <v>656480</v>
+        <v>612616</v>
       </c>
       <c r="D711">
-        <v>118166.4</v>
+        <v>110270.88</v>
       </c>
       <c r="E711">
-        <v>774646</v>
+        <v>722887</v>
       </c>
       <c r="F711">
-        <v>82.06</v>
+        <v>83.92</v>
       </c>
       <c r="G711">
-        <v>8000</v>
+        <v>7300.000000000001</v>
       </c>
       <c r="H711">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I711" t="inlineStr">
         <is>
@@ -27393,31 +27393,31 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C712">
-        <v>250607.5</v>
+        <v>717842</v>
       </c>
       <c r="D712">
-        <v>31988.98</v>
+        <v>129211.56</v>
       </c>
       <c r="E712">
-        <v>295716.9</v>
+        <v>847053</v>
       </c>
       <c r="F712">
-        <v>77.11</v>
+        <v>83.47</v>
       </c>
       <c r="G712">
-        <v>3250</v>
+        <v>8600</v>
       </c>
       <c r="H712">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I712" t="inlineStr">
         <is>
@@ -27431,35 +27431,35 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Shivam Ispat (P) Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C713">
-        <v>488329.5</v>
+        <v>656480</v>
       </c>
       <c r="D713">
-        <v>87899.31</v>
+        <v>118166.4</v>
       </c>
       <c r="E713">
-        <v>576228</v>
+        <v>774646</v>
       </c>
       <c r="F713">
-        <v>75.70999999999999</v>
+        <v>82.06</v>
       </c>
       <c r="G713">
-        <v>6450.000000000001</v>
+        <v>8000</v>
       </c>
       <c r="H713">
         <v>4</v>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J713" s="2">
@@ -27469,7 +27469,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -27478,26 +27478,26 @@
         </is>
       </c>
       <c r="C714">
-        <v>439890</v>
+        <v>250607.5</v>
       </c>
       <c r="D714">
-        <v>39629.16</v>
+        <v>47140.48</v>
       </c>
       <c r="E714">
-        <v>519070.04</v>
+        <v>295717.4</v>
       </c>
       <c r="F714">
-        <v>70.94999999999999</v>
+        <v>77.11</v>
       </c>
       <c r="G714">
-        <v>6200.000000000001</v>
+        <v>3250</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J714" s="2">
@@ -27507,31 +27507,31 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C715">
-        <v>223662.6</v>
+        <v>243232</v>
       </c>
       <c r="D715">
-        <v>11183.13</v>
+        <v>43781.75999999999</v>
       </c>
       <c r="E715">
-        <v>234845</v>
+        <v>287013</v>
       </c>
       <c r="F715">
-        <v>51.23999999999999</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="G715">
-        <v>4365.000000000001</v>
+        <v>3200</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I715" t="inlineStr">
         <is>
@@ -27545,35 +27545,35 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C716">
-        <v>298717</v>
+        <v>566720</v>
       </c>
       <c r="D716">
-        <v>0</v>
+        <v>102009.6</v>
       </c>
       <c r="E716">
-        <v>352486.06</v>
+        <v>668729</v>
       </c>
       <c r="F716">
-        <v>48.97</v>
+        <v>70.84</v>
       </c>
       <c r="G716">
-        <v>6100</v>
+        <v>8000</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J716" s="2">
@@ -27583,28 +27583,28 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C717">
-        <v>145152</v>
+        <v>451584</v>
       </c>
       <c r="D717">
-        <v>26127.36</v>
+        <v>81285.12</v>
       </c>
       <c r="E717">
-        <v>171278</v>
+        <v>532869</v>
       </c>
       <c r="F717">
-        <v>45.36</v>
+        <v>70.56</v>
       </c>
       <c r="G717">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="H717">
         <v>3</v>
@@ -27621,31 +27621,31 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C718">
-        <v>289024</v>
+        <v>618148</v>
       </c>
       <c r="D718">
-        <v>52024.32</v>
+        <v>111266.64</v>
       </c>
       <c r="E718">
-        <v>341048</v>
+        <v>729415</v>
       </c>
       <c r="F718">
-        <v>45.16</v>
+        <v>67.19</v>
       </c>
       <c r="G718">
-        <v>6400.000000000001</v>
+        <v>9200</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I718" t="inlineStr">
         <is>
@@ -27659,35 +27659,35 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C719">
-        <v>323485.5</v>
+        <v>142597</v>
       </c>
       <c r="D719">
-        <v>0</v>
+        <v>23636.36</v>
       </c>
       <c r="E719">
-        <v>381712.89</v>
+        <v>168265.12</v>
       </c>
       <c r="F719">
-        <v>40.69</v>
+        <v>64.97</v>
       </c>
       <c r="G719">
-        <v>7950</v>
+        <v>2194.812990611051</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J719" s="2">
@@ -27697,35 +27697,35 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C720">
-        <v>324880</v>
+        <v>360449</v>
       </c>
       <c r="D720">
-        <v>58478.4</v>
+        <v>64880.81999999999</v>
       </c>
       <c r="E720">
-        <v>383358</v>
+        <v>425329.96</v>
       </c>
       <c r="F720">
-        <v>40.61</v>
+        <v>59.09</v>
       </c>
       <c r="G720">
-        <v>8000</v>
+        <v>6100</v>
       </c>
       <c r="H720">
         <v>2</v>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J720" s="2">
@@ -27735,35 +27735,35 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C721">
-        <v>258258</v>
+        <v>211760</v>
       </c>
       <c r="D721">
-        <v>46486.44</v>
+        <v>10588</v>
       </c>
       <c r="E721">
-        <v>304745</v>
+        <v>222348</v>
       </c>
       <c r="F721">
-        <v>40.04</v>
+        <v>52.94</v>
       </c>
       <c r="G721">
-        <v>6450</v>
+        <v>4000</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J721" s="2">
@@ -27773,31 +27773,31 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C722">
-        <v>61349</v>
+        <v>223662.6</v>
       </c>
       <c r="D722">
-        <v>9011.720000000001</v>
+        <v>11183.13</v>
       </c>
       <c r="E722">
-        <v>72392.12</v>
+        <v>234845</v>
       </c>
       <c r="F722">
-        <v>39.58</v>
+        <v>51.23999999999999</v>
       </c>
       <c r="G722">
-        <v>1550</v>
+        <v>4365.000000000001</v>
       </c>
       <c r="H722">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr">
         <is>
@@ -27811,28 +27811,28 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C723">
-        <v>138472</v>
+        <v>323485.5</v>
       </c>
       <c r="D723">
-        <v>0</v>
+        <v>58227.39</v>
       </c>
       <c r="E723">
-        <v>163396.96</v>
+        <v>381713</v>
       </c>
       <c r="F723">
-        <v>36.44</v>
+        <v>40.69</v>
       </c>
       <c r="G723">
-        <v>3800</v>
+        <v>7950</v>
       </c>
       <c r="H723">
         <v>1</v>
@@ -27849,35 +27849,35 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C724">
-        <v>269344</v>
+        <v>258258</v>
       </c>
       <c r="D724">
-        <v>0</v>
+        <v>46486.44</v>
       </c>
       <c r="E724">
-        <v>317825.92</v>
+        <v>304745</v>
       </c>
       <c r="F724">
-        <v>35.44</v>
+        <v>40.04</v>
       </c>
       <c r="G724">
-        <v>7600.000000000001</v>
+        <v>6450</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J724" s="2">
@@ -27887,35 +27887,35 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C725">
-        <v>210570.5</v>
+        <v>138472</v>
       </c>
       <c r="D725">
-        <v>0</v>
+        <v>24924.96</v>
       </c>
       <c r="E725">
-        <v>248473.19</v>
+        <v>163396.96</v>
       </c>
       <c r="F725">
-        <v>35.39</v>
+        <v>36.44</v>
       </c>
       <c r="G725">
-        <v>5950</v>
+        <v>3800</v>
       </c>
       <c r="H725">
         <v>1</v>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J725" s="2">
@@ -27925,35 +27925,35 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C726">
-        <v>119816</v>
+        <v>210570.5</v>
       </c>
       <c r="D726">
-        <v>0</v>
+        <v>37902.69</v>
       </c>
       <c r="E726">
-        <v>141382.88</v>
+        <v>248473</v>
       </c>
       <c r="F726">
-        <v>35.23999999999999</v>
+        <v>35.39</v>
       </c>
       <c r="G726">
-        <v>3400</v>
+        <v>5950</v>
       </c>
       <c r="H726">
         <v>1</v>
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J726" s="2">
@@ -27963,35 +27963,35 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>SHRADDHA ISPAT PVT. LTD.(SHRADDHA ISPAT-MELTING DIVISION)</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C727">
-        <v>226395</v>
+        <v>119816</v>
       </c>
       <c r="D727">
-        <v>40751.1</v>
+        <v>21566.88</v>
       </c>
       <c r="E727">
-        <v>267146.1</v>
+        <v>141383</v>
       </c>
       <c r="F727">
-        <v>35.1</v>
+        <v>35.23999999999999</v>
       </c>
       <c r="G727">
-        <v>6450</v>
+        <v>3400</v>
       </c>
       <c r="H727">
         <v>2</v>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J727" s="2">
@@ -28001,7 +28001,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Cuncolim(Orange Fox Steel Pvt Ltd)</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -28010,26 +28010,26 @@
         </is>
       </c>
       <c r="C728">
-        <v>220941</v>
+        <v>227169</v>
       </c>
       <c r="D728">
-        <v>39769.38</v>
+        <v>40890.42</v>
       </c>
       <c r="E728">
-        <v>260710.38</v>
+        <v>268059</v>
       </c>
       <c r="F728">
-        <v>35.07</v>
+        <v>35.22</v>
       </c>
       <c r="G728">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H728">
         <v>1</v>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J728" s="2">
@@ -28039,35 +28039,35 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C729">
-        <v>319792</v>
+        <v>226395</v>
       </c>
       <c r="D729">
-        <v>57562.56</v>
+        <v>40751.1</v>
       </c>
       <c r="E729">
-        <v>377355</v>
+        <v>267146.1</v>
       </c>
       <c r="F729">
-        <v>34.76000000000001</v>
+        <v>35.1</v>
       </c>
       <c r="G729">
-        <v>9199.999999999998</v>
+        <v>6450</v>
       </c>
       <c r="H729">
         <v>2</v>
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J729" s="2">
@@ -28077,35 +28077,35 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C730">
-        <v>128353</v>
+        <v>220941</v>
       </c>
       <c r="D730">
-        <v>23103.54</v>
+        <v>39769.38</v>
       </c>
       <c r="E730">
-        <v>151457</v>
+        <v>260710.38</v>
       </c>
       <c r="F730">
-        <v>34.69</v>
+        <v>35.07</v>
       </c>
       <c r="G730">
-        <v>3700</v>
+        <v>6300</v>
       </c>
       <c r="H730">
         <v>1</v>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J730" s="2">
@@ -28115,7 +28115,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -28124,19 +28124,19 @@
         </is>
       </c>
       <c r="C731">
-        <v>124450</v>
+        <v>128353</v>
       </c>
       <c r="D731">
-        <v>22401</v>
+        <v>23103.54</v>
       </c>
       <c r="E731">
-        <v>146851</v>
+        <v>151457</v>
       </c>
       <c r="F731">
-        <v>32.75</v>
+        <v>34.69</v>
       </c>
       <c r="G731">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H731">
         <v>1</v>
@@ -28153,7 +28153,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -28162,26 +28162,26 @@
         </is>
       </c>
       <c r="C732">
-        <v>195930</v>
+        <v>243000</v>
       </c>
       <c r="D732">
-        <v>35267.4</v>
+        <v>43740</v>
       </c>
       <c r="E732">
-        <v>231197</v>
+        <v>286740</v>
       </c>
       <c r="F732">
-        <v>31.1</v>
+        <v>33.75</v>
       </c>
       <c r="G732">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="H732">
         <v>2</v>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J732" s="2">
@@ -28191,7 +28191,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Govaan Steel Private Limited Quartztech</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -28200,26 +28200,26 @@
         </is>
       </c>
       <c r="C733">
-        <v>193408</v>
+        <v>206829</v>
       </c>
       <c r="D733">
-        <v>34813.44</v>
+        <v>37229.22</v>
       </c>
       <c r="E733">
-        <v>228221</v>
+        <v>244058</v>
       </c>
       <c r="F733">
-        <v>30.22</v>
+        <v>32.83</v>
       </c>
       <c r="G733">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H733">
         <v>1</v>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J733" s="2">
@@ -28229,35 +28229,35 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C734">
-        <v>189063</v>
+        <v>124450</v>
       </c>
       <c r="D734">
-        <v>34031.34</v>
+        <v>22401</v>
       </c>
       <c r="E734">
-        <v>223094</v>
+        <v>146851</v>
       </c>
       <c r="F734">
-        <v>30.01</v>
+        <v>32.75</v>
       </c>
       <c r="G734">
-        <v>6300</v>
+        <v>3800</v>
       </c>
       <c r="H734">
         <v>1</v>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J734" s="2">
@@ -28267,7 +28267,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -28276,26 +28276,26 @@
         </is>
       </c>
       <c r="C735">
-        <v>188244</v>
+        <v>195930</v>
       </c>
       <c r="D735">
-        <v>0</v>
+        <v>35267.4</v>
       </c>
       <c r="E735">
-        <v>222127.92</v>
+        <v>231197</v>
       </c>
       <c r="F735">
-        <v>29.88</v>
+        <v>31.1</v>
       </c>
       <c r="G735">
         <v>6300</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J735" s="2">
@@ -28305,35 +28305,35 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C736">
-        <v>80620.8</v>
+        <v>231344</v>
       </c>
       <c r="D736">
-        <v>4031.04</v>
+        <v>41641.92</v>
       </c>
       <c r="E736">
-        <v>84652</v>
+        <v>272986</v>
       </c>
       <c r="F736">
-        <v>29.64</v>
+        <v>30.44</v>
       </c>
       <c r="G736">
-        <v>2720</v>
+        <v>7600</v>
       </c>
       <c r="H736">
         <v>1</v>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J736" s="2">
@@ -28343,35 +28343,35 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C737">
-        <v>109200</v>
+        <v>193408</v>
       </c>
       <c r="D737">
-        <v>5460</v>
+        <v>34813.44</v>
       </c>
       <c r="E737">
-        <v>114660</v>
+        <v>228221</v>
       </c>
       <c r="F737">
-        <v>27.3</v>
+        <v>30.22</v>
       </c>
       <c r="G737">
-        <v>4000</v>
+        <v>6400</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J737" s="2">
@@ -28381,35 +28381,35 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C738">
-        <v>28432</v>
+        <v>189063</v>
       </c>
       <c r="D738">
-        <v>0</v>
+        <v>34031.34</v>
       </c>
       <c r="E738">
-        <v>33549.75999999999</v>
+        <v>223094</v>
       </c>
       <c r="F738">
-        <v>17.77</v>
+        <v>30.01</v>
       </c>
       <c r="G738">
-        <v>1600</v>
+        <v>6300</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J738" s="2">
@@ -28419,35 +28419,35 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C739">
-        <v>49020</v>
+        <v>188244</v>
       </c>
       <c r="D739">
-        <v>27848.7</v>
+        <v>33883.92</v>
       </c>
       <c r="E739">
-        <v>57843.6</v>
+        <v>222127.92</v>
       </c>
       <c r="F739">
-        <v>16.34</v>
+        <v>29.88</v>
       </c>
       <c r="G739">
-        <v>3000</v>
+        <v>6300</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J739" s="2">
@@ -28457,38 +28457,358 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C740">
+        <v>80620.8</v>
+      </c>
+      <c r="D740">
+        <v>4031.04</v>
+      </c>
+      <c r="E740">
+        <v>84652</v>
+      </c>
+      <c r="F740">
+        <v>29.64</v>
+      </c>
+      <c r="G740">
+        <v>2720</v>
+      </c>
+      <c r="H740">
+        <v>1</v>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J740" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C741">
+        <v>163488</v>
+      </c>
+      <c r="D741">
+        <v>0</v>
+      </c>
+      <c r="E741">
+        <v>192915.84</v>
+      </c>
+      <c r="F741">
+        <v>20.96</v>
+      </c>
+      <c r="G741">
+        <v>7800</v>
+      </c>
+      <c r="H741">
+        <v>1</v>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J741" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C742">
+        <v>124745</v>
+      </c>
+      <c r="D742">
+        <v>0</v>
+      </c>
+      <c r="E742">
+        <v>147199.1</v>
+      </c>
+      <c r="F742">
+        <v>20.45</v>
+      </c>
+      <c r="G742">
+        <v>6100</v>
+      </c>
+      <c r="H742">
+        <v>1</v>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J742" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C743">
+        <v>28432</v>
+      </c>
+      <c r="D743">
+        <v>0</v>
+      </c>
+      <c r="E743">
+        <v>33549.75999999999</v>
+      </c>
+      <c r="F743">
+        <v>17.77</v>
+      </c>
+      <c r="G743">
+        <v>1600</v>
+      </c>
+      <c r="H743">
+        <v>2</v>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J743" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C744">
+        <v>49020</v>
+      </c>
+      <c r="D744">
+        <v>27848.7</v>
+      </c>
+      <c r="E744">
+        <v>57843.6</v>
+      </c>
+      <c r="F744">
+        <v>16.34</v>
+      </c>
+      <c r="G744">
+        <v>3000</v>
+      </c>
+      <c r="H744">
+        <v>2</v>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J744" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C745">
+        <v>87180</v>
+      </c>
+      <c r="D745">
+        <v>45120.24</v>
+      </c>
+      <c r="E745">
+        <v>102872.4</v>
+      </c>
+      <c r="F745">
+        <v>14.53</v>
+      </c>
+      <c r="G745">
+        <v>6000</v>
+      </c>
+      <c r="H745">
+        <v>2</v>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J745" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>RDTMT Steels India Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C746">
+        <v>83220</v>
+      </c>
+      <c r="D746">
+        <v>14979.6</v>
+      </c>
+      <c r="E746">
+        <v>98200</v>
+      </c>
+      <c r="F746">
+        <v>13.87</v>
+      </c>
+      <c r="G746">
+        <v>6000</v>
+      </c>
+      <c r="H746">
+        <v>3</v>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J746" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
           <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
-      <c r="B740" t="inlineStr">
+      <c r="B747" t="inlineStr">
         <is>
           <t>Quartz Grain</t>
         </is>
       </c>
-      <c r="C740">
-        <v>21802.5</v>
-      </c>
-      <c r="D740">
-        <v>588.62</v>
-      </c>
-      <c r="E740">
-        <v>22892.5</v>
-      </c>
-      <c r="F740">
-        <v>5.13</v>
-      </c>
-      <c r="G740">
+      <c r="C747">
+        <v>50915</v>
+      </c>
+      <c r="D747">
+        <v>2545.76</v>
+      </c>
+      <c r="E747">
+        <v>53461</v>
+      </c>
+      <c r="F747">
+        <v>11.98</v>
+      </c>
+      <c r="G747">
         <v>4250</v>
       </c>
-      <c r="H740">
-        <v>2</v>
-      </c>
-      <c r="I740" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J740" s="2">
+      <c r="H747">
+        <v>4</v>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J747" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C748">
+        <v>38000</v>
+      </c>
+      <c r="D748">
+        <v>6840</v>
+      </c>
+      <c r="E748">
+        <v>44840</v>
+      </c>
+      <c r="F748">
+        <v>5</v>
+      </c>
+      <c r="G748">
+        <v>7600</v>
+      </c>
+      <c r="H748">
+        <v>1</v>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J748" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="D749">
+        <v>0</v>
+      </c>
+      <c r="H749">
+        <v>3</v>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J749" s="2">
         <v>45108</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J749"/>
+  <dimension ref="A1:J748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27469,7 +27469,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -27478,26 +27478,26 @@
         </is>
       </c>
       <c r="C714">
-        <v>250607.5</v>
+        <v>485194</v>
       </c>
       <c r="D714">
-        <v>47140.48</v>
+        <v>64880.81999999999</v>
       </c>
       <c r="E714">
-        <v>295717.4</v>
+        <v>572529.0599999999</v>
       </c>
       <c r="F714">
-        <v>77.11</v>
+        <v>79.53999999999999</v>
       </c>
       <c r="G714">
-        <v>3250</v>
+        <v>6100</v>
       </c>
       <c r="H714">
         <v>3</v>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J714" s="2">
@@ -27507,31 +27507,31 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C715">
-        <v>243232</v>
+        <v>250607.5</v>
       </c>
       <c r="D715">
-        <v>43781.75999999999</v>
+        <v>47140.48</v>
       </c>
       <c r="E715">
-        <v>287013</v>
+        <v>295717.4</v>
       </c>
       <c r="F715">
-        <v>76.01000000000001</v>
+        <v>77.11</v>
       </c>
       <c r="G715">
-        <v>3200</v>
+        <v>3250</v>
       </c>
       <c r="H715">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I715" t="inlineStr">
         <is>
@@ -27545,35 +27545,35 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C716">
-        <v>566720</v>
+        <v>243232</v>
       </c>
       <c r="D716">
-        <v>102009.6</v>
+        <v>43781.75999999999</v>
       </c>
       <c r="E716">
-        <v>668729</v>
+        <v>287013</v>
       </c>
       <c r="F716">
-        <v>70.84</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="G716">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="H716">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J716" s="2">
@@ -27583,35 +27583,35 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C717">
-        <v>451584</v>
+        <v>566720</v>
       </c>
       <c r="D717">
-        <v>81285.12</v>
+        <v>102009.6</v>
       </c>
       <c r="E717">
-        <v>532869</v>
+        <v>668729</v>
       </c>
       <c r="F717">
-        <v>70.56</v>
+        <v>70.84</v>
       </c>
       <c r="G717">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="H717">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J717" s="2">
@@ -27621,31 +27621,31 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C718">
-        <v>618148</v>
+        <v>451584</v>
       </c>
       <c r="D718">
-        <v>111266.64</v>
+        <v>81285.12</v>
       </c>
       <c r="E718">
-        <v>729415</v>
+        <v>532869</v>
       </c>
       <c r="F718">
-        <v>67.19</v>
+        <v>70.56</v>
       </c>
       <c r="G718">
-        <v>9200</v>
+        <v>6400</v>
       </c>
       <c r="H718">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I718" t="inlineStr">
         <is>
@@ -27659,28 +27659,28 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C719">
-        <v>142597</v>
+        <v>618148</v>
       </c>
       <c r="D719">
-        <v>23636.36</v>
+        <v>111266.64</v>
       </c>
       <c r="E719">
-        <v>168265.12</v>
+        <v>729415</v>
       </c>
       <c r="F719">
-        <v>64.97</v>
+        <v>67.19</v>
       </c>
       <c r="G719">
-        <v>2194.812990611051</v>
+        <v>9200</v>
       </c>
       <c r="H719">
         <v>4</v>
@@ -27697,35 +27697,35 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C720">
-        <v>360449</v>
+        <v>142597</v>
       </c>
       <c r="D720">
-        <v>64880.81999999999</v>
+        <v>23636.36</v>
       </c>
       <c r="E720">
-        <v>425329.96</v>
+        <v>168265.12</v>
       </c>
       <c r="F720">
-        <v>59.09</v>
+        <v>64.97</v>
       </c>
       <c r="G720">
-        <v>6100</v>
+        <v>2194.812990611051</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J720" s="2">
@@ -27839,7 +27839,7 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J723" s="2">
@@ -27915,7 +27915,7 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J725" s="2">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J727" s="2">
@@ -28001,7 +28001,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Cuncolim(Orange Fox Steel Pvt Ltd)</t>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -28029,7 +28029,7 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J728" s="2">
@@ -28191,7 +28191,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>Govaan Steel Private Limited Quartztech</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -28219,7 +28219,7 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J733" s="2">
@@ -28533,35 +28533,35 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C742">
-        <v>124745</v>
+        <v>28432</v>
       </c>
       <c r="D742">
         <v>0</v>
       </c>
       <c r="E742">
-        <v>147199.1</v>
+        <v>33549.75999999999</v>
       </c>
       <c r="F742">
-        <v>20.45</v>
+        <v>17.77</v>
       </c>
       <c r="G742">
-        <v>6100</v>
+        <v>1600</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J742" s="2">
@@ -28571,7 +28571,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -28580,26 +28580,26 @@
         </is>
       </c>
       <c r="C743">
-        <v>28432</v>
+        <v>49020</v>
       </c>
       <c r="D743">
-        <v>0</v>
+        <v>27848.7</v>
       </c>
       <c r="E743">
-        <v>33549.75999999999</v>
+        <v>57843.6</v>
       </c>
       <c r="F743">
-        <v>17.77</v>
+        <v>16.34</v>
       </c>
       <c r="G743">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="H743">
         <v>2</v>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J743" s="2">
@@ -28609,35 +28609,35 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C744">
-        <v>49020</v>
+        <v>87180</v>
       </c>
       <c r="D744">
-        <v>27848.7</v>
+        <v>45120.24</v>
       </c>
       <c r="E744">
-        <v>57843.6</v>
+        <v>102872.4</v>
       </c>
       <c r="F744">
-        <v>16.34</v>
+        <v>14.53</v>
       </c>
       <c r="G744">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="H744">
         <v>2</v>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J744" s="2">
@@ -28647,7 +28647,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>RDTMT Steels India Pvt Ltd</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -28656,26 +28656,26 @@
         </is>
       </c>
       <c r="C745">
-        <v>87180</v>
+        <v>83220</v>
       </c>
       <c r="D745">
-        <v>45120.24</v>
+        <v>14979.6</v>
       </c>
       <c r="E745">
-        <v>102872.4</v>
+        <v>98200</v>
       </c>
       <c r="F745">
-        <v>14.53</v>
+        <v>13.87</v>
       </c>
       <c r="G745">
         <v>6000</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J745" s="2">
@@ -28685,31 +28685,31 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>RDTMT Steels India Pvt Ltd</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C746">
-        <v>83220</v>
+        <v>50915</v>
       </c>
       <c r="D746">
-        <v>14979.6</v>
+        <v>2545.76</v>
       </c>
       <c r="E746">
-        <v>98200</v>
+        <v>53461</v>
       </c>
       <c r="F746">
-        <v>13.87</v>
+        <v>11.98</v>
       </c>
       <c r="G746">
-        <v>6000</v>
+        <v>4250</v>
       </c>
       <c r="H746">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I746" t="inlineStr">
         <is>
@@ -28723,35 +28723,35 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C747">
-        <v>50915</v>
+        <v>38000</v>
       </c>
       <c r="D747">
-        <v>2545.76</v>
+        <v>6840</v>
       </c>
       <c r="E747">
-        <v>53461</v>
+        <v>44840</v>
       </c>
       <c r="F747">
-        <v>11.98</v>
+        <v>5</v>
       </c>
       <c r="G747">
-        <v>4250</v>
+        <v>7600</v>
       </c>
       <c r="H747">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J747" s="2">
@@ -28759,56 +28759,13 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C748">
-        <v>38000</v>
-      </c>
       <c r="D748">
-        <v>6840</v>
-      </c>
-      <c r="E748">
-        <v>44840</v>
-      </c>
-      <c r="F748">
-        <v>5</v>
-      </c>
-      <c r="G748">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="H748">
-        <v>1</v>
-      </c>
-      <c r="I748" t="inlineStr">
-        <is>
-          <t>Shresth Maheshwari</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="J748" s="2">
-        <v>45108</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="D749">
-        <v>0</v>
-      </c>
-      <c r="H749">
-        <v>3</v>
-      </c>
-      <c r="I749" t="inlineStr">
-        <is>
-          <t>Shresth Maheshwari</t>
-        </is>
-      </c>
-      <c r="J749" s="2">
         <v>45108</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -27317,31 +27317,31 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C710">
-        <v>754614</v>
+        <v>331855.5</v>
       </c>
       <c r="D710">
-        <v>135830.52</v>
+        <v>61765.12</v>
       </c>
       <c r="E710">
-        <v>890445</v>
+        <v>391590.4</v>
       </c>
       <c r="F710">
-        <v>94.92</v>
+        <v>102.5</v>
       </c>
       <c r="G710">
-        <v>7950</v>
+        <v>3237.614634146341</v>
       </c>
       <c r="H710">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I710" t="inlineStr">
         <is>
@@ -27355,28 +27355,28 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C711">
-        <v>612616</v>
+        <v>754614</v>
       </c>
       <c r="D711">
-        <v>110270.88</v>
+        <v>135830.52</v>
       </c>
       <c r="E711">
-        <v>722887</v>
+        <v>890445</v>
       </c>
       <c r="F711">
-        <v>83.92</v>
+        <v>94.92</v>
       </c>
       <c r="G711">
-        <v>7300.000000000001</v>
+        <v>7950</v>
       </c>
       <c r="H711">
         <v>3</v>
@@ -27393,31 +27393,31 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C712">
-        <v>717842</v>
+        <v>612616</v>
       </c>
       <c r="D712">
-        <v>129211.56</v>
+        <v>110270.88</v>
       </c>
       <c r="E712">
-        <v>847053</v>
+        <v>722887</v>
       </c>
       <c r="F712">
-        <v>83.47</v>
+        <v>83.92</v>
       </c>
       <c r="G712">
-        <v>8600</v>
+        <v>7300.000000000001</v>
       </c>
       <c r="H712">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I712" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -27440,19 +27440,19 @@
         </is>
       </c>
       <c r="C713">
-        <v>656480</v>
+        <v>717842</v>
       </c>
       <c r="D713">
-        <v>118166.4</v>
+        <v>129211.56</v>
       </c>
       <c r="E713">
-        <v>774646</v>
+        <v>847053</v>
       </c>
       <c r="F713">
-        <v>82.06</v>
+        <v>83.47</v>
       </c>
       <c r="G713">
-        <v>8000</v>
+        <v>8600</v>
       </c>
       <c r="H713">
         <v>4</v>
@@ -27469,35 +27469,35 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C714">
-        <v>485194</v>
+        <v>656480</v>
       </c>
       <c r="D714">
-        <v>64880.81999999999</v>
+        <v>118166.4</v>
       </c>
       <c r="E714">
-        <v>572529.0599999999</v>
+        <v>774646</v>
       </c>
       <c r="F714">
-        <v>79.53999999999999</v>
+        <v>82.06</v>
       </c>
       <c r="G714">
-        <v>6100</v>
+        <v>8000</v>
       </c>
       <c r="H714">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J714" s="2">
@@ -27507,7 +27507,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -27516,26 +27516,26 @@
         </is>
       </c>
       <c r="C715">
-        <v>250607.5</v>
+        <v>485194</v>
       </c>
       <c r="D715">
-        <v>47140.48</v>
+        <v>64880.81999999999</v>
       </c>
       <c r="E715">
-        <v>295717.4</v>
+        <v>572529.0599999999</v>
       </c>
       <c r="F715">
-        <v>77.11</v>
+        <v>79.53999999999999</v>
       </c>
       <c r="G715">
-        <v>3250</v>
+        <v>6100</v>
       </c>
       <c r="H715">
         <v>3</v>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J715" s="2">
@@ -27697,31 +27697,31 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C720">
-        <v>142597</v>
+        <v>211760</v>
       </c>
       <c r="D720">
-        <v>23636.36</v>
+        <v>10588</v>
       </c>
       <c r="E720">
-        <v>168265.12</v>
+        <v>222348</v>
       </c>
       <c r="F720">
-        <v>64.97</v>
+        <v>52.94</v>
       </c>
       <c r="G720">
-        <v>2194.812990611051</v>
+        <v>4000</v>
       </c>
       <c r="H720">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I720" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -27744,22 +27744,22 @@
         </is>
       </c>
       <c r="C721">
-        <v>211760</v>
+        <v>223662.6</v>
       </c>
       <c r="D721">
-        <v>10588</v>
+        <v>11183.13</v>
       </c>
       <c r="E721">
-        <v>222348</v>
+        <v>234845</v>
       </c>
       <c r="F721">
-        <v>52.94</v>
+        <v>51.23999999999999</v>
       </c>
       <c r="G721">
-        <v>4000</v>
+        <v>4365.000000000001</v>
       </c>
       <c r="H721">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr">
         <is>
@@ -27773,31 +27773,31 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C722">
-        <v>223662.6</v>
+        <v>323485.5</v>
       </c>
       <c r="D722">
-        <v>11183.13</v>
+        <v>58227.39</v>
       </c>
       <c r="E722">
-        <v>234845</v>
+        <v>381713</v>
       </c>
       <c r="F722">
-        <v>51.23999999999999</v>
+        <v>40.69</v>
       </c>
       <c r="G722">
-        <v>4365.000000000001</v>
+        <v>7950</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I722" t="inlineStr">
         <is>
@@ -27811,35 +27811,35 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C723">
-        <v>323485.5</v>
+        <v>258258</v>
       </c>
       <c r="D723">
-        <v>58227.39</v>
+        <v>46486.44</v>
       </c>
       <c r="E723">
-        <v>381713</v>
+        <v>304745</v>
       </c>
       <c r="F723">
-        <v>40.69</v>
+        <v>40.04</v>
       </c>
       <c r="G723">
-        <v>7950</v>
+        <v>6450</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J723" s="2">
@@ -27849,35 +27849,35 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C724">
-        <v>258258</v>
+        <v>61349</v>
       </c>
       <c r="D724">
-        <v>46486.44</v>
+        <v>9011.720000000001</v>
       </c>
       <c r="E724">
-        <v>304745</v>
+        <v>72392.12</v>
       </c>
       <c r="F724">
-        <v>40.04</v>
+        <v>39.58</v>
       </c>
       <c r="G724">
-        <v>6450</v>
+        <v>1550</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J724" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J748"/>
+  <dimension ref="A1:J797"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27925,35 +27925,35 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C726">
-        <v>210570.5</v>
+        <v>269344</v>
       </c>
       <c r="D726">
-        <v>37902.69</v>
+        <v>48481.92</v>
       </c>
       <c r="E726">
-        <v>248473</v>
+        <v>317826</v>
       </c>
       <c r="F726">
-        <v>35.39</v>
+        <v>35.44</v>
       </c>
       <c r="G726">
-        <v>5950</v>
+        <v>7600.000000000001</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J726" s="2">
@@ -27963,35 +27963,35 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT PVT. LTD.(SHRADDHA ISPAT-MELTING DIVISION)</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C727">
-        <v>119816</v>
+        <v>210570.5</v>
       </c>
       <c r="D727">
-        <v>21566.88</v>
+        <v>37902.69</v>
       </c>
       <c r="E727">
-        <v>141383</v>
+        <v>248473</v>
       </c>
       <c r="F727">
-        <v>35.23999999999999</v>
+        <v>35.39</v>
       </c>
       <c r="G727">
-        <v>3400</v>
+        <v>5950</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J727" s="2">
@@ -28001,31 +28001,31 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
+          <t>SHRADDHA ISPAT PVT. LTD.(SHRADDHA ISPAT-MELTING DIVISION)</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C728">
-        <v>227169</v>
+        <v>119816</v>
       </c>
       <c r="D728">
-        <v>40890.42</v>
+        <v>21566.88</v>
       </c>
       <c r="E728">
-        <v>268059</v>
+        <v>141383</v>
       </c>
       <c r="F728">
-        <v>35.22</v>
+        <v>35.23999999999999</v>
       </c>
       <c r="G728">
-        <v>6450</v>
+        <v>3400</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Orange Fox Steel Pvt Ltd(Cuncolim)</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -28048,22 +28048,22 @@
         </is>
       </c>
       <c r="C729">
-        <v>226395</v>
+        <v>227169</v>
       </c>
       <c r="D729">
-        <v>40751.1</v>
+        <v>40890.42</v>
       </c>
       <c r="E729">
-        <v>267146.1</v>
+        <v>268059</v>
       </c>
       <c r="F729">
-        <v>35.1</v>
+        <v>35.22</v>
       </c>
       <c r="G729">
         <v>6450</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I729" t="inlineStr">
         <is>
@@ -28077,7 +28077,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -28086,26 +28086,26 @@
         </is>
       </c>
       <c r="C730">
-        <v>220941</v>
+        <v>226395</v>
       </c>
       <c r="D730">
-        <v>39769.38</v>
+        <v>40751.1</v>
       </c>
       <c r="E730">
-        <v>260710.38</v>
+        <v>267146.1</v>
       </c>
       <c r="F730">
-        <v>35.07</v>
+        <v>35.1</v>
       </c>
       <c r="G730">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J730" s="2">
@@ -28115,35 +28115,35 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C731">
-        <v>128353</v>
+        <v>220941</v>
       </c>
       <c r="D731">
-        <v>23103.54</v>
+        <v>39769.38</v>
       </c>
       <c r="E731">
-        <v>151457</v>
+        <v>260710.38</v>
       </c>
       <c r="F731">
-        <v>34.69</v>
+        <v>35.07</v>
       </c>
       <c r="G731">
-        <v>3700</v>
+        <v>6300</v>
       </c>
       <c r="H731">
         <v>1</v>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J731" s="2">
@@ -28153,35 +28153,35 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C732">
-        <v>243000</v>
+        <v>128353</v>
       </c>
       <c r="D732">
-        <v>43740</v>
+        <v>23103.54</v>
       </c>
       <c r="E732">
-        <v>286740</v>
+        <v>151457</v>
       </c>
       <c r="F732">
-        <v>33.75</v>
+        <v>34.69</v>
       </c>
       <c r="G732">
-        <v>7200</v>
+        <v>3700</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J732" s="2">
@@ -28191,7 +28191,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -28200,26 +28200,26 @@
         </is>
       </c>
       <c r="C733">
-        <v>206829</v>
+        <v>243000</v>
       </c>
       <c r="D733">
-        <v>37229.22</v>
+        <v>43740</v>
       </c>
       <c r="E733">
-        <v>244058</v>
+        <v>286740</v>
       </c>
       <c r="F733">
-        <v>32.83</v>
+        <v>33.75</v>
       </c>
       <c r="G733">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J733" s="2">
@@ -28229,28 +28229,28 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C734">
-        <v>124450</v>
+        <v>206829</v>
       </c>
       <c r="D734">
-        <v>22401</v>
+        <v>37229.22</v>
       </c>
       <c r="E734">
-        <v>146851</v>
+        <v>244058</v>
       </c>
       <c r="F734">
-        <v>32.75</v>
+        <v>32.83</v>
       </c>
       <c r="G734">
-        <v>3800</v>
+        <v>6300</v>
       </c>
       <c r="H734">
         <v>1</v>
@@ -28267,35 +28267,35 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C735">
-        <v>195930</v>
+        <v>124450</v>
       </c>
       <c r="D735">
-        <v>35267.4</v>
+        <v>22401</v>
       </c>
       <c r="E735">
-        <v>231197</v>
+        <v>146851</v>
       </c>
       <c r="F735">
-        <v>31.1</v>
+        <v>32.75</v>
       </c>
       <c r="G735">
-        <v>6300</v>
+        <v>3800</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J735" s="2">
@@ -28305,35 +28305,35 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C736">
-        <v>231344</v>
+        <v>195930</v>
       </c>
       <c r="D736">
-        <v>41641.92</v>
+        <v>35267.4</v>
       </c>
       <c r="E736">
-        <v>272986</v>
+        <v>231197</v>
       </c>
       <c r="F736">
-        <v>30.44</v>
+        <v>31.1</v>
       </c>
       <c r="G736">
-        <v>7600</v>
+        <v>6300</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J736" s="2">
@@ -28721,52 +28721,1914 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B747" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C747">
-        <v>38000</v>
-      </c>
       <c r="D747">
-        <v>6840</v>
-      </c>
-      <c r="E747">
-        <v>44840</v>
-      </c>
-      <c r="F747">
-        <v>5</v>
-      </c>
-      <c r="G747">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="H747">
-        <v>1</v>
-      </c>
-      <c r="I747" t="inlineStr">
-        <is>
-          <t>Shresth Maheshwari</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="J747" s="2">
         <v>45108</v>
       </c>
     </row>
     <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>BMM ISPAT LIMITED</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C748">
+        <v>1910965</v>
+      </c>
       <c r="D748">
+        <v>343973.7</v>
+      </c>
+      <c r="E748">
+        <v>2254939</v>
+      </c>
+      <c r="F748">
+        <v>269.15</v>
+      </c>
+      <c r="G748">
+        <v>7100.000000000001</v>
+      </c>
+      <c r="H748">
+        <v>8</v>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J748" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>A One Ispat Private Ltd</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C749">
+        <v>1901767</v>
+      </c>
+      <c r="D749">
+        <v>292320.54</v>
+      </c>
+      <c r="E749">
+        <v>2244085.52</v>
+      </c>
+      <c r="F749">
+        <v>240.73</v>
+      </c>
+      <c r="G749">
+        <v>7900</v>
+      </c>
+      <c r="H749">
+        <v>7</v>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J749" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C750">
+        <v>1777440</v>
+      </c>
+      <c r="D750">
+        <v>319939.2</v>
+      </c>
+      <c r="E750">
+        <v>2097380</v>
+      </c>
+      <c r="F750">
+        <v>211.6</v>
+      </c>
+      <c r="G750">
+        <v>8400</v>
+      </c>
+      <c r="H750">
+        <v>11</v>
+      </c>
+      <c r="I750" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J750" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C751">
+        <v>768038</v>
+      </c>
+      <c r="D751">
+        <v>138246.88</v>
+      </c>
+      <c r="E751">
+        <v>906285</v>
+      </c>
+      <c r="F751">
+        <v>194.44</v>
+      </c>
+      <c r="G751">
+        <v>3950</v>
+      </c>
+      <c r="H751">
+        <v>8</v>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J751" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C752">
+        <v>1197588</v>
+      </c>
+      <c r="D752">
+        <v>165538.08</v>
+      </c>
+      <c r="E752">
+        <v>1413153.76</v>
+      </c>
+      <c r="F752">
+        <v>150.64</v>
+      </c>
+      <c r="G752">
+        <v>7950.000000000001</v>
+      </c>
+      <c r="H752">
+        <v>4</v>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J752" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C753">
+        <v>1086092</v>
+      </c>
+      <c r="D753">
+        <v>137820.24</v>
+      </c>
+      <c r="E753">
+        <v>1281587.32</v>
+      </c>
+      <c r="F753">
+        <v>137.48</v>
+      </c>
+      <c r="G753">
+        <v>7900.000000000001</v>
+      </c>
+      <c r="H753">
+        <v>8</v>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J753" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Bharat Heavy Electricals Limited</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C754">
+        <v>513585.9</v>
+      </c>
+      <c r="D754">
+        <v>20251.43</v>
+      </c>
+      <c r="E754">
+        <v>539264.4275</v>
+      </c>
+      <c r="F754">
+        <v>117.66</v>
+      </c>
+      <c r="G754">
+        <v>4365</v>
+      </c>
+      <c r="H754">
+        <v>6</v>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J754" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C755">
+        <v>885020</v>
+      </c>
+      <c r="D755">
+        <v>159303.6</v>
+      </c>
+      <c r="E755">
+        <v>1044322.84</v>
+      </c>
+      <c r="F755">
+        <v>116.45</v>
+      </c>
+      <c r="G755">
+        <v>7600</v>
+      </c>
+      <c r="H755">
+        <v>5</v>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J755" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Pulkit Metals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C756">
+        <v>640080</v>
+      </c>
+      <c r="D756">
+        <v>80892</v>
+      </c>
+      <c r="E756">
+        <v>755294.4</v>
+      </c>
+      <c r="F756">
+        <v>106.68</v>
+      </c>
+      <c r="G756">
+        <v>6000</v>
+      </c>
+      <c r="H756">
+        <v>5</v>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J756" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>ARISE STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C757">
+        <v>610142</v>
+      </c>
+      <c r="D757">
+        <v>109825.56</v>
+      </c>
+      <c r="E757">
+        <v>719968</v>
+      </c>
+      <c r="F757">
+        <v>98.41</v>
+      </c>
+      <c r="G757">
+        <v>6200</v>
+      </c>
+      <c r="H757">
+        <v>5</v>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J757" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C758">
+        <v>310560</v>
+      </c>
+      <c r="D758">
+        <v>55900.8</v>
+      </c>
+      <c r="E758">
+        <v>366461</v>
+      </c>
+      <c r="F758">
+        <v>97.05</v>
+      </c>
+      <c r="G758">
+        <v>3200</v>
+      </c>
+      <c r="H758">
+        <v>5</v>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J758" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C759">
+        <v>510204</v>
+      </c>
+      <c r="D759">
+        <v>64738.08</v>
+      </c>
+      <c r="E759">
+        <v>602040.64</v>
+      </c>
+      <c r="F759">
+        <v>83.64</v>
+      </c>
+      <c r="G759">
+        <v>6100</v>
+      </c>
+      <c r="H759">
+        <v>3</v>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J759" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C760">
+        <v>644202</v>
+      </c>
+      <c r="D760">
+        <v>115956.36</v>
+      </c>
+      <c r="E760">
+        <v>760158</v>
+      </c>
+      <c r="F760">
+        <v>82.59</v>
+      </c>
+      <c r="G760">
+        <v>7800</v>
+      </c>
+      <c r="H760">
+        <v>4</v>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J760" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Pushpit Steels Private Limited</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C761">
+        <v>441130</v>
+      </c>
+      <c r="D761">
+        <v>79403.39999999999</v>
+      </c>
+      <c r="E761">
+        <v>520534</v>
+      </c>
+      <c r="F761">
+        <v>71.15000000000001</v>
+      </c>
+      <c r="G761">
+        <v>6199.999999999999</v>
+      </c>
+      <c r="H761">
+        <v>4</v>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J761" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C762">
+        <v>556720</v>
+      </c>
+      <c r="D762">
+        <v>100209.6</v>
+      </c>
+      <c r="E762">
+        <v>656929</v>
+      </c>
+      <c r="F762">
+        <v>69.59</v>
+      </c>
+      <c r="G762">
+        <v>8000</v>
+      </c>
+      <c r="H762">
+        <v>4</v>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J762" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Oswal Smelters Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Quartz Grain</t>
+        </is>
+      </c>
+      <c r="C763">
+        <v>288830</v>
+      </c>
+      <c r="D763">
+        <v>13672.28</v>
+      </c>
+      <c r="E763">
+        <v>303273.25</v>
+      </c>
+      <c r="F763">
+        <v>67.95999999999999</v>
+      </c>
+      <c r="G763">
+        <v>4250</v>
+      </c>
+      <c r="H763">
+        <v>20</v>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J763" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Prime Gold International Limited</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C764">
+        <v>445522</v>
+      </c>
+      <c r="D764">
+        <v>80193.95999999999</v>
+      </c>
+      <c r="E764">
+        <v>525716</v>
+      </c>
+      <c r="F764">
+        <v>67.59</v>
+      </c>
+      <c r="G764">
+        <v>6591.537209646397</v>
+      </c>
+      <c r="H764">
+        <v>4</v>
+      </c>
+      <c r="I764" t="inlineStr">
+        <is>
+          <t>Sharad Bhutra</t>
+        </is>
+      </c>
+      <c r="J764" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Cheenu Amma Alloy (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C765">
+        <v>376488</v>
+      </c>
+      <c r="D765">
+        <v>67767.84</v>
+      </c>
+      <c r="E765">
+        <v>444255.42</v>
+      </c>
+      <c r="F765">
+        <v>59.76</v>
+      </c>
+      <c r="G765">
+        <v>6300</v>
+      </c>
+      <c r="H765">
+        <v>2</v>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J765" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C766">
+        <v>193472.5</v>
+      </c>
+      <c r="D766">
+        <v>20170.8</v>
+      </c>
+      <c r="E766">
+        <v>228297.75</v>
+      </c>
+      <c r="F766">
+        <v>59.52999999999999</v>
+      </c>
+      <c r="G766">
+        <v>3250</v>
+      </c>
+      <c r="H766">
+        <v>3</v>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J766" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C767">
+        <v>347634</v>
+      </c>
+      <c r="D767">
+        <v>34144.74</v>
+      </c>
+      <c r="E767">
+        <v>410208.38</v>
+      </c>
+      <c r="F767">
+        <v>55.18</v>
+      </c>
+      <c r="G767">
+        <v>6300</v>
+      </c>
+      <c r="H767">
+        <v>2</v>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J767" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C768">
+        <v>415856</v>
+      </c>
+      <c r="D768">
+        <v>43371</v>
+      </c>
+      <c r="E768">
+        <v>490710.08</v>
+      </c>
+      <c r="F768">
+        <v>52.64</v>
+      </c>
+      <c r="G768">
+        <v>7900</v>
+      </c>
+      <c r="H768">
+        <v>2</v>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J768" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C769">
+        <v>314140</v>
+      </c>
+      <c r="D769">
+        <v>56545.2</v>
+      </c>
+      <c r="E769">
+        <v>370685</v>
+      </c>
+      <c r="F769">
+        <v>45.2</v>
+      </c>
+      <c r="G769">
+        <v>6950</v>
+      </c>
+      <c r="H769">
+        <v>2</v>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J769" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>SHRADDHA ISPAT PVT. LTD.(SHRADDHA ISPAT-MELTING DIVISION)</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C770">
+        <v>261440</v>
+      </c>
+      <c r="D770">
+        <v>47059.2</v>
+      </c>
+      <c r="E770">
+        <v>308499</v>
+      </c>
+      <c r="F770">
+        <v>40.85</v>
+      </c>
+      <c r="G770">
+        <v>6400</v>
+      </c>
+      <c r="H770">
+        <v>2</v>
+      </c>
+      <c r="I770" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J770" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C771">
+        <v>263353.5</v>
+      </c>
+      <c r="D771">
+        <v>47403.63</v>
+      </c>
+      <c r="E771">
+        <v>310757</v>
+      </c>
+      <c r="F771">
+        <v>40.83</v>
+      </c>
+      <c r="G771">
+        <v>6450</v>
+      </c>
+      <c r="H771">
+        <v>2</v>
+      </c>
+      <c r="I771" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J771" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C772">
+        <v>348128</v>
+      </c>
+      <c r="D772">
+        <v>62663.04</v>
+      </c>
+      <c r="E772">
+        <v>410791</v>
+      </c>
+      <c r="F772">
+        <v>40.48</v>
+      </c>
+      <c r="G772">
+        <v>8600</v>
+      </c>
+      <c r="H772">
+        <v>2</v>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J772" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C773">
+        <v>254079</v>
+      </c>
+      <c r="D773">
+        <v>45734.22</v>
+      </c>
+      <c r="E773">
+        <v>299813</v>
+      </c>
+      <c r="F773">
+        <v>40.33</v>
+      </c>
+      <c r="G773">
+        <v>6300</v>
+      </c>
+      <c r="H773">
+        <v>2</v>
+      </c>
+      <c r="I773" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J773" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C774">
+        <v>128928</v>
+      </c>
+      <c r="D774">
+        <v>16992</v>
+      </c>
+      <c r="E774">
+        <v>152135.04</v>
+      </c>
+      <c r="F774">
+        <v>40.29</v>
+      </c>
+      <c r="G774">
+        <v>3200</v>
+      </c>
+      <c r="H774">
+        <v>2</v>
+      </c>
+      <c r="I774" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J774" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>RDTMT Steels India Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C775">
+        <v>240360</v>
+      </c>
+      <c r="D775">
+        <v>43264.8</v>
+      </c>
+      <c r="E775">
+        <v>283625</v>
+      </c>
+      <c r="F775">
+        <v>40.06</v>
+      </c>
+      <c r="G775">
+        <v>6000</v>
+      </c>
+      <c r="H775">
+        <v>1</v>
+      </c>
+      <c r="I775" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J775" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C776">
+        <v>59984</v>
+      </c>
+      <c r="D776">
+        <v>10797.12</v>
+      </c>
+      <c r="E776">
+        <v>70781</v>
+      </c>
+      <c r="F776">
+        <v>37.49</v>
+      </c>
+      <c r="G776">
+        <v>1600</v>
+      </c>
+      <c r="H776">
+        <v>2</v>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J776" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C777">
+        <v>212340</v>
+      </c>
+      <c r="D777">
+        <v>38221.2</v>
+      </c>
+      <c r="E777">
+        <v>250561</v>
+      </c>
+      <c r="F777">
+        <v>35.39</v>
+      </c>
+      <c r="G777">
+        <v>6000</v>
+      </c>
+      <c r="H777">
+        <v>2</v>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J777" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C778">
+        <v>220437</v>
+      </c>
+      <c r="D778">
+        <v>39678.66</v>
+      </c>
+      <c r="E778">
+        <v>260116</v>
+      </c>
+      <c r="F778">
+        <v>34.99</v>
+      </c>
+      <c r="G778">
+        <v>6300</v>
+      </c>
+      <c r="H778">
+        <v>1</v>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J778" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C779">
+        <v>254259</v>
+      </c>
+      <c r="D779">
+        <v>45766.62</v>
+      </c>
+      <c r="E779">
+        <v>300026</v>
+      </c>
+      <c r="F779">
+        <v>34.83</v>
+      </c>
+      <c r="G779">
+        <v>7300</v>
+      </c>
+      <c r="H779">
+        <v>2</v>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J779" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C780">
+        <v>129860.5</v>
+      </c>
+      <c r="D780">
+        <v>23374.89</v>
+      </c>
+      <c r="E780">
+        <v>153235</v>
+      </c>
+      <c r="F780">
+        <v>33.73</v>
+      </c>
+      <c r="G780">
+        <v>3850</v>
+      </c>
+      <c r="H780">
+        <v>2</v>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J780" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>M.A.STEELS (P) LTD</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C781">
+        <v>200403</v>
+      </c>
+      <c r="D781">
+        <v>36072.54</v>
+      </c>
+      <c r="E781">
+        <v>236476</v>
+      </c>
+      <c r="F781">
+        <v>31.81</v>
+      </c>
+      <c r="G781">
+        <v>6300</v>
+      </c>
+      <c r="H781">
+        <v>2</v>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J781" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C782">
+        <v>199332</v>
+      </c>
+      <c r="D782">
+        <v>35879.76</v>
+      </c>
+      <c r="E782">
+        <v>235212</v>
+      </c>
+      <c r="F782">
+        <v>31.64</v>
+      </c>
+      <c r="G782">
+        <v>6300</v>
+      </c>
+      <c r="H782">
+        <v>2</v>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J782" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C783">
+        <v>189658</v>
+      </c>
+      <c r="D783">
+        <v>34138.44</v>
+      </c>
+      <c r="E783">
+        <v>223796</v>
+      </c>
+      <c r="F783">
+        <v>30.59</v>
+      </c>
+      <c r="G783">
+        <v>6200</v>
+      </c>
+      <c r="H783">
+        <v>1</v>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J783" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Pattambi Brothers</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C784">
+        <v>191961</v>
+      </c>
+      <c r="D784">
+        <v>34552.98</v>
+      </c>
+      <c r="E784">
+        <v>226514</v>
+      </c>
+      <c r="F784">
+        <v>30.47</v>
+      </c>
+      <c r="G784">
+        <v>6300</v>
+      </c>
+      <c r="H784">
+        <v>1</v>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J784" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>MANDOVI CASTING PVT LTD</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C785">
+        <v>195048</v>
+      </c>
+      <c r="D785">
+        <v>35108.64</v>
+      </c>
+      <c r="E785">
+        <v>230157</v>
+      </c>
+      <c r="F785">
+        <v>30.24</v>
+      </c>
+      <c r="G785">
+        <v>6450</v>
+      </c>
+      <c r="H785">
+        <v>2</v>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J785" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C786">
+        <v>188496</v>
+      </c>
+      <c r="D786">
+        <v>33929.28</v>
+      </c>
+      <c r="E786">
+        <v>222425</v>
+      </c>
+      <c r="F786">
+        <v>29.92</v>
+      </c>
+      <c r="G786">
+        <v>6300</v>
+      </c>
+      <c r="H786">
+        <v>1</v>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J786" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C787">
+        <v>114000</v>
+      </c>
+      <c r="D787">
         <v>0</v>
       </c>
-      <c r="H748">
-        <v>3</v>
-      </c>
-      <c r="J748" s="2">
-        <v>45108</v>
+      <c r="E787">
+        <v>119700</v>
+      </c>
+      <c r="F787">
+        <v>28.5</v>
+      </c>
+      <c r="G787">
+        <v>4000</v>
+      </c>
+      <c r="H787">
+        <v>2</v>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J787" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C788">
+        <v>40052</v>
+      </c>
+      <c r="D788">
+        <v>0</v>
+      </c>
+      <c r="E788">
+        <v>47261.36</v>
+      </c>
+      <c r="F788">
+        <v>25.84</v>
+      </c>
+      <c r="G788">
+        <v>1550</v>
+      </c>
+      <c r="H788">
+        <v>2</v>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J788" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd Quartztech</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C789">
+        <v>70067.2</v>
+      </c>
+      <c r="D789">
+        <v>3503.36</v>
+      </c>
+      <c r="E789">
+        <v>73571</v>
+      </c>
+      <c r="F789">
+        <v>25.76</v>
+      </c>
+      <c r="G789">
+        <v>2720</v>
+      </c>
+      <c r="H789">
+        <v>1</v>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J789" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>AMBA FRP PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C790">
+        <v>154938</v>
+      </c>
+      <c r="D790">
+        <v>7746.9</v>
+      </c>
+      <c r="E790">
+        <v>162685</v>
+      </c>
+      <c r="F790">
+        <v>24.99</v>
+      </c>
+      <c r="G790">
+        <v>6200</v>
+      </c>
+      <c r="H790">
+        <v>2</v>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J790" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Cuncolim(Orange Fox Steel Pvt Ltd)</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C791">
+        <v>74426</v>
+      </c>
+      <c r="D791">
+        <v>2448</v>
+      </c>
+      <c r="E791">
+        <v>87822.67999999999</v>
+      </c>
+      <c r="F791">
+        <v>21.89</v>
+      </c>
+      <c r="G791">
+        <v>3400</v>
+      </c>
+      <c r="H791">
+        <v>2</v>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J791" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C792">
+        <v>62356</v>
+      </c>
+      <c r="D792">
+        <v>0</v>
+      </c>
+      <c r="E792">
+        <v>73580.08</v>
+      </c>
+      <c r="F792">
+        <v>18.34</v>
+      </c>
+      <c r="G792">
+        <v>3400</v>
+      </c>
+      <c r="H792">
+        <v>1</v>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J792" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C793">
+        <v>49010</v>
+      </c>
+      <c r="D793">
+        <v>0</v>
+      </c>
+      <c r="E793">
+        <v>57831.8</v>
+      </c>
+      <c r="F793">
+        <v>15.08</v>
+      </c>
+      <c r="G793">
+        <v>3250</v>
+      </c>
+      <c r="H793">
+        <v>1</v>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J793" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Cuncolim(Orange Fox Steel Pvt Ltd)</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C794">
+        <v>78912</v>
+      </c>
+      <c r="D794">
+        <v>0</v>
+      </c>
+      <c r="E794">
+        <v>93116.15999999999</v>
+      </c>
+      <c r="F794">
+        <v>12.33</v>
+      </c>
+      <c r="G794">
+        <v>6400</v>
+      </c>
+      <c r="H794">
+        <v>1</v>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J794" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C795">
+        <v>45030</v>
+      </c>
+      <c r="D795">
+        <v>4557.52</v>
+      </c>
+      <c r="E795">
+        <v>53135.39</v>
+      </c>
+      <c r="F795">
+        <v>11.4</v>
+      </c>
+      <c r="G795">
+        <v>3950</v>
+      </c>
+      <c r="H795">
+        <v>2</v>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J795" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C796">
+        <v>29670</v>
+      </c>
+      <c r="D796">
+        <v>2305.8</v>
+      </c>
+      <c r="E796">
+        <v>35010.6</v>
+      </c>
+      <c r="F796">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G796">
+        <v>3000</v>
+      </c>
+      <c r="H796">
+        <v>1</v>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J796" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C797">
+        <v>8080</v>
+      </c>
+      <c r="D797">
+        <v>1454.4</v>
+      </c>
+      <c r="E797">
+        <v>9534</v>
+      </c>
+      <c r="F797">
+        <v>1.01</v>
+      </c>
+      <c r="G797">
+        <v>8000</v>
+      </c>
+      <c r="H797">
+        <v>1</v>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J797" s="2">
+        <v>45139</v>
       </c>
     </row>
   </sheetData>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J797"/>
+  <dimension ref="A1:J830"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30601,7 +30601,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C797">
@@ -30629,6 +30629,1260 @@
       </c>
       <c r="J797" s="2">
         <v>45139</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>BMM ISPAT LIMITED</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C798">
+        <v>1250097</v>
+      </c>
+      <c r="D798">
+        <v>225017.46</v>
+      </c>
+      <c r="E798">
+        <v>1475114</v>
+      </c>
+      <c r="F798">
+        <v>176.07</v>
+      </c>
+      <c r="G798">
+        <v>7100</v>
+      </c>
+      <c r="H798">
+        <v>5</v>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J798" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C799">
+        <v>1329972</v>
+      </c>
+      <c r="D799">
+        <v>239394.96</v>
+      </c>
+      <c r="E799">
+        <v>1569367</v>
+      </c>
+      <c r="F799">
+        <v>158.33</v>
+      </c>
+      <c r="G799">
+        <v>8400</v>
+      </c>
+      <c r="H799">
+        <v>6</v>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J799" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>A One Ispat Private Ltd</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C800">
+        <v>1090358</v>
+      </c>
+      <c r="D800">
+        <v>196264.44</v>
+      </c>
+      <c r="E800">
+        <v>1286622</v>
+      </c>
+      <c r="F800">
+        <v>138.02</v>
+      </c>
+      <c r="G800">
+        <v>7900.000000000001</v>
+      </c>
+      <c r="H800">
+        <v>4</v>
+      </c>
+      <c r="I800" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J800" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C801">
+        <v>464204</v>
+      </c>
+      <c r="D801">
+        <v>83556.73999999999</v>
+      </c>
+      <c r="E801">
+        <v>547760</v>
+      </c>
+      <c r="F801">
+        <v>117.52</v>
+      </c>
+      <c r="G801">
+        <v>3950</v>
+      </c>
+      <c r="H801">
+        <v>7</v>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J801" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C802">
+        <v>829200</v>
+      </c>
+      <c r="D802">
+        <v>149256</v>
+      </c>
+      <c r="E802">
+        <v>978457</v>
+      </c>
+      <c r="F802">
+        <v>110.56</v>
+      </c>
+      <c r="G802">
+        <v>7500</v>
+      </c>
+      <c r="H802">
+        <v>6</v>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J802" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>ARISE STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C803">
+        <v>619876</v>
+      </c>
+      <c r="D803">
+        <v>111577.68</v>
+      </c>
+      <c r="E803">
+        <v>731454</v>
+      </c>
+      <c r="F803">
+        <v>99.97999999999999</v>
+      </c>
+      <c r="G803">
+        <v>6200</v>
+      </c>
+      <c r="H803">
+        <v>6</v>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J803" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C804">
+        <v>732548</v>
+      </c>
+      <c r="D804">
+        <v>131858.64</v>
+      </c>
+      <c r="E804">
+        <v>864406</v>
+      </c>
+      <c r="F804">
+        <v>85.18000000000001</v>
+      </c>
+      <c r="G804">
+        <v>8600</v>
+      </c>
+      <c r="H804">
+        <v>4</v>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J804" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C805">
+        <v>578512</v>
+      </c>
+      <c r="D805">
+        <v>104132.16</v>
+      </c>
+      <c r="E805">
+        <v>682644</v>
+      </c>
+      <c r="F805">
+        <v>76.12</v>
+      </c>
+      <c r="G805">
+        <v>7600</v>
+      </c>
+      <c r="H805">
+        <v>3</v>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J805" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C806">
+        <v>465948</v>
+      </c>
+      <c r="D806">
+        <v>83870.64</v>
+      </c>
+      <c r="E806">
+        <v>549819</v>
+      </c>
+      <c r="F806">
+        <v>73.96000000000001</v>
+      </c>
+      <c r="G806">
+        <v>6299.999999999999</v>
+      </c>
+      <c r="H806">
+        <v>2</v>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J806" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>Pushpit Steels Private Limited</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C807">
+        <v>440634</v>
+      </c>
+      <c r="D807">
+        <v>79314.12</v>
+      </c>
+      <c r="E807">
+        <v>519948</v>
+      </c>
+      <c r="F807">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="G807">
+        <v>6200.000000000001</v>
+      </c>
+      <c r="H807">
+        <v>3</v>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J807" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>Pulkit Metals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C808">
+        <v>424620</v>
+      </c>
+      <c r="D808">
+        <v>76431.60000000001</v>
+      </c>
+      <c r="E808">
+        <v>501052</v>
+      </c>
+      <c r="F808">
+        <v>70.77</v>
+      </c>
+      <c r="G808">
+        <v>6000</v>
+      </c>
+      <c r="H808">
+        <v>4</v>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J808" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C809">
+        <v>190912</v>
+      </c>
+      <c r="D809">
+        <v>34364.16</v>
+      </c>
+      <c r="E809">
+        <v>225276</v>
+      </c>
+      <c r="F809">
+        <v>59.66</v>
+      </c>
+      <c r="G809">
+        <v>3200</v>
+      </c>
+      <c r="H809">
+        <v>3</v>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J809" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Bharat Heavy Electricals Limited</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C810">
+        <v>220694.4</v>
+      </c>
+      <c r="D810">
+        <v>11034.73</v>
+      </c>
+      <c r="E810">
+        <v>231729</v>
+      </c>
+      <c r="F810">
+        <v>50.56</v>
+      </c>
+      <c r="G810">
+        <v>4365</v>
+      </c>
+      <c r="H810">
+        <v>3</v>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J810" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>Oswal Smelters Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Quartz Grain</t>
+        </is>
+      </c>
+      <c r="C811">
+        <v>171778.5</v>
+      </c>
+      <c r="D811">
+        <v>8588.92</v>
+      </c>
+      <c r="E811">
+        <v>180370</v>
+      </c>
+      <c r="F811">
+        <v>40.15</v>
+      </c>
+      <c r="G811">
+        <v>4278.418430884184</v>
+      </c>
+      <c r="H811">
+        <v>11</v>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J811" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C812">
+        <v>240420</v>
+      </c>
+      <c r="D812">
+        <v>43275.6</v>
+      </c>
+      <c r="E812">
+        <v>283696</v>
+      </c>
+      <c r="F812">
+        <v>40.07</v>
+      </c>
+      <c r="G812">
+        <v>6000</v>
+      </c>
+      <c r="H812">
+        <v>2</v>
+      </c>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J812" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C813">
+        <v>286138</v>
+      </c>
+      <c r="D813">
+        <v>51504.84</v>
+      </c>
+      <c r="E813">
+        <v>337643</v>
+      </c>
+      <c r="F813">
+        <v>36.22</v>
+      </c>
+      <c r="G813">
+        <v>7900</v>
+      </c>
+      <c r="H813">
+        <v>2</v>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J813" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C814">
+        <v>225603</v>
+      </c>
+      <c r="D814">
+        <v>40608.54</v>
+      </c>
+      <c r="E814">
+        <v>266212</v>
+      </c>
+      <c r="F814">
+        <v>35.81</v>
+      </c>
+      <c r="G814">
+        <v>6300</v>
+      </c>
+      <c r="H814">
+        <v>1</v>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J814" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C815">
+        <v>284610</v>
+      </c>
+      <c r="D815">
+        <v>51229.8</v>
+      </c>
+      <c r="E815">
+        <v>335840</v>
+      </c>
+      <c r="F815">
+        <v>35.8</v>
+      </c>
+      <c r="G815">
+        <v>7950.000000000001</v>
+      </c>
+      <c r="H815">
+        <v>1</v>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J815" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C816">
+        <v>116220</v>
+      </c>
+      <c r="D816">
+        <v>20919.6</v>
+      </c>
+      <c r="E816">
+        <v>137140</v>
+      </c>
+      <c r="F816">
+        <v>35.76</v>
+      </c>
+      <c r="G816">
+        <v>3250</v>
+      </c>
+      <c r="H816">
+        <v>1</v>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J816" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C817">
+        <v>114016</v>
+      </c>
+      <c r="D817">
+        <v>20522.88</v>
+      </c>
+      <c r="E817">
+        <v>134539</v>
+      </c>
+      <c r="F817">
+        <v>35.63</v>
+      </c>
+      <c r="G817">
+        <v>3200</v>
+      </c>
+      <c r="H817">
+        <v>1</v>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J817" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C818">
+        <v>219542</v>
+      </c>
+      <c r="D818">
+        <v>39517.56</v>
+      </c>
+      <c r="E818">
+        <v>259060</v>
+      </c>
+      <c r="F818">
+        <v>35.41</v>
+      </c>
+      <c r="G818">
+        <v>6200.000000000001</v>
+      </c>
+      <c r="H818">
+        <v>1</v>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J818" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C819">
+        <v>222957</v>
+      </c>
+      <c r="D819">
+        <v>40132.26</v>
+      </c>
+      <c r="E819">
+        <v>263089</v>
+      </c>
+      <c r="F819">
+        <v>35.39</v>
+      </c>
+      <c r="G819">
+        <v>6300</v>
+      </c>
+      <c r="H819">
+        <v>1</v>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J819" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C820">
+        <v>257179</v>
+      </c>
+      <c r="D820">
+        <v>46292.22</v>
+      </c>
+      <c r="E820">
+        <v>303471</v>
+      </c>
+      <c r="F820">
+        <v>35.23</v>
+      </c>
+      <c r="G820">
+        <v>7299.999999999999</v>
+      </c>
+      <c r="H820">
+        <v>2</v>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J820" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>EMJAY STEEL UDYYOG PVT LTD</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C821">
+        <v>245910</v>
+      </c>
+      <c r="D821">
+        <v>44263.8</v>
+      </c>
+      <c r="E821">
+        <v>290174</v>
+      </c>
+      <c r="F821">
+        <v>35.13</v>
+      </c>
+      <c r="G821">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="H821">
+        <v>1</v>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J821" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>Kanishk Steel Industries Ltd</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C822">
+        <v>250272</v>
+      </c>
+      <c r="D822">
+        <v>45048.96</v>
+      </c>
+      <c r="E822">
+        <v>295321</v>
+      </c>
+      <c r="F822">
+        <v>34.76</v>
+      </c>
+      <c r="G822">
+        <v>7200</v>
+      </c>
+      <c r="H822">
+        <v>1</v>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J822" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C823">
+        <v>91337.60000000001</v>
+      </c>
+      <c r="D823">
+        <v>4566.88</v>
+      </c>
+      <c r="E823">
+        <v>95905</v>
+      </c>
+      <c r="F823">
+        <v>33.58</v>
+      </c>
+      <c r="G823">
+        <v>2720</v>
+      </c>
+      <c r="H823">
+        <v>1</v>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J823" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C824">
+        <v>264800</v>
+      </c>
+      <c r="D824">
+        <v>47664</v>
+      </c>
+      <c r="E824">
+        <v>312464</v>
+      </c>
+      <c r="F824">
+        <v>33.1</v>
+      </c>
+      <c r="G824">
+        <v>8000</v>
+      </c>
+      <c r="H824">
+        <v>2</v>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J824" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C825">
+        <v>246638</v>
+      </c>
+      <c r="D825">
+        <v>44394.84</v>
+      </c>
+      <c r="E825">
+        <v>291033</v>
+      </c>
+      <c r="F825">
+        <v>31.22</v>
+      </c>
+      <c r="G825">
+        <v>7900</v>
+      </c>
+      <c r="H825">
+        <v>1</v>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J825" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C826">
+        <v>196800</v>
+      </c>
+      <c r="D826">
+        <v>35424</v>
+      </c>
+      <c r="E826">
+        <v>232224</v>
+      </c>
+      <c r="F826">
+        <v>30.75</v>
+      </c>
+      <c r="G826">
+        <v>6400</v>
+      </c>
+      <c r="H826">
+        <v>1</v>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J826" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C827">
+        <v>155367</v>
+      </c>
+      <c r="D827">
+        <v>32739.66</v>
+      </c>
+      <c r="E827">
+        <v>183333.06</v>
+      </c>
+      <c r="F827">
+        <v>25.47</v>
+      </c>
+      <c r="G827">
+        <v>6100</v>
+      </c>
+      <c r="H827">
+        <v>1</v>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J827" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C828">
+        <v>61162</v>
+      </c>
+      <c r="D828">
+        <v>3058.1</v>
+      </c>
+      <c r="E828">
+        <v>64220</v>
+      </c>
+      <c r="F828">
+        <v>23.08</v>
+      </c>
+      <c r="G828">
+        <v>2650</v>
+      </c>
+      <c r="H828">
+        <v>1</v>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J828" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C829">
+        <v>27760.5</v>
+      </c>
+      <c r="D829">
+        <v>4996.9</v>
+      </c>
+      <c r="E829">
+        <v>32757</v>
+      </c>
+      <c r="F829">
+        <v>17.91</v>
+      </c>
+      <c r="G829">
+        <v>1550</v>
+      </c>
+      <c r="H829">
+        <v>1</v>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J829" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C830">
+        <v>26520</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+      <c r="E830">
+        <v>31293.6</v>
+      </c>
+      <c r="F830">
+        <v>8.84</v>
+      </c>
+      <c r="G830">
+        <v>3000</v>
+      </c>
+      <c r="H830">
+        <v>1</v>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J830" s="2">
+        <v>45170</v>
       </c>
     </row>
   </sheetData>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J830"/>
+  <dimension ref="A1:J836"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30634,35 +30634,35 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C798">
-        <v>1250097</v>
+        <v>1845480</v>
       </c>
       <c r="D798">
-        <v>225017.46</v>
+        <v>332186.4</v>
       </c>
       <c r="E798">
-        <v>1475114</v>
+        <v>2177666</v>
       </c>
       <c r="F798">
-        <v>176.07</v>
+        <v>219.7</v>
       </c>
       <c r="G798">
-        <v>7100</v>
+        <v>8400</v>
       </c>
       <c r="H798">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J798" s="2">
@@ -30672,35 +30672,35 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C799">
-        <v>1329972</v>
+        <v>1250097</v>
       </c>
       <c r="D799">
-        <v>239394.96</v>
+        <v>225017.46</v>
       </c>
       <c r="E799">
-        <v>1569367</v>
+        <v>1475114</v>
       </c>
       <c r="F799">
-        <v>158.33</v>
+        <v>176.07</v>
       </c>
       <c r="G799">
-        <v>8400</v>
+        <v>7100</v>
       </c>
       <c r="H799">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J799" s="2">
@@ -30719,22 +30719,22 @@
         </is>
       </c>
       <c r="C800">
-        <v>1090358</v>
+        <v>1380525</v>
       </c>
       <c r="D800">
-        <v>196264.44</v>
+        <v>248494.5</v>
       </c>
       <c r="E800">
-        <v>1286622</v>
+        <v>1629019</v>
       </c>
       <c r="F800">
-        <v>138.02</v>
+        <v>174.75</v>
       </c>
       <c r="G800">
         <v>7900.000000000001</v>
       </c>
       <c r="H800">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I800" t="inlineStr">
         <is>
@@ -30757,22 +30757,22 @@
         </is>
       </c>
       <c r="C801">
-        <v>464204</v>
+        <v>608932</v>
       </c>
       <c r="D801">
-        <v>83556.73999999999</v>
+        <v>109607.78</v>
       </c>
       <c r="E801">
-        <v>547760</v>
+        <v>718539</v>
       </c>
       <c r="F801">
-        <v>117.52</v>
+        <v>154.16</v>
       </c>
       <c r="G801">
         <v>3950</v>
       </c>
       <c r="H801">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I801" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -30795,26 +30795,26 @@
         </is>
       </c>
       <c r="C802">
-        <v>829200</v>
+        <v>917154</v>
       </c>
       <c r="D802">
-        <v>149256</v>
+        <v>165087.72</v>
       </c>
       <c r="E802">
-        <v>978457</v>
+        <v>1082242</v>
       </c>
       <c r="F802">
-        <v>110.56</v>
+        <v>145.58</v>
       </c>
       <c r="G802">
-        <v>7500</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H802">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J802" s="2">
@@ -30833,22 +30833,22 @@
         </is>
       </c>
       <c r="C803">
-        <v>619876</v>
+        <v>838488</v>
       </c>
       <c r="D803">
-        <v>111577.68</v>
+        <v>150927.84</v>
       </c>
       <c r="E803">
-        <v>731454</v>
+        <v>989416</v>
       </c>
       <c r="F803">
-        <v>99.97999999999999</v>
+        <v>135.24</v>
       </c>
       <c r="G803">
         <v>6200</v>
       </c>
       <c r="H803">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I803" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -30871,26 +30871,26 @@
         </is>
       </c>
       <c r="C804">
-        <v>732548</v>
+        <v>886464</v>
       </c>
       <c r="D804">
-        <v>131858.64</v>
+        <v>159563.52</v>
       </c>
       <c r="E804">
-        <v>864406</v>
+        <v>1046027</v>
       </c>
       <c r="F804">
-        <v>85.18000000000001</v>
+        <v>116.64</v>
       </c>
       <c r="G804">
-        <v>8600</v>
+        <v>7600</v>
       </c>
       <c r="H804">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J804" s="2">
@@ -30900,35 +30900,35 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C805">
-        <v>578512</v>
+        <v>829200</v>
       </c>
       <c r="D805">
-        <v>104132.16</v>
+        <v>149256</v>
       </c>
       <c r="E805">
-        <v>682644</v>
+        <v>978457</v>
       </c>
       <c r="F805">
-        <v>76.12</v>
+        <v>110.56</v>
       </c>
       <c r="G805">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="H805">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J805" s="2">
@@ -30938,7 +30938,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -30947,26 +30947,26 @@
         </is>
       </c>
       <c r="C806">
-        <v>465948</v>
+        <v>657262</v>
       </c>
       <c r="D806">
-        <v>83870.64</v>
+        <v>118307.16</v>
       </c>
       <c r="E806">
-        <v>549819</v>
+        <v>775569</v>
       </c>
       <c r="F806">
-        <v>73.96000000000001</v>
+        <v>106.01</v>
       </c>
       <c r="G806">
-        <v>6299.999999999999</v>
+        <v>6200</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J806" s="2">
@@ -30976,35 +30976,35 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C807">
-        <v>440634</v>
+        <v>304384</v>
       </c>
       <c r="D807">
-        <v>79314.12</v>
+        <v>54789.12</v>
       </c>
       <c r="E807">
-        <v>519948</v>
+        <v>359173</v>
       </c>
       <c r="F807">
-        <v>71.06999999999999</v>
+        <v>95.12</v>
       </c>
       <c r="G807">
-        <v>6200.000000000001</v>
+        <v>3200</v>
       </c>
       <c r="H807">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J807" s="2">
@@ -31014,35 +31014,35 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C808">
-        <v>424620</v>
+        <v>732548</v>
       </c>
       <c r="D808">
-        <v>76431.60000000001</v>
+        <v>131858.64</v>
       </c>
       <c r="E808">
-        <v>501052</v>
+        <v>864406</v>
       </c>
       <c r="F808">
-        <v>70.77</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="G808">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="H808">
         <v>4</v>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J808" s="2">
@@ -31052,31 +31052,31 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C809">
-        <v>190912</v>
+        <v>352866</v>
       </c>
       <c r="D809">
-        <v>34364.16</v>
+        <v>17643.3</v>
       </c>
       <c r="E809">
-        <v>225276</v>
+        <v>370511.88</v>
       </c>
       <c r="F809">
-        <v>59.66</v>
+        <v>77.62</v>
       </c>
       <c r="G809">
-        <v>3200</v>
+        <v>4546.070600360731</v>
       </c>
       <c r="H809">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I809" t="inlineStr">
         <is>
@@ -31090,35 +31090,35 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C810">
-        <v>220694.4</v>
+        <v>569432</v>
       </c>
       <c r="D810">
-        <v>11034.73</v>
+        <v>102497.76</v>
       </c>
       <c r="E810">
-        <v>231729</v>
+        <v>671930</v>
       </c>
       <c r="F810">
-        <v>50.56</v>
+        <v>72.08</v>
       </c>
       <c r="G810">
-        <v>4365</v>
+        <v>7900</v>
       </c>
       <c r="H810">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J810" s="2">
@@ -31128,35 +31128,35 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C811">
-        <v>171778.5</v>
+        <v>424620</v>
       </c>
       <c r="D811">
-        <v>8588.92</v>
+        <v>76431.60000000001</v>
       </c>
       <c r="E811">
-        <v>180370</v>
+        <v>501052</v>
       </c>
       <c r="F811">
-        <v>40.15</v>
+        <v>70.77</v>
       </c>
       <c r="G811">
-        <v>4278.418430884184</v>
+        <v>6000</v>
       </c>
       <c r="H811">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J811" s="2">
@@ -31166,28 +31166,28 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C812">
-        <v>240420</v>
+        <v>491696</v>
       </c>
       <c r="D812">
-        <v>43275.6</v>
+        <v>88505.28</v>
       </c>
       <c r="E812">
-        <v>283696</v>
+        <v>580202</v>
       </c>
       <c r="F812">
-        <v>40.07</v>
+        <v>62.23999999999999</v>
       </c>
       <c r="G812">
-        <v>6000</v>
+        <v>7900.000000000001</v>
       </c>
       <c r="H812">
         <v>2</v>
@@ -31204,35 +31204,35 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C813">
-        <v>286138</v>
+        <v>192891</v>
       </c>
       <c r="D813">
-        <v>51504.84</v>
+        <v>34720.38</v>
       </c>
       <c r="E813">
-        <v>337643</v>
+        <v>227612</v>
       </c>
       <c r="F813">
-        <v>36.22</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="G813">
-        <v>7900</v>
+        <v>3209.500831946756</v>
       </c>
       <c r="H813">
         <v>2</v>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J813" s="2">
@@ -31242,35 +31242,35 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C814">
-        <v>225603</v>
+        <v>220694.4</v>
       </c>
       <c r="D814">
-        <v>40608.54</v>
+        <v>11034.73</v>
       </c>
       <c r="E814">
-        <v>266212</v>
+        <v>231729</v>
       </c>
       <c r="F814">
-        <v>35.81</v>
+        <v>50.56</v>
       </c>
       <c r="G814">
-        <v>6300</v>
+        <v>4365</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J814" s="2">
@@ -31280,35 +31280,35 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Orange Fox Steel Private Limited(BICHOLIM)</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C815">
-        <v>284610</v>
+        <v>273738</v>
       </c>
       <c r="D815">
-        <v>51229.8</v>
+        <v>49272.84</v>
       </c>
       <c r="E815">
-        <v>335840</v>
+        <v>323011</v>
       </c>
       <c r="F815">
-        <v>35.8</v>
+        <v>42.44</v>
       </c>
       <c r="G815">
-        <v>7950.000000000001</v>
+        <v>6450</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J815" s="2">
@@ -31318,7 +31318,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -31327,22 +31327,22 @@
         </is>
       </c>
       <c r="C816">
-        <v>116220</v>
+        <v>240420</v>
       </c>
       <c r="D816">
-        <v>20919.6</v>
+        <v>43275.6</v>
       </c>
       <c r="E816">
-        <v>137140</v>
+        <v>283696</v>
       </c>
       <c r="F816">
-        <v>35.76</v>
+        <v>40.07</v>
       </c>
       <c r="G816">
-        <v>3250</v>
+        <v>6000</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr">
         <is>
@@ -31356,35 +31356,35 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C817">
-        <v>114016</v>
+        <v>225603</v>
       </c>
       <c r="D817">
-        <v>20522.88</v>
+        <v>40608.54</v>
       </c>
       <c r="E817">
-        <v>134539</v>
+        <v>266212</v>
       </c>
       <c r="F817">
-        <v>35.63</v>
+        <v>35.81</v>
       </c>
       <c r="G817">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H817">
         <v>1</v>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J817" s="2">
@@ -31394,35 +31394,35 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C818">
-        <v>219542</v>
+        <v>284610</v>
       </c>
       <c r="D818">
-        <v>39517.56</v>
+        <v>51229.8</v>
       </c>
       <c r="E818">
-        <v>259060</v>
+        <v>335840</v>
       </c>
       <c r="F818">
-        <v>35.41</v>
+        <v>35.8</v>
       </c>
       <c r="G818">
-        <v>6200.000000000001</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H818">
         <v>1</v>
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J818" s="2">
@@ -31432,35 +31432,35 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C819">
-        <v>222957</v>
+        <v>114016</v>
       </c>
       <c r="D819">
-        <v>40132.26</v>
+        <v>20522.88</v>
       </c>
       <c r="E819">
-        <v>263089</v>
+        <v>134539</v>
       </c>
       <c r="F819">
-        <v>35.39</v>
+        <v>35.63</v>
       </c>
       <c r="G819">
-        <v>6300</v>
+        <v>3200</v>
       </c>
       <c r="H819">
         <v>1</v>
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J819" s="2">
@@ -31470,28 +31470,28 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C820">
-        <v>257179</v>
+        <v>284080</v>
       </c>
       <c r="D820">
-        <v>46292.22</v>
+        <v>51134.4</v>
       </c>
       <c r="E820">
-        <v>303471</v>
+        <v>335214</v>
       </c>
       <c r="F820">
-        <v>35.23</v>
+        <v>35.51000000000001</v>
       </c>
       <c r="G820">
-        <v>7299.999999999999</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H820">
         <v>2</v>
@@ -31508,7 +31508,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>EMJAY STEEL UDYYOG PVT LTD</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -31517,19 +31517,19 @@
         </is>
       </c>
       <c r="C821">
-        <v>245910</v>
+        <v>219542</v>
       </c>
       <c r="D821">
-        <v>44263.8</v>
+        <v>39517.56</v>
       </c>
       <c r="E821">
-        <v>290174</v>
+        <v>259060</v>
       </c>
       <c r="F821">
-        <v>35.13</v>
+        <v>35.41</v>
       </c>
       <c r="G821">
-        <v>6999.999999999999</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H821">
         <v>1</v>
@@ -31546,7 +31546,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -31555,26 +31555,26 @@
         </is>
       </c>
       <c r="C822">
-        <v>250272</v>
+        <v>222957</v>
       </c>
       <c r="D822">
-        <v>45048.96</v>
+        <v>40132.26</v>
       </c>
       <c r="E822">
-        <v>295321</v>
+        <v>263089</v>
       </c>
       <c r="F822">
-        <v>34.76</v>
+        <v>35.39</v>
       </c>
       <c r="G822">
-        <v>7200</v>
+        <v>6300</v>
       </c>
       <c r="H822">
         <v>1</v>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J822" s="2">
@@ -31584,31 +31584,31 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C823">
-        <v>91337.60000000001</v>
+        <v>257179</v>
       </c>
       <c r="D823">
-        <v>4566.88</v>
+        <v>46292.22</v>
       </c>
       <c r="E823">
-        <v>95905</v>
+        <v>303471</v>
       </c>
       <c r="F823">
-        <v>33.58</v>
+        <v>35.23</v>
       </c>
       <c r="G823">
-        <v>2720</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr">
         <is>
@@ -31622,35 +31622,35 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C824">
-        <v>264800</v>
+        <v>227104.5</v>
       </c>
       <c r="D824">
-        <v>47664</v>
+        <v>40878.81</v>
       </c>
       <c r="E824">
-        <v>312464</v>
+        <v>267983</v>
       </c>
       <c r="F824">
-        <v>33.1</v>
+        <v>35.21</v>
       </c>
       <c r="G824">
-        <v>8000</v>
+        <v>6450</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J824" s="2">
@@ -31660,35 +31660,35 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>EMJAY STEEL UDYYOG PVT LTD</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C825">
-        <v>246638</v>
+        <v>245910</v>
       </c>
       <c r="D825">
-        <v>44394.84</v>
+        <v>44263.8</v>
       </c>
       <c r="E825">
-        <v>291033</v>
+        <v>290174</v>
       </c>
       <c r="F825">
-        <v>31.22</v>
+        <v>35.13</v>
       </c>
       <c r="G825">
-        <v>7900</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H825">
         <v>1</v>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J825" s="2">
@@ -31698,7 +31698,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -31707,26 +31707,26 @@
         </is>
       </c>
       <c r="C826">
-        <v>196800</v>
+        <v>250272</v>
       </c>
       <c r="D826">
-        <v>35424</v>
+        <v>45048.96</v>
       </c>
       <c r="E826">
-        <v>232224</v>
+        <v>295321</v>
       </c>
       <c r="F826">
-        <v>30.75</v>
+        <v>34.76</v>
       </c>
       <c r="G826">
-        <v>6400</v>
+        <v>7200</v>
       </c>
       <c r="H826">
         <v>1</v>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J826" s="2">
@@ -31736,35 +31736,35 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C827">
-        <v>155367</v>
+        <v>91337.60000000001</v>
       </c>
       <c r="D827">
-        <v>32739.66</v>
+        <v>4566.88</v>
       </c>
       <c r="E827">
-        <v>183333.06</v>
+        <v>95905</v>
       </c>
       <c r="F827">
-        <v>25.47</v>
+        <v>33.58</v>
       </c>
       <c r="G827">
-        <v>6100</v>
+        <v>2720</v>
       </c>
       <c r="H827">
         <v>1</v>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J827" s="2">
@@ -31774,31 +31774,31 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C828">
-        <v>61162</v>
+        <v>264800</v>
       </c>
       <c r="D828">
-        <v>3058.1</v>
+        <v>47664</v>
       </c>
       <c r="E828">
-        <v>64220</v>
+        <v>312464</v>
       </c>
       <c r="F828">
-        <v>23.08</v>
+        <v>33.1</v>
       </c>
       <c r="G828">
-        <v>2650</v>
+        <v>8000</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr">
         <is>
@@ -31812,35 +31812,35 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C829">
-        <v>27760.5</v>
+        <v>196800</v>
       </c>
       <c r="D829">
-        <v>4996.9</v>
+        <v>35424</v>
       </c>
       <c r="E829">
-        <v>32757</v>
+        <v>232224</v>
       </c>
       <c r="F829">
-        <v>17.91</v>
+        <v>30.75</v>
       </c>
       <c r="G829">
-        <v>1550</v>
+        <v>6400</v>
       </c>
       <c r="H829">
         <v>1</v>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J829" s="2">
@@ -31850,38 +31850,266 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
+          <t>Pattambi Brothers</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C830">
+        <v>188496</v>
+      </c>
+      <c r="D830">
+        <v>33929.28</v>
+      </c>
+      <c r="E830">
+        <v>222425</v>
+      </c>
+      <c r="F830">
+        <v>29.92</v>
+      </c>
+      <c r="G830">
+        <v>6300</v>
+      </c>
+      <c r="H830">
+        <v>1</v>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J830" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
           <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
         </is>
       </c>
-      <c r="B830" t="inlineStr">
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C831">
+        <v>155367</v>
+      </c>
+      <c r="D831">
+        <v>32739.66</v>
+      </c>
+      <c r="E831">
+        <v>183333.06</v>
+      </c>
+      <c r="F831">
+        <v>25.47</v>
+      </c>
+      <c r="G831">
+        <v>6100</v>
+      </c>
+      <c r="H831">
+        <v>1</v>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J831" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C832">
+        <v>158336</v>
+      </c>
+      <c r="D832">
+        <v>0</v>
+      </c>
+      <c r="E832">
+        <v>186836.48</v>
+      </c>
+      <c r="F832">
+        <v>24.74</v>
+      </c>
+      <c r="G832">
+        <v>6400</v>
+      </c>
+      <c r="H832">
+        <v>1</v>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J832" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C833">
+        <v>61162</v>
+      </c>
+      <c r="D833">
+        <v>3058.1</v>
+      </c>
+      <c r="E833">
+        <v>64220</v>
+      </c>
+      <c r="F833">
+        <v>23.08</v>
+      </c>
+      <c r="G833">
+        <v>2650</v>
+      </c>
+      <c r="H833">
+        <v>1</v>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J833" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
         <is>
           <t>Nali Top</t>
         </is>
       </c>
-      <c r="C830">
+      <c r="C834">
+        <v>27760.5</v>
+      </c>
+      <c r="D834">
+        <v>4996.9</v>
+      </c>
+      <c r="E834">
+        <v>32757</v>
+      </c>
+      <c r="F834">
+        <v>17.91</v>
+      </c>
+      <c r="G834">
+        <v>1550</v>
+      </c>
+      <c r="H834">
+        <v>1</v>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J834" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C835">
         <v>26520</v>
       </c>
-      <c r="D830">
+      <c r="D835">
         <v>0</v>
       </c>
-      <c r="E830">
+      <c r="E835">
         <v>31293.6</v>
       </c>
-      <c r="F830">
+      <c r="F835">
         <v>8.84</v>
       </c>
-      <c r="G830">
+      <c r="G835">
         <v>3000</v>
       </c>
-      <c r="H830">
-        <v>1</v>
-      </c>
-      <c r="I830" t="inlineStr">
+      <c r="H835">
+        <v>1</v>
+      </c>
+      <c r="I835" t="inlineStr">
         <is>
           <t>Shresth Maheshwari</t>
         </is>
       </c>
-      <c r="J830" s="2">
+      <c r="J835" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C836">
+        <v>40950</v>
+      </c>
+      <c r="D836">
+        <v>35331.66</v>
+      </c>
+      <c r="E836">
+        <v>48321</v>
+      </c>
+      <c r="F836">
+        <v>5.25</v>
+      </c>
+      <c r="G836">
+        <v>7800</v>
+      </c>
+      <c r="H836">
+        <v>1</v>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J836" s="2">
         <v>45170</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J836"/>
+  <dimension ref="A1:J835"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31242,31 +31242,31 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C814">
-        <v>220694.4</v>
+        <v>355136</v>
       </c>
       <c r="D814">
-        <v>11034.73</v>
+        <v>35424</v>
       </c>
       <c r="E814">
-        <v>231729</v>
+        <v>419060.48</v>
       </c>
       <c r="F814">
-        <v>50.56</v>
+        <v>55.48999999999999</v>
       </c>
       <c r="G814">
-        <v>4365</v>
+        <v>6400.000000000001</v>
       </c>
       <c r="H814">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr">
         <is>
@@ -31280,35 +31280,35 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Private Limited(BICHOLIM)</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C815">
-        <v>273738</v>
+        <v>220694.4</v>
       </c>
       <c r="D815">
-        <v>49272.84</v>
+        <v>11034.73</v>
       </c>
       <c r="E815">
-        <v>323011</v>
+        <v>231729</v>
       </c>
       <c r="F815">
-        <v>42.44</v>
+        <v>50.56</v>
       </c>
       <c r="G815">
-        <v>6450</v>
+        <v>4365</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J815" s="2">
@@ -31318,7 +31318,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
+          <t>Orange Fox Steel Private Limited(BICHOLIM)</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -31327,26 +31327,26 @@
         </is>
       </c>
       <c r="C816">
-        <v>240420</v>
+        <v>273738</v>
       </c>
       <c r="D816">
-        <v>43275.6</v>
+        <v>49272.84</v>
       </c>
       <c r="E816">
-        <v>283696</v>
+        <v>323011</v>
       </c>
       <c r="F816">
-        <v>40.07</v>
+        <v>42.44</v>
       </c>
       <c r="G816">
-        <v>6000</v>
+        <v>6450</v>
       </c>
       <c r="H816">
         <v>2</v>
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J816" s="2">
@@ -31356,7 +31356,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -31365,26 +31365,26 @@
         </is>
       </c>
       <c r="C817">
-        <v>225603</v>
+        <v>240420</v>
       </c>
       <c r="D817">
-        <v>40608.54</v>
+        <v>43275.6</v>
       </c>
       <c r="E817">
-        <v>266212</v>
+        <v>283696</v>
       </c>
       <c r="F817">
-        <v>35.81</v>
+        <v>40.07</v>
       </c>
       <c r="G817">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J817" s="2">
@@ -31394,35 +31394,35 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C818">
-        <v>284610</v>
+        <v>225603</v>
       </c>
       <c r="D818">
-        <v>51229.8</v>
+        <v>40608.54</v>
       </c>
       <c r="E818">
-        <v>335840</v>
+        <v>266212</v>
       </c>
       <c r="F818">
-        <v>35.8</v>
+        <v>35.81</v>
       </c>
       <c r="G818">
-        <v>7950.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H818">
         <v>1</v>
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J818" s="2">
@@ -31432,28 +31432,28 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C819">
-        <v>114016</v>
+        <v>284610</v>
       </c>
       <c r="D819">
-        <v>20522.88</v>
+        <v>51229.8</v>
       </c>
       <c r="E819">
-        <v>134539</v>
+        <v>335840</v>
       </c>
       <c r="F819">
-        <v>35.63</v>
+        <v>35.8</v>
       </c>
       <c r="G819">
-        <v>3200</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H819">
         <v>1</v>
@@ -31470,31 +31470,31 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C820">
-        <v>284080</v>
+        <v>114016</v>
       </c>
       <c r="D820">
-        <v>51134.4</v>
+        <v>20522.88</v>
       </c>
       <c r="E820">
-        <v>335214</v>
+        <v>134539</v>
       </c>
       <c r="F820">
-        <v>35.51000000000001</v>
+        <v>35.63</v>
       </c>
       <c r="G820">
-        <v>7999.999999999999</v>
+        <v>3200</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I820" t="inlineStr">
         <is>
@@ -31508,35 +31508,35 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C821">
-        <v>219542</v>
+        <v>284080</v>
       </c>
       <c r="D821">
-        <v>39517.56</v>
+        <v>51134.4</v>
       </c>
       <c r="E821">
-        <v>259060</v>
+        <v>335214</v>
       </c>
       <c r="F821">
-        <v>35.41</v>
+        <v>35.51000000000001</v>
       </c>
       <c r="G821">
-        <v>6200.000000000001</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J821" s="2">
@@ -31546,7 +31546,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -31555,26 +31555,26 @@
         </is>
       </c>
       <c r="C822">
-        <v>222957</v>
+        <v>219542</v>
       </c>
       <c r="D822">
-        <v>40132.26</v>
+        <v>39517.56</v>
       </c>
       <c r="E822">
-        <v>263089</v>
+        <v>259060</v>
       </c>
       <c r="F822">
-        <v>35.39</v>
+        <v>35.41</v>
       </c>
       <c r="G822">
-        <v>6300</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H822">
         <v>1</v>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J822" s="2">
@@ -31584,7 +31584,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -31593,26 +31593,26 @@
         </is>
       </c>
       <c r="C823">
-        <v>257179</v>
+        <v>222957</v>
       </c>
       <c r="D823">
-        <v>46292.22</v>
+        <v>40132.26</v>
       </c>
       <c r="E823">
-        <v>303471</v>
+        <v>263089</v>
       </c>
       <c r="F823">
-        <v>35.23</v>
+        <v>35.39</v>
       </c>
       <c r="G823">
-        <v>7299.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J823" s="2">
@@ -31622,7 +31622,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -31631,26 +31631,26 @@
         </is>
       </c>
       <c r="C824">
-        <v>227104.5</v>
+        <v>257179</v>
       </c>
       <c r="D824">
-        <v>40878.81</v>
+        <v>46292.22</v>
       </c>
       <c r="E824">
-        <v>267983</v>
+        <v>303471</v>
       </c>
       <c r="F824">
-        <v>35.21</v>
+        <v>35.23</v>
       </c>
       <c r="G824">
-        <v>6450</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J824" s="2">
@@ -31660,7 +31660,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>EMJAY STEEL UDYYOG PVT LTD</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -31669,26 +31669,26 @@
         </is>
       </c>
       <c r="C825">
-        <v>245910</v>
+        <v>227104.5</v>
       </c>
       <c r="D825">
-        <v>44263.8</v>
+        <v>40878.81</v>
       </c>
       <c r="E825">
-        <v>290174</v>
+        <v>267983</v>
       </c>
       <c r="F825">
-        <v>35.13</v>
+        <v>35.21</v>
       </c>
       <c r="G825">
-        <v>6999.999999999999</v>
+        <v>6450</v>
       </c>
       <c r="H825">
         <v>1</v>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J825" s="2">
@@ -31698,7 +31698,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>EMJAY STEEL UDYYOG PVT LTD</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -31707,26 +31707,26 @@
         </is>
       </c>
       <c r="C826">
-        <v>250272</v>
+        <v>245910</v>
       </c>
       <c r="D826">
-        <v>45048.96</v>
+        <v>44263.8</v>
       </c>
       <c r="E826">
-        <v>295321</v>
+        <v>290174</v>
       </c>
       <c r="F826">
-        <v>34.76</v>
+        <v>35.13</v>
       </c>
       <c r="G826">
-        <v>7200</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H826">
         <v>1</v>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J826" s="2">
@@ -31736,35 +31736,35 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C827">
-        <v>91337.60000000001</v>
+        <v>250272</v>
       </c>
       <c r="D827">
-        <v>4566.88</v>
+        <v>45048.96</v>
       </c>
       <c r="E827">
-        <v>95905</v>
+        <v>295321</v>
       </c>
       <c r="F827">
-        <v>33.58</v>
+        <v>34.76</v>
       </c>
       <c r="G827">
-        <v>2720</v>
+        <v>7200</v>
       </c>
       <c r="H827">
         <v>1</v>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J827" s="2">
@@ -31774,31 +31774,31 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C828">
-        <v>264800</v>
+        <v>91337.60000000001</v>
       </c>
       <c r="D828">
-        <v>47664</v>
+        <v>4566.88</v>
       </c>
       <c r="E828">
-        <v>312464</v>
+        <v>95905</v>
       </c>
       <c r="F828">
-        <v>33.1</v>
+        <v>33.58</v>
       </c>
       <c r="G828">
-        <v>8000</v>
+        <v>2720</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I828" t="inlineStr">
         <is>
@@ -31812,35 +31812,35 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C829">
-        <v>196800</v>
+        <v>264800</v>
       </c>
       <c r="D829">
-        <v>35424</v>
+        <v>47664</v>
       </c>
       <c r="E829">
-        <v>232224</v>
+        <v>312464</v>
       </c>
       <c r="F829">
-        <v>30.75</v>
+        <v>33.1</v>
       </c>
       <c r="G829">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J829" s="2">
@@ -31926,28 +31926,28 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C832">
-        <v>158336</v>
+        <v>61162</v>
       </c>
       <c r="D832">
-        <v>0</v>
+        <v>3058.1</v>
       </c>
       <c r="E832">
-        <v>186836.48</v>
+        <v>64220</v>
       </c>
       <c r="F832">
-        <v>24.74</v>
+        <v>23.08</v>
       </c>
       <c r="G832">
-        <v>6400</v>
+        <v>2650</v>
       </c>
       <c r="H832">
         <v>1</v>
@@ -31964,28 +31964,28 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C833">
-        <v>61162</v>
+        <v>27760.5</v>
       </c>
       <c r="D833">
-        <v>3058.1</v>
+        <v>4996.9</v>
       </c>
       <c r="E833">
-        <v>64220</v>
+        <v>32757</v>
       </c>
       <c r="F833">
-        <v>23.08</v>
+        <v>17.91</v>
       </c>
       <c r="G833">
-        <v>2650</v>
+        <v>1550</v>
       </c>
       <c r="H833">
         <v>1</v>
@@ -32002,7 +32002,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -32011,26 +32011,26 @@
         </is>
       </c>
       <c r="C834">
-        <v>27760.5</v>
+        <v>26520</v>
       </c>
       <c r="D834">
-        <v>4996.9</v>
+        <v>0</v>
       </c>
       <c r="E834">
-        <v>32757</v>
+        <v>31293.6</v>
       </c>
       <c r="F834">
-        <v>17.91</v>
+        <v>8.84</v>
       </c>
       <c r="G834">
-        <v>1550</v>
+        <v>3000</v>
       </c>
       <c r="H834">
         <v>1</v>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J834" s="2">
@@ -32040,76 +32040,38 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C835">
-        <v>26520</v>
+        <v>40950</v>
       </c>
       <c r="D835">
-        <v>0</v>
+        <v>35331.66</v>
       </c>
       <c r="E835">
-        <v>31293.6</v>
+        <v>48321</v>
       </c>
       <c r="F835">
-        <v>8.84</v>
+        <v>5.25</v>
       </c>
       <c r="G835">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="H835">
         <v>1</v>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J835" s="2">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
-        </is>
-      </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>Boron Oxide Premix</t>
-        </is>
-      </c>
-      <c r="C836">
-        <v>40950</v>
-      </c>
-      <c r="D836">
-        <v>35331.66</v>
-      </c>
-      <c r="E836">
-        <v>48321</v>
-      </c>
-      <c r="F836">
-        <v>5.25</v>
-      </c>
-      <c r="G836">
-        <v>7800</v>
-      </c>
-      <c r="H836">
-        <v>1</v>
-      </c>
-      <c r="I836" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J836" s="2">
         <v>45170</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J835"/>
+  <dimension ref="A1:J842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30643,22 +30643,22 @@
         </is>
       </c>
       <c r="C798">
-        <v>1845480</v>
+        <v>2142336</v>
       </c>
       <c r="D798">
         <v>332186.4</v>
       </c>
       <c r="E798">
-        <v>2177666</v>
+        <v>2527956.08</v>
       </c>
       <c r="F798">
-        <v>219.7</v>
+        <v>255.04</v>
       </c>
       <c r="G798">
         <v>8400</v>
       </c>
       <c r="H798">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I798" t="inlineStr">
         <is>
@@ -30672,31 +30672,31 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C799">
-        <v>1250097</v>
+        <v>754094.5</v>
       </c>
       <c r="D799">
-        <v>225017.46</v>
+        <v>109607.78</v>
       </c>
       <c r="E799">
-        <v>1475114</v>
+        <v>889830.75</v>
       </c>
       <c r="F799">
-        <v>176.07</v>
+        <v>190.91</v>
       </c>
       <c r="G799">
-        <v>7100</v>
+        <v>3950</v>
       </c>
       <c r="H799">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I799" t="inlineStr">
         <is>
@@ -30710,28 +30710,28 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>A One Ispat Private Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C800">
-        <v>1380525</v>
+        <v>1250097</v>
       </c>
       <c r="D800">
-        <v>248494.5</v>
+        <v>225017.46</v>
       </c>
       <c r="E800">
-        <v>1629019</v>
+        <v>1475114</v>
       </c>
       <c r="F800">
-        <v>174.75</v>
+        <v>176.07</v>
       </c>
       <c r="G800">
-        <v>7900.000000000001</v>
+        <v>7100</v>
       </c>
       <c r="H800">
         <v>5</v>
@@ -30748,7 +30748,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>A One Ispat Private Ltd</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -30757,22 +30757,22 @@
         </is>
       </c>
       <c r="C801">
-        <v>608932</v>
+        <v>1380525</v>
       </c>
       <c r="D801">
-        <v>109607.78</v>
+        <v>248494.5</v>
       </c>
       <c r="E801">
-        <v>718539</v>
+        <v>1629019</v>
       </c>
       <c r="F801">
-        <v>154.16</v>
+        <v>174.75</v>
       </c>
       <c r="G801">
-        <v>3950</v>
+        <v>7900.000000000001</v>
       </c>
       <c r="H801">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I801" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>ARISE STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -30795,22 +30795,22 @@
         </is>
       </c>
       <c r="C802">
-        <v>917154</v>
+        <v>1055488</v>
       </c>
       <c r="D802">
-        <v>165087.72</v>
+        <v>150927.84</v>
       </c>
       <c r="E802">
-        <v>1082242</v>
+        <v>1245476</v>
       </c>
       <c r="F802">
-        <v>145.58</v>
+        <v>170.24</v>
       </c>
       <c r="G802">
-        <v>6300.000000000001</v>
+        <v>6199.999999999999</v>
       </c>
       <c r="H802">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I802" t="inlineStr">
         <is>
@@ -30824,35 +30824,35 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>ARISE STEELS PRIVATE LIMITED</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C803">
-        <v>838488</v>
+        <v>1190464</v>
       </c>
       <c r="D803">
-        <v>150927.84</v>
+        <v>159563.52</v>
       </c>
       <c r="E803">
-        <v>989416</v>
+        <v>1404747</v>
       </c>
       <c r="F803">
-        <v>135.24</v>
+        <v>156.64</v>
       </c>
       <c r="G803">
-        <v>6200</v>
+        <v>7599.999999999999</v>
       </c>
       <c r="H803">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J803" s="2">
@@ -30862,35 +30862,35 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C804">
-        <v>886464</v>
+        <v>917154</v>
       </c>
       <c r="D804">
-        <v>159563.52</v>
+        <v>165087.72</v>
       </c>
       <c r="E804">
-        <v>1046027</v>
+        <v>1082242</v>
       </c>
       <c r="F804">
-        <v>116.64</v>
+        <v>145.58</v>
       </c>
       <c r="G804">
-        <v>7600</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H804">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J804" s="2">
@@ -30900,35 +30900,35 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C805">
-        <v>829200</v>
+        <v>362048</v>
       </c>
       <c r="D805">
-        <v>149256</v>
+        <v>54789.12</v>
       </c>
       <c r="E805">
-        <v>978457</v>
+        <v>419720.2</v>
       </c>
       <c r="F805">
-        <v>110.56</v>
+        <v>113.14</v>
       </c>
       <c r="G805">
-        <v>7500</v>
+        <v>3200</v>
       </c>
       <c r="H805">
         <v>6</v>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J805" s="2">
@@ -30938,35 +30938,35 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C806">
-        <v>657262</v>
+        <v>887723</v>
       </c>
       <c r="D806">
-        <v>118307.16</v>
+        <v>102497.76</v>
       </c>
       <c r="E806">
-        <v>775569</v>
+        <v>1047513.38</v>
       </c>
       <c r="F806">
-        <v>106.01</v>
+        <v>112.37</v>
       </c>
       <c r="G806">
-        <v>6200</v>
+        <v>7900.000000000001</v>
       </c>
       <c r="H806">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J806" s="2">
@@ -30976,35 +30976,35 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C807">
-        <v>304384</v>
+        <v>829200</v>
       </c>
       <c r="D807">
-        <v>54789.12</v>
+        <v>149256</v>
       </c>
       <c r="E807">
-        <v>359173</v>
+        <v>978457</v>
       </c>
       <c r="F807">
-        <v>95.12</v>
+        <v>110.56</v>
       </c>
       <c r="G807">
-        <v>3200</v>
+        <v>7500</v>
       </c>
       <c r="H807">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J807" s="2">
@@ -31014,35 +31014,35 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C808">
-        <v>732548</v>
+        <v>647100</v>
       </c>
       <c r="D808">
-        <v>131858.64</v>
+        <v>76431.60000000001</v>
       </c>
       <c r="E808">
-        <v>864406</v>
+        <v>763578.4</v>
       </c>
       <c r="F808">
-        <v>85.18000000000001</v>
+        <v>107.85</v>
       </c>
       <c r="G808">
-        <v>8600</v>
+        <v>5999.999999999999</v>
       </c>
       <c r="H808">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J808" s="2">
@@ -31052,35 +31052,35 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C809">
-        <v>352866</v>
+        <v>657262</v>
       </c>
       <c r="D809">
-        <v>17643.3</v>
+        <v>118307.16</v>
       </c>
       <c r="E809">
-        <v>370511.88</v>
+        <v>775569</v>
       </c>
       <c r="F809">
-        <v>77.62</v>
+        <v>106.01</v>
       </c>
       <c r="G809">
-        <v>4546.070600360731</v>
+        <v>6200</v>
       </c>
       <c r="H809">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J809" s="2">
@@ -31090,7 +31090,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -31099,26 +31099,26 @@
         </is>
       </c>
       <c r="C810">
-        <v>569432</v>
+        <v>730987</v>
       </c>
       <c r="D810">
-        <v>102497.76</v>
+        <v>88505.28</v>
       </c>
       <c r="E810">
-        <v>671930</v>
+        <v>862565.38</v>
       </c>
       <c r="F810">
-        <v>72.08</v>
+        <v>92.53</v>
       </c>
       <c r="G810">
         <v>7900</v>
       </c>
       <c r="H810">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J810" s="2">
@@ -31128,35 +31128,35 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C811">
-        <v>424620</v>
+        <v>732548</v>
       </c>
       <c r="D811">
-        <v>76431.60000000001</v>
+        <v>131858.64</v>
       </c>
       <c r="E811">
-        <v>501052</v>
+        <v>864406</v>
       </c>
       <c r="F811">
-        <v>70.77</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="G811">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="H811">
         <v>4</v>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J811" s="2">
@@ -31166,31 +31166,31 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C812">
-        <v>491696</v>
+        <v>352866</v>
       </c>
       <c r="D812">
-        <v>88505.28</v>
+        <v>17643.3</v>
       </c>
       <c r="E812">
-        <v>580202</v>
+        <v>370511.88</v>
       </c>
       <c r="F812">
-        <v>62.23999999999999</v>
+        <v>77.62</v>
       </c>
       <c r="G812">
-        <v>7900.000000000001</v>
+        <v>4546.070600360731</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I812" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -31213,22 +31213,22 @@
         </is>
       </c>
       <c r="C813">
-        <v>192891</v>
+        <v>453780</v>
       </c>
       <c r="D813">
-        <v>34720.38</v>
+        <v>43275.6</v>
       </c>
       <c r="E813">
-        <v>227612</v>
+        <v>535460.8</v>
       </c>
       <c r="F813">
-        <v>60.09999999999999</v>
+        <v>75.63</v>
       </c>
       <c r="G813">
-        <v>3209.500831946756</v>
+        <v>6000</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I813" t="inlineStr">
         <is>
@@ -31242,31 +31242,31 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C814">
-        <v>355136</v>
+        <v>292498.65</v>
       </c>
       <c r="D814">
-        <v>35424</v>
+        <v>11034.73</v>
       </c>
       <c r="E814">
-        <v>419060.48</v>
+        <v>307123.4625</v>
       </c>
       <c r="F814">
-        <v>55.48999999999999</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="G814">
-        <v>6400.000000000001</v>
+        <v>4365</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I814" t="inlineStr">
         <is>
@@ -31280,35 +31280,35 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C815">
-        <v>220694.4</v>
+        <v>406844</v>
       </c>
       <c r="D815">
-        <v>11034.73</v>
+        <v>39517.56</v>
       </c>
       <c r="E815">
-        <v>231729</v>
+        <v>480076.36</v>
       </c>
       <c r="F815">
-        <v>50.56</v>
+        <v>65.62</v>
       </c>
       <c r="G815">
-        <v>4365</v>
+        <v>6200</v>
       </c>
       <c r="H815">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J815" s="2">
@@ -31318,7 +31318,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Private Limited(BICHOLIM)</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -31327,26 +31327,26 @@
         </is>
       </c>
       <c r="C816">
-        <v>273738</v>
+        <v>192891</v>
       </c>
       <c r="D816">
-        <v>49272.84</v>
+        <v>34720.38</v>
       </c>
       <c r="E816">
-        <v>323011</v>
+        <v>227612</v>
       </c>
       <c r="F816">
-        <v>42.44</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="G816">
-        <v>6450</v>
+        <v>3209.500831946756</v>
       </c>
       <c r="H816">
         <v>2</v>
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J816" s="2">
@@ -31356,7 +31356,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -31365,19 +31365,19 @@
         </is>
       </c>
       <c r="C817">
-        <v>240420</v>
+        <v>355136</v>
       </c>
       <c r="D817">
-        <v>43275.6</v>
+        <v>35424</v>
       </c>
       <c r="E817">
-        <v>283696</v>
+        <v>419060.48</v>
       </c>
       <c r="F817">
-        <v>40.07</v>
+        <v>55.48999999999999</v>
       </c>
       <c r="G817">
-        <v>6000</v>
+        <v>6400.000000000001</v>
       </c>
       <c r="H817">
         <v>2</v>
@@ -31394,7 +31394,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Orange Fox Steel Private Limited(BICHOLIM)</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -31403,26 +31403,26 @@
         </is>
       </c>
       <c r="C818">
-        <v>225603</v>
+        <v>273738</v>
       </c>
       <c r="D818">
-        <v>40608.54</v>
+        <v>49272.84</v>
       </c>
       <c r="E818">
-        <v>266212</v>
+        <v>323011</v>
       </c>
       <c r="F818">
-        <v>35.81</v>
+        <v>42.44</v>
       </c>
       <c r="G818">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J818" s="2">
@@ -31432,7 +31432,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -31441,26 +31441,26 @@
         </is>
       </c>
       <c r="C819">
-        <v>284610</v>
+        <v>295542</v>
       </c>
       <c r="D819">
-        <v>51229.8</v>
+        <v>0</v>
       </c>
       <c r="E819">
-        <v>335840</v>
+        <v>348739.56</v>
       </c>
       <c r="F819">
-        <v>35.8</v>
+        <v>37.89</v>
       </c>
       <c r="G819">
-        <v>7950.000000000001</v>
+        <v>7800</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J819" s="2">
@@ -31470,35 +31470,35 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C820">
-        <v>114016</v>
+        <v>225603</v>
       </c>
       <c r="D820">
-        <v>20522.88</v>
+        <v>40608.54</v>
       </c>
       <c r="E820">
-        <v>134539</v>
+        <v>266212</v>
       </c>
       <c r="F820">
-        <v>35.63</v>
+        <v>35.81</v>
       </c>
       <c r="G820">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H820">
         <v>1</v>
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J820" s="2">
@@ -31508,7 +31508,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -31517,22 +31517,22 @@
         </is>
       </c>
       <c r="C821">
-        <v>284080</v>
+        <v>284610</v>
       </c>
       <c r="D821">
-        <v>51134.4</v>
+        <v>51229.8</v>
       </c>
       <c r="E821">
-        <v>335214</v>
+        <v>335840</v>
       </c>
       <c r="F821">
-        <v>35.51000000000001</v>
+        <v>35.8</v>
       </c>
       <c r="G821">
-        <v>7999.999999999999</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I821" t="inlineStr">
         <is>
@@ -31546,35 +31546,35 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C822">
-        <v>219542</v>
+        <v>114016</v>
       </c>
       <c r="D822">
-        <v>39517.56</v>
+        <v>20522.88</v>
       </c>
       <c r="E822">
-        <v>259060</v>
+        <v>134539</v>
       </c>
       <c r="F822">
-        <v>35.41</v>
+        <v>35.63</v>
       </c>
       <c r="G822">
-        <v>6200.000000000001</v>
+        <v>3200</v>
       </c>
       <c r="H822">
         <v>1</v>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J822" s="2">
@@ -31584,35 +31584,35 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C823">
-        <v>222957</v>
+        <v>284080</v>
       </c>
       <c r="D823">
-        <v>40132.26</v>
+        <v>51134.4</v>
       </c>
       <c r="E823">
-        <v>263089</v>
+        <v>335214</v>
       </c>
       <c r="F823">
-        <v>35.39</v>
+        <v>35.51000000000001</v>
       </c>
       <c r="G823">
-        <v>6300</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J823" s="2">
@@ -31622,7 +31622,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -31631,26 +31631,26 @@
         </is>
       </c>
       <c r="C824">
-        <v>257179</v>
+        <v>228330</v>
       </c>
       <c r="D824">
-        <v>46292.22</v>
+        <v>0</v>
       </c>
       <c r="E824">
-        <v>303471</v>
+        <v>269429.4</v>
       </c>
       <c r="F824">
-        <v>35.23</v>
+        <v>35.4</v>
       </c>
       <c r="G824">
-        <v>7299.999999999999</v>
+        <v>6450</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J824" s="2">
@@ -31660,7 +31660,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -31669,26 +31669,26 @@
         </is>
       </c>
       <c r="C825">
-        <v>227104.5</v>
+        <v>222957</v>
       </c>
       <c r="D825">
-        <v>40878.81</v>
+        <v>40132.26</v>
       </c>
       <c r="E825">
-        <v>267983</v>
+        <v>263089</v>
       </c>
       <c r="F825">
-        <v>35.21</v>
+        <v>35.39</v>
       </c>
       <c r="G825">
-        <v>6450</v>
+        <v>6300</v>
       </c>
       <c r="H825">
         <v>1</v>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J825" s="2">
@@ -31698,7 +31698,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>EMJAY STEEL UDYYOG PVT LTD</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -31707,19 +31707,19 @@
         </is>
       </c>
       <c r="C826">
-        <v>245910</v>
+        <v>222264</v>
       </c>
       <c r="D826">
-        <v>44263.8</v>
+        <v>0</v>
       </c>
       <c r="E826">
-        <v>290174</v>
+        <v>262271.52</v>
       </c>
       <c r="F826">
-        <v>35.13</v>
+        <v>35.28</v>
       </c>
       <c r="G826">
-        <v>6999.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H826">
         <v>1</v>
@@ -31736,7 +31736,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -31745,26 +31745,26 @@
         </is>
       </c>
       <c r="C827">
-        <v>250272</v>
+        <v>257179</v>
       </c>
       <c r="D827">
-        <v>45048.96</v>
+        <v>46292.22</v>
       </c>
       <c r="E827">
-        <v>295321</v>
+        <v>303471</v>
       </c>
       <c r="F827">
-        <v>34.76</v>
+        <v>35.23</v>
       </c>
       <c r="G827">
-        <v>7200</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J827" s="2">
@@ -31774,35 +31774,35 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C828">
-        <v>91337.60000000001</v>
+        <v>227104.5</v>
       </c>
       <c r="D828">
-        <v>4566.88</v>
+        <v>40878.81</v>
       </c>
       <c r="E828">
-        <v>95905</v>
+        <v>267983</v>
       </c>
       <c r="F828">
-        <v>33.58</v>
+        <v>35.21</v>
       </c>
       <c r="G828">
-        <v>2720</v>
+        <v>6450</v>
       </c>
       <c r="H828">
         <v>1</v>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J828" s="2">
@@ -31812,35 +31812,35 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+          <t>EMJAY STEEL UDYYOG PVT LTD</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C829">
-        <v>264800</v>
+        <v>245910</v>
       </c>
       <c r="D829">
-        <v>47664</v>
+        <v>44263.8</v>
       </c>
       <c r="E829">
-        <v>312464</v>
+        <v>290174</v>
       </c>
       <c r="F829">
-        <v>33.1</v>
+        <v>35.13</v>
       </c>
       <c r="G829">
-        <v>8000</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J829" s="2">
@@ -31850,35 +31850,35 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C830">
-        <v>188496</v>
+        <v>278250</v>
       </c>
       <c r="D830">
-        <v>33929.28</v>
+        <v>0</v>
       </c>
       <c r="E830">
-        <v>222425</v>
+        <v>328335</v>
       </c>
       <c r="F830">
-        <v>29.92</v>
+        <v>35</v>
       </c>
       <c r="G830">
-        <v>6300</v>
+        <v>7950</v>
       </c>
       <c r="H830">
         <v>1</v>
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J830" s="2">
@@ -31888,7 +31888,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -31897,26 +31897,26 @@
         </is>
       </c>
       <c r="C831">
-        <v>155367</v>
+        <v>250272</v>
       </c>
       <c r="D831">
-        <v>32739.66</v>
+        <v>45048.96</v>
       </c>
       <c r="E831">
-        <v>183333.06</v>
+        <v>295321</v>
       </c>
       <c r="F831">
-        <v>25.47</v>
+        <v>34.76</v>
       </c>
       <c r="G831">
-        <v>6100</v>
+        <v>7200</v>
       </c>
       <c r="H831">
         <v>1</v>
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J831" s="2">
@@ -31926,7 +31926,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -31935,19 +31935,19 @@
         </is>
       </c>
       <c r="C832">
-        <v>61162</v>
+        <v>91337.60000000001</v>
       </c>
       <c r="D832">
-        <v>3058.1</v>
+        <v>4566.88</v>
       </c>
       <c r="E832">
-        <v>64220</v>
+        <v>95905</v>
       </c>
       <c r="F832">
-        <v>23.08</v>
+        <v>33.58</v>
       </c>
       <c r="G832">
-        <v>2650</v>
+        <v>2720</v>
       </c>
       <c r="H832">
         <v>1</v>
@@ -31964,31 +31964,31 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C833">
-        <v>27760.5</v>
+        <v>264800</v>
       </c>
       <c r="D833">
-        <v>4996.9</v>
+        <v>47664</v>
       </c>
       <c r="E833">
-        <v>32757</v>
+        <v>312464</v>
       </c>
       <c r="F833">
-        <v>17.91</v>
+        <v>33.1</v>
       </c>
       <c r="G833">
-        <v>1550</v>
+        <v>8000</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr">
         <is>
@@ -32002,31 +32002,31 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C834">
-        <v>26520</v>
+        <v>257520</v>
       </c>
       <c r="D834">
         <v>0</v>
       </c>
       <c r="E834">
-        <v>31293.6</v>
+        <v>303873.6</v>
       </c>
       <c r="F834">
-        <v>8.84</v>
+        <v>32.19</v>
       </c>
       <c r="G834">
-        <v>3000</v>
+        <v>8000.000000000001</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr">
         <is>
@@ -32040,38 +32040,304 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
+          <t>Pattambi Brothers</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C835">
+        <v>188496</v>
+      </c>
+      <c r="D835">
+        <v>33929.28</v>
+      </c>
+      <c r="E835">
+        <v>222425</v>
+      </c>
+      <c r="F835">
+        <v>29.92</v>
+      </c>
+      <c r="G835">
+        <v>6300</v>
+      </c>
+      <c r="H835">
+        <v>1</v>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J835" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C836">
+        <v>155367</v>
+      </c>
+      <c r="D836">
+        <v>32739.66</v>
+      </c>
+      <c r="E836">
+        <v>183333.06</v>
+      </c>
+      <c r="F836">
+        <v>25.47</v>
+      </c>
+      <c r="G836">
+        <v>6100</v>
+      </c>
+      <c r="H836">
+        <v>1</v>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J836" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PVT.LTD</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C837">
+        <v>151829</v>
+      </c>
+      <c r="D837">
+        <v>0</v>
+      </c>
+      <c r="E837">
+        <v>179158.22</v>
+      </c>
+      <c r="F837">
+        <v>24.89</v>
+      </c>
+      <c r="G837">
+        <v>6100</v>
+      </c>
+      <c r="H837">
+        <v>1</v>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J837" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C838">
+        <v>61162</v>
+      </c>
+      <c r="D838">
+        <v>3058.1</v>
+      </c>
+      <c r="E838">
+        <v>64220</v>
+      </c>
+      <c r="F838">
+        <v>23.08</v>
+      </c>
+      <c r="G838">
+        <v>2650</v>
+      </c>
+      <c r="H838">
+        <v>1</v>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J838" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C839">
+        <v>27760.5</v>
+      </c>
+      <c r="D839">
+        <v>4996.9</v>
+      </c>
+      <c r="E839">
+        <v>32757</v>
+      </c>
+      <c r="F839">
+        <v>17.91</v>
+      </c>
+      <c r="G839">
+        <v>1550</v>
+      </c>
+      <c r="H839">
+        <v>1</v>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J839" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C840">
+        <v>26520</v>
+      </c>
+      <c r="D840">
+        <v>0</v>
+      </c>
+      <c r="E840">
+        <v>31293.6</v>
+      </c>
+      <c r="F840">
+        <v>8.84</v>
+      </c>
+      <c r="G840">
+        <v>3000</v>
+      </c>
+      <c r="H840">
+        <v>1</v>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J840" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PVT.LTD</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C841">
+        <v>17100</v>
+      </c>
+      <c r="D841">
+        <v>0</v>
+      </c>
+      <c r="E841">
+        <v>17955</v>
+      </c>
+      <c r="F841">
+        <v>5.7</v>
+      </c>
+      <c r="G841">
+        <v>3000</v>
+      </c>
+      <c r="H841">
+        <v>1</v>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J841" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
           <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
-      <c r="B835" t="inlineStr">
+      <c r="B842" t="inlineStr">
         <is>
           <t>Boron Oxide Premix</t>
         </is>
       </c>
-      <c r="C835">
+      <c r="C842">
         <v>40950</v>
       </c>
-      <c r="D835">
+      <c r="D842">
         <v>35331.66</v>
       </c>
-      <c r="E835">
+      <c r="E842">
         <v>48321</v>
       </c>
-      <c r="F835">
+      <c r="F842">
         <v>5.25</v>
       </c>
-      <c r="G835">
+      <c r="G842">
         <v>7800</v>
       </c>
-      <c r="H835">
-        <v>1</v>
-      </c>
-      <c r="I835" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J835" s="2">
+      <c r="H842">
+        <v>1</v>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J842" s="2">
         <v>45170</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J842"/>
+  <dimension ref="A1:J841"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30646,10 +30646,10 @@
         <v>2142336</v>
       </c>
       <c r="D798">
-        <v>332186.4</v>
+        <v>385620.48</v>
       </c>
       <c r="E798">
-        <v>2527956.08</v>
+        <v>2527956</v>
       </c>
       <c r="F798">
         <v>255.04</v>
@@ -30684,10 +30684,10 @@
         <v>754094.5</v>
       </c>
       <c r="D799">
-        <v>109607.78</v>
+        <v>135737.04</v>
       </c>
       <c r="E799">
-        <v>889830.75</v>
+        <v>889831</v>
       </c>
       <c r="F799">
         <v>190.91</v>
@@ -30795,22 +30795,22 @@
         </is>
       </c>
       <c r="C802">
-        <v>1055488</v>
+        <v>1057720</v>
       </c>
       <c r="D802">
-        <v>150927.84</v>
+        <v>190389.6</v>
       </c>
       <c r="E802">
-        <v>1245476</v>
+        <v>1248110</v>
       </c>
       <c r="F802">
-        <v>170.24</v>
+        <v>170.6</v>
       </c>
       <c r="G802">
-        <v>6199.999999999999</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H802">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I802" t="inlineStr">
         <is>
@@ -30833,22 +30833,22 @@
         </is>
       </c>
       <c r="C803">
-        <v>1190464</v>
+        <v>1153832</v>
       </c>
       <c r="D803">
-        <v>159563.52</v>
+        <v>207689.76</v>
       </c>
       <c r="E803">
-        <v>1404747</v>
+        <v>1361521</v>
       </c>
       <c r="F803">
-        <v>156.64</v>
+        <v>151.82</v>
       </c>
       <c r="G803">
-        <v>7599.999999999999</v>
+        <v>7600.000000000001</v>
       </c>
       <c r="H803">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I803" t="inlineStr">
         <is>
@@ -30900,31 +30900,31 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C805">
-        <v>362048</v>
+        <v>923352</v>
       </c>
       <c r="D805">
-        <v>54789.12</v>
+        <v>166203.36</v>
       </c>
       <c r="E805">
-        <v>419720.2</v>
+        <v>1089556</v>
       </c>
       <c r="F805">
-        <v>113.14</v>
+        <v>116.88</v>
       </c>
       <c r="G805">
-        <v>3200</v>
+        <v>7900</v>
       </c>
       <c r="H805">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I805" t="inlineStr">
         <is>
@@ -30938,35 +30938,35 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C806">
-        <v>887723</v>
+        <v>362048</v>
       </c>
       <c r="D806">
-        <v>102497.76</v>
+        <v>65168.64</v>
       </c>
       <c r="E806">
-        <v>1047513.38</v>
+        <v>427217</v>
       </c>
       <c r="F806">
-        <v>112.37</v>
+        <v>113.14</v>
       </c>
       <c r="G806">
-        <v>7900.000000000001</v>
+        <v>3200</v>
       </c>
       <c r="H806">
         <v>6</v>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J806" s="2">
@@ -30976,35 +30976,35 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C807">
-        <v>829200</v>
+        <v>887723</v>
       </c>
       <c r="D807">
-        <v>149256</v>
+        <v>159790.14</v>
       </c>
       <c r="E807">
-        <v>978457</v>
+        <v>1047513</v>
       </c>
       <c r="F807">
-        <v>110.56</v>
+        <v>112.37</v>
       </c>
       <c r="G807">
-        <v>7500</v>
+        <v>7900.000000000001</v>
       </c>
       <c r="H807">
         <v>6</v>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J807" s="2">
@@ -31014,7 +31014,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -31023,19 +31023,19 @@
         </is>
       </c>
       <c r="C808">
-        <v>647100</v>
+        <v>829200</v>
       </c>
       <c r="D808">
-        <v>76431.60000000001</v>
+        <v>149256</v>
       </c>
       <c r="E808">
-        <v>763578.4</v>
+        <v>978457</v>
       </c>
       <c r="F808">
-        <v>107.85</v>
+        <v>110.56</v>
       </c>
       <c r="G808">
-        <v>5999.999999999999</v>
+        <v>7500</v>
       </c>
       <c r="H808">
         <v>6</v>
@@ -31052,7 +31052,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -31061,22 +31061,22 @@
         </is>
       </c>
       <c r="C809">
-        <v>657262</v>
+        <v>647100</v>
       </c>
       <c r="D809">
-        <v>118307.16</v>
+        <v>116478</v>
       </c>
       <c r="E809">
-        <v>775569</v>
+        <v>763578</v>
       </c>
       <c r="F809">
-        <v>106.01</v>
+        <v>107.85</v>
       </c>
       <c r="G809">
-        <v>6200</v>
+        <v>5999.999999999999</v>
       </c>
       <c r="H809">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I809" t="inlineStr">
         <is>
@@ -31090,35 +31090,35 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C810">
-        <v>730987</v>
+        <v>657262</v>
       </c>
       <c r="D810">
-        <v>88505.28</v>
+        <v>118307.16</v>
       </c>
       <c r="E810">
-        <v>862565.38</v>
+        <v>775569</v>
       </c>
       <c r="F810">
-        <v>92.53</v>
+        <v>106.01</v>
       </c>
       <c r="G810">
-        <v>7900</v>
+        <v>6200</v>
       </c>
       <c r="H810">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J810" s="2">
@@ -31216,10 +31216,10 @@
         <v>453780</v>
       </c>
       <c r="D813">
-        <v>43275.6</v>
+        <v>81680.40000000001</v>
       </c>
       <c r="E813">
-        <v>535460.8</v>
+        <v>535461</v>
       </c>
       <c r="F813">
         <v>75.63</v>
@@ -31254,10 +31254,10 @@
         <v>292498.65</v>
       </c>
       <c r="D814">
-        <v>11034.73</v>
+        <v>14624.94</v>
       </c>
       <c r="E814">
-        <v>307123.4625</v>
+        <v>307123.46</v>
       </c>
       <c r="F814">
         <v>67.01000000000001</v>
@@ -31292,10 +31292,10 @@
         <v>406844</v>
       </c>
       <c r="D815">
-        <v>39517.56</v>
+        <v>73231.92</v>
       </c>
       <c r="E815">
-        <v>480076.36</v>
+        <v>480076</v>
       </c>
       <c r="F815">
         <v>65.62</v>
@@ -31318,31 +31318,31 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C816">
-        <v>192891</v>
+        <v>522320</v>
       </c>
       <c r="D816">
-        <v>34720.38</v>
+        <v>94017.60000000001</v>
       </c>
       <c r="E816">
-        <v>227612</v>
+        <v>616338</v>
       </c>
       <c r="F816">
-        <v>60.09999999999999</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="G816">
-        <v>3209.500831946756</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I816" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -31365,19 +31365,19 @@
         </is>
       </c>
       <c r="C817">
-        <v>355136</v>
+        <v>192891</v>
       </c>
       <c r="D817">
-        <v>35424</v>
+        <v>34720.38</v>
       </c>
       <c r="E817">
-        <v>419060.48</v>
+        <v>227612</v>
       </c>
       <c r="F817">
-        <v>55.48999999999999</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="G817">
-        <v>6400.000000000001</v>
+        <v>3209.500831946756</v>
       </c>
       <c r="H817">
         <v>2</v>
@@ -31394,7 +31394,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Private Limited(BICHOLIM)</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -31403,26 +31403,26 @@
         </is>
       </c>
       <c r="C818">
-        <v>273738</v>
+        <v>355136</v>
       </c>
       <c r="D818">
-        <v>49272.84</v>
+        <v>35424</v>
       </c>
       <c r="E818">
-        <v>323011</v>
+        <v>419060.48</v>
       </c>
       <c r="F818">
-        <v>42.44</v>
+        <v>55.48999999999999</v>
       </c>
       <c r="G818">
-        <v>6450</v>
+        <v>6400.000000000001</v>
       </c>
       <c r="H818">
         <v>2</v>
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J818" s="2">
@@ -31432,28 +31432,28 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Orange Fox Steel Private Limited(BICHOLIM)</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C819">
-        <v>295542</v>
+        <v>273738</v>
       </c>
       <c r="D819">
-        <v>0</v>
+        <v>49272.84</v>
       </c>
       <c r="E819">
-        <v>348739.56</v>
+        <v>323011</v>
       </c>
       <c r="F819">
-        <v>37.89</v>
+        <v>42.44</v>
       </c>
       <c r="G819">
-        <v>7800</v>
+        <v>6450</v>
       </c>
       <c r="H819">
         <v>2</v>
@@ -31470,35 +31470,35 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C820">
-        <v>225603</v>
+        <v>295542</v>
       </c>
       <c r="D820">
-        <v>40608.54</v>
+        <v>53197.56</v>
       </c>
       <c r="E820">
-        <v>266212</v>
+        <v>348740</v>
       </c>
       <c r="F820">
-        <v>35.81</v>
+        <v>37.89</v>
       </c>
       <c r="G820">
-        <v>6300</v>
+        <v>7800</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J820" s="2">
@@ -31508,35 +31508,35 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C821">
-        <v>284610</v>
+        <v>225603</v>
       </c>
       <c r="D821">
-        <v>51229.8</v>
+        <v>40608.54</v>
       </c>
       <c r="E821">
-        <v>335840</v>
+        <v>266212</v>
       </c>
       <c r="F821">
-        <v>35.8</v>
+        <v>35.81</v>
       </c>
       <c r="G821">
-        <v>7950.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H821">
         <v>1</v>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J821" s="2">
@@ -31546,28 +31546,28 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C822">
-        <v>114016</v>
+        <v>284610</v>
       </c>
       <c r="D822">
-        <v>20522.88</v>
+        <v>51229.8</v>
       </c>
       <c r="E822">
-        <v>134539</v>
+        <v>335840</v>
       </c>
       <c r="F822">
-        <v>35.63</v>
+        <v>35.8</v>
       </c>
       <c r="G822">
-        <v>3200</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H822">
         <v>1</v>
@@ -31584,31 +31584,31 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C823">
-        <v>284080</v>
+        <v>114016</v>
       </c>
       <c r="D823">
-        <v>51134.4</v>
+        <v>20522.88</v>
       </c>
       <c r="E823">
-        <v>335214</v>
+        <v>134539</v>
       </c>
       <c r="F823">
-        <v>35.51000000000001</v>
+        <v>35.63</v>
       </c>
       <c r="G823">
-        <v>7999.999999999999</v>
+        <v>3200</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I823" t="inlineStr">
         <is>
@@ -31622,35 +31622,35 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C824">
-        <v>228330</v>
+        <v>284080</v>
       </c>
       <c r="D824">
-        <v>0</v>
+        <v>51134.4</v>
       </c>
       <c r="E824">
-        <v>269429.4</v>
+        <v>335214</v>
       </c>
       <c r="F824">
-        <v>35.4</v>
+        <v>35.51000000000001</v>
       </c>
       <c r="G824">
-        <v>6450</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J824" s="2">
@@ -31660,7 +31660,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -31669,16 +31669,16 @@
         </is>
       </c>
       <c r="C825">
-        <v>222957</v>
+        <v>223020</v>
       </c>
       <c r="D825">
-        <v>40132.26</v>
+        <v>40143.6</v>
       </c>
       <c r="E825">
-        <v>263089</v>
+        <v>263164</v>
       </c>
       <c r="F825">
-        <v>35.39</v>
+        <v>35.4</v>
       </c>
       <c r="G825">
         <v>6300</v>
@@ -31688,7 +31688,7 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J825" s="2">
@@ -31698,7 +31698,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -31707,16 +31707,16 @@
         </is>
       </c>
       <c r="C826">
-        <v>222264</v>
+        <v>222957</v>
       </c>
       <c r="D826">
-        <v>0</v>
+        <v>40132.26</v>
       </c>
       <c r="E826">
-        <v>262271.52</v>
+        <v>263089</v>
       </c>
       <c r="F826">
-        <v>35.28</v>
+        <v>35.39</v>
       </c>
       <c r="G826">
         <v>6300</v>
@@ -31726,7 +31726,7 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J826" s="2">
@@ -31736,7 +31736,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -31745,26 +31745,26 @@
         </is>
       </c>
       <c r="C827">
-        <v>257179</v>
+        <v>222264</v>
       </c>
       <c r="D827">
-        <v>46292.22</v>
+        <v>40007.52</v>
       </c>
       <c r="E827">
-        <v>303471</v>
+        <v>262272</v>
       </c>
       <c r="F827">
-        <v>35.23</v>
+        <v>35.28</v>
       </c>
       <c r="G827">
-        <v>7299.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J827" s="2">
@@ -31774,7 +31774,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -31783,26 +31783,26 @@
         </is>
       </c>
       <c r="C828">
-        <v>227104.5</v>
+        <v>257179</v>
       </c>
       <c r="D828">
-        <v>40878.81</v>
+        <v>46292.22</v>
       </c>
       <c r="E828">
-        <v>267983</v>
+        <v>303471</v>
       </c>
       <c r="F828">
-        <v>35.21</v>
+        <v>35.23</v>
       </c>
       <c r="G828">
-        <v>6450</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J828" s="2">
@@ -31812,7 +31812,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>EMJAY STEEL UDYYOG PVT LTD</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -31821,26 +31821,26 @@
         </is>
       </c>
       <c r="C829">
-        <v>245910</v>
+        <v>227104.5</v>
       </c>
       <c r="D829">
-        <v>44263.8</v>
+        <v>40878.81</v>
       </c>
       <c r="E829">
-        <v>290174</v>
+        <v>267983</v>
       </c>
       <c r="F829">
-        <v>35.13</v>
+        <v>35.21</v>
       </c>
       <c r="G829">
-        <v>6999.999999999999</v>
+        <v>6450</v>
       </c>
       <c r="H829">
         <v>1</v>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J829" s="2">
@@ -31850,28 +31850,28 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>EMJAY STEEL UDYYOG PVT LTD</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C830">
-        <v>278250</v>
+        <v>245910</v>
       </c>
       <c r="D830">
-        <v>0</v>
+        <v>44263.8</v>
       </c>
       <c r="E830">
-        <v>328335</v>
+        <v>290174</v>
       </c>
       <c r="F830">
-        <v>35</v>
+        <v>35.13</v>
       </c>
       <c r="G830">
-        <v>7950</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H830">
         <v>1</v>
@@ -31888,35 +31888,35 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C831">
-        <v>250272</v>
+        <v>278250</v>
       </c>
       <c r="D831">
-        <v>45048.96</v>
+        <v>50085</v>
       </c>
       <c r="E831">
-        <v>295321</v>
+        <v>328335</v>
       </c>
       <c r="F831">
-        <v>34.76</v>
+        <v>35</v>
       </c>
       <c r="G831">
-        <v>7200</v>
+        <v>7950</v>
       </c>
       <c r="H831">
         <v>1</v>
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J831" s="2">
@@ -31926,35 +31926,35 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C832">
-        <v>91337.60000000001</v>
+        <v>250272</v>
       </c>
       <c r="D832">
-        <v>4566.88</v>
+        <v>45048.96</v>
       </c>
       <c r="E832">
-        <v>95905</v>
+        <v>295321</v>
       </c>
       <c r="F832">
-        <v>33.58</v>
+        <v>34.76</v>
       </c>
       <c r="G832">
-        <v>2720</v>
+        <v>7200</v>
       </c>
       <c r="H832">
         <v>1</v>
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J832" s="2">
@@ -31964,31 +31964,31 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C833">
-        <v>264800</v>
+        <v>91337.60000000001</v>
       </c>
       <c r="D833">
-        <v>47664</v>
+        <v>4566.88</v>
       </c>
       <c r="E833">
-        <v>312464</v>
+        <v>95905</v>
       </c>
       <c r="F833">
-        <v>33.1</v>
+        <v>33.58</v>
       </c>
       <c r="G833">
-        <v>8000</v>
+        <v>2720</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I833" t="inlineStr">
         <is>
@@ -32002,35 +32002,35 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C834">
-        <v>257520</v>
+        <v>188496</v>
       </c>
       <c r="D834">
-        <v>0</v>
+        <v>33929.28</v>
       </c>
       <c r="E834">
-        <v>303873.6</v>
+        <v>222425</v>
       </c>
       <c r="F834">
-        <v>32.19</v>
+        <v>29.92</v>
       </c>
       <c r="G834">
-        <v>8000.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J834" s="2">
@@ -32040,7 +32040,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -32049,26 +32049,26 @@
         </is>
       </c>
       <c r="C835">
-        <v>188496</v>
+        <v>155367</v>
       </c>
       <c r="D835">
-        <v>33929.28</v>
+        <v>32739.66</v>
       </c>
       <c r="E835">
-        <v>222425</v>
+        <v>183333.06</v>
       </c>
       <c r="F835">
-        <v>29.92</v>
+        <v>25.47</v>
       </c>
       <c r="G835">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="H835">
         <v>1</v>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J835" s="2">
@@ -32078,7 +32078,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+          <t>ILC IRON &amp; STEEL PVT.LTD</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -32087,16 +32087,16 @@
         </is>
       </c>
       <c r="C836">
-        <v>155367</v>
+        <v>151829</v>
       </c>
       <c r="D836">
-        <v>32739.66</v>
+        <v>0</v>
       </c>
       <c r="E836">
-        <v>183333.06</v>
+        <v>179158.22</v>
       </c>
       <c r="F836">
-        <v>25.47</v>
+        <v>24.89</v>
       </c>
       <c r="G836">
         <v>6100</v>
@@ -32116,35 +32116,35 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PVT.LTD</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C837">
-        <v>151829</v>
+        <v>61162</v>
       </c>
       <c r="D837">
-        <v>0</v>
+        <v>3058.1</v>
       </c>
       <c r="E837">
-        <v>179158.22</v>
+        <v>64220</v>
       </c>
       <c r="F837">
-        <v>24.89</v>
+        <v>23.08</v>
       </c>
       <c r="G837">
-        <v>6100</v>
+        <v>2650</v>
       </c>
       <c r="H837">
         <v>1</v>
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J837" s="2">
@@ -32154,28 +32154,28 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C838">
-        <v>61162</v>
+        <v>27760.5</v>
       </c>
       <c r="D838">
-        <v>3058.1</v>
+        <v>4996.9</v>
       </c>
       <c r="E838">
-        <v>64220</v>
+        <v>32757</v>
       </c>
       <c r="F838">
-        <v>23.08</v>
+        <v>17.91</v>
       </c>
       <c r="G838">
-        <v>2650</v>
+        <v>1550</v>
       </c>
       <c r="H838">
         <v>1</v>
@@ -32192,7 +32192,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -32201,26 +32201,26 @@
         </is>
       </c>
       <c r="C839">
-        <v>27760.5</v>
+        <v>26520</v>
       </c>
       <c r="D839">
-        <v>4996.9</v>
+        <v>0</v>
       </c>
       <c r="E839">
-        <v>32757</v>
+        <v>31293.6</v>
       </c>
       <c r="F839">
-        <v>17.91</v>
+        <v>8.84</v>
       </c>
       <c r="G839">
-        <v>1550</v>
+        <v>3000</v>
       </c>
       <c r="H839">
         <v>1</v>
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J839" s="2">
@@ -32230,7 +32230,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+          <t>ILC IRON &amp; STEEL PVT.LTD</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -32239,16 +32239,16 @@
         </is>
       </c>
       <c r="C840">
-        <v>26520</v>
+        <v>17100</v>
       </c>
       <c r="D840">
-        <v>0</v>
+        <v>30407.22</v>
       </c>
       <c r="E840">
-        <v>31293.6</v>
+        <v>17955</v>
       </c>
       <c r="F840">
-        <v>8.84</v>
+        <v>5.7</v>
       </c>
       <c r="G840">
         <v>3000</v>
@@ -32268,76 +32268,38 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PVT.LTD</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C841">
-        <v>17100</v>
+        <v>40950</v>
       </c>
       <c r="D841">
-        <v>0</v>
+        <v>35331.66</v>
       </c>
       <c r="E841">
-        <v>17955</v>
+        <v>48321</v>
       </c>
       <c r="F841">
-        <v>5.7</v>
+        <v>5.25</v>
       </c>
       <c r="G841">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="H841">
         <v>1</v>
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J841" s="2">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>Boron Oxide Premix</t>
-        </is>
-      </c>
-      <c r="C842">
-        <v>40950</v>
-      </c>
-      <c r="D842">
-        <v>35331.66</v>
-      </c>
-      <c r="E842">
-        <v>48321</v>
-      </c>
-      <c r="F842">
-        <v>5.25</v>
-      </c>
-      <c r="G842">
-        <v>7800</v>
-      </c>
-      <c r="H842">
-        <v>1</v>
-      </c>
-      <c r="I842" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J842" s="2">
         <v>45170</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J841"/>
+  <dimension ref="A1:J838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31128,7 +31128,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
+          <t>M S METALS AND STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -31137,26 +31137,26 @@
         </is>
       </c>
       <c r="C811">
-        <v>732548</v>
+        <v>806400</v>
       </c>
       <c r="D811">
-        <v>131858.64</v>
+        <v>145152</v>
       </c>
       <c r="E811">
-        <v>864406</v>
+        <v>951552</v>
       </c>
       <c r="F811">
-        <v>85.18000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="G811">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="H811">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J811" s="2">
@@ -31166,31 +31166,31 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C812">
-        <v>352866</v>
+        <v>732548</v>
       </c>
       <c r="D812">
-        <v>17643.3</v>
+        <v>131858.64</v>
       </c>
       <c r="E812">
-        <v>370511.88</v>
+        <v>864406</v>
       </c>
       <c r="F812">
-        <v>77.62</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="G812">
-        <v>4546.070600360731</v>
+        <v>8600</v>
       </c>
       <c r="H812">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I812" t="inlineStr">
         <is>
@@ -31204,31 +31204,31 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C813">
-        <v>453780</v>
+        <v>352866</v>
       </c>
       <c r="D813">
-        <v>81680.40000000001</v>
+        <v>17643.3</v>
       </c>
       <c r="E813">
-        <v>535461</v>
+        <v>370511.88</v>
       </c>
       <c r="F813">
-        <v>75.63</v>
+        <v>77.62</v>
       </c>
       <c r="G813">
-        <v>6000</v>
+        <v>4546.070600360731</v>
       </c>
       <c r="H813">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I813" t="inlineStr">
         <is>
@@ -31242,31 +31242,31 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C814">
-        <v>292498.65</v>
+        <v>453780</v>
       </c>
       <c r="D814">
-        <v>14624.94</v>
+        <v>81680.40000000001</v>
       </c>
       <c r="E814">
-        <v>307123.46</v>
+        <v>535461</v>
       </c>
       <c r="F814">
-        <v>67.01000000000001</v>
+        <v>75.63</v>
       </c>
       <c r="G814">
-        <v>4365</v>
+        <v>6000</v>
       </c>
       <c r="H814">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I814" t="inlineStr">
         <is>
@@ -31280,35 +31280,35 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C815">
-        <v>406844</v>
+        <v>562860</v>
       </c>
       <c r="D815">
-        <v>73231.92</v>
+        <v>101314.8</v>
       </c>
       <c r="E815">
-        <v>480076</v>
+        <v>664175</v>
       </c>
       <c r="F815">
-        <v>65.62</v>
+        <v>70.8</v>
       </c>
       <c r="G815">
-        <v>6200</v>
+        <v>7950</v>
       </c>
       <c r="H815">
         <v>2</v>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J815" s="2">
@@ -31318,28 +31318,28 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C816">
-        <v>522320</v>
+        <v>292498.65</v>
       </c>
       <c r="D816">
-        <v>94017.60000000001</v>
+        <v>14624.94</v>
       </c>
       <c r="E816">
-        <v>616338</v>
+        <v>307123.46</v>
       </c>
       <c r="F816">
-        <v>65.29000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="G816">
-        <v>7999.999999999999</v>
+        <v>4365</v>
       </c>
       <c r="H816">
         <v>4</v>
@@ -31356,7 +31356,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -31365,26 +31365,26 @@
         </is>
       </c>
       <c r="C817">
-        <v>192891</v>
+        <v>406844</v>
       </c>
       <c r="D817">
-        <v>34720.38</v>
+        <v>73231.92</v>
       </c>
       <c r="E817">
-        <v>227612</v>
+        <v>480076</v>
       </c>
       <c r="F817">
-        <v>60.09999999999999</v>
+        <v>65.62</v>
       </c>
       <c r="G817">
-        <v>3209.500831946756</v>
+        <v>6200</v>
       </c>
       <c r="H817">
         <v>2</v>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J817" s="2">
@@ -31394,7 +31394,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -31403,19 +31403,19 @@
         </is>
       </c>
       <c r="C818">
-        <v>355136</v>
+        <v>192891</v>
       </c>
       <c r="D818">
-        <v>35424</v>
+        <v>34720.38</v>
       </c>
       <c r="E818">
-        <v>419060.48</v>
+        <v>227612</v>
       </c>
       <c r="F818">
-        <v>55.48999999999999</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="G818">
-        <v>6400.000000000001</v>
+        <v>3209.500831946756</v>
       </c>
       <c r="H818">
         <v>2</v>
@@ -31432,7 +31432,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Private Limited(BICHOLIM)</t>
+          <t>ILC IRON &amp; STEEL PVT.LTD</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -31441,19 +31441,19 @@
         </is>
       </c>
       <c r="C819">
-        <v>273738</v>
+        <v>307196</v>
       </c>
       <c r="D819">
-        <v>49272.84</v>
+        <v>32739.66</v>
       </c>
       <c r="E819">
-        <v>323011</v>
+        <v>362491.28</v>
       </c>
       <c r="F819">
-        <v>42.44</v>
+        <v>50.36</v>
       </c>
       <c r="G819">
-        <v>6450</v>
+        <v>6100</v>
       </c>
       <c r="H819">
         <v>2</v>
@@ -31470,35 +31470,35 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Orange Fox Steel Private Limited(BICHOLIM)</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C820">
-        <v>295542</v>
+        <v>273738</v>
       </c>
       <c r="D820">
-        <v>53197.56</v>
+        <v>49272.84</v>
       </c>
       <c r="E820">
-        <v>348740</v>
+        <v>323011</v>
       </c>
       <c r="F820">
-        <v>37.89</v>
+        <v>42.44</v>
       </c>
       <c r="G820">
-        <v>7800</v>
+        <v>6450</v>
       </c>
       <c r="H820">
         <v>2</v>
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J820" s="2">
@@ -31508,35 +31508,35 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C821">
-        <v>225603</v>
+        <v>295542</v>
       </c>
       <c r="D821">
-        <v>40608.54</v>
+        <v>53197.56</v>
       </c>
       <c r="E821">
-        <v>266212</v>
+        <v>348740</v>
       </c>
       <c r="F821">
-        <v>35.81</v>
+        <v>37.89</v>
       </c>
       <c r="G821">
-        <v>6300</v>
+        <v>7800</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J821" s="2">
@@ -31546,35 +31546,35 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C822">
-        <v>284610</v>
+        <v>225603</v>
       </c>
       <c r="D822">
-        <v>51229.8</v>
+        <v>40608.54</v>
       </c>
       <c r="E822">
-        <v>335840</v>
+        <v>266212</v>
       </c>
       <c r="F822">
-        <v>35.8</v>
+        <v>35.81</v>
       </c>
       <c r="G822">
-        <v>7950.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H822">
         <v>1</v>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J822" s="2">
@@ -31622,35 +31622,35 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C824">
-        <v>284080</v>
+        <v>223020</v>
       </c>
       <c r="D824">
-        <v>51134.4</v>
+        <v>40143.6</v>
       </c>
       <c r="E824">
-        <v>335214</v>
+        <v>263164</v>
       </c>
       <c r="F824">
-        <v>35.51000000000001</v>
+        <v>35.4</v>
       </c>
       <c r="G824">
-        <v>7999.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J824" s="2">
@@ -31660,7 +31660,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -31669,16 +31669,16 @@
         </is>
       </c>
       <c r="C825">
-        <v>223020</v>
+        <v>222957</v>
       </c>
       <c r="D825">
-        <v>40143.6</v>
+        <v>40132.26</v>
       </c>
       <c r="E825">
-        <v>263164</v>
+        <v>263089</v>
       </c>
       <c r="F825">
-        <v>35.4</v>
+        <v>35.39</v>
       </c>
       <c r="G825">
         <v>6300</v>
@@ -31688,7 +31688,7 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J825" s="2">
@@ -31698,7 +31698,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -31707,16 +31707,16 @@
         </is>
       </c>
       <c r="C826">
-        <v>222957</v>
+        <v>222264</v>
       </c>
       <c r="D826">
-        <v>40132.26</v>
+        <v>40007.52</v>
       </c>
       <c r="E826">
-        <v>263089</v>
+        <v>262272</v>
       </c>
       <c r="F826">
-        <v>35.39</v>
+        <v>35.28</v>
       </c>
       <c r="G826">
         <v>6300</v>
@@ -31736,7 +31736,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -31745,26 +31745,26 @@
         </is>
       </c>
       <c r="C827">
-        <v>222264</v>
+        <v>257179</v>
       </c>
       <c r="D827">
-        <v>40007.52</v>
+        <v>46292.22</v>
       </c>
       <c r="E827">
-        <v>262272</v>
+        <v>303471</v>
       </c>
       <c r="F827">
-        <v>35.28</v>
+        <v>35.23</v>
       </c>
       <c r="G827">
-        <v>6300</v>
+        <v>7299.999999999999</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J827" s="2">
@@ -31774,7 +31774,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -31783,26 +31783,26 @@
         </is>
       </c>
       <c r="C828">
-        <v>257179</v>
+        <v>227104.5</v>
       </c>
       <c r="D828">
-        <v>46292.22</v>
+        <v>40878.81</v>
       </c>
       <c r="E828">
-        <v>303471</v>
+        <v>267983</v>
       </c>
       <c r="F828">
-        <v>35.23</v>
+        <v>35.21</v>
       </c>
       <c r="G828">
-        <v>7299.999999999999</v>
+        <v>6450</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J828" s="2">
@@ -31812,7 +31812,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>EMJAY STEEL UDYYOG PVT LTD</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -31821,26 +31821,26 @@
         </is>
       </c>
       <c r="C829">
-        <v>227104.5</v>
+        <v>245910</v>
       </c>
       <c r="D829">
-        <v>40878.81</v>
+        <v>44263.8</v>
       </c>
       <c r="E829">
-        <v>267983</v>
+        <v>290174</v>
       </c>
       <c r="F829">
-        <v>35.21</v>
+        <v>35.13</v>
       </c>
       <c r="G829">
-        <v>6450</v>
+        <v>6999.999999999999</v>
       </c>
       <c r="H829">
         <v>1</v>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J829" s="2">
@@ -31850,7 +31850,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>EMJAY STEEL UDYYOG PVT LTD</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -31859,26 +31859,26 @@
         </is>
       </c>
       <c r="C830">
-        <v>245910</v>
+        <v>250272</v>
       </c>
       <c r="D830">
-        <v>44263.8</v>
+        <v>45048.96</v>
       </c>
       <c r="E830">
-        <v>290174</v>
+        <v>295321</v>
       </c>
       <c r="F830">
-        <v>35.13</v>
+        <v>34.76</v>
       </c>
       <c r="G830">
-        <v>6999.999999999999</v>
+        <v>7200</v>
       </c>
       <c r="H830">
         <v>1</v>
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J830" s="2">
@@ -31888,28 +31888,28 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C831">
-        <v>278250</v>
+        <v>91337.60000000001</v>
       </c>
       <c r="D831">
-        <v>50085</v>
+        <v>4566.88</v>
       </c>
       <c r="E831">
-        <v>328335</v>
+        <v>95905</v>
       </c>
       <c r="F831">
-        <v>35</v>
+        <v>33.58</v>
       </c>
       <c r="G831">
-        <v>7950</v>
+        <v>2720</v>
       </c>
       <c r="H831">
         <v>1</v>
@@ -31926,7 +31926,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -31935,26 +31935,26 @@
         </is>
       </c>
       <c r="C832">
-        <v>250272</v>
+        <v>196800</v>
       </c>
       <c r="D832">
-        <v>45048.96</v>
+        <v>35424</v>
       </c>
       <c r="E832">
-        <v>295321</v>
+        <v>232224</v>
       </c>
       <c r="F832">
-        <v>34.76</v>
+        <v>30.75</v>
       </c>
       <c r="G832">
-        <v>7200</v>
+        <v>6400</v>
       </c>
       <c r="H832">
         <v>1</v>
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J832" s="2">
@@ -31964,35 +31964,35 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C833">
-        <v>91337.60000000001</v>
+        <v>188496</v>
       </c>
       <c r="D833">
-        <v>4566.88</v>
+        <v>33929.28</v>
       </c>
       <c r="E833">
-        <v>95905</v>
+        <v>222425</v>
       </c>
       <c r="F833">
-        <v>33.58</v>
+        <v>29.92</v>
       </c>
       <c r="G833">
-        <v>2720</v>
+        <v>6300</v>
       </c>
       <c r="H833">
         <v>1</v>
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J833" s="2">
@@ -32002,7 +32002,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -32011,26 +32011,26 @@
         </is>
       </c>
       <c r="C834">
-        <v>188496</v>
+        <v>158336</v>
       </c>
       <c r="D834">
-        <v>33929.28</v>
+        <v>0</v>
       </c>
       <c r="E834">
-        <v>222425</v>
+        <v>186836.48</v>
       </c>
       <c r="F834">
-        <v>29.92</v>
+        <v>24.74</v>
       </c>
       <c r="G834">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H834">
         <v>1</v>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J834" s="2">
@@ -32040,35 +32040,35 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C835">
-        <v>155367</v>
+        <v>61162</v>
       </c>
       <c r="D835">
-        <v>32739.66</v>
+        <v>3058.1</v>
       </c>
       <c r="E835">
-        <v>183333.06</v>
+        <v>64220</v>
       </c>
       <c r="F835">
-        <v>25.47</v>
+        <v>23.08</v>
       </c>
       <c r="G835">
-        <v>6100</v>
+        <v>2650</v>
       </c>
       <c r="H835">
         <v>1</v>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J835" s="2">
@@ -32078,35 +32078,35 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PVT.LTD</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C836">
-        <v>151829</v>
+        <v>27760.5</v>
       </c>
       <c r="D836">
-        <v>0</v>
+        <v>4996.9</v>
       </c>
       <c r="E836">
-        <v>179158.22</v>
+        <v>32757</v>
       </c>
       <c r="F836">
-        <v>24.89</v>
+        <v>17.91</v>
       </c>
       <c r="G836">
-        <v>6100</v>
+        <v>1550</v>
       </c>
       <c r="H836">
         <v>1</v>
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J836" s="2">
@@ -32116,35 +32116,35 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>ILC IRON &amp; STEEL PVT.LTD</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C837">
-        <v>61162</v>
+        <v>43620</v>
       </c>
       <c r="D837">
-        <v>3058.1</v>
+        <v>30407.22</v>
       </c>
       <c r="E837">
-        <v>64220</v>
+        <v>49248.6</v>
       </c>
       <c r="F837">
-        <v>23.08</v>
+        <v>14.54</v>
       </c>
       <c r="G837">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J837" s="2">
@@ -32154,28 +32154,28 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C838">
-        <v>27760.5</v>
+        <v>40950</v>
       </c>
       <c r="D838">
-        <v>4996.9</v>
+        <v>35331.66</v>
       </c>
       <c r="E838">
-        <v>32757</v>
+        <v>48321</v>
       </c>
       <c r="F838">
-        <v>17.91</v>
+        <v>5.25</v>
       </c>
       <c r="G838">
-        <v>1550</v>
+        <v>7800</v>
       </c>
       <c r="H838">
         <v>1</v>
@@ -32186,120 +32186,6 @@
         </is>
       </c>
       <c r="J838" s="2">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
-        </is>
-      </c>
-      <c r="C839">
-        <v>26520</v>
-      </c>
-      <c r="D839">
-        <v>0</v>
-      </c>
-      <c r="E839">
-        <v>31293.6</v>
-      </c>
-      <c r="F839">
-        <v>8.84</v>
-      </c>
-      <c r="G839">
-        <v>3000</v>
-      </c>
-      <c r="H839">
-        <v>1</v>
-      </c>
-      <c r="I839" t="inlineStr">
-        <is>
-          <t>Shresth Maheshwari</t>
-        </is>
-      </c>
-      <c r="J839" s="2">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>ILC IRON &amp; STEEL PVT.LTD</t>
-        </is>
-      </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
-        </is>
-      </c>
-      <c r="C840">
-        <v>17100</v>
-      </c>
-      <c r="D840">
-        <v>30407.22</v>
-      </c>
-      <c r="E840">
-        <v>17955</v>
-      </c>
-      <c r="F840">
-        <v>5.7</v>
-      </c>
-      <c r="G840">
-        <v>3000</v>
-      </c>
-      <c r="H840">
-        <v>1</v>
-      </c>
-      <c r="I840" t="inlineStr">
-        <is>
-          <t>Shresth Maheshwari</t>
-        </is>
-      </c>
-      <c r="J840" s="2">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
-        </is>
-      </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>Boron Oxide Premix</t>
-        </is>
-      </c>
-      <c r="C841">
-        <v>40950</v>
-      </c>
-      <c r="D841">
-        <v>35331.66</v>
-      </c>
-      <c r="E841">
-        <v>48321</v>
-      </c>
-      <c r="F841">
-        <v>5.25</v>
-      </c>
-      <c r="G841">
-        <v>7800</v>
-      </c>
-      <c r="H841">
-        <v>1</v>
-      </c>
-      <c r="I841" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J841" s="2">
         <v>45170</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -31498,7 +31498,7 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J820" s="2">
@@ -31840,7 +31840,7 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J829" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J839"/>
+  <dimension ref="A1:J871"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32227,6 +32227,1222 @@
         <v>45170</v>
       </c>
     </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C840">
+        <v>1207500</v>
+      </c>
+      <c r="D840">
+        <v>217350</v>
+      </c>
+      <c r="E840">
+        <v>1424850</v>
+      </c>
+      <c r="F840">
+        <v>143.75</v>
+      </c>
+      <c r="G840">
+        <v>8400</v>
+      </c>
+      <c r="H840">
+        <v>7</v>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J840" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>A One Ispat Private Ltd</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C841">
+        <v>1119904</v>
+      </c>
+      <c r="D841">
+        <v>201582.72</v>
+      </c>
+      <c r="E841">
+        <v>1321488</v>
+      </c>
+      <c r="F841">
+        <v>141.76</v>
+      </c>
+      <c r="G841">
+        <v>7900.000000000001</v>
+      </c>
+      <c r="H841">
+        <v>4</v>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J841" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>BMM ISPAT LIMITED</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C842">
+        <v>935709</v>
+      </c>
+      <c r="D842">
+        <v>168427.62</v>
+      </c>
+      <c r="E842">
+        <v>1104135.76</v>
+      </c>
+      <c r="F842">
+        <v>131.79</v>
+      </c>
+      <c r="G842">
+        <v>7100</v>
+      </c>
+      <c r="H842">
+        <v>4</v>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J842" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C843">
+        <v>421109.5</v>
+      </c>
+      <c r="D843">
+        <v>75799.73999999999</v>
+      </c>
+      <c r="E843">
+        <v>496908</v>
+      </c>
+      <c r="F843">
+        <v>106.61</v>
+      </c>
+      <c r="G843">
+        <v>3950</v>
+      </c>
+      <c r="H843">
+        <v>3</v>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J843" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>Quartztech Minerals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C844">
+        <v>633906</v>
+      </c>
+      <c r="D844">
+        <v>114103.08</v>
+      </c>
+      <c r="E844">
+        <v>748009</v>
+      </c>
+      <c r="F844">
+        <v>100.62</v>
+      </c>
+      <c r="G844">
+        <v>6300</v>
+      </c>
+      <c r="H844">
+        <v>3</v>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J844" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>ARISE STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C845">
+        <v>472688</v>
+      </c>
+      <c r="D845">
+        <v>85083.84</v>
+      </c>
+      <c r="E845">
+        <v>557772</v>
+      </c>
+      <c r="F845">
+        <v>76.23999999999999</v>
+      </c>
+      <c r="G845">
+        <v>6200</v>
+      </c>
+      <c r="H845">
+        <v>4</v>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J845" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C846">
+        <v>560500</v>
+      </c>
+      <c r="D846">
+        <v>100890</v>
+      </c>
+      <c r="E846">
+        <v>661390</v>
+      </c>
+      <c r="F846">
+        <v>73.75</v>
+      </c>
+      <c r="G846">
+        <v>7600.000000000001</v>
+      </c>
+      <c r="H846">
+        <v>3</v>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J846" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C847">
+        <v>570960</v>
+      </c>
+      <c r="D847">
+        <v>102772.8</v>
+      </c>
+      <c r="E847">
+        <v>673733</v>
+      </c>
+      <c r="F847">
+        <v>71.37</v>
+      </c>
+      <c r="G847">
+        <v>7999.999999999999</v>
+      </c>
+      <c r="H847">
+        <v>4</v>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J847" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C848">
+        <v>562006</v>
+      </c>
+      <c r="D848">
+        <v>101161.08</v>
+      </c>
+      <c r="E848">
+        <v>663167</v>
+      </c>
+      <c r="F848">
+        <v>71.14</v>
+      </c>
+      <c r="G848">
+        <v>7900</v>
+      </c>
+      <c r="H848">
+        <v>2</v>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J848" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C849">
+        <v>564291</v>
+      </c>
+      <c r="D849">
+        <v>101572.38</v>
+      </c>
+      <c r="E849">
+        <v>665864</v>
+      </c>
+      <c r="F849">
+        <v>70.97999999999999</v>
+      </c>
+      <c r="G849">
+        <v>7950.000000000001</v>
+      </c>
+      <c r="H849">
+        <v>2</v>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J849" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>Pulkit Metals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C850">
+        <v>421920</v>
+      </c>
+      <c r="D850">
+        <v>75945.60000000001</v>
+      </c>
+      <c r="E850">
+        <v>497866</v>
+      </c>
+      <c r="F850">
+        <v>70.31999999999999</v>
+      </c>
+      <c r="G850">
+        <v>6000.000000000001</v>
+      </c>
+      <c r="H850">
+        <v>4</v>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J850" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C851">
+        <v>352990.5</v>
+      </c>
+      <c r="D851">
+        <v>63538.29</v>
+      </c>
+      <c r="E851">
+        <v>416529</v>
+      </c>
+      <c r="F851">
+        <v>50.79</v>
+      </c>
+      <c r="G851">
+        <v>6950</v>
+      </c>
+      <c r="H851">
+        <v>2</v>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J851" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C852">
+        <v>433096</v>
+      </c>
+      <c r="D852">
+        <v>77957.28</v>
+      </c>
+      <c r="E852">
+        <v>511053</v>
+      </c>
+      <c r="F852">
+        <v>50.36</v>
+      </c>
+      <c r="G852">
+        <v>8600</v>
+      </c>
+      <c r="H852">
+        <v>2</v>
+      </c>
+      <c r="I852" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J852" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C853">
+        <v>174000</v>
+      </c>
+      <c r="D853">
+        <v>8700</v>
+      </c>
+      <c r="E853">
+        <v>182700</v>
+      </c>
+      <c r="F853">
+        <v>43.5</v>
+      </c>
+      <c r="G853">
+        <v>4000</v>
+      </c>
+      <c r="H853">
+        <v>3</v>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J853" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C854">
+        <v>267876</v>
+      </c>
+      <c r="D854">
+        <v>48217.67999999999</v>
+      </c>
+      <c r="E854">
+        <v>316093.84</v>
+      </c>
+      <c r="F854">
+        <v>42.52</v>
+      </c>
+      <c r="G854">
+        <v>6300.000000000001</v>
+      </c>
+      <c r="H854">
+        <v>2</v>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J854" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C855">
+        <v>258496</v>
+      </c>
+      <c r="D855">
+        <v>46529.28</v>
+      </c>
+      <c r="E855">
+        <v>305026</v>
+      </c>
+      <c r="F855">
+        <v>40.39</v>
+      </c>
+      <c r="G855">
+        <v>6400</v>
+      </c>
+      <c r="H855">
+        <v>2</v>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J855" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>Pushpit Steels Private Limited</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C856">
+        <v>250170</v>
+      </c>
+      <c r="D856">
+        <v>45030.6</v>
+      </c>
+      <c r="E856">
+        <v>295201</v>
+      </c>
+      <c r="F856">
+        <v>40.35</v>
+      </c>
+      <c r="G856">
+        <v>6200</v>
+      </c>
+      <c r="H856">
+        <v>2</v>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J856" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>Mahalakshmi Profiles Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C857">
+        <v>281680</v>
+      </c>
+      <c r="D857">
+        <v>50702.4</v>
+      </c>
+      <c r="E857">
+        <v>332382</v>
+      </c>
+      <c r="F857">
+        <v>40.23999999999999</v>
+      </c>
+      <c r="G857">
+        <v>7000.000000000001</v>
+      </c>
+      <c r="H857">
+        <v>2</v>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J857" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>MANSAROWAR ISPAT (INDIA) PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C858">
+        <v>240840</v>
+      </c>
+      <c r="D858">
+        <v>43351.2</v>
+      </c>
+      <c r="E858">
+        <v>284190</v>
+      </c>
+      <c r="F858">
+        <v>40.14</v>
+      </c>
+      <c r="G858">
+        <v>6000</v>
+      </c>
+      <c r="H858">
+        <v>2</v>
+      </c>
+      <c r="I858" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J858" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C859">
+        <v>121788</v>
+      </c>
+      <c r="D859">
+        <v>21921.84</v>
+      </c>
+      <c r="E859">
+        <v>143710</v>
+      </c>
+      <c r="F859">
+        <v>35.82</v>
+      </c>
+      <c r="G859">
+        <v>3400</v>
+      </c>
+      <c r="H859">
+        <v>1</v>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J859" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>MINAR ISPAT PVT. LTD</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C860">
+        <v>210273</v>
+      </c>
+      <c r="D860">
+        <v>37849.14</v>
+      </c>
+      <c r="E860">
+        <v>248122</v>
+      </c>
+      <c r="F860">
+        <v>35.34</v>
+      </c>
+      <c r="G860">
+        <v>5949.999999999999</v>
+      </c>
+      <c r="H860">
+        <v>1</v>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J860" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C861">
+        <v>274762</v>
+      </c>
+      <c r="D861">
+        <v>49457.16</v>
+      </c>
+      <c r="E861">
+        <v>324219</v>
+      </c>
+      <c r="F861">
+        <v>34.78</v>
+      </c>
+      <c r="G861">
+        <v>7900</v>
+      </c>
+      <c r="H861">
+        <v>2</v>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J861" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C862">
+        <v>110624</v>
+      </c>
+      <c r="D862">
+        <v>19912.32</v>
+      </c>
+      <c r="E862">
+        <v>130537</v>
+      </c>
+      <c r="F862">
+        <v>34.57</v>
+      </c>
+      <c r="G862">
+        <v>3200</v>
+      </c>
+      <c r="H862">
+        <v>2</v>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J862" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C863">
+        <v>118387.5</v>
+      </c>
+      <c r="D863">
+        <v>21309.75</v>
+      </c>
+      <c r="E863">
+        <v>139697</v>
+      </c>
+      <c r="F863">
+        <v>30.75</v>
+      </c>
+      <c r="G863">
+        <v>3850</v>
+      </c>
+      <c r="H863">
+        <v>2</v>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J863" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C864">
+        <v>114825</v>
+      </c>
+      <c r="D864">
+        <v>20668.5</v>
+      </c>
+      <c r="E864">
+        <v>135494</v>
+      </c>
+      <c r="F864">
+        <v>30.62</v>
+      </c>
+      <c r="G864">
+        <v>3750</v>
+      </c>
+      <c r="H864">
+        <v>1</v>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J864" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>M.A.STEELS (P) LTD</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C865">
+        <v>190575</v>
+      </c>
+      <c r="D865">
+        <v>34303.5</v>
+      </c>
+      <c r="E865">
+        <v>224879</v>
+      </c>
+      <c r="F865">
+        <v>30.25</v>
+      </c>
+      <c r="G865">
+        <v>6300</v>
+      </c>
+      <c r="H865">
+        <v>1</v>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J865" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C866">
+        <v>234390</v>
+      </c>
+      <c r="D866">
+        <v>42190.2</v>
+      </c>
+      <c r="E866">
+        <v>276580</v>
+      </c>
+      <c r="F866">
+        <v>30.05</v>
+      </c>
+      <c r="G866">
+        <v>7800</v>
+      </c>
+      <c r="H866">
+        <v>1</v>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J866" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C867">
+        <v>33371.5</v>
+      </c>
+      <c r="D867">
+        <v>6006.88</v>
+      </c>
+      <c r="E867">
+        <v>39378</v>
+      </c>
+      <c r="F867">
+        <v>21.53</v>
+      </c>
+      <c r="G867">
+        <v>1550</v>
+      </c>
+      <c r="H867">
+        <v>1</v>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J867" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C868">
+        <v>37125</v>
+      </c>
+      <c r="D868">
+        <v>6682.5</v>
+      </c>
+      <c r="E868">
+        <v>43808</v>
+      </c>
+      <c r="F868">
+        <v>5.5</v>
+      </c>
+      <c r="G868">
+        <v>6750</v>
+      </c>
+      <c r="H868">
+        <v>1</v>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J868" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C869">
+        <v>7472</v>
+      </c>
+      <c r="D869">
+        <v>1344.96</v>
+      </c>
+      <c r="E869">
+        <v>8817</v>
+      </c>
+      <c r="F869">
+        <v>4.67</v>
+      </c>
+      <c r="G869">
+        <v>1600</v>
+      </c>
+      <c r="H869">
+        <v>1</v>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J869" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>Oswal Smelters Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Quartz Grain</t>
+        </is>
+      </c>
+      <c r="C870">
+        <v>15257.5</v>
+      </c>
+      <c r="D870">
+        <v>762.88</v>
+      </c>
+      <c r="E870">
+        <v>16020</v>
+      </c>
+      <c r="F870">
+        <v>3.59</v>
+      </c>
+      <c r="G870">
+        <v>4250</v>
+      </c>
+      <c r="H870">
+        <v>1</v>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J870" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C871">
+        <v>10560</v>
+      </c>
+      <c r="D871">
+        <v>1900.8</v>
+      </c>
+      <c r="E871">
+        <v>12461</v>
+      </c>
+      <c r="F871">
+        <v>1.32</v>
+      </c>
+      <c r="G871">
+        <v>8000</v>
+      </c>
+      <c r="H871">
+        <v>1</v>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J871" s="2">
+        <v>45200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J883"/>
+  <dimension ref="A1:J884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27915,28 +27915,28 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C844">
-        <v>887544</v>
+        <v>1091853</v>
       </c>
       <c r="D844">
-        <v>159757.92</v>
+        <v>196533.54</v>
       </c>
       <c r="E844">
-        <v>1047302</v>
+        <v>1288387</v>
       </c>
       <c r="F844">
-        <v>140.88</v>
+        <v>137.34</v>
       </c>
       <c r="G844">
-        <v>6300</v>
+        <v>7950</v>
       </c>
       <c r="H844">
         <v>4</v>
@@ -27953,7 +27953,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -27962,19 +27962,19 @@
         </is>
       </c>
       <c r="C845">
-        <v>1091853</v>
+        <v>956216</v>
       </c>
       <c r="D845">
-        <v>196533.54</v>
+        <v>181686.24</v>
       </c>
       <c r="E845">
-        <v>1288387</v>
+        <v>1128335.28</v>
       </c>
       <c r="F845">
-        <v>137.34</v>
+        <v>121.04</v>
       </c>
       <c r="G845">
-        <v>7950</v>
+        <v>7900.000000000001</v>
       </c>
       <c r="H845">
         <v>4</v>
@@ -27991,35 +27991,35 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C846">
-        <v>956216</v>
+        <v>662460</v>
       </c>
       <c r="D846">
-        <v>181686.24</v>
+        <v>119242.8</v>
       </c>
       <c r="E846">
-        <v>1128335.28</v>
+        <v>781703</v>
       </c>
       <c r="F846">
-        <v>121.04</v>
+        <v>110.41</v>
       </c>
       <c r="G846">
-        <v>7900.000000000001</v>
+        <v>6000</v>
       </c>
       <c r="H846">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J846" s="2">
@@ -28029,7 +28029,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -28038,26 +28038,26 @@
         </is>
       </c>
       <c r="C847">
-        <v>662460</v>
+        <v>687834</v>
       </c>
       <c r="D847">
-        <v>119242.8</v>
+        <v>123810.12</v>
       </c>
       <c r="E847">
-        <v>781703</v>
+        <v>811644</v>
       </c>
       <c r="F847">
-        <v>110.41</v>
+        <v>109.18</v>
       </c>
       <c r="G847">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H847">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J847" s="2">
@@ -28865,31 +28865,31 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C869">
-        <v>118387.5</v>
+        <v>199710</v>
       </c>
       <c r="D869">
-        <v>21309.75</v>
+        <v>35947.8</v>
       </c>
       <c r="E869">
-        <v>139697</v>
+        <v>235658</v>
       </c>
       <c r="F869">
-        <v>30.75</v>
+        <v>31.7</v>
       </c>
       <c r="G869">
-        <v>3850</v>
+        <v>6300</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I869" t="inlineStr">
         <is>
@@ -28903,31 +28903,31 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C870">
-        <v>114825</v>
+        <v>118387.5</v>
       </c>
       <c r="D870">
-        <v>20668.5</v>
+        <v>21309.75</v>
       </c>
       <c r="E870">
-        <v>135494</v>
+        <v>139697</v>
       </c>
       <c r="F870">
-        <v>30.62</v>
+        <v>30.75</v>
       </c>
       <c r="G870">
-        <v>3750</v>
+        <v>3850</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr">
         <is>
@@ -28941,35 +28941,35 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C871">
-        <v>190575</v>
+        <v>114825</v>
       </c>
       <c r="D871">
-        <v>34303.5</v>
+        <v>20668.5</v>
       </c>
       <c r="E871">
-        <v>224879</v>
+        <v>135494</v>
       </c>
       <c r="F871">
-        <v>30.25</v>
+        <v>30.62</v>
       </c>
       <c r="G871">
-        <v>6300</v>
+        <v>3750</v>
       </c>
       <c r="H871">
         <v>1</v>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J871" s="2">
@@ -28979,28 +28979,28 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C872">
-        <v>234390</v>
+        <v>190575</v>
       </c>
       <c r="D872">
-        <v>42190.2</v>
+        <v>34303.5</v>
       </c>
       <c r="E872">
-        <v>276580</v>
+        <v>224879</v>
       </c>
       <c r="F872">
-        <v>30.05</v>
+        <v>30.25</v>
       </c>
       <c r="G872">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="H872">
         <v>1</v>
@@ -29017,35 +29017,35 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C873">
-        <v>155794</v>
+        <v>234390</v>
       </c>
       <c r="D873">
-        <v>0</v>
+        <v>42190.2</v>
       </c>
       <c r="E873">
-        <v>183836.92</v>
+        <v>276580</v>
       </c>
       <c r="F873">
-        <v>25.54</v>
+        <v>30.05</v>
       </c>
       <c r="G873">
-        <v>6100</v>
+        <v>7800</v>
       </c>
       <c r="H873">
         <v>1</v>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J873" s="2">
@@ -29055,7 +29055,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -29064,26 +29064,26 @@
         </is>
       </c>
       <c r="C874">
-        <v>161472</v>
+        <v>155794</v>
       </c>
       <c r="D874">
-        <v>29064.96</v>
+        <v>0</v>
       </c>
       <c r="E874">
-        <v>190537</v>
+        <v>183836.92</v>
       </c>
       <c r="F874">
-        <v>25.23</v>
+        <v>25.54</v>
       </c>
       <c r="G874">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="H874">
         <v>1</v>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J874" s="2">
@@ -29093,7 +29093,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -29102,19 +29102,19 @@
         </is>
       </c>
       <c r="C875">
-        <v>158886</v>
+        <v>161472</v>
       </c>
       <c r="D875">
-        <v>28599.48</v>
+        <v>29064.96</v>
       </c>
       <c r="E875">
-        <v>187485</v>
+        <v>190537</v>
       </c>
       <c r="F875">
-        <v>25.22</v>
+        <v>25.23</v>
       </c>
       <c r="G875">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H875">
         <v>1</v>
@@ -29131,7 +29131,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -29140,26 +29140,26 @@
         </is>
       </c>
       <c r="C876">
-        <v>124080</v>
+        <v>158886</v>
       </c>
       <c r="D876">
-        <v>0</v>
+        <v>28599.48</v>
       </c>
       <c r="E876">
-        <v>146414.4</v>
+        <v>187485</v>
       </c>
       <c r="F876">
-        <v>20.68</v>
+        <v>25.22</v>
       </c>
       <c r="G876">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H876">
         <v>1</v>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J876" s="2">
@@ -29174,26 +29174,26 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C877">
-        <v>158184</v>
+        <v>124080</v>
       </c>
       <c r="D877">
-        <v>50807.52</v>
+        <v>0</v>
       </c>
       <c r="E877">
-        <v>186656.8</v>
+        <v>146414.4</v>
       </c>
       <c r="F877">
-        <v>20.28</v>
+        <v>20.68</v>
       </c>
       <c r="G877">
-        <v>7800</v>
+        <v>6000</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I877" t="inlineStr">
         <is>
@@ -29207,35 +29207,35 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C878">
-        <v>53152</v>
+        <v>158184</v>
       </c>
       <c r="D878">
-        <v>0</v>
+        <v>50807.52</v>
       </c>
       <c r="E878">
-        <v>62719.35999999999</v>
+        <v>186656.8</v>
       </c>
       <c r="F878">
-        <v>16.61</v>
+        <v>20.28</v>
       </c>
       <c r="G878">
-        <v>3200</v>
+        <v>7800</v>
       </c>
       <c r="H878">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J878" s="2">
@@ -29245,31 +29245,31 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C879">
-        <v>48620</v>
+        <v>53152</v>
       </c>
       <c r="D879">
-        <v>2431</v>
+        <v>0</v>
       </c>
       <c r="E879">
-        <v>51051</v>
+        <v>62719.35999999999</v>
       </c>
       <c r="F879">
-        <v>11.44</v>
+        <v>16.61</v>
       </c>
       <c r="G879">
-        <v>4250</v>
+        <v>3200</v>
       </c>
       <c r="H879">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I879" t="inlineStr">
         <is>
@@ -29283,35 +29283,35 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C880">
-        <v>37125</v>
+        <v>48620</v>
       </c>
       <c r="D880">
-        <v>6682.5</v>
+        <v>2431</v>
       </c>
       <c r="E880">
-        <v>43808</v>
+        <v>51051</v>
       </c>
       <c r="F880">
-        <v>5.5</v>
+        <v>11.44</v>
       </c>
       <c r="G880">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J880" s="2">
@@ -29321,35 +29321,35 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C881">
-        <v>14880</v>
+        <v>37125</v>
       </c>
       <c r="D881">
-        <v>30721.32</v>
+        <v>6682.5</v>
       </c>
       <c r="E881">
-        <v>17558.4</v>
+        <v>43808</v>
       </c>
       <c r="F881">
-        <v>4.96</v>
+        <v>5.5</v>
       </c>
       <c r="G881">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="H881">
         <v>1</v>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J881" s="2">
@@ -29359,7 +29359,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -29368,26 +29368,26 @@
         </is>
       </c>
       <c r="C882">
-        <v>7472</v>
+        <v>14880</v>
       </c>
       <c r="D882">
-        <v>1344.96</v>
+        <v>30721.32</v>
       </c>
       <c r="E882">
-        <v>8817</v>
+        <v>17558.4</v>
       </c>
       <c r="F882">
-        <v>4.67</v>
+        <v>4.96</v>
       </c>
       <c r="G882">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="H882">
         <v>1</v>
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J882" s="2">
@@ -29397,38 +29397,76 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C883">
+        <v>7472</v>
+      </c>
+      <c r="D883">
+        <v>1344.96</v>
+      </c>
+      <c r="E883">
+        <v>8817</v>
+      </c>
+      <c r="F883">
+        <v>4.67</v>
+      </c>
+      <c r="G883">
+        <v>1600</v>
+      </c>
+      <c r="H883">
+        <v>1</v>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J883" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
           <t>SAMKRG PISTONS AND RINGS LIMITED</t>
         </is>
       </c>
-      <c r="B883" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C883">
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C884">
         <v>10560</v>
       </c>
-      <c r="D883">
+      <c r="D884">
         <v>1900.8</v>
       </c>
-      <c r="E883">
+      <c r="E884">
         <v>12461</v>
       </c>
-      <c r="F883">
+      <c r="F884">
         <v>1.32</v>
       </c>
-      <c r="G883">
+      <c r="G884">
         <v>8000</v>
       </c>
-      <c r="H883">
-        <v>1</v>
-      </c>
-      <c r="I883" t="inlineStr">
+      <c r="H884">
+        <v>1</v>
+      </c>
+      <c r="I884" t="inlineStr">
         <is>
           <t>Direct</t>
         </is>
       </c>
-      <c r="J883" s="2">
+      <c r="J884" s="2">
         <v>45200</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -33945,7 +33945,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C885">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -787,11 +787,6 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
-      </c>
       <c r="J11" s="2">
         <v>44652</v>
       </c>
@@ -2345,11 +2340,6 @@
       <c r="H52">
         <v>2</v>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
-      </c>
       <c r="J52" s="2">
         <v>44682</v>
       </c>
@@ -2649,11 +2639,6 @@
       <c r="H60">
         <v>1</v>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
-      </c>
       <c r="J60" s="2">
         <v>44682</v>
       </c>
@@ -4128,11 +4113,6 @@
       <c r="H99">
         <v>1</v>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
-      </c>
       <c r="J99" s="2">
         <v>44713</v>
       </c>
@@ -5645,11 +5625,6 @@
       <c r="H139">
         <v>2</v>
       </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
-      </c>
       <c r="J139" s="2">
         <v>44743</v>
       </c>
@@ -7241,11 +7216,6 @@
       <c r="H181">
         <v>1</v>
       </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
-      </c>
       <c r="J181" s="2">
         <v>44774</v>
       </c>
@@ -7811,11 +7781,6 @@
       <c r="H196">
         <v>1</v>
       </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
-      </c>
       <c r="J196" s="2">
         <v>44774</v>
       </c>
@@ -8343,11 +8308,6 @@
       <c r="H210">
         <v>3</v>
       </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
-      </c>
       <c r="J210" s="2">
         <v>44805</v>
       </c>
@@ -9255,11 +9215,6 @@
       <c r="H234">
         <v>2</v>
       </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
-      </c>
       <c r="J234" s="2">
         <v>44805</v>
       </c>
@@ -10015,11 +9970,6 @@
       <c r="H254">
         <v>1</v>
       </c>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
-      </c>
       <c r="J254" s="2">
         <v>44835</v>
       </c>
@@ -10926,11 +10876,6 @@
       </c>
       <c r="H278">
         <v>1</v>
-      </c>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>Vishnu Kankani</t>
-        </is>
       </c>
       <c r="J278" s="2">
         <v>44835</v>
@@ -33626,7 +33571,7 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J876" s="2">
@@ -34035,7 +33980,7 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J887" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -33931,12 +33931,21 @@
           <t>Nali Top</t>
         </is>
       </c>
+      <c r="C886">
+        <v>15216</v>
+      </c>
       <c r="D886">
         <v>1344.96</v>
       </c>
+      <c r="E886">
+        <v>16948.2</v>
+      </c>
       <c r="F886">
         <v>9.51</v>
       </c>
+      <c r="G886">
+        <v>1600</v>
+      </c>
       <c r="H886">
         <v>2</v>
       </c>
@@ -33998,11 +34007,20 @@
           <t>Nali Top</t>
         </is>
       </c>
+      <c r="C888">
+        <v>14940</v>
+      </c>
       <c r="D888">
         <v>0</v>
       </c>
+      <c r="E888">
+        <v>15687</v>
+      </c>
       <c r="F888">
         <v>4.98</v>
+      </c>
+      <c r="G888">
+        <v>3000</v>
       </c>
       <c r="H888">
         <v>1</v>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J890"/>
+  <dimension ref="A1:J888"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32260,19 +32260,19 @@
         </is>
       </c>
       <c r="C842">
-        <v>796559</v>
+        <v>788815</v>
       </c>
       <c r="D842">
-        <v>143380.66</v>
+        <v>141986.74</v>
       </c>
       <c r="E842">
-        <v>939939</v>
+        <v>930801.5</v>
       </c>
       <c r="F842">
         <v>199.7</v>
       </c>
       <c r="G842">
-        <v>3988.778167250877</v>
+        <v>3950</v>
       </c>
       <c r="H842">
         <v>6</v>
@@ -32783,7 +32783,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -32792,26 +32792,26 @@
         </is>
       </c>
       <c r="C856">
-        <v>352990.5</v>
+        <v>310368</v>
       </c>
       <c r="D856">
-        <v>63538.29</v>
+        <v>30512.52</v>
       </c>
       <c r="E856">
-        <v>416529</v>
+        <v>366234.24</v>
       </c>
       <c r="F856">
-        <v>50.79</v>
+        <v>50.88</v>
       </c>
       <c r="G856">
-        <v>6950</v>
+        <v>6100.000000000001</v>
       </c>
       <c r="H856">
         <v>2</v>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J856" s="2">
@@ -32826,23 +32826,23 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C857">
-        <v>433096</v>
+        <v>352990.5</v>
       </c>
       <c r="D857">
-        <v>77957.28</v>
+        <v>63538.29</v>
       </c>
       <c r="E857">
-        <v>511053</v>
+        <v>416529</v>
       </c>
       <c r="F857">
-        <v>50.36</v>
+        <v>50.79</v>
       </c>
       <c r="G857">
-        <v>8600</v>
+        <v>6950</v>
       </c>
       <c r="H857">
         <v>2</v>
@@ -32859,28 +32859,28 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C858">
-        <v>76120.5</v>
+        <v>433096</v>
       </c>
       <c r="D858">
-        <v>13701.7</v>
+        <v>77957.28</v>
       </c>
       <c r="E858">
-        <v>89822</v>
+        <v>511053</v>
       </c>
       <c r="F858">
-        <v>49.11</v>
+        <v>50.36</v>
       </c>
       <c r="G858">
-        <v>1550</v>
+        <v>8600</v>
       </c>
       <c r="H858">
         <v>2</v>
@@ -32897,35 +32897,35 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C859">
-        <v>354276</v>
+        <v>76120.5</v>
       </c>
       <c r="D859">
-        <v>63769.68</v>
+        <v>13701.7</v>
       </c>
       <c r="E859">
-        <v>418046</v>
+        <v>89822</v>
       </c>
       <c r="F859">
-        <v>45.42</v>
+        <v>49.11</v>
       </c>
       <c r="G859">
-        <v>7800</v>
+        <v>1550</v>
       </c>
       <c r="H859">
         <v>2</v>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J859" s="2">
@@ -32935,35 +32935,35 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C860">
-        <v>174000</v>
+        <v>354276</v>
       </c>
       <c r="D860">
-        <v>8700</v>
+        <v>63769.68</v>
       </c>
       <c r="E860">
-        <v>182700</v>
+        <v>418046</v>
       </c>
       <c r="F860">
-        <v>43.5</v>
+        <v>45.42</v>
       </c>
       <c r="G860">
-        <v>4000</v>
+        <v>7800</v>
       </c>
       <c r="H860">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J860" s="2">
@@ -32973,35 +32973,35 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C861">
-        <v>267876</v>
+        <v>174000</v>
       </c>
       <c r="D861">
-        <v>48217.67999999999</v>
+        <v>8700</v>
       </c>
       <c r="E861">
-        <v>316093.84</v>
+        <v>182700</v>
       </c>
       <c r="F861">
-        <v>42.52</v>
+        <v>43.5</v>
       </c>
       <c r="G861">
-        <v>6300.000000000001</v>
+        <v>4000</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J861" s="2">
@@ -33011,7 +33011,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -33020,19 +33020,19 @@
         </is>
       </c>
       <c r="C862">
-        <v>258496</v>
+        <v>267876</v>
       </c>
       <c r="D862">
-        <v>46529.28</v>
+        <v>48217.67999999999</v>
       </c>
       <c r="E862">
-        <v>305026</v>
+        <v>316093.84</v>
       </c>
       <c r="F862">
-        <v>40.39</v>
+        <v>42.52</v>
       </c>
       <c r="G862">
-        <v>6400</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H862">
         <v>2</v>
@@ -33049,35 +33049,35 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Sugna Metals Ltd.</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C863">
-        <v>284005</v>
+        <v>258496</v>
       </c>
       <c r="D863">
-        <v>51120.9</v>
+        <v>46529.28</v>
       </c>
       <c r="E863">
-        <v>335126</v>
+        <v>305026</v>
       </c>
       <c r="F863">
-        <v>35.95</v>
+        <v>40.39</v>
       </c>
       <c r="G863">
-        <v>7899.999999999999</v>
+        <v>6400</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J863" s="2">
@@ -33087,35 +33087,35 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>Sugna Metals Ltd.</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C864">
-        <v>121788</v>
+        <v>284005</v>
       </c>
       <c r="D864">
-        <v>21921.84</v>
+        <v>51120.9</v>
       </c>
       <c r="E864">
-        <v>143710</v>
+        <v>335126</v>
       </c>
       <c r="F864">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="G864">
-        <v>3400</v>
+        <v>7899.999999999999</v>
       </c>
       <c r="H864">
         <v>1</v>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J864" s="2">
@@ -33125,7 +33125,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>Cuncolim(Orange Fox Steel Pvt Ltd)</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -33134,16 +33134,16 @@
         </is>
       </c>
       <c r="C865">
-        <v>121040</v>
+        <v>121788</v>
       </c>
       <c r="D865">
-        <v>21787.2</v>
+        <v>21921.84</v>
       </c>
       <c r="E865">
-        <v>142827</v>
+        <v>143710</v>
       </c>
       <c r="F865">
-        <v>35.6</v>
+        <v>35.82</v>
       </c>
       <c r="G865">
         <v>3400</v>
@@ -33163,35 +33163,35 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>Cuncolim(Orange Fox Steel Pvt Ltd)</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C866">
-        <v>223902</v>
+        <v>121040</v>
       </c>
       <c r="D866">
-        <v>40302.36</v>
+        <v>21787.2</v>
       </c>
       <c r="E866">
-        <v>264204</v>
+        <v>142827</v>
       </c>
       <c r="F866">
-        <v>35.54</v>
+        <v>35.6</v>
       </c>
       <c r="G866">
-        <v>6300</v>
+        <v>3400</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J866" s="2">
@@ -33201,7 +33201,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>MANDOVI CASTING PVT LTD</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -33210,26 +33210,26 @@
         </is>
       </c>
       <c r="C867">
-        <v>223020</v>
+        <v>223902</v>
       </c>
       <c r="D867">
-        <v>40143.6</v>
+        <v>40302.36</v>
       </c>
       <c r="E867">
-        <v>263164</v>
+        <v>264204</v>
       </c>
       <c r="F867">
-        <v>35.4</v>
+        <v>35.54</v>
       </c>
       <c r="G867">
         <v>6300</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J867" s="2">
@@ -33239,7 +33239,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>MINAR ISPAT PVT. LTD</t>
+          <t>MANDOVI CASTING PVT LTD</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -33248,26 +33248,26 @@
         </is>
       </c>
       <c r="C868">
-        <v>210273</v>
+        <v>223020</v>
       </c>
       <c r="D868">
-        <v>37849.14</v>
+        <v>40143.6</v>
       </c>
       <c r="E868">
-        <v>248122</v>
+        <v>263164</v>
       </c>
       <c r="F868">
-        <v>35.34</v>
+        <v>35.4</v>
       </c>
       <c r="G868">
-        <v>5949.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H868">
         <v>1</v>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J868" s="2">
@@ -33277,7 +33277,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>MINAR ISPAT PVT. LTD</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -33286,26 +33286,26 @@
         </is>
       </c>
       <c r="C869">
-        <v>219046</v>
+        <v>210273</v>
       </c>
       <c r="D869">
-        <v>39428.28</v>
+        <v>37849.14</v>
       </c>
       <c r="E869">
-        <v>258474</v>
+        <v>248122</v>
       </c>
       <c r="F869">
-        <v>35.33</v>
+        <v>35.34</v>
       </c>
       <c r="G869">
-        <v>6200</v>
+        <v>5949.999999999999</v>
       </c>
       <c r="H869">
         <v>1</v>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J869" s="2">
@@ -33315,7 +33315,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -33324,26 +33324,26 @@
         </is>
       </c>
       <c r="C870">
-        <v>199710</v>
+        <v>219046</v>
       </c>
       <c r="D870">
-        <v>35947.8</v>
+        <v>39428.28</v>
       </c>
       <c r="E870">
-        <v>235658</v>
+        <v>258474</v>
       </c>
       <c r="F870">
-        <v>31.7</v>
+        <v>35.33</v>
       </c>
       <c r="G870">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H870">
         <v>1</v>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J870" s="2">
@@ -33353,7 +33353,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Cuncolim(Orange Fox Steel Pvt Ltd)</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -33362,26 +33362,26 @@
         </is>
       </c>
       <c r="C871">
-        <v>200208</v>
+        <v>199710</v>
       </c>
       <c r="D871">
-        <v>36037.44</v>
+        <v>35947.8</v>
       </c>
       <c r="E871">
-        <v>236246</v>
+        <v>235658</v>
       </c>
       <c r="F871">
-        <v>31.04</v>
+        <v>31.7</v>
       </c>
       <c r="G871">
-        <v>6450</v>
+        <v>6300</v>
       </c>
       <c r="H871">
         <v>1</v>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J871" s="2">
@@ -33391,35 +33391,35 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>Cuncolim(Orange Fox Steel Pvt Ltd)</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C872">
-        <v>118387.5</v>
+        <v>200208</v>
       </c>
       <c r="D872">
-        <v>21309.75</v>
+        <v>36037.44</v>
       </c>
       <c r="E872">
-        <v>139697</v>
+        <v>236246</v>
       </c>
       <c r="F872">
-        <v>30.75</v>
+        <v>31.04</v>
       </c>
       <c r="G872">
-        <v>3850</v>
+        <v>6450</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J872" s="2">
@@ -33429,31 +33429,31 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C873">
-        <v>96673.5</v>
+        <v>118387.5</v>
       </c>
       <c r="D873">
-        <v>17401.24</v>
+        <v>21309.75</v>
       </c>
       <c r="E873">
-        <v>114075</v>
+        <v>139697</v>
       </c>
       <c r="F873">
-        <v>30.69</v>
+        <v>30.75</v>
       </c>
       <c r="G873">
-        <v>3150</v>
+        <v>3850</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr">
         <is>
@@ -33472,23 +33472,23 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C874">
-        <v>114825</v>
+        <v>96673.5</v>
       </c>
       <c r="D874">
-        <v>20668.5</v>
+        <v>17401.24</v>
       </c>
       <c r="E874">
-        <v>135494</v>
+        <v>114075</v>
       </c>
       <c r="F874">
-        <v>30.62</v>
+        <v>30.69</v>
       </c>
       <c r="G874">
-        <v>3750</v>
+        <v>3150</v>
       </c>
       <c r="H874">
         <v>1</v>
@@ -33505,35 +33505,35 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C875">
-        <v>190575</v>
+        <v>114825</v>
       </c>
       <c r="D875">
-        <v>34303.5</v>
+        <v>20668.5</v>
       </c>
       <c r="E875">
-        <v>224879</v>
+        <v>135494</v>
       </c>
       <c r="F875">
-        <v>30.25</v>
+        <v>30.62</v>
       </c>
       <c r="G875">
-        <v>6300</v>
+        <v>3750</v>
       </c>
       <c r="H875">
         <v>1</v>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J875" s="2">
@@ -33543,35 +33543,35 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C876">
-        <v>234390</v>
+        <v>190575</v>
       </c>
       <c r="D876">
-        <v>42190.2</v>
+        <v>34303.5</v>
       </c>
       <c r="E876">
-        <v>276580</v>
+        <v>224879</v>
       </c>
       <c r="F876">
-        <v>30.05</v>
+        <v>30.25</v>
       </c>
       <c r="G876">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="H876">
         <v>1</v>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J876" s="2">
@@ -33581,28 +33581,28 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C877">
-        <v>155794</v>
+        <v>234390</v>
       </c>
       <c r="D877">
-        <v>0</v>
+        <v>42190.2</v>
       </c>
       <c r="E877">
-        <v>183836.92</v>
+        <v>276580</v>
       </c>
       <c r="F877">
-        <v>25.54</v>
+        <v>30.05</v>
       </c>
       <c r="G877">
-        <v>6100</v>
+        <v>7800</v>
       </c>
       <c r="H877">
         <v>1</v>
@@ -33619,7 +33619,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -33628,26 +33628,26 @@
         </is>
       </c>
       <c r="C878">
-        <v>169514</v>
+        <v>161472</v>
       </c>
       <c r="D878">
-        <v>30512.52</v>
+        <v>29064.96</v>
       </c>
       <c r="E878">
-        <v>200027</v>
+        <v>190537</v>
       </c>
       <c r="F878">
-        <v>25.34</v>
+        <v>25.23</v>
       </c>
       <c r="G878">
-        <v>6689.581689029203</v>
+        <v>6400</v>
       </c>
       <c r="H878">
         <v>1</v>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J878" s="2">
@@ -33657,7 +33657,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -33666,19 +33666,19 @@
         </is>
       </c>
       <c r="C879">
-        <v>161472</v>
+        <v>158886</v>
       </c>
       <c r="D879">
-        <v>29064.96</v>
+        <v>28599.48</v>
       </c>
       <c r="E879">
-        <v>190537</v>
+        <v>187485</v>
       </c>
       <c r="F879">
-        <v>25.23</v>
+        <v>25.22</v>
       </c>
       <c r="G879">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H879">
         <v>1</v>
@@ -33695,35 +33695,35 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C880">
-        <v>158886</v>
+        <v>106675</v>
       </c>
       <c r="D880">
-        <v>28599.48</v>
+        <v>5333.78</v>
       </c>
       <c r="E880">
-        <v>187485</v>
+        <v>112010</v>
       </c>
       <c r="F880">
-        <v>25.22</v>
+        <v>25.1</v>
       </c>
       <c r="G880">
-        <v>6300</v>
+        <v>4250</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J880" s="2">
@@ -33733,35 +33733,35 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C881">
-        <v>106675</v>
+        <v>124080</v>
       </c>
       <c r="D881">
-        <v>5333.78</v>
+        <v>0</v>
       </c>
       <c r="E881">
-        <v>112010</v>
+        <v>146414.4</v>
       </c>
       <c r="F881">
-        <v>25.1</v>
+        <v>20.68</v>
       </c>
       <c r="G881">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="H881">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J881" s="2">
@@ -33776,26 +33776,26 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C882">
-        <v>124080</v>
+        <v>158184</v>
       </c>
       <c r="D882">
-        <v>0</v>
+        <v>50807.52</v>
       </c>
       <c r="E882">
-        <v>146414.4</v>
+        <v>186656.8</v>
       </c>
       <c r="F882">
-        <v>20.68</v>
+        <v>20.28</v>
       </c>
       <c r="G882">
-        <v>6000</v>
+        <v>7800</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr">
         <is>
@@ -33809,7 +33809,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -33818,26 +33818,26 @@
         </is>
       </c>
       <c r="C883">
-        <v>158184</v>
+        <v>160000</v>
       </c>
       <c r="D883">
-        <v>50807.52</v>
+        <v>28800</v>
       </c>
       <c r="E883">
-        <v>186656.8</v>
+        <v>188800</v>
       </c>
       <c r="F883">
-        <v>20.28</v>
+        <v>20</v>
       </c>
       <c r="G883">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J883" s="2">
@@ -33847,28 +33847,28 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C884">
-        <v>160000</v>
+        <v>53152</v>
       </c>
       <c r="D884">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="E884">
-        <v>188800</v>
+        <v>62719.35999999999</v>
       </c>
       <c r="F884">
-        <v>20</v>
+        <v>16.61</v>
       </c>
       <c r="G884">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="H884">
         <v>1</v>
@@ -33885,7 +33885,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -33894,26 +33894,26 @@
         </is>
       </c>
       <c r="C885">
-        <v>53152</v>
+        <v>29820</v>
       </c>
       <c r="D885">
-        <v>0</v>
+        <v>30721.32</v>
       </c>
       <c r="E885">
-        <v>62719.35999999999</v>
+        <v>31311</v>
       </c>
       <c r="F885">
-        <v>16.61</v>
+        <v>9.940000000000001</v>
       </c>
       <c r="G885">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J885" s="2">
@@ -33999,114 +33999,38 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet)(ILC IRON &amp; STEEL PRIVATE LIMITED)</t>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C888">
-        <v>14940</v>
+        <v>10560</v>
       </c>
       <c r="D888">
-        <v>0</v>
+        <v>1900.8</v>
       </c>
       <c r="E888">
-        <v>15687</v>
+        <v>12461</v>
       </c>
       <c r="F888">
-        <v>4.98</v>
+        <v>1.32</v>
       </c>
       <c r="G888">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="H888">
         <v>1</v>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J888" s="2">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" t="inlineStr">
-        <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
-        </is>
-      </c>
-      <c r="B889" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
-        </is>
-      </c>
-      <c r="C889">
-        <v>14880</v>
-      </c>
-      <c r="D889">
-        <v>30721.32</v>
-      </c>
-      <c r="E889">
-        <v>17558.4</v>
-      </c>
-      <c r="F889">
-        <v>4.96</v>
-      </c>
-      <c r="G889">
-        <v>3000</v>
-      </c>
-      <c r="H889">
-        <v>1</v>
-      </c>
-      <c r="I889" t="inlineStr">
-        <is>
-          <t>Shresth Maheshwari</t>
-        </is>
-      </c>
-      <c r="J889" s="2">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
-        </is>
-      </c>
-      <c r="B890" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C890">
-        <v>10560</v>
-      </c>
-      <c r="D890">
-        <v>1900.8</v>
-      </c>
-      <c r="E890">
-        <v>12461</v>
-      </c>
-      <c r="F890">
-        <v>1.32</v>
-      </c>
-      <c r="G890">
-        <v>8000</v>
-      </c>
-      <c r="H890">
-        <v>1</v>
-      </c>
-      <c r="I890" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J890" s="2">
         <v>45200</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -32593,28 +32593,28 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>ARISE STEELS PRIVATE LIMITED</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C851">
-        <v>472688</v>
+        <v>570960</v>
       </c>
       <c r="D851">
-        <v>85083.84</v>
+        <v>102772.8</v>
       </c>
       <c r="E851">
-        <v>557772</v>
+        <v>673733</v>
       </c>
       <c r="F851">
-        <v>76.23999999999999</v>
+        <v>71.37</v>
       </c>
       <c r="G851">
-        <v>6200</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H851">
         <v>4</v>
@@ -32631,7 +32631,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -32640,26 +32640,26 @@
         </is>
       </c>
       <c r="C852">
-        <v>570960</v>
+        <v>553790</v>
       </c>
       <c r="D852">
-        <v>102772.8</v>
+        <v>99682.20000000001</v>
       </c>
       <c r="E852">
-        <v>673733</v>
+        <v>653472</v>
       </c>
       <c r="F852">
-        <v>71.37</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="G852">
-        <v>7999.999999999999</v>
+        <v>7900.000000000001</v>
       </c>
       <c r="H852">
         <v>4</v>
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J852" s="2">
@@ -32669,7 +32669,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -32678,26 +32678,26 @@
         </is>
       </c>
       <c r="C853">
-        <v>553790</v>
+        <v>541713</v>
       </c>
       <c r="D853">
-        <v>99682.20000000001</v>
+        <v>97508.34</v>
       </c>
       <c r="E853">
-        <v>653472</v>
+        <v>639221</v>
       </c>
       <c r="F853">
-        <v>70.09999999999999</v>
+        <v>68.14</v>
       </c>
       <c r="G853">
-        <v>7900.000000000001</v>
+        <v>7950</v>
       </c>
       <c r="H853">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J853" s="2">
@@ -32707,31 +32707,31 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C854">
-        <v>541713</v>
+        <v>201312</v>
       </c>
       <c r="D854">
-        <v>97508.34</v>
+        <v>36236.16</v>
       </c>
       <c r="E854">
-        <v>639221</v>
+        <v>237549</v>
       </c>
       <c r="F854">
-        <v>68.14</v>
+        <v>62.91</v>
       </c>
       <c r="G854">
-        <v>7950</v>
+        <v>3200</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I854" t="inlineStr">
         <is>
@@ -32745,35 +32745,35 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C855">
-        <v>201312</v>
+        <v>310368</v>
       </c>
       <c r="D855">
-        <v>36236.16</v>
+        <v>30512.52</v>
       </c>
       <c r="E855">
-        <v>237549</v>
+        <v>366234.24</v>
       </c>
       <c r="F855">
-        <v>62.91</v>
+        <v>50.88</v>
       </c>
       <c r="G855">
-        <v>3200</v>
+        <v>6100.000000000001</v>
       </c>
       <c r="H855">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J855" s="2">
@@ -32783,7 +32783,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED(ILC IRON &amp; STEEL PRIVATE LIMITED (Hospet))</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -32792,26 +32792,26 @@
         </is>
       </c>
       <c r="C856">
-        <v>310368</v>
+        <v>352990.5</v>
       </c>
       <c r="D856">
-        <v>30512.52</v>
+        <v>63538.29</v>
       </c>
       <c r="E856">
-        <v>366234.24</v>
+        <v>416529</v>
       </c>
       <c r="F856">
-        <v>50.88</v>
+        <v>50.79</v>
       </c>
       <c r="G856">
-        <v>6100.000000000001</v>
+        <v>6950</v>
       </c>
       <c r="H856">
         <v>2</v>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J856" s="2">
@@ -32826,23 +32826,23 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C857">
-        <v>352990.5</v>
+        <v>433096</v>
       </c>
       <c r="D857">
-        <v>63538.29</v>
+        <v>77957.28</v>
       </c>
       <c r="E857">
-        <v>416529</v>
+        <v>511053</v>
       </c>
       <c r="F857">
-        <v>50.79</v>
+        <v>50.36</v>
       </c>
       <c r="G857">
-        <v>6950</v>
+        <v>8600</v>
       </c>
       <c r="H857">
         <v>2</v>
@@ -32859,28 +32859,28 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C858">
-        <v>433096</v>
+        <v>76120.5</v>
       </c>
       <c r="D858">
-        <v>77957.28</v>
+        <v>13701.7</v>
       </c>
       <c r="E858">
-        <v>511053</v>
+        <v>89822</v>
       </c>
       <c r="F858">
-        <v>50.36</v>
+        <v>49.11</v>
       </c>
       <c r="G858">
-        <v>8600</v>
+        <v>1550</v>
       </c>
       <c r="H858">
         <v>2</v>
@@ -32897,35 +32897,35 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C859">
-        <v>76120.5</v>
+        <v>354276</v>
       </c>
       <c r="D859">
-        <v>13701.7</v>
+        <v>63769.68</v>
       </c>
       <c r="E859">
-        <v>89822</v>
+        <v>418046</v>
       </c>
       <c r="F859">
-        <v>49.11</v>
+        <v>45.42</v>
       </c>
       <c r="G859">
-        <v>1550</v>
+        <v>7800</v>
       </c>
       <c r="H859">
         <v>2</v>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J859" s="2">
@@ -32935,35 +32935,35 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C860">
-        <v>354276</v>
+        <v>174000</v>
       </c>
       <c r="D860">
-        <v>63769.68</v>
+        <v>8700</v>
       </c>
       <c r="E860">
-        <v>418046</v>
+        <v>182700</v>
       </c>
       <c r="F860">
-        <v>45.42</v>
+        <v>43.5</v>
       </c>
       <c r="G860">
-        <v>7800</v>
+        <v>4000</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J860" s="2">
@@ -32973,35 +32973,35 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C861">
-        <v>174000</v>
+        <v>267876</v>
       </c>
       <c r="D861">
-        <v>8700</v>
+        <v>48217.67999999999</v>
       </c>
       <c r="E861">
-        <v>182700</v>
+        <v>316093.84</v>
       </c>
       <c r="F861">
-        <v>43.5</v>
+        <v>42.52</v>
       </c>
       <c r="G861">
-        <v>4000</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H861">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J861" s="2">
@@ -33011,7 +33011,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>ARISE STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -33020,26 +33020,26 @@
         </is>
       </c>
       <c r="C862">
-        <v>267876</v>
+        <v>252340</v>
       </c>
       <c r="D862">
-        <v>48217.67999999999</v>
+        <v>45421.2</v>
       </c>
       <c r="E862">
-        <v>316093.84</v>
+        <v>297761</v>
       </c>
       <c r="F862">
-        <v>42.52</v>
+        <v>40.7</v>
       </c>
       <c r="G862">
-        <v>6300.000000000001</v>
+        <v>6200</v>
       </c>
       <c r="H862">
         <v>2</v>
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J862" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J928"/>
+  <dimension ref="A1:J943"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34139,22 +34139,22 @@
         </is>
       </c>
       <c r="C890">
-        <v>1928785</v>
+        <v>2486604</v>
       </c>
       <c r="D890">
-        <v>347181.3</v>
+        <v>955204.01</v>
       </c>
       <c r="E890">
-        <v>2275966</v>
+        <v>2833785</v>
       </c>
       <c r="F890">
-        <v>244.15</v>
+        <v>314.76</v>
       </c>
       <c r="G890">
         <v>7900</v>
       </c>
       <c r="H890">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I890" t="inlineStr">
         <is>
@@ -34177,22 +34177,22 @@
         </is>
       </c>
       <c r="C891">
-        <v>1790544</v>
+        <v>2086812</v>
       </c>
       <c r="D891">
-        <v>322297.92</v>
+        <v>618565.92</v>
       </c>
       <c r="E891">
-        <v>2112842</v>
+        <v>2409110</v>
       </c>
       <c r="F891">
-        <v>213.16</v>
+        <v>248.43</v>
       </c>
       <c r="G891">
         <v>8400</v>
       </c>
       <c r="H891">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I891" t="inlineStr">
         <is>
@@ -34206,31 +34206,31 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Sugna Metals Ltd.</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C892">
-        <v>1183286</v>
+        <v>1879410</v>
       </c>
       <c r="D892">
-        <v>212991.48</v>
+        <v>990302.04</v>
       </c>
       <c r="E892">
-        <v>1396277</v>
+        <v>2074580.76</v>
       </c>
       <c r="F892">
-        <v>166.66</v>
+        <v>240.95</v>
       </c>
       <c r="G892">
-        <v>7099.999999999999</v>
+        <v>7800</v>
       </c>
       <c r="H892">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I892" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Sugna Metals Ltd.</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -34253,22 +34253,22 @@
         </is>
       </c>
       <c r="C893">
-        <v>1084278</v>
+        <v>1313910</v>
       </c>
       <c r="D893">
-        <v>195170.04</v>
+        <v>490754.16</v>
       </c>
       <c r="E893">
-        <v>1279448.76</v>
+        <v>1500123</v>
       </c>
       <c r="F893">
-        <v>139.01</v>
+        <v>168.45</v>
       </c>
       <c r="G893">
         <v>7800.000000000001</v>
       </c>
       <c r="H893">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I893" t="inlineStr">
         <is>
@@ -34282,31 +34282,31 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C894">
-        <v>1034514</v>
+        <v>1183286</v>
       </c>
       <c r="D894">
-        <v>186212.52</v>
+        <v>212991.48</v>
       </c>
       <c r="E894">
-        <v>1220727</v>
+        <v>1396277</v>
       </c>
       <c r="F894">
-        <v>132.63</v>
+        <v>166.66</v>
       </c>
       <c r="G894">
-        <v>7800</v>
+        <v>7099.999999999999</v>
       </c>
       <c r="H894">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I894" t="inlineStr">
         <is>
@@ -34320,7 +34320,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -34329,22 +34329,22 @@
         </is>
       </c>
       <c r="C895">
-        <v>857169</v>
+        <v>651039</v>
       </c>
       <c r="D895">
-        <v>154290.42</v>
+        <v>355718.0699999999</v>
       </c>
       <c r="E895">
-        <v>1011460</v>
+        <v>721044</v>
       </c>
       <c r="F895">
-        <v>107.82</v>
+        <v>164.82</v>
       </c>
       <c r="G895">
-        <v>7950.000000000001</v>
+        <v>3950</v>
       </c>
       <c r="H895">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I895" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -34367,22 +34367,22 @@
         </is>
       </c>
       <c r="C896">
-        <v>775224</v>
+        <v>879842</v>
       </c>
       <c r="D896">
-        <v>139540.32</v>
+        <v>355841.5599999999</v>
       </c>
       <c r="E896">
-        <v>914764</v>
+        <v>999153</v>
       </c>
       <c r="F896">
-        <v>107.67</v>
+        <v>141.91</v>
       </c>
       <c r="G896">
-        <v>7200.000000000001</v>
+        <v>6200</v>
       </c>
       <c r="H896">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I896" t="inlineStr">
         <is>
@@ -34396,35 +34396,35 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C897">
-        <v>662842</v>
+        <v>875241</v>
       </c>
       <c r="D897">
-        <v>119311.56</v>
+        <v>385828.1</v>
       </c>
       <c r="E897">
-        <v>782153</v>
+        <v>982675</v>
       </c>
       <c r="F897">
-        <v>106.91</v>
+        <v>110.79</v>
       </c>
       <c r="G897">
-        <v>6199.999999999999</v>
+        <v>7900</v>
       </c>
       <c r="H897">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J897" s="2">
@@ -34434,7 +34434,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -34443,19 +34443,19 @@
         </is>
       </c>
       <c r="C898">
-        <v>388917</v>
+        <v>857169</v>
       </c>
       <c r="D898">
-        <v>70005.08</v>
+        <v>154290.42</v>
       </c>
       <c r="E898">
-        <v>458922</v>
+        <v>1011460</v>
       </c>
       <c r="F898">
-        <v>98.45999999999999</v>
+        <v>107.82</v>
       </c>
       <c r="G898">
-        <v>3950</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H898">
         <v>3</v>
@@ -34472,7 +34472,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -34481,26 +34481,26 @@
         </is>
       </c>
       <c r="C899">
-        <v>613368</v>
+        <v>775224</v>
       </c>
       <c r="D899">
-        <v>110406.24</v>
+        <v>139540.32</v>
       </c>
       <c r="E899">
-        <v>723774</v>
+        <v>914764</v>
       </c>
       <c r="F899">
-        <v>97.36</v>
+        <v>107.67</v>
       </c>
       <c r="G899">
-        <v>6300</v>
+        <v>7200.000000000001</v>
       </c>
       <c r="H899">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J899" s="2">
@@ -34510,35 +34510,35 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C900">
-        <v>749680</v>
+        <v>627060</v>
       </c>
       <c r="D900">
-        <v>134942.4</v>
+        <v>283053.6</v>
       </c>
       <c r="E900">
-        <v>884623</v>
+        <v>702574</v>
       </c>
       <c r="F900">
-        <v>93.71000000000001</v>
+        <v>104.51</v>
       </c>
       <c r="G900">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="H900">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J900" s="2">
@@ -34548,31 +34548,31 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C901">
-        <v>735558</v>
+        <v>613368</v>
       </c>
       <c r="D901">
-        <v>132400.44</v>
+        <v>110406.24</v>
       </c>
       <c r="E901">
-        <v>867959</v>
+        <v>723774</v>
       </c>
       <c r="F901">
-        <v>85.53</v>
+        <v>97.36</v>
       </c>
       <c r="G901">
-        <v>8600</v>
+        <v>6300</v>
       </c>
       <c r="H901">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I901" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -34595,26 +34595,26 @@
         </is>
       </c>
       <c r="C902">
-        <v>596845</v>
+        <v>749680</v>
       </c>
       <c r="D902">
-        <v>107432.1</v>
+        <v>134942.4</v>
       </c>
       <c r="E902">
-        <v>704279</v>
+        <v>884623</v>
       </c>
       <c r="F902">
-        <v>75.55</v>
+        <v>93.71000000000001</v>
       </c>
       <c r="G902">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H902">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J902" s="2">
@@ -34624,35 +34624,35 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C903">
-        <v>326363</v>
+        <v>721065</v>
       </c>
       <c r="D903">
-        <v>58745.34</v>
+        <v>721065</v>
       </c>
       <c r="E903">
-        <v>385109</v>
+        <v>721065</v>
       </c>
       <c r="F903">
-        <v>73.34</v>
+        <v>90.7</v>
       </c>
       <c r="G903">
-        <v>4450</v>
+        <v>7950</v>
       </c>
       <c r="H903">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J903" s="2">
@@ -34662,31 +34662,31 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>SAKTHI FERRO ALLOYS INDIA PRIVATE LIMITED</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C904">
-        <v>491189.9999999999</v>
+        <v>735558</v>
       </c>
       <c r="D904">
-        <v>88414.20000000001</v>
+        <v>132400.44</v>
       </c>
       <c r="E904">
-        <v>579605</v>
+        <v>867959</v>
       </c>
       <c r="F904">
-        <v>70.16999999999999</v>
+        <v>85.53</v>
       </c>
       <c r="G904">
-        <v>7000</v>
+        <v>8600</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I904" t="inlineStr">
         <is>
@@ -34700,35 +34700,35 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C905">
-        <v>419520</v>
+        <v>246176</v>
       </c>
       <c r="D905">
-        <v>75513.60000000001</v>
+        <v>93844.8</v>
       </c>
       <c r="E905">
-        <v>495034</v>
+        <v>280690</v>
       </c>
       <c r="F905">
-        <v>69.92</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="G905">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="H905">
         <v>4</v>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J905" s="2">
@@ -34738,35 +34738,35 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C906">
-        <v>611248</v>
+        <v>326363</v>
       </c>
       <c r="D906">
-        <v>110024.64</v>
+        <v>58745.34</v>
       </c>
       <c r="E906">
-        <v>721273</v>
+        <v>385109</v>
       </c>
       <c r="F906">
-        <v>66.44</v>
+        <v>73.34</v>
       </c>
       <c r="G906">
-        <v>9200</v>
+        <v>4450</v>
       </c>
       <c r="H906">
         <v>4</v>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J906" s="2">
@@ -34776,35 +34776,35 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C907">
-        <v>191744</v>
+        <v>538156</v>
       </c>
       <c r="D907">
-        <v>34513.92</v>
+        <v>319849.04</v>
       </c>
       <c r="E907">
-        <v>226258</v>
+        <v>586077</v>
       </c>
       <c r="F907">
-        <v>59.92</v>
+        <v>70.81</v>
       </c>
       <c r="G907">
-        <v>3200</v>
+        <v>7600</v>
       </c>
       <c r="H907">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J907" s="2">
@@ -34814,7 +34814,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>SAKTHI FERRO ALLOYS INDIA PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -34823,19 +34823,19 @@
         </is>
       </c>
       <c r="C908">
-        <v>187582.5</v>
+        <v>491189.9999999999</v>
       </c>
       <c r="D908">
-        <v>33764.86</v>
+        <v>88414.20000000001</v>
       </c>
       <c r="E908">
-        <v>221348</v>
+        <v>579605</v>
       </c>
       <c r="F908">
-        <v>59.55</v>
+        <v>70.16999999999999</v>
       </c>
       <c r="G908">
-        <v>3150</v>
+        <v>7000</v>
       </c>
       <c r="H908">
         <v>2</v>
@@ -34852,31 +34852,31 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C909">
-        <v>209482.5</v>
+        <v>611248</v>
       </c>
       <c r="D909">
-        <v>10474.16</v>
+        <v>110024.64</v>
       </c>
       <c r="E909">
-        <v>219958</v>
+        <v>721273</v>
       </c>
       <c r="F909">
-        <v>49.29</v>
+        <v>66.44</v>
       </c>
       <c r="G909">
-        <v>4250</v>
+        <v>9200</v>
       </c>
       <c r="H909">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I909" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>AMBA FRP PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -34899,19 +34899,19 @@
         </is>
       </c>
       <c r="C910">
-        <v>312639</v>
+        <v>374790</v>
       </c>
       <c r="D910">
-        <v>56275.02</v>
+        <v>10912</v>
       </c>
       <c r="E910">
-        <v>368914</v>
+        <v>385702</v>
       </c>
       <c r="F910">
-        <v>45.31</v>
+        <v>60.45</v>
       </c>
       <c r="G910">
-        <v>6900</v>
+        <v>6200</v>
       </c>
       <c r="H910">
         <v>2</v>
@@ -34928,35 +34928,35 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Adri Steels Pvt Limited</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C911">
-        <v>258240</v>
+        <v>483440</v>
       </c>
       <c r="D911">
-        <v>46483.2</v>
+        <v>483440</v>
       </c>
       <c r="E911">
-        <v>304724</v>
+        <v>483440</v>
       </c>
       <c r="F911">
-        <v>43.04</v>
+        <v>60.43</v>
       </c>
       <c r="G911">
-        <v>6000</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H911">
         <v>3</v>
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J911" s="2">
@@ -34966,35 +34966,35 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C912">
-        <v>327210</v>
+        <v>187582.5</v>
       </c>
       <c r="D912">
-        <v>58897.8</v>
+        <v>33764.86</v>
       </c>
       <c r="E912">
-        <v>386108</v>
+        <v>221348</v>
       </c>
       <c r="F912">
-        <v>41.95</v>
+        <v>59.55</v>
       </c>
       <c r="G912">
-        <v>7799.999999999999</v>
+        <v>3150</v>
       </c>
       <c r="H912">
         <v>2</v>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J912" s="2">
@@ -35004,7 +35004,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>SAKTHI STEEL INDUSTRIES LTD</t>
+          <t>Adri Steels Pvt Limited</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -35013,26 +35013,26 @@
         </is>
       </c>
       <c r="C913">
-        <v>262700</v>
+        <v>348540</v>
       </c>
       <c r="D913">
-        <v>47286</v>
+        <v>144910.2</v>
       </c>
       <c r="E913">
-        <v>309986</v>
+        <v>395024</v>
       </c>
       <c r="F913">
-        <v>35.5</v>
+        <v>58.09</v>
       </c>
       <c r="G913">
-        <v>7400</v>
+        <v>6000</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J913" s="2">
@@ -35042,7 +35042,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Pashupati Metallics</t>
+          <t>Quartztech Minerals Pvt Ltd</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -35051,22 +35051,22 @@
         </is>
       </c>
       <c r="C914">
-        <v>267976</v>
+        <v>362565</v>
       </c>
       <c r="D914">
-        <v>48235.68</v>
+        <v>395195.85</v>
       </c>
       <c r="E914">
-        <v>316212</v>
+        <v>362565</v>
       </c>
       <c r="F914">
-        <v>35.26</v>
+        <v>57.55</v>
       </c>
       <c r="G914">
-        <v>7600</v>
+        <v>6300</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr">
         <is>
@@ -35080,31 +35080,31 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C915">
-        <v>274872</v>
+        <v>223337.5</v>
       </c>
       <c r="D915">
-        <v>49476.96</v>
+        <v>10820.54</v>
       </c>
       <c r="E915">
-        <v>324349</v>
+        <v>233813</v>
       </c>
       <c r="F915">
-        <v>35.24</v>
+        <v>52.55</v>
       </c>
       <c r="G915">
-        <v>7800</v>
+        <v>4250</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I915" t="inlineStr">
         <is>
@@ -35118,31 +35118,31 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>AMBA FRP PRIVATE LIMITED</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C916">
-        <v>218240</v>
+        <v>422776</v>
       </c>
       <c r="D916">
-        <v>10912</v>
+        <v>422776</v>
       </c>
       <c r="E916">
-        <v>229152</v>
+        <v>422776</v>
       </c>
       <c r="F916">
-        <v>35.2</v>
+        <v>49.16</v>
       </c>
       <c r="G916">
-        <v>6200</v>
+        <v>8600</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr">
         <is>
@@ -35156,35 +35156,35 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C917">
-        <v>266228</v>
+        <v>312639</v>
       </c>
       <c r="D917">
-        <v>47921.04</v>
+        <v>56275.02</v>
       </c>
       <c r="E917">
-        <v>314149</v>
+        <v>368914</v>
       </c>
       <c r="F917">
-        <v>35.03</v>
+        <v>45.31</v>
       </c>
       <c r="G917">
-        <v>7600</v>
+        <v>6900</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J917" s="2">
@@ -35194,35 +35194,35 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C918">
-        <v>223808</v>
+        <v>327210</v>
       </c>
       <c r="D918">
-        <v>40285.44</v>
+        <v>58897.8</v>
       </c>
       <c r="E918">
-        <v>264094</v>
+        <v>386108</v>
       </c>
       <c r="F918">
-        <v>34.97</v>
+        <v>41.95</v>
       </c>
       <c r="G918">
-        <v>6400</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H918">
         <v>2</v>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J918" s="2">
@@ -35232,35 +35232,35 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C919">
-        <v>216380</v>
+        <v>129648</v>
       </c>
       <c r="D919">
-        <v>38948.4</v>
+        <v>129648</v>
       </c>
       <c r="E919">
-        <v>255328</v>
+        <v>129648</v>
       </c>
       <c r="F919">
-        <v>34.9</v>
+        <v>35.52</v>
       </c>
       <c r="G919">
-        <v>6200</v>
+        <v>3650</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J919" s="2">
@@ -35270,28 +35270,28 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>SAKTHI STEEL INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C920">
-        <v>111456</v>
+        <v>262700</v>
       </c>
       <c r="D920">
-        <v>20062.08</v>
+        <v>47286</v>
       </c>
       <c r="E920">
-        <v>131518</v>
+        <v>309986</v>
       </c>
       <c r="F920">
-        <v>34.83</v>
+        <v>35.5</v>
       </c>
       <c r="G920">
-        <v>3200</v>
+        <v>7400</v>
       </c>
       <c r="H920">
         <v>1</v>
@@ -35308,7 +35308,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -35317,26 +35317,26 @@
         </is>
       </c>
       <c r="C921">
-        <v>237096</v>
+        <v>220038</v>
       </c>
       <c r="D921">
-        <v>42677.28</v>
+        <v>220038</v>
       </c>
       <c r="E921">
-        <v>279773</v>
+        <v>220038</v>
       </c>
       <c r="F921">
-        <v>32.93</v>
+        <v>35.48999999999999</v>
       </c>
       <c r="G921">
-        <v>7200</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H921">
         <v>2</v>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J921" s="2">
@@ -35346,7 +35346,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Pashupati Metallics</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -35355,26 +35355,26 @@
         </is>
       </c>
       <c r="C922">
-        <v>189252</v>
+        <v>267976</v>
       </c>
       <c r="D922">
-        <v>34065.36</v>
+        <v>48235.68</v>
       </c>
       <c r="E922">
-        <v>223317</v>
+        <v>316212</v>
       </c>
       <c r="F922">
-        <v>30.04</v>
+        <v>35.26</v>
       </c>
       <c r="G922">
-        <v>6300</v>
+        <v>7600</v>
       </c>
       <c r="H922">
         <v>1</v>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J922" s="2">
@@ -35384,35 +35384,35 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C923">
-        <v>188811</v>
+        <v>274872</v>
       </c>
       <c r="D923">
-        <v>33985.98</v>
+        <v>49476.96</v>
       </c>
       <c r="E923">
-        <v>222797</v>
+        <v>324349</v>
       </c>
       <c r="F923">
-        <v>29.97</v>
+        <v>35.24</v>
       </c>
       <c r="G923">
-        <v>6300</v>
+        <v>7800</v>
       </c>
       <c r="H923">
         <v>1</v>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J923" s="2">
@@ -35422,7 +35422,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -35431,26 +35431,26 @@
         </is>
       </c>
       <c r="C924">
-        <v>176337</v>
+        <v>216876</v>
       </c>
       <c r="D924">
-        <v>31740.66</v>
+        <v>216876</v>
       </c>
       <c r="E924">
-        <v>208077.66</v>
+        <v>216876</v>
       </c>
       <c r="F924">
-        <v>27.99</v>
+        <v>34.98</v>
       </c>
       <c r="G924">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H924">
         <v>1</v>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J924" s="2">
@@ -35460,35 +35460,35 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C925">
-        <v>70366.40000000001</v>
+        <v>223808</v>
       </c>
       <c r="D925">
-        <v>3518.32</v>
+        <v>40285.44</v>
       </c>
       <c r="E925">
-        <v>73885</v>
+        <v>264094</v>
       </c>
       <c r="F925">
-        <v>25.87</v>
+        <v>34.97</v>
       </c>
       <c r="G925">
-        <v>2720</v>
+        <v>6400</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J925" s="2">
@@ -35498,7 +35498,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -35507,26 +35507,26 @@
         </is>
       </c>
       <c r="C926">
-        <v>160000</v>
+        <v>216380</v>
       </c>
       <c r="D926">
-        <v>28800</v>
+        <v>38948.4</v>
       </c>
       <c r="E926">
-        <v>188800</v>
+        <v>255328</v>
       </c>
       <c r="F926">
-        <v>25</v>
+        <v>34.9</v>
       </c>
       <c r="G926">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H926">
         <v>1</v>
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J926" s="2">
@@ -35536,35 +35536,35 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C927">
-        <v>61215.00000000001</v>
+        <v>219618</v>
       </c>
       <c r="D927">
-        <v>3060.75</v>
+        <v>219618</v>
       </c>
       <c r="E927">
-        <v>64276</v>
+        <v>219618</v>
       </c>
       <c r="F927">
-        <v>23.1</v>
+        <v>34.86</v>
       </c>
       <c r="G927">
-        <v>2650</v>
+        <v>6300</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J927" s="2">
@@ -35574,38 +35574,608 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C928">
+        <v>111456</v>
+      </c>
+      <c r="D928">
+        <v>20062.08</v>
+      </c>
+      <c r="E928">
+        <v>131518</v>
+      </c>
+      <c r="F928">
+        <v>34.83</v>
+      </c>
+      <c r="G928">
+        <v>3200</v>
+      </c>
+      <c r="H928">
+        <v>1</v>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J928" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>Kanishk Steel Industries Ltd</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C929">
+        <v>237096</v>
+      </c>
+      <c r="D929">
+        <v>42677.28</v>
+      </c>
+      <c r="E929">
+        <v>279773</v>
+      </c>
+      <c r="F929">
+        <v>32.93</v>
+      </c>
+      <c r="G929">
+        <v>7200</v>
+      </c>
+      <c r="H929">
+        <v>2</v>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J929" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C930">
+        <v>192339</v>
+      </c>
+      <c r="D930">
+        <v>192339</v>
+      </c>
+      <c r="E930">
+        <v>192339</v>
+      </c>
+      <c r="F930">
+        <v>30.53</v>
+      </c>
+      <c r="G930">
+        <v>6300</v>
+      </c>
+      <c r="H930">
+        <v>1</v>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J930" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C931">
+        <v>235482</v>
+      </c>
+      <c r="D931">
+        <v>235482</v>
+      </c>
+      <c r="E931">
+        <v>235482</v>
+      </c>
+      <c r="F931">
+        <v>30.19</v>
+      </c>
+      <c r="G931">
+        <v>7800</v>
+      </c>
+      <c r="H931">
+        <v>2</v>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J931" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C932">
+        <v>189252</v>
+      </c>
+      <c r="D932">
+        <v>34065.36</v>
+      </c>
+      <c r="E932">
+        <v>223317</v>
+      </c>
+      <c r="F932">
+        <v>30.04</v>
+      </c>
+      <c r="G932">
+        <v>6300</v>
+      </c>
+      <c r="H932">
+        <v>1</v>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J932" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>Pattambi Brothers</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C933">
+        <v>188811</v>
+      </c>
+      <c r="D933">
+        <v>33985.98</v>
+      </c>
+      <c r="E933">
+        <v>222797</v>
+      </c>
+      <c r="F933">
+        <v>29.97</v>
+      </c>
+      <c r="G933">
+        <v>6300</v>
+      </c>
+      <c r="H933">
+        <v>1</v>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J933" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>M.A.STEELS (P) LTD</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C934">
+        <v>187110</v>
+      </c>
+      <c r="D934">
+        <v>187110</v>
+      </c>
+      <c r="E934">
+        <v>187110</v>
+      </c>
+      <c r="F934">
+        <v>29.7</v>
+      </c>
+      <c r="G934">
+        <v>6300</v>
+      </c>
+      <c r="H934">
+        <v>1</v>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J934" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C935">
+        <v>176337</v>
+      </c>
+      <c r="D935">
+        <v>31740.66</v>
+      </c>
+      <c r="E935">
+        <v>208077.66</v>
+      </c>
+      <c r="F935">
+        <v>27.99</v>
+      </c>
+      <c r="G935">
+        <v>6300</v>
+      </c>
+      <c r="H935">
+        <v>1</v>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J935" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C936">
+        <v>167139</v>
+      </c>
+      <c r="D936">
+        <v>167139</v>
+      </c>
+      <c r="E936">
+        <v>167139</v>
+      </c>
+      <c r="F936">
+        <v>26.53</v>
+      </c>
+      <c r="G936">
+        <v>6300</v>
+      </c>
+      <c r="H936">
+        <v>2</v>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J936" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C937">
+        <v>70366.40000000001</v>
+      </c>
+      <c r="D937">
+        <v>3518.32</v>
+      </c>
+      <c r="E937">
+        <v>73885</v>
+      </c>
+      <c r="F937">
+        <v>25.87</v>
+      </c>
+      <c r="G937">
+        <v>2720</v>
+      </c>
+      <c r="H937">
+        <v>1</v>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J937" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C938">
+        <v>160000</v>
+      </c>
+      <c r="D938">
+        <v>28800</v>
+      </c>
+      <c r="E938">
+        <v>188800</v>
+      </c>
+      <c r="F938">
+        <v>25</v>
+      </c>
+      <c r="G938">
+        <v>6400</v>
+      </c>
+      <c r="H938">
+        <v>1</v>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J938" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C939">
+        <v>61215.00000000001</v>
+      </c>
+      <c r="D939">
+        <v>3060.75</v>
+      </c>
+      <c r="E939">
+        <v>64276</v>
+      </c>
+      <c r="F939">
+        <v>23.1</v>
+      </c>
+      <c r="G939">
+        <v>2650</v>
+      </c>
+      <c r="H939">
+        <v>1</v>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J939" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
           <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
-      <c r="B928" t="inlineStr">
+      <c r="B940" t="inlineStr">
         <is>
           <t>Quartz Powder</t>
         </is>
       </c>
-      <c r="C928">
+      <c r="C940">
         <v>91228.5</v>
       </c>
-      <c r="D928">
+      <c r="D940">
         <v>4561.43</v>
       </c>
-      <c r="E928">
+      <c r="E940">
         <v>95790</v>
       </c>
-      <c r="F928">
+      <c r="F940">
         <v>20.9</v>
       </c>
-      <c r="G928">
+      <c r="G940">
         <v>4365</v>
       </c>
-      <c r="H928">
-        <v>1</v>
-      </c>
-      <c r="I928" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J928" s="2">
+      <c r="H940">
+        <v>1</v>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J940" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C941">
+        <v>151086</v>
+      </c>
+      <c r="D941">
+        <v>246726</v>
+      </c>
+      <c r="E941">
+        <v>246726</v>
+      </c>
+      <c r="F941">
+        <v>19.37</v>
+      </c>
+      <c r="G941">
+        <v>7800.000000000001</v>
+      </c>
+      <c r="H941">
+        <v>2</v>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J941" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C942">
+        <v>75160</v>
+      </c>
+      <c r="D942">
+        <v>0</v>
+      </c>
+      <c r="E942">
+        <v>75160</v>
+      </c>
+      <c r="F942">
+        <v>18.79</v>
+      </c>
+      <c r="G942">
+        <v>4000</v>
+      </c>
+      <c r="H942">
+        <v>1</v>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J942" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C943">
+        <v>95640</v>
+      </c>
+      <c r="D943">
+        <v>0</v>
+      </c>
+      <c r="E943">
+        <v>95640</v>
+      </c>
+      <c r="F943">
+        <v>15.94</v>
+      </c>
+      <c r="G943">
+        <v>6000</v>
+      </c>
+      <c r="H943">
+        <v>1</v>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J943" s="2">
         <v>45231</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J943"/>
+  <dimension ref="A1:J941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34244,7 +34244,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -34253,22 +34253,22 @@
         </is>
       </c>
       <c r="C893">
-        <v>1313910</v>
+        <v>1578234</v>
       </c>
       <c r="D893">
-        <v>490754.16</v>
+        <v>875355.42</v>
       </c>
       <c r="E893">
-        <v>1500123</v>
+        <v>1732525</v>
       </c>
       <c r="F893">
-        <v>168.45</v>
+        <v>198.52</v>
       </c>
       <c r="G893">
-        <v>7800.000000000001</v>
+        <v>7950</v>
       </c>
       <c r="H893">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I893" t="inlineStr">
         <is>
@@ -34282,28 +34282,28 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C894">
-        <v>1183286</v>
+        <v>1313910</v>
       </c>
       <c r="D894">
-        <v>212991.48</v>
+        <v>490754.16</v>
       </c>
       <c r="E894">
-        <v>1396277</v>
+        <v>1500123</v>
       </c>
       <c r="F894">
-        <v>166.66</v>
+        <v>168.45</v>
       </c>
       <c r="G894">
-        <v>7099.999999999999</v>
+        <v>7800.000000000001</v>
       </c>
       <c r="H894">
         <v>5</v>
@@ -34320,28 +34320,28 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C895">
-        <v>651039</v>
+        <v>1183286</v>
       </c>
       <c r="D895">
-        <v>355718.0699999999</v>
+        <v>212991.48</v>
       </c>
       <c r="E895">
-        <v>721044</v>
+        <v>1396277</v>
       </c>
       <c r="F895">
-        <v>164.82</v>
+        <v>166.66</v>
       </c>
       <c r="G895">
-        <v>3950</v>
+        <v>7099.999999999999</v>
       </c>
       <c r="H895">
         <v>5</v>
@@ -34358,35 +34358,35 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C896">
-        <v>879842</v>
+        <v>651039</v>
       </c>
       <c r="D896">
-        <v>355841.5599999999</v>
+        <v>355718.0699999999</v>
       </c>
       <c r="E896">
-        <v>999153</v>
+        <v>721044</v>
       </c>
       <c r="F896">
-        <v>141.91</v>
+        <v>164.82</v>
       </c>
       <c r="G896">
-        <v>6200</v>
+        <v>3950</v>
       </c>
       <c r="H896">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J896" s="2">
@@ -34396,35 +34396,35 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C897">
-        <v>875241</v>
+        <v>879842</v>
       </c>
       <c r="D897">
-        <v>385828.1</v>
+        <v>355841.5599999999</v>
       </c>
       <c r="E897">
-        <v>982675</v>
+        <v>999153</v>
       </c>
       <c r="F897">
-        <v>110.79</v>
+        <v>141.91</v>
       </c>
       <c r="G897">
-        <v>7900</v>
+        <v>6200</v>
       </c>
       <c r="H897">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J897" s="2">
@@ -34434,7 +34434,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -34443,22 +34443,22 @@
         </is>
       </c>
       <c r="C898">
-        <v>857169</v>
+        <v>1158334</v>
       </c>
       <c r="D898">
-        <v>154290.42</v>
+        <v>555176.4399999999</v>
       </c>
       <c r="E898">
-        <v>1011460</v>
+        <v>1290735</v>
       </c>
       <c r="F898">
-        <v>107.82</v>
+        <v>134.69</v>
       </c>
       <c r="G898">
-        <v>7950.000000000001</v>
+        <v>8600</v>
       </c>
       <c r="H898">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I898" t="inlineStr">
         <is>
@@ -34472,35 +34472,35 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C899">
-        <v>775224</v>
+        <v>875241</v>
       </c>
       <c r="D899">
-        <v>139540.32</v>
+        <v>385828.1</v>
       </c>
       <c r="E899">
-        <v>914764</v>
+        <v>982675</v>
       </c>
       <c r="F899">
-        <v>107.67</v>
+        <v>110.79</v>
       </c>
       <c r="G899">
-        <v>7200.000000000001</v>
+        <v>7900</v>
       </c>
       <c r="H899">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J899" s="2">
@@ -34510,7 +34510,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -34519,22 +34519,22 @@
         </is>
       </c>
       <c r="C900">
-        <v>627060</v>
+        <v>775224</v>
       </c>
       <c r="D900">
-        <v>283053.6</v>
+        <v>139540.32</v>
       </c>
       <c r="E900">
-        <v>702574</v>
+        <v>914764</v>
       </c>
       <c r="F900">
-        <v>104.51</v>
+        <v>107.67</v>
       </c>
       <c r="G900">
-        <v>6000</v>
+        <v>7200.000000000001</v>
       </c>
       <c r="H900">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I900" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -34557,26 +34557,26 @@
         </is>
       </c>
       <c r="C901">
-        <v>613368</v>
+        <v>627060</v>
       </c>
       <c r="D901">
-        <v>110406.24</v>
+        <v>283053.6</v>
       </c>
       <c r="E901">
-        <v>723774</v>
+        <v>702574</v>
       </c>
       <c r="F901">
-        <v>97.36</v>
+        <v>104.51</v>
       </c>
       <c r="G901">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H901">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J901" s="2">
@@ -34586,31 +34586,31 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C902">
-        <v>749680</v>
+        <v>613368</v>
       </c>
       <c r="D902">
-        <v>134942.4</v>
+        <v>110406.24</v>
       </c>
       <c r="E902">
-        <v>884623</v>
+        <v>723774</v>
       </c>
       <c r="F902">
-        <v>93.71000000000001</v>
+        <v>97.36</v>
       </c>
       <c r="G902">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="H902">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I902" t="inlineStr">
         <is>
@@ -34624,7 +34624,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -34633,22 +34633,22 @@
         </is>
       </c>
       <c r="C903">
-        <v>721065</v>
+        <v>749680</v>
       </c>
       <c r="D903">
-        <v>721065</v>
+        <v>134942.4</v>
       </c>
       <c r="E903">
-        <v>721065</v>
+        <v>884623</v>
       </c>
       <c r="F903">
-        <v>90.7</v>
+        <v>93.71000000000001</v>
       </c>
       <c r="G903">
-        <v>7950</v>
+        <v>8000</v>
       </c>
       <c r="H903">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I903" t="inlineStr">
         <is>
@@ -34662,28 +34662,28 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C904">
-        <v>735558</v>
+        <v>246176</v>
       </c>
       <c r="D904">
-        <v>132400.44</v>
+        <v>93844.8</v>
       </c>
       <c r="E904">
-        <v>867959</v>
+        <v>280690</v>
       </c>
       <c r="F904">
-        <v>85.53</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="G904">
-        <v>8600</v>
+        <v>3200</v>
       </c>
       <c r="H904">
         <v>4</v>
@@ -34700,7 +34700,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -34709,26 +34709,26 @@
         </is>
       </c>
       <c r="C905">
-        <v>246176</v>
+        <v>326363</v>
       </c>
       <c r="D905">
-        <v>93844.8</v>
+        <v>58745.34</v>
       </c>
       <c r="E905">
-        <v>280690</v>
+        <v>385109</v>
       </c>
       <c r="F905">
-        <v>76.93000000000001</v>
+        <v>73.34</v>
       </c>
       <c r="G905">
-        <v>3200</v>
+        <v>4450</v>
       </c>
       <c r="H905">
         <v>4</v>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J905" s="2">
@@ -34738,35 +34738,35 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C906">
-        <v>326363</v>
+        <v>538156</v>
       </c>
       <c r="D906">
-        <v>58745.34</v>
+        <v>319849.04</v>
       </c>
       <c r="E906">
-        <v>385109</v>
+        <v>586077</v>
       </c>
       <c r="F906">
-        <v>73.34</v>
+        <v>70.81</v>
       </c>
       <c r="G906">
-        <v>4450</v>
+        <v>7600</v>
       </c>
       <c r="H906">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J906" s="2">
@@ -34776,35 +34776,35 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>SAKTHI FERRO ALLOYS INDIA PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C907">
-        <v>538156</v>
+        <v>491189.9999999999</v>
       </c>
       <c r="D907">
-        <v>319849.04</v>
+        <v>88414.20000000001</v>
       </c>
       <c r="E907">
-        <v>586077</v>
+        <v>579605</v>
       </c>
       <c r="F907">
-        <v>70.81</v>
+        <v>70.16999999999999</v>
       </c>
       <c r="G907">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="H907">
         <v>2</v>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J907" s="2">
@@ -34814,31 +34814,31 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>SAKTHI FERRO ALLOYS INDIA PRIVATE LIMITED</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C908">
-        <v>491189.9999999999</v>
+        <v>611248</v>
       </c>
       <c r="D908">
-        <v>88414.20000000001</v>
+        <v>110024.64</v>
       </c>
       <c r="E908">
-        <v>579605</v>
+        <v>721273</v>
       </c>
       <c r="F908">
-        <v>70.16999999999999</v>
+        <v>66.44</v>
       </c>
       <c r="G908">
-        <v>7000</v>
+        <v>9200</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I908" t="inlineStr">
         <is>
@@ -34852,31 +34852,31 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>AMBA FRP PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C909">
-        <v>611248</v>
+        <v>374790</v>
       </c>
       <c r="D909">
-        <v>110024.64</v>
+        <v>10912</v>
       </c>
       <c r="E909">
-        <v>721273</v>
+        <v>385702</v>
       </c>
       <c r="F909">
-        <v>66.44</v>
+        <v>60.45</v>
       </c>
       <c r="G909">
-        <v>9200</v>
+        <v>6200</v>
       </c>
       <c r="H909">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr">
         <is>
@@ -34890,31 +34890,31 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>AMBA FRP PRIVATE LIMITED</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C910">
-        <v>374790</v>
+        <v>483440</v>
       </c>
       <c r="D910">
-        <v>10912</v>
+        <v>483440</v>
       </c>
       <c r="E910">
-        <v>385702</v>
+        <v>483440</v>
       </c>
       <c r="F910">
-        <v>60.45</v>
+        <v>60.43</v>
       </c>
       <c r="G910">
-        <v>6200</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I910" t="inlineStr">
         <is>
@@ -34928,31 +34928,31 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C911">
-        <v>483440</v>
+        <v>187582.5</v>
       </c>
       <c r="D911">
-        <v>483440</v>
+        <v>33764.86</v>
       </c>
       <c r="E911">
-        <v>483440</v>
+        <v>221348</v>
       </c>
       <c r="F911">
-        <v>60.43</v>
+        <v>59.55</v>
       </c>
       <c r="G911">
-        <v>7999.999999999999</v>
+        <v>3150</v>
       </c>
       <c r="H911">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Adri Steels Pvt Limited</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -34975,26 +34975,26 @@
         </is>
       </c>
       <c r="C912">
-        <v>187582.5</v>
+        <v>348540</v>
       </c>
       <c r="D912">
-        <v>33764.86</v>
+        <v>144910.2</v>
       </c>
       <c r="E912">
-        <v>221348</v>
+        <v>395024</v>
       </c>
       <c r="F912">
-        <v>59.55</v>
+        <v>58.09</v>
       </c>
       <c r="G912">
-        <v>3150</v>
+        <v>6000</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J912" s="2">
@@ -35004,7 +35004,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Adri Steels Pvt Limited</t>
+          <t>Quartztech Minerals Pvt Ltd</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -35013,26 +35013,26 @@
         </is>
       </c>
       <c r="C913">
-        <v>348540</v>
+        <v>362565</v>
       </c>
       <c r="D913">
-        <v>144910.2</v>
+        <v>395195.85</v>
       </c>
       <c r="E913">
-        <v>395024</v>
+        <v>362565</v>
       </c>
       <c r="F913">
-        <v>58.09</v>
+        <v>57.55</v>
       </c>
       <c r="G913">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H913">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J913" s="2">
@@ -35042,31 +35042,31 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C914">
-        <v>362565</v>
+        <v>223337.5</v>
       </c>
       <c r="D914">
-        <v>395195.85</v>
+        <v>10820.54</v>
       </c>
       <c r="E914">
-        <v>362565</v>
+        <v>233813</v>
       </c>
       <c r="F914">
-        <v>57.55</v>
+        <v>52.55</v>
       </c>
       <c r="G914">
-        <v>6300</v>
+        <v>4250</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I914" t="inlineStr">
         <is>
@@ -35080,31 +35080,31 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C915">
-        <v>223337.5</v>
+        <v>312639</v>
       </c>
       <c r="D915">
-        <v>10820.54</v>
+        <v>56275.02</v>
       </c>
       <c r="E915">
-        <v>233813</v>
+        <v>368914</v>
       </c>
       <c r="F915">
-        <v>52.55</v>
+        <v>45.31</v>
       </c>
       <c r="G915">
-        <v>4250</v>
+        <v>6900</v>
       </c>
       <c r="H915">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -35127,26 +35127,26 @@
         </is>
       </c>
       <c r="C916">
-        <v>422776</v>
+        <v>327210</v>
       </c>
       <c r="D916">
-        <v>422776</v>
+        <v>58897.8</v>
       </c>
       <c r="E916">
-        <v>422776</v>
+        <v>386108</v>
       </c>
       <c r="F916">
-        <v>49.16</v>
+        <v>41.95</v>
       </c>
       <c r="G916">
-        <v>8600</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H916">
         <v>2</v>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J916" s="2">
@@ -35156,35 +35156,35 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C917">
-        <v>312639</v>
+        <v>129648</v>
       </c>
       <c r="D917">
-        <v>56275.02</v>
+        <v>129648</v>
       </c>
       <c r="E917">
-        <v>368914</v>
+        <v>129648</v>
       </c>
       <c r="F917">
-        <v>45.31</v>
+        <v>35.52</v>
       </c>
       <c r="G917">
-        <v>6900</v>
+        <v>3650</v>
       </c>
       <c r="H917">
         <v>2</v>
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J917" s="2">
@@ -35194,35 +35194,35 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>SAKTHI STEEL INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C918">
-        <v>327210</v>
+        <v>262700</v>
       </c>
       <c r="D918">
-        <v>58897.8</v>
+        <v>47286</v>
       </c>
       <c r="E918">
-        <v>386108</v>
+        <v>309986</v>
       </c>
       <c r="F918">
-        <v>41.95</v>
+        <v>35.5</v>
       </c>
       <c r="G918">
-        <v>7799.999999999999</v>
+        <v>7400</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J918" s="2">
@@ -35232,35 +35232,35 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C919">
-        <v>129648</v>
+        <v>220038</v>
       </c>
       <c r="D919">
-        <v>129648</v>
+        <v>220038</v>
       </c>
       <c r="E919">
-        <v>129648</v>
+        <v>220038</v>
       </c>
       <c r="F919">
-        <v>35.52</v>
+        <v>35.48999999999999</v>
       </c>
       <c r="G919">
-        <v>3650</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H919">
         <v>2</v>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J919" s="2">
@@ -35270,7 +35270,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>SAKTHI STEEL INDUSTRIES LTD</t>
+          <t>Pashupati Metallics</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -35279,19 +35279,19 @@
         </is>
       </c>
       <c r="C920">
-        <v>262700</v>
+        <v>267976</v>
       </c>
       <c r="D920">
-        <v>47286</v>
+        <v>48235.68</v>
       </c>
       <c r="E920">
-        <v>309986</v>
+        <v>316212</v>
       </c>
       <c r="F920">
-        <v>35.5</v>
+        <v>35.26</v>
       </c>
       <c r="G920">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="H920">
         <v>1</v>
@@ -35308,35 +35308,35 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C921">
-        <v>220038</v>
+        <v>274872</v>
       </c>
       <c r="D921">
-        <v>220038</v>
+        <v>49476.96</v>
       </c>
       <c r="E921">
-        <v>220038</v>
+        <v>324349</v>
       </c>
       <c r="F921">
-        <v>35.48999999999999</v>
+        <v>35.24</v>
       </c>
       <c r="G921">
-        <v>6200.000000000001</v>
+        <v>7800</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J921" s="2">
@@ -35346,7 +35346,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>Pashupati Metallics</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -35355,26 +35355,26 @@
         </is>
       </c>
       <c r="C922">
-        <v>267976</v>
+        <v>216876</v>
       </c>
       <c r="D922">
-        <v>48235.68</v>
+        <v>216876</v>
       </c>
       <c r="E922">
-        <v>316212</v>
+        <v>216876</v>
       </c>
       <c r="F922">
-        <v>35.26</v>
+        <v>34.98</v>
       </c>
       <c r="G922">
-        <v>7600</v>
+        <v>6200</v>
       </c>
       <c r="H922">
         <v>1</v>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J922" s="2">
@@ -35384,35 +35384,35 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C923">
-        <v>274872</v>
+        <v>223808</v>
       </c>
       <c r="D923">
-        <v>49476.96</v>
+        <v>40285.44</v>
       </c>
       <c r="E923">
-        <v>324349</v>
+        <v>264094</v>
       </c>
       <c r="F923">
-        <v>35.24</v>
+        <v>34.97</v>
       </c>
       <c r="G923">
-        <v>7800</v>
+        <v>6400</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J923" s="2">
@@ -35422,7 +35422,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -35431,16 +35431,16 @@
         </is>
       </c>
       <c r="C924">
-        <v>216876</v>
+        <v>216380</v>
       </c>
       <c r="D924">
-        <v>216876</v>
+        <v>38948.4</v>
       </c>
       <c r="E924">
-        <v>216876</v>
+        <v>255328</v>
       </c>
       <c r="F924">
-        <v>34.98</v>
+        <v>34.9</v>
       </c>
       <c r="G924">
         <v>6200</v>
@@ -35460,7 +35460,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -35469,26 +35469,26 @@
         </is>
       </c>
       <c r="C925">
-        <v>223808</v>
+        <v>219618</v>
       </c>
       <c r="D925">
-        <v>40285.44</v>
+        <v>219618</v>
       </c>
       <c r="E925">
-        <v>264094</v>
+        <v>219618</v>
       </c>
       <c r="F925">
-        <v>34.97</v>
+        <v>34.86</v>
       </c>
       <c r="G925">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H925">
         <v>2</v>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J925" s="2">
@@ -35498,35 +35498,35 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C926">
-        <v>216380</v>
+        <v>111456</v>
       </c>
       <c r="D926">
-        <v>38948.4</v>
+        <v>20062.08</v>
       </c>
       <c r="E926">
-        <v>255328</v>
+        <v>131518</v>
       </c>
       <c r="F926">
-        <v>34.9</v>
+        <v>34.83</v>
       </c>
       <c r="G926">
-        <v>6200</v>
+        <v>3200</v>
       </c>
       <c r="H926">
         <v>1</v>
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J926" s="2">
@@ -35536,7 +35536,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -35545,26 +35545,26 @@
         </is>
       </c>
       <c r="C927">
-        <v>219618</v>
+        <v>237096</v>
       </c>
       <c r="D927">
-        <v>219618</v>
+        <v>42677.28</v>
       </c>
       <c r="E927">
-        <v>219618</v>
+        <v>279773</v>
       </c>
       <c r="F927">
-        <v>34.86</v>
+        <v>32.93</v>
       </c>
       <c r="G927">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="H927">
         <v>2</v>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J927" s="2">
@@ -35574,35 +35574,35 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C928">
-        <v>111456</v>
+        <v>192339</v>
       </c>
       <c r="D928">
-        <v>20062.08</v>
+        <v>192339</v>
       </c>
       <c r="E928">
-        <v>131518</v>
+        <v>192339</v>
       </c>
       <c r="F928">
-        <v>34.83</v>
+        <v>30.53</v>
       </c>
       <c r="G928">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H928">
         <v>1</v>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J928" s="2">
@@ -35612,35 +35612,35 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C929">
-        <v>237096</v>
+        <v>235482</v>
       </c>
       <c r="D929">
-        <v>42677.28</v>
+        <v>235482</v>
       </c>
       <c r="E929">
-        <v>279773</v>
+        <v>235482</v>
       </c>
       <c r="F929">
-        <v>32.93</v>
+        <v>30.19</v>
       </c>
       <c r="G929">
-        <v>7200</v>
+        <v>7800</v>
       </c>
       <c r="H929">
         <v>2</v>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J929" s="2">
@@ -35650,7 +35650,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -35659,16 +35659,16 @@
         </is>
       </c>
       <c r="C930">
-        <v>192339</v>
+        <v>189252</v>
       </c>
       <c r="D930">
-        <v>192339</v>
+        <v>34065.36</v>
       </c>
       <c r="E930">
-        <v>192339</v>
+        <v>223317</v>
       </c>
       <c r="F930">
-        <v>30.53</v>
+        <v>30.04</v>
       </c>
       <c r="G930">
         <v>6300</v>
@@ -35688,35 +35688,35 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C931">
-        <v>235482</v>
+        <v>188811</v>
       </c>
       <c r="D931">
-        <v>235482</v>
+        <v>33985.98</v>
       </c>
       <c r="E931">
-        <v>235482</v>
+        <v>222797</v>
       </c>
       <c r="F931">
-        <v>30.19</v>
+        <v>29.97</v>
       </c>
       <c r="G931">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J931" s="2">
@@ -35726,7 +35726,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -35735,16 +35735,16 @@
         </is>
       </c>
       <c r="C932">
-        <v>189252</v>
+        <v>187110</v>
       </c>
       <c r="D932">
-        <v>34065.36</v>
+        <v>187110</v>
       </c>
       <c r="E932">
-        <v>223317</v>
+        <v>187110</v>
       </c>
       <c r="F932">
-        <v>30.04</v>
+        <v>29.7</v>
       </c>
       <c r="G932">
         <v>6300</v>
@@ -35764,7 +35764,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -35773,16 +35773,16 @@
         </is>
       </c>
       <c r="C933">
-        <v>188811</v>
+        <v>176337</v>
       </c>
       <c r="D933">
-        <v>33985.98</v>
+        <v>31740.66</v>
       </c>
       <c r="E933">
-        <v>222797</v>
+        <v>208077.66</v>
       </c>
       <c r="F933">
-        <v>29.97</v>
+        <v>27.99</v>
       </c>
       <c r="G933">
         <v>6300</v>
@@ -35802,7 +35802,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -35811,22 +35811,22 @@
         </is>
       </c>
       <c r="C934">
-        <v>187110</v>
+        <v>167139</v>
       </c>
       <c r="D934">
-        <v>187110</v>
+        <v>167139</v>
       </c>
       <c r="E934">
-        <v>187110</v>
+        <v>167139</v>
       </c>
       <c r="F934">
-        <v>29.7</v>
+        <v>26.53</v>
       </c>
       <c r="G934">
         <v>6300</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr">
         <is>
@@ -35840,35 +35840,35 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C935">
-        <v>176337</v>
+        <v>70366.40000000001</v>
       </c>
       <c r="D935">
-        <v>31740.66</v>
+        <v>3518.32</v>
       </c>
       <c r="E935">
-        <v>208077.66</v>
+        <v>73885</v>
       </c>
       <c r="F935">
-        <v>27.99</v>
+        <v>25.87</v>
       </c>
       <c r="G935">
-        <v>6300</v>
+        <v>2720</v>
       </c>
       <c r="H935">
         <v>1</v>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J935" s="2">
@@ -35878,7 +35878,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -35887,26 +35887,26 @@
         </is>
       </c>
       <c r="C936">
-        <v>167139</v>
+        <v>160000</v>
       </c>
       <c r="D936">
-        <v>167139</v>
+        <v>28800</v>
       </c>
       <c r="E936">
-        <v>167139</v>
+        <v>188800</v>
       </c>
       <c r="F936">
-        <v>26.53</v>
+        <v>25</v>
       </c>
       <c r="G936">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J936" s="2">
@@ -35916,7 +35916,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -35925,19 +35925,19 @@
         </is>
       </c>
       <c r="C937">
-        <v>70366.40000000001</v>
+        <v>61215.00000000001</v>
       </c>
       <c r="D937">
-        <v>3518.32</v>
+        <v>3060.75</v>
       </c>
       <c r="E937">
-        <v>73885</v>
+        <v>64276</v>
       </c>
       <c r="F937">
-        <v>25.87</v>
+        <v>23.1</v>
       </c>
       <c r="G937">
-        <v>2720</v>
+        <v>2650</v>
       </c>
       <c r="H937">
         <v>1</v>
@@ -35954,28 +35954,28 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C938">
-        <v>160000</v>
+        <v>91228.5</v>
       </c>
       <c r="D938">
-        <v>28800</v>
+        <v>4561.43</v>
       </c>
       <c r="E938">
-        <v>188800</v>
+        <v>95790</v>
       </c>
       <c r="F938">
-        <v>25</v>
+        <v>20.9</v>
       </c>
       <c r="G938">
-        <v>6400</v>
+        <v>4365</v>
       </c>
       <c r="H938">
         <v>1</v>
@@ -35992,35 +35992,35 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C939">
-        <v>61215.00000000001</v>
+        <v>151086</v>
       </c>
       <c r="D939">
-        <v>3060.75</v>
+        <v>246726</v>
       </c>
       <c r="E939">
-        <v>64276</v>
+        <v>246726</v>
       </c>
       <c r="F939">
-        <v>23.1</v>
+        <v>19.37</v>
       </c>
       <c r="G939">
-        <v>2650</v>
+        <v>7800.000000000001</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J939" s="2">
@@ -36030,7 +36030,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -36039,19 +36039,19 @@
         </is>
       </c>
       <c r="C940">
-        <v>91228.5</v>
+        <v>75160</v>
       </c>
       <c r="D940">
-        <v>4561.43</v>
+        <v>0</v>
       </c>
       <c r="E940">
-        <v>95790</v>
+        <v>75160</v>
       </c>
       <c r="F940">
-        <v>20.9</v>
+        <v>18.79</v>
       </c>
       <c r="G940">
-        <v>4365</v>
+        <v>4000</v>
       </c>
       <c r="H940">
         <v>1</v>
@@ -36073,26 +36073,26 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C941">
-        <v>151086</v>
+        <v>95640</v>
       </c>
       <c r="D941">
-        <v>246726</v>
+        <v>0</v>
       </c>
       <c r="E941">
-        <v>246726</v>
+        <v>95640</v>
       </c>
       <c r="F941">
-        <v>19.37</v>
+        <v>15.94</v>
       </c>
       <c r="G941">
-        <v>7800.000000000001</v>
+        <v>6000</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I941" t="inlineStr">
         <is>
@@ -36100,82 +36100,6 @@
         </is>
       </c>
       <c r="J941" s="2">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>Ardex Endura (India) Private Ltd</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr">
-        <is>
-          <t>Quartz Powder</t>
-        </is>
-      </c>
-      <c r="C942">
-        <v>75160</v>
-      </c>
-      <c r="D942">
-        <v>0</v>
-      </c>
-      <c r="E942">
-        <v>75160</v>
-      </c>
-      <c r="F942">
-        <v>18.79</v>
-      </c>
-      <c r="G942">
-        <v>4000</v>
-      </c>
-      <c r="H942">
-        <v>1</v>
-      </c>
-      <c r="I942" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J942" s="2">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>Meenakshi Steels</t>
-        </is>
-      </c>
-      <c r="B943" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C943">
-        <v>95640</v>
-      </c>
-      <c r="D943">
-        <v>0</v>
-      </c>
-      <c r="E943">
-        <v>95640</v>
-      </c>
-      <c r="F943">
-        <v>15.94</v>
-      </c>
-      <c r="G943">
-        <v>6000</v>
-      </c>
-      <c r="H943">
-        <v>1</v>
-      </c>
-      <c r="I943" t="inlineStr">
-        <is>
-          <t>Abhijit Maloo</t>
-        </is>
-      </c>
-      <c r="J943" s="2">
         <v>45231</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J941"/>
+  <dimension ref="A1:J946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34168,7 +34168,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>Sugna Metals Ltd.</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -34177,26 +34177,26 @@
         </is>
       </c>
       <c r="C891">
-        <v>2086812</v>
+        <v>2158494</v>
       </c>
       <c r="D891">
-        <v>618565.92</v>
+        <v>990302.04</v>
       </c>
       <c r="E891">
-        <v>2409110</v>
+        <v>2403899.76</v>
       </c>
       <c r="F891">
-        <v>248.43</v>
+        <v>276.73</v>
       </c>
       <c r="G891">
-        <v>8400</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H891">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J891" s="2">
@@ -34206,7 +34206,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>Sugna Metals Ltd.</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -34215,26 +34215,26 @@
         </is>
       </c>
       <c r="C892">
-        <v>1879410</v>
+        <v>2086812</v>
       </c>
       <c r="D892">
-        <v>990302.04</v>
+        <v>618565.92</v>
       </c>
       <c r="E892">
-        <v>2074580.76</v>
+        <v>2409110</v>
       </c>
       <c r="F892">
-        <v>240.95</v>
+        <v>248.43</v>
       </c>
       <c r="G892">
-        <v>7800</v>
+        <v>8400</v>
       </c>
       <c r="H892">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J892" s="2">
@@ -34282,31 +34282,31 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C894">
-        <v>1313910</v>
+        <v>1396712</v>
       </c>
       <c r="D894">
-        <v>490754.16</v>
+        <v>212991.48</v>
       </c>
       <c r="E894">
-        <v>1500123</v>
+        <v>1648120</v>
       </c>
       <c r="F894">
-        <v>168.45</v>
+        <v>196.72</v>
       </c>
       <c r="G894">
-        <v>7800.000000000001</v>
+        <v>7099.999999999999</v>
       </c>
       <c r="H894">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I894" t="inlineStr">
         <is>
@@ -34320,28 +34320,28 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C895">
-        <v>1183286</v>
+        <v>1313910</v>
       </c>
       <c r="D895">
-        <v>212991.48</v>
+        <v>490754.16</v>
       </c>
       <c r="E895">
-        <v>1396277</v>
+        <v>1500123</v>
       </c>
       <c r="F895">
-        <v>166.66</v>
+        <v>168.45</v>
       </c>
       <c r="G895">
-        <v>7099.999999999999</v>
+        <v>7800.000000000001</v>
       </c>
       <c r="H895">
         <v>5</v>
@@ -34434,35 +34434,35 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C898">
-        <v>1158334</v>
+        <v>840360</v>
       </c>
       <c r="D898">
-        <v>555176.4399999999</v>
+        <v>283053.6</v>
       </c>
       <c r="E898">
-        <v>1290735</v>
+        <v>954268</v>
       </c>
       <c r="F898">
-        <v>134.69</v>
+        <v>140.06</v>
       </c>
       <c r="G898">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="H898">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J898" s="2">
@@ -34472,7 +34472,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -34481,26 +34481,26 @@
         </is>
       </c>
       <c r="C899">
-        <v>875241</v>
+        <v>1158334</v>
       </c>
       <c r="D899">
-        <v>385828.1</v>
+        <v>555176.4399999999</v>
       </c>
       <c r="E899">
-        <v>982675</v>
+        <v>1290735</v>
       </c>
       <c r="F899">
-        <v>110.79</v>
+        <v>134.69</v>
       </c>
       <c r="G899">
-        <v>7900</v>
+        <v>8600</v>
       </c>
       <c r="H899">
         <v>6</v>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J899" s="2">
@@ -34510,35 +34510,35 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C900">
-        <v>775224</v>
+        <v>875241</v>
       </c>
       <c r="D900">
-        <v>139540.32</v>
+        <v>385828.1</v>
       </c>
       <c r="E900">
-        <v>914764</v>
+        <v>982675</v>
       </c>
       <c r="F900">
-        <v>107.67</v>
+        <v>110.79</v>
       </c>
       <c r="G900">
-        <v>7200.000000000001</v>
+        <v>7900</v>
       </c>
       <c r="H900">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J900" s="2">
@@ -34548,7 +34548,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -34557,22 +34557,22 @@
         </is>
       </c>
       <c r="C901">
-        <v>627060</v>
+        <v>775224</v>
       </c>
       <c r="D901">
-        <v>283053.6</v>
+        <v>139540.32</v>
       </c>
       <c r="E901">
-        <v>702574</v>
+        <v>914764</v>
       </c>
       <c r="F901">
-        <v>104.51</v>
+        <v>107.67</v>
       </c>
       <c r="G901">
-        <v>6000</v>
+        <v>7200.000000000001</v>
       </c>
       <c r="H901">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I901" t="inlineStr">
         <is>
@@ -34624,28 +34624,28 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C903">
-        <v>749680</v>
+        <v>310976</v>
       </c>
       <c r="D903">
-        <v>134942.4</v>
+        <v>93844.8</v>
       </c>
       <c r="E903">
-        <v>884623</v>
+        <v>357154</v>
       </c>
       <c r="F903">
-        <v>93.71000000000001</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="G903">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="H903">
         <v>5</v>
@@ -34662,31 +34662,31 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C904">
-        <v>246176</v>
+        <v>749680</v>
       </c>
       <c r="D904">
-        <v>93844.8</v>
+        <v>134942.4</v>
       </c>
       <c r="E904">
-        <v>280690</v>
+        <v>884623</v>
       </c>
       <c r="F904">
-        <v>76.93000000000001</v>
+        <v>93.71000000000001</v>
       </c>
       <c r="G904">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="H904">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I904" t="inlineStr">
         <is>
@@ -34700,35 +34700,35 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C905">
-        <v>326363</v>
+        <v>607200</v>
       </c>
       <c r="D905">
-        <v>58745.34</v>
+        <v>56275.02</v>
       </c>
       <c r="E905">
-        <v>385109</v>
+        <v>716496</v>
       </c>
       <c r="F905">
-        <v>73.34</v>
+        <v>88</v>
       </c>
       <c r="G905">
-        <v>4450</v>
+        <v>6900</v>
       </c>
       <c r="H905">
         <v>4</v>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J905" s="2">
@@ -34738,35 +34738,35 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C906">
-        <v>538156</v>
+        <v>250645.5</v>
       </c>
       <c r="D906">
-        <v>319849.04</v>
+        <v>33764.86</v>
       </c>
       <c r="E906">
-        <v>586077</v>
+        <v>284411</v>
       </c>
       <c r="F906">
-        <v>70.81</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="G906">
-        <v>7600</v>
+        <v>3150</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J906" s="2">
@@ -34776,35 +34776,35 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>SAKTHI FERRO ALLOYS INDIA PRIVATE LIMITED</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C907">
-        <v>491189.9999999999</v>
+        <v>326363</v>
       </c>
       <c r="D907">
-        <v>88414.20000000001</v>
+        <v>58745.34</v>
       </c>
       <c r="E907">
-        <v>579605</v>
+        <v>385109</v>
       </c>
       <c r="F907">
-        <v>70.16999999999999</v>
+        <v>73.34</v>
       </c>
       <c r="G907">
-        <v>7000</v>
+        <v>4450</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J907" s="2">
@@ -34814,35 +34814,35 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
+          <t>Adri Steels Pvt Limited</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C908">
-        <v>611248</v>
+        <v>430860</v>
       </c>
       <c r="D908">
-        <v>110024.64</v>
+        <v>144910.2</v>
       </c>
       <c r="E908">
-        <v>721273</v>
+        <v>492162</v>
       </c>
       <c r="F908">
-        <v>66.44</v>
+        <v>71.81</v>
       </c>
       <c r="G908">
-        <v>9200</v>
+        <v>6000</v>
       </c>
       <c r="H908">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J908" s="2">
@@ -34852,35 +34852,35 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>AMBA FRP PRIVATE LIMITED</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C909">
-        <v>374790</v>
+        <v>538156</v>
       </c>
       <c r="D909">
-        <v>10912</v>
+        <v>319849.04</v>
       </c>
       <c r="E909">
-        <v>385702</v>
+        <v>586077</v>
       </c>
       <c r="F909">
-        <v>60.45</v>
+        <v>70.81</v>
       </c>
       <c r="G909">
-        <v>6200</v>
+        <v>7600</v>
       </c>
       <c r="H909">
         <v>2</v>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J909" s="2">
@@ -34890,31 +34890,31 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+          <t>SAKTHI FERRO ALLOYS INDIA PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C910">
-        <v>483440</v>
+        <v>491189.9999999999</v>
       </c>
       <c r="D910">
-        <v>483440</v>
+        <v>88414.20000000001</v>
       </c>
       <c r="E910">
-        <v>483440</v>
+        <v>579605</v>
       </c>
       <c r="F910">
-        <v>60.43</v>
+        <v>70.16999999999999</v>
       </c>
       <c r="G910">
-        <v>7999.999999999999</v>
+        <v>7000</v>
       </c>
       <c r="H910">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -34937,26 +34937,26 @@
         </is>
       </c>
       <c r="C911">
-        <v>187582.5</v>
+        <v>438543</v>
       </c>
       <c r="D911">
-        <v>33764.86</v>
+        <v>219618</v>
       </c>
       <c r="E911">
-        <v>221348</v>
+        <v>477950</v>
       </c>
       <c r="F911">
-        <v>59.55</v>
+        <v>69.61</v>
       </c>
       <c r="G911">
-        <v>3150</v>
+        <v>6300</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J911" s="2">
@@ -34966,35 +34966,35 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>Adri Steels Pvt Limited</t>
+          <t>JEPPIAAR FURNACE AND STEELS PVT.LTD</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C912">
-        <v>348540</v>
+        <v>611248</v>
       </c>
       <c r="D912">
-        <v>144910.2</v>
+        <v>110024.64</v>
       </c>
       <c r="E912">
-        <v>395024</v>
+        <v>721273</v>
       </c>
       <c r="F912">
-        <v>58.09</v>
+        <v>66.44</v>
       </c>
       <c r="G912">
-        <v>6000</v>
+        <v>9200</v>
       </c>
       <c r="H912">
         <v>4</v>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J912" s="2">
@@ -35004,7 +35004,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -35013,26 +35013,26 @@
         </is>
       </c>
       <c r="C913">
-        <v>362565</v>
+        <v>409138</v>
       </c>
       <c r="D913">
-        <v>395195.85</v>
+        <v>220038</v>
       </c>
       <c r="E913">
-        <v>362565</v>
+        <v>443176</v>
       </c>
       <c r="F913">
-        <v>57.55</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="G913">
-        <v>6300</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J913" s="2">
@@ -35042,31 +35042,31 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>AMBA FRP PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C914">
-        <v>223337.5</v>
+        <v>374790</v>
       </c>
       <c r="D914">
-        <v>10820.54</v>
+        <v>10912</v>
       </c>
       <c r="E914">
-        <v>233813</v>
+        <v>385702</v>
       </c>
       <c r="F914">
-        <v>52.55</v>
+        <v>60.45</v>
       </c>
       <c r="G914">
-        <v>4250</v>
+        <v>6200</v>
       </c>
       <c r="H914">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr">
         <is>
@@ -35080,31 +35080,31 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>Sri Navdurga Billets Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C915">
-        <v>312639</v>
+        <v>483440</v>
       </c>
       <c r="D915">
-        <v>56275.02</v>
+        <v>483440</v>
       </c>
       <c r="E915">
-        <v>368914</v>
+        <v>483440</v>
       </c>
       <c r="F915">
-        <v>45.31</v>
+        <v>60.43</v>
       </c>
       <c r="G915">
-        <v>6900</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I915" t="inlineStr">
         <is>
@@ -35118,35 +35118,35 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Quartztech Minerals Pvt Ltd</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C916">
-        <v>327210</v>
+        <v>362565</v>
       </c>
       <c r="D916">
-        <v>58897.8</v>
+        <v>395195.85</v>
       </c>
       <c r="E916">
-        <v>386108</v>
+        <v>362565</v>
       </c>
       <c r="F916">
-        <v>41.95</v>
+        <v>57.55</v>
       </c>
       <c r="G916">
-        <v>7799.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H916">
         <v>2</v>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J916" s="2">
@@ -35156,35 +35156,35 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C917">
-        <v>129648</v>
+        <v>223337.5</v>
       </c>
       <c r="D917">
-        <v>129648</v>
+        <v>10820.54</v>
       </c>
       <c r="E917">
-        <v>129648</v>
+        <v>233813</v>
       </c>
       <c r="F917">
-        <v>35.52</v>
+        <v>52.55</v>
       </c>
       <c r="G917">
-        <v>3650</v>
+        <v>4250</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J917" s="2">
@@ -35194,35 +35194,35 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>SAKTHI STEEL INDUSTRIES LTD</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C918">
-        <v>262700</v>
+        <v>327210</v>
       </c>
       <c r="D918">
-        <v>47286</v>
+        <v>58897.8</v>
       </c>
       <c r="E918">
-        <v>309986</v>
+        <v>386108</v>
       </c>
       <c r="F918">
-        <v>35.5</v>
+        <v>41.95</v>
       </c>
       <c r="G918">
-        <v>7400</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J918" s="2">
@@ -35232,35 +35232,35 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C919">
-        <v>220038</v>
+        <v>130711.4</v>
       </c>
       <c r="D919">
-        <v>220038</v>
+        <v>3518.32</v>
       </c>
       <c r="E919">
-        <v>220038</v>
+        <v>116440</v>
       </c>
       <c r="F919">
-        <v>35.48999999999999</v>
+        <v>40.77</v>
       </c>
       <c r="G919">
-        <v>6200.000000000001</v>
+        <v>3206.068187392691</v>
       </c>
       <c r="H919">
         <v>2</v>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J919" s="2">
@@ -35270,35 +35270,35 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>Pashupati Metallics</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C920">
-        <v>267976</v>
+        <v>129648</v>
       </c>
       <c r="D920">
-        <v>48235.68</v>
+        <v>129648</v>
       </c>
       <c r="E920">
-        <v>316212</v>
+        <v>129648</v>
       </c>
       <c r="F920">
-        <v>35.26</v>
+        <v>35.52</v>
       </c>
       <c r="G920">
-        <v>7600</v>
+        <v>3650</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J920" s="2">
@@ -35308,28 +35308,28 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+          <t>SAKTHI STEEL INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C921">
-        <v>274872</v>
+        <v>262700</v>
       </c>
       <c r="D921">
-        <v>49476.96</v>
+        <v>47286</v>
       </c>
       <c r="E921">
-        <v>324349</v>
+        <v>309986</v>
       </c>
       <c r="F921">
-        <v>35.24</v>
+        <v>35.5</v>
       </c>
       <c r="G921">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="H921">
         <v>1</v>
@@ -35346,7 +35346,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>Pashupati Metallics</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -35355,26 +35355,26 @@
         </is>
       </c>
       <c r="C922">
-        <v>216876</v>
+        <v>267976</v>
       </c>
       <c r="D922">
-        <v>216876</v>
+        <v>48235.68</v>
       </c>
       <c r="E922">
-        <v>216876</v>
+        <v>316212</v>
       </c>
       <c r="F922">
-        <v>34.98</v>
+        <v>35.26</v>
       </c>
       <c r="G922">
-        <v>6200</v>
+        <v>7600</v>
       </c>
       <c r="H922">
         <v>1</v>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J922" s="2">
@@ -35384,35 +35384,35 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C923">
-        <v>223808</v>
+        <v>274872</v>
       </c>
       <c r="D923">
-        <v>40285.44</v>
+        <v>49476.96</v>
       </c>
       <c r="E923">
-        <v>264094</v>
+        <v>324349</v>
       </c>
       <c r="F923">
-        <v>34.97</v>
+        <v>35.24</v>
       </c>
       <c r="G923">
-        <v>6400</v>
+        <v>7800</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J923" s="2">
@@ -35422,7 +35422,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -35431,16 +35431,16 @@
         </is>
       </c>
       <c r="C924">
-        <v>216380</v>
+        <v>216876</v>
       </c>
       <c r="D924">
-        <v>38948.4</v>
+        <v>216876</v>
       </c>
       <c r="E924">
-        <v>255328</v>
+        <v>216876</v>
       </c>
       <c r="F924">
-        <v>34.9</v>
+        <v>34.98</v>
       </c>
       <c r="G924">
         <v>6200</v>
@@ -35460,7 +35460,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -35469,26 +35469,26 @@
         </is>
       </c>
       <c r="C925">
-        <v>219618</v>
+        <v>223808</v>
       </c>
       <c r="D925">
-        <v>219618</v>
+        <v>40285.44</v>
       </c>
       <c r="E925">
-        <v>219618</v>
+        <v>264094</v>
       </c>
       <c r="F925">
-        <v>34.86</v>
+        <v>34.97</v>
       </c>
       <c r="G925">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H925">
         <v>2</v>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J925" s="2">
@@ -35498,35 +35498,35 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C926">
-        <v>111456</v>
+        <v>216380</v>
       </c>
       <c r="D926">
-        <v>20062.08</v>
+        <v>38948.4</v>
       </c>
       <c r="E926">
-        <v>131518</v>
+        <v>255328</v>
       </c>
       <c r="F926">
-        <v>34.83</v>
+        <v>34.9</v>
       </c>
       <c r="G926">
-        <v>3200</v>
+        <v>6200</v>
       </c>
       <c r="H926">
         <v>1</v>
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J926" s="2">
@@ -35536,35 +35536,35 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>Kanishk Steel Industries Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C927">
-        <v>237096</v>
+        <v>111456</v>
       </c>
       <c r="D927">
-        <v>42677.28</v>
+        <v>20062.08</v>
       </c>
       <c r="E927">
-        <v>279773</v>
+        <v>131518</v>
       </c>
       <c r="F927">
-        <v>32.93</v>
+        <v>34.83</v>
       </c>
       <c r="G927">
-        <v>7200</v>
+        <v>3200</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J927" s="2">
@@ -35574,7 +35574,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>Kanishk Steel Industries Ltd</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -35583,26 +35583,26 @@
         </is>
       </c>
       <c r="C928">
-        <v>192339</v>
+        <v>237096</v>
       </c>
       <c r="D928">
-        <v>192339</v>
+        <v>42677.28</v>
       </c>
       <c r="E928">
-        <v>192339</v>
+        <v>279773</v>
       </c>
       <c r="F928">
-        <v>30.53</v>
+        <v>32.93</v>
       </c>
       <c r="G928">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J928" s="2">
@@ -35612,7 +35612,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -35621,22 +35621,22 @@
         </is>
       </c>
       <c r="C929">
-        <v>235482</v>
+        <v>251697</v>
       </c>
       <c r="D929">
-        <v>235482</v>
+        <v>0</v>
       </c>
       <c r="E929">
-        <v>235482</v>
+        <v>297003</v>
       </c>
       <c r="F929">
-        <v>30.19</v>
+        <v>31.66</v>
       </c>
       <c r="G929">
-        <v>7800</v>
+        <v>7950</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I929" t="inlineStr">
         <is>
@@ -35650,7 +35650,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -35659,16 +35659,16 @@
         </is>
       </c>
       <c r="C930">
-        <v>189252</v>
+        <v>192339</v>
       </c>
       <c r="D930">
-        <v>34065.36</v>
+        <v>192339</v>
       </c>
       <c r="E930">
-        <v>223317</v>
+        <v>192339</v>
       </c>
       <c r="F930">
-        <v>30.04</v>
+        <v>30.53</v>
       </c>
       <c r="G930">
         <v>6300</v>
@@ -35688,35 +35688,35 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C931">
-        <v>188811</v>
+        <v>235482</v>
       </c>
       <c r="D931">
-        <v>33985.98</v>
+        <v>235482</v>
       </c>
       <c r="E931">
-        <v>222797</v>
+        <v>235482</v>
       </c>
       <c r="F931">
-        <v>29.97</v>
+        <v>30.19</v>
       </c>
       <c r="G931">
-        <v>6300</v>
+        <v>7800</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J931" s="2">
@@ -35726,7 +35726,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -35735,16 +35735,16 @@
         </is>
       </c>
       <c r="C932">
-        <v>187110</v>
+        <v>189252</v>
       </c>
       <c r="D932">
-        <v>187110</v>
+        <v>34065.36</v>
       </c>
       <c r="E932">
-        <v>187110</v>
+        <v>223317</v>
       </c>
       <c r="F932">
-        <v>29.7</v>
+        <v>30.04</v>
       </c>
       <c r="G932">
         <v>6300</v>
@@ -35764,7 +35764,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -35773,16 +35773,16 @@
         </is>
       </c>
       <c r="C933">
-        <v>176337</v>
+        <v>188811</v>
       </c>
       <c r="D933">
-        <v>31740.66</v>
+        <v>33985.98</v>
       </c>
       <c r="E933">
-        <v>208077.66</v>
+        <v>222797</v>
       </c>
       <c r="F933">
-        <v>27.99</v>
+        <v>29.97</v>
       </c>
       <c r="G933">
         <v>6300</v>
@@ -35802,7 +35802,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -35811,22 +35811,22 @@
         </is>
       </c>
       <c r="C934">
-        <v>167139</v>
+        <v>187110</v>
       </c>
       <c r="D934">
-        <v>167139</v>
+        <v>187110</v>
       </c>
       <c r="E934">
-        <v>167139</v>
+        <v>187110</v>
       </c>
       <c r="F934">
-        <v>26.53</v>
+        <v>29.7</v>
       </c>
       <c r="G934">
         <v>6300</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I934" t="inlineStr">
         <is>
@@ -35840,35 +35840,35 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C935">
-        <v>70366.40000000001</v>
+        <v>176337</v>
       </c>
       <c r="D935">
-        <v>3518.32</v>
+        <v>31740.66</v>
       </c>
       <c r="E935">
-        <v>73885</v>
+        <v>208077.66</v>
       </c>
       <c r="F935">
-        <v>25.87</v>
+        <v>27.99</v>
       </c>
       <c r="G935">
-        <v>2720</v>
+        <v>6300</v>
       </c>
       <c r="H935">
         <v>1</v>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J935" s="2">
@@ -35878,7 +35878,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -35887,26 +35887,26 @@
         </is>
       </c>
       <c r="C936">
-        <v>160000</v>
+        <v>167139</v>
       </c>
       <c r="D936">
-        <v>28800</v>
+        <v>167139</v>
       </c>
       <c r="E936">
-        <v>188800</v>
+        <v>167139</v>
       </c>
       <c r="F936">
-        <v>25</v>
+        <v>26.53</v>
       </c>
       <c r="G936">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J936" s="2">
@@ -35916,35 +35916,35 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C937">
-        <v>61215.00000000001</v>
+        <v>168474</v>
       </c>
       <c r="D937">
-        <v>3060.75</v>
+        <v>0</v>
       </c>
       <c r="E937">
-        <v>64276</v>
+        <v>168474</v>
       </c>
       <c r="F937">
-        <v>23.1</v>
+        <v>26.12</v>
       </c>
       <c r="G937">
-        <v>2650</v>
+        <v>6450</v>
       </c>
       <c r="H937">
         <v>1</v>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J937" s="2">
@@ -35954,28 +35954,28 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C938">
-        <v>91228.5</v>
+        <v>160000</v>
       </c>
       <c r="D938">
-        <v>4561.43</v>
+        <v>28800</v>
       </c>
       <c r="E938">
-        <v>95790</v>
+        <v>188800</v>
       </c>
       <c r="F938">
-        <v>20.9</v>
+        <v>25</v>
       </c>
       <c r="G938">
-        <v>4365</v>
+        <v>6400</v>
       </c>
       <c r="H938">
         <v>1</v>
@@ -35992,35 +35992,35 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C939">
-        <v>151086</v>
+        <v>61215.00000000001</v>
       </c>
       <c r="D939">
-        <v>246726</v>
+        <v>3060.75</v>
       </c>
       <c r="E939">
-        <v>246726</v>
+        <v>64276</v>
       </c>
       <c r="F939">
-        <v>19.37</v>
+        <v>23.1</v>
       </c>
       <c r="G939">
-        <v>7800.000000000001</v>
+        <v>2650</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J939" s="2">
@@ -36030,7 +36030,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -36039,19 +36039,19 @@
         </is>
       </c>
       <c r="C940">
-        <v>75160</v>
+        <v>91228.5</v>
       </c>
       <c r="D940">
-        <v>0</v>
+        <v>4561.43</v>
       </c>
       <c r="E940">
-        <v>75160</v>
+        <v>95790</v>
       </c>
       <c r="F940">
-        <v>18.79</v>
+        <v>20.9</v>
       </c>
       <c r="G940">
-        <v>4000</v>
+        <v>4365</v>
       </c>
       <c r="H940">
         <v>1</v>
@@ -36073,33 +36073,223 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C941">
+        <v>151086</v>
+      </c>
+      <c r="D941">
+        <v>246726</v>
+      </c>
+      <c r="E941">
+        <v>246726</v>
+      </c>
+      <c r="F941">
+        <v>19.37</v>
+      </c>
+      <c r="G941">
+        <v>7800.000000000001</v>
+      </c>
+      <c r="H941">
+        <v>2</v>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J941" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C942">
+        <v>75160</v>
+      </c>
+      <c r="D942">
+        <v>0</v>
+      </c>
+      <c r="E942">
+        <v>75160</v>
+      </c>
+      <c r="F942">
+        <v>18.79</v>
+      </c>
+      <c r="G942">
+        <v>4000</v>
+      </c>
+      <c r="H942">
+        <v>1</v>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J942" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C943">
         <v>95640</v>
       </c>
-      <c r="D941">
+      <c r="D943">
         <v>0</v>
       </c>
-      <c r="E941">
+      <c r="E943">
         <v>95640</v>
       </c>
-      <c r="F941">
+      <c r="F943">
         <v>15.94</v>
       </c>
-      <c r="G941">
+      <c r="G943">
         <v>6000</v>
       </c>
-      <c r="H941">
-        <v>1</v>
-      </c>
-      <c r="I941" t="inlineStr">
+      <c r="H943">
+        <v>1</v>
+      </c>
+      <c r="I943" t="inlineStr">
         <is>
           <t>Abhijit Maloo</t>
         </is>
       </c>
-      <c r="J941" s="2">
+      <c r="J943" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C944">
+        <v>14616.5</v>
+      </c>
+      <c r="D944">
+        <v>0</v>
+      </c>
+      <c r="E944">
+        <v>14616.5</v>
+      </c>
+      <c r="F944">
+        <v>9.43</v>
+      </c>
+      <c r="G944">
+        <v>1550</v>
+      </c>
+      <c r="H944">
+        <v>1</v>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J944" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>Orange Fox Steel Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C945">
+        <v>29410</v>
+      </c>
+      <c r="D945">
+        <v>0</v>
+      </c>
+      <c r="E945">
+        <v>29410</v>
+      </c>
+      <c r="F945">
+        <v>8.65</v>
+      </c>
+      <c r="G945">
+        <v>3400</v>
+      </c>
+      <c r="H945">
+        <v>1</v>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J945" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C946">
+        <v>13824</v>
+      </c>
+      <c r="D946">
+        <v>0</v>
+      </c>
+      <c r="E946">
+        <v>16312</v>
+      </c>
+      <c r="F946">
+        <v>2.16</v>
+      </c>
+      <c r="G946">
+        <v>6400</v>
+      </c>
+      <c r="H946">
+        <v>1</v>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J946" s="2">
         <v>45231</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J946"/>
+  <dimension ref="A1:J945"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34510,35 +34510,35 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C900">
-        <v>875241</v>
+        <v>814338</v>
       </c>
       <c r="D900">
-        <v>385828.1</v>
+        <v>329463.54</v>
       </c>
       <c r="E900">
-        <v>982675</v>
+        <v>924744</v>
       </c>
       <c r="F900">
-        <v>110.79</v>
+        <v>129.26</v>
       </c>
       <c r="G900">
-        <v>7900</v>
+        <v>6300</v>
       </c>
       <c r="H900">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J900" s="2">
@@ -34548,35 +34548,35 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Prakash Ferrous Industries Pvt Ltd</t>
+          <t>Laxmi Rolling &amp; Strips Pvt Ltd</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C901">
-        <v>775224</v>
+        <v>875241</v>
       </c>
       <c r="D901">
-        <v>139540.32</v>
+        <v>385828.1</v>
       </c>
       <c r="E901">
-        <v>914764</v>
+        <v>982675</v>
       </c>
       <c r="F901">
-        <v>107.67</v>
+        <v>110.79</v>
       </c>
       <c r="G901">
-        <v>7200.000000000001</v>
+        <v>7900</v>
       </c>
       <c r="H901">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J901" s="2">
@@ -34586,7 +34586,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd Quartztech</t>
+          <t>Prakash Ferrous Industries Pvt Ltd</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -34595,26 +34595,26 @@
         </is>
       </c>
       <c r="C902">
-        <v>613368</v>
+        <v>775224</v>
       </c>
       <c r="D902">
-        <v>110406.24</v>
+        <v>139540.32</v>
       </c>
       <c r="E902">
-        <v>723774</v>
+        <v>914764</v>
       </c>
       <c r="F902">
-        <v>97.36</v>
+        <v>107.67</v>
       </c>
       <c r="G902">
-        <v>6300</v>
+        <v>7200.000000000001</v>
       </c>
       <c r="H902">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J902" s="2">
@@ -35118,31 +35118,31 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Quartztech Minerals Pvt Ltd</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C916">
-        <v>362565</v>
+        <v>223337.5</v>
       </c>
       <c r="D916">
-        <v>395195.85</v>
+        <v>10820.54</v>
       </c>
       <c r="E916">
-        <v>362565</v>
+        <v>233813</v>
       </c>
       <c r="F916">
-        <v>57.55</v>
+        <v>52.55</v>
       </c>
       <c r="G916">
-        <v>6300</v>
+        <v>4250</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I916" t="inlineStr">
         <is>
@@ -35156,31 +35156,31 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C917">
-        <v>223337.5</v>
+        <v>321595</v>
       </c>
       <c r="D917">
-        <v>10820.54</v>
+        <v>204938.55</v>
       </c>
       <c r="E917">
-        <v>233813</v>
+        <v>350395</v>
       </c>
       <c r="F917">
-        <v>52.55</v>
+        <v>50.65</v>
       </c>
       <c r="G917">
-        <v>4250</v>
+        <v>6349.358341559724</v>
       </c>
       <c r="H917">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr">
         <is>
@@ -35954,28 +35954,28 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C938">
-        <v>160000</v>
+        <v>61215.00000000001</v>
       </c>
       <c r="D938">
-        <v>28800</v>
+        <v>3060.75</v>
       </c>
       <c r="E938">
-        <v>188800</v>
+        <v>64276</v>
       </c>
       <c r="F938">
-        <v>25</v>
+        <v>23.1</v>
       </c>
       <c r="G938">
-        <v>6400</v>
+        <v>2650</v>
       </c>
       <c r="H938">
         <v>1</v>
@@ -35992,7 +35992,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -36001,19 +36001,19 @@
         </is>
       </c>
       <c r="C939">
-        <v>61215.00000000001</v>
+        <v>91228.5</v>
       </c>
       <c r="D939">
-        <v>3060.75</v>
+        <v>4561.43</v>
       </c>
       <c r="E939">
-        <v>64276</v>
+        <v>95790</v>
       </c>
       <c r="F939">
-        <v>23.1</v>
+        <v>20.9</v>
       </c>
       <c r="G939">
-        <v>2650</v>
+        <v>4365</v>
       </c>
       <c r="H939">
         <v>1</v>
@@ -36030,35 +36030,35 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C940">
-        <v>91228.5</v>
+        <v>151086</v>
       </c>
       <c r="D940">
-        <v>4561.43</v>
+        <v>246726</v>
       </c>
       <c r="E940">
-        <v>95790</v>
+        <v>246726</v>
       </c>
       <c r="F940">
-        <v>20.9</v>
+        <v>19.37</v>
       </c>
       <c r="G940">
-        <v>4365</v>
+        <v>7800.000000000001</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J940" s="2">
@@ -36068,35 +36068,35 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C941">
-        <v>151086</v>
+        <v>75160</v>
       </c>
       <c r="D941">
-        <v>246726</v>
+        <v>0</v>
       </c>
       <c r="E941">
-        <v>246726</v>
+        <v>75160</v>
       </c>
       <c r="F941">
-        <v>19.37</v>
+        <v>18.79</v>
       </c>
       <c r="G941">
-        <v>7800.000000000001</v>
+        <v>4000</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J941" s="2">
@@ -36106,35 +36106,35 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C942">
-        <v>75160</v>
+        <v>95640</v>
       </c>
       <c r="D942">
         <v>0</v>
       </c>
       <c r="E942">
-        <v>75160</v>
+        <v>95640</v>
       </c>
       <c r="F942">
-        <v>18.79</v>
+        <v>15.94</v>
       </c>
       <c r="G942">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="H942">
         <v>1</v>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J942" s="2">
@@ -36144,35 +36144,35 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C943">
-        <v>95640</v>
+        <v>14616.5</v>
       </c>
       <c r="D943">
         <v>0</v>
       </c>
       <c r="E943">
-        <v>95640</v>
+        <v>14616.5</v>
       </c>
       <c r="F943">
-        <v>15.94</v>
+        <v>9.43</v>
       </c>
       <c r="G943">
-        <v>6000</v>
+        <v>1550</v>
       </c>
       <c r="H943">
         <v>1</v>
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J943" s="2">
@@ -36182,7 +36182,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -36191,26 +36191,26 @@
         </is>
       </c>
       <c r="C944">
-        <v>14616.5</v>
+        <v>29410</v>
       </c>
       <c r="D944">
         <v>0</v>
       </c>
       <c r="E944">
-        <v>14616.5</v>
+        <v>29410</v>
       </c>
       <c r="F944">
-        <v>9.43</v>
+        <v>8.65</v>
       </c>
       <c r="G944">
-        <v>1550</v>
+        <v>3400</v>
       </c>
       <c r="H944">
         <v>1</v>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J944" s="2">
@@ -36220,76 +36220,38 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C945">
-        <v>29410</v>
+        <v>13824</v>
       </c>
       <c r="D945">
         <v>0</v>
       </c>
       <c r="E945">
-        <v>29410</v>
+        <v>16312</v>
       </c>
       <c r="F945">
-        <v>8.65</v>
+        <v>2.16</v>
       </c>
       <c r="G945">
-        <v>3400</v>
+        <v>6400</v>
       </c>
       <c r="H945">
         <v>1</v>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J945" s="2">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="B946" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C946">
-        <v>13824</v>
-      </c>
-      <c r="D946">
-        <v>0</v>
-      </c>
-      <c r="E946">
-        <v>16312</v>
-      </c>
-      <c r="F946">
-        <v>2.16</v>
-      </c>
-      <c r="G946">
-        <v>6400</v>
-      </c>
-      <c r="H946">
-        <v>1</v>
-      </c>
-      <c r="I946" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J946" s="2">
         <v>45231</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -35165,7 +35165,7 @@
         </is>
       </c>
       <c r="C917">
-        <v>321595</v>
+        <v>324160</v>
       </c>
       <c r="D917">
         <v>204938.55</v>
@@ -35177,7 +35177,7 @@
         <v>50.65</v>
       </c>
       <c r="G917">
-        <v>6349.358341559724</v>
+        <v>6400</v>
       </c>
       <c r="H917">
         <v>2</v>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -3295,11 +3295,6 @@
       <c r="H77">
         <v>1</v>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Sharad Bhutra</t>
-        </is>
-      </c>
       <c r="J77" s="2">
         <v>44682</v>
       </c>
@@ -7203,11 +7198,6 @@
       <c r="H180">
         <v>2</v>
       </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>Sharad Bhutra</t>
-        </is>
-      </c>
       <c r="J180" s="2">
         <v>44774</v>
       </c>
@@ -18871,7 +18861,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J487" s="2">
@@ -21607,7 +21597,7 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J559" s="2">
@@ -22861,7 +22851,7 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J592" s="2">
@@ -23621,7 +23611,7 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J612" s="2">
@@ -24457,7 +24447,7 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J634" s="2">
@@ -26205,7 +26195,7 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J680" s="2">
@@ -27646,11 +27636,6 @@
       </c>
       <c r="H718">
         <v>4</v>
-      </c>
-      <c r="I718" t="inlineStr">
-        <is>
-          <t>Sharad Bhutra</t>
-        </is>
       </c>
       <c r="J718" s="2">
         <v>45108</v>
@@ -29408,7 +29393,7 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J765" s="2">
@@ -29750,7 +29735,7 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J774" s="2">
@@ -31194,7 +31179,7 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J812" s="2">
@@ -31498,7 +31483,7 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J820" s="2">
@@ -32182,7 +32167,7 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J838" s="2">
@@ -34956,7 +34941,7 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J911" s="2">
@@ -35032,7 +35017,7 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J913" s="2">
@@ -35450,7 +35435,7 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J924" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -18861,7 +18861,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J487" s="2">
@@ -21597,7 +21597,7 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J559" s="2">
@@ -22851,7 +22851,7 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J592" s="2">
@@ -23611,7 +23611,7 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J612" s="2">
@@ -24447,7 +24447,7 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J634" s="2">
@@ -26195,7 +26195,7 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J680" s="2">
@@ -29393,7 +29393,7 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J765" s="2">
@@ -29735,7 +29735,7 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J774" s="2">
@@ -31483,7 +31483,7 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J820" s="2">
@@ -32167,7 +32167,7 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J838" s="2">
@@ -34941,7 +34941,7 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J911" s="2">
@@ -35017,7 +35017,7 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J913" s="2">
@@ -35435,7 +35435,7 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J924" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -3295,6 +3295,11 @@
       <c r="H77">
         <v>1</v>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
       <c r="J77" s="2">
         <v>44682</v>
       </c>
@@ -7198,6 +7203,11 @@
       <c r="H180">
         <v>2</v>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
       <c r="J180" s="2">
         <v>44774</v>
       </c>
@@ -24447,7 +24457,7 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J634" s="2">
@@ -26195,7 +26205,7 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J680" s="2">
@@ -27636,6 +27646,11 @@
       </c>
       <c r="H718">
         <v>4</v>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
       </c>
       <c r="J718" s="2">
         <v>45108</v>
@@ -29393,7 +29408,7 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J765" s="2">
@@ -35017,7 +35032,7 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J913" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J945"/>
+  <dimension ref="A1:J994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35165,7 +35165,7 @@
         </is>
       </c>
       <c r="C917">
-        <v>324160</v>
+        <v>321595</v>
       </c>
       <c r="D917">
         <v>204938.55</v>
@@ -35177,7 +35177,7 @@
         <v>50.65</v>
       </c>
       <c r="G917">
-        <v>6400</v>
+        <v>6349.358341559724</v>
       </c>
       <c r="H917">
         <v>2</v>
@@ -35640,7 +35640,7 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J929" s="2">
@@ -36253,6 +36253,1858 @@
       </c>
       <c r="J945" s="2">
         <v>45231</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>Sugna Metals Ltd.</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C946">
+        <v>2904486</v>
+      </c>
+      <c r="D946">
+        <v>522807.48</v>
+      </c>
+      <c r="E946">
+        <v>3427291.64</v>
+      </c>
+      <c r="F946">
+        <v>372.37</v>
+      </c>
+      <c r="G946">
+        <v>7800</v>
+      </c>
+      <c r="H946">
+        <v>11</v>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J946" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>BMM ISPAT LIMITED</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C947">
+        <v>2369696</v>
+      </c>
+      <c r="D947">
+        <v>426545.28</v>
+      </c>
+      <c r="E947">
+        <v>2796242</v>
+      </c>
+      <c r="F947">
+        <v>333.76</v>
+      </c>
+      <c r="G947">
+        <v>7100.000000000001</v>
+      </c>
+      <c r="H947">
+        <v>10</v>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J947" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C948">
+        <v>1811169</v>
+      </c>
+      <c r="D948">
+        <v>326010.42</v>
+      </c>
+      <c r="E948">
+        <v>2137179</v>
+      </c>
+      <c r="F948">
+        <v>227.82</v>
+      </c>
+      <c r="G948">
+        <v>7950</v>
+      </c>
+      <c r="H948">
+        <v>8</v>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J948" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>A One Ispat Private Ltd</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C949">
+        <v>1747085</v>
+      </c>
+      <c r="D949">
+        <v>314475.3</v>
+      </c>
+      <c r="E949">
+        <v>2061560</v>
+      </c>
+      <c r="F949">
+        <v>221.15</v>
+      </c>
+      <c r="G949">
+        <v>7900</v>
+      </c>
+      <c r="H949">
+        <v>7</v>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J949" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C950">
+        <v>1599390</v>
+      </c>
+      <c r="D950">
+        <v>534048.84</v>
+      </c>
+      <c r="E950">
+        <v>1838591</v>
+      </c>
+      <c r="F950">
+        <v>205.05</v>
+      </c>
+      <c r="G950">
+        <v>7800.000000000001</v>
+      </c>
+      <c r="H950">
+        <v>6</v>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J950" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>A One Steels And Alloys Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C951">
+        <v>1405326</v>
+      </c>
+      <c r="D951">
+        <v>252958.68</v>
+      </c>
+      <c r="E951">
+        <v>1658285</v>
+      </c>
+      <c r="F951">
+        <v>163.41</v>
+      </c>
+      <c r="G951">
+        <v>8600</v>
+      </c>
+      <c r="H951">
+        <v>8</v>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J951" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>Pulkit Metals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C952">
+        <v>875340</v>
+      </c>
+      <c r="D952">
+        <v>332368.8</v>
+      </c>
+      <c r="E952">
+        <v>994529</v>
+      </c>
+      <c r="F952">
+        <v>145.89</v>
+      </c>
+      <c r="G952">
+        <v>6000.000000000001</v>
+      </c>
+      <c r="H952">
+        <v>8</v>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J952" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C953">
+        <v>1087104</v>
+      </c>
+      <c r="D953">
+        <v>422461.2</v>
+      </c>
+      <c r="E953">
+        <v>1233001</v>
+      </c>
+      <c r="F953">
+        <v>143.04</v>
+      </c>
+      <c r="G953">
+        <v>7600</v>
+      </c>
+      <c r="H953">
+        <v>8</v>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J953" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>Pushpit Steels Private Limited</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C954">
+        <v>862358</v>
+      </c>
+      <c r="D954">
+        <v>361157.4399999999</v>
+      </c>
+      <c r="E954">
+        <v>976849</v>
+      </c>
+      <c r="F954">
+        <v>139.09</v>
+      </c>
+      <c r="G954">
+        <v>6200.000000000001</v>
+      </c>
+      <c r="H954">
+        <v>6</v>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J954" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C955">
+        <v>545416</v>
+      </c>
+      <c r="D955">
+        <v>104090.42</v>
+      </c>
+      <c r="E955">
+        <v>589804.5</v>
+      </c>
+      <c r="F955">
+        <v>138.08</v>
+      </c>
+      <c r="G955">
+        <v>3950</v>
+      </c>
+      <c r="H955">
+        <v>5</v>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J955" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C956">
+        <v>1119300</v>
+      </c>
+      <c r="D956">
+        <v>452472.72</v>
+      </c>
+      <c r="E956">
+        <v>1265676</v>
+      </c>
+      <c r="F956">
+        <v>133.25</v>
+      </c>
+      <c r="G956">
+        <v>8400</v>
+      </c>
+      <c r="H956">
+        <v>4</v>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J956" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>Prime Gold International Limited</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C957">
+        <v>659866</v>
+      </c>
+      <c r="D957">
+        <v>118775.88</v>
+      </c>
+      <c r="E957">
+        <v>778642</v>
+      </c>
+      <c r="F957">
+        <v>106.43</v>
+      </c>
+      <c r="G957">
+        <v>6199.999999999999</v>
+      </c>
+      <c r="H957">
+        <v>5</v>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J957" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C958">
+        <v>843440</v>
+      </c>
+      <c r="D958">
+        <v>151819.2</v>
+      </c>
+      <c r="E958">
+        <v>995260</v>
+      </c>
+      <c r="F958">
+        <v>105.43</v>
+      </c>
+      <c r="G958">
+        <v>8000.000000000001</v>
+      </c>
+      <c r="H958">
+        <v>6</v>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J958" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C959">
+        <v>613203</v>
+      </c>
+      <c r="D959">
+        <v>110376.54</v>
+      </c>
+      <c r="E959">
+        <v>723580</v>
+      </c>
+      <c r="F959">
+        <v>88.87</v>
+      </c>
+      <c r="G959">
+        <v>6900</v>
+      </c>
+      <c r="H959">
+        <v>4</v>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J959" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C960">
+        <v>231052.5</v>
+      </c>
+      <c r="D960">
+        <v>46960.4</v>
+      </c>
+      <c r="E960">
+        <v>248368.5</v>
+      </c>
+      <c r="F960">
+        <v>73.34999999999999</v>
+      </c>
+      <c r="G960">
+        <v>3150</v>
+      </c>
+      <c r="H960">
+        <v>3</v>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J960" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>ARISE STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C961">
+        <v>420360</v>
+      </c>
+      <c r="D961">
+        <v>75664.8</v>
+      </c>
+      <c r="E961">
+        <v>496025</v>
+      </c>
+      <c r="F961">
+        <v>67.8</v>
+      </c>
+      <c r="G961">
+        <v>6200</v>
+      </c>
+      <c r="H961">
+        <v>4</v>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J961" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C962">
+        <v>410378</v>
+      </c>
+      <c r="D962">
+        <v>230607.76</v>
+      </c>
+      <c r="E962">
+        <v>449840</v>
+      </c>
+      <c r="F962">
+        <v>66.19</v>
+      </c>
+      <c r="G962">
+        <v>6200</v>
+      </c>
+      <c r="H962">
+        <v>2</v>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J962" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C963">
+        <v>342080</v>
+      </c>
+      <c r="D963">
+        <v>108341.12</v>
+      </c>
+      <c r="E963">
+        <v>394403.32</v>
+      </c>
+      <c r="F963">
+        <v>53.45</v>
+      </c>
+      <c r="G963">
+        <v>6400</v>
+      </c>
+      <c r="H963">
+        <v>5</v>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J963" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C964">
+        <v>168704</v>
+      </c>
+      <c r="D964">
+        <v>83452.48</v>
+      </c>
+      <c r="E964">
+        <v>188571</v>
+      </c>
+      <c r="F964">
+        <v>52.72</v>
+      </c>
+      <c r="G964">
+        <v>3200</v>
+      </c>
+      <c r="H964">
+        <v>3</v>
+      </c>
+      <c r="I964" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J964" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>Adri Steels Pvt Limited</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C965">
+        <v>273480</v>
+      </c>
+      <c r="D965">
+        <v>133474.2</v>
+      </c>
+      <c r="E965">
+        <v>306042</v>
+      </c>
+      <c r="F965">
+        <v>45.58</v>
+      </c>
+      <c r="G965">
+        <v>6000</v>
+      </c>
+      <c r="H965">
+        <v>3</v>
+      </c>
+      <c r="I965" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J965" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>Bharat Heavy Electricals Limited</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C966">
+        <v>176215.05</v>
+      </c>
+      <c r="D966">
+        <v>8810.76</v>
+      </c>
+      <c r="E966">
+        <v>185026.7</v>
+      </c>
+      <c r="F966">
+        <v>40.37</v>
+      </c>
+      <c r="G966">
+        <v>4365</v>
+      </c>
+      <c r="H966">
+        <v>3</v>
+      </c>
+      <c r="I966" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J966" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C967">
+        <v>310312</v>
+      </c>
+      <c r="D967">
+        <v>167601.66</v>
+      </c>
+      <c r="E967">
+        <v>341639</v>
+      </c>
+      <c r="F967">
+        <v>39.28</v>
+      </c>
+      <c r="G967">
+        <v>7900</v>
+      </c>
+      <c r="H967">
+        <v>2</v>
+      </c>
+      <c r="J967" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C968">
+        <v>291129</v>
+      </c>
+      <c r="D968">
+        <v>291129</v>
+      </c>
+      <c r="E968">
+        <v>291129</v>
+      </c>
+      <c r="F968">
+        <v>36.62</v>
+      </c>
+      <c r="G968">
+        <v>7950.000000000001</v>
+      </c>
+      <c r="H968">
+        <v>1</v>
+      </c>
+      <c r="I968" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J968" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C969">
+        <v>122604</v>
+      </c>
+      <c r="D969">
+        <v>22068.72</v>
+      </c>
+      <c r="E969">
+        <v>144673</v>
+      </c>
+      <c r="F969">
+        <v>36.06</v>
+      </c>
+      <c r="G969">
+        <v>3400</v>
+      </c>
+      <c r="H969">
+        <v>1</v>
+      </c>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J969" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C970">
+        <v>281190</v>
+      </c>
+      <c r="D970">
+        <v>50614.2</v>
+      </c>
+      <c r="E970">
+        <v>331804</v>
+      </c>
+      <c r="F970">
+        <v>36.05</v>
+      </c>
+      <c r="G970">
+        <v>7800.000000000001</v>
+      </c>
+      <c r="H970">
+        <v>2</v>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J970" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>M.A.STEELS (P) LTD</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C971">
+        <v>221445</v>
+      </c>
+      <c r="D971">
+        <v>39860.1</v>
+      </c>
+      <c r="E971">
+        <v>261305</v>
+      </c>
+      <c r="F971">
+        <v>35.15</v>
+      </c>
+      <c r="G971">
+        <v>6300</v>
+      </c>
+      <c r="H971">
+        <v>1</v>
+      </c>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J971" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C972">
+        <v>220941</v>
+      </c>
+      <c r="D972">
+        <v>39769.38</v>
+      </c>
+      <c r="E972">
+        <v>260710</v>
+      </c>
+      <c r="F972">
+        <v>35.07</v>
+      </c>
+      <c r="G972">
+        <v>6300</v>
+      </c>
+      <c r="H972">
+        <v>1</v>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J972" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C973">
+        <v>216909</v>
+      </c>
+      <c r="D973">
+        <v>39043.62</v>
+      </c>
+      <c r="E973">
+        <v>255952.88</v>
+      </c>
+      <c r="F973">
+        <v>34.43</v>
+      </c>
+      <c r="G973">
+        <v>6300</v>
+      </c>
+      <c r="H973">
+        <v>2</v>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J973" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C974">
+        <v>104640</v>
+      </c>
+      <c r="D974">
+        <v>18835.2</v>
+      </c>
+      <c r="E974">
+        <v>123475</v>
+      </c>
+      <c r="F974">
+        <v>32.7</v>
+      </c>
+      <c r="G974">
+        <v>3200</v>
+      </c>
+      <c r="H974">
+        <v>1</v>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J974" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C975">
+        <v>202608</v>
+      </c>
+      <c r="D975">
+        <v>36469.44</v>
+      </c>
+      <c r="E975">
+        <v>239077</v>
+      </c>
+      <c r="F975">
+        <v>32.16</v>
+      </c>
+      <c r="G975">
+        <v>6300</v>
+      </c>
+      <c r="H975">
+        <v>1</v>
+      </c>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J975" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>Oswal Smelters Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>Quartz Grain</t>
+        </is>
+      </c>
+      <c r="C976">
+        <v>138163.2</v>
+      </c>
+      <c r="D976">
+        <v>6908.16</v>
+      </c>
+      <c r="E976">
+        <v>145072</v>
+      </c>
+      <c r="F976">
+        <v>30.84</v>
+      </c>
+      <c r="G976">
+        <v>4480</v>
+      </c>
+      <c r="H976">
+        <v>2</v>
+      </c>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J976" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>Pattambi Brothers</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C977">
+        <v>192906</v>
+      </c>
+      <c r="D977">
+        <v>34723.08</v>
+      </c>
+      <c r="E977">
+        <v>227629</v>
+      </c>
+      <c r="F977">
+        <v>30.62</v>
+      </c>
+      <c r="G977">
+        <v>6300</v>
+      </c>
+      <c r="H977">
+        <v>1</v>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J977" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>Govaan Steel Private Limited Quartztech</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C978">
+        <v>192087</v>
+      </c>
+      <c r="D978">
+        <v>34575.66</v>
+      </c>
+      <c r="E978">
+        <v>226663</v>
+      </c>
+      <c r="F978">
+        <v>30.49</v>
+      </c>
+      <c r="G978">
+        <v>6300</v>
+      </c>
+      <c r="H978">
+        <v>1</v>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J978" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C979">
+        <v>183549</v>
+      </c>
+      <c r="D979">
+        <v>33038.82</v>
+      </c>
+      <c r="E979">
+        <v>216588</v>
+      </c>
+      <c r="F979">
+        <v>30.09</v>
+      </c>
+      <c r="G979">
+        <v>6100</v>
+      </c>
+      <c r="H979">
+        <v>1</v>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J979" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C980">
+        <v>114922.5</v>
+      </c>
+      <c r="D980">
+        <v>20686.05</v>
+      </c>
+      <c r="E980">
+        <v>135609</v>
+      </c>
+      <c r="F980">
+        <v>29.85</v>
+      </c>
+      <c r="G980">
+        <v>3850</v>
+      </c>
+      <c r="H980">
+        <v>2</v>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J980" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C981">
+        <v>44764</v>
+      </c>
+      <c r="D981">
+        <v>6615.1</v>
+      </c>
+      <c r="E981">
+        <v>51379.5</v>
+      </c>
+      <c r="F981">
+        <v>28.88</v>
+      </c>
+      <c r="G981">
+        <v>1550</v>
+      </c>
+      <c r="H981">
+        <v>2</v>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J981" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>Sonal Irons Industry Private Limited</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C982">
+        <v>183696</v>
+      </c>
+      <c r="D982">
+        <v>33065.28</v>
+      </c>
+      <c r="E982">
+        <v>216761</v>
+      </c>
+      <c r="F982">
+        <v>28.48</v>
+      </c>
+      <c r="G982">
+        <v>6450</v>
+      </c>
+      <c r="H982">
+        <v>2</v>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J982" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C983">
+        <v>41136</v>
+      </c>
+      <c r="D983">
+        <v>1488.96</v>
+      </c>
+      <c r="E983">
+        <v>42625</v>
+      </c>
+      <c r="F983">
+        <v>25.71</v>
+      </c>
+      <c r="G983">
+        <v>1600</v>
+      </c>
+      <c r="H983">
+        <v>4</v>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J983" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C984">
+        <v>159201</v>
+      </c>
+      <c r="D984">
+        <v>28656.18</v>
+      </c>
+      <c r="E984">
+        <v>187857</v>
+      </c>
+      <c r="F984">
+        <v>25.27</v>
+      </c>
+      <c r="G984">
+        <v>6300</v>
+      </c>
+      <c r="H984">
+        <v>1</v>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J984" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>Indo Borax &amp; Chemicals Ltd</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>boron oxide chemical</t>
+        </is>
+      </c>
+      <c r="C985">
+        <v>2171400</v>
+      </c>
+      <c r="D985">
+        <v>390852</v>
+      </c>
+      <c r="E985">
+        <v>2562252</v>
+      </c>
+      <c r="F985">
+        <v>23.1</v>
+      </c>
+      <c r="G985">
+        <v>94000</v>
+      </c>
+      <c r="H985">
+        <v>1</v>
+      </c>
+      <c r="J985" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C986">
+        <v>59296</v>
+      </c>
+      <c r="D986">
+        <v>2964.8</v>
+      </c>
+      <c r="E986">
+        <v>62261</v>
+      </c>
+      <c r="F986">
+        <v>21.8</v>
+      </c>
+      <c r="G986">
+        <v>2720</v>
+      </c>
+      <c r="H986">
+        <v>1</v>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J986" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C987">
+        <v>115560</v>
+      </c>
+      <c r="D987">
+        <v>43531.56</v>
+      </c>
+      <c r="E987">
+        <v>126360</v>
+      </c>
+      <c r="F987">
+        <v>19.26</v>
+      </c>
+      <c r="G987">
+        <v>6000.000000000001</v>
+      </c>
+      <c r="H987">
+        <v>2</v>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J987" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C988">
+        <v>66040</v>
+      </c>
+      <c r="D988">
+        <v>3302</v>
+      </c>
+      <c r="E988">
+        <v>69342</v>
+      </c>
+      <c r="F988">
+        <v>16.51</v>
+      </c>
+      <c r="G988">
+        <v>4000</v>
+      </c>
+      <c r="H988">
+        <v>2</v>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J988" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C989">
+        <v>126282</v>
+      </c>
+      <c r="D989">
+        <v>0</v>
+      </c>
+      <c r="E989">
+        <v>126282</v>
+      </c>
+      <c r="F989">
+        <v>16.19</v>
+      </c>
+      <c r="G989">
+        <v>7800</v>
+      </c>
+      <c r="H989">
+        <v>1</v>
+      </c>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J989" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C990">
+        <v>21825</v>
+      </c>
+      <c r="D990">
+        <v>0</v>
+      </c>
+      <c r="E990">
+        <v>21825</v>
+      </c>
+      <c r="F990">
+        <v>5.82</v>
+      </c>
+      <c r="G990">
+        <v>3750</v>
+      </c>
+      <c r="H990">
+        <v>1</v>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J990" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C991">
+        <v>15510</v>
+      </c>
+      <c r="D991">
+        <v>2791.8</v>
+      </c>
+      <c r="E991">
+        <v>18302</v>
+      </c>
+      <c r="F991">
+        <v>5.17</v>
+      </c>
+      <c r="G991">
+        <v>3000</v>
+      </c>
+      <c r="H991">
+        <v>1</v>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J991" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C992">
+        <v>210000</v>
+      </c>
+      <c r="D992">
+        <v>37800</v>
+      </c>
+      <c r="E992">
+        <v>247800</v>
+      </c>
+      <c r="F992">
+        <v>2</v>
+      </c>
+      <c r="G992">
+        <v>105000</v>
+      </c>
+      <c r="H992">
+        <v>1</v>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J992" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>SIDHARATH CHEMICALS</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>boric acid chemical</t>
+        </is>
+      </c>
+      <c r="C993">
+        <v>227500</v>
+      </c>
+      <c r="D993">
+        <v>40950</v>
+      </c>
+      <c r="E993">
+        <v>268450</v>
+      </c>
+      <c r="F993">
+        <v>0.7</v>
+      </c>
+      <c r="G993">
+        <v>325000</v>
+      </c>
+      <c r="H993">
+        <v>1</v>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J993" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>boric acid chemical</t>
+        </is>
+      </c>
+      <c r="C994">
+        <v>34000</v>
+      </c>
+      <c r="D994">
+        <v>6120</v>
+      </c>
+      <c r="E994">
+        <v>40120</v>
+      </c>
+      <c r="F994">
+        <v>0.1</v>
+      </c>
+      <c r="G994">
+        <v>340000</v>
+      </c>
+      <c r="H994">
+        <v>1</v>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J994" s="2">
+        <v>45261</v>
       </c>
     </row>
   </sheetData>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -35640,7 +35640,7 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J929" s="2">
@@ -37760,6 +37760,11 @@
       </c>
       <c r="H985">
         <v>1</v>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
       </c>
       <c r="J985" s="2">
         <v>45261</v>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J994"/>
+  <dimension ref="A1:J995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36343,22 +36343,22 @@
         </is>
       </c>
       <c r="C948">
-        <v>1811169</v>
+        <v>2143638</v>
       </c>
       <c r="D948">
-        <v>326010.42</v>
+        <v>396643.6799999999</v>
       </c>
       <c r="E948">
-        <v>2137179</v>
+        <v>2529586</v>
       </c>
       <c r="F948">
-        <v>227.82</v>
+        <v>269.64</v>
       </c>
       <c r="G948">
         <v>7950</v>
       </c>
       <c r="H948">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I948" t="inlineStr">
         <is>
@@ -36381,22 +36381,22 @@
         </is>
       </c>
       <c r="C949">
-        <v>1747085</v>
+        <v>2010234</v>
       </c>
       <c r="D949">
-        <v>314475.3</v>
+        <v>370368.18</v>
       </c>
       <c r="E949">
-        <v>2061560</v>
+        <v>2372076</v>
       </c>
       <c r="F949">
-        <v>221.15</v>
+        <v>254.46</v>
       </c>
       <c r="G949">
         <v>7900</v>
       </c>
       <c r="H949">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I949" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>A One Steels And Alloys Pvt Ltd</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -36419,22 +36419,22 @@
         </is>
       </c>
       <c r="C950">
-        <v>1599390</v>
+        <v>1764462</v>
       </c>
       <c r="D950">
-        <v>534048.84</v>
+        <v>329239.26</v>
       </c>
       <c r="E950">
-        <v>1838591</v>
+        <v>2082066</v>
       </c>
       <c r="F950">
-        <v>205.05</v>
+        <v>205.17</v>
       </c>
       <c r="G950">
-        <v>7800.000000000001</v>
+        <v>8600</v>
       </c>
       <c r="H950">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I950" t="inlineStr">
         <is>
@@ -36448,7 +36448,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>A One Steels And Alloys Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -36457,22 +36457,22 @@
         </is>
       </c>
       <c r="C951">
-        <v>1405326</v>
+        <v>1599390</v>
       </c>
       <c r="D951">
-        <v>252958.68</v>
+        <v>582739.84</v>
       </c>
       <c r="E951">
-        <v>1658285</v>
+        <v>1838591</v>
       </c>
       <c r="F951">
-        <v>163.41</v>
+        <v>205.05</v>
       </c>
       <c r="G951">
-        <v>8600</v>
+        <v>7800.000000000001</v>
       </c>
       <c r="H951">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I951" t="inlineStr">
         <is>
@@ -36486,35 +36486,35 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C952">
-        <v>875340</v>
+        <v>686984</v>
       </c>
       <c r="D952">
-        <v>332368.8</v>
+        <v>134159.42</v>
       </c>
       <c r="E952">
-        <v>994529</v>
+        <v>756854.5</v>
       </c>
       <c r="F952">
-        <v>145.89</v>
+        <v>173.92</v>
       </c>
       <c r="G952">
-        <v>6000.000000000001</v>
+        <v>3950</v>
       </c>
       <c r="H952">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J952" s="2">
@@ -36524,35 +36524,35 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C953">
-        <v>1087104</v>
+        <v>875340</v>
       </c>
       <c r="D953">
-        <v>422461.2</v>
+        <v>332368.8</v>
       </c>
       <c r="E953">
-        <v>1233001</v>
+        <v>994529</v>
       </c>
       <c r="F953">
-        <v>143.04</v>
+        <v>145.89</v>
       </c>
       <c r="G953">
-        <v>7600</v>
+        <v>6000.000000000001</v>
       </c>
       <c r="H953">
         <v>8</v>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J953" s="2">
@@ -36562,35 +36562,35 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C954">
-        <v>862358</v>
+        <v>1087104</v>
       </c>
       <c r="D954">
-        <v>361157.4399999999</v>
+        <v>422461.2</v>
       </c>
       <c r="E954">
-        <v>976849</v>
+        <v>1233001</v>
       </c>
       <c r="F954">
-        <v>139.09</v>
+        <v>143.04</v>
       </c>
       <c r="G954">
-        <v>6200.000000000001</v>
+        <v>7600</v>
       </c>
       <c r="H954">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J954" s="2">
@@ -36600,7 +36600,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -36609,22 +36609,22 @@
         </is>
       </c>
       <c r="C955">
-        <v>545416</v>
+        <v>1133360</v>
       </c>
       <c r="D955">
-        <v>104090.42</v>
+        <v>213398.28</v>
       </c>
       <c r="E955">
-        <v>589804.5</v>
+        <v>1337366</v>
       </c>
       <c r="F955">
-        <v>138.08</v>
+        <v>141.67</v>
       </c>
       <c r="G955">
-        <v>3950</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="H955">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I955" t="inlineStr">
         <is>
@@ -36638,35 +36638,35 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C956">
-        <v>1119300</v>
+        <v>862358</v>
       </c>
       <c r="D956">
-        <v>452472.72</v>
+        <v>361157.4399999999</v>
       </c>
       <c r="E956">
-        <v>1265676</v>
+        <v>976849</v>
       </c>
       <c r="F956">
-        <v>133.25</v>
+        <v>139.09</v>
       </c>
       <c r="G956">
-        <v>8400</v>
+        <v>6200.000000000001</v>
       </c>
       <c r="H956">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J956" s="2">
@@ -36676,35 +36676,35 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C957">
-        <v>659866</v>
+        <v>1119300</v>
       </c>
       <c r="D957">
-        <v>118775.88</v>
+        <v>452472.72</v>
       </c>
       <c r="E957">
-        <v>778642</v>
+        <v>1265676</v>
       </c>
       <c r="F957">
-        <v>106.43</v>
+        <v>133.25</v>
       </c>
       <c r="G957">
-        <v>6199.999999999999</v>
+        <v>8400</v>
       </c>
       <c r="H957">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J957" s="2">
@@ -36714,31 +36714,31 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C958">
-        <v>843440</v>
+        <v>659866</v>
       </c>
       <c r="D958">
-        <v>151819.2</v>
+        <v>118775.88</v>
       </c>
       <c r="E958">
-        <v>995260</v>
+        <v>778642</v>
       </c>
       <c r="F958">
-        <v>105.43</v>
+        <v>106.43</v>
       </c>
       <c r="G958">
-        <v>8000.000000000001</v>
+        <v>6199.999999999999</v>
       </c>
       <c r="H958">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I958" t="inlineStr">
         <is>
@@ -36916,7 +36916,7 @@
         <v>342080</v>
       </c>
       <c r="D963">
-        <v>108341.12</v>
+        <v>117592.12</v>
       </c>
       <c r="E963">
         <v>394403.32</v>
@@ -37738,11 +37738,6 @@
           <t>Indo Borax &amp; Chemicals Ltd</t>
         </is>
       </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>boron oxide chemical</t>
-        </is>
-      </c>
       <c r="C985">
         <v>2171400</v>
       </c>
@@ -37963,35 +37958,35 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C991">
-        <v>15510</v>
+        <v>42722</v>
       </c>
       <c r="D991">
-        <v>2791.8</v>
+        <v>9074.159999999996</v>
       </c>
       <c r="E991">
-        <v>18302</v>
+        <v>50412</v>
       </c>
       <c r="F991">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="G991">
-        <v>3000</v>
+        <v>8200</v>
       </c>
       <c r="H991">
         <v>1</v>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J991" s="2">
@@ -38001,35 +37996,35 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C992">
-        <v>210000</v>
+        <v>15510</v>
       </c>
       <c r="D992">
-        <v>37800</v>
+        <v>2791.8</v>
       </c>
       <c r="E992">
-        <v>247800</v>
+        <v>18302</v>
       </c>
       <c r="F992">
-        <v>2</v>
+        <v>5.17</v>
       </c>
       <c r="G992">
-        <v>105000</v>
+        <v>3000</v>
       </c>
       <c r="H992">
         <v>1</v>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J992" s="2">
@@ -38039,28 +38034,23 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>SIDHARATH CHEMICALS</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>boric acid chemical</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="C993">
-        <v>227500</v>
+        <v>210000</v>
       </c>
       <c r="D993">
-        <v>40950</v>
+        <v>37800</v>
       </c>
       <c r="E993">
-        <v>268450</v>
+        <v>247800</v>
       </c>
       <c r="F993">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="G993">
-        <v>325000</v>
+        <v>105000</v>
       </c>
       <c r="H993">
         <v>1</v>
@@ -38077,38 +38067,66 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
+          <t>SIDHARATH CHEMICALS</t>
+        </is>
+      </c>
+      <c r="C994">
+        <v>227500</v>
+      </c>
+      <c r="D994">
+        <v>40950</v>
+      </c>
+      <c r="E994">
+        <v>268450</v>
+      </c>
+      <c r="F994">
+        <v>0.7</v>
+      </c>
+      <c r="G994">
+        <v>325000</v>
+      </c>
+      <c r="H994">
+        <v>1</v>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J994" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
           <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>boric acid chemical</t>
-        </is>
-      </c>
-      <c r="C994">
+      <c r="C995">
         <v>34000</v>
       </c>
-      <c r="D994">
+      <c r="D995">
         <v>6120</v>
       </c>
-      <c r="E994">
+      <c r="E995">
         <v>40120</v>
       </c>
-      <c r="F994">
+      <c r="F995">
         <v>0.1</v>
       </c>
-      <c r="G994">
+      <c r="G995">
         <v>340000</v>
       </c>
-      <c r="H994">
-        <v>1</v>
-      </c>
-      <c r="I994" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J994" s="2">
+      <c r="H995">
+        <v>1</v>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J995" s="2">
         <v>45261</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J995"/>
+  <dimension ref="A1:J996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J913" s="2">
@@ -36267,22 +36267,22 @@
         </is>
       </c>
       <c r="C946">
-        <v>2904486</v>
+        <v>3184350</v>
       </c>
       <c r="D946">
-        <v>522807.48</v>
+        <v>573183</v>
       </c>
       <c r="E946">
-        <v>3427291.64</v>
+        <v>3707155.64</v>
       </c>
       <c r="F946">
-        <v>372.37</v>
+        <v>408.25</v>
       </c>
       <c r="G946">
-        <v>7800</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H946">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I946" t="inlineStr">
         <is>
@@ -36305,22 +36305,22 @@
         </is>
       </c>
       <c r="C947">
-        <v>2369696</v>
+        <v>2587666</v>
       </c>
       <c r="D947">
-        <v>426545.28</v>
+        <v>465779.88</v>
       </c>
       <c r="E947">
-        <v>2796242</v>
+        <v>3014212</v>
       </c>
       <c r="F947">
-        <v>333.76</v>
+        <v>364.46</v>
       </c>
       <c r="G947">
-        <v>7100.000000000001</v>
+        <v>7099.999999999999</v>
       </c>
       <c r="H947">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I947" t="inlineStr">
         <is>
@@ -36828,7 +36828,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>ARISE STEELS PRIVATE LIMITED</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -36837,26 +36837,26 @@
         </is>
       </c>
       <c r="C961">
-        <v>420360</v>
+        <v>443287</v>
       </c>
       <c r="D961">
-        <v>75664.8</v>
+        <v>79791.66</v>
       </c>
       <c r="E961">
-        <v>496025</v>
+        <v>476326</v>
       </c>
       <c r="F961">
-        <v>67.8</v>
+        <v>72.67</v>
       </c>
       <c r="G961">
-        <v>6200</v>
+        <v>6100.000000000001</v>
       </c>
       <c r="H961">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J961" s="2">
@@ -36866,7 +36866,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>ARISE STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -36875,26 +36875,26 @@
         </is>
       </c>
       <c r="C962">
-        <v>410378</v>
+        <v>420360</v>
       </c>
       <c r="D962">
-        <v>230607.76</v>
+        <v>75664.8</v>
       </c>
       <c r="E962">
-        <v>449840</v>
+        <v>496025</v>
       </c>
       <c r="F962">
-        <v>66.19</v>
+        <v>67.8</v>
       </c>
       <c r="G962">
         <v>6200</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J962" s="2">
@@ -36904,31 +36904,31 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C963">
-        <v>342080</v>
+        <v>214784</v>
       </c>
       <c r="D963">
-        <v>117592.12</v>
+        <v>85756.48</v>
       </c>
       <c r="E963">
-        <v>394403.32</v>
+        <v>234651</v>
       </c>
       <c r="F963">
-        <v>53.45</v>
+        <v>67.12</v>
       </c>
       <c r="G963">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="H963">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I963" t="inlineStr">
         <is>
@@ -36942,35 +36942,35 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C964">
-        <v>168704</v>
+        <v>410378</v>
       </c>
       <c r="D964">
-        <v>83452.48</v>
+        <v>230607.76</v>
       </c>
       <c r="E964">
-        <v>188571</v>
+        <v>449840</v>
       </c>
       <c r="F964">
-        <v>52.72</v>
+        <v>66.19</v>
       </c>
       <c r="G964">
-        <v>3200</v>
+        <v>6200</v>
       </c>
       <c r="H964">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J964" s="2">
@@ -36980,35 +36980,35 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>Adri Steels Pvt Limited</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C965">
-        <v>273480</v>
+        <v>189088</v>
       </c>
       <c r="D965">
-        <v>133474.2</v>
+        <v>23057.6</v>
       </c>
       <c r="E965">
-        <v>306042</v>
+        <v>207923</v>
       </c>
       <c r="F965">
-        <v>45.58</v>
+        <v>59.09</v>
       </c>
       <c r="G965">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="H965">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J965" s="2">
@@ -37018,31 +37018,31 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C966">
-        <v>176215.05</v>
+        <v>342080</v>
       </c>
       <c r="D966">
-        <v>8810.76</v>
+        <v>117592.12</v>
       </c>
       <c r="E966">
-        <v>185026.7</v>
+        <v>394403.32</v>
       </c>
       <c r="F966">
-        <v>40.37</v>
+        <v>53.45</v>
       </c>
       <c r="G966">
-        <v>4365</v>
+        <v>6400</v>
       </c>
       <c r="H966">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I966" t="inlineStr">
         <is>
@@ -37056,31 +37056,36 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>Adri Steels Pvt Limited</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C967">
-        <v>310312</v>
+        <v>273480</v>
       </c>
       <c r="D967">
-        <v>167601.66</v>
+        <v>133474.2</v>
       </c>
       <c r="E967">
-        <v>341639</v>
+        <v>306042</v>
       </c>
       <c r="F967">
-        <v>39.28</v>
+        <v>45.58</v>
       </c>
       <c r="G967">
-        <v>7900</v>
+        <v>6000</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I967" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
       </c>
       <c r="J967" s="2">
         <v>45261</v>
@@ -37089,31 +37094,31 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C968">
-        <v>291129</v>
+        <v>176215.05</v>
       </c>
       <c r="D968">
-        <v>291129</v>
+        <v>8810.76</v>
       </c>
       <c r="E968">
-        <v>291129</v>
+        <v>185026.7</v>
       </c>
       <c r="F968">
-        <v>36.62</v>
+        <v>40.37</v>
       </c>
       <c r="G968">
-        <v>7950.000000000001</v>
+        <v>4365</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I968" t="inlineStr">
         <is>
@@ -37127,36 +37132,31 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C969">
-        <v>122604</v>
+        <v>310312</v>
       </c>
       <c r="D969">
-        <v>22068.72</v>
+        <v>167601.66</v>
       </c>
       <c r="E969">
-        <v>144673</v>
+        <v>341639</v>
       </c>
       <c r="F969">
-        <v>36.06</v>
+        <v>39.28</v>
       </c>
       <c r="G969">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="H969">
-        <v>1</v>
-      </c>
-      <c r="I969" t="inlineStr">
-        <is>
-          <t>Sunil Rathi</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="J969" s="2">
         <v>45261</v>
@@ -37165,7 +37165,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -37174,26 +37174,26 @@
         </is>
       </c>
       <c r="C970">
-        <v>281190</v>
+        <v>291129</v>
       </c>
       <c r="D970">
-        <v>50614.2</v>
+        <v>291129</v>
       </c>
       <c r="E970">
-        <v>331804</v>
+        <v>291129</v>
       </c>
       <c r="F970">
-        <v>36.05</v>
+        <v>36.62</v>
       </c>
       <c r="G970">
-        <v>7800.000000000001</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J970" s="2">
@@ -37203,35 +37203,35 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C971">
-        <v>221445</v>
+        <v>122604</v>
       </c>
       <c r="D971">
-        <v>39860.1</v>
+        <v>22068.72</v>
       </c>
       <c r="E971">
-        <v>261305</v>
+        <v>144673</v>
       </c>
       <c r="F971">
-        <v>35.15</v>
+        <v>36.06</v>
       </c>
       <c r="G971">
-        <v>6300</v>
+        <v>3400</v>
       </c>
       <c r="H971">
         <v>1</v>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J971" s="2">
@@ -37241,35 +37241,35 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C972">
-        <v>220941</v>
+        <v>281190</v>
       </c>
       <c r="D972">
-        <v>39769.38</v>
+        <v>50614.2</v>
       </c>
       <c r="E972">
-        <v>260710</v>
+        <v>331804</v>
       </c>
       <c r="F972">
-        <v>35.07</v>
+        <v>36.05</v>
       </c>
       <c r="G972">
-        <v>6300</v>
+        <v>7800.000000000001</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J972" s="2">
@@ -37279,7 +37279,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -37288,26 +37288,26 @@
         </is>
       </c>
       <c r="C973">
-        <v>216909</v>
+        <v>221445</v>
       </c>
       <c r="D973">
-        <v>39043.62</v>
+        <v>39860.1</v>
       </c>
       <c r="E973">
-        <v>255952.88</v>
+        <v>261305</v>
       </c>
       <c r="F973">
-        <v>34.43</v>
+        <v>35.15</v>
       </c>
       <c r="G973">
         <v>6300</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J973" s="2">
@@ -37317,35 +37317,35 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C974">
-        <v>104640</v>
+        <v>220941</v>
       </c>
       <c r="D974">
-        <v>18835.2</v>
+        <v>39769.38</v>
       </c>
       <c r="E974">
-        <v>123475</v>
+        <v>260710</v>
       </c>
       <c r="F974">
-        <v>32.7</v>
+        <v>35.07</v>
       </c>
       <c r="G974">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="H974">
         <v>1</v>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J974" s="2">
@@ -37355,7 +37355,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -37364,26 +37364,26 @@
         </is>
       </c>
       <c r="C975">
-        <v>202608</v>
+        <v>216909</v>
       </c>
       <c r="D975">
-        <v>36469.44</v>
+        <v>39043.62</v>
       </c>
       <c r="E975">
-        <v>239077</v>
+        <v>255952.88</v>
       </c>
       <c r="F975">
-        <v>32.16</v>
+        <v>34.43</v>
       </c>
       <c r="G975">
         <v>6300</v>
       </c>
       <c r="H975">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J975" s="2">
@@ -37393,35 +37393,35 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C976">
-        <v>138163.2</v>
+        <v>202608</v>
       </c>
       <c r="D976">
-        <v>6908.16</v>
+        <v>36469.44</v>
       </c>
       <c r="E976">
-        <v>145072</v>
+        <v>239077</v>
       </c>
       <c r="F976">
-        <v>30.84</v>
+        <v>32.16</v>
       </c>
       <c r="G976">
-        <v>4480</v>
+        <v>6300</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J976" s="2">
@@ -37431,35 +37431,35 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C977">
-        <v>192906</v>
+        <v>138163.2</v>
       </c>
       <c r="D977">
-        <v>34723.08</v>
+        <v>6908.16</v>
       </c>
       <c r="E977">
-        <v>227629</v>
+        <v>145072</v>
       </c>
       <c r="F977">
-        <v>30.62</v>
+        <v>30.84</v>
       </c>
       <c r="G977">
-        <v>6300</v>
+        <v>4480</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J977" s="2">
@@ -37469,7 +37469,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Govaan Steel Private Limited Quartztech</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -37478,16 +37478,16 @@
         </is>
       </c>
       <c r="C978">
-        <v>192087</v>
+        <v>192906</v>
       </c>
       <c r="D978">
-        <v>34575.66</v>
+        <v>34723.08</v>
       </c>
       <c r="E978">
-        <v>226663</v>
+        <v>227629</v>
       </c>
       <c r="F978">
-        <v>30.49</v>
+        <v>30.62</v>
       </c>
       <c r="G978">
         <v>6300</v>
@@ -37497,7 +37497,7 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J978" s="2">
@@ -37507,7 +37507,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Govaan Steel Private Limited Quartztech</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -37516,26 +37516,26 @@
         </is>
       </c>
       <c r="C979">
-        <v>183549</v>
+        <v>192087</v>
       </c>
       <c r="D979">
-        <v>33038.82</v>
+        <v>34575.66</v>
       </c>
       <c r="E979">
-        <v>216588</v>
+        <v>226663</v>
       </c>
       <c r="F979">
-        <v>30.09</v>
+        <v>30.49</v>
       </c>
       <c r="G979">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="H979">
         <v>1</v>
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J979" s="2">
@@ -37545,35 +37545,35 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>FERROSCO INDUSTRIES PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C980">
-        <v>114922.5</v>
+        <v>189378</v>
       </c>
       <c r="D980">
-        <v>20686.05</v>
+        <v>34088.04</v>
       </c>
       <c r="E980">
-        <v>135609</v>
+        <v>189378</v>
       </c>
       <c r="F980">
-        <v>29.85</v>
+        <v>30.06</v>
       </c>
       <c r="G980">
-        <v>3850</v>
+        <v>6300</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J980" s="2">
@@ -37583,7 +37583,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -37592,19 +37592,19 @@
         </is>
       </c>
       <c r="C981">
-        <v>44764</v>
+        <v>114922.5</v>
       </c>
       <c r="D981">
-        <v>6615.1</v>
+        <v>20686.05</v>
       </c>
       <c r="E981">
-        <v>51379.5</v>
+        <v>135609</v>
       </c>
       <c r="F981">
-        <v>28.88</v>
+        <v>29.85</v>
       </c>
       <c r="G981">
-        <v>1550</v>
+        <v>3850</v>
       </c>
       <c r="H981">
         <v>2</v>
@@ -37621,28 +37621,28 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>Sonal Irons Industry Private Limited</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C982">
-        <v>183696</v>
+        <v>44764</v>
       </c>
       <c r="D982">
-        <v>33065.28</v>
+        <v>6615.1</v>
       </c>
       <c r="E982">
-        <v>216761</v>
+        <v>51379.5</v>
       </c>
       <c r="F982">
-        <v>28.48</v>
+        <v>28.88</v>
       </c>
       <c r="G982">
-        <v>6450</v>
+        <v>1550</v>
       </c>
       <c r="H982">
         <v>2</v>
@@ -37659,31 +37659,31 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Sonal Irons Industry Private Limited</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C983">
-        <v>41136</v>
+        <v>183696</v>
       </c>
       <c r="D983">
-        <v>1488.96</v>
+        <v>33065.28</v>
       </c>
       <c r="E983">
-        <v>42625</v>
+        <v>216761</v>
       </c>
       <c r="F983">
-        <v>25.71</v>
+        <v>28.48</v>
       </c>
       <c r="G983">
-        <v>1600</v>
+        <v>6450</v>
       </c>
       <c r="H983">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr">
         <is>
@@ -37697,35 +37697,35 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C984">
-        <v>159201</v>
+        <v>41136</v>
       </c>
       <c r="D984">
-        <v>28656.18</v>
+        <v>1488.96</v>
       </c>
       <c r="E984">
-        <v>187857</v>
+        <v>42625</v>
       </c>
       <c r="F984">
-        <v>25.27</v>
+        <v>25.71</v>
       </c>
       <c r="G984">
-        <v>6300</v>
+        <v>1600</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J984" s="2">
@@ -37735,30 +37735,35 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Indo Borax &amp; Chemicals Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C985">
-        <v>2171400</v>
+        <v>159201</v>
       </c>
       <c r="D985">
-        <v>390852</v>
+        <v>28656.18</v>
       </c>
       <c r="E985">
-        <v>2562252</v>
+        <v>187857</v>
       </c>
       <c r="F985">
-        <v>23.1</v>
+        <v>25.27</v>
       </c>
       <c r="G985">
-        <v>94000</v>
+        <v>6300</v>
       </c>
       <c r="H985">
         <v>1</v>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J985" s="2">
@@ -37768,28 +37773,23 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>Quartz Powder</t>
+          <t>Indo Borax &amp; Chemicals Ltd</t>
         </is>
       </c>
       <c r="C986">
-        <v>59296</v>
+        <v>2171400</v>
       </c>
       <c r="D986">
-        <v>2964.8</v>
+        <v>390852</v>
       </c>
       <c r="E986">
-        <v>62261</v>
+        <v>2562252</v>
       </c>
       <c r="F986">
-        <v>21.8</v>
+        <v>23.1</v>
       </c>
       <c r="G986">
-        <v>2720</v>
+        <v>94000</v>
       </c>
       <c r="H986">
         <v>1</v>
@@ -37806,35 +37806,35 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C987">
-        <v>115560</v>
+        <v>59296</v>
       </c>
       <c r="D987">
-        <v>43531.56</v>
+        <v>2964.8</v>
       </c>
       <c r="E987">
-        <v>126360</v>
+        <v>62261</v>
       </c>
       <c r="F987">
-        <v>19.26</v>
+        <v>21.8</v>
       </c>
       <c r="G987">
-        <v>6000.000000000001</v>
+        <v>2720</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J987" s="2">
@@ -37844,35 +37844,35 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C988">
-        <v>66040</v>
+        <v>115560</v>
       </c>
       <c r="D988">
-        <v>3302</v>
+        <v>43531.56</v>
       </c>
       <c r="E988">
-        <v>69342</v>
+        <v>126360</v>
       </c>
       <c r="F988">
-        <v>16.51</v>
+        <v>19.26</v>
       </c>
       <c r="G988">
-        <v>4000</v>
+        <v>6000.000000000001</v>
       </c>
       <c r="H988">
         <v>2</v>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J988" s="2">
@@ -37882,35 +37882,35 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C989">
-        <v>126282</v>
+        <v>66040</v>
       </c>
       <c r="D989">
-        <v>0</v>
+        <v>3302</v>
       </c>
       <c r="E989">
-        <v>126282</v>
+        <v>69342</v>
       </c>
       <c r="F989">
-        <v>16.19</v>
+        <v>16.51</v>
       </c>
       <c r="G989">
-        <v>7800</v>
+        <v>4000</v>
       </c>
       <c r="H989">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J989" s="2">
@@ -37920,7 +37920,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -37929,26 +37929,26 @@
         </is>
       </c>
       <c r="C990">
-        <v>21825</v>
+        <v>126282</v>
       </c>
       <c r="D990">
         <v>0</v>
       </c>
       <c r="E990">
-        <v>21825</v>
+        <v>126282</v>
       </c>
       <c r="F990">
-        <v>5.82</v>
+        <v>16.19</v>
       </c>
       <c r="G990">
-        <v>3750</v>
+        <v>7800</v>
       </c>
       <c r="H990">
         <v>1</v>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J990" s="2">
@@ -37958,7 +37958,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -37967,26 +37967,26 @@
         </is>
       </c>
       <c r="C991">
-        <v>42722</v>
+        <v>21825</v>
       </c>
       <c r="D991">
-        <v>9074.159999999996</v>
+        <v>0</v>
       </c>
       <c r="E991">
-        <v>50412</v>
+        <v>21825</v>
       </c>
       <c r="F991">
-        <v>5.21</v>
+        <v>5.82</v>
       </c>
       <c r="G991">
-        <v>8200</v>
+        <v>3750</v>
       </c>
       <c r="H991">
         <v>1</v>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J991" s="2">
@@ -37996,35 +37996,35 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C992">
-        <v>15510</v>
+        <v>42722</v>
       </c>
       <c r="D992">
-        <v>2791.8</v>
+        <v>9074.159999999996</v>
       </c>
       <c r="E992">
-        <v>18302</v>
+        <v>50412</v>
       </c>
       <c r="F992">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="G992">
-        <v>3000</v>
+        <v>8200</v>
       </c>
       <c r="H992">
         <v>1</v>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J992" s="2">
@@ -38034,30 +38034,35 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C993">
-        <v>210000</v>
+        <v>15510</v>
       </c>
       <c r="D993">
-        <v>37800</v>
+        <v>2791.8</v>
       </c>
       <c r="E993">
-        <v>247800</v>
+        <v>18302</v>
       </c>
       <c r="F993">
-        <v>2</v>
+        <v>5.17</v>
       </c>
       <c r="G993">
-        <v>105000</v>
+        <v>3000</v>
       </c>
       <c r="H993">
         <v>1</v>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J993" s="2">
@@ -38067,23 +38072,23 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>SIDHARATH CHEMICALS</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="C994">
-        <v>227500</v>
+        <v>210000</v>
       </c>
       <c r="D994">
-        <v>40950</v>
+        <v>37800</v>
       </c>
       <c r="E994">
-        <v>268450</v>
+        <v>247800</v>
       </c>
       <c r="F994">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="G994">
-        <v>325000</v>
+        <v>105000</v>
       </c>
       <c r="H994">
         <v>1</v>
@@ -38100,33 +38105,66 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
+          <t>SIDHARATH CHEMICALS</t>
+        </is>
+      </c>
+      <c r="C995">
+        <v>227500</v>
+      </c>
+      <c r="D995">
+        <v>40950</v>
+      </c>
+      <c r="E995">
+        <v>268450</v>
+      </c>
+      <c r="F995">
+        <v>0.7</v>
+      </c>
+      <c r="G995">
+        <v>325000</v>
+      </c>
+      <c r="H995">
+        <v>1</v>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J995" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
           <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
-      <c r="C995">
+      <c r="C996">
         <v>34000</v>
       </c>
-      <c r="D995">
+      <c r="D996">
         <v>6120</v>
       </c>
-      <c r="E995">
+      <c r="E996">
         <v>40120</v>
       </c>
-      <c r="F995">
+      <c r="F996">
         <v>0.1</v>
       </c>
-      <c r="G995">
+      <c r="G996">
         <v>340000</v>
       </c>
-      <c r="H995">
-        <v>1</v>
-      </c>
-      <c r="I995" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J995" s="2">
+      <c r="H996">
+        <v>1</v>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J996" s="2">
         <v>45261</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -36343,22 +36343,22 @@
         </is>
       </c>
       <c r="C948">
-        <v>2143638</v>
+        <v>2501626.5</v>
       </c>
       <c r="D948">
-        <v>396643.6799999999</v>
+        <v>461081.6099999999</v>
       </c>
       <c r="E948">
-        <v>2529586</v>
+        <v>2887574.5</v>
       </c>
       <c r="F948">
-        <v>269.64</v>
+        <v>314.67</v>
       </c>
       <c r="G948">
         <v>7950</v>
       </c>
       <c r="H948">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I948" t="inlineStr">
         <is>
@@ -36381,22 +36381,22 @@
         </is>
       </c>
       <c r="C949">
-        <v>2010234</v>
+        <v>2270460</v>
       </c>
       <c r="D949">
         <v>370368.18</v>
       </c>
       <c r="E949">
-        <v>2372076</v>
+        <v>2632302</v>
       </c>
       <c r="F949">
-        <v>254.46</v>
+        <v>287.4</v>
       </c>
       <c r="G949">
         <v>7900</v>
       </c>
       <c r="H949">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I949" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -37967,26 +37967,26 @@
         </is>
       </c>
       <c r="C991">
-        <v>21825</v>
+        <v>85116</v>
       </c>
       <c r="D991">
-        <v>0</v>
+        <v>16705.07999999999</v>
       </c>
       <c r="E991">
-        <v>21825</v>
+        <v>92806</v>
       </c>
       <c r="F991">
-        <v>5.82</v>
+        <v>10.38</v>
       </c>
       <c r="G991">
-        <v>3750</v>
+        <v>8200</v>
       </c>
       <c r="H991">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J991" s="2">
@@ -37996,7 +37996,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -38005,26 +38005,26 @@
         </is>
       </c>
       <c r="C992">
-        <v>42722</v>
+        <v>21825</v>
       </c>
       <c r="D992">
-        <v>9074.159999999996</v>
+        <v>0</v>
       </c>
       <c r="E992">
-        <v>50412</v>
+        <v>21825</v>
       </c>
       <c r="F992">
-        <v>5.21</v>
+        <v>5.82</v>
       </c>
       <c r="G992">
-        <v>8200</v>
+        <v>3750</v>
       </c>
       <c r="H992">
         <v>1</v>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J992" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J996"/>
+  <dimension ref="A1:J1036"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J913" s="2">
@@ -35450,7 +35450,7 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J924" s="2">
@@ -36334,7 +36334,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -36343,22 +36343,22 @@
         </is>
       </c>
       <c r="C948">
-        <v>2501626.5</v>
+        <v>2792755.5</v>
       </c>
       <c r="D948">
-        <v>461081.6099999999</v>
+        <v>752210.61</v>
       </c>
       <c r="E948">
-        <v>2887574.5</v>
+        <v>3178703.5</v>
       </c>
       <c r="F948">
-        <v>314.67</v>
+        <v>351.29</v>
       </c>
       <c r="G948">
-        <v>7950</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H948">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I948" t="inlineStr">
         <is>
@@ -37158,6 +37158,11 @@
       <c r="H969">
         <v>2</v>
       </c>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
       <c r="J969" s="2">
         <v>45261</v>
       </c>
@@ -37165,35 +37170,35 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C970">
-        <v>291129</v>
+        <v>122604</v>
       </c>
       <c r="D970">
-        <v>291129</v>
+        <v>22068.72</v>
       </c>
       <c r="E970">
-        <v>291129</v>
+        <v>144673</v>
       </c>
       <c r="F970">
-        <v>36.62</v>
+        <v>36.06</v>
       </c>
       <c r="G970">
-        <v>7950.000000000001</v>
+        <v>3400</v>
       </c>
       <c r="H970">
         <v>1</v>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J970" s="2">
@@ -37203,35 +37208,35 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C971">
-        <v>122604</v>
+        <v>281190</v>
       </c>
       <c r="D971">
-        <v>22068.72</v>
+        <v>50614.2</v>
       </c>
       <c r="E971">
-        <v>144673</v>
+        <v>331804</v>
       </c>
       <c r="F971">
-        <v>36.06</v>
+        <v>36.05</v>
       </c>
       <c r="G971">
-        <v>3400</v>
+        <v>7800.000000000001</v>
       </c>
       <c r="H971">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J971" s="2">
@@ -37241,35 +37246,35 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C972">
-        <v>281190</v>
+        <v>221445</v>
       </c>
       <c r="D972">
-        <v>50614.2</v>
+        <v>39860.1</v>
       </c>
       <c r="E972">
-        <v>331804</v>
+        <v>261305</v>
       </c>
       <c r="F972">
-        <v>36.05</v>
+        <v>35.15</v>
       </c>
       <c r="G972">
-        <v>7800.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J972" s="2">
@@ -37279,7 +37284,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -37288,16 +37293,16 @@
         </is>
       </c>
       <c r="C973">
-        <v>221445</v>
+        <v>220941</v>
       </c>
       <c r="D973">
-        <v>39860.1</v>
+        <v>39769.38</v>
       </c>
       <c r="E973">
-        <v>261305</v>
+        <v>260710</v>
       </c>
       <c r="F973">
-        <v>35.15</v>
+        <v>35.07</v>
       </c>
       <c r="G973">
         <v>6300</v>
@@ -37307,7 +37312,7 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J973" s="2">
@@ -37317,7 +37322,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -37326,26 +37331,26 @@
         </is>
       </c>
       <c r="C974">
-        <v>220941</v>
+        <v>216909</v>
       </c>
       <c r="D974">
-        <v>39769.38</v>
+        <v>39043.62</v>
       </c>
       <c r="E974">
-        <v>260710</v>
+        <v>255952.88</v>
       </c>
       <c r="F974">
-        <v>35.07</v>
+        <v>34.43</v>
       </c>
       <c r="G974">
         <v>6300</v>
       </c>
       <c r="H974">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J974" s="2">
@@ -37355,7 +37360,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -37364,26 +37369,26 @@
         </is>
       </c>
       <c r="C975">
-        <v>216909</v>
+        <v>202608</v>
       </c>
       <c r="D975">
-        <v>39043.62</v>
+        <v>36469.44</v>
       </c>
       <c r="E975">
-        <v>255952.88</v>
+        <v>239077</v>
       </c>
       <c r="F975">
-        <v>34.43</v>
+        <v>32.16</v>
       </c>
       <c r="G975">
         <v>6300</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J975" s="2">
@@ -37393,35 +37398,35 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Oswal Smelters Pvt Ltd</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Grain</t>
         </is>
       </c>
       <c r="C976">
-        <v>202608</v>
+        <v>138163.2</v>
       </c>
       <c r="D976">
-        <v>36469.44</v>
+        <v>6908.16</v>
       </c>
       <c r="E976">
-        <v>239077</v>
+        <v>145072</v>
       </c>
       <c r="F976">
-        <v>32.16</v>
+        <v>30.84</v>
       </c>
       <c r="G976">
-        <v>6300</v>
+        <v>4480</v>
       </c>
       <c r="H976">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J976" s="2">
@@ -37431,35 +37436,35 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>Oswal Smelters Pvt Ltd</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>Quartz Grain</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C977">
-        <v>138163.2</v>
+        <v>192906</v>
       </c>
       <c r="D977">
-        <v>6908.16</v>
+        <v>34723.08</v>
       </c>
       <c r="E977">
-        <v>145072</v>
+        <v>227629</v>
       </c>
       <c r="F977">
-        <v>30.84</v>
+        <v>30.62</v>
       </c>
       <c r="G977">
-        <v>4480</v>
+        <v>6300</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J977" s="2">
@@ -37469,7 +37474,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -37478,16 +37483,16 @@
         </is>
       </c>
       <c r="C978">
-        <v>192906</v>
+        <v>192087</v>
       </c>
       <c r="D978">
-        <v>34723.08</v>
+        <v>34575.66</v>
       </c>
       <c r="E978">
-        <v>227629</v>
+        <v>226663</v>
       </c>
       <c r="F978">
-        <v>30.62</v>
+        <v>30.49</v>
       </c>
       <c r="G978">
         <v>6300</v>
@@ -37497,7 +37502,7 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J978" s="2">
@@ -37507,7 +37512,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Govaan Steel Private Limited Quartztech</t>
+          <t>FERROSCO INDUSTRIES PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -37516,16 +37521,16 @@
         </is>
       </c>
       <c r="C979">
-        <v>192087</v>
+        <v>189378</v>
       </c>
       <c r="D979">
-        <v>34575.66</v>
+        <v>34088.04</v>
       </c>
       <c r="E979">
-        <v>226663</v>
+        <v>189378</v>
       </c>
       <c r="F979">
-        <v>30.49</v>
+        <v>30.06</v>
       </c>
       <c r="G979">
         <v>6300</v>
@@ -37535,7 +37540,7 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J979" s="2">
@@ -37545,35 +37550,35 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>FERROSCO INDUSTRIES PRIVATE LIMITED</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C980">
-        <v>189378</v>
+        <v>114922.5</v>
       </c>
       <c r="D980">
-        <v>34088.04</v>
+        <v>20686.05</v>
       </c>
       <c r="E980">
-        <v>189378</v>
+        <v>135609</v>
       </c>
       <c r="F980">
-        <v>30.06</v>
+        <v>29.85</v>
       </c>
       <c r="G980">
-        <v>6300</v>
+        <v>3850</v>
       </c>
       <c r="H980">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J980" s="2">
@@ -37583,7 +37588,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -37592,19 +37597,19 @@
         </is>
       </c>
       <c r="C981">
-        <v>114922.5</v>
+        <v>44764</v>
       </c>
       <c r="D981">
-        <v>20686.05</v>
+        <v>6615.1</v>
       </c>
       <c r="E981">
-        <v>135609</v>
+        <v>51379.5</v>
       </c>
       <c r="F981">
-        <v>29.85</v>
+        <v>28.88</v>
       </c>
       <c r="G981">
-        <v>3850</v>
+        <v>1550</v>
       </c>
       <c r="H981">
         <v>2</v>
@@ -37621,28 +37626,28 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Sonal Irons Industry Private Limited</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C982">
-        <v>44764</v>
+        <v>183696</v>
       </c>
       <c r="D982">
-        <v>6615.1</v>
+        <v>33065.28</v>
       </c>
       <c r="E982">
-        <v>51379.5</v>
+        <v>216761</v>
       </c>
       <c r="F982">
-        <v>28.88</v>
+        <v>28.48</v>
       </c>
       <c r="G982">
-        <v>1550</v>
+        <v>6450</v>
       </c>
       <c r="H982">
         <v>2</v>
@@ -37659,31 +37664,31 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Sonal Irons Industry Private Limited</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C983">
-        <v>183696</v>
+        <v>41136</v>
       </c>
       <c r="D983">
-        <v>33065.28</v>
+        <v>1488.96</v>
       </c>
       <c r="E983">
-        <v>216761</v>
+        <v>42625</v>
       </c>
       <c r="F983">
-        <v>28.48</v>
+        <v>25.71</v>
       </c>
       <c r="G983">
-        <v>6450</v>
+        <v>1600</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I983" t="inlineStr">
         <is>
@@ -37697,35 +37702,35 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C984">
-        <v>41136</v>
+        <v>159201</v>
       </c>
       <c r="D984">
-        <v>1488.96</v>
+        <v>28656.18</v>
       </c>
       <c r="E984">
-        <v>42625</v>
+        <v>187857</v>
       </c>
       <c r="F984">
-        <v>25.71</v>
+        <v>25.27</v>
       </c>
       <c r="G984">
-        <v>1600</v>
+        <v>6300</v>
       </c>
       <c r="H984">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J984" s="2">
@@ -37735,35 +37740,30 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
+          <t>Indo Borax &amp; Chemicals Ltd</t>
         </is>
       </c>
       <c r="C985">
-        <v>159201</v>
+        <v>2171400</v>
       </c>
       <c r="D985">
-        <v>28656.18</v>
+        <v>390852</v>
       </c>
       <c r="E985">
-        <v>187857</v>
+        <v>2562252</v>
       </c>
       <c r="F985">
-        <v>25.27</v>
+        <v>23.1</v>
       </c>
       <c r="G985">
-        <v>6300</v>
+        <v>94000</v>
       </c>
       <c r="H985">
         <v>1</v>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J985" s="2">
@@ -37773,23 +37773,28 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Indo Borax &amp; Chemicals Ltd</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C986">
-        <v>2171400</v>
+        <v>59296</v>
       </c>
       <c r="D986">
-        <v>390852</v>
+        <v>2964.8</v>
       </c>
       <c r="E986">
-        <v>2562252</v>
+        <v>62261</v>
       </c>
       <c r="F986">
-        <v>23.1</v>
+        <v>21.8</v>
       </c>
       <c r="G986">
-        <v>94000</v>
+        <v>2720</v>
       </c>
       <c r="H986">
         <v>1</v>
@@ -37806,35 +37811,35 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C987">
-        <v>59296</v>
+        <v>115560</v>
       </c>
       <c r="D987">
-        <v>2964.8</v>
+        <v>43531.56</v>
       </c>
       <c r="E987">
-        <v>62261</v>
+        <v>126360</v>
       </c>
       <c r="F987">
-        <v>21.8</v>
+        <v>19.26</v>
       </c>
       <c r="G987">
-        <v>2720</v>
+        <v>6000.000000000001</v>
       </c>
       <c r="H987">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J987" s="2">
@@ -37844,35 +37849,35 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C988">
-        <v>115560</v>
+        <v>66040</v>
       </c>
       <c r="D988">
-        <v>43531.56</v>
+        <v>3302</v>
       </c>
       <c r="E988">
-        <v>126360</v>
+        <v>69342</v>
       </c>
       <c r="F988">
-        <v>19.26</v>
+        <v>16.51</v>
       </c>
       <c r="G988">
-        <v>6000.000000000001</v>
+        <v>4000</v>
       </c>
       <c r="H988">
         <v>2</v>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J988" s="2">
@@ -37882,35 +37887,35 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C989">
-        <v>66040</v>
+        <v>126282</v>
       </c>
       <c r="D989">
-        <v>3302</v>
+        <v>0</v>
       </c>
       <c r="E989">
-        <v>69342</v>
+        <v>126282</v>
       </c>
       <c r="F989">
-        <v>16.51</v>
+        <v>16.19</v>
       </c>
       <c r="G989">
-        <v>4000</v>
+        <v>7800</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J989" s="2">
@@ -37920,7 +37925,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -37929,26 +37934,26 @@
         </is>
       </c>
       <c r="C990">
-        <v>126282</v>
+        <v>85116</v>
       </c>
       <c r="D990">
-        <v>0</v>
+        <v>16705.07999999999</v>
       </c>
       <c r="E990">
-        <v>126282</v>
+        <v>92806</v>
       </c>
       <c r="F990">
-        <v>16.19</v>
+        <v>10.38</v>
       </c>
       <c r="G990">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J990" s="2">
@@ -37958,7 +37963,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -37967,26 +37972,26 @@
         </is>
       </c>
       <c r="C991">
-        <v>85116</v>
+        <v>21825</v>
       </c>
       <c r="D991">
-        <v>16705.07999999999</v>
+        <v>0</v>
       </c>
       <c r="E991">
-        <v>92806</v>
+        <v>21825</v>
       </c>
       <c r="F991">
-        <v>10.38</v>
+        <v>5.82</v>
       </c>
       <c r="G991">
-        <v>8200</v>
+        <v>3750</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J991" s="2">
@@ -37996,35 +38001,35 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C992">
-        <v>21825</v>
+        <v>15510</v>
       </c>
       <c r="D992">
-        <v>0</v>
+        <v>2791.8</v>
       </c>
       <c r="E992">
-        <v>21825</v>
+        <v>18302</v>
       </c>
       <c r="F992">
-        <v>5.82</v>
+        <v>5.17</v>
       </c>
       <c r="G992">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="H992">
         <v>1</v>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J992" s="2">
@@ -38034,35 +38039,30 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="C993">
-        <v>15510</v>
+        <v>210000</v>
       </c>
       <c r="D993">
-        <v>2791.8</v>
+        <v>37800</v>
       </c>
       <c r="E993">
-        <v>18302</v>
+        <v>247800</v>
       </c>
       <c r="F993">
-        <v>5.17</v>
+        <v>2</v>
       </c>
       <c r="G993">
-        <v>3000</v>
+        <v>105000</v>
       </c>
       <c r="H993">
         <v>1</v>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J993" s="2">
@@ -38072,23 +38072,23 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>SIDHARATH CHEMICALS</t>
         </is>
       </c>
       <c r="C994">
-        <v>210000</v>
+        <v>227500</v>
       </c>
       <c r="D994">
-        <v>37800</v>
+        <v>40950</v>
       </c>
       <c r="E994">
-        <v>247800</v>
+        <v>268450</v>
       </c>
       <c r="F994">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="G994">
-        <v>105000</v>
+        <v>325000</v>
       </c>
       <c r="H994">
         <v>1</v>
@@ -38105,23 +38105,23 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>SIDHARATH CHEMICALS</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="C995">
-        <v>227500</v>
+        <v>34000</v>
       </c>
       <c r="D995">
-        <v>40950</v>
+        <v>6120</v>
       </c>
       <c r="E995">
-        <v>268450</v>
+        <v>40120</v>
       </c>
       <c r="F995">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G995">
-        <v>325000</v>
+        <v>340000</v>
       </c>
       <c r="H995">
         <v>1</v>
@@ -38138,34 +38138,1548 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
+          <t>Sugna Metals Ltd.</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C996">
+        <v>3245190</v>
+      </c>
+      <c r="D996">
+        <v>632441.88</v>
+      </c>
+      <c r="E996">
+        <v>4146009</v>
+      </c>
+      <c r="F996">
+        <v>416.05</v>
+      </c>
+      <c r="G996">
+        <v>7800</v>
+      </c>
+      <c r="H996">
+        <v>15</v>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J996" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C997">
+        <v>2485726.5</v>
+      </c>
+      <c r="D997">
+        <v>447430.77</v>
+      </c>
+      <c r="E997">
+        <v>2933156</v>
+      </c>
+      <c r="F997">
+        <v>312.67</v>
+      </c>
+      <c r="G997">
+        <v>7950</v>
+      </c>
+      <c r="H997">
+        <v>10</v>
+      </c>
+      <c r="I997" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J997" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>BMM ISPAT LIMITED</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C998">
+        <v>2147466</v>
+      </c>
+      <c r="D998">
+        <v>386543.88</v>
+      </c>
+      <c r="E998">
+        <v>2534010.22</v>
+      </c>
+      <c r="F998">
+        <v>302.46</v>
+      </c>
+      <c r="G998">
+        <v>7100</v>
+      </c>
+      <c r="H998">
+        <v>10</v>
+      </c>
+      <c r="I998" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J998" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>A One Ispat Private Ltd</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C999">
+        <v>2355227</v>
+      </c>
+      <c r="D999">
+        <v>423940.86</v>
+      </c>
+      <c r="E999">
+        <v>2779168</v>
+      </c>
+      <c r="F999">
+        <v>298.13</v>
+      </c>
+      <c r="G999">
+        <v>7899.999999999999</v>
+      </c>
+      <c r="H999">
+        <v>9</v>
+      </c>
+      <c r="I999" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J999" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>A One Steels And Alloys Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1000">
+        <v>1726106</v>
+      </c>
+      <c r="D1000">
+        <v>310699.08</v>
+      </c>
+      <c r="E1000">
+        <v>2036805</v>
+      </c>
+      <c r="F1000">
+        <v>200.71</v>
+      </c>
+      <c r="G1000">
+        <v>8600</v>
+      </c>
+      <c r="H1000">
+        <v>9</v>
+      </c>
+      <c r="I1000" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1000" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1001">
+        <v>1389024</v>
+      </c>
+      <c r="D1001">
+        <v>265411.62</v>
+      </c>
+      <c r="E1001">
+        <v>1739922</v>
+      </c>
+      <c r="F1001">
+        <v>178.08</v>
+      </c>
+      <c r="G1001">
+        <v>7799.999999999999</v>
+      </c>
+      <c r="H1001">
+        <v>8</v>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1001" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1002">
+        <v>604982</v>
+      </c>
+      <c r="D1002">
+        <v>112611.96</v>
+      </c>
+      <c r="E1002">
+        <v>677405</v>
+      </c>
+      <c r="F1002">
+        <v>153.16</v>
+      </c>
+      <c r="G1002">
+        <v>3950</v>
+      </c>
+      <c r="H1002">
+        <v>5</v>
+      </c>
+      <c r="I1002" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1002" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>Pulkit Metals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1003">
+        <v>810480</v>
+      </c>
+      <c r="D1003">
+        <v>145886.4</v>
+      </c>
+      <c r="E1003">
+        <v>956368</v>
+      </c>
+      <c r="F1003">
+        <v>135.08</v>
+      </c>
+      <c r="G1003">
+        <v>6000.000000000001</v>
+      </c>
+      <c r="H1003">
+        <v>7</v>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1003" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1004">
+        <v>847172</v>
+      </c>
+      <c r="D1004">
+        <v>152490.96</v>
+      </c>
+      <c r="E1004">
+        <v>999663</v>
+      </c>
+      <c r="F1004">
+        <v>111.47</v>
+      </c>
+      <c r="G1004">
+        <v>7600.000000000001</v>
+      </c>
+      <c r="H1004">
+        <v>6</v>
+      </c>
+      <c r="I1004" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1004" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1005">
+        <v>846640</v>
+      </c>
+      <c r="D1005">
+        <v>152395.2</v>
+      </c>
+      <c r="E1005">
+        <v>999036</v>
+      </c>
+      <c r="F1005">
+        <v>105.83</v>
+      </c>
+      <c r="G1005">
+        <v>8000</v>
+      </c>
+      <c r="H1005">
+        <v>5</v>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1005" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>Pushpit Steels Private Limited</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1006">
+        <v>647342</v>
+      </c>
+      <c r="D1006">
+        <v>116521.56</v>
+      </c>
+      <c r="E1006">
+        <v>763863</v>
+      </c>
+      <c r="F1006">
+        <v>104.41</v>
+      </c>
+      <c r="G1006">
+        <v>6200</v>
+      </c>
+      <c r="H1006">
+        <v>5</v>
+      </c>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1006" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1007">
+        <v>628425</v>
+      </c>
+      <c r="D1007">
+        <v>113116.5</v>
+      </c>
+      <c r="E1007">
+        <v>741542</v>
+      </c>
+      <c r="F1007">
+        <v>83.78999999999999</v>
+      </c>
+      <c r="G1007">
+        <v>7500.000000000001</v>
+      </c>
+      <c r="H1007">
+        <v>4</v>
+      </c>
+      <c r="I1007" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1007" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1008">
+        <v>243022.5</v>
+      </c>
+      <c r="D1008">
+        <v>49338.02</v>
+      </c>
+      <c r="E1008">
+        <v>265255</v>
+      </c>
+      <c r="F1008">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="G1008">
+        <v>3150</v>
+      </c>
+      <c r="H1008">
+        <v>4</v>
+      </c>
+      <c r="I1008" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1008" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1009">
+        <v>562770</v>
+      </c>
+      <c r="D1009">
+        <v>101298.6</v>
+      </c>
+      <c r="E1009">
+        <v>664068</v>
+      </c>
+      <c r="F1009">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="G1009">
+        <v>7799.999999999999</v>
+      </c>
+      <c r="H1009">
+        <v>4</v>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1009" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1010">
+        <v>596988</v>
+      </c>
+      <c r="D1010">
+        <v>107457.84</v>
+      </c>
+      <c r="E1010">
+        <v>704446</v>
+      </c>
+      <c r="F1010">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="G1010">
+        <v>8400</v>
+      </c>
+      <c r="H1010">
+        <v>4</v>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1010" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1011">
+        <v>442008</v>
+      </c>
+      <c r="D1011">
+        <v>79561.44</v>
+      </c>
+      <c r="E1011">
+        <v>521570</v>
+      </c>
+      <c r="F1011">
+        <v>70.16</v>
+      </c>
+      <c r="G1011">
+        <v>6300</v>
+      </c>
+      <c r="H1011">
+        <v>4</v>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1011" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1012">
+        <v>405976</v>
+      </c>
+      <c r="D1012">
+        <v>73075.67999999999</v>
+      </c>
+      <c r="E1012">
+        <v>479052</v>
+      </c>
+      <c r="F1012">
+        <v>65.47999999999999</v>
+      </c>
+      <c r="G1012">
+        <v>6200.000000000001</v>
+      </c>
+      <c r="H1012">
+        <v>2</v>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1012" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1013">
+        <v>200896</v>
+      </c>
+      <c r="D1013">
+        <v>36161.28</v>
+      </c>
+      <c r="E1013">
+        <v>237057</v>
+      </c>
+      <c r="F1013">
+        <v>62.78</v>
+      </c>
+      <c r="G1013">
+        <v>3200</v>
+      </c>
+      <c r="H1013">
+        <v>4</v>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1013" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>Adri Steels Pvt Limited</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1014">
+        <v>343260</v>
+      </c>
+      <c r="D1014">
+        <v>61786.8</v>
+      </c>
+      <c r="E1014">
+        <v>405047</v>
+      </c>
+      <c r="F1014">
+        <v>57.21</v>
+      </c>
+      <c r="G1014">
+        <v>6000</v>
+      </c>
+      <c r="H1014">
+        <v>4</v>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1014" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C1015">
+        <v>195880</v>
+      </c>
+      <c r="D1015">
+        <v>9794</v>
+      </c>
+      <c r="E1015">
+        <v>205674</v>
+      </c>
+      <c r="F1015">
+        <v>48.97</v>
+      </c>
+      <c r="G1015">
+        <v>4000</v>
+      </c>
+      <c r="H1015">
+        <v>3</v>
+      </c>
+      <c r="I1015" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1015" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1016">
+        <v>59535.5</v>
+      </c>
+      <c r="D1016">
+        <v>5122.44</v>
+      </c>
+      <c r="E1016">
+        <v>64657.5</v>
+      </c>
+      <c r="F1016">
+        <v>38.41</v>
+      </c>
+      <c r="G1016">
+        <v>1550</v>
+      </c>
+      <c r="H1016">
+        <v>3</v>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1016" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>Sugna Metals Ltd.</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1017">
+        <v>277524</v>
+      </c>
+      <c r="D1017">
+        <v>49954.32</v>
+      </c>
+      <c r="E1017">
+        <v>327478</v>
+      </c>
+      <c r="F1017">
+        <v>35.58</v>
+      </c>
+      <c r="G1017">
+        <v>7800</v>
+      </c>
+      <c r="H1017">
+        <v>1</v>
+      </c>
+      <c r="I1017" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1017" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>Orange Fox Steel Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1018">
+        <v>228588</v>
+      </c>
+      <c r="D1018">
+        <v>41145.84</v>
+      </c>
+      <c r="E1018">
+        <v>269734</v>
+      </c>
+      <c r="F1018">
+        <v>35.44</v>
+      </c>
+      <c r="G1018">
+        <v>6450</v>
+      </c>
+      <c r="H1018">
+        <v>1</v>
+      </c>
+      <c r="I1018" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1018" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>Bharat Heavy Electricals Limited</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C1019">
+        <v>154521</v>
+      </c>
+      <c r="D1019">
+        <v>7726.049999999999</v>
+      </c>
+      <c r="E1019">
+        <v>162247</v>
+      </c>
+      <c r="F1019">
+        <v>35.40000000000001</v>
+      </c>
+      <c r="G1019">
+        <v>4364.999999999999</v>
+      </c>
+      <c r="H1019">
+        <v>2</v>
+      </c>
+      <c r="I1019" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1019" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1020">
+        <v>279660</v>
+      </c>
+      <c r="D1020">
+        <v>50338.8</v>
+      </c>
+      <c r="E1020">
+        <v>329999</v>
+      </c>
+      <c r="F1020">
+        <v>35.4</v>
+      </c>
+      <c r="G1020">
+        <v>7900</v>
+      </c>
+      <c r="H1020">
+        <v>1</v>
+      </c>
+      <c r="I1020" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1020" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1021">
+        <v>191898</v>
+      </c>
+      <c r="D1021">
+        <v>34541.64</v>
+      </c>
+      <c r="E1021">
+        <v>226440</v>
+      </c>
+      <c r="F1021">
+        <v>30.46</v>
+      </c>
+      <c r="G1021">
+        <v>6300</v>
+      </c>
+      <c r="H1021">
+        <v>1</v>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1021" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1022">
+        <v>104914.5</v>
+      </c>
+      <c r="D1022">
+        <v>18884.61</v>
+      </c>
+      <c r="E1022">
+        <v>123799</v>
+      </c>
+      <c r="F1022">
+        <v>30.41</v>
+      </c>
+      <c r="G1022">
+        <v>3450</v>
+      </c>
+      <c r="H1022">
+        <v>1</v>
+      </c>
+      <c r="I1022" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1022" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1023">
+        <v>234312</v>
+      </c>
+      <c r="D1023">
+        <v>42176.16</v>
+      </c>
+      <c r="E1023">
+        <v>276488</v>
+      </c>
+      <c r="F1023">
+        <v>30.04</v>
+      </c>
+      <c r="G1023">
+        <v>7800</v>
+      </c>
+      <c r="H1023">
+        <v>1</v>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1023" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1024">
+        <v>156051</v>
+      </c>
+      <c r="D1024">
+        <v>28089.18</v>
+      </c>
+      <c r="E1024">
+        <v>184140</v>
+      </c>
+      <c r="F1024">
+        <v>24.77</v>
+      </c>
+      <c r="G1024">
+        <v>6300</v>
+      </c>
+      <c r="H1024">
+        <v>1</v>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1024" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C1025">
+        <v>63679.5</v>
+      </c>
+      <c r="D1025">
+        <v>3183.98</v>
+      </c>
+      <c r="E1025">
+        <v>66863</v>
+      </c>
+      <c r="F1025">
+        <v>24.03</v>
+      </c>
+      <c r="G1025">
+        <v>2650</v>
+      </c>
+      <c r="H1025">
+        <v>1</v>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1025" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1026">
+        <v>119880</v>
+      </c>
+      <c r="D1026">
+        <v>9914.4</v>
+      </c>
+      <c r="F1026">
+        <v>19.98</v>
+      </c>
+      <c r="G1026">
+        <v>6000</v>
+      </c>
+      <c r="H1026">
+        <v>2</v>
+      </c>
+      <c r="I1026" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1026" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1027">
+        <v>154128</v>
+      </c>
+      <c r="D1027">
+        <v>39407.04</v>
+      </c>
+      <c r="E1027">
+        <v>258335</v>
+      </c>
+      <c r="F1027">
+        <v>19.76</v>
+      </c>
+      <c r="G1027">
+        <v>7799.999999999999</v>
+      </c>
+      <c r="H1027">
+        <v>1</v>
+      </c>
+      <c r="I1027" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1027" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1028">
+        <v>62879.99999999999</v>
+      </c>
+      <c r="D1028">
+        <v>0</v>
+      </c>
+      <c r="F1028">
+        <v>19.65</v>
+      </c>
+      <c r="G1028">
+        <v>3200</v>
+      </c>
+      <c r="H1028">
+        <v>1</v>
+      </c>
+      <c r="I1028" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1028" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1029">
+        <v>124722</v>
+      </c>
+      <c r="D1029">
+        <v>22449.96</v>
+      </c>
+      <c r="E1029">
+        <v>147171</v>
+      </c>
+      <c r="F1029">
+        <v>15.21</v>
+      </c>
+      <c r="G1029">
+        <v>8200</v>
+      </c>
+      <c r="H1029">
+        <v>3</v>
+      </c>
+      <c r="I1029" t="inlineStr">
+        <is>
+          <t>Sharad Bhutra</t>
+        </is>
+      </c>
+      <c r="J1029" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1030">
+        <v>95104</v>
+      </c>
+      <c r="D1030">
+        <v>17118.72</v>
+      </c>
+      <c r="E1030">
+        <v>112223</v>
+      </c>
+      <c r="F1030">
+        <v>14.86</v>
+      </c>
+      <c r="G1030">
+        <v>6400</v>
+      </c>
+      <c r="H1030">
+        <v>1</v>
+      </c>
+      <c r="I1030" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1030" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1031">
+        <v>20640</v>
+      </c>
+      <c r="D1031">
+        <v>0</v>
+      </c>
+      <c r="E1031">
+        <v>20640</v>
+      </c>
+      <c r="F1031">
+        <v>12.9</v>
+      </c>
+      <c r="G1031">
+        <v>1600</v>
+      </c>
+      <c r="H1031">
+        <v>2</v>
+      </c>
+      <c r="I1031" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1031" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>Adri Steels Pvt Limited</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1032">
+        <v>29910</v>
+      </c>
+      <c r="D1032">
+        <v>5383.8</v>
+      </c>
+      <c r="E1032">
+        <v>35294</v>
+      </c>
+      <c r="F1032">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="G1032">
+        <v>3000</v>
+      </c>
+      <c r="H1032">
+        <v>1</v>
+      </c>
+      <c r="I1032" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1032" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
           <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
-      <c r="C996">
-        <v>34000</v>
-      </c>
-      <c r="D996">
-        <v>6120</v>
-      </c>
-      <c r="E996">
-        <v>40120</v>
-      </c>
-      <c r="F996">
-        <v>0.1</v>
-      </c>
-      <c r="G996">
-        <v>340000</v>
-      </c>
-      <c r="H996">
-        <v>1</v>
-      </c>
-      <c r="I996" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J996" s="2">
-        <v>45261</v>
+      <c r="C1033">
+        <v>845250</v>
+      </c>
+      <c r="D1033">
+        <v>152145</v>
+      </c>
+      <c r="E1033">
+        <v>997395</v>
+      </c>
+      <c r="F1033">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="G1033">
+        <v>105000</v>
+      </c>
+      <c r="H1033">
+        <v>2</v>
+      </c>
+      <c r="I1033" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1033" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1034">
+        <v>34627.5</v>
+      </c>
+      <c r="D1034">
+        <v>6232.95</v>
+      </c>
+      <c r="E1034">
+        <v>40860</v>
+      </c>
+      <c r="F1034">
+        <v>5.13</v>
+      </c>
+      <c r="G1034">
+        <v>6750</v>
+      </c>
+      <c r="H1034">
+        <v>1</v>
+      </c>
+      <c r="I1034" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1034" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1035">
+        <v>16388</v>
+      </c>
+      <c r="D1035">
+        <v>2949.84</v>
+      </c>
+      <c r="E1035">
+        <v>19338</v>
+      </c>
+      <c r="F1035">
+        <v>4.82</v>
+      </c>
+      <c r="G1035">
+        <v>3400</v>
+      </c>
+      <c r="H1035">
+        <v>1</v>
+      </c>
+      <c r="I1035" t="inlineStr">
+        <is>
+          <t>Sharad Bhutra</t>
+        </is>
+      </c>
+      <c r="J1035" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1036">
+        <v>8000</v>
+      </c>
+      <c r="D1036">
+        <v>1440</v>
+      </c>
+      <c r="E1036">
+        <v>9440</v>
+      </c>
+      <c r="F1036">
+        <v>1</v>
+      </c>
+      <c r="G1036">
+        <v>8000</v>
+      </c>
+      <c r="H1036">
+        <v>1</v>
+      </c>
+      <c r="I1036" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1036" s="2">
+        <v>45292</v>
       </c>
     </row>
   </sheetData>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1036"/>
+  <dimension ref="A1:J1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38147,22 +38147,22 @@
         </is>
       </c>
       <c r="C996">
-        <v>3245190</v>
+        <v>3522714</v>
       </c>
       <c r="D996">
-        <v>632441.88</v>
+        <v>682396.2</v>
       </c>
       <c r="E996">
-        <v>4146009</v>
+        <v>4473487</v>
       </c>
       <c r="F996">
-        <v>416.05</v>
+        <v>451.63</v>
       </c>
       <c r="G996">
         <v>7800</v>
       </c>
       <c r="H996">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I996" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>Sugna Metals Ltd.</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
@@ -38945,26 +38945,26 @@
         </is>
       </c>
       <c r="C1017">
-        <v>277524</v>
+        <v>228588</v>
       </c>
       <c r="D1017">
-        <v>49954.32</v>
+        <v>41145.84</v>
       </c>
       <c r="E1017">
-        <v>327478</v>
+        <v>269734</v>
       </c>
       <c r="F1017">
-        <v>35.58</v>
+        <v>35.44</v>
       </c>
       <c r="G1017">
-        <v>7800</v>
+        <v>6450</v>
       </c>
       <c r="H1017">
         <v>1</v>
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J1017" s="2">
@@ -38974,35 +38974,35 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1018">
-        <v>228588</v>
+        <v>154521</v>
       </c>
       <c r="D1018">
-        <v>41145.84</v>
+        <v>7726.049999999999</v>
       </c>
       <c r="E1018">
-        <v>269734</v>
+        <v>162247</v>
       </c>
       <c r="F1018">
-        <v>35.44</v>
+        <v>35.40000000000001</v>
       </c>
       <c r="G1018">
-        <v>6450</v>
+        <v>4364.999999999999</v>
       </c>
       <c r="H1018">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1018" s="2">
@@ -39012,31 +39012,31 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1019">
-        <v>154521</v>
+        <v>279660</v>
       </c>
       <c r="D1019">
-        <v>7726.049999999999</v>
+        <v>50338.8</v>
       </c>
       <c r="E1019">
-        <v>162247</v>
+        <v>329999</v>
       </c>
       <c r="F1019">
-        <v>35.40000000000001</v>
+        <v>35.4</v>
       </c>
       <c r="G1019">
-        <v>4364.999999999999</v>
+        <v>7900</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1019" t="inlineStr">
         <is>
@@ -39050,35 +39050,35 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1020">
-        <v>279660</v>
+        <v>191898</v>
       </c>
       <c r="D1020">
-        <v>50338.8</v>
+        <v>34541.64</v>
       </c>
       <c r="E1020">
-        <v>329999</v>
+        <v>226440</v>
       </c>
       <c r="F1020">
-        <v>35.4</v>
+        <v>30.46</v>
       </c>
       <c r="G1020">
-        <v>7900</v>
+        <v>6300</v>
       </c>
       <c r="H1020">
         <v>1</v>
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1020" s="2">
@@ -39088,35 +39088,35 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1021">
-        <v>191898</v>
+        <v>104914.5</v>
       </c>
       <c r="D1021">
-        <v>34541.64</v>
+        <v>18884.61</v>
       </c>
       <c r="E1021">
-        <v>226440</v>
+        <v>123799</v>
       </c>
       <c r="F1021">
-        <v>30.46</v>
+        <v>30.41</v>
       </c>
       <c r="G1021">
-        <v>6300</v>
+        <v>3450</v>
       </c>
       <c r="H1021">
         <v>1</v>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1021" s="2">
@@ -39126,28 +39126,28 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1022">
-        <v>104914.5</v>
+        <v>234312</v>
       </c>
       <c r="D1022">
-        <v>18884.61</v>
+        <v>42176.16</v>
       </c>
       <c r="E1022">
-        <v>123799</v>
+        <v>276488</v>
       </c>
       <c r="F1022">
-        <v>30.41</v>
+        <v>30.04</v>
       </c>
       <c r="G1022">
-        <v>3450</v>
+        <v>7800</v>
       </c>
       <c r="H1022">
         <v>1</v>
@@ -39164,35 +39164,35 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1023">
-        <v>234312</v>
+        <v>156051</v>
       </c>
       <c r="D1023">
-        <v>42176.16</v>
+        <v>28089.18</v>
       </c>
       <c r="E1023">
-        <v>276488</v>
+        <v>184140</v>
       </c>
       <c r="F1023">
-        <v>30.04</v>
+        <v>24.77</v>
       </c>
       <c r="G1023">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="H1023">
         <v>1</v>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1023" s="2">
@@ -39202,35 +39202,35 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1024">
-        <v>156051</v>
+        <v>63679.5</v>
       </c>
       <c r="D1024">
-        <v>28089.18</v>
+        <v>3183.98</v>
       </c>
       <c r="E1024">
-        <v>184140</v>
+        <v>66863</v>
       </c>
       <c r="F1024">
-        <v>24.77</v>
+        <v>24.03</v>
       </c>
       <c r="G1024">
-        <v>6300</v>
+        <v>2650</v>
       </c>
       <c r="H1024">
         <v>1</v>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1024" s="2">
@@ -39240,35 +39240,32 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1025">
-        <v>63679.5</v>
+        <v>119880</v>
       </c>
       <c r="D1025">
-        <v>3183.98</v>
-      </c>
-      <c r="E1025">
-        <v>66863</v>
+        <v>9914.4</v>
       </c>
       <c r="F1025">
-        <v>24.03</v>
+        <v>19.98</v>
       </c>
       <c r="G1025">
-        <v>2650</v>
+        <v>6000</v>
       </c>
       <c r="H1025">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1025" s="2">
@@ -39283,23 +39280,26 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1026">
-        <v>119880</v>
+        <v>154128</v>
       </c>
       <c r="D1026">
-        <v>9914.4</v>
+        <v>39407.04</v>
+      </c>
+      <c r="E1026">
+        <v>258335</v>
       </c>
       <c r="F1026">
-        <v>19.98</v>
+        <v>19.76</v>
       </c>
       <c r="G1026">
-        <v>6000</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
@@ -39313,35 +39313,32 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1027">
-        <v>154128</v>
+        <v>62879.99999999999</v>
       </c>
       <c r="D1027">
-        <v>39407.04</v>
-      </c>
-      <c r="E1027">
-        <v>258335</v>
+        <v>0</v>
       </c>
       <c r="F1027">
-        <v>19.76</v>
+        <v>19.65</v>
       </c>
       <c r="G1027">
-        <v>7799.999999999999</v>
+        <v>3200</v>
       </c>
       <c r="H1027">
         <v>1</v>
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1027" s="2">
@@ -39351,32 +39348,35 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1028">
-        <v>62879.99999999999</v>
+        <v>124722</v>
       </c>
       <c r="D1028">
-        <v>0</v>
+        <v>22449.96</v>
+      </c>
+      <c r="E1028">
+        <v>147171</v>
       </c>
       <c r="F1028">
-        <v>19.65</v>
+        <v>15.21</v>
       </c>
       <c r="G1028">
-        <v>3200</v>
+        <v>8200</v>
       </c>
       <c r="H1028">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J1028" s="2">
@@ -39386,35 +39386,35 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+          <t>PURVA STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1029">
-        <v>124722</v>
+        <v>95104</v>
       </c>
       <c r="D1029">
-        <v>22449.96</v>
+        <v>17118.72</v>
       </c>
       <c r="E1029">
-        <v>147171</v>
+        <v>112223</v>
       </c>
       <c r="F1029">
-        <v>15.21</v>
+        <v>14.86</v>
       </c>
       <c r="G1029">
-        <v>8200</v>
+        <v>6400</v>
       </c>
       <c r="H1029">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1029" s="2">
@@ -39424,31 +39424,31 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>PURVA STEEL PRIVATE LIMITED</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1030">
-        <v>95104</v>
+        <v>20640</v>
       </c>
       <c r="D1030">
-        <v>17118.72</v>
+        <v>0</v>
       </c>
       <c r="E1030">
-        <v>112223</v>
+        <v>20640</v>
       </c>
       <c r="F1030">
-        <v>14.86</v>
+        <v>12.9</v>
       </c>
       <c r="G1030">
-        <v>6400</v>
+        <v>1600</v>
       </c>
       <c r="H1030">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
@@ -39462,7 +39462,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Adri Steels Pvt Limited</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
@@ -39471,26 +39471,26 @@
         </is>
       </c>
       <c r="C1031">
-        <v>20640</v>
+        <v>29910</v>
       </c>
       <c r="D1031">
-        <v>0</v>
+        <v>5383.8</v>
       </c>
       <c r="E1031">
-        <v>20640</v>
+        <v>35294</v>
       </c>
       <c r="F1031">
-        <v>12.9</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G1031">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1031" s="2">
@@ -39500,35 +39500,30 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>Adri Steels Pvt Limited</t>
-        </is>
-      </c>
-      <c r="B1032" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="C1032">
-        <v>29910</v>
+        <v>845250</v>
       </c>
       <c r="D1032">
-        <v>5383.8</v>
+        <v>152145</v>
       </c>
       <c r="E1032">
-        <v>35294</v>
+        <v>997395</v>
       </c>
       <c r="F1032">
-        <v>9.970000000000001</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G1032">
-        <v>3000</v>
+        <v>105000</v>
       </c>
       <c r="H1032">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1032" s="2">
@@ -39538,26 +39533,31 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1033">
-        <v>845250</v>
+        <v>34627.5</v>
       </c>
       <c r="D1033">
-        <v>152145</v>
+        <v>6232.95</v>
       </c>
       <c r="E1033">
-        <v>997395</v>
+        <v>40860</v>
       </c>
       <c r="F1033">
-        <v>8.050000000000001</v>
+        <v>5.13</v>
       </c>
       <c r="G1033">
-        <v>105000</v>
+        <v>6750</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
@@ -39571,35 +39571,35 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1034">
-        <v>34627.5</v>
+        <v>16388</v>
       </c>
       <c r="D1034">
-        <v>6232.95</v>
+        <v>2949.84</v>
       </c>
       <c r="E1034">
-        <v>40860</v>
+        <v>19338</v>
       </c>
       <c r="F1034">
-        <v>5.13</v>
+        <v>4.82</v>
       </c>
       <c r="G1034">
-        <v>6750</v>
+        <v>3400</v>
       </c>
       <c r="H1034">
         <v>1</v>
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sharad Bhutra</t>
         </is>
       </c>
       <c r="J1034" s="2">
@@ -39609,76 +39609,38 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1035">
-        <v>16388</v>
+        <v>8000</v>
       </c>
       <c r="D1035">
-        <v>2949.84</v>
+        <v>1440</v>
       </c>
       <c r="E1035">
-        <v>19338</v>
+        <v>9440</v>
       </c>
       <c r="F1035">
-        <v>4.82</v>
+        <v>1</v>
       </c>
       <c r="G1035">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="H1035">
         <v>1</v>
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Sharad Bhutra</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1035" s="2">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
-        </is>
-      </c>
-      <c r="B1036" t="inlineStr">
-        <is>
-          <t>Boric Acid Premix</t>
-        </is>
-      </c>
-      <c r="C1036">
-        <v>8000</v>
-      </c>
-      <c r="D1036">
-        <v>1440</v>
-      </c>
-      <c r="E1036">
-        <v>9440</v>
-      </c>
-      <c r="F1036">
-        <v>1</v>
-      </c>
-      <c r="G1036">
-        <v>8000</v>
-      </c>
-      <c r="H1036">
-        <v>1</v>
-      </c>
-      <c r="I1036" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J1036" s="2">
         <v>45292</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1035"/>
+  <dimension ref="A1:J1078"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39644,6 +39644,1630 @@
         <v>45292</v>
       </c>
     </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>Sugna Metals Ltd.</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1036">
+        <v>2758236</v>
+      </c>
+      <c r="D1036">
+        <v>512818.56</v>
+      </c>
+      <c r="E1036">
+        <v>3361809.84</v>
+      </c>
+      <c r="F1036">
+        <v>353.62</v>
+      </c>
+      <c r="G1036">
+        <v>7799.999999999999</v>
+      </c>
+      <c r="H1036">
+        <v>11</v>
+      </c>
+      <c r="I1036" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1036" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.(A One Steel (GBD))</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1037">
+        <v>2112235.5</v>
+      </c>
+      <c r="D1037">
+        <v>380202.39</v>
+      </c>
+      <c r="E1037">
+        <v>2492438</v>
+      </c>
+      <c r="F1037">
+        <v>265.69</v>
+      </c>
+      <c r="G1037">
+        <v>7950</v>
+      </c>
+      <c r="H1037">
+        <v>8</v>
+      </c>
+      <c r="I1037" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1037" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>A One Ispat Private Ltd</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1038">
+        <v>1868587</v>
+      </c>
+      <c r="D1038">
+        <v>336345.66</v>
+      </c>
+      <c r="E1038">
+        <v>2204934</v>
+      </c>
+      <c r="F1038">
+        <v>236.53</v>
+      </c>
+      <c r="G1038">
+        <v>7900</v>
+      </c>
+      <c r="H1038">
+        <v>7</v>
+      </c>
+      <c r="I1038" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1038" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>BMM ISPAT LIMITED</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1039">
+        <v>1568603</v>
+      </c>
+      <c r="D1039">
+        <v>282348.54</v>
+      </c>
+      <c r="E1039">
+        <v>1850952</v>
+      </c>
+      <c r="F1039">
+        <v>220.93</v>
+      </c>
+      <c r="G1039">
+        <v>7099.999999999999</v>
+      </c>
+      <c r="H1039">
+        <v>7</v>
+      </c>
+      <c r="I1039" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1039" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>A One Steels And Alloys Pvt Ltd(A One Bellary)</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1040">
+        <v>1624454</v>
+      </c>
+      <c r="D1040">
+        <v>292401.72</v>
+      </c>
+      <c r="E1040">
+        <v>1916855</v>
+      </c>
+      <c r="F1040">
+        <v>188.89</v>
+      </c>
+      <c r="G1040">
+        <v>8600</v>
+      </c>
+      <c r="H1040">
+        <v>8</v>
+      </c>
+      <c r="I1040" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1040" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1041">
+        <v>1217496</v>
+      </c>
+      <c r="D1041">
+        <v>219149.28</v>
+      </c>
+      <c r="E1041">
+        <v>1436645</v>
+      </c>
+      <c r="F1041">
+        <v>144.94</v>
+      </c>
+      <c r="G1041">
+        <v>8400</v>
+      </c>
+      <c r="H1041">
+        <v>6</v>
+      </c>
+      <c r="I1041" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1041" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1042">
+        <v>525231.5</v>
+      </c>
+      <c r="D1042">
+        <v>96543.3</v>
+      </c>
+      <c r="E1042">
+        <v>619772.63</v>
+      </c>
+      <c r="F1042">
+        <v>132.97</v>
+      </c>
+      <c r="G1042">
+        <v>3950</v>
+      </c>
+      <c r="H1042">
+        <v>4</v>
+      </c>
+      <c r="I1042" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1042" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)(M S METALS AND STEELS PVT LTD (Kunigal))</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1043">
+        <v>940695</v>
+      </c>
+      <c r="D1043">
+        <v>169325.1</v>
+      </c>
+      <c r="E1043">
+        <v>1110020.8</v>
+      </c>
+      <c r="F1043">
+        <v>131.23</v>
+      </c>
+      <c r="G1043">
+        <v>7168.292311209327</v>
+      </c>
+      <c r="H1043">
+        <v>7</v>
+      </c>
+      <c r="I1043" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1043" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>Sri Navdurga Billets Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1044">
+        <v>818202</v>
+      </c>
+      <c r="D1044">
+        <v>147276.36</v>
+      </c>
+      <c r="E1044">
+        <v>965478</v>
+      </c>
+      <c r="F1044">
+        <v>118.58</v>
+      </c>
+      <c r="G1044">
+        <v>6899.999999999999</v>
+      </c>
+      <c r="H1044">
+        <v>7</v>
+      </c>
+      <c r="I1044" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1044" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1045">
+        <v>906438</v>
+      </c>
+      <c r="D1045">
+        <v>161616.24</v>
+      </c>
+      <c r="E1045">
+        <v>1106332.36</v>
+      </c>
+      <c r="F1045">
+        <v>116.21</v>
+      </c>
+      <c r="G1045">
+        <v>7800</v>
+      </c>
+      <c r="H1045">
+        <v>5</v>
+      </c>
+      <c r="I1045" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1045" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1046">
+        <v>837064</v>
+      </c>
+      <c r="D1046">
+        <v>150671.52</v>
+      </c>
+      <c r="E1046">
+        <v>987735</v>
+      </c>
+      <c r="F1046">
+        <v>110.14</v>
+      </c>
+      <c r="G1046">
+        <v>7600</v>
+      </c>
+      <c r="H1046">
+        <v>6</v>
+      </c>
+      <c r="I1046" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1046" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Quartz Lumps</t>
+        </is>
+      </c>
+      <c r="C1047">
+        <v>148554</v>
+      </c>
+      <c r="D1047">
+        <v>7427.7</v>
+      </c>
+      <c r="E1047">
+        <v>155982</v>
+      </c>
+      <c r="F1047">
+        <v>110.04</v>
+      </c>
+      <c r="G1047">
+        <v>1350</v>
+      </c>
+      <c r="H1047">
+        <v>3</v>
+      </c>
+      <c r="I1047" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1047" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>Pulkit Metals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1048">
+        <v>635940</v>
+      </c>
+      <c r="D1048">
+        <v>114469.2</v>
+      </c>
+      <c r="E1048">
+        <v>750409</v>
+      </c>
+      <c r="F1048">
+        <v>105.99</v>
+      </c>
+      <c r="G1048">
+        <v>6000</v>
+      </c>
+      <c r="H1048">
+        <v>6</v>
+      </c>
+      <c r="I1048" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1048" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1049">
+        <v>309024</v>
+      </c>
+      <c r="D1049">
+        <v>55624.32</v>
+      </c>
+      <c r="E1049">
+        <v>364650</v>
+      </c>
+      <c r="F1049">
+        <v>96.56999999999999</v>
+      </c>
+      <c r="G1049">
+        <v>3200</v>
+      </c>
+      <c r="H1049">
+        <v>6</v>
+      </c>
+      <c r="I1049" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1049" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1050">
+        <v>578991</v>
+      </c>
+      <c r="D1050">
+        <v>104218.38</v>
+      </c>
+      <c r="E1050">
+        <v>683210</v>
+      </c>
+      <c r="F1050">
+        <v>73.28999999999999</v>
+      </c>
+      <c r="G1050">
+        <v>7900.000000000001</v>
+      </c>
+      <c r="H1050">
+        <v>2</v>
+      </c>
+      <c r="I1050" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1050" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1051">
+        <v>171139.5</v>
+      </c>
+      <c r="D1051">
+        <v>32392.64</v>
+      </c>
+      <c r="E1051">
+        <v>201944.8</v>
+      </c>
+      <c r="F1051">
+        <v>54.33</v>
+      </c>
+      <c r="G1051">
+        <v>3150</v>
+      </c>
+      <c r="H1051">
+        <v>2</v>
+      </c>
+      <c r="I1051" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1051" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>Pushpit Steels Private Limited</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1052">
+        <v>252216</v>
+      </c>
+      <c r="D1052">
+        <v>45398.88</v>
+      </c>
+      <c r="E1052">
+        <v>297615</v>
+      </c>
+      <c r="F1052">
+        <v>40.68</v>
+      </c>
+      <c r="G1052">
+        <v>6200</v>
+      </c>
+      <c r="H1052">
+        <v>2</v>
+      </c>
+      <c r="I1052" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1052" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1053">
+        <v>223146</v>
+      </c>
+      <c r="D1053">
+        <v>40166.28</v>
+      </c>
+      <c r="E1053">
+        <v>263312</v>
+      </c>
+      <c r="F1053">
+        <v>35.42</v>
+      </c>
+      <c r="G1053">
+        <v>6300</v>
+      </c>
+      <c r="H1053">
+        <v>1</v>
+      </c>
+      <c r="I1053" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1053" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>Kanishk Steel Industries Ltd</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1054">
+        <v>254448</v>
+      </c>
+      <c r="D1054">
+        <v>45800.64</v>
+      </c>
+      <c r="E1054">
+        <v>300249</v>
+      </c>
+      <c r="F1054">
+        <v>35.34</v>
+      </c>
+      <c r="G1054">
+        <v>7199.999999999999</v>
+      </c>
+      <c r="H1054">
+        <v>2</v>
+      </c>
+      <c r="I1054" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1054" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>MINAR ISPAT PVT. LTD</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1055">
+        <v>210273</v>
+      </c>
+      <c r="D1055">
+        <v>37849.14</v>
+      </c>
+      <c r="E1055">
+        <v>248122</v>
+      </c>
+      <c r="F1055">
+        <v>35.34</v>
+      </c>
+      <c r="G1055">
+        <v>5949.999999999999</v>
+      </c>
+      <c r="H1055">
+        <v>2</v>
+      </c>
+      <c r="I1055" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1055" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>Pattambi Brothers</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1056">
+        <v>222516</v>
+      </c>
+      <c r="D1056">
+        <v>40052.88</v>
+      </c>
+      <c r="E1056">
+        <v>262569</v>
+      </c>
+      <c r="F1056">
+        <v>35.32</v>
+      </c>
+      <c r="G1056">
+        <v>6300</v>
+      </c>
+      <c r="H1056">
+        <v>1</v>
+      </c>
+      <c r="I1056" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1056" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1057">
+        <v>273234</v>
+      </c>
+      <c r="D1057">
+        <v>49182.12</v>
+      </c>
+      <c r="E1057">
+        <v>322416</v>
+      </c>
+      <c r="F1057">
+        <v>35.03</v>
+      </c>
+      <c r="G1057">
+        <v>7800</v>
+      </c>
+      <c r="H1057">
+        <v>2</v>
+      </c>
+      <c r="I1057" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1057" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1058">
+        <v>215450</v>
+      </c>
+      <c r="D1058">
+        <v>38781</v>
+      </c>
+      <c r="E1058">
+        <v>254231</v>
+      </c>
+      <c r="F1058">
+        <v>34.75</v>
+      </c>
+      <c r="G1058">
+        <v>6200</v>
+      </c>
+      <c r="H1058">
+        <v>1</v>
+      </c>
+      <c r="I1058" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1058" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1059">
+        <v>133710.5</v>
+      </c>
+      <c r="D1059">
+        <v>24067.89</v>
+      </c>
+      <c r="E1059">
+        <v>157778</v>
+      </c>
+      <c r="F1059">
+        <v>34.73</v>
+      </c>
+      <c r="G1059">
+        <v>3850</v>
+      </c>
+      <c r="H1059">
+        <v>2</v>
+      </c>
+      <c r="I1059" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1059" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1060">
+        <v>197127</v>
+      </c>
+      <c r="D1060">
+        <v>35482.86</v>
+      </c>
+      <c r="E1060">
+        <v>232610</v>
+      </c>
+      <c r="F1060">
+        <v>31.29</v>
+      </c>
+      <c r="G1060">
+        <v>6300</v>
+      </c>
+      <c r="H1060">
+        <v>1</v>
+      </c>
+      <c r="I1060" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1060" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1061">
+        <v>203580</v>
+      </c>
+      <c r="D1061">
+        <v>36644.4</v>
+      </c>
+      <c r="E1061">
+        <v>240225</v>
+      </c>
+      <c r="F1061">
+        <v>30.16</v>
+      </c>
+      <c r="G1061">
+        <v>6750</v>
+      </c>
+      <c r="H1061">
+        <v>2</v>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1061" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>AMBA FRP PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1062">
+        <v>186000</v>
+      </c>
+      <c r="D1062">
+        <v>9300</v>
+      </c>
+      <c r="E1062">
+        <v>195300</v>
+      </c>
+      <c r="F1062">
+        <v>30</v>
+      </c>
+      <c r="G1062">
+        <v>6200</v>
+      </c>
+      <c r="H1062">
+        <v>2</v>
+      </c>
+      <c r="I1062" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1062" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1063">
+        <v>182695</v>
+      </c>
+      <c r="D1063">
+        <v>36027.9</v>
+      </c>
+      <c r="E1063">
+        <v>215580.1</v>
+      </c>
+      <c r="F1063">
+        <v>29.95</v>
+      </c>
+      <c r="G1063">
+        <v>6100</v>
+      </c>
+      <c r="H1063">
+        <v>1</v>
+      </c>
+      <c r="I1063" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1063" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1064">
+        <v>171486</v>
+      </c>
+      <c r="D1064">
+        <v>30867.48</v>
+      </c>
+      <c r="E1064">
+        <v>202353</v>
+      </c>
+      <c r="F1064">
+        <v>27.22</v>
+      </c>
+      <c r="G1064">
+        <v>6300</v>
+      </c>
+      <c r="H1064">
+        <v>1</v>
+      </c>
+      <c r="I1064" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1064" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1065">
+        <v>40765</v>
+      </c>
+      <c r="D1065">
+        <v>5750.2</v>
+      </c>
+      <c r="E1065">
+        <v>48103.01</v>
+      </c>
+      <c r="F1065">
+        <v>26.3</v>
+      </c>
+      <c r="G1065">
+        <v>1550</v>
+      </c>
+      <c r="H1065">
+        <v>2</v>
+      </c>
+      <c r="I1065" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1065" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>M.A.STEELS (P) LTD</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1066">
+        <v>158445</v>
+      </c>
+      <c r="D1066">
+        <v>28520.1</v>
+      </c>
+      <c r="E1066">
+        <v>186965</v>
+      </c>
+      <c r="F1066">
+        <v>25.15</v>
+      </c>
+      <c r="G1066">
+        <v>6300</v>
+      </c>
+      <c r="H1066">
+        <v>1</v>
+      </c>
+      <c r="I1066" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1066" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1067">
+        <v>69024</v>
+      </c>
+      <c r="D1067">
+        <v>19570.68</v>
+      </c>
+      <c r="E1067">
+        <v>81448.31999999999</v>
+      </c>
+      <c r="F1067">
+        <v>21.57</v>
+      </c>
+      <c r="G1067">
+        <v>3200</v>
+      </c>
+      <c r="H1067">
+        <v>1</v>
+      </c>
+      <c r="I1067" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1067" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1068">
+        <v>156936</v>
+      </c>
+      <c r="D1068">
+        <v>39966.48</v>
+      </c>
+      <c r="E1068">
+        <v>185184.48</v>
+      </c>
+      <c r="F1068">
+        <v>20.12</v>
+      </c>
+      <c r="G1068">
+        <v>7800</v>
+      </c>
+      <c r="H1068">
+        <v>1</v>
+      </c>
+      <c r="I1068" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1068" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1069">
+        <v>117540</v>
+      </c>
+      <c r="D1069">
+        <v>9439.200000000001</v>
+      </c>
+      <c r="E1069">
+        <v>138697</v>
+      </c>
+      <c r="F1069">
+        <v>19.59</v>
+      </c>
+      <c r="G1069">
+        <v>6000</v>
+      </c>
+      <c r="H1069">
+        <v>2</v>
+      </c>
+      <c r="I1069" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1069" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C1070">
+        <v>48089.6</v>
+      </c>
+      <c r="D1070">
+        <v>2404.48</v>
+      </c>
+      <c r="E1070">
+        <v>50494</v>
+      </c>
+      <c r="F1070">
+        <v>17.68</v>
+      </c>
+      <c r="G1070">
+        <v>2720</v>
+      </c>
+      <c r="H1070">
+        <v>1</v>
+      </c>
+      <c r="I1070" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1070" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>Adri Steels Pvt Limited</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1071">
+        <v>102120</v>
+      </c>
+      <c r="D1071">
+        <v>18381.6</v>
+      </c>
+      <c r="E1071">
+        <v>120502</v>
+      </c>
+      <c r="F1071">
+        <v>17.02</v>
+      </c>
+      <c r="G1071">
+        <v>6000</v>
+      </c>
+      <c r="H1071">
+        <v>1</v>
+      </c>
+      <c r="I1071" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1071" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1072">
+        <v>19504</v>
+      </c>
+      <c r="D1072">
+        <v>1509.12</v>
+      </c>
+      <c r="E1072">
+        <v>23014.6</v>
+      </c>
+      <c r="F1072">
+        <v>12.19</v>
+      </c>
+      <c r="G1072">
+        <v>1600</v>
+      </c>
+      <c r="H1072">
+        <v>2</v>
+      </c>
+      <c r="I1072" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1072" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1073">
+        <v>31612.5</v>
+      </c>
+      <c r="D1073">
+        <v>5690.26</v>
+      </c>
+      <c r="E1073">
+        <v>37303</v>
+      </c>
+      <c r="F1073">
+        <v>8.43</v>
+      </c>
+      <c r="G1073">
+        <v>3750</v>
+      </c>
+      <c r="H1073">
+        <v>2</v>
+      </c>
+      <c r="I1073" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1073" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1074">
+        <v>17460</v>
+      </c>
+      <c r="D1074">
+        <v>0</v>
+      </c>
+      <c r="E1074">
+        <v>20602.8</v>
+      </c>
+      <c r="F1074">
+        <v>5.82</v>
+      </c>
+      <c r="G1074">
+        <v>3000</v>
+      </c>
+      <c r="H1074">
+        <v>1</v>
+      </c>
+      <c r="I1074" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1074" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C1075">
+        <v>585000</v>
+      </c>
+      <c r="D1075">
+        <v>105300</v>
+      </c>
+      <c r="E1075">
+        <v>690300</v>
+      </c>
+      <c r="F1075">
+        <v>5</v>
+      </c>
+      <c r="G1075">
+        <v>117000</v>
+      </c>
+      <c r="H1075">
+        <v>1</v>
+      </c>
+      <c r="I1075" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1075" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>Lalit Chemicals</t>
+        </is>
+      </c>
+      <c r="C1076">
+        <v>6000</v>
+      </c>
+      <c r="D1076">
+        <v>300</v>
+      </c>
+      <c r="E1076">
+        <v>6300</v>
+      </c>
+      <c r="F1076">
+        <v>2</v>
+      </c>
+      <c r="G1076">
+        <v>3000</v>
+      </c>
+      <c r="H1076">
+        <v>1</v>
+      </c>
+      <c r="I1076" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1076" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1077">
+        <v>12000</v>
+      </c>
+      <c r="D1077">
+        <v>2160</v>
+      </c>
+      <c r="E1077">
+        <v>14160</v>
+      </c>
+      <c r="F1077">
+        <v>1.5</v>
+      </c>
+      <c r="G1077">
+        <v>8000</v>
+      </c>
+      <c r="H1077">
+        <v>2</v>
+      </c>
+      <c r="I1077" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1077" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>SURGE ALLOYS PVT.LTD</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Scrap</t>
+        </is>
+      </c>
+      <c r="C1078">
+        <v>92004</v>
+      </c>
+      <c r="D1078">
+        <v>16560.72</v>
+      </c>
+      <c r="E1078">
+        <v>108565</v>
+      </c>
+      <c r="F1078">
+        <v>0.748</v>
+      </c>
+      <c r="G1078">
+        <v>123000</v>
+      </c>
+      <c r="H1078">
+        <v>1</v>
+      </c>
+      <c r="I1078" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1078" s="2">
+        <v>45323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1078"/>
+  <dimension ref="A1:J1124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41268,6 +41268,1746 @@
         <v>45323</v>
       </c>
     </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>Sugna Metals Ltd.</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1079">
+        <v>2478372</v>
+      </c>
+      <c r="D1079">
+        <v>426136.68</v>
+      </c>
+      <c r="E1079">
+        <v>3125553.28</v>
+      </c>
+      <c r="F1079">
+        <v>317.74</v>
+      </c>
+      <c r="G1079">
+        <v>7799.999999999999</v>
+      </c>
+      <c r="H1079">
+        <v>11</v>
+      </c>
+      <c r="I1079" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1079" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>A One Steels And Alloys Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1080">
+        <v>2405678</v>
+      </c>
+      <c r="D1080">
+        <v>362649.96</v>
+      </c>
+      <c r="E1080">
+        <v>2838701.08</v>
+      </c>
+      <c r="F1080">
+        <v>279.73</v>
+      </c>
+      <c r="G1080">
+        <v>8600</v>
+      </c>
+      <c r="H1080">
+        <v>13</v>
+      </c>
+      <c r="I1080" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1080" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>A One Steel &amp; Alloys Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1081">
+        <v>1878426</v>
+      </c>
+      <c r="D1081">
+        <v>338116.68</v>
+      </c>
+      <c r="E1081">
+        <v>2216542.72</v>
+      </c>
+      <c r="F1081">
+        <v>236.28</v>
+      </c>
+      <c r="G1081">
+        <v>7950</v>
+      </c>
+      <c r="H1081">
+        <v>7</v>
+      </c>
+      <c r="I1081" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1081" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>A One Ispat Private Ltd</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1082">
+        <v>1809969</v>
+      </c>
+      <c r="D1082">
+        <v>325794.42</v>
+      </c>
+      <c r="E1082">
+        <v>2135765</v>
+      </c>
+      <c r="F1082">
+        <v>229.11</v>
+      </c>
+      <c r="G1082">
+        <v>7900.000000000001</v>
+      </c>
+      <c r="H1082">
+        <v>7</v>
+      </c>
+      <c r="I1082" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1082" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1083">
+        <v>826616.5</v>
+      </c>
+      <c r="D1083">
+        <v>136879.14</v>
+      </c>
+      <c r="E1083">
+        <v>995666.1</v>
+      </c>
+      <c r="F1083">
+        <v>209.27</v>
+      </c>
+      <c r="G1083">
+        <v>3950</v>
+      </c>
+      <c r="H1083">
+        <v>7</v>
+      </c>
+      <c r="I1083" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1083" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1084">
+        <v>1391910</v>
+      </c>
+      <c r="D1084">
+        <v>250543.8</v>
+      </c>
+      <c r="E1084">
+        <v>1642455</v>
+      </c>
+      <c r="F1084">
+        <v>178.45</v>
+      </c>
+      <c r="G1084">
+        <v>7800</v>
+      </c>
+      <c r="H1084">
+        <v>6</v>
+      </c>
+      <c r="I1084" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1084" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>BMM ISPAT LIMITED</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1085">
+        <v>1138769</v>
+      </c>
+      <c r="D1085">
+        <v>204978.42</v>
+      </c>
+      <c r="E1085">
+        <v>1343747</v>
+      </c>
+      <c r="F1085">
+        <v>160.39</v>
+      </c>
+      <c r="G1085">
+        <v>7100.000000000001</v>
+      </c>
+      <c r="H1085">
+        <v>5</v>
+      </c>
+      <c r="I1085" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1085" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Quartz Lumps</t>
+        </is>
+      </c>
+      <c r="C1086">
+        <v>136000</v>
+      </c>
+      <c r="D1086">
+        <v>6800</v>
+      </c>
+      <c r="E1086">
+        <v>142800</v>
+      </c>
+      <c r="F1086">
+        <v>160</v>
+      </c>
+      <c r="G1086">
+        <v>850</v>
+      </c>
+      <c r="H1086">
+        <v>4</v>
+      </c>
+      <c r="I1086" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1086" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1087">
+        <v>1197000</v>
+      </c>
+      <c r="D1087">
+        <v>215460</v>
+      </c>
+      <c r="E1087">
+        <v>1412461</v>
+      </c>
+      <c r="F1087">
+        <v>142.5</v>
+      </c>
+      <c r="G1087">
+        <v>8400</v>
+      </c>
+      <c r="H1087">
+        <v>6</v>
+      </c>
+      <c r="I1087" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1087" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1088">
+        <v>1114240</v>
+      </c>
+      <c r="D1088">
+        <v>200563.2</v>
+      </c>
+      <c r="E1088">
+        <v>1314803</v>
+      </c>
+      <c r="F1088">
+        <v>139.28</v>
+      </c>
+      <c r="G1088">
+        <v>8000</v>
+      </c>
+      <c r="H1088">
+        <v>8</v>
+      </c>
+      <c r="I1088" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1088" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1089">
+        <v>908732</v>
+      </c>
+      <c r="D1089">
+        <v>163571.76</v>
+      </c>
+      <c r="E1089">
+        <v>1072304</v>
+      </c>
+      <c r="F1089">
+        <v>119.57</v>
+      </c>
+      <c r="G1089">
+        <v>7599.999999999999</v>
+      </c>
+      <c r="H1089">
+        <v>5</v>
+      </c>
+      <c r="I1089" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1089" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1090">
+        <v>361920</v>
+      </c>
+      <c r="D1090">
+        <v>65145.6</v>
+      </c>
+      <c r="E1090">
+        <v>427065</v>
+      </c>
+      <c r="F1090">
+        <v>113.1</v>
+      </c>
+      <c r="G1090">
+        <v>3200</v>
+      </c>
+      <c r="H1090">
+        <v>7</v>
+      </c>
+      <c r="I1090" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1090" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1091">
+        <v>767248</v>
+      </c>
+      <c r="D1091">
+        <v>89770.86</v>
+      </c>
+      <c r="E1091">
+        <v>905352.78</v>
+      </c>
+      <c r="F1091">
+        <v>97.12</v>
+      </c>
+      <c r="G1091">
+        <v>7900.000000000001</v>
+      </c>
+      <c r="H1091">
+        <v>5</v>
+      </c>
+      <c r="I1091" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1091" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>Pushpit Steels Private Limited</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1092">
+        <v>503936</v>
+      </c>
+      <c r="D1092">
+        <v>90708.48</v>
+      </c>
+      <c r="E1092">
+        <v>594645</v>
+      </c>
+      <c r="F1092">
+        <v>81.28</v>
+      </c>
+      <c r="G1092">
+        <v>6200</v>
+      </c>
+      <c r="H1092">
+        <v>4</v>
+      </c>
+      <c r="I1092" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1092" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1093">
+        <v>605025</v>
+      </c>
+      <c r="D1093">
+        <v>108904.5</v>
+      </c>
+      <c r="E1093">
+        <v>713930</v>
+      </c>
+      <c r="F1093">
+        <v>80.67</v>
+      </c>
+      <c r="G1093">
+        <v>7500</v>
+      </c>
+      <c r="H1093">
+        <v>4</v>
+      </c>
+      <c r="I1093" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1093" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1094">
+        <v>523425</v>
+      </c>
+      <c r="D1094">
+        <v>94216.5</v>
+      </c>
+      <c r="E1094">
+        <v>617642</v>
+      </c>
+      <c r="F1094">
+        <v>69.78999999999999</v>
+      </c>
+      <c r="G1094">
+        <v>7500.000000000001</v>
+      </c>
+      <c r="H1094">
+        <v>3</v>
+      </c>
+      <c r="I1094" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1094" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1095">
+        <v>147091.5</v>
+      </c>
+      <c r="D1095">
+        <v>29141.56</v>
+      </c>
+      <c r="E1095">
+        <v>166096.7</v>
+      </c>
+      <c r="F1095">
+        <v>65.53</v>
+      </c>
+      <c r="G1095">
+        <v>2244.643674652831</v>
+      </c>
+      <c r="H1095">
+        <v>3</v>
+      </c>
+      <c r="I1095" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1095" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1096">
+        <v>207392</v>
+      </c>
+      <c r="D1096">
+        <v>37330.56</v>
+      </c>
+      <c r="E1096">
+        <v>244723</v>
+      </c>
+      <c r="F1096">
+        <v>64.81</v>
+      </c>
+      <c r="G1096">
+        <v>3200</v>
+      </c>
+      <c r="H1096">
+        <v>2</v>
+      </c>
+      <c r="I1096" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1096" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1097">
+        <v>387252.5</v>
+      </c>
+      <c r="D1097">
+        <v>69705.45</v>
+      </c>
+      <c r="E1097">
+        <v>456958</v>
+      </c>
+      <c r="F1097">
+        <v>56.39</v>
+      </c>
+      <c r="G1097">
+        <v>6867.396701542827</v>
+      </c>
+      <c r="H1097">
+        <v>3</v>
+      </c>
+      <c r="I1097" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1097" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C1098">
+        <v>126646.5</v>
+      </c>
+      <c r="D1098">
+        <v>6332.33</v>
+      </c>
+      <c r="E1098">
+        <v>132979</v>
+      </c>
+      <c r="F1098">
+        <v>51.13</v>
+      </c>
+      <c r="G1098">
+        <v>2476.950909446509</v>
+      </c>
+      <c r="H1098">
+        <v>2</v>
+      </c>
+      <c r="I1098" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1098" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1099">
+        <v>278442</v>
+      </c>
+      <c r="D1099">
+        <v>50119.56</v>
+      </c>
+      <c r="E1099">
+        <v>328562</v>
+      </c>
+      <c r="F1099">
+        <v>44.91</v>
+      </c>
+      <c r="G1099">
+        <v>6199.999999999999</v>
+      </c>
+      <c r="H1099">
+        <v>2</v>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1099" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>MTC Business Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1100">
+        <v>377741</v>
+      </c>
+      <c r="D1100">
+        <v>67993.38</v>
+      </c>
+      <c r="E1100">
+        <v>445734</v>
+      </c>
+      <c r="F1100">
+        <v>41.51000000000001</v>
+      </c>
+      <c r="G1100">
+        <v>9099.999999999998</v>
+      </c>
+      <c r="H1100">
+        <v>2</v>
+      </c>
+      <c r="I1100" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1100" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1101">
+        <v>120870</v>
+      </c>
+      <c r="D1101">
+        <v>21756.6</v>
+      </c>
+      <c r="E1101">
+        <v>142627</v>
+      </c>
+      <c r="F1101">
+        <v>35.55</v>
+      </c>
+      <c r="G1101">
+        <v>3400</v>
+      </c>
+      <c r="H1101">
+        <v>2</v>
+      </c>
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1101" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>KAIRAV STEELS PVT LTD</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1102">
+        <v>119782</v>
+      </c>
+      <c r="D1102">
+        <v>21560.76</v>
+      </c>
+      <c r="E1102">
+        <v>141343</v>
+      </c>
+      <c r="F1102">
+        <v>35.23</v>
+      </c>
+      <c r="G1102">
+        <v>3400</v>
+      </c>
+      <c r="H1102">
+        <v>1</v>
+      </c>
+      <c r="I1102" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1102" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1103">
+        <v>221319</v>
+      </c>
+      <c r="D1103">
+        <v>39837.42</v>
+      </c>
+      <c r="E1103">
+        <v>261156</v>
+      </c>
+      <c r="F1103">
+        <v>35.13</v>
+      </c>
+      <c r="G1103">
+        <v>6299.999999999999</v>
+      </c>
+      <c r="H1103">
+        <v>2</v>
+      </c>
+      <c r="I1103" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1103" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>KAIRAV STEELS PVT LTD</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1104">
+        <v>226459.5</v>
+      </c>
+      <c r="D1104">
+        <v>40762.71</v>
+      </c>
+      <c r="E1104">
+        <v>267222</v>
+      </c>
+      <c r="F1104">
+        <v>35.11</v>
+      </c>
+      <c r="G1104">
+        <v>6450</v>
+      </c>
+      <c r="H1104">
+        <v>2</v>
+      </c>
+      <c r="I1104" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1104" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>M.A.STEELS (P) LTD</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1105">
+        <v>220752</v>
+      </c>
+      <c r="D1105">
+        <v>39735.36</v>
+      </c>
+      <c r="E1105">
+        <v>260488</v>
+      </c>
+      <c r="F1105">
+        <v>35.04</v>
+      </c>
+      <c r="G1105">
+        <v>6300</v>
+      </c>
+      <c r="H1105">
+        <v>1</v>
+      </c>
+      <c r="I1105" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1105" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1106">
+        <v>220689</v>
+      </c>
+      <c r="D1106">
+        <v>39724.02</v>
+      </c>
+      <c r="E1106">
+        <v>260413</v>
+      </c>
+      <c r="F1106">
+        <v>35.03</v>
+      </c>
+      <c r="G1106">
+        <v>6300</v>
+      </c>
+      <c r="H1106">
+        <v>1</v>
+      </c>
+      <c r="I1106" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1106" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>Orange Fox Steel Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1107">
+        <v>222847.5</v>
+      </c>
+      <c r="D1107">
+        <v>40112.55</v>
+      </c>
+      <c r="E1107">
+        <v>262960.05</v>
+      </c>
+      <c r="F1107">
+        <v>34.55</v>
+      </c>
+      <c r="G1107">
+        <v>6450</v>
+      </c>
+      <c r="H1107">
+        <v>1</v>
+      </c>
+      <c r="I1107" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1107" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1108">
+        <v>125025</v>
+      </c>
+      <c r="D1108">
+        <v>12730.52</v>
+      </c>
+      <c r="E1108">
+        <v>147530</v>
+      </c>
+      <c r="F1108">
+        <v>33.34</v>
+      </c>
+      <c r="G1108">
+        <v>3750</v>
+      </c>
+      <c r="H1108">
+        <v>3</v>
+      </c>
+      <c r="I1108" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1108" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C1109">
+        <v>83912</v>
+      </c>
+      <c r="D1109">
+        <v>4195.6</v>
+      </c>
+      <c r="E1109">
+        <v>88108</v>
+      </c>
+      <c r="F1109">
+        <v>30.85</v>
+      </c>
+      <c r="G1109">
+        <v>2720</v>
+      </c>
+      <c r="H1109">
+        <v>1</v>
+      </c>
+      <c r="I1109" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1109" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1110">
+        <v>185787</v>
+      </c>
+      <c r="D1110">
+        <v>33441.66</v>
+      </c>
+      <c r="E1110">
+        <v>219229</v>
+      </c>
+      <c r="F1110">
+        <v>29.49</v>
+      </c>
+      <c r="G1110">
+        <v>6300</v>
+      </c>
+      <c r="H1110">
+        <v>1</v>
+      </c>
+      <c r="I1110" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1110" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1111">
+        <v>95185.5</v>
+      </c>
+      <c r="D1111">
+        <v>17133.39</v>
+      </c>
+      <c r="E1111">
+        <v>112319</v>
+      </c>
+      <c r="F1111">
+        <v>27.59</v>
+      </c>
+      <c r="G1111">
+        <v>3450</v>
+      </c>
+      <c r="H1111">
+        <v>2</v>
+      </c>
+      <c r="I1111" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1111" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>S.R. STEEL PVT LTD</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Ordinary Ramming Mass</t>
+        </is>
+      </c>
+      <c r="C1112">
+        <v>227649.006</v>
+      </c>
+      <c r="D1112">
+        <v>0</v>
+      </c>
+      <c r="E1112">
+        <v>227649.01</v>
+      </c>
+      <c r="F1112">
+        <v>26.7</v>
+      </c>
+      <c r="G1112">
+        <v>8526.18</v>
+      </c>
+      <c r="H1112">
+        <v>1</v>
+      </c>
+      <c r="I1112" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1112" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1113">
+        <v>163296</v>
+      </c>
+      <c r="D1113">
+        <v>29393.28</v>
+      </c>
+      <c r="E1113">
+        <v>192689</v>
+      </c>
+      <c r="F1113">
+        <v>25.92</v>
+      </c>
+      <c r="G1113">
+        <v>6300</v>
+      </c>
+      <c r="H1113">
+        <v>1</v>
+      </c>
+      <c r="I1113" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1113" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>Govaan Steel Private Limited Quartztech</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1114">
+        <v>132288</v>
+      </c>
+      <c r="D1114">
+        <v>23811.84</v>
+      </c>
+      <c r="E1114">
+        <v>156100</v>
+      </c>
+      <c r="F1114">
+        <v>24.96</v>
+      </c>
+      <c r="G1114">
+        <v>5300</v>
+      </c>
+      <c r="H1114">
+        <v>1</v>
+      </c>
+      <c r="I1114" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1114" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>Ardex Endura (India) Private Ltd</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C1115">
+        <v>96200</v>
+      </c>
+      <c r="D1115">
+        <v>4810</v>
+      </c>
+      <c r="E1115">
+        <v>101010</v>
+      </c>
+      <c r="F1115">
+        <v>24.05</v>
+      </c>
+      <c r="G1115">
+        <v>4000</v>
+      </c>
+      <c r="H1115">
+        <v>1</v>
+      </c>
+      <c r="I1115" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1115" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1116">
+        <v>37904</v>
+      </c>
+      <c r="D1116">
+        <v>18734.58</v>
+      </c>
+      <c r="F1116">
+        <v>23.69</v>
+      </c>
+      <c r="G1116">
+        <v>1600</v>
+      </c>
+      <c r="H1116">
+        <v>2</v>
+      </c>
+      <c r="I1116" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1116" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1117">
+        <v>121980</v>
+      </c>
+      <c r="D1117">
+        <v>42510.96</v>
+      </c>
+      <c r="E1117">
+        <v>143936.4</v>
+      </c>
+      <c r="F1117">
+        <v>20.33</v>
+      </c>
+      <c r="G1117">
+        <v>6000</v>
+      </c>
+      <c r="H1117">
+        <v>1</v>
+      </c>
+      <c r="I1117" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1117" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1118">
+        <v>123795</v>
+      </c>
+      <c r="D1118">
+        <v>0</v>
+      </c>
+      <c r="E1118">
+        <v>146078.1</v>
+      </c>
+      <c r="F1118">
+        <v>19.65</v>
+      </c>
+      <c r="G1118">
+        <v>6300</v>
+      </c>
+      <c r="H1118">
+        <v>1</v>
+      </c>
+      <c r="I1118" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1118" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>Meenakshi Steels</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1119">
+        <v>152490</v>
+      </c>
+      <c r="D1119">
+        <v>6893.64</v>
+      </c>
+      <c r="E1119">
+        <v>179938.56</v>
+      </c>
+      <c r="F1119">
+        <v>19.55</v>
+      </c>
+      <c r="G1119">
+        <v>7800</v>
+      </c>
+      <c r="H1119">
+        <v>2</v>
+      </c>
+      <c r="I1119" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1119" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>Adri Steels Pvt Limited</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1120">
+        <v>52860</v>
+      </c>
+      <c r="D1120">
+        <v>9514.799999999999</v>
+      </c>
+      <c r="E1120">
+        <v>62375</v>
+      </c>
+      <c r="F1120">
+        <v>17.62</v>
+      </c>
+      <c r="G1120">
+        <v>3000</v>
+      </c>
+      <c r="H1120">
+        <v>1</v>
+      </c>
+      <c r="I1120" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1120" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1121">
+        <v>47943</v>
+      </c>
+      <c r="D1121">
+        <v>15738.66</v>
+      </c>
+      <c r="E1121">
+        <v>56572.74</v>
+      </c>
+      <c r="F1121">
+        <v>15.22</v>
+      </c>
+      <c r="G1121">
+        <v>3150</v>
+      </c>
+      <c r="H1121">
+        <v>1</v>
+      </c>
+      <c r="I1121" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1121" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C1122">
+        <v>1320000</v>
+      </c>
+      <c r="D1122">
+        <v>237600</v>
+      </c>
+      <c r="E1122">
+        <v>1557600</v>
+      </c>
+      <c r="F1122">
+        <v>10</v>
+      </c>
+      <c r="G1122">
+        <v>132000</v>
+      </c>
+      <c r="H1122">
+        <v>1</v>
+      </c>
+      <c r="I1122" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1122" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1123">
+        <v>41886</v>
+      </c>
+      <c r="D1123">
+        <v>29822.58</v>
+      </c>
+      <c r="E1123">
+        <v>49425.48</v>
+      </c>
+      <c r="F1123">
+        <v>5.37</v>
+      </c>
+      <c r="G1123">
+        <v>7800</v>
+      </c>
+      <c r="H1123">
+        <v>1</v>
+      </c>
+      <c r="I1123" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1123" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>SURGE ALLOYS PVT.LTD</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>Scrap</t>
+        </is>
+      </c>
+      <c r="C1124">
+        <v>92004</v>
+      </c>
+      <c r="D1124">
+        <v>0</v>
+      </c>
+      <c r="E1124">
+        <v>108564.72</v>
+      </c>
+      <c r="F1124">
+        <v>0.748</v>
+      </c>
+      <c r="G1124">
+        <v>123000</v>
+      </c>
+      <c r="H1124">
+        <v>1</v>
+      </c>
+      <c r="I1124" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1124" s="2">
+        <v>45352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -41879,7 +41879,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
@@ -41888,22 +41888,22 @@
         </is>
       </c>
       <c r="C1095">
-        <v>147091.5</v>
+        <v>207392</v>
       </c>
       <c r="D1095">
-        <v>29141.56</v>
+        <v>37330.56</v>
       </c>
       <c r="E1095">
-        <v>166096.7</v>
+        <v>244723</v>
       </c>
       <c r="F1095">
-        <v>65.53</v>
+        <v>64.81</v>
       </c>
       <c r="G1095">
-        <v>2244.643674652831</v>
+        <v>3200</v>
       </c>
       <c r="H1095">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr">
         <is>
@@ -41917,31 +41917,31 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1096">
-        <v>207392</v>
+        <v>387252.5</v>
       </c>
       <c r="D1096">
-        <v>37330.56</v>
+        <v>69705.45</v>
       </c>
       <c r="E1096">
-        <v>244723</v>
+        <v>456958</v>
       </c>
       <c r="F1096">
-        <v>64.81</v>
+        <v>56.39</v>
       </c>
       <c r="G1096">
-        <v>3200</v>
+        <v>6867.396701542827</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1096" t="inlineStr">
         <is>
@@ -41955,31 +41955,31 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1097">
-        <v>387252.5</v>
+        <v>126646.5</v>
       </c>
       <c r="D1097">
-        <v>69705.45</v>
+        <v>6332.33</v>
       </c>
       <c r="E1097">
-        <v>456958</v>
+        <v>132979</v>
       </c>
       <c r="F1097">
-        <v>56.39</v>
+        <v>51.13</v>
       </c>
       <c r="G1097">
-        <v>6867.396701542827</v>
+        <v>2476.950909446509</v>
       </c>
       <c r="H1097">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr">
         <is>
@@ -41993,35 +41993,35 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1098">
-        <v>126646.5</v>
+        <v>278442</v>
       </c>
       <c r="D1098">
-        <v>6332.33</v>
+        <v>50119.56</v>
       </c>
       <c r="E1098">
-        <v>132979</v>
+        <v>328562</v>
       </c>
       <c r="F1098">
-        <v>51.13</v>
+        <v>44.91</v>
       </c>
       <c r="G1098">
-        <v>2476.950909446509</v>
+        <v>6199.999999999999</v>
       </c>
       <c r="H1098">
         <v>2</v>
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1098" s="2">
@@ -42031,7 +42031,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
@@ -42040,26 +42040,26 @@
         </is>
       </c>
       <c r="C1099">
-        <v>278442</v>
+        <v>137560.5</v>
       </c>
       <c r="D1099">
-        <v>50119.56</v>
+        <v>31869.82</v>
       </c>
       <c r="E1099">
-        <v>328562</v>
+        <v>162321.74</v>
       </c>
       <c r="F1099">
-        <v>44.91</v>
+        <v>43.67</v>
       </c>
       <c r="G1099">
-        <v>6199.999999999999</v>
+        <v>3150</v>
       </c>
       <c r="H1099">
         <v>2</v>
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1099" s="2">
@@ -42107,7 +42107,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
@@ -42116,26 +42116,26 @@
         </is>
       </c>
       <c r="C1101">
-        <v>120870</v>
+        <v>57474</v>
       </c>
       <c r="D1101">
-        <v>21756.6</v>
+        <v>13010.4</v>
       </c>
       <c r="E1101">
-        <v>142627</v>
+        <v>60347.7</v>
       </c>
       <c r="F1101">
-        <v>35.55</v>
+        <v>37.08</v>
       </c>
       <c r="G1101">
-        <v>3400</v>
+        <v>1550</v>
       </c>
       <c r="H1101">
         <v>2</v>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1101" s="2">
@@ -42145,7 +42145,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
@@ -42154,22 +42154,22 @@
         </is>
       </c>
       <c r="C1102">
-        <v>119782</v>
+        <v>120870</v>
       </c>
       <c r="D1102">
-        <v>21560.76</v>
+        <v>21756.6</v>
       </c>
       <c r="E1102">
-        <v>141343</v>
+        <v>142627</v>
       </c>
       <c r="F1102">
-        <v>35.23</v>
+        <v>35.55</v>
       </c>
       <c r="G1102">
         <v>3400</v>
       </c>
       <c r="H1102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
@@ -42183,31 +42183,31 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1103">
-        <v>221319</v>
+        <v>119782</v>
       </c>
       <c r="D1103">
-        <v>39837.42</v>
+        <v>21560.76</v>
       </c>
       <c r="E1103">
-        <v>261156</v>
+        <v>141343</v>
       </c>
       <c r="F1103">
-        <v>35.13</v>
+        <v>35.23</v>
       </c>
       <c r="G1103">
-        <v>6299.999999999999</v>
+        <v>3400</v>
       </c>
       <c r="H1103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
@@ -42221,7 +42221,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
@@ -42230,19 +42230,19 @@
         </is>
       </c>
       <c r="C1104">
-        <v>226459.5</v>
+        <v>221319</v>
       </c>
       <c r="D1104">
-        <v>40762.71</v>
+        <v>39837.42</v>
       </c>
       <c r="E1104">
-        <v>267222</v>
+        <v>261156</v>
       </c>
       <c r="F1104">
-        <v>35.11</v>
+        <v>35.13</v>
       </c>
       <c r="G1104">
-        <v>6450</v>
+        <v>6299.999999999999</v>
       </c>
       <c r="H1104">
         <v>2</v>
@@ -42259,7 +42259,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
@@ -42268,26 +42268,26 @@
         </is>
       </c>
       <c r="C1105">
-        <v>220752</v>
+        <v>226459.5</v>
       </c>
       <c r="D1105">
-        <v>39735.36</v>
+        <v>40762.71</v>
       </c>
       <c r="E1105">
-        <v>260488</v>
+        <v>267222</v>
       </c>
       <c r="F1105">
-        <v>35.04</v>
+        <v>35.11</v>
       </c>
       <c r="G1105">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H1105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J1105" s="2">
@@ -42297,7 +42297,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
@@ -42306,16 +42306,16 @@
         </is>
       </c>
       <c r="C1106">
-        <v>220689</v>
+        <v>220752</v>
       </c>
       <c r="D1106">
-        <v>39724.02</v>
+        <v>39735.36</v>
       </c>
       <c r="E1106">
-        <v>260413</v>
+        <v>260488</v>
       </c>
       <c r="F1106">
-        <v>35.03</v>
+        <v>35.04</v>
       </c>
       <c r="G1106">
         <v>6300</v>
@@ -42325,7 +42325,7 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1106" s="2">
@@ -42335,7 +42335,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
@@ -42344,19 +42344,19 @@
         </is>
       </c>
       <c r="C1107">
-        <v>222847.5</v>
+        <v>220689</v>
       </c>
       <c r="D1107">
-        <v>40112.55</v>
+        <v>39724.02</v>
       </c>
       <c r="E1107">
-        <v>262960.05</v>
+        <v>260413</v>
       </c>
       <c r="F1107">
-        <v>34.55</v>
+        <v>35.03</v>
       </c>
       <c r="G1107">
-        <v>6450</v>
+        <v>6300</v>
       </c>
       <c r="H1107">
         <v>1</v>
@@ -42373,35 +42373,35 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1108">
-        <v>125025</v>
+        <v>222847.5</v>
       </c>
       <c r="D1108">
-        <v>12730.52</v>
+        <v>40112.55</v>
       </c>
       <c r="E1108">
-        <v>147530</v>
+        <v>262960.05</v>
       </c>
       <c r="F1108">
-        <v>33.34</v>
+        <v>34.55</v>
       </c>
       <c r="G1108">
-        <v>3750</v>
+        <v>6450</v>
       </c>
       <c r="H1108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J1108" s="2">
@@ -42411,31 +42411,31 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1109">
-        <v>83912</v>
+        <v>125025</v>
       </c>
       <c r="D1109">
-        <v>4195.6</v>
+        <v>12730.52</v>
       </c>
       <c r="E1109">
-        <v>88108</v>
+        <v>147530</v>
       </c>
       <c r="F1109">
-        <v>30.85</v>
+        <v>33.34</v>
       </c>
       <c r="G1109">
-        <v>2720</v>
+        <v>3750</v>
       </c>
       <c r="H1109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
@@ -42449,35 +42449,35 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1110">
-        <v>185787</v>
+        <v>83912</v>
       </c>
       <c r="D1110">
-        <v>33441.66</v>
+        <v>4195.6</v>
       </c>
       <c r="E1110">
-        <v>219229</v>
+        <v>88108</v>
       </c>
       <c r="F1110">
-        <v>29.49</v>
+        <v>30.85</v>
       </c>
       <c r="G1110">
-        <v>6300</v>
+        <v>2720</v>
       </c>
       <c r="H1110">
         <v>1</v>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1110" s="2">
@@ -42487,35 +42487,35 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1111">
-        <v>95185.5</v>
+        <v>185787</v>
       </c>
       <c r="D1111">
-        <v>17133.39</v>
+        <v>33441.66</v>
       </c>
       <c r="E1111">
-        <v>112319</v>
+        <v>219229</v>
       </c>
       <c r="F1111">
-        <v>27.59</v>
+        <v>29.49</v>
       </c>
       <c r="G1111">
-        <v>3450</v>
+        <v>6300</v>
       </c>
       <c r="H1111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1111" s="2">
@@ -42525,31 +42525,31 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>S.R. STEEL PVT LTD</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1112">
-        <v>227649.006</v>
+        <v>95185.5</v>
       </c>
       <c r="D1112">
-        <v>0</v>
+        <v>17133.39</v>
       </c>
       <c r="E1112">
-        <v>227649.01</v>
+        <v>112319</v>
       </c>
       <c r="F1112">
-        <v>26.7</v>
+        <v>27.59</v>
       </c>
       <c r="G1112">
-        <v>8526.18</v>
+        <v>3450</v>
       </c>
       <c r="H1112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
@@ -42563,35 +42563,35 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>S.R. STEEL PVT LTD</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C1113">
-        <v>163296</v>
+        <v>227649.006</v>
       </c>
       <c r="D1113">
-        <v>29393.28</v>
+        <v>0</v>
       </c>
       <c r="E1113">
-        <v>192689</v>
+        <v>227649.01</v>
       </c>
       <c r="F1113">
-        <v>25.92</v>
+        <v>26.7</v>
       </c>
       <c r="G1113">
-        <v>6300</v>
+        <v>8526.18</v>
       </c>
       <c r="H1113">
         <v>1</v>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1113" s="2">
@@ -42601,7 +42601,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Govaan Steel Private Limited Quartztech</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
@@ -42610,26 +42610,26 @@
         </is>
       </c>
       <c r="C1114">
-        <v>132288</v>
+        <v>163296</v>
       </c>
       <c r="D1114">
-        <v>23811.84</v>
+        <v>29393.28</v>
       </c>
       <c r="E1114">
-        <v>156100</v>
+        <v>192689</v>
       </c>
       <c r="F1114">
-        <v>24.96</v>
+        <v>25.92</v>
       </c>
       <c r="G1114">
-        <v>5300</v>
+        <v>6300</v>
       </c>
       <c r="H1114">
         <v>1</v>
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1114" s="2">
@@ -42639,28 +42639,28 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Govaan Steel Private Limited Quartztech</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1115">
-        <v>96200</v>
+        <v>132288</v>
       </c>
       <c r="D1115">
-        <v>4810</v>
+        <v>23811.84</v>
       </c>
       <c r="E1115">
-        <v>101010</v>
+        <v>156100</v>
       </c>
       <c r="F1115">
-        <v>24.05</v>
+        <v>24.96</v>
       </c>
       <c r="G1115">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="H1115">
         <v>1</v>
@@ -42677,28 +42677,31 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1116">
-        <v>37904</v>
+        <v>96200</v>
       </c>
       <c r="D1116">
-        <v>18734.58</v>
+        <v>4810</v>
+      </c>
+      <c r="E1116">
+        <v>101010</v>
       </c>
       <c r="F1116">
-        <v>23.69</v>
+        <v>24.05</v>
       </c>
       <c r="G1116">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1116" t="inlineStr">
         <is>
@@ -42712,35 +42715,32 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1117">
-        <v>121980</v>
+        <v>37904</v>
       </c>
       <c r="D1117">
-        <v>42510.96</v>
-      </c>
-      <c r="E1117">
-        <v>143936.4</v>
+        <v>18734.58</v>
       </c>
       <c r="F1117">
-        <v>20.33</v>
+        <v>23.69</v>
       </c>
       <c r="G1117">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="H1117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1117" s="2">
@@ -42750,7 +42750,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
@@ -42759,26 +42759,26 @@
         </is>
       </c>
       <c r="C1118">
-        <v>123795</v>
+        <v>121980</v>
       </c>
       <c r="D1118">
-        <v>0</v>
+        <v>42510.96</v>
       </c>
       <c r="E1118">
-        <v>146078.1</v>
+        <v>143936.4</v>
       </c>
       <c r="F1118">
-        <v>19.65</v>
+        <v>20.33</v>
       </c>
       <c r="G1118">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H1118">
         <v>1</v>
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1118" s="2">
@@ -42788,35 +42788,35 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1119">
-        <v>152490</v>
+        <v>123795</v>
       </c>
       <c r="D1119">
-        <v>6893.64</v>
+        <v>0</v>
       </c>
       <c r="E1119">
-        <v>179938.56</v>
+        <v>146078.1</v>
       </c>
       <c r="F1119">
-        <v>19.55</v>
+        <v>19.65</v>
       </c>
       <c r="G1119">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="H1119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1119" s="2">
@@ -42826,35 +42826,35 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Adri Steels Pvt Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1120">
-        <v>52860</v>
+        <v>152490</v>
       </c>
       <c r="D1120">
-        <v>9514.799999999999</v>
+        <v>6893.64</v>
       </c>
       <c r="E1120">
-        <v>62375</v>
+        <v>179938.56</v>
       </c>
       <c r="F1120">
-        <v>17.62</v>
+        <v>19.55</v>
       </c>
       <c r="G1120">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1120" s="2">
@@ -42864,35 +42864,35 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Adri Steels Pvt Limited</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1121">
-        <v>47943</v>
+        <v>52860</v>
       </c>
       <c r="D1121">
-        <v>15738.66</v>
+        <v>9514.799999999999</v>
       </c>
       <c r="E1121">
-        <v>56572.74</v>
+        <v>62375</v>
       </c>
       <c r="F1121">
-        <v>15.22</v>
+        <v>17.62</v>
       </c>
       <c r="G1121">
-        <v>3150</v>
+        <v>3000</v>
       </c>
       <c r="H1121">
         <v>1</v>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1121" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -41727,35 +41727,35 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1091">
-        <v>767248</v>
+        <v>828300</v>
       </c>
       <c r="D1091">
-        <v>89770.86</v>
+        <v>149094</v>
       </c>
       <c r="E1091">
-        <v>905352.78</v>
+        <v>977395</v>
       </c>
       <c r="F1091">
-        <v>97.12</v>
+        <v>110.44</v>
       </c>
       <c r="G1091">
-        <v>7900.000000000001</v>
+        <v>7500</v>
       </c>
       <c r="H1091">
         <v>5</v>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1091" s="2">
@@ -41765,35 +41765,35 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1092">
-        <v>503936</v>
+        <v>767248</v>
       </c>
       <c r="D1092">
-        <v>90708.48</v>
+        <v>89770.86</v>
       </c>
       <c r="E1092">
-        <v>594645</v>
+        <v>905352.78</v>
       </c>
       <c r="F1092">
-        <v>81.28</v>
+        <v>97.12</v>
       </c>
       <c r="G1092">
-        <v>6200</v>
+        <v>7900.000000000001</v>
       </c>
       <c r="H1092">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1092" s="2">
@@ -41803,28 +41803,28 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1093">
-        <v>605025</v>
+        <v>503936</v>
       </c>
       <c r="D1093">
-        <v>108904.5</v>
+        <v>90708.48</v>
       </c>
       <c r="E1093">
-        <v>713930</v>
+        <v>594645</v>
       </c>
       <c r="F1093">
-        <v>80.67</v>
+        <v>81.28</v>
       </c>
       <c r="G1093">
-        <v>7500</v>
+        <v>6200</v>
       </c>
       <c r="H1093">
         <v>4</v>
@@ -41841,35 +41841,35 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1094">
-        <v>523425</v>
+        <v>207392</v>
       </c>
       <c r="D1094">
-        <v>94216.5</v>
+        <v>37330.56</v>
       </c>
       <c r="E1094">
-        <v>617642</v>
+        <v>244723</v>
       </c>
       <c r="F1094">
-        <v>69.78999999999999</v>
+        <v>64.81</v>
       </c>
       <c r="G1094">
-        <v>7500.000000000001</v>
+        <v>3200</v>
       </c>
       <c r="H1094">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1094" s="2">
@@ -41879,31 +41879,31 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1095">
-        <v>207392</v>
+        <v>387252.5</v>
       </c>
       <c r="D1095">
-        <v>37330.56</v>
+        <v>69705.45</v>
       </c>
       <c r="E1095">
-        <v>244723</v>
+        <v>456958</v>
       </c>
       <c r="F1095">
-        <v>64.81</v>
+        <v>56.39</v>
       </c>
       <c r="G1095">
-        <v>3200</v>
+        <v>6867.396701542827</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1095" t="inlineStr">
         <is>
@@ -41917,31 +41917,31 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1096">
-        <v>387252.5</v>
+        <v>126646.5</v>
       </c>
       <c r="D1096">
-        <v>69705.45</v>
+        <v>6332.33</v>
       </c>
       <c r="E1096">
-        <v>456958</v>
+        <v>132979</v>
       </c>
       <c r="F1096">
-        <v>56.39</v>
+        <v>51.13</v>
       </c>
       <c r="G1096">
-        <v>6867.396701542827</v>
+        <v>2476.950909446509</v>
       </c>
       <c r="H1096">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr">
         <is>
@@ -41955,35 +41955,35 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1097">
-        <v>126646.5</v>
+        <v>278442</v>
       </c>
       <c r="D1097">
-        <v>6332.33</v>
+        <v>50119.56</v>
       </c>
       <c r="E1097">
-        <v>132979</v>
+        <v>328562</v>
       </c>
       <c r="F1097">
-        <v>51.13</v>
+        <v>44.91</v>
       </c>
       <c r="G1097">
-        <v>2476.950909446509</v>
+        <v>6199.999999999999</v>
       </c>
       <c r="H1097">
         <v>2</v>
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1097" s="2">
@@ -41993,7 +41993,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>KHAYATI STEEL INDUSTRIES PRIVATE LIMITED-UNIT II</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
@@ -42002,26 +42002,26 @@
         </is>
       </c>
       <c r="C1098">
-        <v>278442</v>
+        <v>137560.5</v>
       </c>
       <c r="D1098">
-        <v>50119.56</v>
+        <v>31869.82</v>
       </c>
       <c r="E1098">
-        <v>328562</v>
+        <v>162321.74</v>
       </c>
       <c r="F1098">
-        <v>44.91</v>
+        <v>43.67</v>
       </c>
       <c r="G1098">
-        <v>6199.999999999999</v>
+        <v>3150</v>
       </c>
       <c r="H1098">
         <v>2</v>
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1098" s="2">
@@ -42031,28 +42031,28 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>MTC Business Pvt Ltd</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1099">
-        <v>137560.5</v>
+        <v>377741</v>
       </c>
       <c r="D1099">
-        <v>31869.82</v>
+        <v>67993.38</v>
       </c>
       <c r="E1099">
-        <v>162321.74</v>
+        <v>445734</v>
       </c>
       <c r="F1099">
-        <v>43.67</v>
+        <v>41.51000000000001</v>
       </c>
       <c r="G1099">
-        <v>3150</v>
+        <v>9099.999999999998</v>
       </c>
       <c r="H1099">
         <v>2</v>
@@ -42069,7 +42069,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>MTC Business Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
@@ -42078,26 +42078,26 @@
         </is>
       </c>
       <c r="C1100">
-        <v>377741</v>
+        <v>300150</v>
       </c>
       <c r="D1100">
-        <v>67993.38</v>
+        <v>54027</v>
       </c>
       <c r="E1100">
-        <v>445734</v>
+        <v>354177</v>
       </c>
       <c r="F1100">
-        <v>41.51000000000001</v>
+        <v>40.02</v>
       </c>
       <c r="G1100">
-        <v>9099.999999999998</v>
+        <v>7500.000000000001</v>
       </c>
       <c r="H1100">
         <v>2</v>
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1100" s="2">

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1124"/>
+  <dimension ref="A1:J1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41575,35 +41575,35 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1087">
-        <v>1197000</v>
+        <v>1128450</v>
       </c>
       <c r="D1087">
-        <v>215460</v>
+        <v>203121</v>
       </c>
       <c r="E1087">
-        <v>1412461</v>
+        <v>1331572</v>
       </c>
       <c r="F1087">
-        <v>142.5</v>
+        <v>150.46</v>
       </c>
       <c r="G1087">
-        <v>8400</v>
+        <v>7500.000000000001</v>
       </c>
       <c r="H1087">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1087" s="2">
@@ -41613,7 +41613,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
@@ -41622,26 +41622,26 @@
         </is>
       </c>
       <c r="C1088">
-        <v>1114240</v>
+        <v>1197000</v>
       </c>
       <c r="D1088">
-        <v>200563.2</v>
+        <v>215460</v>
       </c>
       <c r="E1088">
-        <v>1314803</v>
+        <v>1412461</v>
       </c>
       <c r="F1088">
-        <v>139.28</v>
+        <v>142.5</v>
       </c>
       <c r="G1088">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="H1088">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1088" s="2">
@@ -41651,7 +41651,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
@@ -41660,26 +41660,26 @@
         </is>
       </c>
       <c r="C1089">
-        <v>908732</v>
+        <v>1114240</v>
       </c>
       <c r="D1089">
-        <v>163571.76</v>
+        <v>200563.2</v>
       </c>
       <c r="E1089">
-        <v>1072304</v>
+        <v>1314803</v>
       </c>
       <c r="F1089">
-        <v>119.57</v>
+        <v>139.28</v>
       </c>
       <c r="G1089">
-        <v>7599.999999999999</v>
+        <v>8000</v>
       </c>
       <c r="H1089">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1089" s="2">
@@ -41689,35 +41689,35 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1090">
-        <v>361920</v>
+        <v>908732</v>
       </c>
       <c r="D1090">
-        <v>65145.6</v>
+        <v>163571.76</v>
       </c>
       <c r="E1090">
-        <v>427065</v>
+        <v>1072304</v>
       </c>
       <c r="F1090">
-        <v>113.1</v>
+        <v>119.57</v>
       </c>
       <c r="G1090">
-        <v>3200</v>
+        <v>7599.999999999999</v>
       </c>
       <c r="H1090">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1090" s="2">
@@ -41727,35 +41727,35 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1091">
-        <v>828300</v>
+        <v>361920</v>
       </c>
       <c r="D1091">
-        <v>149094</v>
+        <v>65145.6</v>
       </c>
       <c r="E1091">
-        <v>977395</v>
+        <v>427065</v>
       </c>
       <c r="F1091">
-        <v>110.44</v>
+        <v>113.1</v>
       </c>
       <c r="G1091">
-        <v>7500</v>
+        <v>3200</v>
       </c>
       <c r="H1091">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1091" s="2">
@@ -42069,35 +42069,35 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1100">
-        <v>300150</v>
+        <v>57474</v>
       </c>
       <c r="D1100">
-        <v>54027</v>
+        <v>13010.4</v>
       </c>
       <c r="E1100">
-        <v>354177</v>
+        <v>60347.7</v>
       </c>
       <c r="F1100">
-        <v>40.02</v>
+        <v>37.08</v>
       </c>
       <c r="G1100">
-        <v>7500.000000000001</v>
+        <v>1550</v>
       </c>
       <c r="H1100">
         <v>2</v>
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1100" s="2">
@@ -42107,7 +42107,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
@@ -42116,26 +42116,26 @@
         </is>
       </c>
       <c r="C1101">
-        <v>57474</v>
+        <v>120870</v>
       </c>
       <c r="D1101">
-        <v>13010.4</v>
+        <v>21756.6</v>
       </c>
       <c r="E1101">
-        <v>60347.7</v>
+        <v>142627</v>
       </c>
       <c r="F1101">
-        <v>37.08</v>
+        <v>35.55</v>
       </c>
       <c r="G1101">
-        <v>1550</v>
+        <v>3400</v>
       </c>
       <c r="H1101">
         <v>2</v>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J1101" s="2">
@@ -42145,7 +42145,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
@@ -42154,22 +42154,22 @@
         </is>
       </c>
       <c r="C1102">
-        <v>120870</v>
+        <v>119782</v>
       </c>
       <c r="D1102">
-        <v>21756.6</v>
+        <v>21560.76</v>
       </c>
       <c r="E1102">
-        <v>142627</v>
+        <v>141343</v>
       </c>
       <c r="F1102">
-        <v>35.55</v>
+        <v>35.23</v>
       </c>
       <c r="G1102">
         <v>3400</v>
       </c>
       <c r="H1102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
@@ -42183,31 +42183,31 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1103">
-        <v>119782</v>
+        <v>221319</v>
       </c>
       <c r="D1103">
-        <v>21560.76</v>
+        <v>39837.42</v>
       </c>
       <c r="E1103">
-        <v>141343</v>
+        <v>261156</v>
       </c>
       <c r="F1103">
-        <v>35.23</v>
+        <v>35.13</v>
       </c>
       <c r="G1103">
-        <v>3400</v>
+        <v>6299.999999999999</v>
       </c>
       <c r="H1103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
@@ -42221,7 +42221,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
@@ -42230,19 +42230,19 @@
         </is>
       </c>
       <c r="C1104">
-        <v>221319</v>
+        <v>226459.5</v>
       </c>
       <c r="D1104">
-        <v>39837.42</v>
+        <v>40762.71</v>
       </c>
       <c r="E1104">
-        <v>261156</v>
+        <v>267222</v>
       </c>
       <c r="F1104">
-        <v>35.13</v>
+        <v>35.11</v>
       </c>
       <c r="G1104">
-        <v>6299.999999999999</v>
+        <v>6450</v>
       </c>
       <c r="H1104">
         <v>2</v>
@@ -42259,7 +42259,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
@@ -42268,26 +42268,26 @@
         </is>
       </c>
       <c r="C1105">
-        <v>226459.5</v>
+        <v>220752</v>
       </c>
       <c r="D1105">
-        <v>40762.71</v>
+        <v>39735.36</v>
       </c>
       <c r="E1105">
-        <v>267222</v>
+        <v>260488</v>
       </c>
       <c r="F1105">
-        <v>35.11</v>
+        <v>35.04</v>
       </c>
       <c r="G1105">
-        <v>6450</v>
+        <v>6300</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1105" s="2">
@@ -42297,7 +42297,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
@@ -42306,16 +42306,16 @@
         </is>
       </c>
       <c r="C1106">
-        <v>220752</v>
+        <v>220689</v>
       </c>
       <c r="D1106">
-        <v>39735.36</v>
+        <v>39724.02</v>
       </c>
       <c r="E1106">
-        <v>260488</v>
+        <v>260413</v>
       </c>
       <c r="F1106">
-        <v>35.04</v>
+        <v>35.03</v>
       </c>
       <c r="G1106">
         <v>6300</v>
@@ -42325,7 +42325,7 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J1106" s="2">
@@ -42335,7 +42335,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
@@ -42344,19 +42344,19 @@
         </is>
       </c>
       <c r="C1107">
-        <v>220689</v>
+        <v>222847.5</v>
       </c>
       <c r="D1107">
-        <v>39724.02</v>
+        <v>40112.55</v>
       </c>
       <c r="E1107">
-        <v>260413</v>
+        <v>262960.05</v>
       </c>
       <c r="F1107">
-        <v>35.03</v>
+        <v>34.55</v>
       </c>
       <c r="G1107">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H1107">
         <v>1</v>
@@ -42373,35 +42373,35 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1108">
-        <v>222847.5</v>
+        <v>125025</v>
       </c>
       <c r="D1108">
-        <v>40112.55</v>
+        <v>12730.52</v>
       </c>
       <c r="E1108">
-        <v>262960.05</v>
+        <v>147530</v>
       </c>
       <c r="F1108">
-        <v>34.55</v>
+        <v>33.34</v>
       </c>
       <c r="G1108">
-        <v>6450</v>
+        <v>3750</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1108" s="2">
@@ -42411,31 +42411,31 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1109">
-        <v>125025</v>
+        <v>83912</v>
       </c>
       <c r="D1109">
-        <v>12730.52</v>
+        <v>4195.6</v>
       </c>
       <c r="E1109">
-        <v>147530</v>
+        <v>88108</v>
       </c>
       <c r="F1109">
-        <v>33.34</v>
+        <v>30.85</v>
       </c>
       <c r="G1109">
-        <v>3750</v>
+        <v>2720</v>
       </c>
       <c r="H1109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
@@ -42449,35 +42449,35 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1110">
-        <v>83912</v>
+        <v>185787</v>
       </c>
       <c r="D1110">
-        <v>4195.6</v>
+        <v>33441.66</v>
       </c>
       <c r="E1110">
-        <v>88108</v>
+        <v>219229</v>
       </c>
       <c r="F1110">
-        <v>30.85</v>
+        <v>29.49</v>
       </c>
       <c r="G1110">
-        <v>2720</v>
+        <v>6300</v>
       </c>
       <c r="H1110">
         <v>1</v>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1110" s="2">
@@ -42487,35 +42487,35 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1111">
-        <v>185787</v>
+        <v>95185.5</v>
       </c>
       <c r="D1111">
-        <v>33441.66</v>
+        <v>17133.39</v>
       </c>
       <c r="E1111">
-        <v>219229</v>
+        <v>112319</v>
       </c>
       <c r="F1111">
-        <v>29.49</v>
+        <v>27.59</v>
       </c>
       <c r="G1111">
-        <v>6300</v>
+        <v>3450</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1111" s="2">
@@ -42525,31 +42525,31 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>S.R. STEEL PVT LTD</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C1112">
-        <v>95185.5</v>
+        <v>227649.006</v>
       </c>
       <c r="D1112">
-        <v>17133.39</v>
+        <v>0</v>
       </c>
       <c r="E1112">
-        <v>112319</v>
+        <v>227649.01</v>
       </c>
       <c r="F1112">
-        <v>27.59</v>
+        <v>26.7</v>
       </c>
       <c r="G1112">
-        <v>3450</v>
+        <v>8526.18</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
@@ -42563,35 +42563,35 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>S.R. STEEL PVT LTD</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1113">
-        <v>227649.006</v>
+        <v>163296</v>
       </c>
       <c r="D1113">
-        <v>0</v>
+        <v>29393.28</v>
       </c>
       <c r="E1113">
-        <v>227649.01</v>
+        <v>192689</v>
       </c>
       <c r="F1113">
-        <v>26.7</v>
+        <v>25.92</v>
       </c>
       <c r="G1113">
-        <v>8526.18</v>
+        <v>6300</v>
       </c>
       <c r="H1113">
         <v>1</v>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1113" s="2">
@@ -42601,7 +42601,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Govaan Steel Private Limited Quartztech</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
@@ -42610,26 +42610,26 @@
         </is>
       </c>
       <c r="C1114">
-        <v>163296</v>
+        <v>132288</v>
       </c>
       <c r="D1114">
-        <v>29393.28</v>
+        <v>23811.84</v>
       </c>
       <c r="E1114">
-        <v>192689</v>
+        <v>156100</v>
       </c>
       <c r="F1114">
-        <v>25.92</v>
+        <v>24.96</v>
       </c>
       <c r="G1114">
-        <v>6300</v>
+        <v>5300</v>
       </c>
       <c r="H1114">
         <v>1</v>
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1114" s="2">
@@ -42639,28 +42639,28 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Govaan Steel Private Limited Quartztech</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1115">
-        <v>132288</v>
+        <v>96200</v>
       </c>
       <c r="D1115">
-        <v>23811.84</v>
+        <v>4810</v>
       </c>
       <c r="E1115">
-        <v>156100</v>
+        <v>101010</v>
       </c>
       <c r="F1115">
-        <v>24.96</v>
+        <v>24.05</v>
       </c>
       <c r="G1115">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="H1115">
         <v>1</v>
@@ -42677,31 +42677,28 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1116">
-        <v>96200</v>
+        <v>37904</v>
       </c>
       <c r="D1116">
-        <v>4810</v>
-      </c>
-      <c r="E1116">
-        <v>101010</v>
+        <v>18734.58</v>
       </c>
       <c r="F1116">
-        <v>24.05</v>
+        <v>23.69</v>
       </c>
       <c r="G1116">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="H1116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr">
         <is>
@@ -42715,32 +42712,35 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1117">
-        <v>37904</v>
+        <v>121980</v>
       </c>
       <c r="D1117">
-        <v>18734.58</v>
+        <v>42510.96</v>
+      </c>
+      <c r="E1117">
+        <v>143936.4</v>
       </c>
       <c r="F1117">
-        <v>23.69</v>
+        <v>20.33</v>
       </c>
       <c r="G1117">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="H1117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1117" s="2">
@@ -42750,7 +42750,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
@@ -42759,26 +42759,26 @@
         </is>
       </c>
       <c r="C1118">
-        <v>121980</v>
+        <v>123795</v>
       </c>
       <c r="D1118">
-        <v>42510.96</v>
+        <v>0</v>
       </c>
       <c r="E1118">
-        <v>143936.4</v>
+        <v>146078.1</v>
       </c>
       <c r="F1118">
-        <v>20.33</v>
+        <v>19.65</v>
       </c>
       <c r="G1118">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H1118">
         <v>1</v>
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1118" s="2">
@@ -42788,35 +42788,35 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1119">
-        <v>123795</v>
+        <v>152490</v>
       </c>
       <c r="D1119">
-        <v>0</v>
+        <v>6893.64</v>
       </c>
       <c r="E1119">
-        <v>146078.1</v>
+        <v>179938.56</v>
       </c>
       <c r="F1119">
-        <v>19.65</v>
+        <v>19.55</v>
       </c>
       <c r="G1119">
-        <v>6300</v>
+        <v>7800</v>
       </c>
       <c r="H1119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1119" s="2">
@@ -42826,35 +42826,35 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Adri Steels Pvt Limited</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1120">
-        <v>152490</v>
+        <v>52860</v>
       </c>
       <c r="D1120">
-        <v>6893.64</v>
+        <v>9514.799999999999</v>
       </c>
       <c r="E1120">
-        <v>179938.56</v>
+        <v>62375</v>
       </c>
       <c r="F1120">
-        <v>19.55</v>
+        <v>17.62</v>
       </c>
       <c r="G1120">
-        <v>7800</v>
+        <v>3000</v>
       </c>
       <c r="H1120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1120" s="2">
@@ -42864,35 +42864,30 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Adri Steels Pvt Limited</t>
-        </is>
-      </c>
-      <c r="B1121" t="inlineStr">
-        <is>
-          <t>Nali Top</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="C1121">
-        <v>52860</v>
+        <v>1320000</v>
       </c>
       <c r="D1121">
-        <v>9514.799999999999</v>
+        <v>237600</v>
       </c>
       <c r="E1121">
-        <v>62375</v>
+        <v>1557600</v>
       </c>
       <c r="F1121">
-        <v>17.62</v>
+        <v>10</v>
       </c>
       <c r="G1121">
-        <v>3000</v>
+        <v>132000</v>
       </c>
       <c r="H1121">
         <v>1</v>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1121" s="2">
@@ -42902,30 +42897,35 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1122">
-        <v>1320000</v>
+        <v>41886</v>
       </c>
       <c r="D1122">
-        <v>237600</v>
+        <v>29822.58</v>
       </c>
       <c r="E1122">
-        <v>1557600</v>
+        <v>49425.48</v>
       </c>
       <c r="F1122">
-        <v>10</v>
+        <v>5.37</v>
       </c>
       <c r="G1122">
-        <v>132000</v>
+        <v>7800</v>
       </c>
       <c r="H1122">
         <v>1</v>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1122" s="2">
@@ -42935,76 +42935,38 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>SURGE ALLOYS PVT.LTD</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="C1123">
-        <v>41886</v>
+        <v>92004</v>
       </c>
       <c r="D1123">
-        <v>29822.58</v>
+        <v>0</v>
       </c>
       <c r="E1123">
-        <v>49425.48</v>
+        <v>108564.72</v>
       </c>
       <c r="F1123">
-        <v>5.37</v>
+        <v>0.748</v>
       </c>
       <c r="G1123">
-        <v>7800</v>
+        <v>123000</v>
       </c>
       <c r="H1123">
         <v>1</v>
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1123" s="2">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>SURGE ALLOYS PVT.LTD</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr">
-        <is>
-          <t>Scrap</t>
-        </is>
-      </c>
-      <c r="C1124">
-        <v>92004</v>
-      </c>
-      <c r="D1124">
-        <v>0</v>
-      </c>
-      <c r="E1124">
-        <v>108564.72</v>
-      </c>
-      <c r="F1124">
-        <v>0.748</v>
-      </c>
-      <c r="G1124">
-        <v>123000</v>
-      </c>
-      <c r="H1124">
-        <v>1</v>
-      </c>
-      <c r="I1124" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J1124" s="2">
         <v>45352</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1123"/>
+  <dimension ref="A1:J1165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41575,35 +41575,35 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1087">
-        <v>1128450</v>
+        <v>1197000</v>
       </c>
       <c r="D1087">
-        <v>203121</v>
+        <v>215460</v>
       </c>
       <c r="E1087">
-        <v>1331572</v>
+        <v>1412461</v>
       </c>
       <c r="F1087">
-        <v>150.46</v>
+        <v>142.5</v>
       </c>
       <c r="G1087">
-        <v>7500.000000000001</v>
+        <v>8400</v>
       </c>
       <c r="H1087">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1087" s="2">
@@ -41613,7 +41613,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
@@ -41622,26 +41622,26 @@
         </is>
       </c>
       <c r="C1088">
-        <v>1197000</v>
+        <v>1114240</v>
       </c>
       <c r="D1088">
-        <v>215460</v>
+        <v>200563.2</v>
       </c>
       <c r="E1088">
-        <v>1412461</v>
+        <v>1314803</v>
       </c>
       <c r="F1088">
-        <v>142.5</v>
+        <v>139.28</v>
       </c>
       <c r="G1088">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="H1088">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1088" s="2">
@@ -41651,7 +41651,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
@@ -41660,26 +41660,26 @@
         </is>
       </c>
       <c r="C1089">
-        <v>1114240</v>
+        <v>908732</v>
       </c>
       <c r="D1089">
-        <v>200563.2</v>
+        <v>163571.76</v>
       </c>
       <c r="E1089">
-        <v>1314803</v>
+        <v>1072304</v>
       </c>
       <c r="F1089">
-        <v>139.28</v>
+        <v>119.57</v>
       </c>
       <c r="G1089">
-        <v>8000</v>
+        <v>7599.999999999999</v>
       </c>
       <c r="H1089">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1089" s="2">
@@ -41689,35 +41689,35 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1090">
-        <v>908732</v>
+        <v>361920</v>
       </c>
       <c r="D1090">
-        <v>163571.76</v>
+        <v>65145.6</v>
       </c>
       <c r="E1090">
-        <v>1072304</v>
+        <v>427065</v>
       </c>
       <c r="F1090">
-        <v>119.57</v>
+        <v>113.1</v>
       </c>
       <c r="G1090">
-        <v>7599.999999999999</v>
+        <v>3200</v>
       </c>
       <c r="H1090">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1090" s="2">
@@ -41727,35 +41727,35 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1091">
-        <v>361920</v>
+        <v>828300</v>
       </c>
       <c r="D1091">
-        <v>65145.6</v>
+        <v>149094</v>
       </c>
       <c r="E1091">
-        <v>427065</v>
+        <v>977395</v>
       </c>
       <c r="F1091">
-        <v>113.1</v>
+        <v>110.44</v>
       </c>
       <c r="G1091">
-        <v>3200</v>
+        <v>7500</v>
       </c>
       <c r="H1091">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1091" s="2">
@@ -42069,35 +42069,35 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1100">
-        <v>57474</v>
+        <v>300150</v>
       </c>
       <c r="D1100">
-        <v>13010.4</v>
+        <v>54027</v>
       </c>
       <c r="E1100">
-        <v>60347.7</v>
+        <v>354177</v>
       </c>
       <c r="F1100">
-        <v>37.08</v>
+        <v>40.02</v>
       </c>
       <c r="G1100">
-        <v>1550</v>
+        <v>7500.000000000001</v>
       </c>
       <c r="H1100">
         <v>2</v>
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1100" s="2">
@@ -42107,7 +42107,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
@@ -42116,26 +42116,26 @@
         </is>
       </c>
       <c r="C1101">
-        <v>120870</v>
+        <v>57474</v>
       </c>
       <c r="D1101">
-        <v>21756.6</v>
+        <v>13010.4</v>
       </c>
       <c r="E1101">
-        <v>142627</v>
+        <v>60347.7</v>
       </c>
       <c r="F1101">
-        <v>35.55</v>
+        <v>37.08</v>
       </c>
       <c r="G1101">
-        <v>3400</v>
+        <v>1550</v>
       </c>
       <c r="H1101">
         <v>2</v>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1101" s="2">
@@ -42145,7 +42145,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
@@ -42154,22 +42154,22 @@
         </is>
       </c>
       <c r="C1102">
-        <v>119782</v>
+        <v>120870</v>
       </c>
       <c r="D1102">
-        <v>21560.76</v>
+        <v>21756.6</v>
       </c>
       <c r="E1102">
-        <v>141343</v>
+        <v>142627</v>
       </c>
       <c r="F1102">
-        <v>35.23</v>
+        <v>35.55</v>
       </c>
       <c r="G1102">
         <v>3400</v>
       </c>
       <c r="H1102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
@@ -42183,31 +42183,31 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1103">
-        <v>221319</v>
+        <v>119782</v>
       </c>
       <c r="D1103">
-        <v>39837.42</v>
+        <v>21560.76</v>
       </c>
       <c r="E1103">
-        <v>261156</v>
+        <v>141343</v>
       </c>
       <c r="F1103">
-        <v>35.13</v>
+        <v>35.23</v>
       </c>
       <c r="G1103">
-        <v>6299.999999999999</v>
+        <v>3400</v>
       </c>
       <c r="H1103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
@@ -42221,7 +42221,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
@@ -42230,19 +42230,19 @@
         </is>
       </c>
       <c r="C1104">
-        <v>226459.5</v>
+        <v>221319</v>
       </c>
       <c r="D1104">
-        <v>40762.71</v>
+        <v>39837.42</v>
       </c>
       <c r="E1104">
-        <v>267222</v>
+        <v>261156</v>
       </c>
       <c r="F1104">
-        <v>35.11</v>
+        <v>35.13</v>
       </c>
       <c r="G1104">
-        <v>6450</v>
+        <v>6299.999999999999</v>
       </c>
       <c r="H1104">
         <v>2</v>
@@ -42259,7 +42259,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
@@ -42268,26 +42268,26 @@
         </is>
       </c>
       <c r="C1105">
-        <v>220752</v>
+        <v>226459.5</v>
       </c>
       <c r="D1105">
-        <v>39735.36</v>
+        <v>40762.71</v>
       </c>
       <c r="E1105">
-        <v>260488</v>
+        <v>267222</v>
       </c>
       <c r="F1105">
-        <v>35.04</v>
+        <v>35.11</v>
       </c>
       <c r="G1105">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H1105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J1105" s="2">
@@ -42297,7 +42297,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
@@ -42306,16 +42306,16 @@
         </is>
       </c>
       <c r="C1106">
-        <v>220689</v>
+        <v>220752</v>
       </c>
       <c r="D1106">
-        <v>39724.02</v>
+        <v>39735.36</v>
       </c>
       <c r="E1106">
-        <v>260413</v>
+        <v>260488</v>
       </c>
       <c r="F1106">
-        <v>35.03</v>
+        <v>35.04</v>
       </c>
       <c r="G1106">
         <v>6300</v>
@@ -42325,7 +42325,7 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1106" s="2">
@@ -42335,7 +42335,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
@@ -42344,19 +42344,19 @@
         </is>
       </c>
       <c r="C1107">
-        <v>222847.5</v>
+        <v>220689</v>
       </c>
       <c r="D1107">
-        <v>40112.55</v>
+        <v>39724.02</v>
       </c>
       <c r="E1107">
-        <v>262960.05</v>
+        <v>260413</v>
       </c>
       <c r="F1107">
-        <v>34.55</v>
+        <v>35.03</v>
       </c>
       <c r="G1107">
-        <v>6450</v>
+        <v>6300</v>
       </c>
       <c r="H1107">
         <v>1</v>
@@ -42373,35 +42373,35 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1108">
-        <v>125025</v>
+        <v>222847.5</v>
       </c>
       <c r="D1108">
-        <v>12730.52</v>
+        <v>40112.55</v>
       </c>
       <c r="E1108">
-        <v>147530</v>
+        <v>262960.05</v>
       </c>
       <c r="F1108">
-        <v>33.34</v>
+        <v>34.55</v>
       </c>
       <c r="G1108">
-        <v>3750</v>
+        <v>6450</v>
       </c>
       <c r="H1108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J1108" s="2">
@@ -42411,31 +42411,31 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1109">
-        <v>83912</v>
+        <v>125025</v>
       </c>
       <c r="D1109">
-        <v>4195.6</v>
+        <v>12730.52</v>
       </c>
       <c r="E1109">
-        <v>88108</v>
+        <v>147530</v>
       </c>
       <c r="F1109">
-        <v>30.85</v>
+        <v>33.34</v>
       </c>
       <c r="G1109">
-        <v>2720</v>
+        <v>3750</v>
       </c>
       <c r="H1109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
@@ -42449,35 +42449,35 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1110">
-        <v>185787</v>
+        <v>83912</v>
       </c>
       <c r="D1110">
-        <v>33441.66</v>
+        <v>4195.6</v>
       </c>
       <c r="E1110">
-        <v>219229</v>
+        <v>88108</v>
       </c>
       <c r="F1110">
-        <v>29.49</v>
+        <v>30.85</v>
       </c>
       <c r="G1110">
-        <v>6300</v>
+        <v>2720</v>
       </c>
       <c r="H1110">
         <v>1</v>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1110" s="2">
@@ -42487,35 +42487,35 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1111">
-        <v>95185.5</v>
+        <v>185787</v>
       </c>
       <c r="D1111">
-        <v>17133.39</v>
+        <v>33441.66</v>
       </c>
       <c r="E1111">
-        <v>112319</v>
+        <v>219229</v>
       </c>
       <c r="F1111">
-        <v>27.59</v>
+        <v>29.49</v>
       </c>
       <c r="G1111">
-        <v>3450</v>
+        <v>6300</v>
       </c>
       <c r="H1111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1111" s="2">
@@ -42525,31 +42525,31 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>S.R. STEEL PVT LTD</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1112">
-        <v>227649.006</v>
+        <v>95185.5</v>
       </c>
       <c r="D1112">
-        <v>0</v>
+        <v>17133.39</v>
       </c>
       <c r="E1112">
-        <v>227649.01</v>
+        <v>112319</v>
       </c>
       <c r="F1112">
-        <v>26.7</v>
+        <v>27.59</v>
       </c>
       <c r="G1112">
-        <v>8526.18</v>
+        <v>3450</v>
       </c>
       <c r="H1112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
@@ -42563,35 +42563,35 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>S.R. STEEL PVT LTD</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C1113">
-        <v>163296</v>
+        <v>227649.006</v>
       </c>
       <c r="D1113">
-        <v>29393.28</v>
+        <v>0</v>
       </c>
       <c r="E1113">
-        <v>192689</v>
+        <v>227649.01</v>
       </c>
       <c r="F1113">
-        <v>25.92</v>
+        <v>26.7</v>
       </c>
       <c r="G1113">
-        <v>6300</v>
+        <v>8526.18</v>
       </c>
       <c r="H1113">
         <v>1</v>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1113" s="2">
@@ -42601,7 +42601,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Govaan Steel Private Limited Quartztech</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
@@ -42610,26 +42610,26 @@
         </is>
       </c>
       <c r="C1114">
-        <v>132288</v>
+        <v>163296</v>
       </c>
       <c r="D1114">
-        <v>23811.84</v>
+        <v>29393.28</v>
       </c>
       <c r="E1114">
-        <v>156100</v>
+        <v>192689</v>
       </c>
       <c r="F1114">
-        <v>24.96</v>
+        <v>25.92</v>
       </c>
       <c r="G1114">
-        <v>5300</v>
+        <v>6300</v>
       </c>
       <c r="H1114">
         <v>1</v>
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1114" s="2">
@@ -42639,28 +42639,28 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Govaan Steel Private Limited Quartztech</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1115">
-        <v>96200</v>
+        <v>132288</v>
       </c>
       <c r="D1115">
-        <v>4810</v>
+        <v>23811.84</v>
       </c>
       <c r="E1115">
-        <v>101010</v>
+        <v>156100</v>
       </c>
       <c r="F1115">
-        <v>24.05</v>
+        <v>24.96</v>
       </c>
       <c r="G1115">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="H1115">
         <v>1</v>
@@ -42677,28 +42677,31 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1116">
-        <v>37904</v>
+        <v>96200</v>
       </c>
       <c r="D1116">
-        <v>18734.58</v>
+        <v>4810</v>
+      </c>
+      <c r="E1116">
+        <v>101010</v>
       </c>
       <c r="F1116">
-        <v>23.69</v>
+        <v>24.05</v>
       </c>
       <c r="G1116">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1116" t="inlineStr">
         <is>
@@ -42712,35 +42715,32 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1117">
-        <v>121980</v>
+        <v>37904</v>
       </c>
       <c r="D1117">
-        <v>42510.96</v>
-      </c>
-      <c r="E1117">
-        <v>143936.4</v>
+        <v>18734.58</v>
       </c>
       <c r="F1117">
-        <v>20.33</v>
+        <v>23.69</v>
       </c>
       <c r="G1117">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="H1117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1117" s="2">
@@ -42750,7 +42750,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
@@ -42759,26 +42759,26 @@
         </is>
       </c>
       <c r="C1118">
-        <v>123795</v>
+        <v>121980</v>
       </c>
       <c r="D1118">
-        <v>0</v>
+        <v>42510.96</v>
       </c>
       <c r="E1118">
-        <v>146078.1</v>
+        <v>143936.4</v>
       </c>
       <c r="F1118">
-        <v>19.65</v>
+        <v>20.33</v>
       </c>
       <c r="G1118">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H1118">
         <v>1</v>
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1118" s="2">
@@ -42788,35 +42788,35 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Meenakshi Steels</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1119">
-        <v>152490</v>
+        <v>123795</v>
       </c>
       <c r="D1119">
-        <v>6893.64</v>
+        <v>0</v>
       </c>
       <c r="E1119">
-        <v>179938.56</v>
+        <v>146078.1</v>
       </c>
       <c r="F1119">
-        <v>19.55</v>
+        <v>19.65</v>
       </c>
       <c r="G1119">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="H1119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1119" s="2">
@@ -42826,35 +42826,35 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Adri Steels Pvt Limited</t>
+          <t>Meenakshi Steels</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1120">
-        <v>52860</v>
+        <v>152490</v>
       </c>
       <c r="D1120">
-        <v>9514.799999999999</v>
+        <v>6893.64</v>
       </c>
       <c r="E1120">
-        <v>62375</v>
+        <v>179938.56</v>
       </c>
       <c r="F1120">
-        <v>17.62</v>
+        <v>19.55</v>
       </c>
       <c r="G1120">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1120" s="2">
@@ -42864,30 +42864,35 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>Adri Steels Pvt Limited</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1121">
-        <v>1320000</v>
+        <v>52860</v>
       </c>
       <c r="D1121">
-        <v>237600</v>
+        <v>9514.799999999999</v>
       </c>
       <c r="E1121">
-        <v>1557600</v>
+        <v>62375</v>
       </c>
       <c r="F1121">
-        <v>10</v>
+        <v>17.62</v>
       </c>
       <c r="G1121">
-        <v>132000</v>
+        <v>3000</v>
       </c>
       <c r="H1121">
         <v>1</v>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1121" s="2">
@@ -42897,35 +42902,30 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="B1122" t="inlineStr">
-        <is>
-          <t>Boron Oxide Premix</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="C1122">
-        <v>41886</v>
+        <v>1320000</v>
       </c>
       <c r="D1122">
-        <v>29822.58</v>
+        <v>237600</v>
       </c>
       <c r="E1122">
-        <v>49425.48</v>
+        <v>1557600</v>
       </c>
       <c r="F1122">
-        <v>5.37</v>
+        <v>10</v>
       </c>
       <c r="G1122">
-        <v>7800</v>
+        <v>132000</v>
       </c>
       <c r="H1122">
         <v>1</v>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1122" s="2">
@@ -42935,39 +42935,1630 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>SURGE ALLOYS PVT.LTD</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1123">
-        <v>92004</v>
+        <v>41886</v>
       </c>
       <c r="D1123">
-        <v>0</v>
+        <v>29822.58</v>
       </c>
       <c r="E1123">
-        <v>108564.72</v>
+        <v>49425.48</v>
       </c>
       <c r="F1123">
-        <v>0.748</v>
+        <v>5.37</v>
       </c>
       <c r="G1123">
-        <v>123000</v>
+        <v>7800</v>
       </c>
       <c r="H1123">
         <v>1</v>
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1123" s="2">
         <v>45352</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>SURGE ALLOYS PVT.LTD</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>Scrap</t>
+        </is>
+      </c>
+      <c r="C1124">
+        <v>92004</v>
+      </c>
+      <c r="D1124">
+        <v>0</v>
+      </c>
+      <c r="E1124">
+        <v>108564.72</v>
+      </c>
+      <c r="F1124">
+        <v>0.748</v>
+      </c>
+      <c r="G1124">
+        <v>123000</v>
+      </c>
+      <c r="H1124">
+        <v>1</v>
+      </c>
+      <c r="I1124" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1124" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>Sugna Metals Ltd.</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1125">
+        <v>2349204</v>
+      </c>
+      <c r="D1125">
+        <v>451118.16</v>
+      </c>
+      <c r="E1125">
+        <v>2957331</v>
+      </c>
+      <c r="F1125">
+        <v>301.18</v>
+      </c>
+      <c r="G1125">
+        <v>7799.999999999999</v>
+      </c>
+      <c r="H1125">
+        <v>9</v>
+      </c>
+      <c r="I1125" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1125" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>A One Ispat Private Ltd</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1126">
+        <v>2023506</v>
+      </c>
+      <c r="D1126">
+        <v>364231.08</v>
+      </c>
+      <c r="E1126">
+        <v>2387738</v>
+      </c>
+      <c r="F1126">
+        <v>256.14</v>
+      </c>
+      <c r="G1126">
+        <v>7900</v>
+      </c>
+      <c r="H1126">
+        <v>9</v>
+      </c>
+      <c r="I1126" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1126" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>A One Bellary(A One Steels And Alloys Pvt Ltd)</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1127">
+        <v>2131940</v>
+      </c>
+      <c r="D1127">
+        <v>383749.2</v>
+      </c>
+      <c r="E1127">
+        <v>2515689</v>
+      </c>
+      <c r="F1127">
+        <v>247.9</v>
+      </c>
+      <c r="G1127">
+        <v>8600</v>
+      </c>
+      <c r="H1127">
+        <v>10</v>
+      </c>
+      <c r="I1127" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1127" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1128">
+        <v>1858836</v>
+      </c>
+      <c r="D1128">
+        <v>334590.48</v>
+      </c>
+      <c r="E1128">
+        <v>2193427</v>
+      </c>
+      <c r="F1128">
+        <v>221.29</v>
+      </c>
+      <c r="G1128">
+        <v>8400</v>
+      </c>
+      <c r="H1128">
+        <v>9</v>
+      </c>
+      <c r="I1128" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1128" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1129">
+        <v>1356888</v>
+      </c>
+      <c r="D1129">
+        <v>141691.68</v>
+      </c>
+      <c r="E1129">
+        <v>1601128.16</v>
+      </c>
+      <c r="F1129">
+        <v>173.96</v>
+      </c>
+      <c r="G1129">
+        <v>7800</v>
+      </c>
+      <c r="H1129">
+        <v>6</v>
+      </c>
+      <c r="I1129" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1129" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>BMM ISPAT LIMITED</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1130">
+        <v>1186552</v>
+      </c>
+      <c r="D1130">
+        <v>213579.36</v>
+      </c>
+      <c r="E1130">
+        <v>1400131</v>
+      </c>
+      <c r="F1130">
+        <v>167.12</v>
+      </c>
+      <c r="G1130">
+        <v>7100</v>
+      </c>
+      <c r="H1130">
+        <v>5</v>
+      </c>
+      <c r="I1130" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1130" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Quartz Lumps</t>
+        </is>
+      </c>
+      <c r="C1131">
+        <v>195070.6</v>
+      </c>
+      <c r="D1131">
+        <v>9753.540000000001</v>
+      </c>
+      <c r="E1131">
+        <v>204824</v>
+      </c>
+      <c r="F1131">
+        <v>133.61</v>
+      </c>
+      <c r="G1131">
+        <v>1460</v>
+      </c>
+      <c r="H1131">
+        <v>3</v>
+      </c>
+      <c r="I1131" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1131" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>Adishakti Smelters Private Limited</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1132">
+        <v>524955</v>
+      </c>
+      <c r="D1132">
+        <v>94491.92</v>
+      </c>
+      <c r="E1132">
+        <v>619448</v>
+      </c>
+      <c r="F1132">
+        <v>132.9</v>
+      </c>
+      <c r="G1132">
+        <v>3950</v>
+      </c>
+      <c r="H1132">
+        <v>4</v>
+      </c>
+      <c r="I1132" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1132" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1133">
+        <v>1006620</v>
+      </c>
+      <c r="D1133">
+        <v>181191.6</v>
+      </c>
+      <c r="E1133">
+        <v>1187812</v>
+      </c>
+      <c r="F1133">
+        <v>132.45</v>
+      </c>
+      <c r="G1133">
+        <v>7600</v>
+      </c>
+      <c r="H1133">
+        <v>5</v>
+      </c>
+      <c r="I1133" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1133" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>Shri Tirupati Steel Cast Ltd</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1134">
+        <v>418560</v>
+      </c>
+      <c r="D1134">
+        <v>69240.95999999999</v>
+      </c>
+      <c r="E1134">
+        <v>489496.4</v>
+      </c>
+      <c r="F1134">
+        <v>130.8</v>
+      </c>
+      <c r="G1134">
+        <v>3200</v>
+      </c>
+      <c r="H1134">
+        <v>8</v>
+      </c>
+      <c r="I1134" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1134" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>MTC Business Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1135">
+        <v>1145417</v>
+      </c>
+      <c r="D1135">
+        <v>206175.06</v>
+      </c>
+      <c r="E1135">
+        <v>1351592</v>
+      </c>
+      <c r="F1135">
+        <v>125.87</v>
+      </c>
+      <c r="G1135">
+        <v>9100.000000000002</v>
+      </c>
+      <c r="H1135">
+        <v>6</v>
+      </c>
+      <c r="I1135" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1135" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>Pushpit Steels Private Limited</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1136">
+        <v>711388</v>
+      </c>
+      <c r="D1136">
+        <v>128049.84</v>
+      </c>
+      <c r="E1136">
+        <v>839437.8</v>
+      </c>
+      <c r="F1136">
+        <v>114.74</v>
+      </c>
+      <c r="G1136">
+        <v>6200</v>
+      </c>
+      <c r="H1136">
+        <v>6</v>
+      </c>
+      <c r="I1136" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1136" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1137">
+        <v>864000</v>
+      </c>
+      <c r="D1137">
+        <v>155520</v>
+      </c>
+      <c r="E1137">
+        <v>1019520</v>
+      </c>
+      <c r="F1137">
+        <v>108</v>
+      </c>
+      <c r="G1137">
+        <v>8000</v>
+      </c>
+      <c r="H1137">
+        <v>6</v>
+      </c>
+      <c r="I1137" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1137" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1138">
+        <v>804778.5</v>
+      </c>
+      <c r="D1138">
+        <v>144860.13</v>
+      </c>
+      <c r="E1138">
+        <v>949639</v>
+      </c>
+      <c r="F1138">
+        <v>101.23</v>
+      </c>
+      <c r="G1138">
+        <v>7950</v>
+      </c>
+      <c r="H1138">
+        <v>3</v>
+      </c>
+      <c r="I1138" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1138" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1139">
+        <v>474264</v>
+      </c>
+      <c r="D1139">
+        <v>85367.52</v>
+      </c>
+      <c r="E1139">
+        <v>559631</v>
+      </c>
+      <c r="F1139">
+        <v>75.28</v>
+      </c>
+      <c r="G1139">
+        <v>6300</v>
+      </c>
+      <c r="H1139">
+        <v>4</v>
+      </c>
+      <c r="I1139" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1139" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1140">
+        <v>519741</v>
+      </c>
+      <c r="D1140">
+        <v>93553.38</v>
+      </c>
+      <c r="E1140">
+        <v>613295</v>
+      </c>
+      <c r="F1140">
+        <v>65.78999999999999</v>
+      </c>
+      <c r="G1140">
+        <v>7900</v>
+      </c>
+      <c r="H1140">
+        <v>3</v>
+      </c>
+      <c r="I1140" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1140" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1141">
+        <v>379260</v>
+      </c>
+      <c r="D1141">
+        <v>68266.8</v>
+      </c>
+      <c r="E1141">
+        <v>447527</v>
+      </c>
+      <c r="F1141">
+        <v>60.2</v>
+      </c>
+      <c r="G1141">
+        <v>6300</v>
+      </c>
+      <c r="H1141">
+        <v>2</v>
+      </c>
+      <c r="I1141" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1141" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1142">
+        <v>340929</v>
+      </c>
+      <c r="D1142">
+        <v>63624.42</v>
+      </c>
+      <c r="E1142">
+        <v>417093</v>
+      </c>
+      <c r="F1142">
+        <v>55.89</v>
+      </c>
+      <c r="G1142">
+        <v>6100</v>
+      </c>
+      <c r="H1142">
+        <v>2</v>
+      </c>
+      <c r="I1142" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1142" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>Govaan Steel Private Limited Quartztech</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1143">
+        <v>326206</v>
+      </c>
+      <c r="D1143">
+        <v>58717.08</v>
+      </c>
+      <c r="E1143">
+        <v>384923</v>
+      </c>
+      <c r="F1143">
+        <v>55.27</v>
+      </c>
+      <c r="G1143">
+        <v>5902.044508775104</v>
+      </c>
+      <c r="H1143">
+        <v>3</v>
+      </c>
+      <c r="I1143" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1143" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1144">
+        <v>170148</v>
+      </c>
+      <c r="D1144">
+        <v>15537.52</v>
+      </c>
+      <c r="E1144">
+        <v>208145.5</v>
+      </c>
+      <c r="F1144">
+        <v>49.44</v>
+      </c>
+      <c r="G1144">
+        <v>3441.504854368932</v>
+      </c>
+      <c r="H1144">
+        <v>2</v>
+      </c>
+      <c r="I1144" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1144" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1145">
+        <v>268443</v>
+      </c>
+      <c r="D1145">
+        <v>48319.74000000001</v>
+      </c>
+      <c r="E1145">
+        <v>316763</v>
+      </c>
+      <c r="F1145">
+        <v>42.61</v>
+      </c>
+      <c r="G1145">
+        <v>6300</v>
+      </c>
+      <c r="H1145">
+        <v>2</v>
+      </c>
+      <c r="I1145" t="inlineStr">
+        <is>
+          <t>Sunil Rathi</t>
+        </is>
+      </c>
+      <c r="J1145" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1146">
+        <v>250860</v>
+      </c>
+      <c r="D1146">
+        <v>0</v>
+      </c>
+      <c r="E1146">
+        <v>296014.8</v>
+      </c>
+      <c r="F1146">
+        <v>41.81</v>
+      </c>
+      <c r="G1146">
+        <v>6000</v>
+      </c>
+      <c r="H1146">
+        <v>2</v>
+      </c>
+      <c r="I1146" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J1146" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1147">
+        <v>153337.5</v>
+      </c>
+      <c r="D1147">
+        <v>27600.76</v>
+      </c>
+      <c r="E1147">
+        <v>180938</v>
+      </c>
+      <c r="F1147">
+        <v>40.89</v>
+      </c>
+      <c r="G1147">
+        <v>3750</v>
+      </c>
+      <c r="H1147">
+        <v>2</v>
+      </c>
+      <c r="I1147" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1147" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1148">
+        <v>121716</v>
+      </c>
+      <c r="D1148">
+        <v>21908.88</v>
+      </c>
+      <c r="E1148">
+        <v>143625</v>
+      </c>
+      <c r="F1148">
+        <v>35.28</v>
+      </c>
+      <c r="G1148">
+        <v>3450</v>
+      </c>
+      <c r="H1148">
+        <v>1</v>
+      </c>
+      <c r="I1148" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1148" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>MTC Business Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1149">
+        <v>141677.6</v>
+      </c>
+      <c r="D1149">
+        <v>25501.97</v>
+      </c>
+      <c r="E1149">
+        <v>167180</v>
+      </c>
+      <c r="F1149">
+        <v>32.72</v>
+      </c>
+      <c r="G1149">
+        <v>4329.999999999999</v>
+      </c>
+      <c r="H1149">
+        <v>2</v>
+      </c>
+      <c r="I1149" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1149" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>Pattambi Brothers</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1150">
+        <v>197379</v>
+      </c>
+      <c r="D1150">
+        <v>35528.22</v>
+      </c>
+      <c r="E1150">
+        <v>232907</v>
+      </c>
+      <c r="F1150">
+        <v>31.33</v>
+      </c>
+      <c r="G1150">
+        <v>6300</v>
+      </c>
+      <c r="H1150">
+        <v>1</v>
+      </c>
+      <c r="I1150" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1150" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>Sonal Vyapar Private Limited(Sonal (Salem))</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1151">
+        <v>197675.5</v>
+      </c>
+      <c r="D1151">
+        <v>35581.59</v>
+      </c>
+      <c r="E1151">
+        <v>233257</v>
+      </c>
+      <c r="F1151">
+        <v>31.13</v>
+      </c>
+      <c r="G1151">
+        <v>6350</v>
+      </c>
+      <c r="H1151">
+        <v>2</v>
+      </c>
+      <c r="I1151" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1151" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1152">
+        <v>194166</v>
+      </c>
+      <c r="D1152">
+        <v>34949.88</v>
+      </c>
+      <c r="E1152">
+        <v>229116</v>
+      </c>
+      <c r="F1152">
+        <v>30.82</v>
+      </c>
+      <c r="G1152">
+        <v>6300</v>
+      </c>
+      <c r="H1152">
+        <v>1</v>
+      </c>
+      <c r="I1152" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1152" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>M.A.STEELS (P) LTD</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1153">
+        <v>192024</v>
+      </c>
+      <c r="D1153">
+        <v>34564.32</v>
+      </c>
+      <c r="E1153">
+        <v>226588</v>
+      </c>
+      <c r="F1153">
+        <v>30.48</v>
+      </c>
+      <c r="G1153">
+        <v>6300</v>
+      </c>
+      <c r="H1153">
+        <v>1</v>
+      </c>
+      <c r="I1153" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1153" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C1154">
+        <v>69828</v>
+      </c>
+      <c r="D1154">
+        <v>3491.4</v>
+      </c>
+      <c r="E1154">
+        <v>73320</v>
+      </c>
+      <c r="F1154">
+        <v>30.36</v>
+      </c>
+      <c r="G1154">
+        <v>2300</v>
+      </c>
+      <c r="H1154">
+        <v>2</v>
+      </c>
+      <c r="I1154" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1154" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1155">
+        <v>189693</v>
+      </c>
+      <c r="D1155">
+        <v>0</v>
+      </c>
+      <c r="E1155">
+        <v>223837.74</v>
+      </c>
+      <c r="F1155">
+        <v>30.11</v>
+      </c>
+      <c r="G1155">
+        <v>6300</v>
+      </c>
+      <c r="H1155">
+        <v>1</v>
+      </c>
+      <c r="I1155" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1155" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1156">
+        <v>189000</v>
+      </c>
+      <c r="D1156">
+        <v>34020</v>
+      </c>
+      <c r="E1156">
+        <v>223020</v>
+      </c>
+      <c r="F1156">
+        <v>30</v>
+      </c>
+      <c r="G1156">
+        <v>6300</v>
+      </c>
+      <c r="H1156">
+        <v>1</v>
+      </c>
+      <c r="I1156" t="inlineStr">
+        <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J1156" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1157">
+        <v>203420</v>
+      </c>
+      <c r="D1157">
+        <v>36615.6</v>
+      </c>
+      <c r="E1157">
+        <v>240036</v>
+      </c>
+      <c r="F1157">
+        <v>29.06</v>
+      </c>
+      <c r="G1157">
+        <v>7000</v>
+      </c>
+      <c r="H1157">
+        <v>1</v>
+      </c>
+      <c r="I1157" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1157" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1158">
+        <v>207460</v>
+      </c>
+      <c r="D1158">
+        <v>43932.6</v>
+      </c>
+      <c r="E1158">
+        <v>288003</v>
+      </c>
+      <c r="F1158">
+        <v>25.3</v>
+      </c>
+      <c r="G1158">
+        <v>8200</v>
+      </c>
+      <c r="H1158">
+        <v>1</v>
+      </c>
+      <c r="I1158" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1158" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1159">
+        <v>68512</v>
+      </c>
+      <c r="D1159">
+        <v>0</v>
+      </c>
+      <c r="E1159">
+        <v>71937.60000000001</v>
+      </c>
+      <c r="F1159">
+        <v>21.41</v>
+      </c>
+      <c r="G1159">
+        <v>3200</v>
+      </c>
+      <c r="H1159">
+        <v>2</v>
+      </c>
+      <c r="I1159" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1159" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>Quartz Powder</t>
+        </is>
+      </c>
+      <c r="C1160">
+        <v>54182.4</v>
+      </c>
+      <c r="D1160">
+        <v>2709.12</v>
+      </c>
+      <c r="E1160">
+        <v>56892</v>
+      </c>
+      <c r="F1160">
+        <v>19.92</v>
+      </c>
+      <c r="G1160">
+        <v>2720</v>
+      </c>
+      <c r="H1160">
+        <v>1</v>
+      </c>
+      <c r="I1160" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1160" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1161">
+        <v>18181.5</v>
+      </c>
+      <c r="D1161">
+        <v>0</v>
+      </c>
+      <c r="E1161">
+        <v>19090.575</v>
+      </c>
+      <c r="F1161">
+        <v>11.73</v>
+      </c>
+      <c r="G1161">
+        <v>1550</v>
+      </c>
+      <c r="H1161">
+        <v>2</v>
+      </c>
+      <c r="I1161" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1161" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1162">
+        <v>36610</v>
+      </c>
+      <c r="D1162">
+        <v>0</v>
+      </c>
+      <c r="E1162">
+        <v>43199.8</v>
+      </c>
+      <c r="F1162">
+        <v>5.23</v>
+      </c>
+      <c r="G1162">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="H1162">
+        <v>1</v>
+      </c>
+      <c r="I1162" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1162" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1163">
+        <v>12540</v>
+      </c>
+      <c r="D1163">
+        <v>0</v>
+      </c>
+      <c r="E1163">
+        <v>13167</v>
+      </c>
+      <c r="F1163">
+        <v>4.18</v>
+      </c>
+      <c r="G1163">
+        <v>3000</v>
+      </c>
+      <c r="H1163">
+        <v>1</v>
+      </c>
+      <c r="I1163" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1163" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1164">
+        <v>8480</v>
+      </c>
+      <c r="D1164">
+        <v>1526.4</v>
+      </c>
+      <c r="E1164">
+        <v>10007</v>
+      </c>
+      <c r="F1164">
+        <v>1.06</v>
+      </c>
+      <c r="G1164">
+        <v>8000</v>
+      </c>
+      <c r="H1164">
+        <v>1</v>
+      </c>
+      <c r="I1164" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1164" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="C1165">
+        <v>87000</v>
+      </c>
+      <c r="D1165">
+        <v>15660</v>
+      </c>
+      <c r="E1165">
+        <v>102660</v>
+      </c>
+      <c r="F1165">
+        <v>0.5</v>
+      </c>
+      <c r="G1165">
+        <v>174000</v>
+      </c>
+      <c r="H1165">
+        <v>1</v>
+      </c>
+      <c r="I1165" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1165" s="2">
+        <v>45383</v>
       </c>
     </row>
   </sheetData>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -43619,35 +43619,35 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1141">
-        <v>379260</v>
+        <v>243412.5</v>
       </c>
       <c r="D1141">
-        <v>68266.8</v>
+        <v>27600.76</v>
       </c>
       <c r="E1141">
-        <v>447527</v>
+        <v>287226.5</v>
       </c>
       <c r="F1141">
-        <v>60.2</v>
+        <v>64.91</v>
       </c>
       <c r="G1141">
-        <v>6300</v>
+        <v>3750</v>
       </c>
       <c r="H1141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1141" s="2">
@@ -43657,7 +43657,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
@@ -43666,26 +43666,26 @@
         </is>
       </c>
       <c r="C1142">
-        <v>340929</v>
+        <v>379260</v>
       </c>
       <c r="D1142">
-        <v>63624.42</v>
+        <v>68266.8</v>
       </c>
       <c r="E1142">
-        <v>417093</v>
+        <v>447527</v>
       </c>
       <c r="F1142">
-        <v>55.89</v>
+        <v>60.2</v>
       </c>
       <c r="G1142">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="H1142">
         <v>2</v>
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1142" s="2">
@@ -43695,7 +43695,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Govaan Steel Private Limited Quartztech</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
@@ -43704,26 +43704,26 @@
         </is>
       </c>
       <c r="C1143">
-        <v>326206</v>
+        <v>340929</v>
       </c>
       <c r="D1143">
-        <v>58717.08</v>
+        <v>63624.42</v>
       </c>
       <c r="E1143">
-        <v>384923</v>
+        <v>417093</v>
       </c>
       <c r="F1143">
-        <v>55.27</v>
+        <v>55.89</v>
       </c>
       <c r="G1143">
-        <v>5902.044508775104</v>
+        <v>6100</v>
       </c>
       <c r="H1143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1143" s="2">
@@ -43733,7 +43733,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Govaan Steel Private Limited Quartztech</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
@@ -43742,22 +43742,22 @@
         </is>
       </c>
       <c r="C1144">
-        <v>170148</v>
+        <v>326206</v>
       </c>
       <c r="D1144">
-        <v>15537.52</v>
+        <v>58717.08</v>
       </c>
       <c r="E1144">
-        <v>208145.5</v>
+        <v>384923</v>
       </c>
       <c r="F1144">
-        <v>49.44</v>
+        <v>55.27</v>
       </c>
       <c r="G1144">
-        <v>3441.504854368932</v>
+        <v>5902.044508775104</v>
       </c>
       <c r="H1144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
@@ -43847,31 +43847,31 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1147">
-        <v>153337.5</v>
+        <v>121716</v>
       </c>
       <c r="D1147">
-        <v>27600.76</v>
+        <v>21908.88</v>
       </c>
       <c r="E1147">
-        <v>180938</v>
+        <v>143625</v>
       </c>
       <c r="F1147">
-        <v>40.89</v>
+        <v>35.28</v>
       </c>
       <c r="G1147">
-        <v>3750</v>
+        <v>3450</v>
       </c>
       <c r="H1147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>MTC Business Pvt Ltd</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
@@ -43894,22 +43894,22 @@
         </is>
       </c>
       <c r="C1148">
-        <v>121716</v>
+        <v>141677.6</v>
       </c>
       <c r="D1148">
-        <v>21908.88</v>
+        <v>25501.97</v>
       </c>
       <c r="E1148">
-        <v>143625</v>
+        <v>167180</v>
       </c>
       <c r="F1148">
-        <v>35.28</v>
+        <v>32.72</v>
       </c>
       <c r="G1148">
-        <v>3450</v>
+        <v>4329.999999999999</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr">
         <is>
@@ -43923,35 +43923,35 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>MTC Business Pvt Ltd</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1149">
-        <v>141677.6</v>
+        <v>197379</v>
       </c>
       <c r="D1149">
-        <v>25501.97</v>
+        <v>35528.22</v>
       </c>
       <c r="E1149">
-        <v>167180</v>
+        <v>232907</v>
       </c>
       <c r="F1149">
-        <v>32.72</v>
+        <v>31.33</v>
       </c>
       <c r="G1149">
-        <v>4329.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H1149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1149" s="2">
@@ -43961,7 +43961,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Sonal Vyapar Private Limited(Sonal (Salem))</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
@@ -43970,26 +43970,26 @@
         </is>
       </c>
       <c r="C1150">
-        <v>197379</v>
+        <v>197675.5</v>
       </c>
       <c r="D1150">
-        <v>35528.22</v>
+        <v>35581.59</v>
       </c>
       <c r="E1150">
-        <v>232907</v>
+        <v>233257</v>
       </c>
       <c r="F1150">
-        <v>31.33</v>
+        <v>31.13</v>
       </c>
       <c r="G1150">
-        <v>6300</v>
+        <v>6350</v>
       </c>
       <c r="H1150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1150" s="2">
@@ -43999,7 +43999,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Sonal Vyapar Private Limited(Sonal (Salem))</t>
+          <t>Sri Vinayaga Alloys (P) Ltd</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
@@ -44008,26 +44008,26 @@
         </is>
       </c>
       <c r="C1151">
-        <v>197675.5</v>
+        <v>194166</v>
       </c>
       <c r="D1151">
-        <v>35581.59</v>
+        <v>34949.88</v>
       </c>
       <c r="E1151">
-        <v>233257</v>
+        <v>229116</v>
       </c>
       <c r="F1151">
-        <v>31.13</v>
+        <v>30.82</v>
       </c>
       <c r="G1151">
-        <v>6350</v>
+        <v>6300</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1151" s="2">
@@ -44037,7 +44037,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
@@ -44046,16 +44046,16 @@
         </is>
       </c>
       <c r="C1152">
-        <v>194166</v>
+        <v>192024</v>
       </c>
       <c r="D1152">
-        <v>34949.88</v>
+        <v>34564.32</v>
       </c>
       <c r="E1152">
-        <v>229116</v>
+        <v>226588</v>
       </c>
       <c r="F1152">
-        <v>30.82</v>
+        <v>30.48</v>
       </c>
       <c r="G1152">
         <v>6300</v>
@@ -44075,35 +44075,35 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1153">
-        <v>192024</v>
+        <v>69828</v>
       </c>
       <c r="D1153">
-        <v>34564.32</v>
+        <v>3491.4</v>
       </c>
       <c r="E1153">
-        <v>226588</v>
+        <v>73320</v>
       </c>
       <c r="F1153">
-        <v>30.48</v>
+        <v>30.36</v>
       </c>
       <c r="G1153">
-        <v>6300</v>
+        <v>2300</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1153" s="2">
@@ -44113,31 +44113,31 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1154">
-        <v>69828</v>
+        <v>189693</v>
       </c>
       <c r="D1154">
-        <v>3491.4</v>
+        <v>0</v>
       </c>
       <c r="E1154">
-        <v>73320</v>
+        <v>223837.74</v>
       </c>
       <c r="F1154">
-        <v>30.36</v>
+        <v>30.11</v>
       </c>
       <c r="G1154">
-        <v>2300</v>
+        <v>6300</v>
       </c>
       <c r="H1154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1154" t="inlineStr">
         <is>
@@ -44151,7 +44151,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Sree Rengaraj Ispat Industries (P) Ltd</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
@@ -44160,16 +44160,16 @@
         </is>
       </c>
       <c r="C1155">
-        <v>189693</v>
+        <v>189000</v>
       </c>
       <c r="D1155">
-        <v>0</v>
+        <v>34020</v>
       </c>
       <c r="E1155">
-        <v>223837.74</v>
+        <v>223020</v>
       </c>
       <c r="F1155">
-        <v>30.11</v>
+        <v>30</v>
       </c>
       <c r="G1155">
         <v>6300</v>
@@ -44179,7 +44179,7 @@
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1155" s="2">
@@ -44189,7 +44189,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
@@ -44198,26 +44198,26 @@
         </is>
       </c>
       <c r="C1156">
-        <v>189000</v>
+        <v>203420</v>
       </c>
       <c r="D1156">
-        <v>34020</v>
+        <v>36615.6</v>
       </c>
       <c r="E1156">
-        <v>223020</v>
+        <v>240036</v>
       </c>
       <c r="F1156">
-        <v>30</v>
+        <v>29.06</v>
       </c>
       <c r="G1156">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="H1156">
         <v>1</v>
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1156" s="2">
@@ -44227,7 +44227,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
@@ -44236,19 +44236,19 @@
         </is>
       </c>
       <c r="C1157">
-        <v>203420</v>
+        <v>80073</v>
       </c>
       <c r="D1157">
-        <v>36615.6</v>
+        <v>15537.52</v>
       </c>
       <c r="E1157">
-        <v>240036</v>
+        <v>101857</v>
       </c>
       <c r="F1157">
-        <v>29.06</v>
+        <v>25.42</v>
       </c>
       <c r="G1157">
-        <v>7000</v>
+        <v>3150</v>
       </c>
       <c r="H1157">
         <v>1</v>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1165"/>
+  <dimension ref="A1:J1168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43201,31 +43201,31 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>BMM ISPAT LIMITED</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Lumps</t>
         </is>
       </c>
       <c r="C1130">
-        <v>1186552</v>
+        <v>195070.6</v>
       </c>
       <c r="D1130">
-        <v>213579.36</v>
+        <v>9753.540000000001</v>
       </c>
       <c r="E1130">
-        <v>1400131</v>
+        <v>204824</v>
       </c>
       <c r="F1130">
-        <v>167.12</v>
+        <v>133.61</v>
       </c>
       <c r="G1130">
-        <v>7100</v>
+        <v>1460</v>
       </c>
       <c r="H1130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I1130" t="inlineStr">
         <is>
@@ -43239,31 +43239,31 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Quartz Lumps</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1131">
-        <v>195070.6</v>
+        <v>524955</v>
       </c>
       <c r="D1131">
-        <v>9753.540000000001</v>
+        <v>94491.92</v>
       </c>
       <c r="E1131">
-        <v>204824</v>
+        <v>619448</v>
       </c>
       <c r="F1131">
-        <v>133.61</v>
+        <v>132.9</v>
       </c>
       <c r="G1131">
-        <v>1460</v>
+        <v>3950</v>
       </c>
       <c r="H1131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1131" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
@@ -43286,26 +43286,26 @@
         </is>
       </c>
       <c r="C1132">
-        <v>524955</v>
+        <v>1006620</v>
       </c>
       <c r="D1132">
-        <v>94491.92</v>
+        <v>181191.6</v>
       </c>
       <c r="E1132">
-        <v>619448</v>
+        <v>1187812</v>
       </c>
       <c r="F1132">
-        <v>132.9</v>
+        <v>132.45</v>
       </c>
       <c r="G1132">
-        <v>3950</v>
+        <v>7600</v>
       </c>
       <c r="H1132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1132" s="2">
@@ -43315,35 +43315,35 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1133">
-        <v>1006620</v>
+        <v>418560</v>
       </c>
       <c r="D1133">
-        <v>181191.6</v>
+        <v>69240.95999999999</v>
       </c>
       <c r="E1133">
-        <v>1187812</v>
+        <v>489496.4</v>
       </c>
       <c r="F1133">
-        <v>132.45</v>
+        <v>130.8</v>
       </c>
       <c r="G1133">
-        <v>7600</v>
+        <v>3200</v>
       </c>
       <c r="H1133">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1133" s="2">
@@ -43353,31 +43353,31 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>MTC Business Pvt Ltd</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1134">
-        <v>418560</v>
+        <v>1145417</v>
       </c>
       <c r="D1134">
-        <v>69240.95999999999</v>
+        <v>206175.06</v>
       </c>
       <c r="E1134">
-        <v>489496.4</v>
+        <v>1351592</v>
       </c>
       <c r="F1134">
-        <v>130.8</v>
+        <v>125.87</v>
       </c>
       <c r="G1134">
-        <v>3200</v>
+        <v>9100.000000000002</v>
       </c>
       <c r="H1134">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1134" t="inlineStr">
         <is>
@@ -43391,35 +43391,35 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>MTC Business Pvt Ltd</t>
+          <t>Pushpit Steels Private Limited</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1135">
-        <v>1145417</v>
+        <v>711388</v>
       </c>
       <c r="D1135">
-        <v>206175.06</v>
+        <v>128049.84</v>
       </c>
       <c r="E1135">
-        <v>1351592</v>
+        <v>839437.8</v>
       </c>
       <c r="F1135">
-        <v>125.87</v>
+        <v>114.74</v>
       </c>
       <c r="G1135">
-        <v>9100.000000000002</v>
+        <v>6200</v>
       </c>
       <c r="H1135">
         <v>6</v>
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1135" s="2">
@@ -43429,35 +43429,35 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Pushpit Steels Private Limited</t>
+          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1136">
-        <v>711388</v>
+        <v>864000</v>
       </c>
       <c r="D1136">
-        <v>128049.84</v>
+        <v>155520</v>
       </c>
       <c r="E1136">
-        <v>839437.8</v>
+        <v>1019520</v>
       </c>
       <c r="F1136">
-        <v>114.74</v>
+        <v>108</v>
       </c>
       <c r="G1136">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="H1136">
         <v>6</v>
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1136" s="2">
@@ -43467,7 +43467,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (Kunigal)(M S METALS AND STEELS PVT LTD (ANCHEPALYA))</t>
+          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
@@ -43476,22 +43476,22 @@
         </is>
       </c>
       <c r="C1137">
-        <v>864000</v>
+        <v>804778.5</v>
       </c>
       <c r="D1137">
-        <v>155520</v>
+        <v>144860.13</v>
       </c>
       <c r="E1137">
-        <v>1019520</v>
+        <v>949639</v>
       </c>
       <c r="F1137">
-        <v>108</v>
+        <v>101.23</v>
       </c>
       <c r="G1137">
-        <v>8000</v>
+        <v>7950</v>
       </c>
       <c r="H1137">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I1137" t="inlineStr">
         <is>
@@ -43505,28 +43505,28 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>A One Steel (GBD)(A One Steel &amp; Alloys Pvt Ltd.)</t>
+          <t>BMM ISPAT LIMITED</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1138">
-        <v>804778.5</v>
+        <v>715751</v>
       </c>
       <c r="D1138">
-        <v>144860.13</v>
+        <v>128835.18</v>
       </c>
       <c r="E1138">
-        <v>949639</v>
+        <v>844586</v>
       </c>
       <c r="F1138">
-        <v>101.23</v>
+        <v>100.81</v>
       </c>
       <c r="G1138">
-        <v>7950</v>
+        <v>7100</v>
       </c>
       <c r="H1138">
         <v>3</v>
@@ -43581,35 +43581,35 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>BMM ISPAT LIMITED MMPL</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1140">
-        <v>519741</v>
+        <v>470801</v>
       </c>
       <c r="D1140">
-        <v>93553.38</v>
+        <v>84744.17999999999</v>
       </c>
       <c r="E1140">
-        <v>613295</v>
+        <v>555545</v>
       </c>
       <c r="F1140">
-        <v>65.78999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="G1140">
-        <v>7900</v>
+        <v>7100</v>
       </c>
       <c r="H1140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1140" s="2">
@@ -43619,7 +43619,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
@@ -43628,19 +43628,19 @@
         </is>
       </c>
       <c r="C1141">
-        <v>243412.5</v>
+        <v>519741</v>
       </c>
       <c r="D1141">
-        <v>27600.76</v>
+        <v>93553.38</v>
       </c>
       <c r="E1141">
-        <v>287226.5</v>
+        <v>613295</v>
       </c>
       <c r="F1141">
-        <v>64.91</v>
+        <v>65.78999999999999</v>
       </c>
       <c r="G1141">
-        <v>3750</v>
+        <v>7900</v>
       </c>
       <c r="H1141">
         <v>3</v>
@@ -43657,35 +43657,35 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1142">
-        <v>379260</v>
+        <v>243412.5</v>
       </c>
       <c r="D1142">
-        <v>68266.8</v>
+        <v>27600.76</v>
       </c>
       <c r="E1142">
-        <v>447527</v>
+        <v>287226.5</v>
       </c>
       <c r="F1142">
-        <v>60.2</v>
+        <v>64.91</v>
       </c>
       <c r="G1142">
-        <v>6300</v>
+        <v>3750</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1142" s="2">
@@ -43695,7 +43695,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>Govaan Steel Private Limited Quartztech</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
@@ -43704,26 +43704,26 @@
         </is>
       </c>
       <c r="C1143">
-        <v>340929</v>
+        <v>326206</v>
       </c>
       <c r="D1143">
-        <v>63624.42</v>
+        <v>58717.08</v>
       </c>
       <c r="E1143">
-        <v>417093</v>
+        <v>384923</v>
       </c>
       <c r="F1143">
-        <v>55.89</v>
+        <v>55.27</v>
       </c>
       <c r="G1143">
-        <v>6100</v>
+        <v>5902.044508775104</v>
       </c>
       <c r="H1143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1143" s="2">
@@ -43733,7 +43733,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Govaan Steel Private Limited Quartztech</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
@@ -43742,26 +43742,26 @@
         </is>
       </c>
       <c r="C1144">
-        <v>326206</v>
+        <v>268443</v>
       </c>
       <c r="D1144">
-        <v>58717.08</v>
+        <v>48319.74000000001</v>
       </c>
       <c r="E1144">
-        <v>384923</v>
+        <v>316763</v>
       </c>
       <c r="F1144">
-        <v>55.27</v>
+        <v>42.61</v>
       </c>
       <c r="G1144">
-        <v>5902.044508775104</v>
+        <v>6300</v>
       </c>
       <c r="H1144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J1144" s="2">
@@ -43771,7 +43771,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION(SHRADDHA ISPAT PVT. LTD.)</t>
+          <t>Meenakshi Udyog India Pvt Ltd.</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
@@ -43780,26 +43780,26 @@
         </is>
       </c>
       <c r="C1145">
-        <v>268443</v>
+        <v>250860</v>
       </c>
       <c r="D1145">
-        <v>48319.74000000001</v>
+        <v>0</v>
       </c>
       <c r="E1145">
-        <v>316763</v>
+        <v>296014.8</v>
       </c>
       <c r="F1145">
-        <v>42.61</v>
+        <v>41.81</v>
       </c>
       <c r="G1145">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H1145">
         <v>2</v>
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1145" s="2">
@@ -43809,35 +43809,35 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Meenakshi Udyog India Pvt Ltd.</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1146">
-        <v>250860</v>
+        <v>121716</v>
       </c>
       <c r="D1146">
-        <v>0</v>
+        <v>21908.88</v>
       </c>
       <c r="E1146">
-        <v>296014.8</v>
+        <v>143625</v>
       </c>
       <c r="F1146">
-        <v>41.81</v>
+        <v>35.28</v>
       </c>
       <c r="G1146">
-        <v>6000</v>
+        <v>3450</v>
       </c>
       <c r="H1146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1146" s="2">
@@ -43847,7 +43847,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>MTC Business Pvt Ltd</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
@@ -43856,22 +43856,22 @@
         </is>
       </c>
       <c r="C1147">
-        <v>121716</v>
+        <v>141677.6</v>
       </c>
       <c r="D1147">
-        <v>21908.88</v>
+        <v>25501.97</v>
       </c>
       <c r="E1147">
-        <v>143625</v>
+        <v>167180</v>
       </c>
       <c r="F1147">
-        <v>35.28</v>
+        <v>32.72</v>
       </c>
       <c r="G1147">
-        <v>3450</v>
+        <v>4329.999999999999</v>
       </c>
       <c r="H1147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
@@ -43885,35 +43885,35 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>MTC Business Pvt Ltd</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1148">
-        <v>141677.6</v>
+        <v>197379</v>
       </c>
       <c r="D1148">
-        <v>25501.97</v>
+        <v>35528.22</v>
       </c>
       <c r="E1148">
-        <v>167180</v>
+        <v>232907</v>
       </c>
       <c r="F1148">
-        <v>32.72</v>
+        <v>31.33</v>
       </c>
       <c r="G1148">
-        <v>4329.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H1148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1148" s="2">
@@ -43923,7 +43923,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>Sonal Vyapar Private Limited(Sonal (Salem))</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
@@ -43932,26 +43932,26 @@
         </is>
       </c>
       <c r="C1149">
-        <v>197379</v>
+        <v>197675.5</v>
       </c>
       <c r="D1149">
-        <v>35528.22</v>
+        <v>35581.59</v>
       </c>
       <c r="E1149">
-        <v>232907</v>
+        <v>233257</v>
       </c>
       <c r="F1149">
-        <v>31.33</v>
+        <v>31.13</v>
       </c>
       <c r="G1149">
-        <v>6300</v>
+        <v>6350</v>
       </c>
       <c r="H1149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1149" s="2">
@@ -43961,7 +43961,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Sonal Vyapar Private Limited(Sonal (Salem))</t>
+          <t>Sri Vinayaga Alloys (P) Ltd MMPL</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
@@ -43970,26 +43970,26 @@
         </is>
       </c>
       <c r="C1150">
-        <v>197675.5</v>
+        <v>194166</v>
       </c>
       <c r="D1150">
-        <v>35581.59</v>
+        <v>34949.88</v>
       </c>
       <c r="E1150">
-        <v>233257</v>
+        <v>229116</v>
       </c>
       <c r="F1150">
-        <v>31.13</v>
+        <v>30.82</v>
       </c>
       <c r="G1150">
-        <v>6350</v>
+        <v>6300</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1150" s="2">
@@ -43999,7 +43999,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Sri Vinayaga Alloys (P) Ltd</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
@@ -44008,16 +44008,16 @@
         </is>
       </c>
       <c r="C1151">
-        <v>194166</v>
+        <v>192024</v>
       </c>
       <c r="D1151">
-        <v>34949.88</v>
+        <v>34564.32</v>
       </c>
       <c r="E1151">
-        <v>229116</v>
+        <v>226588</v>
       </c>
       <c r="F1151">
-        <v>30.82</v>
+        <v>30.48</v>
       </c>
       <c r="G1151">
         <v>6300</v>
@@ -44037,35 +44037,35 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1152">
-        <v>192024</v>
+        <v>69828</v>
       </c>
       <c r="D1152">
-        <v>34564.32</v>
+        <v>3491.4</v>
       </c>
       <c r="E1152">
-        <v>226588</v>
+        <v>73320</v>
       </c>
       <c r="F1152">
-        <v>30.48</v>
+        <v>30.36</v>
       </c>
       <c r="G1152">
-        <v>6300</v>
+        <v>2300</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1152" s="2">
@@ -44075,35 +44075,35 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1153">
-        <v>69828</v>
+        <v>190260</v>
       </c>
       <c r="D1153">
-        <v>3491.4</v>
+        <v>34246.8</v>
       </c>
       <c r="E1153">
-        <v>73320</v>
+        <v>224507</v>
       </c>
       <c r="F1153">
-        <v>30.36</v>
+        <v>30.2</v>
       </c>
       <c r="G1153">
-        <v>2300</v>
+        <v>6300</v>
       </c>
       <c r="H1153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1153" s="2">
@@ -44151,7 +44151,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED MMPL</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
@@ -44179,7 +44179,7 @@
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1155" s="2">
@@ -44189,7 +44189,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED MMPL</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
@@ -44198,26 +44198,26 @@
         </is>
       </c>
       <c r="C1156">
-        <v>203420</v>
+        <v>183000</v>
       </c>
       <c r="D1156">
-        <v>36615.6</v>
+        <v>32940</v>
       </c>
       <c r="E1156">
-        <v>240036</v>
+        <v>215940</v>
       </c>
       <c r="F1156">
-        <v>29.06</v>
+        <v>30</v>
       </c>
       <c r="G1156">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="H1156">
         <v>1</v>
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1156" s="2">
@@ -44227,7 +44227,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Sri Vigneshwara Steels (p) Ltd MMPL</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
@@ -44236,26 +44236,26 @@
         </is>
       </c>
       <c r="C1157">
-        <v>80073</v>
+        <v>189000</v>
       </c>
       <c r="D1157">
-        <v>15537.52</v>
+        <v>34020</v>
       </c>
       <c r="E1157">
-        <v>101857</v>
+        <v>223020</v>
       </c>
       <c r="F1157">
-        <v>25.42</v>
+        <v>30</v>
       </c>
       <c r="G1157">
-        <v>3150</v>
+        <v>6300</v>
       </c>
       <c r="H1157">
         <v>1</v>
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1157" s="2">
@@ -44265,28 +44265,28 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1158">
-        <v>207460</v>
+        <v>203420</v>
       </c>
       <c r="D1158">
-        <v>43932.6</v>
+        <v>36615.6</v>
       </c>
       <c r="E1158">
-        <v>288003</v>
+        <v>240036</v>
       </c>
       <c r="F1158">
-        <v>25.3</v>
+        <v>29.06</v>
       </c>
       <c r="G1158">
-        <v>8200</v>
+        <v>7000</v>
       </c>
       <c r="H1158">
         <v>1</v>
@@ -44303,35 +44303,35 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1159">
-        <v>68512</v>
+        <v>157929</v>
       </c>
       <c r="D1159">
-        <v>0</v>
+        <v>30684.42</v>
       </c>
       <c r="E1159">
-        <v>71937.60000000001</v>
+        <v>201153</v>
       </c>
       <c r="F1159">
-        <v>21.41</v>
+        <v>25.89</v>
       </c>
       <c r="G1159">
-        <v>3200</v>
+        <v>6100</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1159" s="2">
@@ -44341,28 +44341,28 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1160">
-        <v>54182.4</v>
+        <v>80073</v>
       </c>
       <c r="D1160">
-        <v>2709.12</v>
+        <v>15537.52</v>
       </c>
       <c r="E1160">
-        <v>56892</v>
+        <v>101857</v>
       </c>
       <c r="F1160">
-        <v>19.92</v>
+        <v>25.42</v>
       </c>
       <c r="G1160">
-        <v>2720</v>
+        <v>3150</v>
       </c>
       <c r="H1160">
         <v>1</v>
@@ -44379,31 +44379,31 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1161">
-        <v>18181.5</v>
+        <v>207460</v>
       </c>
       <c r="D1161">
-        <v>0</v>
+        <v>43932.6</v>
       </c>
       <c r="E1161">
-        <v>19090.575</v>
+        <v>288003</v>
       </c>
       <c r="F1161">
-        <v>11.73</v>
+        <v>25.3</v>
       </c>
       <c r="G1161">
-        <v>1550</v>
+        <v>8200</v>
       </c>
       <c r="H1161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1161" t="inlineStr">
         <is>
@@ -44417,31 +44417,31 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1162">
-        <v>36610</v>
+        <v>68512</v>
       </c>
       <c r="D1162">
         <v>0</v>
       </c>
       <c r="E1162">
-        <v>43199.8</v>
+        <v>71937.60000000001</v>
       </c>
       <c r="F1162">
-        <v>5.23</v>
+        <v>21.41</v>
       </c>
       <c r="G1162">
-        <v>6999.999999999999</v>
+        <v>3200</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr">
         <is>
@@ -44455,35 +44455,35 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1163">
-        <v>12540</v>
+        <v>54182.4</v>
       </c>
       <c r="D1163">
-        <v>0</v>
+        <v>2709.12</v>
       </c>
       <c r="E1163">
-        <v>13167</v>
+        <v>56892</v>
       </c>
       <c r="F1163">
-        <v>4.18</v>
+        <v>19.92</v>
       </c>
       <c r="G1163">
-        <v>3000</v>
+        <v>2720</v>
       </c>
       <c r="H1163">
         <v>1</v>
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1163" s="2">
@@ -44493,31 +44493,31 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1164">
-        <v>8480</v>
+        <v>18181.5</v>
       </c>
       <c r="D1164">
-        <v>1526.4</v>
+        <v>0</v>
       </c>
       <c r="E1164">
-        <v>10007</v>
+        <v>19090.575</v>
       </c>
       <c r="F1164">
-        <v>1.06</v>
+        <v>11.73</v>
       </c>
       <c r="G1164">
-        <v>8000</v>
+        <v>1550</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr">
         <is>
@@ -44531,33 +44531,147 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
+          <t>Kannappan Alloys and Steel Company Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Boric Acid Premix</t>
+        </is>
+      </c>
+      <c r="C1165">
+        <v>36610</v>
+      </c>
+      <c r="D1165">
+        <v>0</v>
+      </c>
+      <c r="E1165">
+        <v>43199.8</v>
+      </c>
+      <c r="F1165">
+        <v>5.23</v>
+      </c>
+      <c r="G1165">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="H1165">
+        <v>1</v>
+      </c>
+      <c r="I1165" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1165" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>ILC IRON &amp; STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C1166">
+        <v>12540</v>
+      </c>
+      <c r="D1166">
+        <v>0</v>
+      </c>
+      <c r="E1166">
+        <v>13167</v>
+      </c>
+      <c r="F1166">
+        <v>4.18</v>
+      </c>
+      <c r="G1166">
+        <v>3000</v>
+      </c>
+      <c r="H1166">
+        <v>1</v>
+      </c>
+      <c r="I1166" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J1166" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>SAMKRG PISTONS AND RINGS LIMITED</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C1167">
+        <v>8480</v>
+      </c>
+      <c r="D1167">
+        <v>1526.4</v>
+      </c>
+      <c r="E1167">
+        <v>10007</v>
+      </c>
+      <c r="F1167">
+        <v>1.06</v>
+      </c>
+      <c r="G1167">
+        <v>8000</v>
+      </c>
+      <c r="H1167">
+        <v>1</v>
+      </c>
+      <c r="I1167" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1167" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
           <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
-      <c r="C1165">
+      <c r="C1168">
         <v>87000</v>
       </c>
-      <c r="D1165">
+      <c r="D1168">
         <v>15660</v>
       </c>
-      <c r="E1165">
+      <c r="E1168">
         <v>102660</v>
       </c>
-      <c r="F1165">
+      <c r="F1168">
         <v>0.5</v>
       </c>
-      <c r="G1165">
+      <c r="G1168">
         <v>174000</v>
       </c>
-      <c r="H1165">
-        <v>1</v>
-      </c>
-      <c r="I1165" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="J1165" s="2">
+      <c r="H1168">
+        <v>1</v>
+      </c>
+      <c r="I1168" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J1168" s="2">
         <v>45383</v>
       </c>
     </row>

--- a/src/customers.xlsx
+++ b/src/customers.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1168"/>
+  <dimension ref="A1:J1167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35165,7 +35165,7 @@
         </is>
       </c>
       <c r="C917">
-        <v>321595</v>
+        <v>324160</v>
       </c>
       <c r="D917">
         <v>204938.55</v>
@@ -35177,7 +35177,7 @@
         <v>50.65</v>
       </c>
       <c r="G917">
-        <v>6349.358341559724</v>
+        <v>6400</v>
       </c>
       <c r="H917">
         <v>2</v>
@@ -41575,35 +41575,35 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1087">
-        <v>1197000</v>
+        <v>1128450</v>
       </c>
       <c r="D1087">
-        <v>215460</v>
+        <v>203121</v>
       </c>
       <c r="E1087">
-        <v>1412461</v>
+        <v>1331572</v>
       </c>
       <c r="F1087">
-        <v>142.5</v>
+        <v>150.46</v>
       </c>
       <c r="G1087">
-        <v>8400</v>
+        <v>7500.000000000001</v>
       </c>
       <c r="H1087">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J1087" s="2">
@@ -41613,7 +41613,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
@@ -41622,26 +41622,26 @@
         </is>
       </c>
       <c r="C1088">
-        <v>1114240</v>
+        <v>1197000</v>
       </c>
       <c r="D1088">
-        <v>200563.2</v>
+        <v>215460</v>
       </c>
       <c r="E1088">
-        <v>1314803</v>
+        <v>1412461</v>
       </c>
       <c r="F1088">
-        <v>139.28</v>
+        <v>142.5</v>
       </c>
       <c r="G1088">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="H1088">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1088" s="2">
@@ -41651,7 +41651,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
@@ -41660,26 +41660,26 @@
         </is>
       </c>
       <c r="C1089">
-        <v>908732</v>
+        <v>1114240</v>
       </c>
       <c r="D1089">
-        <v>163571.76</v>
+        <v>200563.2</v>
       </c>
       <c r="E1089">
-        <v>1072304</v>
+        <v>1314803</v>
       </c>
       <c r="F1089">
-        <v>119.57</v>
+        <v>139.28</v>
       </c>
       <c r="G1089">
-        <v>7599.999999999999</v>
+        <v>8000</v>
       </c>
       <c r="H1089">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1089" s="2">
@@ -41689,35 +41689,35 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1090">
-        <v>361920</v>
+        <v>908732</v>
       </c>
       <c r="D1090">
-        <v>65145.6</v>
+        <v>163571.76</v>
       </c>
       <c r="E1090">
-        <v>427065</v>
+        <v>1072304</v>
       </c>
       <c r="F1090">
-        <v>113.1</v>
+        <v>119.57</v>
       </c>
       <c r="G1090">
-        <v>3200</v>
+        <v>7599.999999999999</v>
       </c>
       <c r="H1090">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J1090" s="2">
@@ -41727,35 +41727,35 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1091">
-        <v>828300</v>
+        <v>361920</v>
       </c>
       <c r="D1091">
-        <v>149094</v>
+        <v>65145.6</v>
       </c>
       <c r="E1091">
-        <v>977395</v>
+        <v>427065</v>
       </c>
       <c r="F1091">
-        <v>110.44</v>
+        <v>113.1</v>
       </c>
       <c r="G1091">
-        <v>7500</v>
+        <v>3200</v>
       </c>
       <c r="H1091">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1091" s="2">
@@ -42069,35 +42069,35 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Suryadev Alloys &amp; Power Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1100">
-        <v>300150</v>
+        <v>57474</v>
       </c>
       <c r="D1100">
-        <v>54027</v>
+        <v>13010.4</v>
       </c>
       <c r="E1100">
-        <v>354177</v>
+        <v>60347.7</v>
       </c>
       <c r="F1100">
-        <v>40.02</v>
+        <v>37.08</v>
       </c>
       <c r="G1100">
-        <v>7500.000000000001</v>
+        <v>1550</v>
       </c>
       <c r="H1100">
         <v>2</v>
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1100" s="2">
@@ -42107,7 +42107,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
@@ -42116,26 +42116,26 @@
         </is>
       </c>
       <c r="C1101">
-        <v>57474</v>
+        <v>120870</v>
       </c>
       <c r="D1101">
-        <v>13010.4</v>
+        <v>21756.6</v>
       </c>
       <c r="E1101">
-        <v>60347.7</v>
+        <v>142627</v>
       </c>
       <c r="F1101">
-        <v>37.08</v>
+        <v>35.55</v>
       </c>
       <c r="G1101">
-        <v>1550</v>
+        <v>3400</v>
       </c>
       <c r="H1101">
         <v>2</v>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J1101" s="2">
@@ -42145,7 +42145,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
@@ -42154,22 +42154,22 @@
         </is>
       </c>
       <c r="C1102">
-        <v>120870</v>
+        <v>119782</v>
       </c>
       <c r="D1102">
-        <v>21756.6</v>
+        <v>21560.76</v>
       </c>
       <c r="E1102">
-        <v>142627</v>
+        <v>141343</v>
       </c>
       <c r="F1102">
-        <v>35.55</v>
+        <v>35.23</v>
       </c>
       <c r="G1102">
         <v>3400</v>
       </c>
       <c r="H1102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
@@ -42183,31 +42183,31 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1103">
-        <v>119782</v>
+        <v>221319</v>
       </c>
       <c r="D1103">
-        <v>21560.76</v>
+        <v>39837.42</v>
       </c>
       <c r="E1103">
-        <v>141343</v>
+        <v>261156</v>
       </c>
       <c r="F1103">
-        <v>35.23</v>
+        <v>35.13</v>
       </c>
       <c r="G1103">
-        <v>3400</v>
+        <v>6299.999999999999</v>
       </c>
       <c r="H1103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
@@ -42221,7 +42221,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>MOHIT STEEL INDUSTRIES PVT LTD</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
@@ -42230,19 +42230,19 @@
         </is>
       </c>
       <c r="C1104">
-        <v>221319</v>
+        <v>226459.5</v>
       </c>
       <c r="D1104">
-        <v>39837.42</v>
+        <v>40762.71</v>
       </c>
       <c r="E1104">
-        <v>261156</v>
+        <v>267222</v>
       </c>
       <c r="F1104">
-        <v>35.13</v>
+        <v>35.11</v>
       </c>
       <c r="G1104">
-        <v>6299.999999999999</v>
+        <v>6450</v>
       </c>
       <c r="H1104">
         <v>2</v>
@@ -42259,7 +42259,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
@@ -42268,26 +42268,26 @@
         </is>
       </c>
       <c r="C1105">
-        <v>226459.5</v>
+        <v>220752</v>
       </c>
       <c r="D1105">
-        <v>40762.71</v>
+        <v>39735.36</v>
       </c>
       <c r="E1105">
-        <v>267222</v>
+        <v>260488</v>
       </c>
       <c r="F1105">
-        <v>35.11</v>
+        <v>35.04</v>
       </c>
       <c r="G1105">
-        <v>6450</v>
+        <v>6300</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1105" s="2">
@@ -42297,7 +42297,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
@@ -42306,16 +42306,16 @@
         </is>
       </c>
       <c r="C1106">
-        <v>220752</v>
+        <v>220689</v>
       </c>
       <c r="D1106">
-        <v>39735.36</v>
+        <v>39724.02</v>
       </c>
       <c r="E1106">
-        <v>260488</v>
+        <v>260413</v>
       </c>
       <c r="F1106">
-        <v>35.04</v>
+        <v>35.03</v>
       </c>
       <c r="G1106">
         <v>6300</v>
@@ -42325,7 +42325,7 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J1106" s="2">
@@ -42335,7 +42335,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>SHRADDHA ISPAT-MELTING DIVISION</t>
+          <t>Orange Fox Steel Pvt Ltd</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
@@ -42344,19 +42344,19 @@
         </is>
       </c>
       <c r="C1107">
-        <v>220689</v>
+        <v>222847.5</v>
       </c>
       <c r="D1107">
-        <v>39724.02</v>
+        <v>40112.55</v>
       </c>
       <c r="E1107">
-        <v>260413</v>
+        <v>262960.05</v>
       </c>
       <c r="F1107">
-        <v>35.03</v>
+        <v>34.55</v>
       </c>
       <c r="G1107">
-        <v>6300</v>
+        <v>6450</v>
       </c>
       <c r="H1107">
         <v>1</v>
@@ -42373,35 +42373,35 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Orange Fox Steel Pvt Ltd</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C1108">
-        <v>222847.5</v>
+        <v>125025</v>
       </c>
       <c r="D1108">
-        <v>40112.55</v>
+        <v>12730.52</v>
       </c>
       <c r="E1108">
-        <v>262960.05</v>
+        <v>147530</v>
       </c>
       <c r="F1108">
-        <v>34.55</v>
+        <v>33.34</v>
       </c>
       <c r="G1108">
-        <v>6450</v>
+        <v>3750</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1108" s="2">
@@ -42411,31 +42411,31 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1109">
-        <v>125025</v>
+        <v>83912</v>
       </c>
       <c r="D1109">
-        <v>12730.52</v>
+        <v>4195.6</v>
       </c>
       <c r="E1109">
-        <v>147530</v>
+        <v>88108</v>
       </c>
       <c r="F1109">
-        <v>33.34</v>
+        <v>30.85</v>
       </c>
       <c r="G1109">
-        <v>3750</v>
+        <v>2720</v>
       </c>
       <c r="H1109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
@@ -42449,35 +42449,35 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>ARDEX ENDURA (INDIA) PRIVATE LIMITED Quartztech</t>
+          <t>Sri Vigneshwara Steels (p) Ltd</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1110">
-        <v>83912</v>
+        <v>185787</v>
       </c>
       <c r="D1110">
-        <v>4195.6</v>
+        <v>33441.66</v>
       </c>
       <c r="E1110">
-        <v>88108</v>
+        <v>219229</v>
       </c>
       <c r="F1110">
-        <v>30.85</v>
+        <v>29.49</v>
       </c>
       <c r="G1110">
-        <v>2720</v>
+        <v>6300</v>
       </c>
       <c r="H1110">
         <v>1</v>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1110" s="2">
@@ -42487,35 +42487,35 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Sri Vigneshwara Steels (p) Ltd</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1111">
-        <v>185787</v>
+        <v>95185.5</v>
       </c>
       <c r="D1111">
-        <v>33441.66</v>
+        <v>17133.39</v>
       </c>
       <c r="E1111">
-        <v>219229</v>
+        <v>112319</v>
       </c>
       <c r="F1111">
-        <v>29.49</v>
+        <v>27.59</v>
       </c>
       <c r="G1111">
-        <v>6300</v>
+        <v>3450</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1111" s="2">
@@ -42525,31 +42525,31 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>S.R. STEEL PVT LTD</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C1112">
-        <v>95185.5</v>
+        <v>227649.006</v>
       </c>
       <c r="D1112">
-        <v>17133.39</v>
+        <v>0</v>
       </c>
       <c r="E1112">
-        <v>112319</v>
+        <v>227649.01</v>
       </c>
       <c r="F1112">
-        <v>27.59</v>
+        <v>26.7</v>
       </c>
       <c r="G1112">
-        <v>3450</v>
+        <v>8526.18</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
@@ -42563,35 +42563,35 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>S.R. STEEL PVT LTD</t>
+          <t>PREMIUM FERRO ALLOYS LIMITED</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C1113">
-        <v>227649.006</v>
+        <v>163296</v>
       </c>
       <c r="D1113">
-        <v>0</v>
+        <v>29393.28</v>
       </c>
       <c r="E1113">
-        <v>227649.01</v>
+        <v>192689</v>
       </c>
       <c r="F1113">
-        <v>26.7</v>
+        <v>25.92</v>
       </c>
       <c r="G1113">
-        <v>8526.18</v>
+        <v>6300</v>
       </c>
       <c r="H1113">
         <v>1</v>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J1113" s="2">
@@ -42601,7 +42601,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>PREMIUM FERRO ALLOYS LIMITED</t>
+          <t>Govaan Steel Private Limited Quartztech</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
@@ -42610,26 +42610,26 @@
         </is>
       </c>
       <c r="C1114">
-        <v>163296</v>
+        <v>132288</v>
       </c>
       <c r="D1114">
-        <v>29393.28</v>
+        <v>23811.84</v>
       </c>
       <c r="E1114">
-        <v>192689</v>
+        <v>156100</v>
       </c>
       <c r="F1114">
-        <v>25.92</v>
+        <v>24.96</v>
       </c>
       <c r="G1114">
-        <v>6300</v>
+        <v>5300</v>
       </c>
       <c r="H1114">
         <v>1</v>
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J1114" s="2">
@@ -42639,28 +42639,28 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Govaan Steel Private Limited Quartztech</t>
+          <t>Ardex Endura (India) Private Ltd</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C1115">
-        <v>132288</v>
+        <v>96200</v>
       </c>
       <c r="D1115">
-        <v>23811.84</v>
+        <v>4810</v>
       </c>
       <c r="E1115">
-        <v>156100</v>
+        <v>101010</v>
       </c>
       <c r="F1115">
-        <v>24.96</v>
+        <v>24.05</v>
       </c>
       <c r="G1115">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="H1115">
         <v>1</v>
@@ -42677,31 +42677,28 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Ardex Endura (India) Private Ltd</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C1116">
-        <v>96200</v>
+        <v>37904</v>
       </c>
       <c r="D1116">
-        <v>4810</v>
-      </c>
-      <c r="E1116">
-        <v>101010</v>
+        <v>18734.58</v>
       </c>
       <c r="F1116">
-        <v>24.05</v>
+        <v>23.69</v>
       </c>
       <c r="G1116">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="H1116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr">
  